--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="938">
   <si>
     <t>Number</t>
   </si>
@@ -3002,18 +3002,90 @@
     <t>actual (adj.)</t>
   </si>
   <si>
-    <t>We had estimated about 300 visitors, but the actual number was much higher.
-The exams are in July, but the actual results (= the results themselves) don't appear until September.</t>
+    <t>that really happened; real:
+e.g. The actual damage to the car was not as bad as we'd feared.
+We had estimated about 300 visitors, but the actual number was much higher.
+The exams are in July, but the actual results (= the results themselves) don't appear until September.
+existing in fact; typically as contrasted with what was intended, expected, or believed.
+"the estimate was much less than the actual cost"</t>
   </si>
   <si>
     <t>واقعی</t>
+  </si>
+  <si>
+    <t>به عنوان مثال، آسیب واقعی به ماشین آنقدرها هم که می ترسیدیم بد نبود.</t>
+  </si>
+  <si>
+    <t>actually (adv.)</t>
+  </si>
+  <si>
+    <t>1- as the truth or facts of a situation; really.
+"we must pay attention to what young people are actually doing"
+----------
+2- used to emphasize that something someone has said or done is surprising.
+"he actually expected me to be pleased about it!"</t>
+  </si>
+  <si>
+    <t>در حقیقت</t>
+  </si>
+  <si>
+    <t>1- به عنوان حقیقت یا حقایق یک موقعیت; واقعا
+"ما باید توجه کنیم که جوانان واقعاً چه می کنند"
+----------
+2- برای تأکید بر اینکه چیزی گفته یا انجام داده است تعجب آور است.
+"او در واقع انتظار داشت که من از این موضوع راضی باشم!"</t>
+  </si>
+  <si>
+    <t>ad (n.) informal</t>
+  </si>
+  <si>
+    <t>short for ADVERTISEMENT</t>
+  </si>
+  <si>
+    <t>add (v.) (adds, adding, added)</t>
+  </si>
+  <si>
+    <t>to put two or more numbers or amounts together to get a total:
+add in It's $45 - $50 if you add in the cost of postage.
+add on Don't forget to add on your travelling expenses.
+We'll keep a running subtotal and add the tax on at the end.
+If you add (= calculate the total of) three and four you get seven.</t>
+  </si>
+  <si>
+    <t>plural addresses
+the number of the building and the name of the street and town where somebody lives or works.</t>
+  </si>
+  <si>
+    <t>admire (v.)</t>
+  </si>
+  <si>
+    <t>B1:
+to find someone or something attractive and pleasant to look at:
+We stood for a few moments, admiring the view.
+I was just admiring your jacket, Delia.
+regard (an object, quality, or person) with respect or warm approval.
+"I admire your courage"
+-------------------
+B2:
+to respect and approve of someone or their behaviour:
+I admired him for his determination.
+I really admire people who can work in such difficult conditions.</t>
+  </si>
+  <si>
+    <t>تحسین کردن - پسند کردن</t>
+  </si>
+  <si>
+    <t>admit (v.)</t>
+  </si>
+  <si>
+    <t>اقرار کردن - پذیرفتن</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3077,7 +3149,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3094,7 +3166,7 @@
       <name val="Nunito"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -3112,9 +3184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="14.0"/>
       <color theme="1"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -3333,10 +3410,10 @@
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3348,11 +3425,11 @@
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22152,7 +22229,9 @@
       <c r="E540" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="F540" s="14"/>
+      <c r="F540" s="47" t="s">
+        <v>923</v>
+      </c>
       <c r="G540" s="15"/>
       <c r="H540" s="16"/>
       <c r="I540" s="16"/>
@@ -22177,11 +22256,21 @@
     </row>
     <row r="541">
       <c r="A541" s="9"/>
-      <c r="B541" s="9"/>
-      <c r="C541" s="49"/>
-      <c r="D541" s="50"/>
-      <c r="E541" s="33"/>
-      <c r="F541" s="14"/>
+      <c r="B541" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C541" s="48" t="s">
+        <v>924</v>
+      </c>
+      <c r="D541" s="46" t="s">
+        <v>925</v>
+      </c>
+      <c r="E541" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="F541" s="47" t="s">
+        <v>927</v>
+      </c>
       <c r="G541" s="15"/>
       <c r="H541" s="16"/>
       <c r="I541" s="16"/>
@@ -22206,9 +22295,15 @@
     </row>
     <row r="542">
       <c r="A542" s="9"/>
-      <c r="B542" s="9"/>
-      <c r="C542" s="49"/>
-      <c r="D542" s="50"/>
+      <c r="B542" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C542" s="48" t="s">
+        <v>928</v>
+      </c>
+      <c r="D542" s="46" t="s">
+        <v>929</v>
+      </c>
       <c r="E542" s="33"/>
       <c r="F542" s="14"/>
       <c r="G542" s="15"/>
@@ -22235,9 +22330,15 @@
     </row>
     <row r="543">
       <c r="A543" s="9"/>
-      <c r="B543" s="9"/>
-      <c r="C543" s="49"/>
-      <c r="D543" s="50"/>
+      <c r="B543" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C543" s="48" t="s">
+        <v>930</v>
+      </c>
+      <c r="D543" s="46" t="s">
+        <v>931</v>
+      </c>
       <c r="E543" s="33"/>
       <c r="F543" s="14"/>
       <c r="G543" s="15"/>
@@ -22264,9 +22365,15 @@
     </row>
     <row r="544">
       <c r="A544" s="9"/>
-      <c r="B544" s="9"/>
-      <c r="C544" s="49"/>
-      <c r="D544" s="50"/>
+      <c r="B544" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C544" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D544" s="46" t="s">
+        <v>932</v>
+      </c>
       <c r="E544" s="33"/>
       <c r="F544" s="14"/>
       <c r="G544" s="15"/>
@@ -22293,10 +22400,18 @@
     </row>
     <row r="545">
       <c r="A545" s="9"/>
-      <c r="B545" s="9"/>
-      <c r="C545" s="49"/>
-      <c r="D545" s="50"/>
-      <c r="E545" s="33"/>
+      <c r="B545" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C545" s="45" t="s">
+        <v>933</v>
+      </c>
+      <c r="D545" s="46" t="s">
+        <v>934</v>
+      </c>
+      <c r="E545" s="36" t="s">
+        <v>935</v>
+      </c>
       <c r="F545" s="14"/>
       <c r="G545" s="15"/>
       <c r="H545" s="16"/>
@@ -22322,10 +22437,18 @@
     </row>
     <row r="546">
       <c r="A546" s="9"/>
-      <c r="B546" s="9"/>
-      <c r="C546" s="49"/>
-      <c r="D546" s="50"/>
-      <c r="E546" s="33"/>
+      <c r="B546" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C546" s="45" t="s">
+        <v>933</v>
+      </c>
+      <c r="D546" s="46" t="s">
+        <v>934</v>
+      </c>
+      <c r="E546" s="36" t="s">
+        <v>935</v>
+      </c>
       <c r="F546" s="14"/>
       <c r="G546" s="15"/>
       <c r="H546" s="16"/>
@@ -22351,10 +22474,16 @@
     </row>
     <row r="547">
       <c r="A547" s="9"/>
-      <c r="B547" s="9"/>
-      <c r="C547" s="49"/>
-      <c r="D547" s="50"/>
-      <c r="E547" s="33"/>
+      <c r="B547" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C547" s="45" t="s">
+        <v>936</v>
+      </c>
+      <c r="D547" s="49"/>
+      <c r="E547" s="36" t="s">
+        <v>937</v>
+      </c>
       <c r="F547" s="14"/>
       <c r="G547" s="15"/>
       <c r="H547" s="16"/>
@@ -22381,8 +22510,8 @@
     <row r="548">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
-      <c r="C548" s="49"/>
-      <c r="D548" s="50"/>
+      <c r="C548" s="50"/>
+      <c r="D548" s="49"/>
       <c r="E548" s="33"/>
       <c r="F548" s="14"/>
       <c r="G548" s="15"/>
@@ -22410,8 +22539,8 @@
     <row r="549">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
-      <c r="C549" s="49"/>
-      <c r="D549" s="50"/>
+      <c r="C549" s="50"/>
+      <c r="D549" s="49"/>
       <c r="E549" s="33"/>
       <c r="F549" s="14"/>
       <c r="G549" s="15"/>
@@ -22439,8 +22568,8 @@
     <row r="550">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
-      <c r="C550" s="49"/>
-      <c r="D550" s="50"/>
+      <c r="C550" s="50"/>
+      <c r="D550" s="49"/>
       <c r="E550" s="33"/>
       <c r="F550" s="14"/>
       <c r="G550" s="15"/>
@@ -22468,8 +22597,8 @@
     <row r="551">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
-      <c r="C551" s="49"/>
-      <c r="D551" s="50"/>
+      <c r="C551" s="50"/>
+      <c r="D551" s="49"/>
       <c r="E551" s="33"/>
       <c r="F551" s="14"/>
       <c r="G551" s="15"/>
@@ -22497,8 +22626,8 @@
     <row r="552">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
-      <c r="C552" s="49"/>
-      <c r="D552" s="50"/>
+      <c r="C552" s="50"/>
+      <c r="D552" s="49"/>
       <c r="E552" s="33"/>
       <c r="F552" s="14"/>
       <c r="G552" s="15"/>
@@ -22526,8 +22655,8 @@
     <row r="553">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
-      <c r="C553" s="49"/>
-      <c r="D553" s="50"/>
+      <c r="C553" s="50"/>
+      <c r="D553" s="49"/>
       <c r="E553" s="33"/>
       <c r="F553" s="14"/>
       <c r="G553" s="15"/>
@@ -22555,8 +22684,8 @@
     <row r="554">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
-      <c r="C554" s="49"/>
-      <c r="D554" s="50"/>
+      <c r="C554" s="50"/>
+      <c r="D554" s="49"/>
       <c r="E554" s="33"/>
       <c r="F554" s="14"/>
       <c r="G554" s="15"/>
@@ -22584,8 +22713,8 @@
     <row r="555">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
-      <c r="C555" s="49"/>
-      <c r="D555" s="50"/>
+      <c r="C555" s="50"/>
+      <c r="D555" s="49"/>
       <c r="E555" s="33"/>
       <c r="F555" s="14"/>
       <c r="G555" s="15"/>
@@ -22613,8 +22742,8 @@
     <row r="556">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
-      <c r="C556" s="49"/>
-      <c r="D556" s="50"/>
+      <c r="C556" s="50"/>
+      <c r="D556" s="49"/>
       <c r="E556" s="33"/>
       <c r="F556" s="14"/>
       <c r="G556" s="15"/>
@@ -22642,8 +22771,8 @@
     <row r="557">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
-      <c r="C557" s="49"/>
-      <c r="D557" s="50"/>
+      <c r="C557" s="50"/>
+      <c r="D557" s="49"/>
       <c r="E557" s="33"/>
       <c r="F557" s="14"/>
       <c r="G557" s="15"/>
@@ -22671,8 +22800,8 @@
     <row r="558">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
-      <c r="C558" s="49"/>
-      <c r="D558" s="50"/>
+      <c r="C558" s="50"/>
+      <c r="D558" s="49"/>
       <c r="E558" s="33"/>
       <c r="F558" s="14"/>
       <c r="G558" s="15"/>
@@ -22700,8 +22829,8 @@
     <row r="559">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
-      <c r="C559" s="49"/>
-      <c r="D559" s="50"/>
+      <c r="C559" s="50"/>
+      <c r="D559" s="49"/>
       <c r="E559" s="33"/>
       <c r="F559" s="14"/>
       <c r="G559" s="15"/>
@@ -22729,8 +22858,8 @@
     <row r="560">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
-      <c r="C560" s="49"/>
-      <c r="D560" s="50"/>
+      <c r="C560" s="50"/>
+      <c r="D560" s="49"/>
       <c r="E560" s="33"/>
       <c r="F560" s="14"/>
       <c r="G560" s="15"/>
@@ -22758,8 +22887,8 @@
     <row r="561">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
-      <c r="C561" s="49"/>
-      <c r="D561" s="50"/>
+      <c r="C561" s="50"/>
+      <c r="D561" s="49"/>
       <c r="E561" s="33"/>
       <c r="F561" s="14"/>
       <c r="G561" s="15"/>
@@ -22787,8 +22916,8 @@
     <row r="562">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
-      <c r="C562" s="49"/>
-      <c r="D562" s="50"/>
+      <c r="C562" s="50"/>
+      <c r="D562" s="49"/>
       <c r="E562" s="33"/>
       <c r="F562" s="14"/>
       <c r="G562" s="15"/>
@@ -22816,8 +22945,8 @@
     <row r="563">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
-      <c r="C563" s="49"/>
-      <c r="D563" s="50"/>
+      <c r="C563" s="50"/>
+      <c r="D563" s="49"/>
       <c r="E563" s="33"/>
       <c r="F563" s="14"/>
       <c r="G563" s="15"/>
@@ -22845,8 +22974,8 @@
     <row r="564">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
-      <c r="C564" s="49"/>
-      <c r="D564" s="50"/>
+      <c r="C564" s="50"/>
+      <c r="D564" s="49"/>
       <c r="E564" s="33"/>
       <c r="F564" s="14"/>
       <c r="G564" s="15"/>
@@ -22874,8 +23003,8 @@
     <row r="565">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
-      <c r="C565" s="49"/>
-      <c r="D565" s="50"/>
+      <c r="C565" s="50"/>
+      <c r="D565" s="49"/>
       <c r="E565" s="33"/>
       <c r="F565" s="14"/>
       <c r="G565" s="15"/>
@@ -22903,8 +23032,8 @@
     <row r="566">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
-      <c r="C566" s="49"/>
-      <c r="D566" s="50"/>
+      <c r="C566" s="50"/>
+      <c r="D566" s="49"/>
       <c r="E566" s="33"/>
       <c r="F566" s="14"/>
       <c r="G566" s="15"/>
@@ -22932,8 +23061,8 @@
     <row r="567">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
-      <c r="C567" s="49"/>
-      <c r="D567" s="50"/>
+      <c r="C567" s="50"/>
+      <c r="D567" s="49"/>
       <c r="E567" s="33"/>
       <c r="F567" s="14"/>
       <c r="G567" s="15"/>
@@ -22961,8 +23090,8 @@
     <row r="568">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
-      <c r="C568" s="49"/>
-      <c r="D568" s="50"/>
+      <c r="C568" s="50"/>
+      <c r="D568" s="49"/>
       <c r="E568" s="33"/>
       <c r="F568" s="14"/>
       <c r="G568" s="15"/>
@@ -22990,8 +23119,8 @@
     <row r="569">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
-      <c r="C569" s="49"/>
-      <c r="D569" s="50"/>
+      <c r="C569" s="50"/>
+      <c r="D569" s="49"/>
       <c r="E569" s="33"/>
       <c r="F569" s="14"/>
       <c r="G569" s="15"/>
@@ -23019,8 +23148,8 @@
     <row r="570">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
-      <c r="C570" s="49"/>
-      <c r="D570" s="50"/>
+      <c r="C570" s="50"/>
+      <c r="D570" s="49"/>
       <c r="E570" s="33"/>
       <c r="F570" s="14"/>
       <c r="G570" s="15"/>
@@ -23048,8 +23177,8 @@
     <row r="571">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
-      <c r="C571" s="49"/>
-      <c r="D571" s="50"/>
+      <c r="C571" s="50"/>
+      <c r="D571" s="49"/>
       <c r="E571" s="33"/>
       <c r="F571" s="14"/>
       <c r="G571" s="15"/>
@@ -23077,8 +23206,8 @@
     <row r="572">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
-      <c r="C572" s="49"/>
-      <c r="D572" s="50"/>
+      <c r="C572" s="50"/>
+      <c r="D572" s="49"/>
       <c r="E572" s="33"/>
       <c r="F572" s="14"/>
       <c r="G572" s="15"/>
@@ -23106,8 +23235,8 @@
     <row r="573">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
-      <c r="C573" s="49"/>
-      <c r="D573" s="50"/>
+      <c r="C573" s="50"/>
+      <c r="D573" s="49"/>
       <c r="E573" s="33"/>
       <c r="F573" s="14"/>
       <c r="G573" s="15"/>
@@ -23135,8 +23264,8 @@
     <row r="574">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
-      <c r="C574" s="49"/>
-      <c r="D574" s="50"/>
+      <c r="C574" s="50"/>
+      <c r="D574" s="49"/>
       <c r="E574" s="33"/>
       <c r="F574" s="14"/>
       <c r="G574" s="15"/>
@@ -23164,8 +23293,8 @@
     <row r="575">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
-      <c r="C575" s="49"/>
-      <c r="D575" s="50"/>
+      <c r="C575" s="50"/>
+      <c r="D575" s="49"/>
       <c r="E575" s="33"/>
       <c r="F575" s="14"/>
       <c r="G575" s="15"/>
@@ -23193,8 +23322,8 @@
     <row r="576">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
-      <c r="C576" s="49"/>
-      <c r="D576" s="50"/>
+      <c r="C576" s="50"/>
+      <c r="D576" s="49"/>
       <c r="E576" s="33"/>
       <c r="F576" s="14"/>
       <c r="G576" s="15"/>
@@ -23222,8 +23351,8 @@
     <row r="577">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
-      <c r="C577" s="49"/>
-      <c r="D577" s="50"/>
+      <c r="C577" s="50"/>
+      <c r="D577" s="49"/>
       <c r="E577" s="33"/>
       <c r="F577" s="14"/>
       <c r="G577" s="15"/>
@@ -23251,8 +23380,8 @@
     <row r="578">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
-      <c r="C578" s="49"/>
-      <c r="D578" s="50"/>
+      <c r="C578" s="50"/>
+      <c r="D578" s="49"/>
       <c r="E578" s="33"/>
       <c r="F578" s="14"/>
       <c r="G578" s="15"/>
@@ -23280,8 +23409,8 @@
     <row r="579">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
-      <c r="C579" s="49"/>
-      <c r="D579" s="50"/>
+      <c r="C579" s="50"/>
+      <c r="D579" s="49"/>
       <c r="E579" s="33"/>
       <c r="F579" s="14"/>
       <c r="G579" s="15"/>
@@ -23309,8 +23438,8 @@
     <row r="580">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
-      <c r="C580" s="49"/>
-      <c r="D580" s="50"/>
+      <c r="C580" s="50"/>
+      <c r="D580" s="49"/>
       <c r="E580" s="33"/>
       <c r="F580" s="14"/>
       <c r="G580" s="15"/>
@@ -23338,8 +23467,8 @@
     <row r="581">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
-      <c r="C581" s="49"/>
-      <c r="D581" s="50"/>
+      <c r="C581" s="50"/>
+      <c r="D581" s="49"/>
       <c r="E581" s="33"/>
       <c r="F581" s="14"/>
       <c r="G581" s="15"/>
@@ -23367,8 +23496,8 @@
     <row r="582">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
-      <c r="C582" s="49"/>
-      <c r="D582" s="50"/>
+      <c r="C582" s="50"/>
+      <c r="D582" s="49"/>
       <c r="E582" s="33"/>
       <c r="F582" s="14"/>
       <c r="G582" s="15"/>
@@ -23396,8 +23525,8 @@
     <row r="583">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
-      <c r="C583" s="49"/>
-      <c r="D583" s="50"/>
+      <c r="C583" s="50"/>
+      <c r="D583" s="49"/>
       <c r="E583" s="33"/>
       <c r="F583" s="14"/>
       <c r="G583" s="15"/>
@@ -23425,8 +23554,8 @@
     <row r="584">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
-      <c r="C584" s="49"/>
-      <c r="D584" s="50"/>
+      <c r="C584" s="50"/>
+      <c r="D584" s="49"/>
       <c r="E584" s="33"/>
       <c r="F584" s="14"/>
       <c r="G584" s="15"/>
@@ -23454,8 +23583,8 @@
     <row r="585">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
-      <c r="C585" s="49"/>
-      <c r="D585" s="50"/>
+      <c r="C585" s="50"/>
+      <c r="D585" s="49"/>
       <c r="E585" s="33"/>
       <c r="F585" s="14"/>
       <c r="G585" s="15"/>
@@ -23483,8 +23612,8 @@
     <row r="586">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
-      <c r="C586" s="49"/>
-      <c r="D586" s="50"/>
+      <c r="C586" s="50"/>
+      <c r="D586" s="49"/>
       <c r="E586" s="33"/>
       <c r="F586" s="14"/>
       <c r="G586" s="15"/>
@@ -23512,8 +23641,8 @@
     <row r="587">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
-      <c r="C587" s="49"/>
-      <c r="D587" s="50"/>
+      <c r="C587" s="50"/>
+      <c r="D587" s="49"/>
       <c r="E587" s="33"/>
       <c r="F587" s="14"/>
       <c r="G587" s="15"/>
@@ -23541,8 +23670,8 @@
     <row r="588">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
-      <c r="C588" s="49"/>
-      <c r="D588" s="50"/>
+      <c r="C588" s="50"/>
+      <c r="D588" s="49"/>
       <c r="E588" s="33"/>
       <c r="F588" s="14"/>
       <c r="G588" s="15"/>
@@ -23570,8 +23699,8 @@
     <row r="589">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
-      <c r="C589" s="49"/>
-      <c r="D589" s="50"/>
+      <c r="C589" s="50"/>
+      <c r="D589" s="49"/>
       <c r="E589" s="33"/>
       <c r="F589" s="14"/>
       <c r="G589" s="15"/>
@@ -23599,8 +23728,8 @@
     <row r="590">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
-      <c r="C590" s="49"/>
-      <c r="D590" s="50"/>
+      <c r="C590" s="50"/>
+      <c r="D590" s="49"/>
       <c r="E590" s="33"/>
       <c r="F590" s="14"/>
       <c r="G590" s="15"/>
@@ -23628,8 +23757,8 @@
     <row r="591">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
-      <c r="C591" s="49"/>
-      <c r="D591" s="50"/>
+      <c r="C591" s="50"/>
+      <c r="D591" s="49"/>
       <c r="E591" s="33"/>
       <c r="F591" s="14"/>
       <c r="G591" s="15"/>
@@ -23657,8 +23786,8 @@
     <row r="592">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
-      <c r="C592" s="49"/>
-      <c r="D592" s="50"/>
+      <c r="C592" s="50"/>
+      <c r="D592" s="49"/>
       <c r="E592" s="33"/>
       <c r="F592" s="14"/>
       <c r="G592" s="15"/>
@@ -23686,8 +23815,8 @@
     <row r="593">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
-      <c r="C593" s="49"/>
-      <c r="D593" s="50"/>
+      <c r="C593" s="50"/>
+      <c r="D593" s="49"/>
       <c r="E593" s="33"/>
       <c r="F593" s="14"/>
       <c r="G593" s="15"/>
@@ -23715,8 +23844,8 @@
     <row r="594">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
-      <c r="C594" s="49"/>
-      <c r="D594" s="50"/>
+      <c r="C594" s="50"/>
+      <c r="D594" s="49"/>
       <c r="E594" s="33"/>
       <c r="F594" s="14"/>
       <c r="G594" s="15"/>
@@ -23744,8 +23873,8 @@
     <row r="595">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
-      <c r="C595" s="49"/>
-      <c r="D595" s="50"/>
+      <c r="C595" s="50"/>
+      <c r="D595" s="49"/>
       <c r="E595" s="33"/>
       <c r="F595" s="14"/>
       <c r="G595" s="15"/>
@@ -23773,8 +23902,8 @@
     <row r="596">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
-      <c r="C596" s="49"/>
-      <c r="D596" s="50"/>
+      <c r="C596" s="50"/>
+      <c r="D596" s="49"/>
       <c r="E596" s="33"/>
       <c r="F596" s="14"/>
       <c r="G596" s="15"/>
@@ -23802,8 +23931,8 @@
     <row r="597">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
-      <c r="C597" s="49"/>
-      <c r="D597" s="50"/>
+      <c r="C597" s="50"/>
+      <c r="D597" s="49"/>
       <c r="E597" s="33"/>
       <c r="F597" s="14"/>
       <c r="G597" s="15"/>
@@ -23831,8 +23960,8 @@
     <row r="598">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
-      <c r="C598" s="49"/>
-      <c r="D598" s="50"/>
+      <c r="C598" s="50"/>
+      <c r="D598" s="49"/>
       <c r="E598" s="33"/>
       <c r="F598" s="14"/>
       <c r="G598" s="15"/>
@@ -23860,8 +23989,8 @@
     <row r="599">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
-      <c r="C599" s="49"/>
-      <c r="D599" s="50"/>
+      <c r="C599" s="50"/>
+      <c r="D599" s="49"/>
       <c r="E599" s="33"/>
       <c r="F599" s="14"/>
       <c r="G599" s="15"/>
@@ -23889,8 +24018,8 @@
     <row r="600">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
-      <c r="C600" s="49"/>
-      <c r="D600" s="50"/>
+      <c r="C600" s="50"/>
+      <c r="D600" s="49"/>
       <c r="E600" s="33"/>
       <c r="F600" s="14"/>
       <c r="G600" s="15"/>
@@ -23918,8 +24047,8 @@
     <row r="601">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
-      <c r="C601" s="49"/>
-      <c r="D601" s="50"/>
+      <c r="C601" s="50"/>
+      <c r="D601" s="49"/>
       <c r="E601" s="33"/>
       <c r="F601" s="14"/>
       <c r="G601" s="15"/>
@@ -23947,8 +24076,8 @@
     <row r="602">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
-      <c r="C602" s="49"/>
-      <c r="D602" s="50"/>
+      <c r="C602" s="50"/>
+      <c r="D602" s="49"/>
       <c r="E602" s="33"/>
       <c r="F602" s="14"/>
       <c r="G602" s="15"/>
@@ -23976,8 +24105,8 @@
     <row r="603">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
-      <c r="C603" s="49"/>
-      <c r="D603" s="50"/>
+      <c r="C603" s="50"/>
+      <c r="D603" s="49"/>
       <c r="E603" s="33"/>
       <c r="F603" s="14"/>
       <c r="G603" s="15"/>
@@ -24005,8 +24134,8 @@
     <row r="604">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
-      <c r="C604" s="49"/>
-      <c r="D604" s="50"/>
+      <c r="C604" s="50"/>
+      <c r="D604" s="49"/>
       <c r="E604" s="33"/>
       <c r="F604" s="14"/>
       <c r="G604" s="15"/>
@@ -24034,8 +24163,8 @@
     <row r="605">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
-      <c r="C605" s="49"/>
-      <c r="D605" s="50"/>
+      <c r="C605" s="50"/>
+      <c r="D605" s="49"/>
       <c r="E605" s="33"/>
       <c r="F605" s="14"/>
       <c r="G605" s="15"/>
@@ -24063,8 +24192,8 @@
     <row r="606">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
-      <c r="C606" s="49"/>
-      <c r="D606" s="50"/>
+      <c r="C606" s="50"/>
+      <c r="D606" s="49"/>
       <c r="E606" s="33"/>
       <c r="F606" s="14"/>
       <c r="G606" s="15"/>
@@ -24092,8 +24221,8 @@
     <row r="607">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
-      <c r="C607" s="49"/>
-      <c r="D607" s="50"/>
+      <c r="C607" s="50"/>
+      <c r="D607" s="49"/>
       <c r="E607" s="33"/>
       <c r="F607" s="14"/>
       <c r="G607" s="15"/>
@@ -24121,8 +24250,8 @@
     <row r="608">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
-      <c r="C608" s="49"/>
-      <c r="D608" s="50"/>
+      <c r="C608" s="50"/>
+      <c r="D608" s="49"/>
       <c r="E608" s="33"/>
       <c r="F608" s="14"/>
       <c r="G608" s="15"/>
@@ -24150,8 +24279,8 @@
     <row r="609">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
-      <c r="C609" s="49"/>
-      <c r="D609" s="50"/>
+      <c r="C609" s="50"/>
+      <c r="D609" s="49"/>
       <c r="E609" s="33"/>
       <c r="F609" s="14"/>
       <c r="G609" s="15"/>
@@ -24179,8 +24308,8 @@
     <row r="610">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
-      <c r="C610" s="49"/>
-      <c r="D610" s="50"/>
+      <c r="C610" s="50"/>
+      <c r="D610" s="49"/>
       <c r="E610" s="33"/>
       <c r="F610" s="14"/>
       <c r="G610" s="15"/>
@@ -24208,8 +24337,8 @@
     <row r="611">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
-      <c r="C611" s="49"/>
-      <c r="D611" s="50"/>
+      <c r="C611" s="50"/>
+      <c r="D611" s="49"/>
       <c r="E611" s="33"/>
       <c r="F611" s="14"/>
       <c r="G611" s="15"/>
@@ -24237,8 +24366,8 @@
     <row r="612">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
-      <c r="C612" s="49"/>
-      <c r="D612" s="50"/>
+      <c r="C612" s="50"/>
+      <c r="D612" s="49"/>
       <c r="E612" s="33"/>
       <c r="F612" s="14"/>
       <c r="G612" s="15"/>
@@ -24266,8 +24395,8 @@
     <row r="613">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
-      <c r="C613" s="49"/>
-      <c r="D613" s="50"/>
+      <c r="C613" s="50"/>
+      <c r="D613" s="49"/>
       <c r="E613" s="33"/>
       <c r="F613" s="14"/>
       <c r="G613" s="15"/>
@@ -24295,8 +24424,8 @@
     <row r="614">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
-      <c r="C614" s="49"/>
-      <c r="D614" s="50"/>
+      <c r="C614" s="50"/>
+      <c r="D614" s="49"/>
       <c r="E614" s="33"/>
       <c r="F614" s="14"/>
       <c r="G614" s="15"/>
@@ -24324,8 +24453,8 @@
     <row r="615">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
-      <c r="C615" s="49"/>
-      <c r="D615" s="50"/>
+      <c r="C615" s="50"/>
+      <c r="D615" s="49"/>
       <c r="E615" s="33"/>
       <c r="F615" s="14"/>
       <c r="G615" s="15"/>
@@ -24353,8 +24482,8 @@
     <row r="616">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
-      <c r="C616" s="49"/>
-      <c r="D616" s="50"/>
+      <c r="C616" s="50"/>
+      <c r="D616" s="49"/>
       <c r="E616" s="33"/>
       <c r="F616" s="14"/>
       <c r="G616" s="15"/>
@@ -24382,8 +24511,8 @@
     <row r="617">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
-      <c r="C617" s="49"/>
-      <c r="D617" s="50"/>
+      <c r="C617" s="50"/>
+      <c r="D617" s="49"/>
       <c r="E617" s="33"/>
       <c r="F617" s="14"/>
       <c r="G617" s="15"/>
@@ -24411,8 +24540,8 @@
     <row r="618">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
-      <c r="C618" s="49"/>
-      <c r="D618" s="50"/>
+      <c r="C618" s="50"/>
+      <c r="D618" s="49"/>
       <c r="E618" s="33"/>
       <c r="F618" s="14"/>
       <c r="G618" s="15"/>
@@ -24440,8 +24569,8 @@
     <row r="619">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
-      <c r="C619" s="49"/>
-      <c r="D619" s="50"/>
+      <c r="C619" s="50"/>
+      <c r="D619" s="49"/>
       <c r="E619" s="33"/>
       <c r="F619" s="14"/>
       <c r="G619" s="15"/>
@@ -24469,8 +24598,8 @@
     <row r="620">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
-      <c r="C620" s="49"/>
-      <c r="D620" s="50"/>
+      <c r="C620" s="50"/>
+      <c r="D620" s="49"/>
       <c r="E620" s="33"/>
       <c r="F620" s="14"/>
       <c r="G620" s="15"/>
@@ -24498,8 +24627,8 @@
     <row r="621">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
-      <c r="C621" s="49"/>
-      <c r="D621" s="50"/>
+      <c r="C621" s="50"/>
+      <c r="D621" s="49"/>
       <c r="E621" s="33"/>
       <c r="F621" s="14"/>
       <c r="G621" s="15"/>
@@ -24527,8 +24656,8 @@
     <row r="622">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
-      <c r="C622" s="49"/>
-      <c r="D622" s="50"/>
+      <c r="C622" s="50"/>
+      <c r="D622" s="49"/>
       <c r="E622" s="33"/>
       <c r="F622" s="14"/>
       <c r="G622" s="15"/>
@@ -24556,8 +24685,8 @@
     <row r="623">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
-      <c r="C623" s="49"/>
-      <c r="D623" s="50"/>
+      <c r="C623" s="50"/>
+      <c r="D623" s="49"/>
       <c r="E623" s="33"/>
       <c r="F623" s="14"/>
       <c r="G623" s="15"/>
@@ -24585,8 +24714,8 @@
     <row r="624">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
-      <c r="C624" s="49"/>
-      <c r="D624" s="50"/>
+      <c r="C624" s="50"/>
+      <c r="D624" s="49"/>
       <c r="E624" s="33"/>
       <c r="F624" s="14"/>
       <c r="G624" s="15"/>
@@ -24614,8 +24743,8 @@
     <row r="625">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
-      <c r="C625" s="49"/>
-      <c r="D625" s="50"/>
+      <c r="C625" s="50"/>
+      <c r="D625" s="49"/>
       <c r="E625" s="33"/>
       <c r="F625" s="14"/>
       <c r="G625" s="15"/>
@@ -24643,8 +24772,8 @@
     <row r="626">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
-      <c r="C626" s="49"/>
-      <c r="D626" s="50"/>
+      <c r="C626" s="50"/>
+      <c r="D626" s="49"/>
       <c r="E626" s="33"/>
       <c r="F626" s="14"/>
       <c r="G626" s="15"/>
@@ -24672,8 +24801,8 @@
     <row r="627">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
-      <c r="C627" s="49"/>
-      <c r="D627" s="50"/>
+      <c r="C627" s="50"/>
+      <c r="D627" s="49"/>
       <c r="E627" s="33"/>
       <c r="F627" s="14"/>
       <c r="G627" s="15"/>
@@ -24701,8 +24830,8 @@
     <row r="628">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
-      <c r="C628" s="49"/>
-      <c r="D628" s="50"/>
+      <c r="C628" s="50"/>
+      <c r="D628" s="49"/>
       <c r="E628" s="33"/>
       <c r="F628" s="14"/>
       <c r="G628" s="15"/>
@@ -24730,8 +24859,8 @@
     <row r="629">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
-      <c r="C629" s="49"/>
-      <c r="D629" s="50"/>
+      <c r="C629" s="50"/>
+      <c r="D629" s="49"/>
       <c r="E629" s="33"/>
       <c r="F629" s="14"/>
       <c r="G629" s="15"/>
@@ -24759,8 +24888,8 @@
     <row r="630">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
-      <c r="C630" s="49"/>
-      <c r="D630" s="50"/>
+      <c r="C630" s="50"/>
+      <c r="D630" s="49"/>
       <c r="E630" s="33"/>
       <c r="F630" s="14"/>
       <c r="G630" s="15"/>
@@ -24788,8 +24917,8 @@
     <row r="631">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
-      <c r="C631" s="49"/>
-      <c r="D631" s="50"/>
+      <c r="C631" s="50"/>
+      <c r="D631" s="49"/>
       <c r="E631" s="33"/>
       <c r="F631" s="14"/>
       <c r="G631" s="15"/>
@@ -24817,8 +24946,8 @@
     <row r="632">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
-      <c r="C632" s="49"/>
-      <c r="D632" s="50"/>
+      <c r="C632" s="50"/>
+      <c r="D632" s="49"/>
       <c r="E632" s="33"/>
       <c r="F632" s="14"/>
       <c r="G632" s="15"/>
@@ -24846,8 +24975,8 @@
     <row r="633">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
-      <c r="C633" s="49"/>
-      <c r="D633" s="50"/>
+      <c r="C633" s="50"/>
+      <c r="D633" s="49"/>
       <c r="E633" s="33"/>
       <c r="F633" s="14"/>
       <c r="G633" s="15"/>
@@ -24875,8 +25004,8 @@
     <row r="634">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
-      <c r="C634" s="49"/>
-      <c r="D634" s="50"/>
+      <c r="C634" s="50"/>
+      <c r="D634" s="49"/>
       <c r="E634" s="33"/>
       <c r="F634" s="14"/>
       <c r="G634" s="15"/>
@@ -24904,8 +25033,8 @@
     <row r="635">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
-      <c r="C635" s="49"/>
-      <c r="D635" s="50"/>
+      <c r="C635" s="50"/>
+      <c r="D635" s="49"/>
       <c r="E635" s="33"/>
       <c r="F635" s="14"/>
       <c r="G635" s="15"/>
@@ -24933,8 +25062,8 @@
     <row r="636">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
-      <c r="C636" s="49"/>
-      <c r="D636" s="50"/>
+      <c r="C636" s="50"/>
+      <c r="D636" s="49"/>
       <c r="E636" s="33"/>
       <c r="F636" s="14"/>
       <c r="G636" s="15"/>
@@ -24962,8 +25091,8 @@
     <row r="637">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
-      <c r="C637" s="49"/>
-      <c r="D637" s="50"/>
+      <c r="C637" s="50"/>
+      <c r="D637" s="49"/>
       <c r="E637" s="33"/>
       <c r="F637" s="14"/>
       <c r="G637" s="15"/>
@@ -24991,8 +25120,8 @@
     <row r="638">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
-      <c r="C638" s="49"/>
-      <c r="D638" s="50"/>
+      <c r="C638" s="50"/>
+      <c r="D638" s="49"/>
       <c r="E638" s="33"/>
       <c r="F638" s="14"/>
       <c r="G638" s="15"/>
@@ -25020,8 +25149,8 @@
     <row r="639">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
-      <c r="C639" s="49"/>
-      <c r="D639" s="50"/>
+      <c r="C639" s="50"/>
+      <c r="D639" s="49"/>
       <c r="E639" s="33"/>
       <c r="F639" s="14"/>
       <c r="G639" s="15"/>
@@ -25049,8 +25178,8 @@
     <row r="640">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
-      <c r="C640" s="49"/>
-      <c r="D640" s="50"/>
+      <c r="C640" s="50"/>
+      <c r="D640" s="49"/>
       <c r="E640" s="33"/>
       <c r="F640" s="14"/>
       <c r="G640" s="15"/>
@@ -25078,8 +25207,8 @@
     <row r="641">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
-      <c r="C641" s="49"/>
-      <c r="D641" s="50"/>
+      <c r="C641" s="50"/>
+      <c r="D641" s="49"/>
       <c r="E641" s="33"/>
       <c r="F641" s="14"/>
       <c r="G641" s="15"/>
@@ -25107,8 +25236,8 @@
     <row r="642">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
-      <c r="C642" s="49"/>
-      <c r="D642" s="50"/>
+      <c r="C642" s="50"/>
+      <c r="D642" s="49"/>
       <c r="E642" s="33"/>
       <c r="F642" s="14"/>
       <c r="G642" s="15"/>
@@ -25136,8 +25265,8 @@
     <row r="643">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
-      <c r="C643" s="49"/>
-      <c r="D643" s="50"/>
+      <c r="C643" s="50"/>
+      <c r="D643" s="49"/>
       <c r="E643" s="33"/>
       <c r="F643" s="14"/>
       <c r="G643" s="15"/>
@@ -25165,8 +25294,8 @@
     <row r="644">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
-      <c r="C644" s="49"/>
-      <c r="D644" s="50"/>
+      <c r="C644" s="50"/>
+      <c r="D644" s="49"/>
       <c r="E644" s="33"/>
       <c r="F644" s="14"/>
       <c r="G644" s="15"/>
@@ -25194,8 +25323,8 @@
     <row r="645">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
-      <c r="C645" s="49"/>
-      <c r="D645" s="50"/>
+      <c r="C645" s="50"/>
+      <c r="D645" s="49"/>
       <c r="E645" s="33"/>
       <c r="F645" s="14"/>
       <c r="G645" s="15"/>
@@ -25223,8 +25352,8 @@
     <row r="646">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
-      <c r="C646" s="49"/>
-      <c r="D646" s="50"/>
+      <c r="C646" s="50"/>
+      <c r="D646" s="49"/>
       <c r="E646" s="33"/>
       <c r="F646" s="14"/>
       <c r="G646" s="15"/>
@@ -25252,8 +25381,8 @@
     <row r="647">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
-      <c r="C647" s="49"/>
-      <c r="D647" s="50"/>
+      <c r="C647" s="50"/>
+      <c r="D647" s="49"/>
       <c r="E647" s="33"/>
       <c r="F647" s="14"/>
       <c r="G647" s="15"/>
@@ -25281,8 +25410,8 @@
     <row r="648">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
-      <c r="C648" s="49"/>
-      <c r="D648" s="50"/>
+      <c r="C648" s="50"/>
+      <c r="D648" s="49"/>
       <c r="E648" s="33"/>
       <c r="F648" s="14"/>
       <c r="G648" s="15"/>
@@ -25310,8 +25439,8 @@
     <row r="649">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
-      <c r="C649" s="49"/>
-      <c r="D649" s="50"/>
+      <c r="C649" s="50"/>
+      <c r="D649" s="49"/>
       <c r="E649" s="33"/>
       <c r="F649" s="14"/>
       <c r="G649" s="15"/>
@@ -25339,8 +25468,8 @@
     <row r="650">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
-      <c r="C650" s="49"/>
-      <c r="D650" s="50"/>
+      <c r="C650" s="50"/>
+      <c r="D650" s="49"/>
       <c r="E650" s="33"/>
       <c r="F650" s="14"/>
       <c r="G650" s="15"/>
@@ -25368,8 +25497,8 @@
     <row r="651">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
-      <c r="C651" s="49"/>
-      <c r="D651" s="50"/>
+      <c r="C651" s="50"/>
+      <c r="D651" s="49"/>
       <c r="E651" s="33"/>
       <c r="F651" s="14"/>
       <c r="G651" s="15"/>
@@ -25397,8 +25526,8 @@
     <row r="652">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
-      <c r="C652" s="49"/>
-      <c r="D652" s="50"/>
+      <c r="C652" s="50"/>
+      <c r="D652" s="49"/>
       <c r="E652" s="33"/>
       <c r="F652" s="14"/>
       <c r="G652" s="15"/>
@@ -25426,8 +25555,8 @@
     <row r="653">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
-      <c r="C653" s="49"/>
-      <c r="D653" s="50"/>
+      <c r="C653" s="50"/>
+      <c r="D653" s="49"/>
       <c r="E653" s="33"/>
       <c r="F653" s="14"/>
       <c r="G653" s="15"/>
@@ -25455,8 +25584,8 @@
     <row r="654">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
-      <c r="C654" s="49"/>
-      <c r="D654" s="50"/>
+      <c r="C654" s="50"/>
+      <c r="D654" s="49"/>
       <c r="E654" s="33"/>
       <c r="F654" s="14"/>
       <c r="G654" s="15"/>
@@ -25484,8 +25613,8 @@
     <row r="655">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
-      <c r="C655" s="49"/>
-      <c r="D655" s="50"/>
+      <c r="C655" s="50"/>
+      <c r="D655" s="49"/>
       <c r="E655" s="33"/>
       <c r="F655" s="14"/>
       <c r="G655" s="15"/>
@@ -25513,8 +25642,8 @@
     <row r="656">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
-      <c r="C656" s="49"/>
-      <c r="D656" s="50"/>
+      <c r="C656" s="50"/>
+      <c r="D656" s="49"/>
       <c r="E656" s="33"/>
       <c r="F656" s="14"/>
       <c r="G656" s="15"/>
@@ -25542,8 +25671,8 @@
     <row r="657">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
-      <c r="C657" s="49"/>
-      <c r="D657" s="50"/>
+      <c r="C657" s="50"/>
+      <c r="D657" s="49"/>
       <c r="E657" s="33"/>
       <c r="F657" s="14"/>
       <c r="G657" s="15"/>
@@ -25571,8 +25700,8 @@
     <row r="658">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
-      <c r="C658" s="49"/>
-      <c r="D658" s="50"/>
+      <c r="C658" s="50"/>
+      <c r="D658" s="49"/>
       <c r="E658" s="33"/>
       <c r="F658" s="14"/>
       <c r="G658" s="15"/>
@@ -25600,8 +25729,8 @@
     <row r="659">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
-      <c r="C659" s="49"/>
-      <c r="D659" s="50"/>
+      <c r="C659" s="50"/>
+      <c r="D659" s="49"/>
       <c r="E659" s="33"/>
       <c r="F659" s="14"/>
       <c r="G659" s="15"/>
@@ -25629,8 +25758,8 @@
     <row r="660">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
-      <c r="C660" s="49"/>
-      <c r="D660" s="50"/>
+      <c r="C660" s="50"/>
+      <c r="D660" s="49"/>
       <c r="E660" s="33"/>
       <c r="F660" s="14"/>
       <c r="G660" s="15"/>
@@ -25658,8 +25787,8 @@
     <row r="661">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
-      <c r="C661" s="49"/>
-      <c r="D661" s="50"/>
+      <c r="C661" s="50"/>
+      <c r="D661" s="49"/>
       <c r="E661" s="33"/>
       <c r="F661" s="14"/>
       <c r="G661" s="15"/>
@@ -25687,8 +25816,8 @@
     <row r="662">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
-      <c r="C662" s="49"/>
-      <c r="D662" s="50"/>
+      <c r="C662" s="50"/>
+      <c r="D662" s="49"/>
       <c r="E662" s="33"/>
       <c r="F662" s="14"/>
       <c r="G662" s="15"/>
@@ -25716,8 +25845,8 @@
     <row r="663">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
-      <c r="C663" s="49"/>
-      <c r="D663" s="50"/>
+      <c r="C663" s="50"/>
+      <c r="D663" s="49"/>
       <c r="E663" s="33"/>
       <c r="F663" s="14"/>
       <c r="G663" s="15"/>
@@ -25745,8 +25874,8 @@
     <row r="664">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
-      <c r="C664" s="49"/>
-      <c r="D664" s="50"/>
+      <c r="C664" s="50"/>
+      <c r="D664" s="49"/>
       <c r="E664" s="33"/>
       <c r="F664" s="14"/>
       <c r="G664" s="15"/>
@@ -25774,8 +25903,8 @@
     <row r="665">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
-      <c r="C665" s="49"/>
-      <c r="D665" s="50"/>
+      <c r="C665" s="50"/>
+      <c r="D665" s="49"/>
       <c r="E665" s="33"/>
       <c r="F665" s="14"/>
       <c r="G665" s="15"/>
@@ -25803,8 +25932,8 @@
     <row r="666">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
-      <c r="C666" s="49"/>
-      <c r="D666" s="50"/>
+      <c r="C666" s="50"/>
+      <c r="D666" s="49"/>
       <c r="E666" s="33"/>
       <c r="F666" s="14"/>
       <c r="G666" s="15"/>
@@ -25832,8 +25961,8 @@
     <row r="667">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
-      <c r="C667" s="49"/>
-      <c r="D667" s="50"/>
+      <c r="C667" s="50"/>
+      <c r="D667" s="49"/>
       <c r="E667" s="33"/>
       <c r="F667" s="14"/>
       <c r="G667" s="15"/>
@@ -25861,8 +25990,8 @@
     <row r="668">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
-      <c r="C668" s="49"/>
-      <c r="D668" s="50"/>
+      <c r="C668" s="50"/>
+      <c r="D668" s="49"/>
       <c r="E668" s="33"/>
       <c r="F668" s="14"/>
       <c r="G668" s="15"/>
@@ -25890,8 +26019,8 @@
     <row r="669">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
-      <c r="C669" s="49"/>
-      <c r="D669" s="50"/>
+      <c r="C669" s="50"/>
+      <c r="D669" s="49"/>
       <c r="E669" s="33"/>
       <c r="F669" s="14"/>
       <c r="G669" s="15"/>
@@ -25919,8 +26048,8 @@
     <row r="670">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
-      <c r="C670" s="49"/>
-      <c r="D670" s="50"/>
+      <c r="C670" s="50"/>
+      <c r="D670" s="49"/>
       <c r="E670" s="33"/>
       <c r="F670" s="14"/>
       <c r="G670" s="15"/>
@@ -25948,8 +26077,8 @@
     <row r="671">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
-      <c r="C671" s="49"/>
-      <c r="D671" s="50"/>
+      <c r="C671" s="50"/>
+      <c r="D671" s="49"/>
       <c r="E671" s="33"/>
       <c r="F671" s="14"/>
       <c r="G671" s="15"/>
@@ -25977,8 +26106,8 @@
     <row r="672">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
-      <c r="C672" s="49"/>
-      <c r="D672" s="50"/>
+      <c r="C672" s="50"/>
+      <c r="D672" s="49"/>
       <c r="E672" s="33"/>
       <c r="F672" s="14"/>
       <c r="G672" s="15"/>
@@ -26006,8 +26135,8 @@
     <row r="673">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
-      <c r="C673" s="49"/>
-      <c r="D673" s="50"/>
+      <c r="C673" s="50"/>
+      <c r="D673" s="49"/>
       <c r="E673" s="33"/>
       <c r="F673" s="14"/>
       <c r="G673" s="15"/>
@@ -26035,8 +26164,8 @@
     <row r="674">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
-      <c r="C674" s="49"/>
-      <c r="D674" s="50"/>
+      <c r="C674" s="50"/>
+      <c r="D674" s="49"/>
       <c r="E674" s="33"/>
       <c r="F674" s="14"/>
       <c r="G674" s="15"/>
@@ -26064,8 +26193,8 @@
     <row r="675">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
-      <c r="C675" s="49"/>
-      <c r="D675" s="50"/>
+      <c r="C675" s="50"/>
+      <c r="D675" s="49"/>
       <c r="E675" s="33"/>
       <c r="F675" s="14"/>
       <c r="G675" s="15"/>
@@ -26093,8 +26222,8 @@
     <row r="676">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
-      <c r="C676" s="49"/>
-      <c r="D676" s="50"/>
+      <c r="C676" s="50"/>
+      <c r="D676" s="49"/>
       <c r="E676" s="33"/>
       <c r="F676" s="14"/>
       <c r="G676" s="15"/>
@@ -26122,8 +26251,8 @@
     <row r="677">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
-      <c r="C677" s="49"/>
-      <c r="D677" s="50"/>
+      <c r="C677" s="50"/>
+      <c r="D677" s="49"/>
       <c r="E677" s="33"/>
       <c r="F677" s="14"/>
       <c r="G677" s="15"/>
@@ -26151,8 +26280,8 @@
     <row r="678">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
-      <c r="C678" s="49"/>
-      <c r="D678" s="50"/>
+      <c r="C678" s="50"/>
+      <c r="D678" s="49"/>
       <c r="E678" s="33"/>
       <c r="F678" s="14"/>
       <c r="G678" s="15"/>
@@ -26180,8 +26309,8 @@
     <row r="679">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
-      <c r="C679" s="49"/>
-      <c r="D679" s="50"/>
+      <c r="C679" s="50"/>
+      <c r="D679" s="49"/>
       <c r="E679" s="33"/>
       <c r="F679" s="14"/>
       <c r="G679" s="15"/>
@@ -26209,8 +26338,8 @@
     <row r="680">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
-      <c r="C680" s="49"/>
-      <c r="D680" s="50"/>
+      <c r="C680" s="50"/>
+      <c r="D680" s="49"/>
       <c r="E680" s="33"/>
       <c r="F680" s="14"/>
       <c r="G680" s="15"/>
@@ -26238,8 +26367,8 @@
     <row r="681">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
-      <c r="C681" s="49"/>
-      <c r="D681" s="50"/>
+      <c r="C681" s="50"/>
+      <c r="D681" s="49"/>
       <c r="E681" s="33"/>
       <c r="F681" s="14"/>
       <c r="G681" s="15"/>
@@ -26267,8 +26396,8 @@
     <row r="682">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
-      <c r="C682" s="49"/>
-      <c r="D682" s="50"/>
+      <c r="C682" s="50"/>
+      <c r="D682" s="49"/>
       <c r="E682" s="33"/>
       <c r="F682" s="14"/>
       <c r="G682" s="15"/>
@@ -26296,8 +26425,8 @@
     <row r="683">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
-      <c r="C683" s="49"/>
-      <c r="D683" s="50"/>
+      <c r="C683" s="50"/>
+      <c r="D683" s="49"/>
       <c r="E683" s="33"/>
       <c r="F683" s="14"/>
       <c r="G683" s="15"/>
@@ -26325,8 +26454,8 @@
     <row r="684">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
-      <c r="C684" s="49"/>
-      <c r="D684" s="50"/>
+      <c r="C684" s="50"/>
+      <c r="D684" s="49"/>
       <c r="E684" s="33"/>
       <c r="F684" s="14"/>
       <c r="G684" s="15"/>
@@ -26354,8 +26483,8 @@
     <row r="685">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
-      <c r="C685" s="49"/>
-      <c r="D685" s="50"/>
+      <c r="C685" s="50"/>
+      <c r="D685" s="49"/>
       <c r="E685" s="33"/>
       <c r="F685" s="14"/>
       <c r="G685" s="15"/>
@@ -26383,8 +26512,8 @@
     <row r="686">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
-      <c r="C686" s="49"/>
-      <c r="D686" s="50"/>
+      <c r="C686" s="50"/>
+      <c r="D686" s="49"/>
       <c r="E686" s="33"/>
       <c r="F686" s="14"/>
       <c r="G686" s="15"/>
@@ -26412,8 +26541,8 @@
     <row r="687">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
-      <c r="C687" s="49"/>
-      <c r="D687" s="50"/>
+      <c r="C687" s="50"/>
+      <c r="D687" s="49"/>
       <c r="E687" s="33"/>
       <c r="F687" s="14"/>
       <c r="G687" s="15"/>
@@ -26441,8 +26570,8 @@
     <row r="688">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
-      <c r="C688" s="49"/>
-      <c r="D688" s="50"/>
+      <c r="C688" s="50"/>
+      <c r="D688" s="49"/>
       <c r="E688" s="33"/>
       <c r="F688" s="14"/>
       <c r="G688" s="15"/>
@@ -26470,8 +26599,8 @@
     <row r="689">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
-      <c r="C689" s="49"/>
-      <c r="D689" s="50"/>
+      <c r="C689" s="50"/>
+      <c r="D689" s="49"/>
       <c r="E689" s="33"/>
       <c r="F689" s="14"/>
       <c r="G689" s="15"/>
@@ -26499,8 +26628,8 @@
     <row r="690">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
-      <c r="C690" s="49"/>
-      <c r="D690" s="50"/>
+      <c r="C690" s="50"/>
+      <c r="D690" s="49"/>
       <c r="E690" s="33"/>
       <c r="F690" s="14"/>
       <c r="G690" s="15"/>
@@ -26528,8 +26657,8 @@
     <row r="691">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
-      <c r="C691" s="49"/>
-      <c r="D691" s="50"/>
+      <c r="C691" s="50"/>
+      <c r="D691" s="49"/>
       <c r="E691" s="33"/>
       <c r="F691" s="14"/>
       <c r="G691" s="15"/>
@@ -26557,8 +26686,8 @@
     <row r="692">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
-      <c r="C692" s="49"/>
-      <c r="D692" s="50"/>
+      <c r="C692" s="50"/>
+      <c r="D692" s="49"/>
       <c r="E692" s="33"/>
       <c r="F692" s="14"/>
       <c r="G692" s="15"/>
@@ -26586,8 +26715,8 @@
     <row r="693">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
-      <c r="C693" s="49"/>
-      <c r="D693" s="50"/>
+      <c r="C693" s="50"/>
+      <c r="D693" s="49"/>
       <c r="E693" s="33"/>
       <c r="F693" s="14"/>
       <c r="G693" s="15"/>
@@ -26615,8 +26744,8 @@
     <row r="694">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
-      <c r="C694" s="49"/>
-      <c r="D694" s="50"/>
+      <c r="C694" s="50"/>
+      <c r="D694" s="49"/>
       <c r="E694" s="33"/>
       <c r="F694" s="14"/>
       <c r="G694" s="15"/>
@@ -26644,8 +26773,8 @@
     <row r="695">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
-      <c r="C695" s="49"/>
-      <c r="D695" s="50"/>
+      <c r="C695" s="50"/>
+      <c r="D695" s="49"/>
       <c r="E695" s="33"/>
       <c r="F695" s="14"/>
       <c r="G695" s="15"/>
@@ -26673,8 +26802,8 @@
     <row r="696">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
-      <c r="C696" s="49"/>
-      <c r="D696" s="50"/>
+      <c r="C696" s="50"/>
+      <c r="D696" s="49"/>
       <c r="E696" s="33"/>
       <c r="F696" s="14"/>
       <c r="G696" s="15"/>
@@ -26702,8 +26831,8 @@
     <row r="697">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
-      <c r="C697" s="49"/>
-      <c r="D697" s="50"/>
+      <c r="C697" s="50"/>
+      <c r="D697" s="49"/>
       <c r="E697" s="33"/>
       <c r="F697" s="14"/>
       <c r="G697" s="15"/>
@@ -26731,8 +26860,8 @@
     <row r="698">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
-      <c r="C698" s="49"/>
-      <c r="D698" s="50"/>
+      <c r="C698" s="50"/>
+      <c r="D698" s="49"/>
       <c r="E698" s="33"/>
       <c r="F698" s="14"/>
       <c r="G698" s="15"/>
@@ -26760,8 +26889,8 @@
     <row r="699">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
-      <c r="C699" s="49"/>
-      <c r="D699" s="50"/>
+      <c r="C699" s="50"/>
+      <c r="D699" s="49"/>
       <c r="E699" s="33"/>
       <c r="F699" s="14"/>
       <c r="G699" s="15"/>
@@ -26789,8 +26918,8 @@
     <row r="700">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
-      <c r="C700" s="49"/>
-      <c r="D700" s="50"/>
+      <c r="C700" s="50"/>
+      <c r="D700" s="49"/>
       <c r="E700" s="33"/>
       <c r="F700" s="14"/>
       <c r="G700" s="15"/>
@@ -26818,8 +26947,8 @@
     <row r="701">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
-      <c r="C701" s="49"/>
-      <c r="D701" s="50"/>
+      <c r="C701" s="50"/>
+      <c r="D701" s="49"/>
       <c r="E701" s="33"/>
       <c r="F701" s="14"/>
       <c r="G701" s="15"/>
@@ -26847,8 +26976,8 @@
     <row r="702">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
-      <c r="C702" s="49"/>
-      <c r="D702" s="50"/>
+      <c r="C702" s="50"/>
+      <c r="D702" s="49"/>
       <c r="E702" s="33"/>
       <c r="F702" s="14"/>
       <c r="G702" s="15"/>
@@ -26876,8 +27005,8 @@
     <row r="703">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
-      <c r="C703" s="49"/>
-      <c r="D703" s="50"/>
+      <c r="C703" s="50"/>
+      <c r="D703" s="49"/>
       <c r="E703" s="33"/>
       <c r="F703" s="14"/>
       <c r="G703" s="15"/>
@@ -26905,8 +27034,8 @@
     <row r="704">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
-      <c r="C704" s="49"/>
-      <c r="D704" s="50"/>
+      <c r="C704" s="50"/>
+      <c r="D704" s="49"/>
       <c r="E704" s="33"/>
       <c r="F704" s="14"/>
       <c r="G704" s="15"/>
@@ -26934,8 +27063,8 @@
     <row r="705">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
-      <c r="C705" s="49"/>
-      <c r="D705" s="50"/>
+      <c r="C705" s="50"/>
+      <c r="D705" s="49"/>
       <c r="E705" s="33"/>
       <c r="F705" s="14"/>
       <c r="G705" s="15"/>
@@ -26963,8 +27092,8 @@
     <row r="706">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
-      <c r="C706" s="49"/>
-      <c r="D706" s="50"/>
+      <c r="C706" s="50"/>
+      <c r="D706" s="49"/>
       <c r="E706" s="33"/>
       <c r="F706" s="14"/>
       <c r="G706" s="15"/>
@@ -26992,8 +27121,8 @@
     <row r="707">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
-      <c r="C707" s="49"/>
-      <c r="D707" s="50"/>
+      <c r="C707" s="50"/>
+      <c r="D707" s="49"/>
       <c r="E707" s="33"/>
       <c r="F707" s="14"/>
       <c r="G707" s="15"/>
@@ -27021,8 +27150,8 @@
     <row r="708">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
-      <c r="C708" s="49"/>
-      <c r="D708" s="50"/>
+      <c r="C708" s="50"/>
+      <c r="D708" s="49"/>
       <c r="E708" s="33"/>
       <c r="F708" s="14"/>
       <c r="G708" s="15"/>
@@ -27050,8 +27179,8 @@
     <row r="709">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
-      <c r="C709" s="49"/>
-      <c r="D709" s="50"/>
+      <c r="C709" s="50"/>
+      <c r="D709" s="49"/>
       <c r="E709" s="33"/>
       <c r="F709" s="14"/>
       <c r="G709" s="15"/>
@@ -27079,8 +27208,8 @@
     <row r="710">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
-      <c r="C710" s="49"/>
-      <c r="D710" s="50"/>
+      <c r="C710" s="50"/>
+      <c r="D710" s="49"/>
       <c r="E710" s="33"/>
       <c r="F710" s="14"/>
       <c r="G710" s="15"/>
@@ -27108,8 +27237,8 @@
     <row r="711">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
-      <c r="C711" s="49"/>
-      <c r="D711" s="50"/>
+      <c r="C711" s="50"/>
+      <c r="D711" s="49"/>
       <c r="E711" s="33"/>
       <c r="F711" s="14"/>
       <c r="G711" s="15"/>
@@ -27137,8 +27266,8 @@
     <row r="712">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
-      <c r="C712" s="49"/>
-      <c r="D712" s="50"/>
+      <c r="C712" s="50"/>
+      <c r="D712" s="49"/>
       <c r="E712" s="33"/>
       <c r="F712" s="14"/>
       <c r="G712" s="15"/>
@@ -27166,8 +27295,8 @@
     <row r="713">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
-      <c r="C713" s="49"/>
-      <c r="D713" s="50"/>
+      <c r="C713" s="50"/>
+      <c r="D713" s="49"/>
       <c r="E713" s="33"/>
       <c r="F713" s="14"/>
       <c r="G713" s="15"/>
@@ -27195,8 +27324,8 @@
     <row r="714">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
-      <c r="C714" s="49"/>
-      <c r="D714" s="50"/>
+      <c r="C714" s="50"/>
+      <c r="D714" s="49"/>
       <c r="E714" s="33"/>
       <c r="F714" s="14"/>
       <c r="G714" s="15"/>
@@ -27224,8 +27353,8 @@
     <row r="715">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
-      <c r="C715" s="49"/>
-      <c r="D715" s="50"/>
+      <c r="C715" s="50"/>
+      <c r="D715" s="49"/>
       <c r="E715" s="33"/>
       <c r="F715" s="14"/>
       <c r="G715" s="15"/>
@@ -27253,8 +27382,8 @@
     <row r="716">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
-      <c r="C716" s="49"/>
-      <c r="D716" s="50"/>
+      <c r="C716" s="50"/>
+      <c r="D716" s="49"/>
       <c r="E716" s="33"/>
       <c r="F716" s="14"/>
       <c r="G716" s="15"/>
@@ -27282,8 +27411,8 @@
     <row r="717">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
-      <c r="C717" s="49"/>
-      <c r="D717" s="50"/>
+      <c r="C717" s="50"/>
+      <c r="D717" s="49"/>
       <c r="E717" s="33"/>
       <c r="F717" s="14"/>
       <c r="G717" s="15"/>
@@ -27311,8 +27440,8 @@
     <row r="718">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
-      <c r="C718" s="49"/>
-      <c r="D718" s="50"/>
+      <c r="C718" s="50"/>
+      <c r="D718" s="49"/>
       <c r="E718" s="33"/>
       <c r="F718" s="14"/>
       <c r="G718" s="15"/>
@@ -27340,8 +27469,8 @@
     <row r="719">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
-      <c r="C719" s="49"/>
-      <c r="D719" s="50"/>
+      <c r="C719" s="50"/>
+      <c r="D719" s="49"/>
       <c r="E719" s="33"/>
       <c r="F719" s="14"/>
       <c r="G719" s="15"/>
@@ -27369,8 +27498,8 @@
     <row r="720">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
-      <c r="C720" s="49"/>
-      <c r="D720" s="50"/>
+      <c r="C720" s="50"/>
+      <c r="D720" s="49"/>
       <c r="E720" s="33"/>
       <c r="F720" s="14"/>
       <c r="G720" s="15"/>
@@ -27398,8 +27527,8 @@
     <row r="721">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
-      <c r="C721" s="49"/>
-      <c r="D721" s="50"/>
+      <c r="C721" s="50"/>
+      <c r="D721" s="49"/>
       <c r="E721" s="33"/>
       <c r="F721" s="14"/>
       <c r="G721" s="15"/>
@@ -27427,8 +27556,8 @@
     <row r="722">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
-      <c r="C722" s="49"/>
-      <c r="D722" s="50"/>
+      <c r="C722" s="50"/>
+      <c r="D722" s="49"/>
       <c r="E722" s="33"/>
       <c r="F722" s="14"/>
       <c r="G722" s="15"/>
@@ -27456,8 +27585,8 @@
     <row r="723">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
-      <c r="C723" s="49"/>
-      <c r="D723" s="50"/>
+      <c r="C723" s="50"/>
+      <c r="D723" s="49"/>
       <c r="E723" s="33"/>
       <c r="F723" s="14"/>
       <c r="G723" s="15"/>
@@ -27485,8 +27614,8 @@
     <row r="724">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
-      <c r="C724" s="49"/>
-      <c r="D724" s="50"/>
+      <c r="C724" s="50"/>
+      <c r="D724" s="49"/>
       <c r="E724" s="33"/>
       <c r="F724" s="14"/>
       <c r="G724" s="15"/>
@@ -27514,8 +27643,8 @@
     <row r="725">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
-      <c r="C725" s="49"/>
-      <c r="D725" s="50"/>
+      <c r="C725" s="50"/>
+      <c r="D725" s="49"/>
       <c r="E725" s="33"/>
       <c r="F725" s="14"/>
       <c r="G725" s="15"/>
@@ -27543,8 +27672,8 @@
     <row r="726">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
-      <c r="C726" s="49"/>
-      <c r="D726" s="50"/>
+      <c r="C726" s="50"/>
+      <c r="D726" s="49"/>
       <c r="E726" s="33"/>
       <c r="F726" s="14"/>
       <c r="G726" s="15"/>
@@ -27572,8 +27701,8 @@
     <row r="727">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
-      <c r="C727" s="49"/>
-      <c r="D727" s="50"/>
+      <c r="C727" s="50"/>
+      <c r="D727" s="49"/>
       <c r="E727" s="33"/>
       <c r="F727" s="14"/>
       <c r="G727" s="15"/>
@@ -27601,8 +27730,8 @@
     <row r="728">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
-      <c r="C728" s="49"/>
-      <c r="D728" s="50"/>
+      <c r="C728" s="50"/>
+      <c r="D728" s="49"/>
       <c r="E728" s="33"/>
       <c r="F728" s="14"/>
       <c r="G728" s="15"/>
@@ -27630,8 +27759,8 @@
     <row r="729">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
-      <c r="C729" s="49"/>
-      <c r="D729" s="50"/>
+      <c r="C729" s="50"/>
+      <c r="D729" s="49"/>
       <c r="E729" s="33"/>
       <c r="F729" s="14"/>
       <c r="G729" s="15"/>
@@ -27659,8 +27788,8 @@
     <row r="730">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
-      <c r="C730" s="49"/>
-      <c r="D730" s="50"/>
+      <c r="C730" s="50"/>
+      <c r="D730" s="49"/>
       <c r="E730" s="33"/>
       <c r="F730" s="14"/>
       <c r="G730" s="15"/>
@@ -27688,8 +27817,8 @@
     <row r="731">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
-      <c r="C731" s="49"/>
-      <c r="D731" s="50"/>
+      <c r="C731" s="50"/>
+      <c r="D731" s="49"/>
       <c r="E731" s="33"/>
       <c r="F731" s="14"/>
       <c r="G731" s="15"/>
@@ -27717,8 +27846,8 @@
     <row r="732">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
-      <c r="C732" s="49"/>
-      <c r="D732" s="50"/>
+      <c r="C732" s="50"/>
+      <c r="D732" s="49"/>
       <c r="E732" s="33"/>
       <c r="F732" s="14"/>
       <c r="G732" s="15"/>
@@ -27746,8 +27875,8 @@
     <row r="733">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
-      <c r="C733" s="49"/>
-      <c r="D733" s="50"/>
+      <c r="C733" s="50"/>
+      <c r="D733" s="49"/>
       <c r="E733" s="33"/>
       <c r="F733" s="14"/>
       <c r="G733" s="15"/>
@@ -27775,8 +27904,8 @@
     <row r="734">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
-      <c r="C734" s="49"/>
-      <c r="D734" s="50"/>
+      <c r="C734" s="50"/>
+      <c r="D734" s="49"/>
       <c r="E734" s="33"/>
       <c r="F734" s="14"/>
       <c r="G734" s="15"/>
@@ -27804,8 +27933,8 @@
     <row r="735">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
-      <c r="C735" s="49"/>
-      <c r="D735" s="50"/>
+      <c r="C735" s="50"/>
+      <c r="D735" s="49"/>
       <c r="E735" s="33"/>
       <c r="F735" s="14"/>
       <c r="G735" s="15"/>
@@ -27833,8 +27962,8 @@
     <row r="736">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
-      <c r="C736" s="49"/>
-      <c r="D736" s="50"/>
+      <c r="C736" s="50"/>
+      <c r="D736" s="49"/>
       <c r="E736" s="33"/>
       <c r="F736" s="14"/>
       <c r="G736" s="15"/>
@@ -27862,8 +27991,8 @@
     <row r="737">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
-      <c r="C737" s="49"/>
-      <c r="D737" s="50"/>
+      <c r="C737" s="50"/>
+      <c r="D737" s="49"/>
       <c r="E737" s="33"/>
       <c r="F737" s="14"/>
       <c r="G737" s="15"/>
@@ -27891,8 +28020,8 @@
     <row r="738">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
-      <c r="C738" s="49"/>
-      <c r="D738" s="50"/>
+      <c r="C738" s="50"/>
+      <c r="D738" s="49"/>
       <c r="E738" s="33"/>
       <c r="F738" s="14"/>
       <c r="G738" s="15"/>
@@ -27920,8 +28049,8 @@
     <row r="739">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
-      <c r="C739" s="49"/>
-      <c r="D739" s="50"/>
+      <c r="C739" s="50"/>
+      <c r="D739" s="49"/>
       <c r="E739" s="33"/>
       <c r="F739" s="14"/>
       <c r="G739" s="15"/>
@@ -27949,8 +28078,8 @@
     <row r="740">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
-      <c r="C740" s="49"/>
-      <c r="D740" s="50"/>
+      <c r="C740" s="50"/>
+      <c r="D740" s="49"/>
       <c r="E740" s="33"/>
       <c r="F740" s="14"/>
       <c r="G740" s="15"/>
@@ -27978,8 +28107,8 @@
     <row r="741">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
-      <c r="C741" s="49"/>
-      <c r="D741" s="50"/>
+      <c r="C741" s="50"/>
+      <c r="D741" s="49"/>
       <c r="E741" s="33"/>
       <c r="F741" s="14"/>
       <c r="G741" s="15"/>
@@ -28007,8 +28136,8 @@
     <row r="742">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
-      <c r="C742" s="49"/>
-      <c r="D742" s="50"/>
+      <c r="C742" s="50"/>
+      <c r="D742" s="49"/>
       <c r="E742" s="33"/>
       <c r="F742" s="14"/>
       <c r="G742" s="15"/>
@@ -28036,8 +28165,8 @@
     <row r="743">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
-      <c r="C743" s="49"/>
-      <c r="D743" s="50"/>
+      <c r="C743" s="50"/>
+      <c r="D743" s="49"/>
       <c r="E743" s="33"/>
       <c r="F743" s="14"/>
       <c r="G743" s="15"/>
@@ -28065,8 +28194,8 @@
     <row r="744">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
-      <c r="C744" s="49"/>
-      <c r="D744" s="50"/>
+      <c r="C744" s="50"/>
+      <c r="D744" s="49"/>
       <c r="E744" s="33"/>
       <c r="F744" s="14"/>
       <c r="G744" s="15"/>
@@ -28094,8 +28223,8 @@
     <row r="745">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
-      <c r="C745" s="49"/>
-      <c r="D745" s="50"/>
+      <c r="C745" s="50"/>
+      <c r="D745" s="49"/>
       <c r="E745" s="33"/>
       <c r="F745" s="14"/>
       <c r="G745" s="15"/>
@@ -28123,8 +28252,8 @@
     <row r="746">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
-      <c r="C746" s="49"/>
-      <c r="D746" s="50"/>
+      <c r="C746" s="50"/>
+      <c r="D746" s="49"/>
       <c r="E746" s="33"/>
       <c r="F746" s="14"/>
       <c r="G746" s="15"/>
@@ -28152,8 +28281,8 @@
     <row r="747">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
-      <c r="C747" s="49"/>
-      <c r="D747" s="50"/>
+      <c r="C747" s="50"/>
+      <c r="D747" s="49"/>
       <c r="E747" s="33"/>
       <c r="F747" s="14"/>
       <c r="G747" s="15"/>
@@ -28181,8 +28310,8 @@
     <row r="748">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
-      <c r="C748" s="49"/>
-      <c r="D748" s="50"/>
+      <c r="C748" s="50"/>
+      <c r="D748" s="49"/>
       <c r="E748" s="33"/>
       <c r="F748" s="14"/>
       <c r="G748" s="15"/>
@@ -28210,8 +28339,8 @@
     <row r="749">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
-      <c r="C749" s="49"/>
-      <c r="D749" s="50"/>
+      <c r="C749" s="50"/>
+      <c r="D749" s="49"/>
       <c r="E749" s="33"/>
       <c r="F749" s="14"/>
       <c r="G749" s="15"/>
@@ -28239,8 +28368,8 @@
     <row r="750">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
-      <c r="C750" s="49"/>
-      <c r="D750" s="50"/>
+      <c r="C750" s="50"/>
+      <c r="D750" s="49"/>
       <c r="E750" s="33"/>
       <c r="F750" s="14"/>
       <c r="G750" s="15"/>
@@ -28268,8 +28397,8 @@
     <row r="751">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
-      <c r="C751" s="49"/>
-      <c r="D751" s="50"/>
+      <c r="C751" s="50"/>
+      <c r="D751" s="49"/>
       <c r="E751" s="33"/>
       <c r="F751" s="14"/>
       <c r="G751" s="15"/>
@@ -28297,8 +28426,8 @@
     <row r="752">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
-      <c r="C752" s="49"/>
-      <c r="D752" s="50"/>
+      <c r="C752" s="50"/>
+      <c r="D752" s="49"/>
       <c r="E752" s="33"/>
       <c r="F752" s="14"/>
       <c r="G752" s="15"/>
@@ -28326,8 +28455,8 @@
     <row r="753">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
-      <c r="C753" s="49"/>
-      <c r="D753" s="50"/>
+      <c r="C753" s="50"/>
+      <c r="D753" s="49"/>
       <c r="E753" s="33"/>
       <c r="F753" s="14"/>
       <c r="G753" s="15"/>
@@ -28355,8 +28484,8 @@
     <row r="754">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
-      <c r="C754" s="49"/>
-      <c r="D754" s="50"/>
+      <c r="C754" s="50"/>
+      <c r="D754" s="49"/>
       <c r="E754" s="33"/>
       <c r="F754" s="14"/>
       <c r="G754" s="15"/>
@@ -28384,8 +28513,8 @@
     <row r="755">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
-      <c r="C755" s="49"/>
-      <c r="D755" s="50"/>
+      <c r="C755" s="50"/>
+      <c r="D755" s="49"/>
       <c r="E755" s="33"/>
       <c r="F755" s="14"/>
       <c r="G755" s="15"/>
@@ -28413,8 +28542,8 @@
     <row r="756">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
-      <c r="C756" s="49"/>
-      <c r="D756" s="50"/>
+      <c r="C756" s="50"/>
+      <c r="D756" s="49"/>
       <c r="E756" s="33"/>
       <c r="F756" s="14"/>
       <c r="G756" s="15"/>
@@ -28442,8 +28571,8 @@
     <row r="757">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
-      <c r="C757" s="49"/>
-      <c r="D757" s="50"/>
+      <c r="C757" s="50"/>
+      <c r="D757" s="49"/>
       <c r="E757" s="33"/>
       <c r="F757" s="14"/>
       <c r="G757" s="15"/>
@@ -28471,8 +28600,8 @@
     <row r="758">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
-      <c r="C758" s="49"/>
-      <c r="D758" s="50"/>
+      <c r="C758" s="50"/>
+      <c r="D758" s="49"/>
       <c r="E758" s="33"/>
       <c r="F758" s="14"/>
       <c r="G758" s="15"/>
@@ -28500,8 +28629,8 @@
     <row r="759">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
-      <c r="C759" s="49"/>
-      <c r="D759" s="50"/>
+      <c r="C759" s="50"/>
+      <c r="D759" s="49"/>
       <c r="E759" s="33"/>
       <c r="F759" s="14"/>
       <c r="G759" s="15"/>
@@ -28529,8 +28658,8 @@
     <row r="760">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
-      <c r="C760" s="49"/>
-      <c r="D760" s="50"/>
+      <c r="C760" s="50"/>
+      <c r="D760" s="49"/>
       <c r="E760" s="33"/>
       <c r="F760" s="14"/>
       <c r="G760" s="15"/>
@@ -28558,8 +28687,8 @@
     <row r="761">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
-      <c r="C761" s="49"/>
-      <c r="D761" s="50"/>
+      <c r="C761" s="50"/>
+      <c r="D761" s="49"/>
       <c r="E761" s="33"/>
       <c r="F761" s="14"/>
       <c r="G761" s="15"/>
@@ -28587,8 +28716,8 @@
     <row r="762">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
-      <c r="C762" s="49"/>
-      <c r="D762" s="50"/>
+      <c r="C762" s="50"/>
+      <c r="D762" s="49"/>
       <c r="E762" s="33"/>
       <c r="F762" s="14"/>
       <c r="G762" s="15"/>
@@ -28616,8 +28745,8 @@
     <row r="763">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
-      <c r="C763" s="49"/>
-      <c r="D763" s="50"/>
+      <c r="C763" s="50"/>
+      <c r="D763" s="49"/>
       <c r="E763" s="33"/>
       <c r="F763" s="14"/>
       <c r="G763" s="15"/>
@@ -28645,8 +28774,8 @@
     <row r="764">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
-      <c r="C764" s="49"/>
-      <c r="D764" s="50"/>
+      <c r="C764" s="50"/>
+      <c r="D764" s="49"/>
       <c r="E764" s="33"/>
       <c r="F764" s="14"/>
       <c r="G764" s="15"/>
@@ -28674,8 +28803,8 @@
     <row r="765">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
-      <c r="C765" s="49"/>
-      <c r="D765" s="50"/>
+      <c r="C765" s="50"/>
+      <c r="D765" s="49"/>
       <c r="E765" s="33"/>
       <c r="F765" s="14"/>
       <c r="G765" s="15"/>
@@ -28703,8 +28832,8 @@
     <row r="766">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
-      <c r="C766" s="49"/>
-      <c r="D766" s="50"/>
+      <c r="C766" s="50"/>
+      <c r="D766" s="49"/>
       <c r="E766" s="33"/>
       <c r="F766" s="14"/>
       <c r="G766" s="15"/>
@@ -28732,8 +28861,8 @@
     <row r="767">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
-      <c r="C767" s="49"/>
-      <c r="D767" s="50"/>
+      <c r="C767" s="50"/>
+      <c r="D767" s="49"/>
       <c r="E767" s="33"/>
       <c r="F767" s="14"/>
       <c r="G767" s="15"/>
@@ -28761,8 +28890,8 @@
     <row r="768">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
-      <c r="C768" s="49"/>
-      <c r="D768" s="50"/>
+      <c r="C768" s="50"/>
+      <c r="D768" s="49"/>
       <c r="E768" s="33"/>
       <c r="F768" s="14"/>
       <c r="G768" s="15"/>
@@ -28790,8 +28919,8 @@
     <row r="769">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
-      <c r="C769" s="49"/>
-      <c r="D769" s="50"/>
+      <c r="C769" s="50"/>
+      <c r="D769" s="49"/>
       <c r="E769" s="33"/>
       <c r="F769" s="14"/>
       <c r="G769" s="15"/>
@@ -28819,8 +28948,8 @@
     <row r="770">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
-      <c r="C770" s="49"/>
-      <c r="D770" s="50"/>
+      <c r="C770" s="50"/>
+      <c r="D770" s="49"/>
       <c r="E770" s="33"/>
       <c r="F770" s="14"/>
       <c r="G770" s="15"/>
@@ -28848,8 +28977,8 @@
     <row r="771">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
-      <c r="C771" s="49"/>
-      <c r="D771" s="50"/>
+      <c r="C771" s="50"/>
+      <c r="D771" s="49"/>
       <c r="E771" s="33"/>
       <c r="F771" s="14"/>
       <c r="G771" s="15"/>
@@ -28877,8 +29006,8 @@
     <row r="772">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
-      <c r="C772" s="49"/>
-      <c r="D772" s="50"/>
+      <c r="C772" s="50"/>
+      <c r="D772" s="49"/>
       <c r="E772" s="33"/>
       <c r="F772" s="14"/>
       <c r="G772" s="15"/>
@@ -28906,8 +29035,8 @@
     <row r="773">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
-      <c r="C773" s="49"/>
-      <c r="D773" s="50"/>
+      <c r="C773" s="50"/>
+      <c r="D773" s="49"/>
       <c r="E773" s="33"/>
       <c r="F773" s="14"/>
       <c r="G773" s="15"/>
@@ -28935,8 +29064,8 @@
     <row r="774">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
-      <c r="C774" s="49"/>
-      <c r="D774" s="50"/>
+      <c r="C774" s="50"/>
+      <c r="D774" s="49"/>
       <c r="E774" s="33"/>
       <c r="F774" s="14"/>
       <c r="G774" s="15"/>
@@ -28964,8 +29093,8 @@
     <row r="775">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
-      <c r="C775" s="49"/>
-      <c r="D775" s="50"/>
+      <c r="C775" s="50"/>
+      <c r="D775" s="49"/>
       <c r="E775" s="33"/>
       <c r="F775" s="14"/>
       <c r="G775" s="15"/>
@@ -28993,8 +29122,8 @@
     <row r="776">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
-      <c r="C776" s="49"/>
-      <c r="D776" s="50"/>
+      <c r="C776" s="50"/>
+      <c r="D776" s="49"/>
       <c r="E776" s="33"/>
       <c r="F776" s="14"/>
       <c r="G776" s="15"/>
@@ -29022,8 +29151,8 @@
     <row r="777">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
-      <c r="C777" s="49"/>
-      <c r="D777" s="50"/>
+      <c r="C777" s="50"/>
+      <c r="D777" s="49"/>
       <c r="E777" s="33"/>
       <c r="F777" s="14"/>
       <c r="G777" s="15"/>
@@ -29051,8 +29180,8 @@
     <row r="778">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
-      <c r="C778" s="49"/>
-      <c r="D778" s="50"/>
+      <c r="C778" s="50"/>
+      <c r="D778" s="49"/>
       <c r="E778" s="33"/>
       <c r="F778" s="14"/>
       <c r="G778" s="15"/>
@@ -29080,8 +29209,8 @@
     <row r="779">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
-      <c r="C779" s="49"/>
-      <c r="D779" s="50"/>
+      <c r="C779" s="50"/>
+      <c r="D779" s="49"/>
       <c r="E779" s="33"/>
       <c r="F779" s="14"/>
       <c r="G779" s="15"/>
@@ -29109,8 +29238,8 @@
     <row r="780">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
-      <c r="C780" s="49"/>
-      <c r="D780" s="50"/>
+      <c r="C780" s="50"/>
+      <c r="D780" s="49"/>
       <c r="E780" s="33"/>
       <c r="F780" s="14"/>
       <c r="G780" s="15"/>
@@ -29138,8 +29267,8 @@
     <row r="781">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
-      <c r="C781" s="49"/>
-      <c r="D781" s="50"/>
+      <c r="C781" s="50"/>
+      <c r="D781" s="49"/>
       <c r="E781" s="33"/>
       <c r="F781" s="14"/>
       <c r="G781" s="15"/>
@@ -29167,8 +29296,8 @@
     <row r="782">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
-      <c r="C782" s="49"/>
-      <c r="D782" s="50"/>
+      <c r="C782" s="50"/>
+      <c r="D782" s="49"/>
       <c r="E782" s="33"/>
       <c r="F782" s="14"/>
       <c r="G782" s="15"/>
@@ -29196,8 +29325,8 @@
     <row r="783">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
-      <c r="C783" s="49"/>
-      <c r="D783" s="50"/>
+      <c r="C783" s="50"/>
+      <c r="D783" s="49"/>
       <c r="E783" s="33"/>
       <c r="F783" s="14"/>
       <c r="G783" s="15"/>
@@ -29225,8 +29354,8 @@
     <row r="784">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
-      <c r="C784" s="49"/>
-      <c r="D784" s="50"/>
+      <c r="C784" s="50"/>
+      <c r="D784" s="49"/>
       <c r="E784" s="33"/>
       <c r="F784" s="14"/>
       <c r="G784" s="15"/>
@@ -29254,8 +29383,8 @@
     <row r="785">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
-      <c r="C785" s="49"/>
-      <c r="D785" s="50"/>
+      <c r="C785" s="50"/>
+      <c r="D785" s="49"/>
       <c r="E785" s="33"/>
       <c r="F785" s="14"/>
       <c r="G785" s="15"/>
@@ -29283,8 +29412,8 @@
     <row r="786">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
-      <c r="C786" s="49"/>
-      <c r="D786" s="50"/>
+      <c r="C786" s="50"/>
+      <c r="D786" s="49"/>
       <c r="E786" s="33"/>
       <c r="F786" s="14"/>
       <c r="G786" s="15"/>
@@ -29312,8 +29441,8 @@
     <row r="787">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
-      <c r="C787" s="49"/>
-      <c r="D787" s="50"/>
+      <c r="C787" s="50"/>
+      <c r="D787" s="49"/>
       <c r="E787" s="33"/>
       <c r="F787" s="14"/>
       <c r="G787" s="15"/>
@@ -29341,8 +29470,8 @@
     <row r="788">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
-      <c r="C788" s="49"/>
-      <c r="D788" s="50"/>
+      <c r="C788" s="50"/>
+      <c r="D788" s="49"/>
       <c r="E788" s="33"/>
       <c r="F788" s="14"/>
       <c r="G788" s="15"/>
@@ -29370,8 +29499,8 @@
     <row r="789">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
-      <c r="C789" s="49"/>
-      <c r="D789" s="50"/>
+      <c r="C789" s="50"/>
+      <c r="D789" s="49"/>
       <c r="E789" s="33"/>
       <c r="F789" s="14"/>
       <c r="G789" s="15"/>
@@ -29399,8 +29528,8 @@
     <row r="790">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
-      <c r="C790" s="49"/>
-      <c r="D790" s="50"/>
+      <c r="C790" s="50"/>
+      <c r="D790" s="49"/>
       <c r="E790" s="33"/>
       <c r="F790" s="14"/>
       <c r="G790" s="15"/>
@@ -29428,8 +29557,8 @@
     <row r="791">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
-      <c r="C791" s="49"/>
-      <c r="D791" s="50"/>
+      <c r="C791" s="50"/>
+      <c r="D791" s="49"/>
       <c r="E791" s="33"/>
       <c r="F791" s="14"/>
       <c r="G791" s="15"/>
@@ -29457,8 +29586,8 @@
     <row r="792">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
-      <c r="C792" s="49"/>
-      <c r="D792" s="50"/>
+      <c r="C792" s="50"/>
+      <c r="D792" s="49"/>
       <c r="E792" s="33"/>
       <c r="F792" s="14"/>
       <c r="G792" s="15"/>
@@ -29486,8 +29615,8 @@
     <row r="793">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
-      <c r="C793" s="49"/>
-      <c r="D793" s="50"/>
+      <c r="C793" s="50"/>
+      <c r="D793" s="49"/>
       <c r="E793" s="33"/>
       <c r="F793" s="14"/>
       <c r="G793" s="15"/>
@@ -29515,8 +29644,8 @@
     <row r="794">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
-      <c r="C794" s="49"/>
-      <c r="D794" s="50"/>
+      <c r="C794" s="50"/>
+      <c r="D794" s="49"/>
       <c r="E794" s="33"/>
       <c r="F794" s="14"/>
       <c r="G794" s="15"/>
@@ -29544,8 +29673,8 @@
     <row r="795">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
-      <c r="C795" s="49"/>
-      <c r="D795" s="50"/>
+      <c r="C795" s="50"/>
+      <c r="D795" s="49"/>
       <c r="E795" s="33"/>
       <c r="F795" s="14"/>
       <c r="G795" s="15"/>
@@ -29573,8 +29702,8 @@
     <row r="796">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
-      <c r="C796" s="49"/>
-      <c r="D796" s="50"/>
+      <c r="C796" s="50"/>
+      <c r="D796" s="49"/>
       <c r="E796" s="33"/>
       <c r="F796" s="14"/>
       <c r="G796" s="15"/>
@@ -29602,8 +29731,8 @@
     <row r="797">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
-      <c r="C797" s="49"/>
-      <c r="D797" s="50"/>
+      <c r="C797" s="50"/>
+      <c r="D797" s="49"/>
       <c r="E797" s="33"/>
       <c r="F797" s="14"/>
       <c r="G797" s="15"/>
@@ -29631,8 +29760,8 @@
     <row r="798">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
-      <c r="C798" s="49"/>
-      <c r="D798" s="50"/>
+      <c r="C798" s="50"/>
+      <c r="D798" s="49"/>
       <c r="E798" s="33"/>
       <c r="F798" s="14"/>
       <c r="G798" s="15"/>
@@ -29660,8 +29789,8 @@
     <row r="799">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
-      <c r="C799" s="49"/>
-      <c r="D799" s="50"/>
+      <c r="C799" s="50"/>
+      <c r="D799" s="49"/>
       <c r="E799" s="33"/>
       <c r="F799" s="14"/>
       <c r="G799" s="15"/>
@@ -29689,8 +29818,8 @@
     <row r="800">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
-      <c r="C800" s="49"/>
-      <c r="D800" s="50"/>
+      <c r="C800" s="50"/>
+      <c r="D800" s="49"/>
       <c r="E800" s="33"/>
       <c r="F800" s="14"/>
       <c r="G800" s="15"/>
@@ -29718,8 +29847,8 @@
     <row r="801">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
-      <c r="C801" s="49"/>
-      <c r="D801" s="50"/>
+      <c r="C801" s="50"/>
+      <c r="D801" s="49"/>
       <c r="E801" s="33"/>
       <c r="F801" s="14"/>
       <c r="G801" s="15"/>
@@ -29747,8 +29876,8 @@
     <row r="802">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
-      <c r="C802" s="49"/>
-      <c r="D802" s="50"/>
+      <c r="C802" s="50"/>
+      <c r="D802" s="49"/>
       <c r="E802" s="33"/>
       <c r="F802" s="14"/>
       <c r="G802" s="15"/>
@@ -29776,8 +29905,8 @@
     <row r="803">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
-      <c r="C803" s="49"/>
-      <c r="D803" s="50"/>
+      <c r="C803" s="50"/>
+      <c r="D803" s="49"/>
       <c r="E803" s="33"/>
       <c r="F803" s="14"/>
       <c r="G803" s="15"/>
@@ -29805,8 +29934,8 @@
     <row r="804">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
-      <c r="C804" s="49"/>
-      <c r="D804" s="50"/>
+      <c r="C804" s="50"/>
+      <c r="D804" s="49"/>
       <c r="E804" s="33"/>
       <c r="F804" s="14"/>
       <c r="G804" s="15"/>
@@ -29834,8 +29963,8 @@
     <row r="805">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
-      <c r="C805" s="49"/>
-      <c r="D805" s="50"/>
+      <c r="C805" s="50"/>
+      <c r="D805" s="49"/>
       <c r="E805" s="33"/>
       <c r="F805" s="14"/>
       <c r="G805" s="15"/>
@@ -29863,8 +29992,8 @@
     <row r="806">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
-      <c r="C806" s="49"/>
-      <c r="D806" s="50"/>
+      <c r="C806" s="50"/>
+      <c r="D806" s="49"/>
       <c r="E806" s="33"/>
       <c r="F806" s="14"/>
       <c r="G806" s="15"/>
@@ -29892,8 +30021,8 @@
     <row r="807">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
-      <c r="C807" s="49"/>
-      <c r="D807" s="50"/>
+      <c r="C807" s="50"/>
+      <c r="D807" s="49"/>
       <c r="E807" s="33"/>
       <c r="F807" s="14"/>
       <c r="G807" s="15"/>
@@ -29921,8 +30050,8 @@
     <row r="808">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
-      <c r="C808" s="49"/>
-      <c r="D808" s="50"/>
+      <c r="C808" s="50"/>
+      <c r="D808" s="49"/>
       <c r="E808" s="33"/>
       <c r="F808" s="14"/>
       <c r="G808" s="15"/>
@@ -29950,8 +30079,8 @@
     <row r="809">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
-      <c r="C809" s="49"/>
-      <c r="D809" s="50"/>
+      <c r="C809" s="50"/>
+      <c r="D809" s="49"/>
       <c r="E809" s="33"/>
       <c r="F809" s="14"/>
       <c r="G809" s="15"/>
@@ -29979,8 +30108,8 @@
     <row r="810">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
-      <c r="C810" s="49"/>
-      <c r="D810" s="50"/>
+      <c r="C810" s="50"/>
+      <c r="D810" s="49"/>
       <c r="E810" s="33"/>
       <c r="F810" s="14"/>
       <c r="G810" s="15"/>
@@ -30008,8 +30137,8 @@
     <row r="811">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
-      <c r="C811" s="49"/>
-      <c r="D811" s="50"/>
+      <c r="C811" s="50"/>
+      <c r="D811" s="49"/>
       <c r="E811" s="33"/>
       <c r="F811" s="14"/>
       <c r="G811" s="15"/>
@@ -30037,8 +30166,8 @@
     <row r="812">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
-      <c r="C812" s="49"/>
-      <c r="D812" s="50"/>
+      <c r="C812" s="50"/>
+      <c r="D812" s="49"/>
       <c r="E812" s="33"/>
       <c r="F812" s="14"/>
       <c r="G812" s="15"/>
@@ -30066,8 +30195,8 @@
     <row r="813">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
-      <c r="C813" s="49"/>
-      <c r="D813" s="50"/>
+      <c r="C813" s="50"/>
+      <c r="D813" s="49"/>
       <c r="E813" s="33"/>
       <c r="F813" s="14"/>
       <c r="G813" s="15"/>
@@ -30095,8 +30224,8 @@
     <row r="814">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
-      <c r="C814" s="49"/>
-      <c r="D814" s="50"/>
+      <c r="C814" s="50"/>
+      <c r="D814" s="49"/>
       <c r="E814" s="33"/>
       <c r="F814" s="14"/>
       <c r="G814" s="15"/>
@@ -30124,8 +30253,8 @@
     <row r="815">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
-      <c r="C815" s="49"/>
-      <c r="D815" s="50"/>
+      <c r="C815" s="50"/>
+      <c r="D815" s="49"/>
       <c r="E815" s="33"/>
       <c r="F815" s="14"/>
       <c r="G815" s="15"/>
@@ -30153,8 +30282,8 @@
     <row r="816">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
-      <c r="C816" s="49"/>
-      <c r="D816" s="50"/>
+      <c r="C816" s="50"/>
+      <c r="D816" s="49"/>
       <c r="E816" s="33"/>
       <c r="F816" s="14"/>
       <c r="G816" s="15"/>
@@ -30182,8 +30311,8 @@
     <row r="817">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
-      <c r="C817" s="49"/>
-      <c r="D817" s="50"/>
+      <c r="C817" s="50"/>
+      <c r="D817" s="49"/>
       <c r="E817" s="33"/>
       <c r="F817" s="14"/>
       <c r="G817" s="15"/>
@@ -30211,8 +30340,8 @@
     <row r="818">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
-      <c r="C818" s="49"/>
-      <c r="D818" s="50"/>
+      <c r="C818" s="50"/>
+      <c r="D818" s="49"/>
       <c r="E818" s="33"/>
       <c r="F818" s="14"/>
       <c r="G818" s="15"/>
@@ -30240,8 +30369,8 @@
     <row r="819">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
-      <c r="C819" s="49"/>
-      <c r="D819" s="50"/>
+      <c r="C819" s="50"/>
+      <c r="D819" s="49"/>
       <c r="E819" s="33"/>
       <c r="F819" s="14"/>
       <c r="G819" s="15"/>
@@ -30269,8 +30398,8 @@
     <row r="820">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
-      <c r="C820" s="49"/>
-      <c r="D820" s="50"/>
+      <c r="C820" s="50"/>
+      <c r="D820" s="49"/>
       <c r="E820" s="33"/>
       <c r="F820" s="14"/>
       <c r="G820" s="15"/>
@@ -30298,8 +30427,8 @@
     <row r="821">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
-      <c r="C821" s="49"/>
-      <c r="D821" s="50"/>
+      <c r="C821" s="50"/>
+      <c r="D821" s="49"/>
       <c r="E821" s="33"/>
       <c r="F821" s="14"/>
       <c r="G821" s="15"/>
@@ -30327,8 +30456,8 @@
     <row r="822">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
-      <c r="C822" s="49"/>
-      <c r="D822" s="50"/>
+      <c r="C822" s="50"/>
+      <c r="D822" s="49"/>
       <c r="E822" s="33"/>
       <c r="F822" s="14"/>
       <c r="G822" s="15"/>
@@ -30356,8 +30485,8 @@
     <row r="823">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
-      <c r="C823" s="49"/>
-      <c r="D823" s="50"/>
+      <c r="C823" s="50"/>
+      <c r="D823" s="49"/>
       <c r="E823" s="33"/>
       <c r="F823" s="14"/>
       <c r="G823" s="15"/>
@@ -30385,8 +30514,8 @@
     <row r="824">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
-      <c r="C824" s="49"/>
-      <c r="D824" s="50"/>
+      <c r="C824" s="50"/>
+      <c r="D824" s="49"/>
       <c r="E824" s="33"/>
       <c r="F824" s="14"/>
       <c r="G824" s="15"/>
@@ -30414,8 +30543,8 @@
     <row r="825">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
-      <c r="C825" s="49"/>
-      <c r="D825" s="50"/>
+      <c r="C825" s="50"/>
+      <c r="D825" s="49"/>
       <c r="E825" s="33"/>
       <c r="F825" s="14"/>
       <c r="G825" s="15"/>
@@ -30443,8 +30572,8 @@
     <row r="826">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
-      <c r="C826" s="49"/>
-      <c r="D826" s="50"/>
+      <c r="C826" s="50"/>
+      <c r="D826" s="49"/>
       <c r="E826" s="33"/>
       <c r="F826" s="14"/>
       <c r="G826" s="15"/>
@@ -30472,8 +30601,8 @@
     <row r="827">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
-      <c r="C827" s="49"/>
-      <c r="D827" s="50"/>
+      <c r="C827" s="50"/>
+      <c r="D827" s="49"/>
       <c r="E827" s="33"/>
       <c r="F827" s="14"/>
       <c r="G827" s="15"/>
@@ -30501,8 +30630,8 @@
     <row r="828">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
-      <c r="C828" s="49"/>
-      <c r="D828" s="50"/>
+      <c r="C828" s="50"/>
+      <c r="D828" s="49"/>
       <c r="E828" s="33"/>
       <c r="F828" s="14"/>
       <c r="G828" s="15"/>
@@ -30530,8 +30659,8 @@
     <row r="829">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
-      <c r="C829" s="49"/>
-      <c r="D829" s="50"/>
+      <c r="C829" s="50"/>
+      <c r="D829" s="49"/>
       <c r="E829" s="33"/>
       <c r="F829" s="14"/>
       <c r="G829" s="15"/>
@@ -30559,8 +30688,8 @@
     <row r="830">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
-      <c r="C830" s="49"/>
-      <c r="D830" s="50"/>
+      <c r="C830" s="50"/>
+      <c r="D830" s="49"/>
       <c r="E830" s="33"/>
       <c r="F830" s="14"/>
       <c r="G830" s="15"/>
@@ -30588,8 +30717,8 @@
     <row r="831">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
-      <c r="C831" s="49"/>
-      <c r="D831" s="50"/>
+      <c r="C831" s="50"/>
+      <c r="D831" s="49"/>
       <c r="E831" s="33"/>
       <c r="F831" s="14"/>
       <c r="G831" s="15"/>
@@ -30617,8 +30746,8 @@
     <row r="832">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
-      <c r="C832" s="49"/>
-      <c r="D832" s="50"/>
+      <c r="C832" s="50"/>
+      <c r="D832" s="49"/>
       <c r="E832" s="33"/>
       <c r="F832" s="14"/>
       <c r="G832" s="15"/>
@@ -30646,8 +30775,8 @@
     <row r="833">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
-      <c r="C833" s="49"/>
-      <c r="D833" s="50"/>
+      <c r="C833" s="50"/>
+      <c r="D833" s="49"/>
       <c r="E833" s="33"/>
       <c r="F833" s="14"/>
       <c r="G833" s="15"/>
@@ -30675,8 +30804,8 @@
     <row r="834">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
-      <c r="C834" s="49"/>
-      <c r="D834" s="50"/>
+      <c r="C834" s="50"/>
+      <c r="D834" s="49"/>
       <c r="E834" s="33"/>
       <c r="F834" s="14"/>
       <c r="G834" s="15"/>
@@ -30704,8 +30833,8 @@
     <row r="835">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
-      <c r="C835" s="49"/>
-      <c r="D835" s="50"/>
+      <c r="C835" s="50"/>
+      <c r="D835" s="49"/>
       <c r="E835" s="33"/>
       <c r="F835" s="14"/>
       <c r="G835" s="15"/>
@@ -30733,8 +30862,8 @@
     <row r="836">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
-      <c r="C836" s="49"/>
-      <c r="D836" s="50"/>
+      <c r="C836" s="50"/>
+      <c r="D836" s="49"/>
       <c r="E836" s="33"/>
       <c r="F836" s="14"/>
       <c r="G836" s="15"/>
@@ -30762,8 +30891,8 @@
     <row r="837">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
-      <c r="C837" s="49"/>
-      <c r="D837" s="50"/>
+      <c r="C837" s="50"/>
+      <c r="D837" s="49"/>
       <c r="E837" s="33"/>
       <c r="F837" s="14"/>
       <c r="G837" s="15"/>
@@ -30791,8 +30920,8 @@
     <row r="838">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
-      <c r="C838" s="49"/>
-      <c r="D838" s="50"/>
+      <c r="C838" s="50"/>
+      <c r="D838" s="49"/>
       <c r="E838" s="33"/>
       <c r="F838" s="14"/>
       <c r="G838" s="15"/>
@@ -30820,8 +30949,8 @@
     <row r="839">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
-      <c r="C839" s="49"/>
-      <c r="D839" s="50"/>
+      <c r="C839" s="50"/>
+      <c r="D839" s="49"/>
       <c r="E839" s="33"/>
       <c r="F839" s="14"/>
       <c r="G839" s="15"/>
@@ -30849,8 +30978,8 @@
     <row r="840">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
-      <c r="C840" s="49"/>
-      <c r="D840" s="50"/>
+      <c r="C840" s="50"/>
+      <c r="D840" s="49"/>
       <c r="E840" s="33"/>
       <c r="F840" s="14"/>
       <c r="G840" s="15"/>
@@ -30878,8 +31007,8 @@
     <row r="841">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
-      <c r="C841" s="49"/>
-      <c r="D841" s="50"/>
+      <c r="C841" s="50"/>
+      <c r="D841" s="49"/>
       <c r="E841" s="33"/>
       <c r="F841" s="14"/>
       <c r="G841" s="15"/>
@@ -30907,8 +31036,8 @@
     <row r="842">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
-      <c r="C842" s="49"/>
-      <c r="D842" s="50"/>
+      <c r="C842" s="50"/>
+      <c r="D842" s="49"/>
       <c r="E842" s="33"/>
       <c r="F842" s="14"/>
       <c r="G842" s="15"/>
@@ -30936,8 +31065,8 @@
     <row r="843">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
-      <c r="C843" s="49"/>
-      <c r="D843" s="50"/>
+      <c r="C843" s="50"/>
+      <c r="D843" s="49"/>
       <c r="E843" s="33"/>
       <c r="F843" s="14"/>
       <c r="G843" s="15"/>
@@ -30965,8 +31094,8 @@
     <row r="844">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
-      <c r="C844" s="49"/>
-      <c r="D844" s="50"/>
+      <c r="C844" s="50"/>
+      <c r="D844" s="49"/>
       <c r="E844" s="33"/>
       <c r="F844" s="14"/>
       <c r="G844" s="15"/>
@@ -30994,8 +31123,8 @@
     <row r="845">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
-      <c r="C845" s="49"/>
-      <c r="D845" s="50"/>
+      <c r="C845" s="50"/>
+      <c r="D845" s="49"/>
       <c r="E845" s="33"/>
       <c r="F845" s="14"/>
       <c r="G845" s="15"/>
@@ -31023,8 +31152,8 @@
     <row r="846">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
-      <c r="C846" s="49"/>
-      <c r="D846" s="50"/>
+      <c r="C846" s="50"/>
+      <c r="D846" s="49"/>
       <c r="E846" s="33"/>
       <c r="F846" s="14"/>
       <c r="G846" s="15"/>
@@ -31052,8 +31181,8 @@
     <row r="847">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
-      <c r="C847" s="49"/>
-      <c r="D847" s="50"/>
+      <c r="C847" s="50"/>
+      <c r="D847" s="49"/>
       <c r="E847" s="33"/>
       <c r="F847" s="14"/>
       <c r="G847" s="15"/>
@@ -31081,8 +31210,8 @@
     <row r="848">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
-      <c r="C848" s="49"/>
-      <c r="D848" s="50"/>
+      <c r="C848" s="50"/>
+      <c r="D848" s="49"/>
       <c r="E848" s="33"/>
       <c r="F848" s="14"/>
       <c r="G848" s="15"/>
@@ -31110,8 +31239,8 @@
     <row r="849">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
-      <c r="C849" s="49"/>
-      <c r="D849" s="50"/>
+      <c r="C849" s="50"/>
+      <c r="D849" s="49"/>
       <c r="E849" s="33"/>
       <c r="F849" s="14"/>
       <c r="G849" s="15"/>
@@ -31139,8 +31268,8 @@
     <row r="850">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
-      <c r="C850" s="49"/>
-      <c r="D850" s="50"/>
+      <c r="C850" s="50"/>
+      <c r="D850" s="49"/>
       <c r="E850" s="33"/>
       <c r="F850" s="14"/>
       <c r="G850" s="15"/>
@@ -31168,8 +31297,8 @@
     <row r="851">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
-      <c r="C851" s="49"/>
-      <c r="D851" s="50"/>
+      <c r="C851" s="50"/>
+      <c r="D851" s="49"/>
       <c r="E851" s="33"/>
       <c r="F851" s="14"/>
       <c r="G851" s="15"/>
@@ -31197,8 +31326,8 @@
     <row r="852">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
-      <c r="C852" s="49"/>
-      <c r="D852" s="50"/>
+      <c r="C852" s="50"/>
+      <c r="D852" s="49"/>
       <c r="E852" s="33"/>
       <c r="F852" s="14"/>
       <c r="G852" s="15"/>
@@ -31226,8 +31355,8 @@
     <row r="853">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
-      <c r="C853" s="49"/>
-      <c r="D853" s="50"/>
+      <c r="C853" s="50"/>
+      <c r="D853" s="49"/>
       <c r="E853" s="33"/>
       <c r="F853" s="14"/>
       <c r="G853" s="15"/>
@@ -31255,8 +31384,8 @@
     <row r="854">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
-      <c r="C854" s="49"/>
-      <c r="D854" s="50"/>
+      <c r="C854" s="50"/>
+      <c r="D854" s="49"/>
       <c r="E854" s="33"/>
       <c r="F854" s="14"/>
       <c r="G854" s="15"/>
@@ -31284,8 +31413,8 @@
     <row r="855">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
-      <c r="C855" s="49"/>
-      <c r="D855" s="50"/>
+      <c r="C855" s="50"/>
+      <c r="D855" s="49"/>
       <c r="E855" s="33"/>
       <c r="F855" s="14"/>
       <c r="G855" s="15"/>
@@ -31313,8 +31442,8 @@
     <row r="856">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
-      <c r="C856" s="49"/>
-      <c r="D856" s="50"/>
+      <c r="C856" s="50"/>
+      <c r="D856" s="49"/>
       <c r="E856" s="33"/>
       <c r="F856" s="14"/>
       <c r="G856" s="15"/>
@@ -31342,8 +31471,8 @@
     <row r="857">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
-      <c r="C857" s="49"/>
-      <c r="D857" s="50"/>
+      <c r="C857" s="50"/>
+      <c r="D857" s="49"/>
       <c r="E857" s="33"/>
       <c r="F857" s="14"/>
       <c r="G857" s="15"/>
@@ -31371,8 +31500,8 @@
     <row r="858">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
-      <c r="C858" s="49"/>
-      <c r="D858" s="50"/>
+      <c r="C858" s="50"/>
+      <c r="D858" s="49"/>
       <c r="E858" s="33"/>
       <c r="F858" s="14"/>
       <c r="G858" s="15"/>
@@ -31400,8 +31529,8 @@
     <row r="859">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
-      <c r="C859" s="49"/>
-      <c r="D859" s="50"/>
+      <c r="C859" s="50"/>
+      <c r="D859" s="49"/>
       <c r="E859" s="33"/>
       <c r="F859" s="14"/>
       <c r="G859" s="15"/>
@@ -31429,8 +31558,8 @@
     <row r="860">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
-      <c r="C860" s="49"/>
-      <c r="D860" s="50"/>
+      <c r="C860" s="50"/>
+      <c r="D860" s="49"/>
       <c r="E860" s="33"/>
       <c r="F860" s="14"/>
       <c r="G860" s="15"/>
@@ -31458,8 +31587,8 @@
     <row r="861">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
-      <c r="C861" s="49"/>
-      <c r="D861" s="50"/>
+      <c r="C861" s="50"/>
+      <c r="D861" s="49"/>
       <c r="E861" s="33"/>
       <c r="F861" s="14"/>
       <c r="G861" s="15"/>
@@ -31487,8 +31616,8 @@
     <row r="862">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
-      <c r="C862" s="49"/>
-      <c r="D862" s="50"/>
+      <c r="C862" s="50"/>
+      <c r="D862" s="49"/>
       <c r="E862" s="33"/>
       <c r="F862" s="14"/>
       <c r="G862" s="15"/>
@@ -31516,8 +31645,8 @@
     <row r="863">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
-      <c r="C863" s="49"/>
-      <c r="D863" s="50"/>
+      <c r="C863" s="50"/>
+      <c r="D863" s="49"/>
       <c r="E863" s="33"/>
       <c r="F863" s="14"/>
       <c r="G863" s="15"/>
@@ -31545,8 +31674,8 @@
     <row r="864">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
-      <c r="C864" s="49"/>
-      <c r="D864" s="50"/>
+      <c r="C864" s="50"/>
+      <c r="D864" s="49"/>
       <c r="E864" s="33"/>
       <c r="F864" s="14"/>
       <c r="G864" s="15"/>
@@ -31574,8 +31703,8 @@
     <row r="865">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
-      <c r="C865" s="49"/>
-      <c r="D865" s="50"/>
+      <c r="C865" s="50"/>
+      <c r="D865" s="49"/>
       <c r="E865" s="33"/>
       <c r="F865" s="14"/>
       <c r="G865" s="15"/>
@@ -31603,8 +31732,8 @@
     <row r="866">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
-      <c r="C866" s="49"/>
-      <c r="D866" s="50"/>
+      <c r="C866" s="50"/>
+      <c r="D866" s="49"/>
       <c r="E866" s="33"/>
       <c r="F866" s="14"/>
       <c r="G866" s="15"/>
@@ -31632,8 +31761,8 @@
     <row r="867">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
-      <c r="C867" s="49"/>
-      <c r="D867" s="50"/>
+      <c r="C867" s="50"/>
+      <c r="D867" s="49"/>
       <c r="E867" s="33"/>
       <c r="F867" s="14"/>
       <c r="G867" s="15"/>
@@ -31661,8 +31790,8 @@
     <row r="868">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
-      <c r="C868" s="49"/>
-      <c r="D868" s="50"/>
+      <c r="C868" s="50"/>
+      <c r="D868" s="49"/>
       <c r="E868" s="33"/>
       <c r="F868" s="14"/>
       <c r="G868" s="15"/>
@@ -31690,8 +31819,8 @@
     <row r="869">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
-      <c r="C869" s="49"/>
-      <c r="D869" s="50"/>
+      <c r="C869" s="50"/>
+      <c r="D869" s="49"/>
       <c r="E869" s="33"/>
       <c r="F869" s="14"/>
       <c r="G869" s="15"/>
@@ -31719,8 +31848,8 @@
     <row r="870">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
-      <c r="C870" s="49"/>
-      <c r="D870" s="50"/>
+      <c r="C870" s="50"/>
+      <c r="D870" s="49"/>
       <c r="E870" s="33"/>
       <c r="F870" s="14"/>
       <c r="G870" s="15"/>
@@ -31748,8 +31877,8 @@
     <row r="871">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
-      <c r="C871" s="49"/>
-      <c r="D871" s="50"/>
+      <c r="C871" s="50"/>
+      <c r="D871" s="49"/>
       <c r="E871" s="33"/>
       <c r="F871" s="14"/>
       <c r="G871" s="15"/>
@@ -31777,8 +31906,8 @@
     <row r="872">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
-      <c r="C872" s="49"/>
-      <c r="D872" s="50"/>
+      <c r="C872" s="50"/>
+      <c r="D872" s="49"/>
       <c r="E872" s="33"/>
       <c r="F872" s="14"/>
       <c r="G872" s="15"/>
@@ -31806,8 +31935,8 @@
     <row r="873">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
-      <c r="C873" s="49"/>
-      <c r="D873" s="50"/>
+      <c r="C873" s="50"/>
+      <c r="D873" s="49"/>
       <c r="E873" s="33"/>
       <c r="F873" s="14"/>
       <c r="G873" s="15"/>
@@ -31835,8 +31964,8 @@
     <row r="874">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
-      <c r="C874" s="49"/>
-      <c r="D874" s="50"/>
+      <c r="C874" s="50"/>
+      <c r="D874" s="49"/>
       <c r="E874" s="33"/>
       <c r="F874" s="14"/>
       <c r="G874" s="15"/>
@@ -31864,8 +31993,8 @@
     <row r="875">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
-      <c r="C875" s="49"/>
-      <c r="D875" s="50"/>
+      <c r="C875" s="50"/>
+      <c r="D875" s="49"/>
       <c r="E875" s="33"/>
       <c r="F875" s="14"/>
       <c r="G875" s="15"/>
@@ -31893,8 +32022,8 @@
     <row r="876">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
-      <c r="C876" s="49"/>
-      <c r="D876" s="50"/>
+      <c r="C876" s="50"/>
+      <c r="D876" s="49"/>
       <c r="E876" s="33"/>
       <c r="F876" s="14"/>
       <c r="G876" s="15"/>
@@ -31922,8 +32051,8 @@
     <row r="877">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
-      <c r="C877" s="49"/>
-      <c r="D877" s="50"/>
+      <c r="C877" s="50"/>
+      <c r="D877" s="49"/>
       <c r="E877" s="33"/>
       <c r="F877" s="14"/>
       <c r="G877" s="15"/>
@@ -31951,8 +32080,8 @@
     <row r="878">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
-      <c r="C878" s="49"/>
-      <c r="D878" s="50"/>
+      <c r="C878" s="50"/>
+      <c r="D878" s="49"/>
       <c r="E878" s="33"/>
       <c r="F878" s="14"/>
       <c r="G878" s="15"/>
@@ -31980,8 +32109,8 @@
     <row r="879">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
-      <c r="C879" s="49"/>
-      <c r="D879" s="50"/>
+      <c r="C879" s="50"/>
+      <c r="D879" s="49"/>
       <c r="E879" s="33"/>
       <c r="F879" s="14"/>
       <c r="G879" s="15"/>
@@ -32009,8 +32138,8 @@
     <row r="880">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
-      <c r="C880" s="49"/>
-      <c r="D880" s="50"/>
+      <c r="C880" s="50"/>
+      <c r="D880" s="49"/>
       <c r="E880" s="33"/>
       <c r="F880" s="14"/>
       <c r="G880" s="15"/>
@@ -32038,8 +32167,8 @@
     <row r="881">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
-      <c r="C881" s="49"/>
-      <c r="D881" s="50"/>
+      <c r="C881" s="50"/>
+      <c r="D881" s="49"/>
       <c r="E881" s="33"/>
       <c r="F881" s="14"/>
       <c r="G881" s="15"/>
@@ -32067,8 +32196,8 @@
     <row r="882">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
-      <c r="C882" s="49"/>
-      <c r="D882" s="50"/>
+      <c r="C882" s="50"/>
+      <c r="D882" s="49"/>
       <c r="E882" s="33"/>
       <c r="F882" s="14"/>
       <c r="G882" s="15"/>
@@ -32096,8 +32225,8 @@
     <row r="883">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
-      <c r="C883" s="49"/>
-      <c r="D883" s="50"/>
+      <c r="C883" s="50"/>
+      <c r="D883" s="49"/>
       <c r="E883" s="33"/>
       <c r="F883" s="14"/>
       <c r="G883" s="15"/>
@@ -32125,8 +32254,8 @@
     <row r="884">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
-      <c r="C884" s="49"/>
-      <c r="D884" s="50"/>
+      <c r="C884" s="50"/>
+      <c r="D884" s="49"/>
       <c r="E884" s="33"/>
       <c r="F884" s="14"/>
       <c r="G884" s="15"/>
@@ -32154,8 +32283,8 @@
     <row r="885">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
-      <c r="C885" s="49"/>
-      <c r="D885" s="50"/>
+      <c r="C885" s="50"/>
+      <c r="D885" s="49"/>
       <c r="E885" s="33"/>
       <c r="F885" s="14"/>
       <c r="G885" s="15"/>
@@ -32183,8 +32312,8 @@
     <row r="886">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
-      <c r="C886" s="49"/>
-      <c r="D886" s="50"/>
+      <c r="C886" s="50"/>
+      <c r="D886" s="49"/>
       <c r="E886" s="33"/>
       <c r="F886" s="14"/>
       <c r="G886" s="15"/>
@@ -32212,8 +32341,8 @@
     <row r="887">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
-      <c r="C887" s="49"/>
-      <c r="D887" s="50"/>
+      <c r="C887" s="50"/>
+      <c r="D887" s="49"/>
       <c r="E887" s="33"/>
       <c r="F887" s="14"/>
       <c r="G887" s="15"/>
@@ -32241,8 +32370,8 @@
     <row r="888">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
-      <c r="C888" s="49"/>
-      <c r="D888" s="50"/>
+      <c r="C888" s="50"/>
+      <c r="D888" s="49"/>
       <c r="E888" s="33"/>
       <c r="F888" s="14"/>
       <c r="G888" s="15"/>
@@ -32270,8 +32399,8 @@
     <row r="889">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
-      <c r="C889" s="49"/>
-      <c r="D889" s="50"/>
+      <c r="C889" s="50"/>
+      <c r="D889" s="49"/>
       <c r="E889" s="33"/>
       <c r="F889" s="14"/>
       <c r="G889" s="15"/>
@@ -32299,8 +32428,8 @@
     <row r="890">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
-      <c r="C890" s="49"/>
-      <c r="D890" s="50"/>
+      <c r="C890" s="50"/>
+      <c r="D890" s="49"/>
       <c r="E890" s="33"/>
       <c r="F890" s="14"/>
       <c r="G890" s="15"/>
@@ -32328,8 +32457,8 @@
     <row r="891">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
-      <c r="C891" s="49"/>
-      <c r="D891" s="50"/>
+      <c r="C891" s="50"/>
+      <c r="D891" s="49"/>
       <c r="E891" s="33"/>
       <c r="F891" s="14"/>
       <c r="G891" s="15"/>
@@ -32357,8 +32486,8 @@
     <row r="892">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
-      <c r="C892" s="49"/>
-      <c r="D892" s="50"/>
+      <c r="C892" s="50"/>
+      <c r="D892" s="49"/>
       <c r="E892" s="33"/>
       <c r="F892" s="14"/>
       <c r="G892" s="15"/>
@@ -32386,8 +32515,8 @@
     <row r="893">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
-      <c r="C893" s="49"/>
-      <c r="D893" s="50"/>
+      <c r="C893" s="50"/>
+      <c r="D893" s="49"/>
       <c r="E893" s="33"/>
       <c r="F893" s="14"/>
       <c r="G893" s="15"/>
@@ -32415,8 +32544,8 @@
     <row r="894">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
-      <c r="C894" s="49"/>
-      <c r="D894" s="50"/>
+      <c r="C894" s="50"/>
+      <c r="D894" s="49"/>
       <c r="E894" s="33"/>
       <c r="F894" s="14"/>
       <c r="G894" s="15"/>
@@ -32444,8 +32573,8 @@
     <row r="895">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
-      <c r="C895" s="49"/>
-      <c r="D895" s="50"/>
+      <c r="C895" s="50"/>
+      <c r="D895" s="49"/>
       <c r="E895" s="33"/>
       <c r="F895" s="14"/>
       <c r="G895" s="15"/>
@@ -32473,8 +32602,8 @@
     <row r="896">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
-      <c r="C896" s="49"/>
-      <c r="D896" s="50"/>
+      <c r="C896" s="50"/>
+      <c r="D896" s="49"/>
       <c r="E896" s="33"/>
       <c r="F896" s="14"/>
       <c r="G896" s="15"/>
@@ -32502,8 +32631,8 @@
     <row r="897">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
-      <c r="C897" s="49"/>
-      <c r="D897" s="50"/>
+      <c r="C897" s="50"/>
+      <c r="D897" s="49"/>
       <c r="E897" s="33"/>
       <c r="F897" s="14"/>
       <c r="G897" s="15"/>
@@ -32531,8 +32660,8 @@
     <row r="898">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
-      <c r="C898" s="49"/>
-      <c r="D898" s="50"/>
+      <c r="C898" s="50"/>
+      <c r="D898" s="49"/>
       <c r="E898" s="33"/>
       <c r="F898" s="14"/>
       <c r="G898" s="15"/>
@@ -32560,8 +32689,8 @@
     <row r="899">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
-      <c r="C899" s="49"/>
-      <c r="D899" s="50"/>
+      <c r="C899" s="50"/>
+      <c r="D899" s="49"/>
       <c r="E899" s="33"/>
       <c r="F899" s="14"/>
       <c r="G899" s="15"/>
@@ -32589,8 +32718,8 @@
     <row r="900">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
-      <c r="C900" s="49"/>
-      <c r="D900" s="50"/>
+      <c r="C900" s="50"/>
+      <c r="D900" s="49"/>
       <c r="E900" s="33"/>
       <c r="F900" s="14"/>
       <c r="G900" s="15"/>
@@ -32618,8 +32747,8 @@
     <row r="901">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
-      <c r="C901" s="49"/>
-      <c r="D901" s="50"/>
+      <c r="C901" s="50"/>
+      <c r="D901" s="49"/>
       <c r="E901" s="33"/>
       <c r="F901" s="14"/>
       <c r="G901" s="15"/>
@@ -32647,8 +32776,8 @@
     <row r="902">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
-      <c r="C902" s="49"/>
-      <c r="D902" s="50"/>
+      <c r="C902" s="50"/>
+      <c r="D902" s="49"/>
       <c r="E902" s="33"/>
       <c r="F902" s="14"/>
       <c r="G902" s="15"/>
@@ -32676,8 +32805,8 @@
     <row r="903">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
-      <c r="C903" s="49"/>
-      <c r="D903" s="50"/>
+      <c r="C903" s="50"/>
+      <c r="D903" s="49"/>
       <c r="E903" s="33"/>
       <c r="F903" s="14"/>
       <c r="G903" s="15"/>
@@ -32705,8 +32834,8 @@
     <row r="904">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
-      <c r="C904" s="49"/>
-      <c r="D904" s="50"/>
+      <c r="C904" s="50"/>
+      <c r="D904" s="49"/>
       <c r="E904" s="33"/>
       <c r="F904" s="14"/>
       <c r="G904" s="15"/>
@@ -32734,8 +32863,8 @@
     <row r="905">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
-      <c r="C905" s="49"/>
-      <c r="D905" s="50"/>
+      <c r="C905" s="50"/>
+      <c r="D905" s="49"/>
       <c r="E905" s="33"/>
       <c r="F905" s="14"/>
       <c r="G905" s="15"/>
@@ -32763,8 +32892,8 @@
     <row r="906">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
-      <c r="C906" s="49"/>
-      <c r="D906" s="50"/>
+      <c r="C906" s="50"/>
+      <c r="D906" s="49"/>
       <c r="E906" s="33"/>
       <c r="F906" s="14"/>
       <c r="G906" s="15"/>
@@ -32792,8 +32921,8 @@
     <row r="907">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
-      <c r="C907" s="49"/>
-      <c r="D907" s="50"/>
+      <c r="C907" s="50"/>
+      <c r="D907" s="49"/>
       <c r="E907" s="33"/>
       <c r="F907" s="14"/>
       <c r="G907" s="15"/>
@@ -32821,8 +32950,8 @@
     <row r="908">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
-      <c r="C908" s="49"/>
-      <c r="D908" s="50"/>
+      <c r="C908" s="50"/>
+      <c r="D908" s="49"/>
       <c r="E908" s="33"/>
       <c r="F908" s="14"/>
       <c r="G908" s="15"/>
@@ -32850,8 +32979,8 @@
     <row r="909">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
-      <c r="C909" s="49"/>
-      <c r="D909" s="50"/>
+      <c r="C909" s="50"/>
+      <c r="D909" s="49"/>
       <c r="E909" s="33"/>
       <c r="F909" s="14"/>
       <c r="G909" s="15"/>
@@ -32879,8 +33008,8 @@
     <row r="910">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
-      <c r="C910" s="49"/>
-      <c r="D910" s="50"/>
+      <c r="C910" s="50"/>
+      <c r="D910" s="49"/>
       <c r="E910" s="33"/>
       <c r="F910" s="14"/>
       <c r="G910" s="15"/>
@@ -32908,8 +33037,8 @@
     <row r="911">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
-      <c r="C911" s="49"/>
-      <c r="D911" s="50"/>
+      <c r="C911" s="50"/>
+      <c r="D911" s="49"/>
       <c r="E911" s="33"/>
       <c r="F911" s="14"/>
       <c r="G911" s="15"/>
@@ -32937,8 +33066,8 @@
     <row r="912">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
-      <c r="C912" s="49"/>
-      <c r="D912" s="50"/>
+      <c r="C912" s="50"/>
+      <c r="D912" s="49"/>
       <c r="E912" s="33"/>
       <c r="F912" s="14"/>
       <c r="G912" s="15"/>
@@ -32966,8 +33095,8 @@
     <row r="913">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
-      <c r="C913" s="49"/>
-      <c r="D913" s="50"/>
+      <c r="C913" s="50"/>
+      <c r="D913" s="49"/>
       <c r="E913" s="33"/>
       <c r="F913" s="14"/>
       <c r="G913" s="15"/>
@@ -32995,8 +33124,8 @@
     <row r="914">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
-      <c r="C914" s="49"/>
-      <c r="D914" s="50"/>
+      <c r="C914" s="50"/>
+      <c r="D914" s="49"/>
       <c r="E914" s="33"/>
       <c r="F914" s="14"/>
       <c r="G914" s="15"/>
@@ -33024,8 +33153,8 @@
     <row r="915">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
-      <c r="C915" s="49"/>
-      <c r="D915" s="50"/>
+      <c r="C915" s="50"/>
+      <c r="D915" s="49"/>
       <c r="E915" s="33"/>
       <c r="F915" s="14"/>
       <c r="G915" s="15"/>
@@ -33053,8 +33182,8 @@
     <row r="916">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
-      <c r="C916" s="49"/>
-      <c r="D916" s="50"/>
+      <c r="C916" s="50"/>
+      <c r="D916" s="49"/>
       <c r="E916" s="33"/>
       <c r="F916" s="14"/>
       <c r="G916" s="15"/>
@@ -33082,8 +33211,8 @@
     <row r="917">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
-      <c r="C917" s="49"/>
-      <c r="D917" s="50"/>
+      <c r="C917" s="50"/>
+      <c r="D917" s="49"/>
       <c r="E917" s="33"/>
       <c r="F917" s="14"/>
       <c r="G917" s="15"/>
@@ -33111,8 +33240,8 @@
     <row r="918">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
-      <c r="C918" s="49"/>
-      <c r="D918" s="50"/>
+      <c r="C918" s="50"/>
+      <c r="D918" s="49"/>
       <c r="E918" s="33"/>
       <c r="F918" s="14"/>
       <c r="G918" s="15"/>
@@ -33140,8 +33269,8 @@
     <row r="919">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
-      <c r="C919" s="49"/>
-      <c r="D919" s="50"/>
+      <c r="C919" s="50"/>
+      <c r="D919" s="49"/>
       <c r="E919" s="33"/>
       <c r="F919" s="14"/>
       <c r="G919" s="15"/>
@@ -33169,8 +33298,8 @@
     <row r="920">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
-      <c r="C920" s="49"/>
-      <c r="D920" s="50"/>
+      <c r="C920" s="50"/>
+      <c r="D920" s="49"/>
       <c r="E920" s="33"/>
       <c r="F920" s="14"/>
       <c r="G920" s="15"/>
@@ -33198,8 +33327,8 @@
     <row r="921">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
-      <c r="C921" s="49"/>
-      <c r="D921" s="50"/>
+      <c r="C921" s="50"/>
+      <c r="D921" s="49"/>
       <c r="E921" s="33"/>
       <c r="F921" s="14"/>
       <c r="G921" s="15"/>
@@ -33227,8 +33356,8 @@
     <row r="922">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
-      <c r="C922" s="49"/>
-      <c r="D922" s="50"/>
+      <c r="C922" s="50"/>
+      <c r="D922" s="49"/>
       <c r="E922" s="33"/>
       <c r="F922" s="14"/>
       <c r="G922" s="15"/>
@@ -33256,8 +33385,8 @@
     <row r="923">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
-      <c r="C923" s="49"/>
-      <c r="D923" s="50"/>
+      <c r="C923" s="50"/>
+      <c r="D923" s="49"/>
       <c r="E923" s="33"/>
       <c r="F923" s="14"/>
       <c r="G923" s="15"/>
@@ -33285,8 +33414,8 @@
     <row r="924">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
-      <c r="C924" s="49"/>
-      <c r="D924" s="50"/>
+      <c r="C924" s="50"/>
+      <c r="D924" s="49"/>
       <c r="E924" s="33"/>
       <c r="F924" s="14"/>
       <c r="G924" s="15"/>
@@ -33314,8 +33443,8 @@
     <row r="925">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
-      <c r="C925" s="49"/>
-      <c r="D925" s="50"/>
+      <c r="C925" s="50"/>
+      <c r="D925" s="49"/>
       <c r="E925" s="33"/>
       <c r="F925" s="14"/>
       <c r="G925" s="15"/>
@@ -33343,8 +33472,8 @@
     <row r="926">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
-      <c r="C926" s="49"/>
-      <c r="D926" s="50"/>
+      <c r="C926" s="50"/>
+      <c r="D926" s="49"/>
       <c r="E926" s="33"/>
       <c r="F926" s="14"/>
       <c r="G926" s="15"/>
@@ -33372,8 +33501,8 @@
     <row r="927">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
-      <c r="C927" s="49"/>
-      <c r="D927" s="50"/>
+      <c r="C927" s="50"/>
+      <c r="D927" s="49"/>
       <c r="E927" s="33"/>
       <c r="F927" s="14"/>
       <c r="G927" s="15"/>
@@ -33401,8 +33530,8 @@
     <row r="928">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
-      <c r="C928" s="49"/>
-      <c r="D928" s="50"/>
+      <c r="C928" s="50"/>
+      <c r="D928" s="49"/>
       <c r="E928" s="33"/>
       <c r="F928" s="14"/>
       <c r="G928" s="15"/>
@@ -33430,8 +33559,8 @@
     <row r="929">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
-      <c r="C929" s="49"/>
-      <c r="D929" s="50"/>
+      <c r="C929" s="50"/>
+      <c r="D929" s="49"/>
       <c r="E929" s="33"/>
       <c r="F929" s="14"/>
       <c r="G929" s="15"/>
@@ -33459,8 +33588,8 @@
     <row r="930">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
-      <c r="C930" s="49"/>
-      <c r="D930" s="50"/>
+      <c r="C930" s="50"/>
+      <c r="D930" s="49"/>
       <c r="E930" s="33"/>
       <c r="F930" s="14"/>
       <c r="G930" s="15"/>
@@ -33488,8 +33617,8 @@
     <row r="931">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
-      <c r="C931" s="49"/>
-      <c r="D931" s="50"/>
+      <c r="C931" s="50"/>
+      <c r="D931" s="49"/>
       <c r="E931" s="33"/>
       <c r="F931" s="14"/>
       <c r="G931" s="15"/>
@@ -33517,8 +33646,8 @@
     <row r="932">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
-      <c r="C932" s="49"/>
-      <c r="D932" s="50"/>
+      <c r="C932" s="50"/>
+      <c r="D932" s="49"/>
       <c r="E932" s="33"/>
       <c r="F932" s="14"/>
       <c r="G932" s="15"/>
@@ -33546,8 +33675,8 @@
     <row r="933">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
-      <c r="C933" s="49"/>
-      <c r="D933" s="50"/>
+      <c r="C933" s="50"/>
+      <c r="D933" s="49"/>
       <c r="E933" s="33"/>
       <c r="F933" s="14"/>
       <c r="G933" s="15"/>
@@ -33575,8 +33704,8 @@
     <row r="934">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
-      <c r="C934" s="49"/>
-      <c r="D934" s="50"/>
+      <c r="C934" s="50"/>
+      <c r="D934" s="49"/>
       <c r="E934" s="33"/>
       <c r="F934" s="14"/>
       <c r="G934" s="15"/>
@@ -33604,8 +33733,8 @@
     <row r="935">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
-      <c r="C935" s="49"/>
-      <c r="D935" s="50"/>
+      <c r="C935" s="50"/>
+      <c r="D935" s="49"/>
       <c r="E935" s="33"/>
       <c r="F935" s="14"/>
       <c r="G935" s="15"/>
@@ -33633,8 +33762,8 @@
     <row r="936">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
-      <c r="C936" s="49"/>
-      <c r="D936" s="50"/>
+      <c r="C936" s="50"/>
+      <c r="D936" s="49"/>
       <c r="E936" s="33"/>
       <c r="F936" s="14"/>
       <c r="G936" s="15"/>
@@ -33662,8 +33791,8 @@
     <row r="937">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
-      <c r="C937" s="49"/>
-      <c r="D937" s="50"/>
+      <c r="C937" s="50"/>
+      <c r="D937" s="49"/>
       <c r="E937" s="33"/>
       <c r="F937" s="14"/>
       <c r="G937" s="15"/>
@@ -33691,8 +33820,8 @@
     <row r="938">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
-      <c r="C938" s="49"/>
-      <c r="D938" s="50"/>
+      <c r="C938" s="50"/>
+      <c r="D938" s="49"/>
       <c r="E938" s="33"/>
       <c r="F938" s="14"/>
       <c r="G938" s="15"/>
@@ -33720,8 +33849,8 @@
     <row r="939">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
-      <c r="C939" s="49"/>
-      <c r="D939" s="50"/>
+      <c r="C939" s="50"/>
+      <c r="D939" s="49"/>
       <c r="E939" s="33"/>
       <c r="F939" s="14"/>
       <c r="G939" s="15"/>
@@ -33749,8 +33878,8 @@
     <row r="940">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
-      <c r="C940" s="49"/>
-      <c r="D940" s="50"/>
+      <c r="C940" s="50"/>
+      <c r="D940" s="49"/>
       <c r="E940" s="33"/>
       <c r="F940" s="14"/>
       <c r="G940" s="15"/>
@@ -33778,8 +33907,8 @@
     <row r="941">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
-      <c r="C941" s="49"/>
-      <c r="D941" s="50"/>
+      <c r="C941" s="50"/>
+      <c r="D941" s="49"/>
       <c r="E941" s="33"/>
       <c r="F941" s="14"/>
       <c r="G941" s="15"/>
@@ -33807,8 +33936,8 @@
     <row r="942">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
-      <c r="C942" s="49"/>
-      <c r="D942" s="50"/>
+      <c r="C942" s="50"/>
+      <c r="D942" s="49"/>
       <c r="E942" s="33"/>
       <c r="F942" s="14"/>
       <c r="G942" s="15"/>
@@ -33836,8 +33965,8 @@
     <row r="943">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
-      <c r="C943" s="49"/>
-      <c r="D943" s="50"/>
+      <c r="C943" s="50"/>
+      <c r="D943" s="49"/>
       <c r="E943" s="33"/>
       <c r="F943" s="14"/>
       <c r="G943" s="15"/>
@@ -33865,8 +33994,8 @@
     <row r="944">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
-      <c r="C944" s="49"/>
-      <c r="D944" s="50"/>
+      <c r="C944" s="50"/>
+      <c r="D944" s="49"/>
       <c r="E944" s="33"/>
       <c r="F944" s="14"/>
       <c r="G944" s="15"/>
@@ -33894,8 +34023,8 @@
     <row r="945">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
-      <c r="C945" s="49"/>
-      <c r="D945" s="50"/>
+      <c r="C945" s="50"/>
+      <c r="D945" s="49"/>
       <c r="E945" s="33"/>
       <c r="F945" s="14"/>
       <c r="G945" s="15"/>
@@ -33923,8 +34052,8 @@
     <row r="946">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
-      <c r="C946" s="49"/>
-      <c r="D946" s="50"/>
+      <c r="C946" s="50"/>
+      <c r="D946" s="49"/>
       <c r="E946" s="33"/>
       <c r="F946" s="14"/>
       <c r="G946" s="15"/>
@@ -33952,8 +34081,8 @@
     <row r="947">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
-      <c r="C947" s="49"/>
-      <c r="D947" s="50"/>
+      <c r="C947" s="50"/>
+      <c r="D947" s="49"/>
       <c r="E947" s="33"/>
       <c r="F947" s="14"/>
       <c r="G947" s="15"/>
@@ -33981,8 +34110,8 @@
     <row r="948">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
-      <c r="C948" s="49"/>
-      <c r="D948" s="50"/>
+      <c r="C948" s="50"/>
+      <c r="D948" s="49"/>
       <c r="E948" s="33"/>
       <c r="F948" s="14"/>
       <c r="G948" s="15"/>
@@ -34010,8 +34139,8 @@
     <row r="949">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
-      <c r="C949" s="49"/>
-      <c r="D949" s="50"/>
+      <c r="C949" s="50"/>
+      <c r="D949" s="49"/>
       <c r="E949" s="33"/>
       <c r="F949" s="14"/>
       <c r="G949" s="15"/>
@@ -34039,8 +34168,8 @@
     <row r="950">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
-      <c r="C950" s="49"/>
-      <c r="D950" s="50"/>
+      <c r="C950" s="50"/>
+      <c r="D950" s="49"/>
       <c r="E950" s="33"/>
       <c r="F950" s="14"/>
       <c r="G950" s="15"/>
@@ -34068,8 +34197,8 @@
     <row r="951">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
-      <c r="C951" s="49"/>
-      <c r="D951" s="50"/>
+      <c r="C951" s="50"/>
+      <c r="D951" s="49"/>
       <c r="E951" s="33"/>
       <c r="F951" s="14"/>
       <c r="G951" s="15"/>
@@ -34097,8 +34226,8 @@
     <row r="952">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
-      <c r="C952" s="49"/>
-      <c r="D952" s="50"/>
+      <c r="C952" s="50"/>
+      <c r="D952" s="49"/>
       <c r="E952" s="33"/>
       <c r="F952" s="14"/>
       <c r="G952" s="15"/>
@@ -34126,8 +34255,8 @@
     <row r="953">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
-      <c r="C953" s="49"/>
-      <c r="D953" s="50"/>
+      <c r="C953" s="50"/>
+      <c r="D953" s="49"/>
       <c r="E953" s="33"/>
       <c r="F953" s="14"/>
       <c r="G953" s="15"/>
@@ -34155,8 +34284,8 @@
     <row r="954">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
-      <c r="C954" s="49"/>
-      <c r="D954" s="50"/>
+      <c r="C954" s="50"/>
+      <c r="D954" s="49"/>
       <c r="E954" s="33"/>
       <c r="F954" s="14"/>
       <c r="G954" s="15"/>
@@ -34184,8 +34313,8 @@
     <row r="955">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
-      <c r="C955" s="49"/>
-      <c r="D955" s="50"/>
+      <c r="C955" s="50"/>
+      <c r="D955" s="49"/>
       <c r="E955" s="33"/>
       <c r="F955" s="14"/>
       <c r="G955" s="15"/>
@@ -34213,8 +34342,8 @@
     <row r="956">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
-      <c r="C956" s="49"/>
-      <c r="D956" s="50"/>
+      <c r="C956" s="50"/>
+      <c r="D956" s="49"/>
       <c r="E956" s="33"/>
       <c r="F956" s="14"/>
       <c r="G956" s="15"/>
@@ -34242,8 +34371,8 @@
     <row r="957">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
-      <c r="C957" s="49"/>
-      <c r="D957" s="50"/>
+      <c r="C957" s="50"/>
+      <c r="D957" s="49"/>
       <c r="E957" s="33"/>
       <c r="F957" s="14"/>
       <c r="G957" s="15"/>
@@ -34271,8 +34400,8 @@
     <row r="958">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
-      <c r="C958" s="49"/>
-      <c r="D958" s="50"/>
+      <c r="C958" s="50"/>
+      <c r="D958" s="49"/>
       <c r="E958" s="33"/>
       <c r="F958" s="14"/>
       <c r="G958" s="15"/>
@@ -34300,8 +34429,8 @@
     <row r="959">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
-      <c r="C959" s="49"/>
-      <c r="D959" s="50"/>
+      <c r="C959" s="50"/>
+      <c r="D959" s="49"/>
       <c r="E959" s="33"/>
       <c r="F959" s="14"/>
       <c r="G959" s="15"/>
@@ -34329,8 +34458,8 @@
     <row r="960">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
-      <c r="C960" s="49"/>
-      <c r="D960" s="50"/>
+      <c r="C960" s="50"/>
+      <c r="D960" s="49"/>
       <c r="E960" s="33"/>
       <c r="F960" s="14"/>
       <c r="G960" s="15"/>
@@ -34358,8 +34487,8 @@
     <row r="961">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
-      <c r="C961" s="49"/>
-      <c r="D961" s="50"/>
+      <c r="C961" s="50"/>
+      <c r="D961" s="49"/>
       <c r="E961" s="33"/>
       <c r="F961" s="14"/>
       <c r="G961" s="15"/>
@@ -34387,8 +34516,8 @@
     <row r="962">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
-      <c r="C962" s="49"/>
-      <c r="D962" s="50"/>
+      <c r="C962" s="50"/>
+      <c r="D962" s="49"/>
       <c r="E962" s="33"/>
       <c r="F962" s="14"/>
       <c r="G962" s="15"/>
@@ -34416,8 +34545,8 @@
     <row r="963">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
-      <c r="C963" s="49"/>
-      <c r="D963" s="50"/>
+      <c r="C963" s="50"/>
+      <c r="D963" s="49"/>
       <c r="E963" s="33"/>
       <c r="F963" s="14"/>
       <c r="G963" s="15"/>
@@ -34445,8 +34574,8 @@
     <row r="964">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
-      <c r="C964" s="49"/>
-      <c r="D964" s="50"/>
+      <c r="C964" s="50"/>
+      <c r="D964" s="49"/>
       <c r="E964" s="33"/>
       <c r="F964" s="14"/>
       <c r="G964" s="15"/>
@@ -34474,8 +34603,8 @@
     <row r="965">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
-      <c r="C965" s="49"/>
-      <c r="D965" s="50"/>
+      <c r="C965" s="50"/>
+      <c r="D965" s="49"/>
       <c r="E965" s="33"/>
       <c r="F965" s="14"/>
       <c r="G965" s="15"/>
@@ -34503,8 +34632,8 @@
     <row r="966">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
-      <c r="C966" s="49"/>
-      <c r="D966" s="50"/>
+      <c r="C966" s="50"/>
+      <c r="D966" s="49"/>
       <c r="E966" s="33"/>
       <c r="F966" s="14"/>
       <c r="G966" s="15"/>
@@ -34532,8 +34661,8 @@
     <row r="967">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
-      <c r="C967" s="49"/>
-      <c r="D967" s="50"/>
+      <c r="C967" s="50"/>
+      <c r="D967" s="49"/>
       <c r="E967" s="33"/>
       <c r="F967" s="14"/>
       <c r="G967" s="15"/>
@@ -34561,8 +34690,8 @@
     <row r="968">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
-      <c r="C968" s="49"/>
-      <c r="D968" s="50"/>
+      <c r="C968" s="50"/>
+      <c r="D968" s="49"/>
       <c r="E968" s="33"/>
       <c r="F968" s="14"/>
       <c r="G968" s="15"/>
@@ -34590,8 +34719,8 @@
     <row r="969">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
-      <c r="C969" s="49"/>
-      <c r="D969" s="50"/>
+      <c r="C969" s="50"/>
+      <c r="D969" s="49"/>
       <c r="E969" s="33"/>
       <c r="F969" s="14"/>
       <c r="G969" s="15"/>
@@ -34619,8 +34748,8 @@
     <row r="970">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
-      <c r="C970" s="49"/>
-      <c r="D970" s="50"/>
+      <c r="C970" s="50"/>
+      <c r="D970" s="49"/>
       <c r="E970" s="33"/>
       <c r="F970" s="14"/>
       <c r="G970" s="15"/>
@@ -34648,8 +34777,8 @@
     <row r="971">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
-      <c r="C971" s="49"/>
-      <c r="D971" s="50"/>
+      <c r="C971" s="50"/>
+      <c r="D971" s="49"/>
       <c r="E971" s="33"/>
       <c r="F971" s="14"/>
       <c r="G971" s="15"/>
@@ -34677,8 +34806,8 @@
     <row r="972">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
-      <c r="C972" s="49"/>
-      <c r="D972" s="50"/>
+      <c r="C972" s="50"/>
+      <c r="D972" s="49"/>
       <c r="E972" s="33"/>
       <c r="F972" s="14"/>
       <c r="G972" s="15"/>
@@ -34706,8 +34835,8 @@
     <row r="973">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
-      <c r="C973" s="49"/>
-      <c r="D973" s="50"/>
+      <c r="C973" s="50"/>
+      <c r="D973" s="49"/>
       <c r="E973" s="33"/>
       <c r="F973" s="14"/>
       <c r="G973" s="15"/>
@@ -34735,8 +34864,8 @@
     <row r="974">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
-      <c r="C974" s="49"/>
-      <c r="D974" s="50"/>
+      <c r="C974" s="50"/>
+      <c r="D974" s="49"/>
       <c r="E974" s="33"/>
       <c r="F974" s="14"/>
       <c r="G974" s="15"/>
@@ -34764,8 +34893,8 @@
     <row r="975">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
-      <c r="C975" s="49"/>
-      <c r="D975" s="50"/>
+      <c r="C975" s="50"/>
+      <c r="D975" s="49"/>
       <c r="E975" s="33"/>
       <c r="F975" s="14"/>
       <c r="G975" s="15"/>
@@ -34793,8 +34922,8 @@
     <row r="976">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
-      <c r="C976" s="49"/>
-      <c r="D976" s="50"/>
+      <c r="C976" s="50"/>
+      <c r="D976" s="49"/>
       <c r="E976" s="33"/>
       <c r="F976" s="14"/>
       <c r="G976" s="15"/>
@@ -34822,8 +34951,8 @@
     <row r="977">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
-      <c r="C977" s="49"/>
-      <c r="D977" s="50"/>
+      <c r="C977" s="50"/>
+      <c r="D977" s="49"/>
       <c r="E977" s="33"/>
       <c r="F977" s="14"/>
       <c r="G977" s="15"/>
@@ -34851,8 +34980,8 @@
     <row r="978">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
-      <c r="C978" s="49"/>
-      <c r="D978" s="50"/>
+      <c r="C978" s="50"/>
+      <c r="D978" s="49"/>
       <c r="E978" s="33"/>
       <c r="F978" s="14"/>
       <c r="G978" s="15"/>
@@ -34880,8 +35009,8 @@
     <row r="979">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
-      <c r="C979" s="49"/>
-      <c r="D979" s="50"/>
+      <c r="C979" s="50"/>
+      <c r="D979" s="49"/>
       <c r="E979" s="33"/>
       <c r="F979" s="14"/>
       <c r="G979" s="15"/>
@@ -34909,8 +35038,8 @@
     <row r="980">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
-      <c r="C980" s="49"/>
-      <c r="D980" s="50"/>
+      <c r="C980" s="50"/>
+      <c r="D980" s="49"/>
       <c r="E980" s="33"/>
       <c r="F980" s="14"/>
       <c r="G980" s="15"/>
@@ -34938,8 +35067,8 @@
     <row r="981">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
-      <c r="C981" s="49"/>
-      <c r="D981" s="50"/>
+      <c r="C981" s="50"/>
+      <c r="D981" s="49"/>
       <c r="E981" s="33"/>
       <c r="F981" s="14"/>
       <c r="G981" s="15"/>
@@ -34967,8 +35096,8 @@
     <row r="982">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
-      <c r="C982" s="49"/>
-      <c r="D982" s="50"/>
+      <c r="C982" s="50"/>
+      <c r="D982" s="49"/>
       <c r="E982" s="33"/>
       <c r="F982" s="14"/>
       <c r="G982" s="15"/>
@@ -34996,8 +35125,8 @@
     <row r="983">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
-      <c r="C983" s="49"/>
-      <c r="D983" s="50"/>
+      <c r="C983" s="50"/>
+      <c r="D983" s="49"/>
       <c r="E983" s="33"/>
       <c r="F983" s="14"/>
       <c r="G983" s="15"/>
@@ -35025,8 +35154,8 @@
     <row r="984">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
-      <c r="C984" s="49"/>
-      <c r="D984" s="50"/>
+      <c r="C984" s="50"/>
+      <c r="D984" s="49"/>
       <c r="E984" s="33"/>
       <c r="F984" s="14"/>
       <c r="G984" s="15"/>
@@ -35054,8 +35183,8 @@
     <row r="985">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
-      <c r="C985" s="49"/>
-      <c r="D985" s="50"/>
+      <c r="C985" s="50"/>
+      <c r="D985" s="49"/>
       <c r="E985" s="33"/>
       <c r="F985" s="14"/>
       <c r="G985" s="15"/>
@@ -35083,8 +35212,8 @@
     <row r="986">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
-      <c r="C986" s="49"/>
-      <c r="D986" s="50"/>
+      <c r="C986" s="50"/>
+      <c r="D986" s="49"/>
       <c r="E986" s="33"/>
       <c r="F986" s="14"/>
       <c r="G986" s="15"/>
@@ -35112,8 +35241,8 @@
     <row r="987">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
-      <c r="C987" s="49"/>
-      <c r="D987" s="50"/>
+      <c r="C987" s="50"/>
+      <c r="D987" s="49"/>
       <c r="E987" s="33"/>
       <c r="F987" s="14"/>
       <c r="G987" s="15"/>
@@ -35141,8 +35270,8 @@
     <row r="988">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
-      <c r="C988" s="49"/>
-      <c r="D988" s="50"/>
+      <c r="C988" s="50"/>
+      <c r="D988" s="49"/>
       <c r="E988" s="33"/>
       <c r="F988" s="14"/>
       <c r="G988" s="15"/>
@@ -35170,8 +35299,8 @@
     <row r="989">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
-      <c r="C989" s="49"/>
-      <c r="D989" s="50"/>
+      <c r="C989" s="50"/>
+      <c r="D989" s="49"/>
       <c r="E989" s="33"/>
       <c r="F989" s="14"/>
       <c r="G989" s="15"/>
@@ -35199,8 +35328,8 @@
     <row r="990">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
-      <c r="C990" s="49"/>
-      <c r="D990" s="50"/>
+      <c r="C990" s="50"/>
+      <c r="D990" s="49"/>
       <c r="E990" s="33"/>
       <c r="F990" s="14"/>
       <c r="G990" s="15"/>
@@ -35228,8 +35357,8 @@
     <row r="991">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
-      <c r="C991" s="49"/>
-      <c r="D991" s="50"/>
+      <c r="C991" s="50"/>
+      <c r="D991" s="49"/>
       <c r="E991" s="33"/>
       <c r="F991" s="14"/>
       <c r="G991" s="15"/>
@@ -35257,8 +35386,8 @@
     <row r="992">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
-      <c r="C992" s="49"/>
-      <c r="D992" s="50"/>
+      <c r="C992" s="50"/>
+      <c r="D992" s="49"/>
       <c r="E992" s="33"/>
       <c r="F992" s="14"/>
       <c r="G992" s="15"/>
@@ -35286,8 +35415,8 @@
     <row r="993">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
-      <c r="C993" s="49"/>
-      <c r="D993" s="50"/>
+      <c r="C993" s="50"/>
+      <c r="D993" s="49"/>
       <c r="E993" s="33"/>
       <c r="F993" s="14"/>
       <c r="G993" s="15"/>
@@ -35315,8 +35444,8 @@
     <row r="994">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
-      <c r="C994" s="49"/>
-      <c r="D994" s="50"/>
+      <c r="C994" s="50"/>
+      <c r="D994" s="49"/>
       <c r="E994" s="33"/>
       <c r="F994" s="14"/>
       <c r="G994" s="15"/>
@@ -35344,8 +35473,8 @@
     <row r="995">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
-      <c r="C995" s="49"/>
-      <c r="D995" s="50"/>
+      <c r="C995" s="50"/>
+      <c r="D995" s="49"/>
       <c r="E995" s="33"/>
       <c r="F995" s="14"/>
       <c r="G995" s="15"/>
@@ -35373,8 +35502,8 @@
     <row r="996">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
-      <c r="C996" s="49"/>
-      <c r="D996" s="50"/>
+      <c r="C996" s="50"/>
+      <c r="D996" s="49"/>
       <c r="E996" s="33"/>
       <c r="F996" s="14"/>
       <c r="G996" s="15"/>
@@ -35402,8 +35531,8 @@
     <row r="997">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
-      <c r="C997" s="49"/>
-      <c r="D997" s="50"/>
+      <c r="C997" s="50"/>
+      <c r="D997" s="49"/>
       <c r="E997" s="33"/>
       <c r="F997" s="14"/>
       <c r="G997" s="15"/>
@@ -35431,8 +35560,8 @@
     <row r="998">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
-      <c r="C998" s="49"/>
-      <c r="D998" s="50"/>
+      <c r="C998" s="50"/>
+      <c r="D998" s="49"/>
       <c r="E998" s="33"/>
       <c r="F998" s="14"/>
       <c r="G998" s="15"/>
@@ -35460,8 +35589,8 @@
     <row r="999">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
-      <c r="C999" s="49"/>
-      <c r="D999" s="50"/>
+      <c r="C999" s="50"/>
+      <c r="D999" s="49"/>
       <c r="E999" s="33"/>
       <c r="F999" s="14"/>
       <c r="G999" s="15"/>
@@ -35489,8 +35618,8 @@
     <row r="1000">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
-      <c r="C1000" s="49"/>
-      <c r="D1000" s="50"/>
+      <c r="C1000" s="50"/>
+      <c r="D1000" s="49"/>
       <c r="E1000" s="33"/>
       <c r="F1000" s="14"/>
       <c r="G1000" s="15"/>
@@ -35518,8 +35647,8 @@
     <row r="1001">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
-      <c r="C1001" s="49"/>
-      <c r="D1001" s="50"/>
+      <c r="C1001" s="50"/>
+      <c r="D1001" s="49"/>
       <c r="E1001" s="33"/>
       <c r="F1001" s="14"/>
       <c r="G1001" s="15"/>
@@ -35547,8 +35676,8 @@
     <row r="1002">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
-      <c r="C1002" s="49"/>
-      <c r="D1002" s="50"/>
+      <c r="C1002" s="50"/>
+      <c r="D1002" s="49"/>
       <c r="E1002" s="33"/>
       <c r="F1002" s="14"/>
       <c r="G1002" s="15"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="999">
   <si>
     <t>Number</t>
   </si>
@@ -3854,6 +3854,65 @@
 way ahead All the children in the class are doing well, but Sophie is way (= far) ahead.</t>
     </r>
   </si>
+  <si>
+    <t>description (n.)</t>
+  </si>
+  <si>
+    <t>something that tells you what something or someone is like:
+Write a description of your favourite beach.
+She has given the police a very detailed/full description of the robber.
+A girl answering (= matching) the description of the missing teenager was spotted in Glasgow.</t>
+  </si>
+  <si>
+    <t>foreign (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">A2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">belonging or connected to a country that is not your own:
+Spain was the first foreign country she had visited.
+foreign languages
+His work provided him with the opportunity for a lot of foreign travel.
+foreign to formal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>C2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Something can be described as foreign to a particular person if they do not know about it or it is not within their experience:
+The whole concept of democracy, she claimed, was utterly foreign to the present government.</t>
+    </r>
+  </si>
+  <si>
+    <t>adjective: خارجی, خارجه, خارج, بیگانه, اجنبی, بیرونی, غریبه, ناجور, نا مناسب</t>
+  </si>
 </sst>
 </file>
 
@@ -3868,13 +3927,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Nunito"/>
     </font>
@@ -4071,7 +4130,7 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4093,7 +4152,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4114,7 +4173,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4126,7 +4185,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -4135,7 +4194,7 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4150,7 +4209,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4180,25 +4239,25 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4440,9 +4499,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="6.63"/>
-    <col customWidth="1" min="3" max="3" width="41.5"/>
-    <col customWidth="1" min="4" max="4" width="114.38"/>
+    <col customWidth="1" min="1" max="1" width="6.0"/>
+    <col customWidth="1" min="2" max="2" width="6.13"/>
+    <col customWidth="1" min="3" max="3" width="40.0"/>
+    <col customWidth="1" min="4" max="4" width="119.0"/>
     <col customWidth="1" min="5" max="5" width="36.13"/>
     <col customWidth="1" min="6" max="6" width="70.25"/>
     <col customWidth="1" min="7" max="7" width="67.5"/>
@@ -24165,9 +24225,15 @@
     </row>
     <row r="572">
       <c r="A572" s="9"/>
-      <c r="B572" s="9"/>
-      <c r="C572" s="52"/>
-      <c r="D572" s="53"/>
+      <c r="B572" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C572" s="51" t="s">
+        <v>994</v>
+      </c>
+      <c r="D572" s="48" t="s">
+        <v>995</v>
+      </c>
       <c r="E572" s="35"/>
       <c r="F572" s="14"/>
       <c r="G572" s="15"/>
@@ -24194,10 +24260,18 @@
     </row>
     <row r="573">
       <c r="A573" s="9"/>
-      <c r="B573" s="9"/>
-      <c r="C573" s="52"/>
-      <c r="D573" s="53"/>
-      <c r="E573" s="35"/>
+      <c r="B573" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C573" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="D573" s="48" t="s">
+        <v>997</v>
+      </c>
+      <c r="E573" s="36" t="s">
+        <v>998</v>
+      </c>
       <c r="F573" s="14"/>
       <c r="G573" s="15"/>
       <c r="H573" s="16"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1002">
   <si>
     <t>Number</t>
   </si>
@@ -3912,6 +3912,34 @@
   </si>
   <si>
     <t>adjective: خارجی, خارجه, خارج, بیگانه, اجنبی, بیرونی, غریبه, ناجور, نا مناسب</t>
+  </si>
+  <si>
+    <t>contribute (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+to give something, especially money, in order to provide or achieve something together with other people:
+contribute towards Aren't you going to contribute towards Jack's leaving present?
+Come to the meeting if you feel you have something to contribute.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    مشارکت, شرکاء, شرکت در مالکیت, انبازی</t>
   </si>
 </sst>
 </file>
@@ -24297,10 +24325,18 @@
     </row>
     <row r="574">
       <c r="A574" s="9"/>
-      <c r="B574" s="9"/>
-      <c r="C574" s="52"/>
-      <c r="D574" s="53"/>
-      <c r="E574" s="35"/>
+      <c r="B574" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C574" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="D574" s="48" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E574" s="36" t="s">
+        <v>1001</v>
+      </c>
       <c r="F574" s="14"/>
       <c r="G574" s="15"/>
       <c r="H574" s="16"/>
@@ -36736,6 +36772,64 @@
       <c r="Z1002" s="16"/>
       <c r="AA1002" s="16"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="9"/>
+      <c r="B1003" s="9"/>
+      <c r="C1003" s="52"/>
+      <c r="D1003" s="53"/>
+      <c r="E1003" s="35"/>
+      <c r="F1003" s="14"/>
+      <c r="G1003" s="15"/>
+      <c r="H1003" s="16"/>
+      <c r="I1003" s="16"/>
+      <c r="J1003" s="16"/>
+      <c r="K1003" s="16"/>
+      <c r="L1003" s="16"/>
+      <c r="M1003" s="16"/>
+      <c r="N1003" s="16"/>
+      <c r="O1003" s="16"/>
+      <c r="P1003" s="16"/>
+      <c r="Q1003" s="16"/>
+      <c r="R1003" s="16"/>
+      <c r="S1003" s="16"/>
+      <c r="T1003" s="16"/>
+      <c r="U1003" s="16"/>
+      <c r="V1003" s="16"/>
+      <c r="W1003" s="16"/>
+      <c r="X1003" s="16"/>
+      <c r="Y1003" s="16"/>
+      <c r="Z1003" s="16"/>
+      <c r="AA1003" s="16"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="9"/>
+      <c r="B1004" s="9"/>
+      <c r="C1004" s="52"/>
+      <c r="D1004" s="53"/>
+      <c r="E1004" s="35"/>
+      <c r="F1004" s="14"/>
+      <c r="G1004" s="15"/>
+      <c r="H1004" s="16"/>
+      <c r="I1004" s="16"/>
+      <c r="J1004" s="16"/>
+      <c r="K1004" s="16"/>
+      <c r="L1004" s="16"/>
+      <c r="M1004" s="16"/>
+      <c r="N1004" s="16"/>
+      <c r="O1004" s="16"/>
+      <c r="P1004" s="16"/>
+      <c r="Q1004" s="16"/>
+      <c r="R1004" s="16"/>
+      <c r="S1004" s="16"/>
+      <c r="T1004" s="16"/>
+      <c r="U1004" s="16"/>
+      <c r="V1004" s="16"/>
+      <c r="W1004" s="16"/>
+      <c r="X1004" s="16"/>
+      <c r="Y1004" s="16"/>
+      <c r="Z1004" s="16"/>
+      <c r="AA1004" s="16"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1032">
   <si>
     <t>Number</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>airport (n.)</t>
+  </si>
+  <si>
+    <t>a place where people get on and off planes, with buildings where passengers can wait.</t>
   </si>
   <si>
     <t>فرودگاه</t>
@@ -3940,6 +3943,117 @@
   </si>
   <si>
     <t xml:space="preserve">    مشارکت, شرکاء, شرکت در مالکیت, انبازی</t>
+  </si>
+  <si>
+    <t>ordinary (adj.)</t>
+  </si>
+  <si>
+    <t>with no special or distinctive features; normal.
+not different or special or unexpected in any way; usual.
+"he sets out to depict ordinary people"
+an ordinary neighbourhood</t>
+  </si>
+  <si>
+    <t>معمولی</t>
+  </si>
+  <si>
+    <t>different (adj.)</t>
+  </si>
+  <si>
+    <t>not the same:
+She seems to wear something different every day.
+He's different now that he's been to college.
+We're reading a different book this week.
+Emily is very/completely/entirely different from her sister.
+Emily and her sister are completely different.
+There are many different types/kinds of bacteria.</t>
+  </si>
+  <si>
+    <t>alcohol (n.)</t>
+  </si>
+  <si>
+    <t>a clear liquid that can make you drunk, also used as a solvent (= a substance that dissolves another) and in fuel and medicines:
+Most wines contain around twelve percent alcohol.
+I could smell the alcohol on his breath.
+an alcohol-free lager</t>
+  </si>
+  <si>
+    <t>drunk (adj.)</t>
+  </si>
+  <si>
+    <t>unable to speak or act in the usual way because of having had too much alcohol:
+I got completely drunk at my sister's wedding.</t>
+  </si>
+  <si>
+    <t>solvent (adj.)</t>
+  </si>
+  <si>
+    <t>(especially of companies) having enough money to pay all the money that is owed to other people:
+Many insurance companies are under pressure to increase premiums to stay solvent.</t>
+  </si>
+  <si>
+    <t>adjective: حلال, قادر به پرداخت قروض, قابل پرداخت</t>
+  </si>
+  <si>
+    <t>nail polish (n.)AM / UK nail varnish</t>
+  </si>
+  <si>
+    <t>a coloured liquid that is painted on fingernails or toenails</t>
+  </si>
+  <si>
+    <t>لاک ناخن (دست ها)</t>
+  </si>
+  <si>
+    <t>toenail (n.)</t>
+  </si>
+  <si>
+    <t>the hard, slightly curved part that covers and protects the end of a toe:
+She was cutting/painting her toenails.</t>
+  </si>
+  <si>
+    <t>ناخن پا</t>
+  </si>
+  <si>
+    <t>solvent (n.)</t>
+  </si>
+  <si>
+    <t>a liquid in which solids will dissolve</t>
+  </si>
+  <si>
+    <t>insurance (n.)</t>
+  </si>
+  <si>
+    <t>an agreement in which you pay a company money and they pay your costs if you have an accident, injury, etc.:
+car/travel insurance
+take out insurance I'll need to take out extra car insurance for another driver.
+The insurance doesn't cover you for (= include) household items.</t>
+  </si>
+  <si>
+    <t>بیمه</t>
+  </si>
+  <si>
+    <t>household (n.)</t>
+  </si>
+  <si>
+    <t>a group of people, often a family, who live together:
+By the 1960s, most households had a TV.
+household chores
+household expenses
+household waste</t>
+  </si>
+  <si>
+    <t>noun: خانواده, خاندان, اهل بیت, اهل خانه, صمیمی, مستخدمین خانه, خانمان</t>
+  </si>
+  <si>
+    <t>household (adj.)</t>
+  </si>
+  <si>
+    <t>household chores
+household expenses
+household waste</t>
+  </si>
+  <si>
+    <t>خانگی</t>
   </si>
 </sst>
 </file>
@@ -5799,9 +5913,11 @@
       <c r="C36" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="E36" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="15"/>
@@ -5832,11 +5948,11 @@
         <v>37</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="15"/>
@@ -5867,11 +5983,11 @@
         <v>37</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="15"/>
@@ -5902,11 +6018,11 @@
         <v>37</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="15"/>
@@ -5937,11 +6053,11 @@
         <v>37</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="15"/>
@@ -5972,11 +6088,11 @@
         <v>37</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="15"/>
@@ -6007,11 +6123,11 @@
         <v>37</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="15"/>
@@ -6042,11 +6158,11 @@
         <v>37</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="15"/>
@@ -6077,11 +6193,11 @@
         <v>37</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="15"/>
@@ -6112,11 +6228,11 @@
         <v>37</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="15"/>
@@ -6147,11 +6263,11 @@
         <v>37</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="15"/>
@@ -6182,11 +6298,11 @@
         <v>37</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="15"/>
@@ -6217,11 +6333,11 @@
         <v>37</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="15"/>
@@ -6252,11 +6368,11 @@
         <v>37</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="15"/>
@@ -6287,11 +6403,11 @@
         <v>37</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="15"/>
@@ -6322,11 +6438,11 @@
         <v>37</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="15"/>
@@ -6357,11 +6473,11 @@
         <v>37</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="15"/>
@@ -6392,11 +6508,11 @@
         <v>37</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="15"/>
@@ -6427,11 +6543,11 @@
         <v>37</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="15"/>
@@ -6462,11 +6578,11 @@
         <v>37</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="15"/>
@@ -6497,11 +6613,11 @@
         <v>37</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" s="15"/>
@@ -6532,11 +6648,11 @@
         <v>37</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="15"/>
@@ -6567,11 +6683,11 @@
         <v>37</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="15"/>
@@ -6602,11 +6718,11 @@
         <v>37</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="15"/>
@@ -6637,11 +6753,11 @@
         <v>37</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="15"/>
@@ -6672,11 +6788,11 @@
         <v>37</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="15"/>
@@ -6707,10 +6823,10 @@
         <v>37</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="24"/>
@@ -6742,11 +6858,11 @@
         <v>37</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="15"/>
@@ -6777,11 +6893,11 @@
         <v>37</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="15"/>
@@ -6812,11 +6928,11 @@
         <v>37</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="15"/>
@@ -6847,11 +6963,11 @@
         <v>37</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="15"/>
@@ -6882,11 +6998,11 @@
         <v>37</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="15"/>
@@ -6917,13 +7033,13 @@
         <v>37</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="15"/>
@@ -6954,10 +7070,10 @@
         <v>37</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="24"/>
@@ -6989,13 +7105,13 @@
         <v>37</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="15"/>
@@ -7026,10 +7142,10 @@
         <v>37</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="24"/>
@@ -7061,13 +7177,13 @@
         <v>37</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="15"/>
@@ -7098,13 +7214,13 @@
         <v>37</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="15"/>
@@ -7135,13 +7251,13 @@
         <v>37</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="15"/>
@@ -7172,11 +7288,11 @@
         <v>37</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="15"/>
@@ -7207,11 +7323,11 @@
         <v>37</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="15"/>
@@ -7242,11 +7358,11 @@
         <v>37</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="15"/>
@@ -7277,11 +7393,11 @@
         <v>37</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="15"/>
@@ -7312,13 +7428,13 @@
         <v>37</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="15"/>
@@ -7349,11 +7465,11 @@
         <v>37</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="15"/>
@@ -7384,11 +7500,11 @@
         <v>37</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="15"/>
@@ -7419,11 +7535,11 @@
         <v>37</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="15"/>
@@ -7454,11 +7570,11 @@
         <v>37</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="15"/>
@@ -7489,11 +7605,11 @@
         <v>37</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F84" s="24"/>
       <c r="G84" s="15"/>
@@ -7524,11 +7640,11 @@
         <v>37</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F85" s="24"/>
       <c r="G85" s="15"/>
@@ -7559,11 +7675,11 @@
         <v>37</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="15"/>
@@ -7594,11 +7710,11 @@
         <v>37</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="15"/>
@@ -7629,11 +7745,11 @@
         <v>37</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="15"/>
@@ -7664,11 +7780,11 @@
         <v>37</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="15"/>
@@ -7699,11 +7815,11 @@
         <v>37</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F90" s="24"/>
       <c r="G90" s="15"/>
@@ -7734,11 +7850,11 @@
         <v>37</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="15"/>
@@ -7769,11 +7885,11 @@
         <v>37</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="15"/>
@@ -7804,11 +7920,11 @@
         <v>37</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="15"/>
@@ -7839,11 +7955,11 @@
         <v>37</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="15"/>
@@ -7874,11 +7990,11 @@
         <v>37</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F95" s="24"/>
       <c r="G95" s="15"/>
@@ -7909,11 +8025,11 @@
         <v>37</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="15"/>
@@ -7944,11 +8060,11 @@
         <v>37</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F97" s="24"/>
       <c r="G97" s="15"/>
@@ -7979,11 +8095,11 @@
         <v>37</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="15"/>
@@ -8014,11 +8130,11 @@
         <v>37</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="15"/>
@@ -8049,11 +8165,11 @@
         <v>37</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D100" s="27"/>
       <c r="E100" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="15"/>
@@ -8084,11 +8200,11 @@
         <v>37</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="15"/>
@@ -8119,11 +8235,11 @@
         <v>37</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D102" s="27"/>
       <c r="E102" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="15"/>
@@ -8154,11 +8270,11 @@
         <v>37</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="15"/>
@@ -8189,11 +8305,11 @@
         <v>37</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D104" s="27"/>
       <c r="E104" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F104" s="24"/>
       <c r="G104" s="15"/>
@@ -8224,11 +8340,11 @@
         <v>37</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D105" s="27"/>
       <c r="E105" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="15"/>
@@ -8259,11 +8375,11 @@
         <v>37</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="15"/>
@@ -8294,11 +8410,11 @@
         <v>37</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="15"/>
@@ -8329,11 +8445,11 @@
         <v>37</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D108" s="27"/>
       <c r="E108" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="15"/>
@@ -8364,11 +8480,11 @@
         <v>37</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F109" s="24"/>
       <c r="G109" s="15"/>
@@ -8399,11 +8515,11 @@
         <v>37</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="15"/>
@@ -8434,11 +8550,11 @@
         <v>37</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D111" s="27"/>
       <c r="E111" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="15"/>
@@ -8469,11 +8585,11 @@
         <v>37</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D112" s="27"/>
       <c r="E112" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F112" s="24"/>
       <c r="G112" s="15"/>
@@ -8504,11 +8620,11 @@
         <v>37</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="15"/>
@@ -8539,11 +8655,11 @@
         <v>37</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F114" s="24"/>
       <c r="G114" s="15"/>
@@ -8574,11 +8690,11 @@
         <v>37</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="15"/>
@@ -8609,11 +8725,11 @@
         <v>37</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D116" s="27"/>
       <c r="E116" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="15"/>
@@ -8644,11 +8760,11 @@
         <v>37</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="15"/>
@@ -8679,11 +8795,11 @@
         <v>37</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F118" s="24"/>
       <c r="G118" s="15"/>
@@ -8714,11 +8830,11 @@
         <v>37</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F119" s="24"/>
       <c r="G119" s="15"/>
@@ -8749,11 +8865,11 @@
         <v>37</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D120" s="27"/>
       <c r="E120" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F120" s="24"/>
       <c r="G120" s="15"/>
@@ -8784,11 +8900,11 @@
         <v>37</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F121" s="24"/>
       <c r="G121" s="15"/>
@@ -8819,11 +8935,11 @@
         <v>37</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F122" s="24"/>
       <c r="G122" s="15"/>
@@ -8854,11 +8970,11 @@
         <v>37</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F123" s="24"/>
       <c r="G123" s="15"/>
@@ -8889,11 +9005,11 @@
         <v>37</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F124" s="24"/>
       <c r="G124" s="15"/>
@@ -8924,11 +9040,11 @@
         <v>37</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F125" s="24"/>
       <c r="G125" s="15"/>
@@ -8959,11 +9075,11 @@
         <v>37</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" s="27"/>
       <c r="E126" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F126" s="24"/>
       <c r="G126" s="15"/>
@@ -8994,11 +9110,11 @@
         <v>37</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" s="27"/>
       <c r="E127" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F127" s="24"/>
       <c r="G127" s="15"/>
@@ -9029,11 +9145,11 @@
         <v>37</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="15"/>
@@ -9064,11 +9180,11 @@
         <v>37</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F129" s="24"/>
       <c r="G129" s="15"/>
@@ -9099,11 +9215,11 @@
         <v>37</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F130" s="24"/>
       <c r="G130" s="15"/>
@@ -9134,11 +9250,11 @@
         <v>37</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="15"/>
@@ -9169,11 +9285,11 @@
         <v>37</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="15"/>
@@ -9204,11 +9320,11 @@
         <v>37</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="15"/>
@@ -9239,11 +9355,11 @@
         <v>37</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D134" s="27"/>
       <c r="E134" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F134" s="24"/>
       <c r="G134" s="15"/>
@@ -9274,10 +9390,10 @@
         <v>37</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="24"/>
@@ -9309,10 +9425,10 @@
         <v>37</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D136" s="34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="14"/>
@@ -9347,7 +9463,7 @@
         <v>62</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E137" s="35"/>
       <c r="F137" s="14"/>
@@ -9376,16 +9492,16 @@
     <row r="138">
       <c r="A138" s="9"/>
       <c r="B138" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F138" s="24"/>
       <c r="G138" s="15"/>
@@ -9413,16 +9529,16 @@
     <row r="139">
       <c r="A139" s="9"/>
       <c r="B139" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F139" s="24"/>
       <c r="G139" s="15"/>
@@ -9450,16 +9566,16 @@
     <row r="140">
       <c r="A140" s="9"/>
       <c r="B140" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F140" s="24"/>
       <c r="G140" s="15"/>
@@ -9487,19 +9603,19 @@
     <row r="141">
       <c r="A141" s="9"/>
       <c r="B141" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G141" s="15"/>
       <c r="H141" s="16"/>
@@ -9526,16 +9642,16 @@
     <row r="142">
       <c r="A142" s="9"/>
       <c r="B142" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F142" s="24"/>
       <c r="G142" s="15"/>
@@ -9563,13 +9679,13 @@
     <row r="143">
       <c r="A143" s="9"/>
       <c r="B143" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E143" s="35"/>
       <c r="F143" s="14"/>
@@ -9598,16 +9714,16 @@
     <row r="144">
       <c r="A144" s="9"/>
       <c r="B144" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="15"/>
@@ -9635,19 +9751,19 @@
     <row r="145">
       <c r="A145" s="9"/>
       <c r="B145" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E145" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F145" s="37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G145" s="15"/>
       <c r="H145" s="16"/>
@@ -9674,13 +9790,13 @@
     <row r="146">
       <c r="A146" s="9"/>
       <c r="B146" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E146" s="35"/>
       <c r="F146" s="14"/>
@@ -9709,13 +9825,13 @@
     <row r="147">
       <c r="A147" s="9"/>
       <c r="B147" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E147" s="35"/>
       <c r="F147" s="14"/>
@@ -9744,16 +9860,16 @@
     <row r="148">
       <c r="A148" s="9"/>
       <c r="B148" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="15"/>
@@ -9781,13 +9897,13 @@
     <row r="149">
       <c r="A149" s="9"/>
       <c r="B149" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E149" s="35"/>
       <c r="F149" s="14"/>
@@ -9816,13 +9932,13 @@
     <row r="150">
       <c r="A150" s="9"/>
       <c r="B150" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="14"/>
@@ -9851,13 +9967,13 @@
     <row r="151">
       <c r="A151" s="9"/>
       <c r="B151" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E151" s="35"/>
       <c r="F151" s="14"/>
@@ -9886,13 +10002,13 @@
     <row r="152">
       <c r="A152" s="9"/>
       <c r="B152" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" s="33" t="s">
         <v>86</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E152" s="35"/>
       <c r="F152" s="14"/>
@@ -9921,16 +10037,16 @@
     <row r="153">
       <c r="A153" s="9"/>
       <c r="B153" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
@@ -9958,16 +10074,16 @@
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E154" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
@@ -9995,16 +10111,16 @@
     <row r="155">
       <c r="A155" s="9"/>
       <c r="B155" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D155" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E155" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
@@ -10032,13 +10148,13 @@
     <row r="156">
       <c r="A156" s="9"/>
       <c r="B156" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E156" s="35"/>
       <c r="F156" s="14"/>
@@ -10067,13 +10183,13 @@
     <row r="157">
       <c r="A157" s="9"/>
       <c r="B157" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E157" s="35"/>
       <c r="F157" s="14"/>
@@ -10102,13 +10218,13 @@
     <row r="158">
       <c r="A158" s="9"/>
       <c r="B158" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D158" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E158" s="35"/>
       <c r="F158" s="14"/>
@@ -10137,13 +10253,13 @@
     <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D159" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E159" s="35"/>
       <c r="F159" s="14"/>
@@ -10172,13 +10288,13 @@
     <row r="160">
       <c r="A160" s="9"/>
       <c r="B160" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D160" s="34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E160" s="35"/>
       <c r="F160" s="14"/>
@@ -10207,13 +10323,13 @@
     <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D161" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E161" s="35"/>
       <c r="F161" s="14"/>
@@ -10242,13 +10358,13 @@
     <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E162" s="35"/>
       <c r="F162" s="14"/>
@@ -10277,13 +10393,13 @@
     <row r="163">
       <c r="A163" s="9"/>
       <c r="B163" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E163" s="35"/>
       <c r="F163" s="14"/>
@@ -10312,13 +10428,13 @@
     <row r="164">
       <c r="A164" s="9"/>
       <c r="B164" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E164" s="35"/>
       <c r="F164" s="14"/>
@@ -10347,13 +10463,13 @@
     <row r="165">
       <c r="A165" s="9"/>
       <c r="B165" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E165" s="35"/>
       <c r="F165" s="14"/>
@@ -10382,13 +10498,13 @@
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E166" s="35"/>
       <c r="F166" s="14"/>
@@ -10417,13 +10533,13 @@
     <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E167" s="35"/>
       <c r="F167" s="14"/>
@@ -10452,13 +10568,13 @@
     <row r="168">
       <c r="A168" s="9"/>
       <c r="B168" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E168" s="35"/>
       <c r="F168" s="14"/>
@@ -10487,13 +10603,13 @@
     <row r="169">
       <c r="A169" s="9"/>
       <c r="B169" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E169" s="35"/>
       <c r="F169" s="14"/>
@@ -10522,17 +10638,17 @@
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E170" s="35"/>
       <c r="F170" s="37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G170" s="15"/>
       <c r="H170" s="16"/>
@@ -10559,17 +10675,17 @@
     <row r="171">
       <c r="A171" s="9"/>
       <c r="B171" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E171" s="35"/>
       <c r="F171" s="37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G171" s="15"/>
       <c r="H171" s="16"/>
@@ -10596,13 +10712,13 @@
     <row r="172">
       <c r="A172" s="9"/>
       <c r="B172" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E172" s="35"/>
       <c r="F172" s="14"/>
@@ -10631,19 +10747,19 @@
     <row r="173">
       <c r="A173" s="9"/>
       <c r="B173" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E173" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G173" s="15"/>
       <c r="H173" s="16"/>
@@ -10670,16 +10786,16 @@
     <row r="174">
       <c r="A174" s="9"/>
       <c r="B174" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E174" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="15"/>
@@ -10707,13 +10823,13 @@
     <row r="175">
       <c r="A175" s="9"/>
       <c r="B175" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E175" s="35"/>
       <c r="F175" s="14"/>
@@ -10742,13 +10858,13 @@
     <row r="176">
       <c r="A176" s="9"/>
       <c r="B176" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E176" s="35"/>
       <c r="F176" s="14"/>
@@ -10777,16 +10893,16 @@
     <row r="177">
       <c r="A177" s="9"/>
       <c r="B177" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E177" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="15"/>
@@ -10814,13 +10930,13 @@
     <row r="178">
       <c r="A178" s="9"/>
       <c r="B178" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D178" s="39" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E178" s="35"/>
       <c r="F178" s="14"/>
@@ -10849,13 +10965,13 @@
     <row r="179">
       <c r="A179" s="9"/>
       <c r="B179" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E179" s="35"/>
       <c r="F179" s="14"/>
@@ -10884,16 +11000,16 @@
     <row r="180">
       <c r="A180" s="9"/>
       <c r="B180" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E180" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="15"/>
@@ -10921,16 +11037,16 @@
     <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E181" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="15"/>
@@ -10958,16 +11074,16 @@
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E182" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="15"/>
@@ -10995,19 +11111,19 @@
     <row r="183">
       <c r="A183" s="9"/>
       <c r="B183" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G183" s="15"/>
       <c r="H183" s="16"/>
@@ -11034,19 +11150,19 @@
     <row r="184">
       <c r="A184" s="9"/>
       <c r="B184" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C184" s="40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G184" s="15"/>
       <c r="H184" s="16"/>
@@ -11073,16 +11189,16 @@
     <row r="185">
       <c r="A185" s="9"/>
       <c r="B185" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F185" s="24"/>
       <c r="G185" s="15"/>
@@ -11110,19 +11226,19 @@
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E186" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G186" s="15"/>
       <c r="H186" s="16"/>
@@ -11149,19 +11265,19 @@
     <row r="187">
       <c r="A187" s="9"/>
       <c r="B187" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G187" s="15"/>
       <c r="H187" s="16"/>
@@ -11188,19 +11304,19 @@
     <row r="188">
       <c r="A188" s="9"/>
       <c r="B188" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F188" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G188" s="15"/>
       <c r="H188" s="16"/>
@@ -11227,16 +11343,16 @@
     <row r="189">
       <c r="A189" s="9"/>
       <c r="B189" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F189" s="24"/>
       <c r="G189" s="15"/>
@@ -11264,16 +11380,16 @@
     <row r="190">
       <c r="A190" s="9"/>
       <c r="B190" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C190" s="40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D190" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F190" s="41" t="s">
         <v>54</v>
@@ -11303,19 +11419,19 @@
     <row r="191">
       <c r="A191" s="9"/>
       <c r="B191" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F191" s="41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G191" s="15"/>
       <c r="H191" s="16"/>
@@ -11342,14 +11458,14 @@
     <row r="192">
       <c r="A192" s="9"/>
       <c r="B192" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D192" s="27"/>
       <c r="E192" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F192" s="24"/>
       <c r="G192" s="15"/>
@@ -11377,14 +11493,14 @@
     <row r="193">
       <c r="A193" s="9"/>
       <c r="B193" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C193" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D193" s="27"/>
       <c r="E193" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F193" s="24"/>
       <c r="G193" s="15"/>
@@ -11412,14 +11528,14 @@
     <row r="194">
       <c r="A194" s="9"/>
       <c r="B194" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C194" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D194" s="27"/>
       <c r="E194" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F194" s="24"/>
       <c r="G194" s="15"/>
@@ -11447,14 +11563,14 @@
     <row r="195">
       <c r="A195" s="9"/>
       <c r="B195" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C195" s="40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D195" s="27"/>
       <c r="E195" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F195" s="24"/>
       <c r="G195" s="15"/>
@@ -11482,14 +11598,14 @@
     <row r="196">
       <c r="A196" s="9"/>
       <c r="B196" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C196" s="40" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D196" s="27"/>
       <c r="E196" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F196" s="24"/>
       <c r="G196" s="15"/>
@@ -11517,14 +11633,14 @@
     <row r="197">
       <c r="A197" s="9"/>
       <c r="B197" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C197" s="40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D197" s="27"/>
       <c r="E197" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F197" s="24"/>
       <c r="G197" s="15"/>
@@ -11552,14 +11668,14 @@
     <row r="198">
       <c r="A198" s="9"/>
       <c r="B198" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C198" s="40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D198" s="27"/>
       <c r="E198" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F198" s="24"/>
       <c r="G198" s="15"/>
@@ -11587,14 +11703,14 @@
     <row r="199">
       <c r="A199" s="9"/>
       <c r="B199" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C199" s="40" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D199" s="27"/>
       <c r="E199" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F199" s="24"/>
       <c r="G199" s="15"/>
@@ -11622,14 +11738,14 @@
     <row r="200">
       <c r="A200" s="9"/>
       <c r="B200" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C200" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D200" s="27"/>
       <c r="E200" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F200" s="24"/>
       <c r="G200" s="15"/>
@@ -11657,14 +11773,14 @@
     <row r="201">
       <c r="A201" s="9"/>
       <c r="B201" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D201" s="27"/>
       <c r="E201" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F201" s="24"/>
       <c r="G201" s="15"/>
@@ -11692,14 +11808,14 @@
     <row r="202">
       <c r="A202" s="9"/>
       <c r="B202" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C202" s="40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D202" s="27"/>
       <c r="E202" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F202" s="24"/>
       <c r="G202" s="15"/>
@@ -11727,14 +11843,14 @@
     <row r="203">
       <c r="A203" s="9"/>
       <c r="B203" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C203" s="40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D203" s="27"/>
       <c r="E203" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F203" s="24"/>
       <c r="G203" s="15"/>
@@ -11762,14 +11878,14 @@
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C204" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D204" s="27"/>
       <c r="E204" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F204" s="24"/>
       <c r="G204" s="15"/>
@@ -11797,14 +11913,14 @@
     <row r="205">
       <c r="A205" s="9"/>
       <c r="B205" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C205" s="40" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D205" s="27"/>
       <c r="E205" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F205" s="24"/>
       <c r="G205" s="15"/>
@@ -11832,19 +11948,19 @@
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C206" s="40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E206" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F206" s="41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G206" s="15"/>
       <c r="H206" s="16"/>
@@ -11871,14 +11987,14 @@
     <row r="207">
       <c r="A207" s="9"/>
       <c r="B207" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D207" s="27"/>
       <c r="E207" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F207" s="24"/>
       <c r="G207" s="15"/>
@@ -11906,19 +12022,19 @@
     <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C208" s="40" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F208" s="41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G208" s="15"/>
       <c r="H208" s="16"/>
@@ -11945,10 +12061,10 @@
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C209" s="40" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D209" s="27"/>
       <c r="E209" s="13"/>
@@ -11978,14 +12094,14 @@
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D210" s="27"/>
       <c r="E210" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F210" s="24"/>
       <c r="G210" s="15"/>
@@ -12013,14 +12129,14 @@
     <row r="211">
       <c r="A211" s="9"/>
       <c r="B211" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C211" s="40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F211" s="24"/>
       <c r="G211" s="15"/>
@@ -12048,14 +12164,14 @@
     <row r="212">
       <c r="A212" s="9"/>
       <c r="B212" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C212" s="40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D212" s="27"/>
       <c r="E212" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F212" s="24"/>
       <c r="G212" s="15"/>
@@ -12083,10 +12199,10 @@
     <row r="213">
       <c r="A213" s="9"/>
       <c r="B213" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C213" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D213" s="27"/>
       <c r="E213" s="13"/>
@@ -12116,14 +12232,14 @@
     <row r="214">
       <c r="A214" s="9"/>
       <c r="B214" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C214" s="40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D214" s="27"/>
       <c r="E214" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F214" s="24"/>
       <c r="G214" s="15"/>
@@ -12151,10 +12267,10 @@
     <row r="215">
       <c r="A215" s="9"/>
       <c r="B215" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D215" s="27"/>
       <c r="E215" s="20" t="s">
@@ -12186,14 +12302,14 @@
     <row r="216">
       <c r="A216" s="9"/>
       <c r="B216" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C216" s="40" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D216" s="27"/>
       <c r="E216" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F216" s="24"/>
       <c r="G216" s="15"/>
@@ -12221,10 +12337,10 @@
     <row r="217">
       <c r="A217" s="9"/>
       <c r="B217" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C217" s="40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D217" s="27"/>
       <c r="E217" s="13"/>
@@ -12254,10 +12370,10 @@
     <row r="218">
       <c r="A218" s="9"/>
       <c r="B218" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C218" s="40" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D218" s="27"/>
       <c r="E218" s="13"/>
@@ -12287,10 +12403,10 @@
     <row r="219">
       <c r="A219" s="9"/>
       <c r="B219" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C219" s="40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D219" s="27"/>
       <c r="E219" s="13"/>
@@ -12320,10 +12436,10 @@
     <row r="220">
       <c r="A220" s="9"/>
       <c r="B220" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C220" s="40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D220" s="27"/>
       <c r="E220" s="13"/>
@@ -12353,10 +12469,10 @@
     <row r="221">
       <c r="A221" s="9"/>
       <c r="B221" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C221" s="40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="13"/>
@@ -12386,10 +12502,10 @@
     <row r="222">
       <c r="A222" s="9"/>
       <c r="B222" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C222" s="40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D222" s="27"/>
       <c r="E222" s="13"/>
@@ -12419,14 +12535,14 @@
     <row r="223">
       <c r="A223" s="9"/>
       <c r="B223" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C223" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D223" s="27"/>
       <c r="E223" s="20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F223" s="24"/>
       <c r="G223" s="15"/>
@@ -12454,10 +12570,10 @@
     <row r="224">
       <c r="A224" s="9"/>
       <c r="B224" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C224" s="40" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D224" s="27"/>
       <c r="E224" s="13"/>
@@ -12487,14 +12603,14 @@
     <row r="225">
       <c r="A225" s="9"/>
       <c r="B225" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F225" s="24"/>
       <c r="G225" s="15"/>
@@ -12522,14 +12638,14 @@
     <row r="226">
       <c r="A226" s="9"/>
       <c r="B226" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D226" s="27"/>
       <c r="E226" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F226" s="24"/>
       <c r="G226" s="15"/>
@@ -12557,14 +12673,14 @@
     <row r="227">
       <c r="A227" s="9"/>
       <c r="B227" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C227" s="40" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D227" s="27"/>
       <c r="E227" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F227" s="24"/>
       <c r="G227" s="15"/>
@@ -12592,10 +12708,10 @@
     <row r="228">
       <c r="A228" s="9"/>
       <c r="B228" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D228" s="27"/>
       <c r="E228" s="13"/>
@@ -12625,10 +12741,10 @@
     <row r="229">
       <c r="A229" s="9"/>
       <c r="B229" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C229" s="40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D229" s="27"/>
       <c r="E229" s="13"/>
@@ -12658,10 +12774,10 @@
     <row r="230">
       <c r="A230" s="9"/>
       <c r="B230" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C230" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D230" s="27"/>
       <c r="E230" s="13"/>
@@ -12691,14 +12807,14 @@
     <row r="231">
       <c r="A231" s="9"/>
       <c r="B231" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C231" s="40" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D231" s="27"/>
       <c r="E231" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F231" s="24"/>
       <c r="G231" s="15"/>
@@ -12726,10 +12842,10 @@
     <row r="232">
       <c r="A232" s="9"/>
       <c r="B232" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C232" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D232" s="27"/>
       <c r="E232" s="13"/>
@@ -12759,14 +12875,14 @@
     <row r="233">
       <c r="A233" s="9"/>
       <c r="B233" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C233" s="40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D233" s="27"/>
       <c r="E233" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F233" s="24"/>
       <c r="G233" s="15"/>
@@ -12794,10 +12910,10 @@
     <row r="234">
       <c r="A234" s="9"/>
       <c r="B234" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C234" s="40" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="13"/>
@@ -12827,10 +12943,10 @@
     <row r="235">
       <c r="A235" s="9"/>
       <c r="B235" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C235" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D235" s="27"/>
       <c r="E235" s="13"/>
@@ -12860,10 +12976,10 @@
     <row r="236">
       <c r="A236" s="9"/>
       <c r="B236" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D236" s="27"/>
       <c r="E236" s="13"/>
@@ -12893,10 +13009,10 @@
     <row r="237">
       <c r="A237" s="9"/>
       <c r="B237" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C237" s="40" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D237" s="27"/>
       <c r="E237" s="13"/>
@@ -12926,10 +13042,10 @@
     <row r="238">
       <c r="A238" s="9"/>
       <c r="B238" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C238" s="40" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="13"/>
@@ -12959,10 +13075,10 @@
     <row r="239">
       <c r="A239" s="9"/>
       <c r="B239" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C239" s="40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D239" s="27"/>
       <c r="E239" s="13"/>
@@ -12992,14 +13108,14 @@
     <row r="240">
       <c r="A240" s="9"/>
       <c r="B240" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C240" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D240" s="27"/>
       <c r="E240" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F240" s="24"/>
       <c r="G240" s="15"/>
@@ -13027,10 +13143,10 @@
     <row r="241">
       <c r="A241" s="9"/>
       <c r="B241" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C241" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D241" s="27"/>
       <c r="E241" s="13"/>
@@ -13060,10 +13176,10 @@
     <row r="242">
       <c r="A242" s="9"/>
       <c r="B242" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D242" s="27"/>
       <c r="E242" s="13"/>
@@ -13093,10 +13209,10 @@
     <row r="243">
       <c r="A243" s="9"/>
       <c r="B243" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C243" s="40" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D243" s="27"/>
       <c r="E243" s="13"/>
@@ -13126,10 +13242,10 @@
     <row r="244">
       <c r="A244" s="9"/>
       <c r="B244" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D244" s="27"/>
       <c r="E244" s="13"/>
@@ -13159,10 +13275,10 @@
     <row r="245">
       <c r="A245" s="9"/>
       <c r="B245" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C245" s="40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="13"/>
@@ -13192,10 +13308,10 @@
     <row r="246">
       <c r="A246" s="9"/>
       <c r="B246" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C246" s="40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D246" s="27"/>
       <c r="E246" s="13"/>
@@ -13225,14 +13341,14 @@
     <row r="247">
       <c r="A247" s="9"/>
       <c r="B247" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D247" s="27"/>
       <c r="E247" s="20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F247" s="24"/>
       <c r="G247" s="15"/>
@@ -13260,10 +13376,10 @@
     <row r="248">
       <c r="A248" s="9"/>
       <c r="B248" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C248" s="40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D248" s="27"/>
       <c r="E248" s="13"/>
@@ -13293,14 +13409,14 @@
     <row r="249">
       <c r="A249" s="9"/>
       <c r="B249" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C249" s="40" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D249" s="27"/>
       <c r="E249" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F249" s="24"/>
       <c r="G249" s="15"/>
@@ -13328,19 +13444,19 @@
     <row r="250">
       <c r="A250" s="9"/>
       <c r="B250" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G250" s="15"/>
       <c r="H250" s="16"/>
@@ -13367,14 +13483,14 @@
     <row r="251">
       <c r="A251" s="9"/>
       <c r="B251" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D251" s="27"/>
       <c r="E251" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F251" s="24"/>
       <c r="G251" s="15"/>
@@ -13402,14 +13518,14 @@
     <row r="252">
       <c r="A252" s="9"/>
       <c r="B252" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C252" s="40" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D252" s="27"/>
       <c r="E252" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F252" s="24"/>
       <c r="G252" s="15"/>
@@ -13437,10 +13553,10 @@
     <row r="253">
       <c r="A253" s="9"/>
       <c r="B253" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D253" s="27"/>
       <c r="E253" s="13"/>
@@ -13470,10 +13586,10 @@
     <row r="254">
       <c r="A254" s="9"/>
       <c r="B254" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D254" s="27"/>
       <c r="E254" s="13"/>
@@ -13503,14 +13619,14 @@
     <row r="255">
       <c r="A255" s="9"/>
       <c r="B255" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C255" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F255" s="24"/>
       <c r="G255" s="15"/>
@@ -13538,14 +13654,14 @@
     <row r="256">
       <c r="A256" s="9"/>
       <c r="B256" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C256" s="40" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D256" s="27"/>
       <c r="E256" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F256" s="24"/>
       <c r="G256" s="15"/>
@@ -13573,10 +13689,10 @@
     <row r="257">
       <c r="A257" s="9"/>
       <c r="B257" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C257" s="40" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D257" s="27"/>
       <c r="E257" s="13"/>
@@ -13606,10 +13722,10 @@
     <row r="258">
       <c r="A258" s="9"/>
       <c r="B258" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C258" s="40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D258" s="27"/>
       <c r="E258" s="13"/>
@@ -13639,10 +13755,10 @@
     <row r="259">
       <c r="A259" s="9"/>
       <c r="B259" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C259" s="40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D259" s="27"/>
       <c r="E259" s="13"/>
@@ -13672,10 +13788,10 @@
     <row r="260">
       <c r="A260" s="9"/>
       <c r="B260" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C260" s="40" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="13"/>
@@ -13705,14 +13821,14 @@
     <row r="261">
       <c r="A261" s="9"/>
       <c r="B261" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C261" s="40" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D261" s="27"/>
       <c r="E261" s="20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F261" s="24"/>
       <c r="G261" s="15"/>
@@ -13740,10 +13856,10 @@
     <row r="262">
       <c r="A262" s="9"/>
       <c r="B262" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C262" s="40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="13"/>
@@ -13773,10 +13889,10 @@
     <row r="263">
       <c r="A263" s="9"/>
       <c r="B263" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C263" s="40" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D263" s="27"/>
       <c r="E263" s="13"/>
@@ -13806,10 +13922,10 @@
     <row r="264">
       <c r="A264" s="9"/>
       <c r="B264" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C264" s="40" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D264" s="27"/>
       <c r="E264" s="13"/>
@@ -13839,10 +13955,10 @@
     <row r="265">
       <c r="A265" s="9"/>
       <c r="B265" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C265" s="40" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D265" s="27"/>
       <c r="E265" s="13"/>
@@ -13872,10 +13988,10 @@
     <row r="266">
       <c r="A266" s="9"/>
       <c r="B266" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C266" s="40" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D266" s="27"/>
       <c r="E266" s="13"/>
@@ -13905,10 +14021,10 @@
     <row r="267">
       <c r="A267" s="9"/>
       <c r="B267" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C267" s="40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D267" s="27"/>
       <c r="E267" s="13"/>
@@ -13938,10 +14054,10 @@
     <row r="268">
       <c r="A268" s="9"/>
       <c r="B268" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C268" s="40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D268" s="27"/>
       <c r="E268" s="13"/>
@@ -13971,10 +14087,10 @@
     <row r="269">
       <c r="A269" s="9"/>
       <c r="B269" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C269" s="40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D269" s="27"/>
       <c r="E269" s="13"/>
@@ -14004,14 +14120,14 @@
     <row r="270">
       <c r="A270" s="9"/>
       <c r="B270" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C270" s="40" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D270" s="27"/>
       <c r="E270" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F270" s="24"/>
       <c r="G270" s="15"/>
@@ -14039,14 +14155,14 @@
     <row r="271">
       <c r="A271" s="9"/>
       <c r="B271" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C271" s="40" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D271" s="27"/>
       <c r="E271" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F271" s="24"/>
       <c r="G271" s="15"/>
@@ -14074,14 +14190,14 @@
     <row r="272">
       <c r="A272" s="9"/>
       <c r="B272" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C272" s="40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D272" s="27"/>
       <c r="E272" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F272" s="24"/>
       <c r="G272" s="15"/>
@@ -14109,10 +14225,10 @@
     <row r="273">
       <c r="A273" s="9"/>
       <c r="B273" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C273" s="40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D273" s="27"/>
       <c r="E273" s="13"/>
@@ -14142,14 +14258,14 @@
     <row r="274">
       <c r="A274" s="9"/>
       <c r="B274" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C274" s="40" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D274" s="27"/>
       <c r="E274" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F274" s="24"/>
       <c r="G274" s="15"/>
@@ -14177,10 +14293,10 @@
     <row r="275">
       <c r="A275" s="9"/>
       <c r="B275" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C275" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D275" s="27"/>
       <c r="E275" s="13"/>
@@ -14210,10 +14326,10 @@
     <row r="276">
       <c r="A276" s="9"/>
       <c r="B276" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C276" s="40" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D276" s="27"/>
       <c r="E276" s="13"/>
@@ -14243,10 +14359,10 @@
     <row r="277">
       <c r="A277" s="9"/>
       <c r="B277" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C277" s="40" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D277" s="27"/>
       <c r="E277" s="13"/>
@@ -14276,10 +14392,10 @@
     <row r="278">
       <c r="A278" s="9"/>
       <c r="B278" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C278" s="40" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D278" s="27"/>
       <c r="E278" s="13"/>
@@ -14309,10 +14425,10 @@
     <row r="279">
       <c r="A279" s="9"/>
       <c r="B279" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C279" s="40" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D279" s="27"/>
       <c r="E279" s="13"/>
@@ -14342,10 +14458,10 @@
     <row r="280">
       <c r="A280" s="9"/>
       <c r="B280" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C280" s="40" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D280" s="27"/>
       <c r="E280" s="13"/>
@@ -14375,10 +14491,10 @@
     <row r="281">
       <c r="A281" s="9"/>
       <c r="B281" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C281" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D281" s="27"/>
       <c r="E281" s="13"/>
@@ -14408,10 +14524,10 @@
     <row r="282">
       <c r="A282" s="9"/>
       <c r="B282" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C282" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D282" s="27"/>
       <c r="E282" s="13"/>
@@ -14441,14 +14557,14 @@
     <row r="283">
       <c r="A283" s="9"/>
       <c r="B283" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C283" s="40" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D283" s="27"/>
       <c r="E283" s="20" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F283" s="24"/>
       <c r="G283" s="15"/>
@@ -14476,10 +14592,10 @@
     <row r="284">
       <c r="A284" s="9"/>
       <c r="B284" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C284" s="40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D284" s="27"/>
       <c r="E284" s="13"/>
@@ -14509,14 +14625,14 @@
     <row r="285">
       <c r="A285" s="9"/>
       <c r="B285" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C285" s="40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D285" s="27"/>
       <c r="E285" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F285" s="24"/>
       <c r="G285" s="15"/>
@@ -14544,14 +14660,14 @@
     <row r="286">
       <c r="A286" s="9"/>
       <c r="B286" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C286" s="40" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D286" s="27"/>
       <c r="E286" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F286" s="24"/>
       <c r="G286" s="15"/>
@@ -14579,14 +14695,14 @@
     <row r="287">
       <c r="A287" s="9"/>
       <c r="B287" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D287" s="27"/>
       <c r="E287" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F287" s="24"/>
       <c r="G287" s="15"/>
@@ -14614,10 +14730,10 @@
     <row r="288">
       <c r="A288" s="9"/>
       <c r="B288" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C288" s="40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D288" s="27"/>
       <c r="E288" s="13"/>
@@ -14647,10 +14763,10 @@
     <row r="289">
       <c r="A289" s="9"/>
       <c r="B289" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C289" s="40" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D289" s="27"/>
       <c r="E289" s="13"/>
@@ -14680,10 +14796,10 @@
     <row r="290">
       <c r="A290" s="9"/>
       <c r="B290" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C290" s="40" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D290" s="27"/>
       <c r="E290" s="13"/>
@@ -14713,10 +14829,10 @@
     <row r="291">
       <c r="A291" s="9"/>
       <c r="B291" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C291" s="40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D291" s="27"/>
       <c r="E291" s="13"/>
@@ -14746,10 +14862,10 @@
     <row r="292">
       <c r="A292" s="9"/>
       <c r="B292" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C292" s="40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D292" s="27"/>
       <c r="E292" s="13"/>
@@ -14779,10 +14895,10 @@
     <row r="293">
       <c r="A293" s="9"/>
       <c r="B293" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C293" s="40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D293" s="27"/>
       <c r="E293" s="13"/>
@@ -14812,14 +14928,14 @@
     <row r="294">
       <c r="A294" s="9"/>
       <c r="B294" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C294" s="40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D294" s="27"/>
       <c r="E294" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F294" s="24"/>
       <c r="G294" s="15"/>
@@ -14847,14 +14963,14 @@
     <row r="295">
       <c r="A295" s="9"/>
       <c r="B295" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C295" s="40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D295" s="27"/>
       <c r="E295" s="20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F295" s="24"/>
       <c r="G295" s="15"/>
@@ -14882,10 +14998,10 @@
     <row r="296">
       <c r="A296" s="9"/>
       <c r="B296" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C296" s="40" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D296" s="27"/>
       <c r="E296" s="13"/>
@@ -14915,14 +15031,14 @@
     <row r="297">
       <c r="A297" s="9"/>
       <c r="B297" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C297" s="40" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D297" s="27"/>
       <c r="E297" s="20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F297" s="24"/>
       <c r="G297" s="15"/>
@@ -14950,10 +15066,10 @@
     <row r="298">
       <c r="A298" s="9"/>
       <c r="B298" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C298" s="40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D298" s="27"/>
       <c r="E298" s="13"/>
@@ -14983,14 +15099,14 @@
     <row r="299">
       <c r="A299" s="9"/>
       <c r="B299" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C299" s="40" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D299" s="27"/>
       <c r="E299" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F299" s="24"/>
       <c r="G299" s="15"/>
@@ -15018,14 +15134,14 @@
     <row r="300">
       <c r="A300" s="9"/>
       <c r="B300" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C300" s="40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D300" s="27"/>
       <c r="E300" s="20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F300" s="24"/>
       <c r="G300" s="15"/>
@@ -15053,14 +15169,14 @@
     <row r="301">
       <c r="A301" s="9"/>
       <c r="B301" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C301" s="40" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D301" s="27"/>
       <c r="E301" s="20" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F301" s="24"/>
       <c r="G301" s="15"/>
@@ -15088,10 +15204,10 @@
     <row r="302">
       <c r="A302" s="9"/>
       <c r="B302" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C302" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D302" s="27"/>
       <c r="E302" s="13"/>
@@ -15121,10 +15237,10 @@
     <row r="303">
       <c r="A303" s="9"/>
       <c r="B303" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C303" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="13"/>
@@ -15154,10 +15270,10 @@
     <row r="304">
       <c r="A304" s="9"/>
       <c r="B304" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C304" s="40" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D304" s="27"/>
       <c r="E304" s="13"/>
@@ -15187,10 +15303,10 @@
     <row r="305">
       <c r="A305" s="9"/>
       <c r="B305" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C305" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D305" s="27"/>
       <c r="E305" s="13"/>
@@ -15220,10 +15336,10 @@
     <row r="306">
       <c r="A306" s="9"/>
       <c r="B306" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C306" s="40" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D306" s="27"/>
       <c r="E306" s="13"/>
@@ -15253,10 +15369,10 @@
     <row r="307">
       <c r="A307" s="9"/>
       <c r="B307" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C307" s="40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D307" s="27"/>
       <c r="E307" s="13"/>
@@ -15286,10 +15402,10 @@
     <row r="308">
       <c r="A308" s="9"/>
       <c r="B308" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C308" s="40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D308" s="27"/>
       <c r="E308" s="13"/>
@@ -15319,10 +15435,10 @@
     <row r="309">
       <c r="A309" s="9"/>
       <c r="B309" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C309" s="40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D309" s="27"/>
       <c r="E309" s="13"/>
@@ -15352,10 +15468,10 @@
     <row r="310">
       <c r="A310" s="9"/>
       <c r="B310" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C310" s="40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D310" s="27"/>
       <c r="E310" s="13"/>
@@ -15385,14 +15501,14 @@
     <row r="311">
       <c r="A311" s="9"/>
       <c r="B311" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C311" s="40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D311" s="27"/>
       <c r="E311" s="20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F311" s="24"/>
       <c r="G311" s="15"/>
@@ -15420,10 +15536,10 @@
     <row r="312">
       <c r="A312" s="9"/>
       <c r="B312" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D312" s="27"/>
       <c r="E312" s="13"/>
@@ -15453,10 +15569,10 @@
     <row r="313">
       <c r="A313" s="9"/>
       <c r="B313" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C313" s="40" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D313" s="27"/>
       <c r="E313" s="13"/>
@@ -15486,10 +15602,10 @@
     <row r="314">
       <c r="A314" s="9"/>
       <c r="B314" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C314" s="40" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D314" s="27"/>
       <c r="E314" s="13"/>
@@ -15519,10 +15635,10 @@
     <row r="315">
       <c r="A315" s="9"/>
       <c r="B315" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C315" s="40" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D315" s="27"/>
       <c r="E315" s="13"/>
@@ -15552,14 +15668,14 @@
     <row r="316">
       <c r="A316" s="9"/>
       <c r="B316" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D316" s="27"/>
       <c r="E316" s="20" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F316" s="24"/>
       <c r="G316" s="15"/>
@@ -15587,10 +15703,10 @@
     <row r="317">
       <c r="A317" s="9"/>
       <c r="B317" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C317" s="40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D317" s="27"/>
       <c r="E317" s="13"/>
@@ -15620,10 +15736,10 @@
     <row r="318">
       <c r="A318" s="9"/>
       <c r="B318" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C318" s="40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D318" s="27"/>
       <c r="E318" s="13"/>
@@ -15653,14 +15769,14 @@
     <row r="319">
       <c r="A319" s="9"/>
       <c r="B319" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C319" s="40" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="20" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F319" s="24"/>
       <c r="G319" s="15"/>
@@ -15688,10 +15804,10 @@
     <row r="320">
       <c r="A320" s="9"/>
       <c r="B320" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C320" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="13"/>
@@ -15721,10 +15837,10 @@
     <row r="321">
       <c r="A321" s="9"/>
       <c r="B321" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C321" s="40" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D321" s="27"/>
       <c r="E321" s="13"/>
@@ -15754,10 +15870,10 @@
     <row r="322">
       <c r="A322" s="9"/>
       <c r="B322" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D322" s="27"/>
       <c r="E322" s="13"/>
@@ -15787,10 +15903,10 @@
     <row r="323">
       <c r="A323" s="9"/>
       <c r="B323" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D323" s="27"/>
       <c r="E323" s="13"/>
@@ -15820,10 +15936,10 @@
     <row r="324">
       <c r="A324" s="9"/>
       <c r="B324" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C324" s="40" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D324" s="27"/>
       <c r="E324" s="13"/>
@@ -15853,10 +15969,10 @@
     <row r="325">
       <c r="A325" s="9"/>
       <c r="B325" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C325" s="40" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D325" s="27"/>
       <c r="E325" s="13"/>
@@ -15886,14 +16002,14 @@
     <row r="326">
       <c r="A326" s="9"/>
       <c r="B326" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C326" s="40" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D326" s="27"/>
       <c r="E326" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F326" s="24"/>
       <c r="G326" s="15"/>
@@ -15921,10 +16037,10 @@
     <row r="327">
       <c r="A327" s="9"/>
       <c r="B327" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C327" s="40" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D327" s="27"/>
       <c r="E327" s="13"/>
@@ -15954,10 +16070,10 @@
     <row r="328">
       <c r="A328" s="9"/>
       <c r="B328" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C328" s="40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D328" s="27"/>
       <c r="E328" s="13"/>
@@ -15987,10 +16103,10 @@
     <row r="329">
       <c r="A329" s="9"/>
       <c r="B329" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C329" s="40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D329" s="27"/>
       <c r="E329" s="13"/>
@@ -16020,10 +16136,10 @@
     <row r="330">
       <c r="A330" s="9"/>
       <c r="B330" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C330" s="40" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D330" s="27"/>
       <c r="E330" s="13"/>
@@ -16053,10 +16169,10 @@
     <row r="331">
       <c r="A331" s="9"/>
       <c r="B331" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C331" s="40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D331" s="27"/>
       <c r="E331" s="13"/>
@@ -16086,10 +16202,10 @@
     <row r="332">
       <c r="A332" s="9"/>
       <c r="B332" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C332" s="40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D332" s="27"/>
       <c r="E332" s="13"/>
@@ -16119,14 +16235,14 @@
     <row r="333">
       <c r="A333" s="9"/>
       <c r="B333" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C333" s="40" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D333" s="27"/>
       <c r="E333" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F333" s="24"/>
       <c r="G333" s="15"/>
@@ -16154,10 +16270,10 @@
     <row r="334">
       <c r="A334" s="9"/>
       <c r="B334" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C334" s="40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D334" s="27"/>
       <c r="E334" s="13"/>
@@ -16187,10 +16303,10 @@
     <row r="335">
       <c r="A335" s="9"/>
       <c r="B335" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C335" s="40" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D335" s="27"/>
       <c r="E335" s="13"/>
@@ -16220,10 +16336,10 @@
     <row r="336">
       <c r="A336" s="9"/>
       <c r="B336" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C336" s="40" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D336" s="27"/>
       <c r="E336" s="13"/>
@@ -16253,10 +16369,10 @@
     <row r="337">
       <c r="A337" s="9"/>
       <c r="B337" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C337" s="40" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D337" s="27"/>
       <c r="E337" s="13"/>
@@ -16286,14 +16402,14 @@
     <row r="338">
       <c r="A338" s="9"/>
       <c r="B338" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C338" s="40" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D338" s="27"/>
       <c r="E338" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F338" s="24"/>
       <c r="G338" s="15"/>
@@ -16321,10 +16437,10 @@
     <row r="339">
       <c r="A339" s="9"/>
       <c r="B339" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C339" s="40" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D339" s="27"/>
       <c r="E339" s="13"/>
@@ -16354,14 +16470,14 @@
     <row r="340">
       <c r="A340" s="9"/>
       <c r="B340" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C340" s="40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D340" s="27"/>
       <c r="E340" s="20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F340" s="24"/>
       <c r="G340" s="15"/>
@@ -16389,10 +16505,10 @@
     <row r="341">
       <c r="A341" s="9"/>
       <c r="B341" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C341" s="40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D341" s="27"/>
       <c r="E341" s="13"/>
@@ -16422,14 +16538,14 @@
     <row r="342">
       <c r="A342" s="9"/>
       <c r="B342" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C342" s="40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D342" s="27"/>
       <c r="E342" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F342" s="24"/>
       <c r="G342" s="15"/>
@@ -16457,10 +16573,10 @@
     <row r="343">
       <c r="A343" s="9"/>
       <c r="B343" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C343" s="40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D343" s="27"/>
       <c r="E343" s="13"/>
@@ -16490,10 +16606,10 @@
     <row r="344">
       <c r="A344" s="9"/>
       <c r="B344" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C344" s="40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D344" s="27"/>
       <c r="E344" s="13"/>
@@ -16523,14 +16639,14 @@
     <row r="345">
       <c r="A345" s="9"/>
       <c r="B345" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C345" s="40" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D345" s="27"/>
       <c r="E345" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F345" s="24"/>
       <c r="G345" s="15"/>
@@ -16558,14 +16674,14 @@
     <row r="346">
       <c r="A346" s="9"/>
       <c r="B346" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C346" s="40" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D346" s="27"/>
       <c r="E346" s="20" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F346" s="24"/>
       <c r="G346" s="15"/>
@@ -16593,10 +16709,10 @@
     <row r="347">
       <c r="A347" s="9"/>
       <c r="B347" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C347" s="40" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D347" s="27"/>
       <c r="E347" s="13"/>
@@ -16626,10 +16742,10 @@
     <row r="348">
       <c r="A348" s="9"/>
       <c r="B348" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C348" s="40" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D348" s="27"/>
       <c r="E348" s="13"/>
@@ -16659,10 +16775,10 @@
     <row r="349">
       <c r="A349" s="9"/>
       <c r="B349" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C349" s="40" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D349" s="27"/>
       <c r="E349" s="13"/>
@@ -16692,10 +16808,10 @@
     <row r="350">
       <c r="A350" s="9"/>
       <c r="B350" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C350" s="40" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D350" s="27"/>
       <c r="E350" s="13"/>
@@ -16725,10 +16841,10 @@
     <row r="351">
       <c r="A351" s="9"/>
       <c r="B351" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C351" s="40" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D351" s="27"/>
       <c r="E351" s="13"/>
@@ -16758,10 +16874,10 @@
     <row r="352">
       <c r="A352" s="9"/>
       <c r="B352" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C352" s="40" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D352" s="27"/>
       <c r="E352" s="13"/>
@@ -16791,10 +16907,10 @@
     <row r="353">
       <c r="A353" s="9"/>
       <c r="B353" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C353" s="40" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D353" s="27"/>
       <c r="E353" s="13"/>
@@ -16824,10 +16940,10 @@
     <row r="354">
       <c r="A354" s="9"/>
       <c r="B354" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D354" s="27"/>
       <c r="E354" s="13"/>
@@ -16857,14 +16973,14 @@
     <row r="355">
       <c r="A355" s="9"/>
       <c r="B355" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C355" s="40" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D355" s="27"/>
       <c r="E355" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F355" s="24"/>
       <c r="G355" s="15"/>
@@ -16892,10 +17008,10 @@
     <row r="356">
       <c r="A356" s="9"/>
       <c r="B356" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C356" s="40" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D356" s="27"/>
       <c r="E356" s="13"/>
@@ -16925,14 +17041,14 @@
     <row r="357">
       <c r="A357" s="9"/>
       <c r="B357" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C357" s="40" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D357" s="27"/>
       <c r="E357" s="20" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F357" s="24"/>
       <c r="G357" s="15"/>
@@ -16960,14 +17076,14 @@
     <row r="358">
       <c r="A358" s="9"/>
       <c r="B358" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C358" s="40" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D358" s="27"/>
       <c r="E358" s="20" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F358" s="24"/>
       <c r="G358" s="15"/>
@@ -16995,14 +17111,14 @@
     <row r="359">
       <c r="A359" s="9"/>
       <c r="B359" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C359" s="40" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D359" s="27"/>
       <c r="E359" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F359" s="24"/>
       <c r="G359" s="15"/>
@@ -17030,14 +17146,14 @@
     <row r="360">
       <c r="A360" s="9"/>
       <c r="B360" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C360" s="40" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D360" s="27"/>
       <c r="E360" s="20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F360" s="24"/>
       <c r="G360" s="15"/>
@@ -17065,14 +17181,14 @@
     <row r="361">
       <c r="A361" s="9"/>
       <c r="B361" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C361" s="40" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D361" s="27"/>
       <c r="E361" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F361" s="24"/>
       <c r="G361" s="15"/>
@@ -17100,14 +17216,14 @@
     <row r="362">
       <c r="A362" s="9"/>
       <c r="B362" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C362" s="40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D362" s="27"/>
       <c r="E362" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F362" s="24"/>
       <c r="G362" s="15"/>
@@ -17135,10 +17251,10 @@
     <row r="363">
       <c r="A363" s="9"/>
       <c r="B363" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C363" s="40" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D363" s="27"/>
       <c r="E363" s="13"/>
@@ -17168,10 +17284,10 @@
     <row r="364">
       <c r="A364" s="9"/>
       <c r="B364" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C364" s="40" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D364" s="27"/>
       <c r="E364" s="13"/>
@@ -17201,10 +17317,10 @@
     <row r="365">
       <c r="A365" s="9"/>
       <c r="B365" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C365" s="40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D365" s="27"/>
       <c r="E365" s="13"/>
@@ -17234,14 +17350,14 @@
     <row r="366">
       <c r="A366" s="9"/>
       <c r="B366" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C366" s="40" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D366" s="27"/>
       <c r="E366" s="20" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F366" s="24"/>
       <c r="G366" s="15"/>
@@ -17269,10 +17385,10 @@
     <row r="367">
       <c r="A367" s="9"/>
       <c r="B367" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C367" s="40" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D367" s="27"/>
       <c r="E367" s="13"/>
@@ -17302,10 +17418,10 @@
     <row r="368">
       <c r="A368" s="9"/>
       <c r="B368" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C368" s="40" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D368" s="27"/>
       <c r="E368" s="13"/>
@@ -17335,10 +17451,10 @@
     <row r="369">
       <c r="A369" s="9"/>
       <c r="B369" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C369" s="40" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D369" s="27"/>
       <c r="E369" s="13"/>
@@ -17368,10 +17484,10 @@
     <row r="370">
       <c r="A370" s="9"/>
       <c r="B370" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C370" s="40" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D370" s="27"/>
       <c r="E370" s="13"/>
@@ -17401,14 +17517,14 @@
     <row r="371">
       <c r="A371" s="9"/>
       <c r="B371" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C371" s="40" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D371" s="27"/>
       <c r="E371" s="20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F371" s="24"/>
       <c r="G371" s="15"/>
@@ -17436,14 +17552,14 @@
     <row r="372">
       <c r="A372" s="9"/>
       <c r="B372" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C372" s="40" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D372" s="27"/>
       <c r="E372" s="20" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F372" s="24"/>
       <c r="G372" s="15"/>
@@ -17471,10 +17587,10 @@
     <row r="373">
       <c r="A373" s="9"/>
       <c r="B373" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C373" s="40" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D373" s="27"/>
       <c r="E373" s="13"/>
@@ -17504,10 +17620,10 @@
     <row r="374">
       <c r="A374" s="9"/>
       <c r="B374" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C374" s="40" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D374" s="27"/>
       <c r="E374" s="13"/>
@@ -17537,14 +17653,14 @@
     <row r="375">
       <c r="A375" s="9"/>
       <c r="B375" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C375" s="40" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D375" s="27"/>
       <c r="E375" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F375" s="24"/>
       <c r="G375" s="15"/>
@@ -17572,10 +17688,10 @@
     <row r="376">
       <c r="A376" s="9"/>
       <c r="B376" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C376" s="40" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D376" s="27"/>
       <c r="E376" s="13"/>
@@ -17605,10 +17721,10 @@
     <row r="377">
       <c r="A377" s="9"/>
       <c r="B377" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C377" s="40" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D377" s="27"/>
       <c r="E377" s="13"/>
@@ -17638,14 +17754,14 @@
     <row r="378">
       <c r="A378" s="9"/>
       <c r="B378" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C378" s="40" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D378" s="27"/>
       <c r="E378" s="20" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F378" s="24"/>
       <c r="G378" s="15"/>
@@ -17673,14 +17789,14 @@
     <row r="379">
       <c r="A379" s="9"/>
       <c r="B379" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C379" s="40" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D379" s="27"/>
       <c r="E379" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F379" s="24"/>
       <c r="G379" s="15"/>
@@ -17708,14 +17824,14 @@
     <row r="380">
       <c r="A380" s="9"/>
       <c r="B380" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C380" s="40" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D380" s="27"/>
       <c r="E380" s="20" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F380" s="24"/>
       <c r="G380" s="15"/>
@@ -17743,10 +17859,10 @@
     <row r="381">
       <c r="A381" s="9"/>
       <c r="B381" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C381" s="40" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D381" s="27"/>
       <c r="E381" s="13"/>
@@ -17776,10 +17892,10 @@
     <row r="382">
       <c r="A382" s="9"/>
       <c r="B382" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C382" s="40" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D382" s="27"/>
       <c r="E382" s="13"/>
@@ -17809,10 +17925,10 @@
     <row r="383">
       <c r="A383" s="9"/>
       <c r="B383" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C383" s="40" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D383" s="27"/>
       <c r="E383" s="13"/>
@@ -17842,10 +17958,10 @@
     <row r="384">
       <c r="A384" s="9"/>
       <c r="B384" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C384" s="40" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D384" s="27"/>
       <c r="E384" s="13"/>
@@ -17875,10 +17991,10 @@
     <row r="385">
       <c r="A385" s="9"/>
       <c r="B385" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C385" s="40" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D385" s="27"/>
       <c r="E385" s="13"/>
@@ -17908,14 +18024,14 @@
     <row r="386">
       <c r="A386" s="9"/>
       <c r="B386" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C386" s="40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D386" s="27"/>
       <c r="E386" s="20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F386" s="24"/>
       <c r="G386" s="15"/>
@@ -17943,10 +18059,10 @@
     <row r="387">
       <c r="A387" s="9"/>
       <c r="B387" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C387" s="40" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D387" s="27"/>
       <c r="E387" s="13"/>
@@ -17976,14 +18092,14 @@
     <row r="388">
       <c r="A388" s="9"/>
       <c r="B388" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C388" s="40" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D388" s="27"/>
       <c r="E388" s="20" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F388" s="24"/>
       <c r="G388" s="15"/>
@@ -18011,14 +18127,14 @@
     <row r="389">
       <c r="A389" s="9"/>
       <c r="B389" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C389" s="40" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D389" s="27"/>
       <c r="E389" s="20" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F389" s="24"/>
       <c r="G389" s="15"/>
@@ -18046,10 +18162,10 @@
     <row r="390">
       <c r="A390" s="9"/>
       <c r="B390" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C390" s="40" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D390" s="27"/>
       <c r="E390" s="13"/>
@@ -18079,10 +18195,10 @@
     <row r="391">
       <c r="A391" s="9"/>
       <c r="B391" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C391" s="40" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D391" s="27"/>
       <c r="E391" s="13"/>
@@ -18112,10 +18228,10 @@
     <row r="392">
       <c r="A392" s="9"/>
       <c r="B392" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C392" s="40" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D392" s="27"/>
       <c r="E392" s="13"/>
@@ -18145,14 +18261,14 @@
     <row r="393">
       <c r="A393" s="9"/>
       <c r="B393" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C393" s="40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D393" s="27"/>
       <c r="E393" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F393" s="24"/>
       <c r="G393" s="15"/>
@@ -18180,10 +18296,10 @@
     <row r="394">
       <c r="A394" s="9"/>
       <c r="B394" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C394" s="40" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D394" s="27"/>
       <c r="E394" s="13"/>
@@ -18213,14 +18329,14 @@
     <row r="395">
       <c r="A395" s="9"/>
       <c r="B395" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C395" s="40" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D395" s="27"/>
       <c r="E395" s="20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F395" s="24"/>
       <c r="G395" s="15"/>
@@ -18248,10 +18364,10 @@
     <row r="396">
       <c r="A396" s="9"/>
       <c r="B396" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C396" s="40" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D396" s="27"/>
       <c r="E396" s="13"/>
@@ -18281,14 +18397,14 @@
     <row r="397">
       <c r="A397" s="9"/>
       <c r="B397" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C397" s="40" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D397" s="27"/>
       <c r="E397" s="20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F397" s="24"/>
       <c r="G397" s="15"/>
@@ -18316,10 +18432,10 @@
     <row r="398">
       <c r="A398" s="9"/>
       <c r="B398" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C398" s="40" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D398" s="27"/>
       <c r="E398" s="13"/>
@@ -18349,10 +18465,10 @@
     <row r="399">
       <c r="A399" s="9"/>
       <c r="B399" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C399" s="40" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D399" s="27"/>
       <c r="E399" s="13"/>
@@ -18382,14 +18498,14 @@
     <row r="400">
       <c r="A400" s="9"/>
       <c r="B400" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C400" s="40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D400" s="27"/>
       <c r="E400" s="20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F400" s="24"/>
       <c r="G400" s="15"/>
@@ -18417,14 +18533,14 @@
     <row r="401">
       <c r="A401" s="9"/>
       <c r="B401" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C401" s="40" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D401" s="27"/>
       <c r="E401" s="20" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F401" s="24"/>
       <c r="G401" s="15"/>
@@ -18452,10 +18568,10 @@
     <row r="402">
       <c r="A402" s="9"/>
       <c r="B402" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C402" s="40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D402" s="27"/>
       <c r="E402" s="13"/>
@@ -18485,10 +18601,10 @@
     <row r="403">
       <c r="A403" s="9"/>
       <c r="B403" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C403" s="40" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D403" s="27"/>
       <c r="E403" s="13"/>
@@ -18518,10 +18634,10 @@
     <row r="404">
       <c r="A404" s="9"/>
       <c r="B404" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C404" s="40" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D404" s="27"/>
       <c r="E404" s="13"/>
@@ -18551,10 +18667,10 @@
     <row r="405">
       <c r="A405" s="9"/>
       <c r="B405" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C405" s="40" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D405" s="27"/>
       <c r="E405" s="13"/>
@@ -18584,14 +18700,14 @@
     <row r="406">
       <c r="A406" s="9"/>
       <c r="B406" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C406" s="40" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D406" s="27"/>
       <c r="E406" s="20" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F406" s="24"/>
       <c r="G406" s="15"/>
@@ -18619,10 +18735,10 @@
     <row r="407">
       <c r="A407" s="9"/>
       <c r="B407" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C407" s="40" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D407" s="27"/>
       <c r="E407" s="13"/>
@@ -18652,10 +18768,10 @@
     <row r="408">
       <c r="A408" s="9"/>
       <c r="B408" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C408" s="40" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D408" s="27"/>
       <c r="E408" s="13"/>
@@ -18685,14 +18801,14 @@
     <row r="409">
       <c r="A409" s="9"/>
       <c r="B409" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C409" s="40" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D409" s="27"/>
       <c r="E409" s="20" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F409" s="24"/>
       <c r="G409" s="15"/>
@@ -18720,10 +18836,10 @@
     <row r="410">
       <c r="A410" s="9"/>
       <c r="B410" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C410" s="40" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D410" s="27"/>
       <c r="E410" s="13"/>
@@ -18753,14 +18869,14 @@
     <row r="411">
       <c r="A411" s="9"/>
       <c r="B411" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C411" s="40" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D411" s="27"/>
       <c r="E411" s="20" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F411" s="24"/>
       <c r="G411" s="15"/>
@@ -18788,10 +18904,10 @@
     <row r="412">
       <c r="A412" s="9"/>
       <c r="B412" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C412" s="40" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D412" s="27"/>
       <c r="E412" s="13"/>
@@ -18821,14 +18937,14 @@
     <row r="413">
       <c r="A413" s="9"/>
       <c r="B413" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C413" s="40" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D413" s="27"/>
       <c r="E413" s="20" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F413" s="24"/>
       <c r="G413" s="15"/>
@@ -18856,14 +18972,14 @@
     <row r="414">
       <c r="A414" s="9"/>
       <c r="B414" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="40" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D414" s="27"/>
       <c r="E414" s="20" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F414" s="24"/>
       <c r="G414" s="15"/>
@@ -18891,10 +19007,10 @@
     <row r="415">
       <c r="A415" s="9"/>
       <c r="B415" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="40" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D415" s="27"/>
       <c r="E415" s="13"/>
@@ -18924,10 +19040,10 @@
     <row r="416">
       <c r="A416" s="9"/>
       <c r="B416" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D416" s="27"/>
       <c r="E416" s="13"/>
@@ -18957,14 +19073,14 @@
     <row r="417">
       <c r="A417" s="9"/>
       <c r="B417" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C417" s="40" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D417" s="27"/>
       <c r="E417" s="20" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F417" s="24"/>
       <c r="G417" s="15"/>
@@ -18992,10 +19108,10 @@
     <row r="418">
       <c r="A418" s="9"/>
       <c r="B418" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C418" s="40" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D418" s="27"/>
       <c r="E418" s="13"/>
@@ -19025,14 +19141,14 @@
     <row r="419">
       <c r="A419" s="9"/>
       <c r="B419" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C419" s="40" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D419" s="27"/>
       <c r="E419" s="20" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F419" s="24"/>
       <c r="G419" s="15"/>
@@ -19060,10 +19176,10 @@
     <row r="420">
       <c r="A420" s="9"/>
       <c r="B420" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C420" s="40" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D420" s="27"/>
       <c r="E420" s="13"/>
@@ -19093,10 +19209,10 @@
     <row r="421">
       <c r="A421" s="9"/>
       <c r="B421" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C421" s="40" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D421" s="27"/>
       <c r="E421" s="13"/>
@@ -19126,10 +19242,10 @@
     <row r="422">
       <c r="A422" s="9"/>
       <c r="B422" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C422" s="40" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D422" s="27"/>
       <c r="E422" s="13"/>
@@ -19159,14 +19275,14 @@
     <row r="423">
       <c r="A423" s="9"/>
       <c r="B423" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C423" s="40" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D423" s="27"/>
       <c r="E423" s="20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F423" s="24"/>
       <c r="G423" s="15"/>
@@ -19194,10 +19310,10 @@
     <row r="424">
       <c r="A424" s="9"/>
       <c r="B424" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C424" s="40" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D424" s="27"/>
       <c r="E424" s="13"/>
@@ -19227,10 +19343,10 @@
     <row r="425">
       <c r="A425" s="9"/>
       <c r="B425" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C425" s="40" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D425" s="27"/>
       <c r="E425" s="13"/>
@@ -19260,14 +19376,14 @@
     <row r="426">
       <c r="A426" s="9"/>
       <c r="B426" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C426" s="40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D426" s="27"/>
       <c r="E426" s="20" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F426" s="24"/>
       <c r="G426" s="15"/>
@@ -19295,10 +19411,10 @@
     <row r="427">
       <c r="A427" s="9"/>
       <c r="B427" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C427" s="40" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D427" s="27"/>
       <c r="E427" s="13"/>
@@ -19328,14 +19444,14 @@
     <row r="428">
       <c r="A428" s="9"/>
       <c r="B428" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C428" s="40" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D428" s="27"/>
       <c r="E428" s="20" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F428" s="24"/>
       <c r="G428" s="15"/>
@@ -19363,10 +19479,10 @@
     <row r="429">
       <c r="A429" s="9"/>
       <c r="B429" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C429" s="40" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D429" s="27"/>
       <c r="E429" s="13"/>
@@ -19396,14 +19512,14 @@
     <row r="430">
       <c r="A430" s="9"/>
       <c r="B430" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C430" s="40" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D430" s="27"/>
       <c r="E430" s="20" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F430" s="24"/>
       <c r="G430" s="15"/>
@@ -19431,10 +19547,10 @@
     <row r="431">
       <c r="A431" s="9"/>
       <c r="B431" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C431" s="40" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D431" s="27"/>
       <c r="E431" s="13"/>
@@ -19464,14 +19580,14 @@
     <row r="432">
       <c r="A432" s="9"/>
       <c r="B432" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C432" s="40" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D432" s="27"/>
       <c r="E432" s="20" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F432" s="24"/>
       <c r="G432" s="15"/>
@@ -19499,14 +19615,14 @@
     <row r="433">
       <c r="A433" s="9"/>
       <c r="B433" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C433" s="40" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D433" s="27"/>
       <c r="E433" s="20" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F433" s="24"/>
       <c r="G433" s="15"/>
@@ -19534,10 +19650,10 @@
     <row r="434">
       <c r="A434" s="9"/>
       <c r="B434" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C434" s="40" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D434" s="27"/>
       <c r="E434" s="13"/>
@@ -19567,14 +19683,14 @@
     <row r="435">
       <c r="A435" s="9"/>
       <c r="B435" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C435" s="40" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D435" s="27"/>
       <c r="E435" s="20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F435" s="24"/>
       <c r="G435" s="15"/>
@@ -19602,14 +19718,14 @@
     <row r="436">
       <c r="A436" s="9"/>
       <c r="B436" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C436" s="40" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D436" s="27"/>
       <c r="E436" s="20" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F436" s="24"/>
       <c r="G436" s="15"/>
@@ -19637,14 +19753,14 @@
     <row r="437">
       <c r="A437" s="9"/>
       <c r="B437" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C437" s="40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D437" s="27"/>
       <c r="E437" s="20" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F437" s="24"/>
       <c r="G437" s="15"/>
@@ -19672,14 +19788,14 @@
     <row r="438">
       <c r="A438" s="9"/>
       <c r="B438" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C438" s="40" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D438" s="27"/>
       <c r="E438" s="20" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F438" s="24"/>
       <c r="G438" s="15"/>
@@ -19707,14 +19823,14 @@
     <row r="439">
       <c r="A439" s="9"/>
       <c r="B439" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C439" s="40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D439" s="27"/>
       <c r="E439" s="20" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F439" s="24"/>
       <c r="G439" s="15"/>
@@ -19742,14 +19858,14 @@
     <row r="440">
       <c r="A440" s="9"/>
       <c r="B440" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C440" s="40" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D440" s="27"/>
       <c r="E440" s="20" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F440" s="24"/>
       <c r="G440" s="15"/>
@@ -19777,10 +19893,10 @@
     <row r="441">
       <c r="A441" s="9"/>
       <c r="B441" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C441" s="40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D441" s="27"/>
       <c r="E441" s="13"/>
@@ -19810,10 +19926,10 @@
     <row r="442">
       <c r="A442" s="9"/>
       <c r="B442" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C442" s="40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D442" s="27"/>
       <c r="E442" s="13"/>
@@ -19843,14 +19959,14 @@
     <row r="443">
       <c r="A443" s="9"/>
       <c r="B443" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C443" s="40" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D443" s="27"/>
       <c r="E443" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F443" s="24"/>
       <c r="G443" s="15"/>
@@ -19878,14 +19994,14 @@
     <row r="444">
       <c r="A444" s="9"/>
       <c r="B444" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C444" s="40" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D444" s="27"/>
       <c r="E444" s="20" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F444" s="24"/>
       <c r="G444" s="15"/>
@@ -19913,10 +20029,10 @@
     <row r="445">
       <c r="A445" s="9"/>
       <c r="B445" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C445" s="40" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D445" s="27"/>
       <c r="E445" s="13"/>
@@ -19946,10 +20062,10 @@
     <row r="446">
       <c r="A446" s="9"/>
       <c r="B446" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C446" s="40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D446" s="27"/>
       <c r="E446" s="13"/>
@@ -19979,10 +20095,10 @@
     <row r="447">
       <c r="A447" s="9"/>
       <c r="B447" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C447" s="40" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D447" s="27"/>
       <c r="E447" s="13"/>
@@ -20012,14 +20128,14 @@
     <row r="448">
       <c r="A448" s="9"/>
       <c r="B448" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C448" s="40" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D448" s="27"/>
       <c r="E448" s="20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F448" s="24"/>
       <c r="G448" s="15"/>
@@ -20047,14 +20163,14 @@
     <row r="449">
       <c r="A449" s="9"/>
       <c r="B449" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C449" s="40" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D449" s="27"/>
       <c r="E449" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F449" s="24"/>
       <c r="G449" s="15"/>
@@ -20082,14 +20198,14 @@
     <row r="450">
       <c r="A450" s="9"/>
       <c r="B450" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C450" s="40" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D450" s="27"/>
       <c r="E450" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F450" s="24"/>
       <c r="G450" s="15"/>
@@ -20117,14 +20233,14 @@
     <row r="451">
       <c r="A451" s="9"/>
       <c r="B451" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C451" s="40" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D451" s="27"/>
       <c r="E451" s="20" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F451" s="24"/>
       <c r="G451" s="15"/>
@@ -20152,10 +20268,10 @@
     <row r="452">
       <c r="A452" s="9"/>
       <c r="B452" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C452" s="40" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D452" s="27"/>
       <c r="E452" s="13"/>
@@ -20185,14 +20301,14 @@
     <row r="453">
       <c r="A453" s="9"/>
       <c r="B453" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C453" s="40" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D453" s="27"/>
       <c r="E453" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F453" s="24"/>
       <c r="G453" s="15"/>
@@ -20220,14 +20336,14 @@
     <row r="454">
       <c r="A454" s="9"/>
       <c r="B454" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C454" s="40" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D454" s="27"/>
       <c r="E454" s="20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F454" s="24"/>
       <c r="G454" s="15"/>
@@ -20255,14 +20371,14 @@
     <row r="455">
       <c r="A455" s="9"/>
       <c r="B455" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C455" s="40" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D455" s="27"/>
       <c r="E455" s="20" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F455" s="24"/>
       <c r="G455" s="15"/>
@@ -20290,14 +20406,14 @@
     <row r="456">
       <c r="A456" s="9"/>
       <c r="B456" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C456" s="40" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D456" s="27"/>
       <c r="E456" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F456" s="24"/>
       <c r="G456" s="15"/>
@@ -20325,10 +20441,10 @@
     <row r="457">
       <c r="A457" s="9"/>
       <c r="B457" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C457" s="40" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D457" s="27"/>
       <c r="E457" s="13"/>
@@ -20358,10 +20474,10 @@
     <row r="458">
       <c r="A458" s="9"/>
       <c r="B458" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C458" s="40" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D458" s="27"/>
       <c r="E458" s="13"/>
@@ -20391,14 +20507,14 @@
     <row r="459">
       <c r="A459" s="9"/>
       <c r="B459" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C459" s="40" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D459" s="27"/>
       <c r="E459" s="20" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F459" s="24"/>
       <c r="G459" s="15"/>
@@ -20426,14 +20542,14 @@
     <row r="460">
       <c r="A460" s="9"/>
       <c r="B460" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C460" s="40" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D460" s="27"/>
       <c r="E460" s="20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F460" s="24"/>
       <c r="G460" s="15"/>
@@ -20461,10 +20577,10 @@
     <row r="461">
       <c r="A461" s="9"/>
       <c r="B461" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C461" s="40" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D461" s="27"/>
       <c r="E461" s="13"/>
@@ -20494,10 +20610,10 @@
     <row r="462">
       <c r="A462" s="9"/>
       <c r="B462" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C462" s="40" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D462" s="27"/>
       <c r="E462" s="13"/>
@@ -20527,14 +20643,14 @@
     <row r="463">
       <c r="A463" s="9"/>
       <c r="B463" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C463" s="40" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D463" s="27"/>
       <c r="E463" s="20" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F463" s="24"/>
       <c r="G463" s="15"/>
@@ -20562,14 +20678,14 @@
     <row r="464">
       <c r="A464" s="9"/>
       <c r="B464" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C464" s="40" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D464" s="27"/>
       <c r="E464" s="20" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F464" s="24"/>
       <c r="G464" s="15"/>
@@ -20597,14 +20713,14 @@
     <row r="465">
       <c r="A465" s="9"/>
       <c r="B465" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C465" s="40" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D465" s="27"/>
       <c r="E465" s="20" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F465" s="24"/>
       <c r="G465" s="15"/>
@@ -20632,10 +20748,10 @@
     <row r="466">
       <c r="A466" s="9"/>
       <c r="B466" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C466" s="40" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D466" s="27"/>
       <c r="E466" s="13"/>
@@ -20665,10 +20781,10 @@
     <row r="467">
       <c r="A467" s="9"/>
       <c r="B467" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C467" s="40" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D467" s="27"/>
       <c r="E467" s="13"/>
@@ -20698,10 +20814,10 @@
     <row r="468">
       <c r="A468" s="9"/>
       <c r="B468" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C468" s="40" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D468" s="27"/>
       <c r="E468" s="13"/>
@@ -20731,10 +20847,10 @@
     <row r="469">
       <c r="A469" s="9"/>
       <c r="B469" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C469" s="40" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D469" s="27"/>
       <c r="E469" s="13"/>
@@ -20764,10 +20880,10 @@
     <row r="470">
       <c r="A470" s="9"/>
       <c r="B470" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C470" s="40" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D470" s="27"/>
       <c r="E470" s="13"/>
@@ -20797,10 +20913,10 @@
     <row r="471">
       <c r="A471" s="9"/>
       <c r="B471" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C471" s="40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D471" s="27"/>
       <c r="E471" s="13"/>
@@ -20830,14 +20946,14 @@
     <row r="472">
       <c r="A472" s="9"/>
       <c r="B472" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C472" s="40" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D472" s="27"/>
       <c r="E472" s="20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F472" s="24"/>
       <c r="G472" s="15"/>
@@ -20865,10 +20981,10 @@
     <row r="473">
       <c r="A473" s="9"/>
       <c r="B473" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C473" s="40" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D473" s="27"/>
       <c r="E473" s="13"/>
@@ -20898,10 +21014,10 @@
     <row r="474">
       <c r="A474" s="9"/>
       <c r="B474" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C474" s="40" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D474" s="27"/>
       <c r="E474" s="13"/>
@@ -20931,14 +21047,14 @@
     <row r="475">
       <c r="A475" s="9"/>
       <c r="B475" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C475" s="40" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D475" s="27"/>
       <c r="E475" s="20" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F475" s="24"/>
       <c r="G475" s="15"/>
@@ -20966,14 +21082,14 @@
     <row r="476">
       <c r="A476" s="9"/>
       <c r="B476" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C476" s="40" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D476" s="27"/>
       <c r="E476" s="20" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F476" s="24"/>
       <c r="G476" s="15"/>
@@ -21001,10 +21117,10 @@
     <row r="477">
       <c r="A477" s="9"/>
       <c r="B477" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C477" s="40" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D477" s="27"/>
       <c r="E477" s="13"/>
@@ -21034,10 +21150,10 @@
     <row r="478">
       <c r="A478" s="9"/>
       <c r="B478" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C478" s="40" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D478" s="27"/>
       <c r="E478" s="13"/>
@@ -21067,10 +21183,10 @@
     <row r="479">
       <c r="A479" s="9"/>
       <c r="B479" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C479" s="40" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D479" s="27"/>
       <c r="E479" s="13"/>
@@ -21100,14 +21216,14 @@
     <row r="480">
       <c r="A480" s="9"/>
       <c r="B480" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C480" s="40" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D480" s="27"/>
       <c r="E480" s="20" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F480" s="24"/>
       <c r="G480" s="15"/>
@@ -21135,10 +21251,10 @@
     <row r="481">
       <c r="A481" s="9"/>
       <c r="B481" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C481" s="40" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D481" s="27"/>
       <c r="E481" s="13"/>
@@ -21168,10 +21284,10 @@
     <row r="482">
       <c r="A482" s="9"/>
       <c r="B482" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C482" s="40" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D482" s="27"/>
       <c r="E482" s="13"/>
@@ -21201,14 +21317,14 @@
     <row r="483">
       <c r="A483" s="9"/>
       <c r="B483" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C483" s="40" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D483" s="27"/>
       <c r="E483" s="20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F483" s="24"/>
       <c r="G483" s="15"/>
@@ -21236,16 +21352,16 @@
     <row r="484">
       <c r="A484" s="9"/>
       <c r="B484" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C484" s="40" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E484" s="20" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F484" s="24"/>
       <c r="G484" s="15"/>
@@ -21273,14 +21389,14 @@
     <row r="485">
       <c r="A485" s="9"/>
       <c r="B485" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C485" s="40" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D485" s="27"/>
       <c r="E485" s="20" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F485" s="24"/>
       <c r="G485" s="15"/>
@@ -21308,14 +21424,14 @@
     <row r="486">
       <c r="A486" s="9"/>
       <c r="B486" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C486" s="40" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D486" s="27"/>
       <c r="E486" s="20" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F486" s="24"/>
       <c r="G486" s="15"/>
@@ -21343,14 +21459,14 @@
     <row r="487">
       <c r="A487" s="9"/>
       <c r="B487" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C487" s="40" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D487" s="27"/>
       <c r="E487" s="20" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F487" s="24"/>
       <c r="G487" s="15"/>
@@ -21378,14 +21494,14 @@
     <row r="488">
       <c r="A488" s="9"/>
       <c r="B488" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C488" s="40" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D488" s="27"/>
       <c r="E488" s="20" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F488" s="24"/>
       <c r="G488" s="15"/>
@@ -21413,14 +21529,14 @@
     <row r="489">
       <c r="A489" s="9"/>
       <c r="B489" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C489" s="40" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D489" s="27"/>
       <c r="E489" s="20" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F489" s="24"/>
       <c r="G489" s="15"/>
@@ -21448,10 +21564,10 @@
     <row r="490">
       <c r="A490" s="9"/>
       <c r="B490" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C490" s="40" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D490" s="27"/>
       <c r="E490" s="13"/>
@@ -21481,10 +21597,10 @@
     <row r="491">
       <c r="A491" s="9"/>
       <c r="B491" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C491" s="40" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D491" s="27"/>
       <c r="E491" s="13"/>
@@ -21514,10 +21630,10 @@
     <row r="492">
       <c r="A492" s="9"/>
       <c r="B492" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C492" s="40" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D492" s="27"/>
       <c r="E492" s="13"/>
@@ -21547,10 +21663,10 @@
     <row r="493">
       <c r="A493" s="9"/>
       <c r="B493" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C493" s="40" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D493" s="27"/>
       <c r="E493" s="13"/>
@@ -21580,10 +21696,10 @@
     <row r="494">
       <c r="A494" s="9"/>
       <c r="B494" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C494" s="40" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D494" s="27"/>
       <c r="E494" s="13"/>
@@ -21613,14 +21729,14 @@
     <row r="495">
       <c r="A495" s="9"/>
       <c r="B495" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C495" s="40" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D495" s="27"/>
       <c r="E495" s="20" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F495" s="24"/>
       <c r="G495" s="15"/>
@@ -21648,10 +21764,10 @@
     <row r="496">
       <c r="A496" s="9"/>
       <c r="B496" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C496" s="40" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D496" s="27"/>
       <c r="E496" s="13"/>
@@ -21681,14 +21797,14 @@
     <row r="497">
       <c r="A497" s="9"/>
       <c r="B497" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C497" s="40" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D497" s="27"/>
       <c r="E497" s="20" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F497" s="24"/>
       <c r="G497" s="15"/>
@@ -21716,10 +21832,10 @@
     <row r="498">
       <c r="A498" s="9"/>
       <c r="B498" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C498" s="40" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D498" s="27"/>
       <c r="E498" s="13"/>
@@ -21749,14 +21865,14 @@
     <row r="499">
       <c r="A499" s="9"/>
       <c r="B499" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C499" s="40" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D499" s="27"/>
       <c r="E499" s="20" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F499" s="24"/>
       <c r="G499" s="15"/>
@@ -21784,14 +21900,14 @@
     <row r="500">
       <c r="A500" s="9"/>
       <c r="B500" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C500" s="40" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D500" s="27"/>
       <c r="E500" s="20" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F500" s="24"/>
       <c r="G500" s="15"/>
@@ -21819,14 +21935,14 @@
     <row r="501">
       <c r="A501" s="9"/>
       <c r="B501" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C501" s="40" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D501" s="27"/>
       <c r="E501" s="20" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F501" s="24"/>
       <c r="G501" s="15"/>
@@ -21854,14 +21970,14 @@
     <row r="502">
       <c r="A502" s="9"/>
       <c r="B502" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C502" s="40" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D502" s="27"/>
       <c r="E502" s="20" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F502" s="24"/>
       <c r="G502" s="15"/>
@@ -21889,14 +22005,14 @@
     <row r="503">
       <c r="A503" s="9"/>
       <c r="B503" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C503" s="40" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D503" s="27"/>
       <c r="E503" s="20" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F503" s="24"/>
       <c r="G503" s="15"/>
@@ -21924,14 +22040,14 @@
     <row r="504">
       <c r="A504" s="9"/>
       <c r="B504" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C504" s="40" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D504" s="27"/>
       <c r="E504" s="20" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F504" s="24"/>
       <c r="G504" s="15"/>
@@ -21959,10 +22075,10 @@
     <row r="505">
       <c r="A505" s="9"/>
       <c r="B505" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C505" s="40" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D505" s="27"/>
       <c r="E505" s="13"/>
@@ -21992,14 +22108,14 @@
     <row r="506">
       <c r="A506" s="9"/>
       <c r="B506" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C506" s="40" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D506" s="27"/>
       <c r="E506" s="20" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F506" s="24"/>
       <c r="G506" s="15"/>
@@ -22027,10 +22143,10 @@
     <row r="507">
       <c r="A507" s="9"/>
       <c r="B507" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C507" s="40" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D507" s="27"/>
       <c r="E507" s="13"/>
@@ -22060,14 +22176,14 @@
     <row r="508">
       <c r="A508" s="9"/>
       <c r="B508" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C508" s="40" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D508" s="27"/>
       <c r="E508" s="20" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F508" s="24"/>
       <c r="G508" s="15"/>
@@ -22095,14 +22211,14 @@
     <row r="509">
       <c r="A509" s="9"/>
       <c r="B509" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C509" s="40" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D509" s="27"/>
       <c r="E509" s="20" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F509" s="24"/>
       <c r="G509" s="15"/>
@@ -22130,14 +22246,14 @@
     <row r="510">
       <c r="A510" s="9"/>
       <c r="B510" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C510" s="40" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D510" s="27"/>
       <c r="E510" s="20" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F510" s="24"/>
       <c r="G510" s="15"/>
@@ -22165,10 +22281,10 @@
     <row r="511">
       <c r="A511" s="9"/>
       <c r="B511" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C511" s="40" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D511" s="27"/>
       <c r="E511" s="13"/>
@@ -22198,14 +22314,14 @@
     <row r="512">
       <c r="A512" s="9"/>
       <c r="B512" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C512" s="40" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D512" s="27"/>
       <c r="E512" s="20" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F512" s="24"/>
       <c r="G512" s="15"/>
@@ -22233,10 +22349,10 @@
     <row r="513">
       <c r="A513" s="9"/>
       <c r="B513" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C513" s="40" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D513" s="27"/>
       <c r="E513" s="13"/>
@@ -22266,10 +22382,10 @@
     <row r="514">
       <c r="A514" s="9"/>
       <c r="B514" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C514" s="40" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D514" s="27"/>
       <c r="E514" s="13"/>
@@ -22299,14 +22415,14 @@
     <row r="515">
       <c r="A515" s="9"/>
       <c r="B515" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C515" s="40" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D515" s="27"/>
       <c r="E515" s="20" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F515" s="24"/>
       <c r="G515" s="15"/>
@@ -22334,10 +22450,10 @@
     <row r="516">
       <c r="A516" s="9"/>
       <c r="B516" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C516" s="40" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D516" s="27"/>
       <c r="E516" s="13"/>
@@ -22367,10 +22483,10 @@
     <row r="517">
       <c r="A517" s="9"/>
       <c r="B517" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C517" s="40" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D517" s="27"/>
       <c r="E517" s="13"/>
@@ -22400,14 +22516,14 @@
     <row r="518">
       <c r="A518" s="9"/>
       <c r="B518" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C518" s="40" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D518" s="27"/>
       <c r="E518" s="20" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F518" s="24"/>
       <c r="G518" s="15"/>
@@ -22435,14 +22551,14 @@
     <row r="519">
       <c r="A519" s="9"/>
       <c r="B519" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C519" s="40" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D519" s="27"/>
       <c r="E519" s="20" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F519" s="24"/>
       <c r="G519" s="15"/>
@@ -22470,10 +22586,10 @@
     <row r="520">
       <c r="A520" s="9"/>
       <c r="B520" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C520" s="40" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D520" s="27"/>
       <c r="E520" s="13"/>
@@ -22503,14 +22619,14 @@
     <row r="521">
       <c r="A521" s="9"/>
       <c r="B521" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C521" s="40" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D521" s="27"/>
       <c r="E521" s="20" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F521" s="24"/>
       <c r="G521" s="15"/>
@@ -22538,14 +22654,14 @@
     <row r="522">
       <c r="A522" s="9"/>
       <c r="B522" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C522" s="40" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D522" s="27"/>
       <c r="E522" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F522" s="24"/>
       <c r="G522" s="15"/>
@@ -22573,10 +22689,10 @@
     <row r="523">
       <c r="A523" s="9"/>
       <c r="B523" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C523" s="40" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D523" s="27"/>
       <c r="E523" s="13"/>
@@ -22606,14 +22722,14 @@
     <row r="524">
       <c r="A524" s="9"/>
       <c r="B524" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C524" s="40" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D524" s="27"/>
       <c r="E524" s="20" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F524" s="24"/>
       <c r="G524" s="15"/>
@@ -22641,10 +22757,10 @@
     <row r="525">
       <c r="A525" s="9"/>
       <c r="B525" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C525" s="40" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D525" s="27"/>
       <c r="E525" s="13"/>
@@ -22674,10 +22790,10 @@
     <row r="526">
       <c r="A526" s="9"/>
       <c r="B526" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C526" s="43" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D526" s="23"/>
       <c r="E526" s="13"/>
@@ -22707,14 +22823,14 @@
     <row r="527">
       <c r="A527" s="9"/>
       <c r="B527" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C527" s="40" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D527" s="27"/>
       <c r="E527" s="20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F527" s="24"/>
       <c r="G527" s="15"/>
@@ -22742,10 +22858,10 @@
     <row r="528">
       <c r="A528" s="9"/>
       <c r="B528" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C528" s="44" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D528" s="45"/>
       <c r="E528" s="13"/>
@@ -22775,10 +22891,10 @@
     <row r="529">
       <c r="A529" s="9"/>
       <c r="B529" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C529" s="44" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D529" s="45"/>
       <c r="E529" s="13"/>
@@ -22808,14 +22924,14 @@
     <row r="530">
       <c r="A530" s="9"/>
       <c r="B530" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C530" s="44" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D530" s="45"/>
       <c r="E530" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F530" s="24"/>
       <c r="G530" s="15"/>
@@ -22843,14 +22959,14 @@
     <row r="531">
       <c r="A531" s="9"/>
       <c r="B531" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C531" s="44" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D531" s="45"/>
       <c r="E531" s="20" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F531" s="24"/>
       <c r="G531" s="15"/>
@@ -22878,14 +22994,14 @@
     <row r="532">
       <c r="A532" s="9"/>
       <c r="B532" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C532" s="44" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D532" s="45"/>
       <c r="E532" s="20" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F532" s="24"/>
       <c r="G532" s="15"/>
@@ -22913,14 +23029,14 @@
     <row r="533">
       <c r="A533" s="9"/>
       <c r="B533" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C533" s="44" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D533" s="45"/>
       <c r="E533" s="20" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F533" s="24"/>
       <c r="G533" s="15"/>
@@ -22948,14 +23064,14 @@
     <row r="534">
       <c r="A534" s="9"/>
       <c r="B534" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C534" s="44" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D534" s="45"/>
       <c r="E534" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F534" s="24"/>
       <c r="G534" s="15"/>
@@ -22983,14 +23099,14 @@
     <row r="535">
       <c r="A535" s="9"/>
       <c r="B535" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C535" s="44" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D535" s="45"/>
       <c r="E535" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F535" s="24"/>
       <c r="G535" s="15"/>
@@ -23018,10 +23134,10 @@
     <row r="536">
       <c r="A536" s="9"/>
       <c r="B536" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C536" s="44" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D536" s="45"/>
       <c r="E536" s="13"/>
@@ -23051,10 +23167,10 @@
     <row r="537">
       <c r="A537" s="9"/>
       <c r="B537" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C537" s="44" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D537" s="45"/>
       <c r="E537" s="13"/>
@@ -23084,14 +23200,14 @@
     <row r="538">
       <c r="A538" s="9"/>
       <c r="B538" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C538" s="44" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D538" s="45"/>
       <c r="E538" s="20" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F538" s="24"/>
       <c r="G538" s="15"/>
@@ -23119,14 +23235,14 @@
     <row r="539">
       <c r="A539" s="9"/>
       <c r="B539" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C539" s="44" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D539" s="45"/>
       <c r="E539" s="20" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F539" s="24"/>
       <c r="G539" s="15"/>
@@ -23154,14 +23270,14 @@
     <row r="540">
       <c r="A540" s="9"/>
       <c r="B540" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C540" s="44" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D540" s="45"/>
       <c r="E540" s="20" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F540" s="24"/>
       <c r="G540" s="15"/>
@@ -23189,10 +23305,10 @@
     <row r="541">
       <c r="A541" s="9"/>
       <c r="B541" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C541" s="44" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D541" s="45"/>
       <c r="E541" s="13"/>
@@ -23222,10 +23338,10 @@
     <row r="542">
       <c r="A542" s="9"/>
       <c r="B542" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C542" s="44" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D542" s="45"/>
       <c r="E542" s="13"/>
@@ -23255,10 +23371,10 @@
     <row r="543">
       <c r="A543" s="9"/>
       <c r="B543" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C543" s="44" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D543" s="45"/>
       <c r="E543" s="13"/>
@@ -23288,14 +23404,14 @@
     <row r="544">
       <c r="A544" s="9"/>
       <c r="B544" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C544" s="44" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D544" s="45"/>
       <c r="E544" s="20" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F544" s="24"/>
       <c r="G544" s="15"/>
@@ -23323,10 +23439,10 @@
     <row r="545">
       <c r="A545" s="9"/>
       <c r="B545" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C545" s="44" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D545" s="45"/>
       <c r="E545" s="13"/>
@@ -23356,10 +23472,10 @@
     <row r="546">
       <c r="A546" s="9"/>
       <c r="B546" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C546" s="44" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D546" s="45"/>
       <c r="E546" s="13"/>
@@ -23389,14 +23505,14 @@
     <row r="547">
       <c r="A547" s="9"/>
       <c r="B547" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C547" s="44" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D547" s="45"/>
       <c r="E547" s="20" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F547" s="24"/>
       <c r="G547" s="15"/>
@@ -23424,14 +23540,14 @@
     <row r="548">
       <c r="A548" s="9"/>
       <c r="B548" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C548" s="44" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D548" s="45"/>
       <c r="E548" s="20" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F548" s="24"/>
       <c r="G548" s="15"/>
@@ -23459,14 +23575,14 @@
     <row r="549">
       <c r="A549" s="9"/>
       <c r="B549" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C549" s="44" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D549" s="45"/>
       <c r="E549" s="20" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F549" s="24"/>
       <c r="G549" s="15"/>
@@ -23494,10 +23610,10 @@
     <row r="550">
       <c r="A550" s="9"/>
       <c r="B550" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C550" s="44" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D550" s="45"/>
       <c r="E550" s="13"/>
@@ -23527,14 +23643,14 @@
     <row r="551">
       <c r="A551" s="9"/>
       <c r="B551" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C551" s="46" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D551" s="45"/>
       <c r="E551" s="20" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F551" s="24"/>
       <c r="G551" s="15"/>
@@ -23562,10 +23678,10 @@
     <row r="552">
       <c r="A552" s="9"/>
       <c r="B552" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C552" s="44" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D552" s="45"/>
       <c r="E552" s="13"/>
@@ -23595,10 +23711,10 @@
     <row r="553">
       <c r="A553" s="9"/>
       <c r="B553" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C553" s="44" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D553" s="45"/>
       <c r="E553" s="13"/>
@@ -23628,10 +23744,10 @@
     <row r="554">
       <c r="A554" s="9"/>
       <c r="B554" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C554" s="44" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D554" s="45"/>
       <c r="E554" s="13"/>
@@ -23661,14 +23777,14 @@
     <row r="555">
       <c r="A555" s="9"/>
       <c r="B555" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C555" s="44" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D555" s="45"/>
       <c r="E555" s="20" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F555" s="24"/>
       <c r="G555" s="15"/>
@@ -23696,10 +23812,10 @@
     <row r="556">
       <c r="A556" s="9"/>
       <c r="B556" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C556" s="44" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D556" s="45"/>
       <c r="E556" s="13"/>
@@ -23729,14 +23845,14 @@
     <row r="557">
       <c r="A557" s="9"/>
       <c r="B557" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C557" s="44" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D557" s="45"/>
       <c r="E557" s="20" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F557" s="24"/>
       <c r="G557" s="15"/>
@@ -23764,14 +23880,14 @@
     <row r="558">
       <c r="A558" s="9"/>
       <c r="B558" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C558" s="44" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D558" s="45"/>
       <c r="E558" s="20" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F558" s="24"/>
       <c r="G558" s="15"/>
@@ -23799,10 +23915,10 @@
     <row r="559">
       <c r="A559" s="9"/>
       <c r="B559" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C559" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D559" s="45"/>
       <c r="E559" s="13"/>
@@ -23832,10 +23948,10 @@
     <row r="560">
       <c r="A560" s="9"/>
       <c r="B560" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C560" s="44" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D560" s="45"/>
       <c r="E560" s="13"/>
@@ -23865,14 +23981,14 @@
     <row r="561">
       <c r="A561" s="9"/>
       <c r="B561" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C561" s="44" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D561" s="45"/>
       <c r="E561" s="20" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F561" s="24"/>
       <c r="G561" s="15"/>
@@ -23900,14 +24016,14 @@
     <row r="562">
       <c r="A562" s="9"/>
       <c r="B562" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C562" s="44" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D562" s="45"/>
       <c r="E562" s="20" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F562" s="24"/>
       <c r="G562" s="15"/>
@@ -23935,10 +24051,10 @@
     <row r="563">
       <c r="A563" s="9"/>
       <c r="B563" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C563" s="44" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D563" s="45"/>
       <c r="E563" s="13"/>
@@ -23968,10 +24084,10 @@
     <row r="564">
       <c r="A564" s="9"/>
       <c r="B564" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C564" s="44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D564" s="45"/>
       <c r="E564" s="13"/>
@@ -24001,14 +24117,14 @@
     <row r="565">
       <c r="A565" s="9"/>
       <c r="B565" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C565" s="44" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D565" s="45"/>
       <c r="E565" s="20" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F565" s="24"/>
       <c r="G565" s="15"/>
@@ -24036,19 +24152,19 @@
     <row r="566">
       <c r="A566" s="9"/>
       <c r="B566" s="32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C566" s="47" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D566" s="48" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E566" s="36" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F566" s="37" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G566" s="15"/>
       <c r="H566" s="16"/>
@@ -24075,18 +24191,18 @@
     <row r="567">
       <c r="A567" s="9"/>
       <c r="B567" s="17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C567" s="44" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D567" s="49" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E567" s="35"/>
       <c r="F567" s="24"/>
       <c r="G567" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H567" s="16"/>
       <c r="I567" s="16"/>
@@ -24112,17 +24228,17 @@
     <row r="568">
       <c r="A568" s="9"/>
       <c r="B568" s="17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C568" s="44" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D568" s="49" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E568" s="13"/>
       <c r="F568" s="24" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G568" s="15"/>
       <c r="H568" s="16"/>
@@ -24149,13 +24265,13 @@
     <row r="569">
       <c r="A569" s="9"/>
       <c r="B569" s="17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C569" s="47" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D569" s="48" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E569" s="35"/>
       <c r="F569" s="14"/>
@@ -24184,13 +24300,13 @@
     <row r="570">
       <c r="A570" s="9"/>
       <c r="B570" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C570" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D570" s="48" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E570" s="35"/>
       <c r="F570" s="14"/>
@@ -24219,13 +24335,13 @@
     <row r="571">
       <c r="A571" s="9"/>
       <c r="B571" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C571" s="47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D571" s="48" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E571" s="35"/>
       <c r="F571" s="14"/>
@@ -24254,13 +24370,13 @@
     <row r="572">
       <c r="A572" s="9"/>
       <c r="B572" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C572" s="51" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D572" s="48" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E572" s="35"/>
       <c r="F572" s="14"/>
@@ -24289,16 +24405,16 @@
     <row r="573">
       <c r="A573" s="9"/>
       <c r="B573" s="32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C573" s="51" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D573" s="48" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E573" s="36" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F573" s="14"/>
       <c r="G573" s="15"/>
@@ -24326,16 +24442,16 @@
     <row r="574">
       <c r="A574" s="9"/>
       <c r="B574" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C574" s="51" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D574" s="48" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E574" s="36" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F574" s="14"/>
       <c r="G574" s="15"/>
@@ -24362,10 +24478,18 @@
     </row>
     <row r="575">
       <c r="A575" s="9"/>
-      <c r="B575" s="9"/>
-      <c r="C575" s="52"/>
-      <c r="D575" s="53"/>
-      <c r="E575" s="35"/>
+      <c r="B575" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C575" s="51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D575" s="48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E575" s="36" t="s">
+        <v>1005</v>
+      </c>
       <c r="F575" s="14"/>
       <c r="G575" s="15"/>
       <c r="H575" s="16"/>
@@ -24391,9 +24515,15 @@
     </row>
     <row r="576">
       <c r="A576" s="9"/>
-      <c r="B576" s="9"/>
-      <c r="C576" s="52"/>
-      <c r="D576" s="53"/>
+      <c r="B576" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C576" s="51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D576" s="48" t="s">
+        <v>1007</v>
+      </c>
       <c r="E576" s="35"/>
       <c r="F576" s="14"/>
       <c r="G576" s="15"/>
@@ -24420,9 +24550,15 @@
     </row>
     <row r="577">
       <c r="A577" s="9"/>
-      <c r="B577" s="9"/>
-      <c r="C577" s="52"/>
-      <c r="D577" s="53"/>
+      <c r="B577" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C577" s="51" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D577" s="48" t="s">
+        <v>1009</v>
+      </c>
       <c r="E577" s="35"/>
       <c r="F577" s="14"/>
       <c r="G577" s="15"/>
@@ -24449,9 +24585,15 @@
     </row>
     <row r="578">
       <c r="A578" s="9"/>
-      <c r="B578" s="9"/>
-      <c r="C578" s="52"/>
-      <c r="D578" s="53"/>
+      <c r="B578" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C578" s="51" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D578" s="48" t="s">
+        <v>1011</v>
+      </c>
       <c r="E578" s="35"/>
       <c r="F578" s="14"/>
       <c r="G578" s="15"/>
@@ -24478,10 +24620,18 @@
     </row>
     <row r="579">
       <c r="A579" s="9"/>
-      <c r="B579" s="9"/>
-      <c r="C579" s="52"/>
-      <c r="D579" s="53"/>
-      <c r="E579" s="35"/>
+      <c r="B579" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C579" s="51" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D579" s="48" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E579" s="36" t="s">
+        <v>1014</v>
+      </c>
       <c r="F579" s="14"/>
       <c r="G579" s="15"/>
       <c r="H579" s="16"/>
@@ -24507,10 +24657,18 @@
     </row>
     <row r="580">
       <c r="A580" s="9"/>
-      <c r="B580" s="9"/>
-      <c r="C580" s="52"/>
-      <c r="D580" s="53"/>
-      <c r="E580" s="35"/>
+      <c r="B580" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C580" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D580" s="48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E580" s="36" t="s">
+        <v>1017</v>
+      </c>
       <c r="F580" s="14"/>
       <c r="G580" s="15"/>
       <c r="H580" s="16"/>
@@ -24536,10 +24694,18 @@
     </row>
     <row r="581">
       <c r="A581" s="9"/>
-      <c r="B581" s="9"/>
-      <c r="C581" s="52"/>
-      <c r="D581" s="53"/>
-      <c r="E581" s="35"/>
+      <c r="B581" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C581" s="51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D581" s="48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E581" s="36" t="s">
+        <v>1020</v>
+      </c>
       <c r="F581" s="14"/>
       <c r="G581" s="15"/>
       <c r="H581" s="16"/>
@@ -24565,9 +24731,15 @@
     </row>
     <row r="582">
       <c r="A582" s="9"/>
-      <c r="B582" s="9"/>
-      <c r="C582" s="52"/>
-      <c r="D582" s="53"/>
+      <c r="B582" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C582" s="51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D582" s="48" t="s">
+        <v>1022</v>
+      </c>
       <c r="E582" s="35"/>
       <c r="F582" s="14"/>
       <c r="G582" s="15"/>
@@ -24594,10 +24766,18 @@
     </row>
     <row r="583">
       <c r="A583" s="9"/>
-      <c r="B583" s="9"/>
-      <c r="C583" s="52"/>
-      <c r="D583" s="53"/>
-      <c r="E583" s="35"/>
+      <c r="B583" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C583" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D583" s="48" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E583" s="36" t="s">
+        <v>1025</v>
+      </c>
       <c r="F583" s="14"/>
       <c r="G583" s="15"/>
       <c r="H583" s="16"/>
@@ -24623,10 +24803,18 @@
     </row>
     <row r="584">
       <c r="A584" s="9"/>
-      <c r="B584" s="9"/>
-      <c r="C584" s="52"/>
-      <c r="D584" s="53"/>
-      <c r="E584" s="35"/>
+      <c r="B584" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C584" s="51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D584" s="48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E584" s="36" t="s">
+        <v>1028</v>
+      </c>
       <c r="F584" s="14"/>
       <c r="G584" s="15"/>
       <c r="H584" s="16"/>
@@ -24652,10 +24840,18 @@
     </row>
     <row r="585">
       <c r="A585" s="9"/>
-      <c r="B585" s="9"/>
-      <c r="C585" s="52"/>
-      <c r="D585" s="53"/>
-      <c r="E585" s="35"/>
+      <c r="B585" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C585" s="51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D585" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E585" s="36" t="s">
+        <v>1031</v>
+      </c>
       <c r="F585" s="14"/>
       <c r="G585" s="15"/>
       <c r="H585" s="16"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -1030,6 +1030,94 @@
   <si>
     <t>plural addresses
 the number of the building and the name of the street and town where somebody lives or works.</t>
+  </si>
+  <si>
+    <t>different (adj.)</t>
+  </si>
+  <si>
+    <t>not the same:
+She seems to wear something different every day.
+He's different now that he's been to college.
+We're reading a different book this week.
+Emily is very/completely/entirely different from her sister.
+Emily and her sister are completely different.
+There are many different types/kinds of bacteria.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">all 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(determiner, predeterminer, pronoun)</t>
+    </r>
+  </si>
+  <si>
+    <t>every one (of), or the complete amount or number (of), or the whole (of):
+all day I've been trying all day to contact you.
+all of Did you really drink all of the milk?</t>
+  </si>
+  <si>
+    <t>all right (adj. adv. exclam.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+(in a way that is) satisfactory or reasonably good:
+do all right I wouldn't say she's rich, but she's doing all right.
+Is everything all right, madam?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+only just good enough:
+"What did you think of the film?" "It was all right. Nothing special."
+The food was all right, I suppose, but I've had better.
+----------------------
+1- good, or good enough
+2- well; not hurt
+3- used to say "yes, I agree"</t>
+    </r>
   </si>
   <si>
     <t>A2</t>
@@ -1314,6 +1402,99 @@
     </r>
   </si>
   <si>
+    <t>foreign (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">A2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">belonging or connected to a country that is not your own:
+Spain was the first foreign country she had visited.
+foreign languages
+His work provided him with the opportunity for a lot of foreign travel.
+foreign to formal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>C2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Something can be described as foreign to a particular person if they do not know about it or it is not within their experience:
+The whole concept of democracy, she claimed, was utterly foreign to the present government.</t>
+    </r>
+  </si>
+  <si>
+    <t>adjective: خارجی, خارجه, خارج, بیگانه, اجنبی, بیرونی, غریبه, ناجور, نا مناسب</t>
+  </si>
+  <si>
+    <t>alcohol (n.)</t>
+  </si>
+  <si>
+    <t>a clear liquid that can make you drunk, also used as a solvent (= a substance that dissolves another) and in fuel and medicines:
+Most wines contain around twelve percent alcohol.
+I could smell the alcohol on his breath.
+an alcohol-free lager</t>
+  </si>
+  <si>
+    <t>all (adv.)</t>
+  </si>
+  <si>
+    <t>completely:
+all alone The princess lived all alone in the middle of the forest.
+all by yourself Can you believe he built that house all by himself?
+all over We had a difficult time but it's all over now.
+The baby got food all over her dress.</t>
+  </si>
+  <si>
+    <t>almost (adv.)</t>
+  </si>
+  <si>
+    <t>nearly, not quite.
+nearly:
+She's almost 30.
+It was almost six o'clock when he left.
+I almost wish I hadn't invited him.
+It'll cost almost as much to repair it as it would to buy a new one.
+Almost all the passengers on the ferry were French.
+They'll almost certainly forget to do it.</t>
+  </si>
+  <si>
+    <t>alone (adj.)</t>
+  </si>
+  <si>
+    <t>withour any other person. Same meaning on your own, by yourself:
+I don't like being alone in the house.
+without other people:
+He likes being alone in the house.
+She decided to climb the mountain alone.
+Do you like living alone?</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
@@ -1562,6 +1743,89 @@
 I aim to be a millionaire by the time I'm 35.</t>
   </si>
   <si>
+    <t>description (n.)</t>
+  </si>
+  <si>
+    <t>something that tells you what something or someone is like:
+Write a description of your favourite beach.
+She has given the police a very detailed/full description of the robber.
+A girl answering (= matching) the description of the missing teenager was spotted in Glasgow.</t>
+  </si>
+  <si>
+    <t>ordinary (adj.)</t>
+  </si>
+  <si>
+    <t>with no special or distinctive features; normal.
+not different or special or unexpected in any way; usual.
+"he sets out to depict ordinary people"
+an ordinary neighbourhood</t>
+  </si>
+  <si>
+    <t>معمولی</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>used after a number to mean that both teams or players in a game have equal points:
+The score at half-time was still four all.</t>
+  </si>
+  <si>
+    <t>allow (v.) 
+allows, allowing, allowed</t>
+  </si>
+  <si>
+    <t>to give permission for someone to do something, or to not prevent something from happening:
+[ + to infinitive ] Do you think Dad will allow you to go to Jamie's party?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+(in a way that is) satisfactory or reasonably good:
+do all right I wouldn't say she's rich, but she's doing all right.
+Is everything all right, madam?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+only just good enough:
+"What did you think of the film?" "It was all right. Nothing special."
+The food was all right, I suppose, but I've had better.
+----------------------
+1- good, or good enough
+2- well; not hurt
+3- used to say "yes, I agree"</t>
+    </r>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
@@ -1894,6 +2158,164 @@
   </si>
   <si>
     <t>هواپیما</t>
+  </si>
+  <si>
+    <t>contribute (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+to give something, especially money, in order to provide or achieve something together with other people:
+contribute towards Aren't you going to contribute towards Jack's leaving present?
+Come to the meeting if you feel you have something to contribute.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    مشارکت, شرکاء, شرکت در مالکیت, انبازی</t>
+  </si>
+  <si>
+    <t>drunk (adj.)</t>
+  </si>
+  <si>
+    <t>unable to speak or act in the usual way because of having had too much alcohol:
+I got completely drunk at my sister's wedding.</t>
+  </si>
+  <si>
+    <t>solvent (adj.)</t>
+  </si>
+  <si>
+    <t>(especially of companies) having enough money to pay all the money that is owed to other people:
+Many insurance companies are under pressure to increase premiums to stay solvent.</t>
+  </si>
+  <si>
+    <t>adjective: حلال, قادر به پرداخت قروض, قابل پرداخت</t>
+  </si>
+  <si>
+    <t>nail polish (n.)AM / UK nail varnish</t>
+  </si>
+  <si>
+    <t>a coloured liquid that is painted on fingernails or toenails</t>
+  </si>
+  <si>
+    <t>لاک ناخن (دست ها)</t>
+  </si>
+  <si>
+    <t>toenail (n.)</t>
+  </si>
+  <si>
+    <t>the hard, slightly curved part that covers and protects the end of a toe:
+She was cutting/painting her toenails.</t>
+  </si>
+  <si>
+    <t>ناخن پا</t>
+  </si>
+  <si>
+    <t>solvent (n.)</t>
+  </si>
+  <si>
+    <t>a liquid in which solids will dissolve</t>
+  </si>
+  <si>
+    <t>insurance (n.)</t>
+  </si>
+  <si>
+    <t>an agreement in which you pay a company money and they pay your costs if you have an accident, injury, etc.:
+car/travel insurance
+take out insurance I'll need to take out extra car insurance for another driver.
+The insurance doesn't cover you for (= include) household items.</t>
+  </si>
+  <si>
+    <t>بیمه</t>
+  </si>
+  <si>
+    <t>household (n.)</t>
+  </si>
+  <si>
+    <t>a group of people, often a family, who live together:
+By the 1960s, most households had a TV.
+household chores
+household expenses
+household waste</t>
+  </si>
+  <si>
+    <t>noun: خانواده, خاندان, اهل بیت, اهل خانه, صمیمی, مستخدمین خانه, خانمان</t>
+  </si>
+  <si>
+    <t>household (adj.)</t>
+  </si>
+  <si>
+    <t>household chores
+household expenses
+household waste</t>
+  </si>
+  <si>
+    <t>خانگی</t>
+  </si>
+  <si>
+    <t>alive (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve"> [ after verb ]
+living, not dead:
+alive and well She's alive and well and living in New Zealand.
+keep someone alive Doctors kept him alive on a life-support machine.
+stay alive The lost hikers were able to stay alive by finding shelter in a cave in the side of the mountain.
+He must be 90 if he's still alive.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>C2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+If something is alive, it continues to exist:
+keep something alive Relatives of the missing sailors are struggling to keep their hopes alive.
+She wept for joy when she was told that her husband was still alive.
+He was the last person to see the woman alive, and suspicion immediately fell on him.
+He could be kept alive artificially, but I think it would be kinder to let nature take its course.
+If an avalanche strikes, skiers can be buried alive by snow.
+She eats only the bare minimum to stay alive.</t>
+    </r>
   </si>
   <si>
     <t>C1</t>
@@ -3859,207 +4281,6 @@
     </r>
   </si>
   <si>
-    <t>description (n.)</t>
-  </si>
-  <si>
-    <t>something that tells you what something or someone is like:
-Write a description of your favourite beach.
-She has given the police a very detailed/full description of the robber.
-A girl answering (= matching) the description of the missing teenager was spotted in Glasgow.</t>
-  </si>
-  <si>
-    <t>foreign (adj.)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">A2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">belonging or connected to a country that is not your own:
-Spain was the first foreign country she had visited.
-foreign languages
-His work provided him with the opportunity for a lot of foreign travel.
-foreign to formal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>C2:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-Something can be described as foreign to a particular person if they do not know about it or it is not within their experience:
-The whole concept of democracy, she claimed, was utterly foreign to the present government.</t>
-    </r>
-  </si>
-  <si>
-    <t>adjective: خارجی, خارجه, خارج, بیگانه, اجنبی, بیرونی, غریبه, ناجور, نا مناسب</t>
-  </si>
-  <si>
-    <t>contribute (v.)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>B2:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-to give something, especially money, in order to provide or achieve something together with other people:
-contribute towards Aren't you going to contribute towards Jack's leaving present?
-Come to the meeting if you feel you have something to contribute.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    مشارکت, شرکاء, شرکت در مالکیت, انبازی</t>
-  </si>
-  <si>
-    <t>ordinary (adj.)</t>
-  </si>
-  <si>
-    <t>with no special or distinctive features; normal.
-not different or special or unexpected in any way; usual.
-"he sets out to depict ordinary people"
-an ordinary neighbourhood</t>
-  </si>
-  <si>
-    <t>معمولی</t>
-  </si>
-  <si>
-    <t>different (adj.)</t>
-  </si>
-  <si>
-    <t>not the same:
-She seems to wear something different every day.
-He's different now that he's been to college.
-We're reading a different book this week.
-Emily is very/completely/entirely different from her sister.
-Emily and her sister are completely different.
-There are many different types/kinds of bacteria.</t>
-  </si>
-  <si>
-    <t>alcohol (n.)</t>
-  </si>
-  <si>
-    <t>a clear liquid that can make you drunk, also used as a solvent (= a substance that dissolves another) and in fuel and medicines:
-Most wines contain around twelve percent alcohol.
-I could smell the alcohol on his breath.
-an alcohol-free lager</t>
-  </si>
-  <si>
-    <t>drunk (adj.)</t>
-  </si>
-  <si>
-    <t>unable to speak or act in the usual way because of having had too much alcohol:
-I got completely drunk at my sister's wedding.</t>
-  </si>
-  <si>
-    <t>solvent (adj.)</t>
-  </si>
-  <si>
-    <t>(especially of companies) having enough money to pay all the money that is owed to other people:
-Many insurance companies are under pressure to increase premiums to stay solvent.</t>
-  </si>
-  <si>
-    <t>adjective: حلال, قادر به پرداخت قروض, قابل پرداخت</t>
-  </si>
-  <si>
-    <t>nail polish (n.)AM / UK nail varnish</t>
-  </si>
-  <si>
-    <t>a coloured liquid that is painted on fingernails or toenails</t>
-  </si>
-  <si>
-    <t>لاک ناخن (دست ها)</t>
-  </si>
-  <si>
-    <t>toenail (n.)</t>
-  </si>
-  <si>
-    <t>the hard, slightly curved part that covers and protects the end of a toe:
-She was cutting/painting her toenails.</t>
-  </si>
-  <si>
-    <t>ناخن پا</t>
-  </si>
-  <si>
-    <t>solvent (n.)</t>
-  </si>
-  <si>
-    <t>a liquid in which solids will dissolve</t>
-  </si>
-  <si>
-    <t>insurance (n.)</t>
-  </si>
-  <si>
-    <t>an agreement in which you pay a company money and they pay your costs if you have an accident, injury, etc.:
-car/travel insurance
-take out insurance I'll need to take out extra car insurance for another driver.
-The insurance doesn't cover you for (= include) household items.</t>
-  </si>
-  <si>
-    <t>بیمه</t>
-  </si>
-  <si>
-    <t>household (n.)</t>
-  </si>
-  <si>
-    <t>a group of people, often a family, who live together:
-By the 1960s, most households had a TV.
-household chores
-household expenses
-household waste</t>
-  </si>
-  <si>
-    <t>noun: خانواده, خاندان, اهل بیت, اهل خانه, صمیمی, مستخدمین خانه, خانمان</t>
-  </si>
-  <si>
-    <t>household (adj.)</t>
-  </si>
-  <si>
-    <t>household chores
-household expenses
-household waste</t>
-  </si>
-  <si>
-    <t>خانگی</t>
-  </si>
-  <si>
-    <t>alive (adj.)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4109,98 +4330,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>B1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve"> [ after verb ]
-living, not dead:
-alive and well She's alive and well and living in New Zealand.
-keep someone alive Doctors kept him alive on a life-support machine.
-stay alive The lost hikers were able to stay alive by finding shelter in a cave in the side of the mountain.
-He must be 90 if he's still alive.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>C2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-If something is alive, it continues to exist:
-keep something alive Relatives of the missing sailors are struggling to keep their hopes alive.
-She wept for joy when she was told that her husband was still alive.
-He was the last person to see the woman alive, and suspicion immediately fell on him.
-He could be kept alive artificially, but I think it would be kinder to let nature take its course.
-If an avalanche strikes, skiers can be buried alive by snow.
-She eats only the bare minimum to stay alive.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t xml:space="preserve">all 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>(determiner, predeterminer, pronoun)</t>
-    </r>
-  </si>
-  <si>
-    <t>every one (of), or the complete amount or number (of), or the whole (of):
-all day I've been trying all day to contact you.
-all of Did you really drink all of the milk?</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>used after a number to mean that both teams or players in a game have equal points:
-The score at half-time was still four all.</t>
-  </si>
-  <si>
-    <t>all (adv.)</t>
-  </si>
-  <si>
-    <t>completely:
-all alone The princess lived all alone in the middle of the forest.
-all by yourself Can you believe he built that house all by himself?
-all over We had a difficult time but it's all over now.
-The baby got food all over her dress.</t>
-  </si>
-  <si>
     <t>all but</t>
   </si>
   <si>
@@ -4216,135 +4345,6 @@
   </si>
   <si>
     <t>این یک تجارت وحشتناک بود.</t>
-  </si>
-  <si>
-    <t>allow (v.) 
-allows, allowing, allowed</t>
-  </si>
-  <si>
-    <t>to give permission for someone to do something, or to not prevent something from happening:
-[ + to infinitive ] Do you think Dad will allow you to go to Jamie's party?</t>
-  </si>
-  <si>
-    <t>all right (adj. adv. exclam.)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFD10051"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>A1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-(in a way that is) satisfactory or reasonably good:
-do all right I wouldn't say she's rich, but she's doing all right.
-Is everything all right, madam?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFD10051"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>B1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-only just good enough:
-"What did you think of the film?" "It was all right. Nothing special."
-The food was all right, I suppose, but I've had better.
-----------------------
-1- good, or good enough
-2- well; not hurt
-3- used to say "yes, I agree"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFD10051"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>A1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-(in a way that is) satisfactory or reasonably good:
-do all right I wouldn't say she's rich, but she's doing all right.
-Is everything all right, madam?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFD10051"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t>B1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="13.0"/>
-      </rPr>
-      <t xml:space="preserve">
-only just good enough:
-"What did you think of the film?" "It was all right. Nothing special."
-The food was all right, I suppose, but I've had better.
-----------------------
-1- good, or good enough
-2- well; not hurt
-3- used to say "yes, I agree"</t>
-    </r>
-  </si>
-  <si>
-    <t>almost (adv.)</t>
-  </si>
-  <si>
-    <t>nearly, not quite.
-nearly:
-She's almost 30.
-It was almost six o'clock when he left.
-I almost wish I hadn't invited him.
-It'll cost almost as much to repair it as it would to buy a new one.
-Almost all the passengers on the ferry were French.
-They'll almost certainly forget to do it.</t>
-  </si>
-  <si>
-    <t>alone (adj.)</t>
-  </si>
-  <si>
-    <t>withour any other person. Same meaning on your own, by yourself:
-I don't like being alone in the house.
-without other people:
-He likes being alone in the house.
-She decided to climb the mountain alone.
-Do you like living alone?</t>
   </si>
 </sst>
 </file>
@@ -4406,7 +4406,7 @@
     <font>
       <b/>
       <sz val="14.0"/>
-      <color rgb="FFFF00FF"/>
+      <color rgb="FFD10051"/>
       <name val="Nunito"/>
     </font>
     <font>
@@ -4452,7 +4452,7 @@
     <font>
       <b/>
       <sz val="14.0"/>
-      <color rgb="FFFF00FF"/>
+      <color rgb="FFD10051"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -4469,16 +4469,15 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
-      <color rgb="FFD10051"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4690,6 +4689,9 @@
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -4711,13 +4713,10 @@
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9796,18 +9795,16 @@
     <row r="138">
       <c r="A138" s="9"/>
       <c r="B138" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="D138" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F138" s="25"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="15"/>
       <c r="H138" s="16"/>
       <c r="I138" s="16"/>
@@ -9832,19 +9829,17 @@
     </row>
     <row r="139">
       <c r="A139" s="9"/>
-      <c r="B139" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F139" s="25"/>
+      <c r="B139" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="15"/>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
@@ -9869,19 +9864,17 @@
     </row>
     <row r="140">
       <c r="A140" s="9"/>
-      <c r="B140" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F140" s="25"/>
+      <c r="B140" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="H140" s="16"/>
       <c r="I140" s="16"/>
@@ -9906,21 +9899,19 @@
     </row>
     <row r="141">
       <c r="A141" s="9"/>
-      <c r="B141" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>305</v>
+      <c r="B141" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F141" s="25"/>
       <c r="G141" s="15"/>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
@@ -9946,16 +9937,16 @@
     <row r="142">
       <c r="A142" s="9"/>
       <c r="B142" s="10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F142" s="25"/>
       <c r="G142" s="15"/>
@@ -9982,17 +9973,19 @@
     </row>
     <row r="143">
       <c r="A143" s="9"/>
-      <c r="B143" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D143" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="E143" s="36"/>
-      <c r="F143" s="14"/>
+      <c r="B143" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" s="25"/>
       <c r="G143" s="15"/>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
@@ -10017,19 +10010,21 @@
     </row>
     <row r="144">
       <c r="A144" s="9"/>
-      <c r="B144" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144" s="18" t="s">
+      <c r="B144" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="D144" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="F144" s="25"/>
       <c r="G144" s="15"/>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
@@ -10054,21 +10049,19 @@
     </row>
     <row r="145">
       <c r="A145" s="9"/>
-      <c r="B145" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C145" s="34" t="s">
+      <c r="B145" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D145" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="E145" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F145" s="38" t="s">
-        <v>320</v>
-      </c>
+      <c r="F145" s="25"/>
       <c r="G145" s="15"/>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
@@ -10094,13 +10087,13 @@
     <row r="146">
       <c r="A146" s="9"/>
       <c r="B146" s="33" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="14"/>
@@ -10129,16 +10122,18 @@
     <row r="147">
       <c r="A147" s="9"/>
       <c r="B147" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D147" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E147" s="36"/>
-      <c r="F147" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F147" s="25"/>
       <c r="G147" s="15"/>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
@@ -10164,18 +10159,20 @@
     <row r="148">
       <c r="A148" s="9"/>
       <c r="B148" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D148" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D148" s="35" t="s">
+      <c r="E148" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="E148" s="37" t="s">
+      <c r="F148" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="F148" s="14"/>
       <c r="G148" s="15"/>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
@@ -10201,9 +10198,9 @@
     <row r="149">
       <c r="A149" s="9"/>
       <c r="B149" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C149" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" s="34" t="s">
         <v>327</v>
       </c>
       <c r="D149" s="35" t="s">
@@ -10236,13 +10233,13 @@
     <row r="150">
       <c r="A150" s="9"/>
       <c r="B150" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C150" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="D150" s="35" t="s">
-        <v>330</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="14"/>
@@ -10271,15 +10268,17 @@
     <row r="151">
       <c r="A151" s="9"/>
       <c r="B151" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C151" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="D151" s="35" t="s">
+      <c r="E151" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="E151" s="36"/>
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
       <c r="H151" s="16"/>
@@ -10306,13 +10305,13 @@
     <row r="152">
       <c r="A152" s="9"/>
       <c r="B152" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>86</v>
+        <v>301</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>333</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="14"/>
@@ -10341,17 +10340,15 @@
     <row r="153">
       <c r="A153" s="9"/>
       <c r="B153" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="39" t="s">
         <v>335</v>
       </c>
       <c r="D153" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="E153" s="37" t="s">
-        <v>337</v>
-      </c>
+      <c r="E153" s="36"/>
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
       <c r="H153" s="16"/>
@@ -10378,17 +10375,15 @@
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C154" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="D154" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="E154" s="37" t="s">
-        <v>340</v>
-      </c>
+      <c r="E154" s="36"/>
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
       <c r="H154" s="16"/>
@@ -10415,17 +10410,15 @@
     <row r="155">
       <c r="A155" s="9"/>
       <c r="B155" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="39" t="s">
-        <v>341</v>
+        <v>301</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="E155" s="37" t="s">
-        <v>343</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="E155" s="36"/>
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
       <c r="H155" s="16"/>
@@ -10452,15 +10445,17 @@
     <row r="156">
       <c r="A156" s="9"/>
       <c r="B156" s="33" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="E156" s="36"/>
+        <v>341</v>
+      </c>
+      <c r="E156" s="37" t="s">
+        <v>342</v>
+      </c>
       <c r="F156" s="14"/>
       <c r="G156" s="15"/>
       <c r="H156" s="16"/>
@@ -10487,13 +10482,13 @@
     <row r="157">
       <c r="A157" s="9"/>
       <c r="B157" s="33" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="14"/>
@@ -10522,13 +10517,13 @@
     <row r="158">
       <c r="A158" s="9"/>
       <c r="B158" s="33" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="14"/>
@@ -10557,13 +10552,13 @@
     <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C159" s="39" t="s">
-        <v>349</v>
+        <v>301</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>347</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="14"/>
@@ -10592,13 +10587,13 @@
     <row r="160">
       <c r="A160" s="9"/>
       <c r="B160" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C160" s="39" t="s">
-        <v>351</v>
+        <v>301</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="14"/>
@@ -10627,15 +10622,17 @@
     <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C161" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D161" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="D161" s="35" t="s">
+      <c r="E161" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="E161" s="36"/>
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
       <c r="H161" s="16"/>
@@ -10662,7 +10659,7 @@
     <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="33" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C162" s="39" t="s">
         <v>355</v>
@@ -10670,7 +10667,9 @@
       <c r="D162" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E162" s="36"/>
+      <c r="E162" s="37" t="s">
+        <v>357</v>
+      </c>
       <c r="F162" s="14"/>
       <c r="G162" s="15"/>
       <c r="H162" s="16"/>
@@ -10697,15 +10696,17 @@
     <row r="163">
       <c r="A163" s="9"/>
       <c r="B163" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C163" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="39" t="s">
         <v>358</v>
       </c>
       <c r="D163" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="E163" s="36"/>
+      <c r="E163" s="37" t="s">
+        <v>360</v>
+      </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
       <c r="H163" s="16"/>
@@ -10732,13 +10733,13 @@
     <row r="164">
       <c r="A164" s="9"/>
       <c r="B164" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="14"/>
@@ -10767,13 +10768,13 @@
     <row r="165">
       <c r="A165" s="9"/>
       <c r="B165" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="14"/>
@@ -10802,10 +10803,10 @@
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D166" s="35" t="s">
         <v>365</v>
@@ -10837,9 +10838,9 @@
     <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C167" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C167" s="39" t="s">
         <v>366</v>
       </c>
       <c r="D167" s="35" t="s">
@@ -10872,9 +10873,9 @@
     <row r="168">
       <c r="A168" s="9"/>
       <c r="B168" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C168" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="39" t="s">
         <v>368</v>
       </c>
       <c r="D168" s="35" t="s">
@@ -10907,9 +10908,9 @@
     <row r="169">
       <c r="A169" s="9"/>
       <c r="B169" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C169" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="39" t="s">
         <v>370</v>
       </c>
       <c r="D169" s="35" t="s">
@@ -10942,7 +10943,7 @@
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C170" s="39" t="s">
         <v>372</v>
@@ -10951,9 +10952,7 @@
         <v>373</v>
       </c>
       <c r="E170" s="36"/>
-      <c r="F170" s="38" t="s">
-        <v>374</v>
-      </c>
+      <c r="F170" s="14"/>
       <c r="G170" s="15"/>
       <c r="H170" s="16"/>
       <c r="I170" s="16"/>
@@ -10979,18 +10978,16 @@
     <row r="171">
       <c r="A171" s="9"/>
       <c r="B171" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
       <c r="D171" s="35" t="s">
         <v>375</v>
       </c>
       <c r="E171" s="36"/>
-      <c r="F171" s="38" t="s">
-        <v>376</v>
-      </c>
+      <c r="F171" s="14"/>
       <c r="G171" s="15"/>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
@@ -11016,15 +11013,17 @@
     <row r="172">
       <c r="A172" s="9"/>
       <c r="B172" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C172" s="34" t="s">
-        <v>55</v>
+        <v>351</v>
+      </c>
+      <c r="C172" s="39" t="s">
+        <v>376</v>
       </c>
       <c r="D172" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="E172" s="36"/>
+      <c r="E172" s="37" t="s">
+        <v>378</v>
+      </c>
       <c r="F172" s="14"/>
       <c r="G172" s="15"/>
       <c r="H172" s="16"/>
@@ -11051,20 +11050,16 @@
     <row r="173">
       <c r="A173" s="9"/>
       <c r="B173" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="E173" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F173" s="38" t="s">
-        <v>381</v>
-      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="15"/>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
@@ -11090,17 +11085,15 @@
     <row r="174">
       <c r="A174" s="9"/>
       <c r="B174" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" s="39" t="s">
-        <v>338</v>
+        <v>351</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>381</v>
       </c>
       <c r="D174" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="E174" s="37" t="s">
-        <v>340</v>
-      </c>
+      <c r="E174" s="36"/>
       <c r="F174" s="14"/>
       <c r="G174" s="15"/>
       <c r="H174" s="16"/>
@@ -11127,13 +11120,13 @@
     <row r="175">
       <c r="A175" s="9"/>
       <c r="B175" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D175" s="35" t="s">
         <v>383</v>
-      </c>
-      <c r="D175" s="35" t="s">
-        <v>384</v>
       </c>
       <c r="E175" s="36"/>
       <c r="F175" s="14"/>
@@ -11162,9 +11155,9 @@
     <row r="176">
       <c r="A176" s="9"/>
       <c r="B176" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C176" s="34" t="s">
         <v>385</v>
       </c>
       <c r="D176" s="35" t="s">
@@ -11197,17 +11190,15 @@
     <row r="177">
       <c r="A177" s="9"/>
       <c r="B177" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C177" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D177" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E177" s="37" t="s">
-        <v>389</v>
-      </c>
+      <c r="E177" s="36"/>
       <c r="F177" s="14"/>
       <c r="G177" s="15"/>
       <c r="H177" s="16"/>
@@ -11234,13 +11225,13 @@
     <row r="178">
       <c r="A178" s="9"/>
       <c r="B178" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C178" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D178" s="35" t="s">
         <v>390</v>
-      </c>
-      <c r="D178" s="40" t="s">
-        <v>391</v>
       </c>
       <c r="E178" s="36"/>
       <c r="F178" s="14"/>
@@ -11269,10 +11260,10 @@
     <row r="179">
       <c r="A179" s="9"/>
       <c r="B179" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C179" s="39" t="s">
-        <v>349</v>
+        <v>384</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="D179" s="35" t="s">
         <v>392</v>
@@ -11304,17 +11295,15 @@
     <row r="180">
       <c r="A180" s="9"/>
       <c r="B180" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C180" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" s="34" t="s">
         <v>393</v>
       </c>
       <c r="D180" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="E180" s="37" t="s">
-        <v>395</v>
-      </c>
+      <c r="E180" s="36"/>
       <c r="F180" s="14"/>
       <c r="G180" s="15"/>
       <c r="H180" s="16"/>
@@ -11341,17 +11330,15 @@
     <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C181" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D181" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D181" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="E181" s="37" t="s">
-        <v>398</v>
-      </c>
+      <c r="E181" s="36"/>
       <c r="F181" s="14"/>
       <c r="G181" s="15"/>
       <c r="H181" s="16"/>
@@ -11378,17 +11365,15 @@
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C182" s="39" t="s">
-        <v>399</v>
+        <v>384</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>397</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="E182" s="37" t="s">
-        <v>401</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E182" s="36"/>
       <c r="F182" s="14"/>
       <c r="G182" s="15"/>
       <c r="H182" s="16"/>
@@ -11414,20 +11399,18 @@
     </row>
     <row r="183">
       <c r="A183" s="9"/>
-      <c r="B183" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C183" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="F183" s="25" t="s">
-        <v>406</v>
+      <c r="B183" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C183" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D183" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E183" s="36"/>
+      <c r="F183" s="38" t="s">
+        <v>401</v>
       </c>
       <c r="G183" s="15"/>
       <c r="H183" s="16"/>
@@ -11453,20 +11436,18 @@
     </row>
     <row r="184">
       <c r="A184" s="9"/>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C184" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="E184" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>410</v>
+      <c r="E184" s="36"/>
+      <c r="F184" s="38" t="s">
+        <v>403</v>
       </c>
       <c r="G184" s="15"/>
       <c r="H184" s="16"/>
@@ -11492,19 +11473,17 @@
     </row>
     <row r="185">
       <c r="A185" s="9"/>
-      <c r="B185" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C185" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="F185" s="25"/>
+      <c r="B185" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="E185" s="36"/>
+      <c r="F185" s="14"/>
       <c r="G185" s="15"/>
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
@@ -11529,20 +11508,20 @@
     </row>
     <row r="186">
       <c r="A186" s="9"/>
-      <c r="B186" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C186" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="D186" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="E186" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>417</v>
+      <c r="B186" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E186" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F186" s="38" t="s">
+        <v>408</v>
       </c>
       <c r="G186" s="15"/>
       <c r="H186" s="16"/>
@@ -11568,21 +11547,19 @@
     </row>
     <row r="187">
       <c r="A187" s="9"/>
-      <c r="B187" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C187" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D187" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="E187" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="F187" s="25" t="s">
-        <v>421</v>
-      </c>
+      <c r="B187" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C187" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="F187" s="14"/>
       <c r="G187" s="15"/>
       <c r="H187" s="16"/>
       <c r="I187" s="16"/>
@@ -11607,21 +11584,17 @@
     </row>
     <row r="188">
       <c r="A188" s="9"/>
-      <c r="B188" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C188" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="E188" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="F188" s="25" t="s">
-        <v>425</v>
-      </c>
+      <c r="B188" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D188" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="14"/>
       <c r="G188" s="15"/>
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
@@ -11646,19 +11619,17 @@
     </row>
     <row r="189">
       <c r="A189" s="9"/>
-      <c r="B189" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C189" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E189" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="F189" s="25"/>
+      <c r="B189" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="D189" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="E189" s="36"/>
+      <c r="F189" s="14"/>
       <c r="G189" s="15"/>
       <c r="H189" s="16"/>
       <c r="I189" s="16"/>
@@ -11683,21 +11654,19 @@
     </row>
     <row r="190">
       <c r="A190" s="9"/>
-      <c r="B190" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C190" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E190" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="F190" s="42" t="s">
-        <v>54</v>
-      </c>
+      <c r="B190" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E190" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F190" s="14"/>
       <c r="G190" s="15"/>
       <c r="H190" s="16"/>
       <c r="I190" s="16"/>
@@ -11722,21 +11691,17 @@
     </row>
     <row r="191">
       <c r="A191" s="9"/>
-      <c r="B191" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C191" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="F191" s="42" t="s">
-        <v>434</v>
-      </c>
+      <c r="B191" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D191" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="E191" s="36"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="15"/>
       <c r="H191" s="16"/>
       <c r="I191" s="16"/>
@@ -11761,17 +11726,17 @@
     </row>
     <row r="192">
       <c r="A192" s="9"/>
-      <c r="B192" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C192" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="D192" s="28"/>
-      <c r="E192" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="F192" s="25"/>
+      <c r="B192" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="14"/>
       <c r="G192" s="15"/>
       <c r="H192" s="16"/>
       <c r="I192" s="16"/>
@@ -11796,17 +11761,19 @@
     </row>
     <row r="193">
       <c r="A193" s="9"/>
-      <c r="B193" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C193" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="D193" s="28"/>
-      <c r="E193" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="F193" s="25"/>
+      <c r="B193" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D193" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="E193" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="F193" s="14"/>
       <c r="G193" s="15"/>
       <c r="H193" s="16"/>
       <c r="I193" s="16"/>
@@ -11831,17 +11798,19 @@
     </row>
     <row r="194">
       <c r="A194" s="9"/>
-      <c r="B194" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C194" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="D194" s="28"/>
-      <c r="E194" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="F194" s="25"/>
+      <c r="B194" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="D194" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E194" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="F194" s="14"/>
       <c r="G194" s="15"/>
       <c r="H194" s="16"/>
       <c r="I194" s="16"/>
@@ -11866,17 +11835,19 @@
     </row>
     <row r="195">
       <c r="A195" s="9"/>
-      <c r="B195" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C195" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="F195" s="25"/>
+      <c r="B195" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="D195" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E195" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="F195" s="14"/>
       <c r="G195" s="15"/>
       <c r="H195" s="16"/>
       <c r="I195" s="16"/>
@@ -11901,17 +11872,19 @@
     </row>
     <row r="196">
       <c r="A196" s="9"/>
-      <c r="B196" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C196" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="D196" s="28"/>
-      <c r="E196" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="F196" s="25"/>
+      <c r="B196" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C196" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="D196" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E196" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F196" s="14"/>
       <c r="G196" s="15"/>
       <c r="H196" s="16"/>
       <c r="I196" s="16"/>
@@ -11936,17 +11909,17 @@
     </row>
     <row r="197">
       <c r="A197" s="9"/>
-      <c r="B197" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C197" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="D197" s="28"/>
-      <c r="E197" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="F197" s="25"/>
+      <c r="B197" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C197" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D197" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E197" s="36"/>
+      <c r="F197" s="14"/>
       <c r="G197" s="15"/>
       <c r="H197" s="16"/>
       <c r="I197" s="16"/>
@@ -11971,17 +11944,19 @@
     </row>
     <row r="198">
       <c r="A198" s="9"/>
-      <c r="B198" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C198" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="D198" s="28"/>
-      <c r="E198" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="F198" s="25"/>
+      <c r="B198" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="E198" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F198" s="14"/>
       <c r="G198" s="15"/>
       <c r="H198" s="16"/>
       <c r="I198" s="16"/>
@@ -12006,17 +11981,19 @@
     </row>
     <row r="199">
       <c r="A199" s="9"/>
-      <c r="B199" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C199" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="D199" s="28"/>
-      <c r="E199" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="F199" s="25"/>
+      <c r="B199" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="E199" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F199" s="14"/>
       <c r="G199" s="15"/>
       <c r="H199" s="16"/>
       <c r="I199" s="16"/>
@@ -12041,17 +12018,19 @@
     </row>
     <row r="200">
       <c r="A200" s="9"/>
-      <c r="B200" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C200" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="D200" s="28"/>
-      <c r="E200" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="F200" s="25"/>
+      <c r="B200" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C200" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E200" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="F200" s="14"/>
       <c r="G200" s="15"/>
       <c r="H200" s="16"/>
       <c r="I200" s="16"/>
@@ -12076,17 +12055,17 @@
     </row>
     <row r="201">
       <c r="A201" s="9"/>
-      <c r="B201" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C201" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="D201" s="28"/>
-      <c r="E201" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="F201" s="25"/>
+      <c r="B201" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C201" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D201" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="E201" s="36"/>
+      <c r="F201" s="14"/>
       <c r="G201" s="15"/>
       <c r="H201" s="16"/>
       <c r="I201" s="16"/>
@@ -12111,17 +12090,19 @@
     </row>
     <row r="202">
       <c r="A202" s="9"/>
-      <c r="B202" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C202" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="D202" s="28"/>
-      <c r="E202" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="F202" s="25"/>
+      <c r="B202" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C202" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D202" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="E202" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="F202" s="14"/>
       <c r="G202" s="15"/>
       <c r="H202" s="16"/>
       <c r="I202" s="16"/>
@@ -12146,17 +12127,19 @@
     </row>
     <row r="203">
       <c r="A203" s="9"/>
-      <c r="B203" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C203" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="D203" s="28"/>
-      <c r="E203" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="F203" s="25"/>
+      <c r="B203" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="D203" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="E203" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="F203" s="14"/>
       <c r="G203" s="15"/>
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
@@ -12181,17 +12164,19 @@
     </row>
     <row r="204">
       <c r="A204" s="9"/>
-      <c r="B204" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C204" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="D204" s="28"/>
-      <c r="E204" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="F204" s="25"/>
+      <c r="B204" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C204" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D204" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="E204" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="F204" s="14"/>
       <c r="G204" s="15"/>
       <c r="H204" s="16"/>
       <c r="I204" s="16"/>
@@ -12216,17 +12201,17 @@
     </row>
     <row r="205">
       <c r="A205" s="9"/>
-      <c r="B205" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C205" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="D205" s="28"/>
-      <c r="E205" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="F205" s="25"/>
+      <c r="B205" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C205" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D205" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="E205" s="36"/>
+      <c r="F205" s="14"/>
       <c r="G205" s="15"/>
       <c r="H205" s="16"/>
       <c r="I205" s="16"/>
@@ -12252,19 +12237,19 @@
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C206" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E206" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="F206" s="42" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>460</v>
       </c>
       <c r="G206" s="15"/>
       <c r="H206" s="16"/>
@@ -12291,16 +12276,20 @@
     <row r="207">
       <c r="A207" s="9"/>
       <c r="B207" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C207" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="D207" s="28"/>
+        <v>461</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>462</v>
+      </c>
       <c r="E207" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="F207" s="25"/>
+        <v>463</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>464</v>
+      </c>
       <c r="G207" s="15"/>
       <c r="H207" s="16"/>
       <c r="I207" s="16"/>
@@ -12326,20 +12315,18 @@
     <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C208" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>470</v>
+        <v>465</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>466</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="F208" s="42" t="s">
-        <v>472</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="F208" s="25"/>
       <c r="G208" s="15"/>
       <c r="H208" s="16"/>
       <c r="I208" s="16"/>
@@ -12365,14 +12352,20 @@
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C209" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="D209" s="28"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="25"/>
+        <v>468</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E209" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>471</v>
+      </c>
       <c r="G209" s="15"/>
       <c r="H209" s="16"/>
       <c r="I209" s="16"/>
@@ -12398,16 +12391,20 @@
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C210" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E210" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="D210" s="28"/>
-      <c r="E210" s="20" t="s">
+      <c r="F210" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="F210" s="25"/>
       <c r="G210" s="15"/>
       <c r="H210" s="16"/>
       <c r="I210" s="16"/>
@@ -12433,16 +12430,20 @@
     <row r="211">
       <c r="A211" s="9"/>
       <c r="B211" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C211" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="D211" s="28"/>
+      <c r="D211" s="19" t="s">
+        <v>477</v>
+      </c>
       <c r="E211" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="F211" s="25"/>
+        <v>478</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>479</v>
+      </c>
       <c r="G211" s="15"/>
       <c r="H211" s="16"/>
       <c r="I211" s="16"/>
@@ -12468,14 +12469,16 @@
     <row r="212">
       <c r="A212" s="9"/>
       <c r="B212" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="D212" s="28"/>
+        <v>480</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>481</v>
+      </c>
       <c r="E212" s="20" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F212" s="25"/>
       <c r="G212" s="15"/>
@@ -12503,14 +12506,20 @@
     <row r="213">
       <c r="A213" s="9"/>
       <c r="B213" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C213" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D213" s="28"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="25"/>
+        <v>483</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E213" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="F213" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="G213" s="15"/>
       <c r="H213" s="16"/>
       <c r="I213" s="16"/>
@@ -12536,16 +12545,20 @@
     <row r="214">
       <c r="A214" s="9"/>
       <c r="B214" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C214" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="D214" s="28"/>
+        <v>485</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>486</v>
+      </c>
       <c r="E214" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="F214" s="25"/>
+        <v>487</v>
+      </c>
+      <c r="F214" s="42" t="s">
+        <v>488</v>
+      </c>
       <c r="G214" s="15"/>
       <c r="H214" s="16"/>
       <c r="I214" s="16"/>
@@ -12571,14 +12584,14 @@
     <row r="215">
       <c r="A215" s="9"/>
       <c r="B215" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C215" s="41" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="20" t="s">
-        <v>42</v>
+        <v>490</v>
       </c>
       <c r="F215" s="25"/>
       <c r="G215" s="15"/>
@@ -12606,14 +12619,14 @@
     <row r="216">
       <c r="A216" s="9"/>
       <c r="B216" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C216" s="41" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="20" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F216" s="25"/>
       <c r="G216" s="15"/>
@@ -12641,13 +12654,15 @@
     <row r="217">
       <c r="A217" s="9"/>
       <c r="B217" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D217" s="28"/>
-      <c r="E217" s="13"/>
+      <c r="E217" s="20" t="s">
+        <v>494</v>
+      </c>
       <c r="F217" s="25"/>
       <c r="G217" s="15"/>
       <c r="H217" s="16"/>
@@ -12674,13 +12689,15 @@
     <row r="218">
       <c r="A218" s="9"/>
       <c r="B218" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D218" s="28"/>
-      <c r="E218" s="13"/>
+      <c r="E218" s="20" t="s">
+        <v>496</v>
+      </c>
       <c r="F218" s="25"/>
       <c r="G218" s="15"/>
       <c r="H218" s="16"/>
@@ -12707,13 +12724,15 @@
     <row r="219">
       <c r="A219" s="9"/>
       <c r="B219" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C219" s="41" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D219" s="28"/>
-      <c r="E219" s="13"/>
+      <c r="E219" s="20" t="s">
+        <v>498</v>
+      </c>
       <c r="F219" s="25"/>
       <c r="G219" s="15"/>
       <c r="H219" s="16"/>
@@ -12740,13 +12759,15 @@
     <row r="220">
       <c r="A220" s="9"/>
       <c r="B220" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C220" s="41" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D220" s="28"/>
-      <c r="E220" s="13"/>
+      <c r="E220" s="20" t="s">
+        <v>500</v>
+      </c>
       <c r="F220" s="25"/>
       <c r="G220" s="15"/>
       <c r="H220" s="16"/>
@@ -12773,13 +12794,15 @@
     <row r="221">
       <c r="A221" s="9"/>
       <c r="B221" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C221" s="41" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D221" s="28"/>
-      <c r="E221" s="13"/>
+      <c r="E221" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="F221" s="25"/>
       <c r="G221" s="15"/>
       <c r="H221" s="16"/>
@@ -12806,13 +12829,15 @@
     <row r="222">
       <c r="A222" s="9"/>
       <c r="B222" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="D222" s="28"/>
-      <c r="E222" s="13"/>
+      <c r="E222" s="20" t="s">
+        <v>504</v>
+      </c>
       <c r="F222" s="25"/>
       <c r="G222" s="15"/>
       <c r="H222" s="16"/>
@@ -12839,14 +12864,14 @@
     <row r="223">
       <c r="A223" s="9"/>
       <c r="B223" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C223" s="41" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="20" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F223" s="25"/>
       <c r="G223" s="15"/>
@@ -12874,13 +12899,15 @@
     <row r="224">
       <c r="A224" s="9"/>
       <c r="B224" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C224" s="41" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+      <c r="C224" s="43" t="s">
+        <v>507</v>
       </c>
       <c r="D224" s="28"/>
-      <c r="E224" s="13"/>
+      <c r="E224" s="20" t="s">
+        <v>508</v>
+      </c>
       <c r="F224" s="25"/>
       <c r="G224" s="15"/>
       <c r="H224" s="16"/>
@@ -12907,14 +12934,14 @@
     <row r="225">
       <c r="A225" s="9"/>
       <c r="B225" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C225" s="41" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="20" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F225" s="25"/>
       <c r="G225" s="15"/>
@@ -12942,14 +12969,14 @@
     <row r="226">
       <c r="A226" s="9"/>
       <c r="B226" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="20" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F226" s="25"/>
       <c r="G226" s="15"/>
@@ -12977,14 +13004,14 @@
     <row r="227">
       <c r="A227" s="9"/>
       <c r="B227" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C227" s="41" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="20" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F227" s="25"/>
       <c r="G227" s="15"/>
@@ -13012,13 +13039,15 @@
     <row r="228">
       <c r="A228" s="9"/>
       <c r="B228" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C228" s="41" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D228" s="28"/>
-      <c r="E228" s="13"/>
+      <c r="E228" s="20" t="s">
+        <v>516</v>
+      </c>
       <c r="F228" s="25"/>
       <c r="G228" s="15"/>
       <c r="H228" s="16"/>
@@ -13045,14 +13074,20 @@
     <row r="229">
       <c r="A229" s="9"/>
       <c r="B229" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C229" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="D229" s="28"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="25"/>
+        <v>517</v>
+      </c>
+      <c r="D229" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F229" s="42" t="s">
+        <v>520</v>
+      </c>
       <c r="G229" s="15"/>
       <c r="H229" s="16"/>
       <c r="I229" s="16"/>
@@ -13078,13 +13113,15 @@
     <row r="230">
       <c r="A230" s="9"/>
       <c r="B230" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C230" s="41" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="D230" s="28"/>
-      <c r="E230" s="13"/>
+      <c r="E230" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="F230" s="25"/>
       <c r="G230" s="15"/>
       <c r="H230" s="16"/>
@@ -13111,16 +13148,20 @@
     <row r="231">
       <c r="A231" s="9"/>
       <c r="B231" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C231" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="D231" s="28"/>
+        <v>523</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>524</v>
+      </c>
       <c r="E231" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="F231" s="25"/>
+        <v>525</v>
+      </c>
+      <c r="F231" s="42" t="s">
+        <v>526</v>
+      </c>
       <c r="G231" s="15"/>
       <c r="H231" s="16"/>
       <c r="I231" s="16"/>
@@ -13146,10 +13187,10 @@
     <row r="232">
       <c r="A232" s="9"/>
       <c r="B232" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C232" s="41" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="13"/>
@@ -13179,14 +13220,14 @@
     <row r="233">
       <c r="A233" s="9"/>
       <c r="B233" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C233" s="41" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="20" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="F233" s="25"/>
       <c r="G233" s="15"/>
@@ -13214,13 +13255,15 @@
     <row r="234">
       <c r="A234" s="9"/>
       <c r="B234" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C234" s="41" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="D234" s="28"/>
-      <c r="E234" s="13"/>
+      <c r="E234" s="20" t="s">
+        <v>531</v>
+      </c>
       <c r="F234" s="25"/>
       <c r="G234" s="15"/>
       <c r="H234" s="16"/>
@@ -13247,13 +13290,15 @@
     <row r="235">
       <c r="A235" s="9"/>
       <c r="B235" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C235" s="41" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="D235" s="28"/>
-      <c r="E235" s="13"/>
+      <c r="E235" s="20" t="s">
+        <v>532</v>
+      </c>
       <c r="F235" s="25"/>
       <c r="G235" s="15"/>
       <c r="H235" s="16"/>
@@ -13280,10 +13325,10 @@
     <row r="236">
       <c r="A236" s="9"/>
       <c r="B236" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C236" s="41" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="13"/>
@@ -13313,13 +13358,15 @@
     <row r="237">
       <c r="A237" s="9"/>
       <c r="B237" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C237" s="41" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="D237" s="28"/>
-      <c r="E237" s="13"/>
+      <c r="E237" s="20" t="s">
+        <v>535</v>
+      </c>
       <c r="F237" s="25"/>
       <c r="G237" s="15"/>
       <c r="H237" s="16"/>
@@ -13346,13 +13393,15 @@
     <row r="238">
       <c r="A238" s="9"/>
       <c r="B238" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C238" s="41" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="D238" s="28"/>
-      <c r="E238" s="13"/>
+      <c r="E238" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="F238" s="25"/>
       <c r="G238" s="15"/>
       <c r="H238" s="16"/>
@@ -13379,13 +13428,15 @@
     <row r="239">
       <c r="A239" s="9"/>
       <c r="B239" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C239" s="41" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="D239" s="28"/>
-      <c r="E239" s="13"/>
+      <c r="E239" s="20" t="s">
+        <v>538</v>
+      </c>
       <c r="F239" s="25"/>
       <c r="G239" s="15"/>
       <c r="H239" s="16"/>
@@ -13412,15 +13463,13 @@
     <row r="240">
       <c r="A240" s="9"/>
       <c r="B240" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="D240" s="28"/>
-      <c r="E240" s="20" t="s">
-        <v>515</v>
-      </c>
+      <c r="E240" s="13"/>
       <c r="F240" s="25"/>
       <c r="G240" s="15"/>
       <c r="H240" s="16"/>
@@ -13447,10 +13496,10 @@
     <row r="241">
       <c r="A241" s="9"/>
       <c r="B241" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="13"/>
@@ -13480,10 +13529,10 @@
     <row r="242">
       <c r="A242" s="9"/>
       <c r="B242" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="13"/>
@@ -13513,10 +13562,10 @@
     <row r="243">
       <c r="A243" s="9"/>
       <c r="B243" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="13"/>
@@ -13546,10 +13595,10 @@
     <row r="244">
       <c r="A244" s="9"/>
       <c r="B244" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C244" s="41" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="13"/>
@@ -13579,10 +13628,10 @@
     <row r="245">
       <c r="A245" s="9"/>
       <c r="B245" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C245" s="41" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="13"/>
@@ -13612,13 +13661,15 @@
     <row r="246">
       <c r="A246" s="9"/>
       <c r="B246" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C246" s="41" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D246" s="28"/>
-      <c r="E246" s="13"/>
+      <c r="E246" s="20" t="s">
+        <v>546</v>
+      </c>
       <c r="F246" s="25"/>
       <c r="G246" s="15"/>
       <c r="H246" s="16"/>
@@ -13645,15 +13696,13 @@
     <row r="247">
       <c r="A247" s="9"/>
       <c r="B247" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C247" s="41" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="D247" s="28"/>
-      <c r="E247" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="E247" s="13"/>
       <c r="F247" s="25"/>
       <c r="G247" s="15"/>
       <c r="H247" s="16"/>
@@ -13680,13 +13729,15 @@
     <row r="248">
       <c r="A248" s="9"/>
       <c r="B248" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C248" s="41" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="D248" s="28"/>
-      <c r="E248" s="13"/>
+      <c r="E248" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="F248" s="25"/>
       <c r="G248" s="15"/>
       <c r="H248" s="16"/>
@@ -13713,14 +13764,14 @@
     <row r="249">
       <c r="A249" s="9"/>
       <c r="B249" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C249" s="41" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="20" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="F249" s="25"/>
       <c r="G249" s="15"/>
@@ -13748,20 +13799,16 @@
     <row r="250">
       <c r="A250" s="9"/>
       <c r="B250" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C250" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D250" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="F250" s="25" t="s">
-        <v>529</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D250" s="28"/>
+      <c r="E250" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="F250" s="25"/>
       <c r="G250" s="15"/>
       <c r="H250" s="16"/>
       <c r="I250" s="16"/>
@@ -13787,15 +13834,13 @@
     <row r="251">
       <c r="A251" s="9"/>
       <c r="B251" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="D251" s="28"/>
-      <c r="E251" s="20" t="s">
-        <v>531</v>
-      </c>
+      <c r="E251" s="13"/>
       <c r="F251" s="25"/>
       <c r="G251" s="15"/>
       <c r="H251" s="16"/>
@@ -13822,15 +13867,13 @@
     <row r="252">
       <c r="A252" s="9"/>
       <c r="B252" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C252" s="41" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="D252" s="28"/>
-      <c r="E252" s="20" t="s">
-        <v>533</v>
-      </c>
+      <c r="E252" s="13"/>
       <c r="F252" s="25"/>
       <c r="G252" s="15"/>
       <c r="H252" s="16"/>
@@ -13857,10 +13900,10 @@
     <row r="253">
       <c r="A253" s="9"/>
       <c r="B253" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C253" s="41" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="13"/>
@@ -13890,13 +13933,15 @@
     <row r="254">
       <c r="A254" s="9"/>
       <c r="B254" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="D254" s="28"/>
-      <c r="E254" s="13"/>
+      <c r="E254" s="20" t="s">
+        <v>558</v>
+      </c>
       <c r="F254" s="25"/>
       <c r="G254" s="15"/>
       <c r="H254" s="16"/>
@@ -13923,15 +13968,13 @@
     <row r="255">
       <c r="A255" s="9"/>
       <c r="B255" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C255" s="41" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="D255" s="28"/>
-      <c r="E255" s="20" t="s">
-        <v>537</v>
-      </c>
+      <c r="E255" s="13"/>
       <c r="F255" s="25"/>
       <c r="G255" s="15"/>
       <c r="H255" s="16"/>
@@ -13958,14 +14001,14 @@
     <row r="256">
       <c r="A256" s="9"/>
       <c r="B256" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C256" s="41" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="20" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="F256" s="25"/>
       <c r="G256" s="15"/>
@@ -13993,10 +14036,10 @@
     <row r="257">
       <c r="A257" s="9"/>
       <c r="B257" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C257" s="41" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="13"/>
@@ -14026,10 +14069,10 @@
     <row r="258">
       <c r="A258" s="9"/>
       <c r="B258" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C258" s="41" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="13"/>
@@ -14059,10 +14102,10 @@
     <row r="259">
       <c r="A259" s="9"/>
       <c r="B259" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C259" s="41" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="13"/>
@@ -14092,10 +14135,10 @@
     <row r="260">
       <c r="A260" s="9"/>
       <c r="B260" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C260" s="41" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="13"/>
@@ -14125,15 +14168,13 @@
     <row r="261">
       <c r="A261" s="9"/>
       <c r="B261" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C261" s="41" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="D261" s="28"/>
-      <c r="E261" s="20" t="s">
-        <v>545</v>
-      </c>
+      <c r="E261" s="13"/>
       <c r="F261" s="25"/>
       <c r="G261" s="15"/>
       <c r="H261" s="16"/>
@@ -14160,10 +14201,10 @@
     <row r="262">
       <c r="A262" s="9"/>
       <c r="B262" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C262" s="41" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="13"/>
@@ -14193,13 +14234,15 @@
     <row r="263">
       <c r="A263" s="9"/>
       <c r="B263" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C263" s="41" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="D263" s="28"/>
-      <c r="E263" s="13"/>
+      <c r="E263" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="F263" s="25"/>
       <c r="G263" s="15"/>
       <c r="H263" s="16"/>
@@ -14226,10 +14269,10 @@
     <row r="264">
       <c r="A264" s="9"/>
       <c r="B264" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C264" s="41" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="13"/>
@@ -14259,10 +14302,10 @@
     <row r="265">
       <c r="A265" s="9"/>
       <c r="B265" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C265" s="41" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="D265" s="28"/>
       <c r="E265" s="13"/>
@@ -14292,10 +14335,10 @@
     <row r="266">
       <c r="A266" s="9"/>
       <c r="B266" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C266" s="41" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="D266" s="28"/>
       <c r="E266" s="13"/>
@@ -14325,10 +14368,10 @@
     <row r="267">
       <c r="A267" s="9"/>
       <c r="B267" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C267" s="41" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="13"/>
@@ -14358,10 +14401,10 @@
     <row r="268">
       <c r="A268" s="9"/>
       <c r="B268" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="13"/>
@@ -14391,10 +14434,10 @@
     <row r="269">
       <c r="A269" s="9"/>
       <c r="B269" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C269" s="41" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="13"/>
@@ -14424,14 +14467,14 @@
     <row r="270">
       <c r="A270" s="9"/>
       <c r="B270" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="20" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="F270" s="25"/>
       <c r="G270" s="15"/>
@@ -14459,15 +14502,13 @@
     <row r="271">
       <c r="A271" s="9"/>
       <c r="B271" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C271" s="41" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D271" s="28"/>
-      <c r="E271" s="20" t="s">
-        <v>557</v>
-      </c>
+      <c r="E271" s="13"/>
       <c r="F271" s="25"/>
       <c r="G271" s="15"/>
       <c r="H271" s="16"/>
@@ -14494,14 +14535,14 @@
     <row r="272">
       <c r="A272" s="9"/>
       <c r="B272" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="20" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="F272" s="25"/>
       <c r="G272" s="15"/>
@@ -14529,14 +14570,20 @@
     <row r="273">
       <c r="A273" s="9"/>
       <c r="B273" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C273" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="D273" s="28"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="25"/>
+        <v>580</v>
+      </c>
+      <c r="D273" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="F273" s="25" t="s">
+        <v>583</v>
+      </c>
       <c r="G273" s="15"/>
       <c r="H273" s="16"/>
       <c r="I273" s="16"/>
@@ -14562,14 +14609,14 @@
     <row r="274">
       <c r="A274" s="9"/>
       <c r="B274" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="20" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="F274" s="25"/>
       <c r="G274" s="15"/>
@@ -14597,13 +14644,15 @@
     <row r="275">
       <c r="A275" s="9"/>
       <c r="B275" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C275" s="41" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="D275" s="28"/>
-      <c r="E275" s="13"/>
+      <c r="E275" s="20" t="s">
+        <v>587</v>
+      </c>
       <c r="F275" s="25"/>
       <c r="G275" s="15"/>
       <c r="H275" s="16"/>
@@ -14630,10 +14679,10 @@
     <row r="276">
       <c r="A276" s="9"/>
       <c r="B276" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C276" s="41" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="13"/>
@@ -14663,10 +14712,10 @@
     <row r="277">
       <c r="A277" s="9"/>
       <c r="B277" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C277" s="41" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="13"/>
@@ -14696,13 +14745,15 @@
     <row r="278">
       <c r="A278" s="9"/>
       <c r="B278" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="D278" s="28"/>
-      <c r="E278" s="13"/>
+      <c r="E278" s="20" t="s">
+        <v>591</v>
+      </c>
       <c r="F278" s="25"/>
       <c r="G278" s="15"/>
       <c r="H278" s="16"/>
@@ -14729,13 +14780,15 @@
     <row r="279">
       <c r="A279" s="9"/>
       <c r="B279" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="D279" s="28"/>
-      <c r="E279" s="13"/>
+      <c r="E279" s="20" t="s">
+        <v>593</v>
+      </c>
       <c r="F279" s="25"/>
       <c r="G279" s="15"/>
       <c r="H279" s="16"/>
@@ -14762,10 +14815,10 @@
     <row r="280">
       <c r="A280" s="9"/>
       <c r="B280" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="13"/>
@@ -14795,10 +14848,10 @@
     <row r="281">
       <c r="A281" s="9"/>
       <c r="B281" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="13"/>
@@ -14828,10 +14881,10 @@
     <row r="282">
       <c r="A282" s="9"/>
       <c r="B282" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="13"/>
@@ -14861,15 +14914,13 @@
     <row r="283">
       <c r="A283" s="9"/>
       <c r="B283" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="D283" s="28"/>
-      <c r="E283" s="20" t="s">
-        <v>572</v>
-      </c>
+      <c r="E283" s="13"/>
       <c r="F283" s="25"/>
       <c r="G283" s="15"/>
       <c r="H283" s="16"/>
@@ -14896,13 +14947,15 @@
     <row r="284">
       <c r="A284" s="9"/>
       <c r="B284" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="D284" s="28"/>
-      <c r="E284" s="13"/>
+      <c r="E284" s="20" t="s">
+        <v>599</v>
+      </c>
       <c r="F284" s="25"/>
       <c r="G284" s="15"/>
       <c r="H284" s="16"/>
@@ -14929,15 +14982,13 @@
     <row r="285">
       <c r="A285" s="9"/>
       <c r="B285" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="D285" s="28"/>
-      <c r="E285" s="20" t="s">
-        <v>575</v>
-      </c>
+      <c r="E285" s="13"/>
       <c r="F285" s="25"/>
       <c r="G285" s="15"/>
       <c r="H285" s="16"/>
@@ -14964,15 +15015,13 @@
     <row r="286">
       <c r="A286" s="9"/>
       <c r="B286" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="D286" s="28"/>
-      <c r="E286" s="20" t="s">
-        <v>577</v>
-      </c>
+      <c r="E286" s="13"/>
       <c r="F286" s="25"/>
       <c r="G286" s="15"/>
       <c r="H286" s="16"/>
@@ -14999,15 +15048,13 @@
     <row r="287">
       <c r="A287" s="9"/>
       <c r="B287" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C287" s="43" t="s">
-        <v>578</v>
+        <v>456</v>
+      </c>
+      <c r="C287" s="41" t="s">
+        <v>602</v>
       </c>
       <c r="D287" s="28"/>
-      <c r="E287" s="20" t="s">
-        <v>579</v>
-      </c>
+      <c r="E287" s="13"/>
       <c r="F287" s="25"/>
       <c r="G287" s="15"/>
       <c r="H287" s="16"/>
@@ -15034,10 +15081,10 @@
     <row r="288">
       <c r="A288" s="9"/>
       <c r="B288" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="13"/>
@@ -15067,10 +15114,10 @@
     <row r="289">
       <c r="A289" s="9"/>
       <c r="B289" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="13"/>
@@ -15100,10 +15147,10 @@
     <row r="290">
       <c r="A290" s="9"/>
       <c r="B290" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="13"/>
@@ -15133,10 +15180,10 @@
     <row r="291">
       <c r="A291" s="9"/>
       <c r="B291" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="13"/>
@@ -15166,10 +15213,10 @@
     <row r="292">
       <c r="A292" s="9"/>
       <c r="B292" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="13"/>
@@ -15199,13 +15246,15 @@
     <row r="293">
       <c r="A293" s="9"/>
       <c r="B293" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C293" s="41" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="D293" s="28"/>
-      <c r="E293" s="13"/>
+      <c r="E293" s="20" t="s">
+        <v>609</v>
+      </c>
       <c r="F293" s="25"/>
       <c r="G293" s="15"/>
       <c r="H293" s="16"/>
@@ -15232,14 +15281,14 @@
     <row r="294">
       <c r="A294" s="9"/>
       <c r="B294" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="20" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="F294" s="25"/>
       <c r="G294" s="15"/>
@@ -15267,14 +15316,14 @@
     <row r="295">
       <c r="A295" s="9"/>
       <c r="B295" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="20" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="F295" s="25"/>
       <c r="G295" s="15"/>
@@ -15302,10 +15351,10 @@
     <row r="296">
       <c r="A296" s="9"/>
       <c r="B296" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="13"/>
@@ -15335,14 +15384,14 @@
     <row r="297">
       <c r="A297" s="9"/>
       <c r="B297" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C297" s="41" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="20" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="F297" s="25"/>
       <c r="G297" s="15"/>
@@ -15370,10 +15419,10 @@
     <row r="298">
       <c r="A298" s="9"/>
       <c r="B298" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="13"/>
@@ -15403,15 +15452,13 @@
     <row r="299">
       <c r="A299" s="9"/>
       <c r="B299" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="D299" s="28"/>
-      <c r="E299" s="20" t="s">
-        <v>595</v>
-      </c>
+      <c r="E299" s="13"/>
       <c r="F299" s="25"/>
       <c r="G299" s="15"/>
       <c r="H299" s="16"/>
@@ -15438,15 +15485,13 @@
     <row r="300">
       <c r="A300" s="9"/>
       <c r="B300" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="D300" s="28"/>
-      <c r="E300" s="20" t="s">
-        <v>597</v>
-      </c>
+      <c r="E300" s="13"/>
       <c r="F300" s="25"/>
       <c r="G300" s="15"/>
       <c r="H300" s="16"/>
@@ -15473,15 +15518,13 @@
     <row r="301">
       <c r="A301" s="9"/>
       <c r="B301" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="D301" s="28"/>
-      <c r="E301" s="20" t="s">
-        <v>599</v>
-      </c>
+      <c r="E301" s="13"/>
       <c r="F301" s="25"/>
       <c r="G301" s="15"/>
       <c r="H301" s="16"/>
@@ -15508,10 +15551,10 @@
     <row r="302">
       <c r="A302" s="9"/>
       <c r="B302" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C302" s="41" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="13"/>
@@ -15541,10 +15584,10 @@
     <row r="303">
       <c r="A303" s="9"/>
       <c r="B303" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C303" s="41" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="13"/>
@@ -15574,10 +15617,10 @@
     <row r="304">
       <c r="A304" s="9"/>
       <c r="B304" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="13"/>
@@ -15607,10 +15650,10 @@
     <row r="305">
       <c r="A305" s="9"/>
       <c r="B305" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C305" s="41" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="13"/>
@@ -15640,13 +15683,15 @@
     <row r="306">
       <c r="A306" s="9"/>
       <c r="B306" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C306" s="41" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="D306" s="28"/>
-      <c r="E306" s="13"/>
+      <c r="E306" s="20" t="s">
+        <v>626</v>
+      </c>
       <c r="F306" s="25"/>
       <c r="G306" s="15"/>
       <c r="H306" s="16"/>
@@ -15673,10 +15718,10 @@
     <row r="307">
       <c r="A307" s="9"/>
       <c r="B307" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C307" s="41" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="13"/>
@@ -15706,13 +15751,15 @@
     <row r="308">
       <c r="A308" s="9"/>
       <c r="B308" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C308" s="41" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D308" s="28"/>
-      <c r="E308" s="13"/>
+      <c r="E308" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="F308" s="25"/>
       <c r="G308" s="15"/>
       <c r="H308" s="16"/>
@@ -15739,13 +15786,15 @@
     <row r="309">
       <c r="A309" s="9"/>
       <c r="B309" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="D309" s="28"/>
-      <c r="E309" s="13"/>
+      <c r="E309" s="20" t="s">
+        <v>631</v>
+      </c>
       <c r="F309" s="25"/>
       <c r="G309" s="15"/>
       <c r="H309" s="16"/>
@@ -15772,13 +15821,15 @@
     <row r="310">
       <c r="A310" s="9"/>
       <c r="B310" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C310" s="41" t="s">
-        <v>608</v>
+        <v>456</v>
+      </c>
+      <c r="C310" s="43" t="s">
+        <v>632</v>
       </c>
       <c r="D310" s="28"/>
-      <c r="E310" s="13"/>
+      <c r="E310" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="F310" s="25"/>
       <c r="G310" s="15"/>
       <c r="H310" s="16"/>
@@ -15805,15 +15856,13 @@
     <row r="311">
       <c r="A311" s="9"/>
       <c r="B311" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C311" s="41" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="D311" s="28"/>
-      <c r="E311" s="20" t="s">
-        <v>610</v>
-      </c>
+      <c r="E311" s="13"/>
       <c r="F311" s="25"/>
       <c r="G311" s="15"/>
       <c r="H311" s="16"/>
@@ -15840,10 +15889,10 @@
     <row r="312">
       <c r="A312" s="9"/>
       <c r="B312" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C312" s="41" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="13"/>
@@ -15873,10 +15922,10 @@
     <row r="313">
       <c r="A313" s="9"/>
       <c r="B313" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C313" s="41" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="13"/>
@@ -15906,10 +15955,10 @@
     <row r="314">
       <c r="A314" s="9"/>
       <c r="B314" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C314" s="41" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="13"/>
@@ -15939,10 +15988,10 @@
     <row r="315">
       <c r="A315" s="9"/>
       <c r="B315" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C315" s="41" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="13"/>
@@ -15972,15 +16021,13 @@
     <row r="316">
       <c r="A316" s="9"/>
       <c r="B316" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C316" s="41" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="D316" s="28"/>
-      <c r="E316" s="20" t="s">
-        <v>616</v>
-      </c>
+      <c r="E316" s="13"/>
       <c r="F316" s="25"/>
       <c r="G316" s="15"/>
       <c r="H316" s="16"/>
@@ -16007,13 +16054,15 @@
     <row r="317">
       <c r="A317" s="9"/>
       <c r="B317" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C317" s="41" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="D317" s="28"/>
-      <c r="E317" s="13"/>
+      <c r="E317" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="F317" s="25"/>
       <c r="G317" s="15"/>
       <c r="H317" s="16"/>
@@ -16040,13 +16089,15 @@
     <row r="318">
       <c r="A318" s="9"/>
       <c r="B318" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C318" s="41" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="D318" s="28"/>
-      <c r="E318" s="13"/>
+      <c r="E318" s="20" t="s">
+        <v>643</v>
+      </c>
       <c r="F318" s="25"/>
       <c r="G318" s="15"/>
       <c r="H318" s="16"/>
@@ -16073,15 +16124,13 @@
     <row r="319">
       <c r="A319" s="9"/>
       <c r="B319" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C319" s="41" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="D319" s="28"/>
-      <c r="E319" s="20" t="s">
-        <v>620</v>
-      </c>
+      <c r="E319" s="13"/>
       <c r="F319" s="25"/>
       <c r="G319" s="15"/>
       <c r="H319" s="16"/>
@@ -16108,13 +16157,15 @@
     <row r="320">
       <c r="A320" s="9"/>
       <c r="B320" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C320" s="41" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D320" s="28"/>
-      <c r="E320" s="13"/>
+      <c r="E320" s="20" t="s">
+        <v>646</v>
+      </c>
       <c r="F320" s="25"/>
       <c r="G320" s="15"/>
       <c r="H320" s="16"/>
@@ -16141,10 +16192,10 @@
     <row r="321">
       <c r="A321" s="9"/>
       <c r="B321" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C321" s="41" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="13"/>
@@ -16174,13 +16225,15 @@
     <row r="322">
       <c r="A322" s="9"/>
       <c r="B322" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D322" s="28"/>
-      <c r="E322" s="13"/>
+      <c r="E322" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="F322" s="25"/>
       <c r="G322" s="15"/>
       <c r="H322" s="16"/>
@@ -16207,13 +16260,15 @@
     <row r="323">
       <c r="A323" s="9"/>
       <c r="B323" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C323" s="41" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="D323" s="28"/>
-      <c r="E323" s="13"/>
+      <c r="E323" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="F323" s="25"/>
       <c r="G323" s="15"/>
       <c r="H323" s="16"/>
@@ -16240,13 +16295,15 @@
     <row r="324">
       <c r="A324" s="9"/>
       <c r="B324" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C324" s="41" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="D324" s="28"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="20" t="s">
+        <v>653</v>
+      </c>
       <c r="F324" s="25"/>
       <c r="G324" s="15"/>
       <c r="H324" s="16"/>
@@ -16273,10 +16330,10 @@
     <row r="325">
       <c r="A325" s="9"/>
       <c r="B325" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C325" s="41" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="13"/>
@@ -16306,15 +16363,13 @@
     <row r="326">
       <c r="A326" s="9"/>
       <c r="B326" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C326" s="41" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="D326" s="28"/>
-      <c r="E326" s="20" t="s">
-        <v>628</v>
-      </c>
+      <c r="E326" s="13"/>
       <c r="F326" s="25"/>
       <c r="G326" s="15"/>
       <c r="H326" s="16"/>
@@ -16341,10 +16396,10 @@
     <row r="327">
       <c r="A327" s="9"/>
       <c r="B327" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="13"/>
@@ -16374,10 +16429,10 @@
     <row r="328">
       <c r="A328" s="9"/>
       <c r="B328" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C328" s="41" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="13"/>
@@ -16407,10 +16462,10 @@
     <row r="329">
       <c r="A329" s="9"/>
       <c r="B329" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C329" s="41" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="D329" s="28"/>
       <c r="E329" s="13"/>
@@ -16440,10 +16495,10 @@
     <row r="330">
       <c r="A330" s="9"/>
       <c r="B330" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="13"/>
@@ -16473,10 +16528,10 @@
     <row r="331">
       <c r="A331" s="9"/>
       <c r="B331" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C331" s="41" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="13"/>
@@ -16506,10 +16561,10 @@
     <row r="332">
       <c r="A332" s="9"/>
       <c r="B332" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C332" s="41" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="D332" s="28"/>
       <c r="E332" s="13"/>
@@ -16539,15 +16594,13 @@
     <row r="333">
       <c r="A333" s="9"/>
       <c r="B333" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="D333" s="28"/>
-      <c r="E333" s="20" t="s">
-        <v>636</v>
-      </c>
+      <c r="E333" s="13"/>
       <c r="F333" s="25"/>
       <c r="G333" s="15"/>
       <c r="H333" s="16"/>
@@ -16574,13 +16627,15 @@
     <row r="334">
       <c r="A334" s="9"/>
       <c r="B334" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="D334" s="28"/>
-      <c r="E334" s="13"/>
+      <c r="E334" s="20" t="s">
+        <v>664</v>
+      </c>
       <c r="F334" s="25"/>
       <c r="G334" s="15"/>
       <c r="H334" s="16"/>
@@ -16607,10 +16662,10 @@
     <row r="335">
       <c r="A335" s="9"/>
       <c r="B335" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="13"/>
@@ -16640,10 +16695,10 @@
     <row r="336">
       <c r="A336" s="9"/>
       <c r="B336" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C336" s="41" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="13"/>
@@ -16673,10 +16728,10 @@
     <row r="337">
       <c r="A337" s="9"/>
       <c r="B337" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C337" s="41" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="13"/>
@@ -16706,15 +16761,13 @@
     <row r="338">
       <c r="A338" s="9"/>
       <c r="B338" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C338" s="41" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="D338" s="28"/>
-      <c r="E338" s="20" t="s">
-        <v>642</v>
-      </c>
+      <c r="E338" s="13"/>
       <c r="F338" s="25"/>
       <c r="G338" s="15"/>
       <c r="H338" s="16"/>
@@ -16741,13 +16794,15 @@
     <row r="339">
       <c r="A339" s="9"/>
       <c r="B339" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C339" s="41" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="D339" s="28"/>
-      <c r="E339" s="13"/>
+      <c r="E339" s="20" t="s">
+        <v>670</v>
+      </c>
       <c r="F339" s="25"/>
       <c r="G339" s="15"/>
       <c r="H339" s="16"/>
@@ -16774,15 +16829,13 @@
     <row r="340">
       <c r="A340" s="9"/>
       <c r="B340" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C340" s="41" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D340" s="28"/>
-      <c r="E340" s="20" t="s">
-        <v>645</v>
-      </c>
+      <c r="E340" s="13"/>
       <c r="F340" s="25"/>
       <c r="G340" s="15"/>
       <c r="H340" s="16"/>
@@ -16809,10 +16862,10 @@
     <row r="341">
       <c r="A341" s="9"/>
       <c r="B341" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C341" s="41" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="13"/>
@@ -16842,14 +16895,14 @@
     <row r="342">
       <c r="A342" s="9"/>
       <c r="B342" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C342" s="41" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="20" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="F342" s="25"/>
       <c r="G342" s="15"/>
@@ -16877,10 +16930,10 @@
     <row r="343">
       <c r="A343" s="9"/>
       <c r="B343" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C343" s="41" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="13"/>
@@ -16910,10 +16963,10 @@
     <row r="344">
       <c r="A344" s="9"/>
       <c r="B344" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C344" s="41" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="13"/>
@@ -16943,15 +16996,13 @@
     <row r="345">
       <c r="A345" s="9"/>
       <c r="B345" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C345" s="41" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="D345" s="28"/>
-      <c r="E345" s="20" t="s">
-        <v>652</v>
-      </c>
+      <c r="E345" s="13"/>
       <c r="F345" s="25"/>
       <c r="G345" s="15"/>
       <c r="H345" s="16"/>
@@ -16978,15 +17029,13 @@
     <row r="346">
       <c r="A346" s="9"/>
       <c r="B346" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C346" s="41" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="D346" s="28"/>
-      <c r="E346" s="20" t="s">
-        <v>654</v>
-      </c>
+      <c r="E346" s="13"/>
       <c r="F346" s="25"/>
       <c r="G346" s="15"/>
       <c r="H346" s="16"/>
@@ -17013,10 +17062,10 @@
     <row r="347">
       <c r="A347" s="9"/>
       <c r="B347" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C347" s="41" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="13"/>
@@ -17046,10 +17095,10 @@
     <row r="348">
       <c r="A348" s="9"/>
       <c r="B348" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C348" s="41" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="13"/>
@@ -17079,13 +17128,15 @@
     <row r="349">
       <c r="A349" s="9"/>
       <c r="B349" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C349" s="41" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D349" s="28"/>
-      <c r="E349" s="13"/>
+      <c r="E349" s="20" t="s">
+        <v>682</v>
+      </c>
       <c r="F349" s="25"/>
       <c r="G349" s="15"/>
       <c r="H349" s="16"/>
@@ -17112,10 +17163,10 @@
     <row r="350">
       <c r="A350" s="9"/>
       <c r="B350" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C350" s="41" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="13"/>
@@ -17145,10 +17196,10 @@
     <row r="351">
       <c r="A351" s="9"/>
       <c r="B351" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C351" s="41" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="13"/>
@@ -17178,10 +17229,10 @@
     <row r="352">
       <c r="A352" s="9"/>
       <c r="B352" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C352" s="41" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="13"/>
@@ -17211,10 +17262,10 @@
     <row r="353">
       <c r="A353" s="9"/>
       <c r="B353" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C353" s="41" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="13"/>
@@ -17244,10 +17295,10 @@
     <row r="354">
       <c r="A354" s="9"/>
       <c r="B354" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C354" s="41" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="13"/>
@@ -17277,15 +17328,13 @@
     <row r="355">
       <c r="A355" s="9"/>
       <c r="B355" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C355" s="41" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="D355" s="28"/>
-      <c r="E355" s="20" t="s">
-        <v>664</v>
-      </c>
+      <c r="E355" s="13"/>
       <c r="F355" s="25"/>
       <c r="G355" s="15"/>
       <c r="H355" s="16"/>
@@ -17312,13 +17361,15 @@
     <row r="356">
       <c r="A356" s="9"/>
       <c r="B356" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C356" s="41" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="D356" s="28"/>
-      <c r="E356" s="13"/>
+      <c r="E356" s="20" t="s">
+        <v>690</v>
+      </c>
       <c r="F356" s="25"/>
       <c r="G356" s="15"/>
       <c r="H356" s="16"/>
@@ -17345,15 +17396,13 @@
     <row r="357">
       <c r="A357" s="9"/>
       <c r="B357" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C357" s="41" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="D357" s="28"/>
-      <c r="E357" s="20" t="s">
-        <v>667</v>
-      </c>
+      <c r="E357" s="13"/>
       <c r="F357" s="25"/>
       <c r="G357" s="15"/>
       <c r="H357" s="16"/>
@@ -17380,15 +17429,13 @@
     <row r="358">
       <c r="A358" s="9"/>
       <c r="B358" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C358" s="41" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="D358" s="28"/>
-      <c r="E358" s="20" t="s">
-        <v>669</v>
-      </c>
+      <c r="E358" s="13"/>
       <c r="F358" s="25"/>
       <c r="G358" s="15"/>
       <c r="H358" s="16"/>
@@ -17415,15 +17462,13 @@
     <row r="359">
       <c r="A359" s="9"/>
       <c r="B359" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C359" s="41" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="D359" s="28"/>
-      <c r="E359" s="20" t="s">
-        <v>671</v>
-      </c>
+      <c r="E359" s="13"/>
       <c r="F359" s="25"/>
       <c r="G359" s="15"/>
       <c r="H359" s="16"/>
@@ -17450,15 +17495,13 @@
     <row r="360">
       <c r="A360" s="9"/>
       <c r="B360" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C360" s="41" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="D360" s="28"/>
-      <c r="E360" s="20" t="s">
-        <v>673</v>
-      </c>
+      <c r="E360" s="13"/>
       <c r="F360" s="25"/>
       <c r="G360" s="15"/>
       <c r="H360" s="16"/>
@@ -17485,14 +17528,14 @@
     <row r="361">
       <c r="A361" s="9"/>
       <c r="B361" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C361" s="41" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="20" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="F361" s="25"/>
       <c r="G361" s="15"/>
@@ -17520,15 +17563,13 @@
     <row r="362">
       <c r="A362" s="9"/>
       <c r="B362" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C362" s="41" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="D362" s="28"/>
-      <c r="E362" s="20" t="s">
-        <v>677</v>
-      </c>
+      <c r="E362" s="13"/>
       <c r="F362" s="25"/>
       <c r="G362" s="15"/>
       <c r="H362" s="16"/>
@@ -17555,13 +17596,15 @@
     <row r="363">
       <c r="A363" s="9"/>
       <c r="B363" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C363" s="41" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D363" s="28"/>
-      <c r="E363" s="13"/>
+      <c r="E363" s="20" t="s">
+        <v>699</v>
+      </c>
       <c r="F363" s="25"/>
       <c r="G363" s="15"/>
       <c r="H363" s="16"/>
@@ -17588,10 +17631,10 @@
     <row r="364">
       <c r="A364" s="9"/>
       <c r="B364" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C364" s="41" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="13"/>
@@ -17621,13 +17664,15 @@
     <row r="365">
       <c r="A365" s="9"/>
       <c r="B365" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C365" s="41" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="D365" s="28"/>
-      <c r="E365" s="13"/>
+      <c r="E365" s="20" t="s">
+        <v>702</v>
+      </c>
       <c r="F365" s="25"/>
       <c r="G365" s="15"/>
       <c r="H365" s="16"/>
@@ -17654,15 +17699,13 @@
     <row r="366">
       <c r="A366" s="9"/>
       <c r="B366" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C366" s="41" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="D366" s="28"/>
-      <c r="E366" s="20" t="s">
-        <v>682</v>
-      </c>
+      <c r="E366" s="13"/>
       <c r="F366" s="25"/>
       <c r="G366" s="15"/>
       <c r="H366" s="16"/>
@@ -17689,10 +17732,10 @@
     <row r="367">
       <c r="A367" s="9"/>
       <c r="B367" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C367" s="41" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="13"/>
@@ -17722,13 +17765,15 @@
     <row r="368">
       <c r="A368" s="9"/>
       <c r="B368" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C368" s="41" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="D368" s="28"/>
-      <c r="E368" s="13"/>
+      <c r="E368" s="20" t="s">
+        <v>706</v>
+      </c>
       <c r="F368" s="25"/>
       <c r="G368" s="15"/>
       <c r="H368" s="16"/>
@@ -17755,13 +17800,15 @@
     <row r="369">
       <c r="A369" s="9"/>
       <c r="B369" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C369" s="41" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D369" s="28"/>
-      <c r="E369" s="13"/>
+      <c r="E369" s="20" t="s">
+        <v>708</v>
+      </c>
       <c r="F369" s="25"/>
       <c r="G369" s="15"/>
       <c r="H369" s="16"/>
@@ -17788,10 +17835,10 @@
     <row r="370">
       <c r="A370" s="9"/>
       <c r="B370" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="13"/>
@@ -17821,15 +17868,13 @@
     <row r="371">
       <c r="A371" s="9"/>
       <c r="B371" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="D371" s="28"/>
-      <c r="E371" s="20" t="s">
-        <v>688</v>
-      </c>
+      <c r="E371" s="13"/>
       <c r="F371" s="25"/>
       <c r="G371" s="15"/>
       <c r="H371" s="16"/>
@@ -17856,15 +17901,13 @@
     <row r="372">
       <c r="A372" s="9"/>
       <c r="B372" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="D372" s="28"/>
-      <c r="E372" s="20" t="s">
-        <v>690</v>
-      </c>
+      <c r="E372" s="13"/>
       <c r="F372" s="25"/>
       <c r="G372" s="15"/>
       <c r="H372" s="16"/>
@@ -17891,10 +17934,10 @@
     <row r="373">
       <c r="A373" s="9"/>
       <c r="B373" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C373" s="41" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="13"/>
@@ -17924,10 +17967,10 @@
     <row r="374">
       <c r="A374" s="9"/>
       <c r="B374" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C374" s="41" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="13"/>
@@ -17957,15 +18000,13 @@
     <row r="375">
       <c r="A375" s="9"/>
       <c r="B375" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="D375" s="28"/>
-      <c r="E375" s="20" t="s">
-        <v>694</v>
-      </c>
+      <c r="E375" s="13"/>
       <c r="F375" s="25"/>
       <c r="G375" s="15"/>
       <c r="H375" s="16"/>
@@ -17992,10 +18033,10 @@
     <row r="376">
       <c r="A376" s="9"/>
       <c r="B376" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C376" s="41" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="13"/>
@@ -18025,10 +18066,10 @@
     <row r="377">
       <c r="A377" s="9"/>
       <c r="B377" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C377" s="41" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="13"/>
@@ -18058,14 +18099,14 @@
     <row r="378">
       <c r="A378" s="9"/>
       <c r="B378" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C378" s="41" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="20" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="F378" s="25"/>
       <c r="G378" s="15"/>
@@ -18093,15 +18134,13 @@
     <row r="379">
       <c r="A379" s="9"/>
       <c r="B379" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C379" s="41" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="D379" s="28"/>
-      <c r="E379" s="20" t="s">
-        <v>700</v>
-      </c>
+      <c r="E379" s="13"/>
       <c r="F379" s="25"/>
       <c r="G379" s="15"/>
       <c r="H379" s="16"/>
@@ -18128,14 +18167,14 @@
     <row r="380">
       <c r="A380" s="9"/>
       <c r="B380" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C380" s="41" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="20" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="F380" s="25"/>
       <c r="G380" s="15"/>
@@ -18163,13 +18202,15 @@
     <row r="381">
       <c r="A381" s="9"/>
       <c r="B381" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C381" s="41" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="D381" s="28"/>
-      <c r="E381" s="13"/>
+      <c r="E381" s="20" t="s">
+        <v>723</v>
+      </c>
       <c r="F381" s="25"/>
       <c r="G381" s="15"/>
       <c r="H381" s="16"/>
@@ -18196,13 +18237,15 @@
     <row r="382">
       <c r="A382" s="9"/>
       <c r="B382" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C382" s="41" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="D382" s="28"/>
-      <c r="E382" s="13"/>
+      <c r="E382" s="20" t="s">
+        <v>725</v>
+      </c>
       <c r="F382" s="25"/>
       <c r="G382" s="15"/>
       <c r="H382" s="16"/>
@@ -18229,13 +18272,15 @@
     <row r="383">
       <c r="A383" s="9"/>
       <c r="B383" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C383" s="41" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="D383" s="28"/>
-      <c r="E383" s="13"/>
+      <c r="E383" s="20" t="s">
+        <v>727</v>
+      </c>
       <c r="F383" s="25"/>
       <c r="G383" s="15"/>
       <c r="H383" s="16"/>
@@ -18262,13 +18307,15 @@
     <row r="384">
       <c r="A384" s="9"/>
       <c r="B384" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C384" s="41" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="D384" s="28"/>
-      <c r="E384" s="13"/>
+      <c r="E384" s="20" t="s">
+        <v>729</v>
+      </c>
       <c r="F384" s="25"/>
       <c r="G384" s="15"/>
       <c r="H384" s="16"/>
@@ -18295,13 +18342,15 @@
     <row r="385">
       <c r="A385" s="9"/>
       <c r="B385" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C385" s="41" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="D385" s="28"/>
-      <c r="E385" s="13"/>
+      <c r="E385" s="20" t="s">
+        <v>731</v>
+      </c>
       <c r="F385" s="25"/>
       <c r="G385" s="15"/>
       <c r="H385" s="16"/>
@@ -18328,15 +18377,13 @@
     <row r="386">
       <c r="A386" s="9"/>
       <c r="B386" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C386" s="41" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="D386" s="28"/>
-      <c r="E386" s="20" t="s">
-        <v>709</v>
-      </c>
+      <c r="E386" s="13"/>
       <c r="F386" s="25"/>
       <c r="G386" s="15"/>
       <c r="H386" s="16"/>
@@ -18363,10 +18410,10 @@
     <row r="387">
       <c r="A387" s="9"/>
       <c r="B387" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C387" s="41" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="13"/>
@@ -18396,15 +18443,13 @@
     <row r="388">
       <c r="A388" s="9"/>
       <c r="B388" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C388" s="41" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="D388" s="28"/>
-      <c r="E388" s="20" t="s">
-        <v>712</v>
-      </c>
+      <c r="E388" s="13"/>
       <c r="F388" s="25"/>
       <c r="G388" s="15"/>
       <c r="H388" s="16"/>
@@ -18431,14 +18476,14 @@
     <row r="389">
       <c r="A389" s="9"/>
       <c r="B389" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C389" s="41" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="20" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="F389" s="25"/>
       <c r="G389" s="15"/>
@@ -18466,10 +18511,10 @@
     <row r="390">
       <c r="A390" s="9"/>
       <c r="B390" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="13"/>
@@ -18499,10 +18544,10 @@
     <row r="391">
       <c r="A391" s="9"/>
       <c r="B391" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="13"/>
@@ -18532,10 +18577,10 @@
     <row r="392">
       <c r="A392" s="9"/>
       <c r="B392" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="13"/>
@@ -18565,15 +18610,13 @@
     <row r="393">
       <c r="A393" s="9"/>
       <c r="B393" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D393" s="28"/>
-      <c r="E393" s="20" t="s">
-        <v>719</v>
-      </c>
+      <c r="E393" s="13"/>
       <c r="F393" s="25"/>
       <c r="G393" s="15"/>
       <c r="H393" s="16"/>
@@ -18600,13 +18643,15 @@
     <row r="394">
       <c r="A394" s="9"/>
       <c r="B394" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="D394" s="28"/>
-      <c r="E394" s="13"/>
+      <c r="E394" s="20" t="s">
+        <v>742</v>
+      </c>
       <c r="F394" s="25"/>
       <c r="G394" s="15"/>
       <c r="H394" s="16"/>
@@ -18633,14 +18678,14 @@
     <row r="395">
       <c r="A395" s="9"/>
       <c r="B395" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C395" s="41" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="20" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="F395" s="25"/>
       <c r="G395" s="15"/>
@@ -18668,10 +18713,10 @@
     <row r="396">
       <c r="A396" s="9"/>
       <c r="B396" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C396" s="41" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="D396" s="28"/>
       <c r="E396" s="13"/>
@@ -18701,15 +18746,13 @@
     <row r="397">
       <c r="A397" s="9"/>
       <c r="B397" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C397" s="41" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="D397" s="28"/>
-      <c r="E397" s="20" t="s">
-        <v>725</v>
-      </c>
+      <c r="E397" s="13"/>
       <c r="F397" s="25"/>
       <c r="G397" s="15"/>
       <c r="H397" s="16"/>
@@ -18736,13 +18779,15 @@
     <row r="398">
       <c r="A398" s="9"/>
       <c r="B398" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C398" s="41" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="D398" s="28"/>
-      <c r="E398" s="13"/>
+      <c r="E398" s="20" t="s">
+        <v>748</v>
+      </c>
       <c r="F398" s="25"/>
       <c r="G398" s="15"/>
       <c r="H398" s="16"/>
@@ -18769,10 +18814,10 @@
     <row r="399">
       <c r="A399" s="9"/>
       <c r="B399" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C399" s="41" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="13"/>
@@ -18802,15 +18847,13 @@
     <row r="400">
       <c r="A400" s="9"/>
       <c r="B400" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C400" s="41" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="D400" s="28"/>
-      <c r="E400" s="20" t="s">
-        <v>729</v>
-      </c>
+      <c r="E400" s="13"/>
       <c r="F400" s="25"/>
       <c r="G400" s="15"/>
       <c r="H400" s="16"/>
@@ -18837,14 +18880,14 @@
     <row r="401">
       <c r="A401" s="9"/>
       <c r="B401" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C401" s="41" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="20" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="F401" s="25"/>
       <c r="G401" s="15"/>
@@ -18872,13 +18915,15 @@
     <row r="402">
       <c r="A402" s="9"/>
       <c r="B402" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C402" s="41" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="D402" s="28"/>
-      <c r="E402" s="13"/>
+      <c r="E402" s="20" t="s">
+        <v>754</v>
+      </c>
       <c r="F402" s="25"/>
       <c r="G402" s="15"/>
       <c r="H402" s="16"/>
@@ -18905,13 +18950,15 @@
     <row r="403">
       <c r="A403" s="9"/>
       <c r="B403" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C403" s="41" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="D403" s="28"/>
-      <c r="E403" s="13"/>
+      <c r="E403" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="F403" s="25"/>
       <c r="G403" s="15"/>
       <c r="H403" s="16"/>
@@ -18938,10 +18985,10 @@
     <row r="404">
       <c r="A404" s="9"/>
       <c r="B404" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C404" s="41" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="D404" s="28"/>
       <c r="E404" s="13"/>
@@ -18971,10 +19018,10 @@
     <row r="405">
       <c r="A405" s="9"/>
       <c r="B405" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C405" s="41" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="D405" s="28"/>
       <c r="E405" s="13"/>
@@ -19004,15 +19051,13 @@
     <row r="406">
       <c r="A406" s="9"/>
       <c r="B406" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C406" s="41" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="D406" s="28"/>
-      <c r="E406" s="20" t="s">
-        <v>737</v>
-      </c>
+      <c r="E406" s="13"/>
       <c r="F406" s="25"/>
       <c r="G406" s="15"/>
       <c r="H406" s="16"/>
@@ -19039,10 +19084,10 @@
     <row r="407">
       <c r="A407" s="9"/>
       <c r="B407" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C407" s="41" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="D407" s="28"/>
       <c r="E407" s="13"/>
@@ -19072,10 +19117,10 @@
     <row r="408">
       <c r="A408" s="9"/>
       <c r="B408" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C408" s="41" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="D408" s="28"/>
       <c r="E408" s="13"/>
@@ -19105,14 +19150,14 @@
     <row r="409">
       <c r="A409" s="9"/>
       <c r="B409" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C409" s="41" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="D409" s="28"/>
       <c r="E409" s="20" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="F409" s="25"/>
       <c r="G409" s="15"/>
@@ -19140,10 +19185,10 @@
     <row r="410">
       <c r="A410" s="9"/>
       <c r="B410" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C410" s="41" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="D410" s="28"/>
       <c r="E410" s="13"/>
@@ -19173,14 +19218,14 @@
     <row r="411">
       <c r="A411" s="9"/>
       <c r="B411" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="20" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="15"/>
@@ -19208,13 +19253,15 @@
     <row r="412">
       <c r="A412" s="9"/>
       <c r="B412" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C412" s="41" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="D412" s="28"/>
-      <c r="E412" s="13"/>
+      <c r="E412" s="20" t="s">
+        <v>768</v>
+      </c>
       <c r="F412" s="25"/>
       <c r="G412" s="15"/>
       <c r="H412" s="16"/>
@@ -19241,15 +19288,13 @@
     <row r="413">
       <c r="A413" s="9"/>
       <c r="B413" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C413" s="41" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="D413" s="28"/>
-      <c r="E413" s="20" t="s">
-        <v>747</v>
-      </c>
+      <c r="E413" s="13"/>
       <c r="F413" s="25"/>
       <c r="G413" s="15"/>
       <c r="H413" s="16"/>
@@ -19276,15 +19321,13 @@
     <row r="414">
       <c r="A414" s="9"/>
       <c r="B414" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C414" s="41" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="D414" s="28"/>
-      <c r="E414" s="20" t="s">
-        <v>749</v>
-      </c>
+      <c r="E414" s="13"/>
       <c r="F414" s="25"/>
       <c r="G414" s="15"/>
       <c r="H414" s="16"/>
@@ -19311,10 +19354,10 @@
     <row r="415">
       <c r="A415" s="9"/>
       <c r="B415" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C415" s="41" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="D415" s="28"/>
       <c r="E415" s="13"/>
@@ -19344,13 +19387,15 @@
     <row r="416">
       <c r="A416" s="9"/>
       <c r="B416" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C416" s="41" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="D416" s="28"/>
-      <c r="E416" s="13"/>
+      <c r="E416" s="20" t="s">
+        <v>773</v>
+      </c>
       <c r="F416" s="25"/>
       <c r="G416" s="15"/>
       <c r="H416" s="16"/>
@@ -19377,15 +19422,13 @@
     <row r="417">
       <c r="A417" s="9"/>
       <c r="B417" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C417" s="41" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="D417" s="28"/>
-      <c r="E417" s="20" t="s">
-        <v>753</v>
-      </c>
+      <c r="E417" s="13"/>
       <c r="F417" s="25"/>
       <c r="G417" s="15"/>
       <c r="H417" s="16"/>
@@ -19412,13 +19455,15 @@
     <row r="418">
       <c r="A418" s="9"/>
       <c r="B418" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C418" s="41" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="D418" s="28"/>
-      <c r="E418" s="13"/>
+      <c r="E418" s="20" t="s">
+        <v>776</v>
+      </c>
       <c r="F418" s="25"/>
       <c r="G418" s="15"/>
       <c r="H418" s="16"/>
@@ -19445,15 +19490,13 @@
     <row r="419">
       <c r="A419" s="9"/>
       <c r="B419" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C419" s="41" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="D419" s="28"/>
-      <c r="E419" s="20" t="s">
-        <v>756</v>
-      </c>
+      <c r="E419" s="13"/>
       <c r="F419" s="25"/>
       <c r="G419" s="15"/>
       <c r="H419" s="16"/>
@@ -19480,13 +19523,15 @@
     <row r="420">
       <c r="A420" s="9"/>
       <c r="B420" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C420" s="41" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="D420" s="28"/>
-      <c r="E420" s="13"/>
+      <c r="E420" s="20" t="s">
+        <v>779</v>
+      </c>
       <c r="F420" s="25"/>
       <c r="G420" s="15"/>
       <c r="H420" s="16"/>
@@ -19513,10 +19558,10 @@
     <row r="421">
       <c r="A421" s="9"/>
       <c r="B421" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C421" s="41" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="13"/>
@@ -19546,10 +19591,10 @@
     <row r="422">
       <c r="A422" s="9"/>
       <c r="B422" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C422" s="41" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="D422" s="28"/>
       <c r="E422" s="13"/>
@@ -19579,14 +19624,14 @@
     <row r="423">
       <c r="A423" s="9"/>
       <c r="B423" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C423" s="41" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="D423" s="28"/>
       <c r="E423" s="20" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="F423" s="25"/>
       <c r="G423" s="15"/>
@@ -19614,13 +19659,15 @@
     <row r="424">
       <c r="A424" s="9"/>
       <c r="B424" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C424" s="41" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="D424" s="28"/>
-      <c r="E424" s="13"/>
+      <c r="E424" s="20" t="s">
+        <v>785</v>
+      </c>
       <c r="F424" s="25"/>
       <c r="G424" s="15"/>
       <c r="H424" s="16"/>
@@ -19647,10 +19694,10 @@
     <row r="425">
       <c r="A425" s="9"/>
       <c r="B425" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C425" s="41" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="D425" s="28"/>
       <c r="E425" s="13"/>
@@ -19680,15 +19727,13 @@
     <row r="426">
       <c r="A426" s="9"/>
       <c r="B426" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C426" s="41" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="D426" s="28"/>
-      <c r="E426" s="20" t="s">
-        <v>765</v>
-      </c>
+      <c r="E426" s="13"/>
       <c r="F426" s="25"/>
       <c r="G426" s="15"/>
       <c r="H426" s="16"/>
@@ -19715,10 +19760,10 @@
     <row r="427">
       <c r="A427" s="9"/>
       <c r="B427" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C427" s="41" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="D427" s="28"/>
       <c r="E427" s="13"/>
@@ -19748,15 +19793,13 @@
     <row r="428">
       <c r="A428" s="9"/>
       <c r="B428" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C428" s="41" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="D428" s="28"/>
-      <c r="E428" s="20" t="s">
-        <v>768</v>
-      </c>
+      <c r="E428" s="13"/>
       <c r="F428" s="25"/>
       <c r="G428" s="15"/>
       <c r="H428" s="16"/>
@@ -19783,13 +19826,15 @@
     <row r="429">
       <c r="A429" s="9"/>
       <c r="B429" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C429" s="41" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="D429" s="28"/>
-      <c r="E429" s="13"/>
+      <c r="E429" s="20" t="s">
+        <v>791</v>
+      </c>
       <c r="F429" s="25"/>
       <c r="G429" s="15"/>
       <c r="H429" s="16"/>
@@ -19816,15 +19861,13 @@
     <row r="430">
       <c r="A430" s="9"/>
       <c r="B430" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C430" s="41" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="D430" s="28"/>
-      <c r="E430" s="20" t="s">
-        <v>771</v>
-      </c>
+      <c r="E430" s="13"/>
       <c r="F430" s="25"/>
       <c r="G430" s="15"/>
       <c r="H430" s="16"/>
@@ -19851,10 +19894,10 @@
     <row r="431">
       <c r="A431" s="9"/>
       <c r="B431" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C431" s="41" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="D431" s="28"/>
       <c r="E431" s="13"/>
@@ -19884,14 +19927,14 @@
     <row r="432">
       <c r="A432" s="9"/>
       <c r="B432" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C432" s="41" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="D432" s="28"/>
       <c r="E432" s="20" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F432" s="25"/>
       <c r="G432" s="15"/>
@@ -19919,15 +19962,13 @@
     <row r="433">
       <c r="A433" s="9"/>
       <c r="B433" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C433" s="41" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="D433" s="28"/>
-      <c r="E433" s="20" t="s">
-        <v>776</v>
-      </c>
+      <c r="E433" s="13"/>
       <c r="F433" s="25"/>
       <c r="G433" s="15"/>
       <c r="H433" s="16"/>
@@ -19954,13 +19995,15 @@
     <row r="434">
       <c r="A434" s="9"/>
       <c r="B434" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C434" s="41" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="D434" s="28"/>
-      <c r="E434" s="13"/>
+      <c r="E434" s="20" t="s">
+        <v>798</v>
+      </c>
       <c r="F434" s="25"/>
       <c r="G434" s="15"/>
       <c r="H434" s="16"/>
@@ -19987,15 +20030,13 @@
     <row r="435">
       <c r="A435" s="9"/>
       <c r="B435" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C435" s="41" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D435" s="28"/>
-      <c r="E435" s="20" t="s">
-        <v>779</v>
-      </c>
+      <c r="E435" s="13"/>
       <c r="F435" s="25"/>
       <c r="G435" s="15"/>
       <c r="H435" s="16"/>
@@ -20022,14 +20063,14 @@
     <row r="436">
       <c r="A436" s="9"/>
       <c r="B436" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C436" s="41" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="D436" s="28"/>
       <c r="E436" s="20" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="F436" s="25"/>
       <c r="G436" s="15"/>
@@ -20057,14 +20098,14 @@
     <row r="437">
       <c r="A437" s="9"/>
       <c r="B437" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C437" s="41" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="D437" s="28"/>
       <c r="E437" s="20" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="F437" s="25"/>
       <c r="G437" s="15"/>
@@ -20092,15 +20133,13 @@
     <row r="438">
       <c r="A438" s="9"/>
       <c r="B438" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C438" s="41" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="D438" s="28"/>
-      <c r="E438" s="20" t="s">
-        <v>785</v>
-      </c>
+      <c r="E438" s="13"/>
       <c r="F438" s="25"/>
       <c r="G438" s="15"/>
       <c r="H438" s="16"/>
@@ -20127,15 +20166,13 @@
     <row r="439">
       <c r="A439" s="9"/>
       <c r="B439" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C439" s="41" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="D439" s="28"/>
-      <c r="E439" s="20" t="s">
-        <v>787</v>
-      </c>
+      <c r="E439" s="13"/>
       <c r="F439" s="25"/>
       <c r="G439" s="15"/>
       <c r="H439" s="16"/>
@@ -20162,14 +20199,14 @@
     <row r="440">
       <c r="A440" s="9"/>
       <c r="B440" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="D440" s="28"/>
       <c r="E440" s="20" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="F440" s="25"/>
       <c r="G440" s="15"/>
@@ -20197,10 +20234,10 @@
     <row r="441">
       <c r="A441" s="9"/>
       <c r="B441" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C441" s="41" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="D441" s="28"/>
       <c r="E441" s="13"/>
@@ -20230,13 +20267,15 @@
     <row r="442">
       <c r="A442" s="9"/>
       <c r="B442" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C442" s="41" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="D442" s="28"/>
-      <c r="E442" s="13"/>
+      <c r="E442" s="20" t="s">
+        <v>810</v>
+      </c>
       <c r="F442" s="25"/>
       <c r="G442" s="15"/>
       <c r="H442" s="16"/>
@@ -20263,15 +20302,13 @@
     <row r="443">
       <c r="A443" s="9"/>
       <c r="B443" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C443" s="41" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="D443" s="28"/>
-      <c r="E443" s="20" t="s">
-        <v>793</v>
-      </c>
+      <c r="E443" s="13"/>
       <c r="F443" s="25"/>
       <c r="G443" s="15"/>
       <c r="H443" s="16"/>
@@ -20298,15 +20335,13 @@
     <row r="444">
       <c r="A444" s="9"/>
       <c r="B444" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C444" s="41" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="D444" s="28"/>
-      <c r="E444" s="20" t="s">
-        <v>795</v>
-      </c>
+      <c r="E444" s="13"/>
       <c r="F444" s="25"/>
       <c r="G444" s="15"/>
       <c r="H444" s="16"/>
@@ -20333,10 +20368,10 @@
     <row r="445">
       <c r="A445" s="9"/>
       <c r="B445" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C445" s="41" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D445" s="28"/>
       <c r="E445" s="13"/>
@@ -20366,13 +20401,15 @@
     <row r="446">
       <c r="A446" s="9"/>
       <c r="B446" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C446" s="41" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="D446" s="28"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="20" t="s">
+        <v>815</v>
+      </c>
       <c r="F446" s="25"/>
       <c r="G446" s="15"/>
       <c r="H446" s="16"/>
@@ -20399,10 +20436,10 @@
     <row r="447">
       <c r="A447" s="9"/>
       <c r="B447" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C447" s="41" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="D447" s="28"/>
       <c r="E447" s="13"/>
@@ -20432,15 +20469,13 @@
     <row r="448">
       <c r="A448" s="9"/>
       <c r="B448" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C448" s="41" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="D448" s="28"/>
-      <c r="E448" s="20" t="s">
-        <v>800</v>
-      </c>
+      <c r="E448" s="13"/>
       <c r="F448" s="25"/>
       <c r="G448" s="15"/>
       <c r="H448" s="16"/>
@@ -20467,14 +20502,14 @@
     <row r="449">
       <c r="A449" s="9"/>
       <c r="B449" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C449" s="41" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="D449" s="28"/>
       <c r="E449" s="20" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="F449" s="25"/>
       <c r="G449" s="15"/>
@@ -20502,15 +20537,13 @@
     <row r="450">
       <c r="A450" s="9"/>
       <c r="B450" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C450" s="41" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D450" s="28"/>
-      <c r="E450" s="20" t="s">
-        <v>804</v>
-      </c>
+      <c r="E450" s="13"/>
       <c r="F450" s="25"/>
       <c r="G450" s="15"/>
       <c r="H450" s="16"/>
@@ -20537,14 +20570,14 @@
     <row r="451">
       <c r="A451" s="9"/>
       <c r="B451" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C451" s="41" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D451" s="28"/>
       <c r="E451" s="20" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="F451" s="25"/>
       <c r="G451" s="15"/>
@@ -20572,10 +20605,10 @@
     <row r="452">
       <c r="A452" s="9"/>
       <c r="B452" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C452" s="41" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D452" s="28"/>
       <c r="E452" s="13"/>
@@ -20605,14 +20638,14 @@
     <row r="453">
       <c r="A453" s="9"/>
       <c r="B453" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C453" s="41" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D453" s="28"/>
       <c r="E453" s="20" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="F453" s="25"/>
       <c r="G453" s="15"/>
@@ -20640,15 +20673,13 @@
     <row r="454">
       <c r="A454" s="9"/>
       <c r="B454" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C454" s="41" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D454" s="28"/>
-      <c r="E454" s="20" t="s">
-        <v>811</v>
-      </c>
+      <c r="E454" s="13"/>
       <c r="F454" s="25"/>
       <c r="G454" s="15"/>
       <c r="H454" s="16"/>
@@ -20675,14 +20706,14 @@
     <row r="455">
       <c r="A455" s="9"/>
       <c r="B455" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C455" s="41" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="D455" s="28"/>
       <c r="E455" s="20" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="F455" s="25"/>
       <c r="G455" s="15"/>
@@ -20710,14 +20741,14 @@
     <row r="456">
       <c r="A456" s="9"/>
       <c r="B456" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C456" s="41" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="D456" s="28"/>
       <c r="E456" s="20" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="F456" s="25"/>
       <c r="G456" s="15"/>
@@ -20745,10 +20776,10 @@
     <row r="457">
       <c r="A457" s="9"/>
       <c r="B457" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C457" s="41" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="D457" s="28"/>
       <c r="E457" s="13"/>
@@ -20778,13 +20809,15 @@
     <row r="458">
       <c r="A458" s="9"/>
       <c r="B458" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C458" s="41" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="D458" s="28"/>
-      <c r="E458" s="13"/>
+      <c r="E458" s="20" t="s">
+        <v>833</v>
+      </c>
       <c r="F458" s="25"/>
       <c r="G458" s="15"/>
       <c r="H458" s="16"/>
@@ -20811,14 +20844,14 @@
     <row r="459">
       <c r="A459" s="9"/>
       <c r="B459" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C459" s="41" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="D459" s="28"/>
       <c r="E459" s="20" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="F459" s="25"/>
       <c r="G459" s="15"/>
@@ -20846,14 +20879,14 @@
     <row r="460">
       <c r="A460" s="9"/>
       <c r="B460" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C460" s="41" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D460" s="28"/>
       <c r="E460" s="20" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="F460" s="25"/>
       <c r="G460" s="15"/>
@@ -20881,13 +20914,15 @@
     <row r="461">
       <c r="A461" s="9"/>
       <c r="B461" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D461" s="28"/>
-      <c r="E461" s="13"/>
+      <c r="E461" s="20" t="s">
+        <v>839</v>
+      </c>
       <c r="F461" s="25"/>
       <c r="G461" s="15"/>
       <c r="H461" s="16"/>
@@ -20914,13 +20949,15 @@
     <row r="462">
       <c r="A462" s="9"/>
       <c r="B462" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C462" s="41" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="D462" s="28"/>
-      <c r="E462" s="13"/>
+      <c r="E462" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="F462" s="25"/>
       <c r="G462" s="15"/>
       <c r="H462" s="16"/>
@@ -20947,14 +20984,14 @@
     <row r="463">
       <c r="A463" s="9"/>
       <c r="B463" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C463" s="41" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="D463" s="28"/>
       <c r="E463" s="20" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="F463" s="25"/>
       <c r="G463" s="15"/>
@@ -20982,15 +21019,13 @@
     <row r="464">
       <c r="A464" s="9"/>
       <c r="B464" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C464" s="41" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="D464" s="28"/>
-      <c r="E464" s="20" t="s">
-        <v>827</v>
-      </c>
+      <c r="E464" s="13"/>
       <c r="F464" s="25"/>
       <c r="G464" s="15"/>
       <c r="H464" s="16"/>
@@ -21017,15 +21052,13 @@
     <row r="465">
       <c r="A465" s="9"/>
       <c r="B465" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C465" s="41" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="D465" s="28"/>
-      <c r="E465" s="20" t="s">
-        <v>829</v>
-      </c>
+      <c r="E465" s="13"/>
       <c r="F465" s="25"/>
       <c r="G465" s="15"/>
       <c r="H465" s="16"/>
@@ -21052,13 +21085,15 @@
     <row r="466">
       <c r="A466" s="9"/>
       <c r="B466" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C466" s="41" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="D466" s="28"/>
-      <c r="E466" s="13"/>
+      <c r="E466" s="20" t="s">
+        <v>847</v>
+      </c>
       <c r="F466" s="25"/>
       <c r="G466" s="15"/>
       <c r="H466" s="16"/>
@@ -21085,13 +21120,15 @@
     <row r="467">
       <c r="A467" s="9"/>
       <c r="B467" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C467" s="41" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="D467" s="28"/>
-      <c r="E467" s="13"/>
+      <c r="E467" s="20" t="s">
+        <v>849</v>
+      </c>
       <c r="F467" s="25"/>
       <c r="G467" s="15"/>
       <c r="H467" s="16"/>
@@ -21118,10 +21155,10 @@
     <row r="468">
       <c r="A468" s="9"/>
       <c r="B468" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C468" s="41" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D468" s="28"/>
       <c r="E468" s="13"/>
@@ -21151,10 +21188,10 @@
     <row r="469">
       <c r="A469" s="9"/>
       <c r="B469" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C469" s="41" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="D469" s="28"/>
       <c r="E469" s="13"/>
@@ -21184,10 +21221,10 @@
     <row r="470">
       <c r="A470" s="9"/>
       <c r="B470" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C470" s="41" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="D470" s="28"/>
       <c r="E470" s="13"/>
@@ -21217,13 +21254,15 @@
     <row r="471">
       <c r="A471" s="9"/>
       <c r="B471" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C471" s="41" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="D471" s="28"/>
-      <c r="E471" s="13"/>
+      <c r="E471" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="F471" s="25"/>
       <c r="G471" s="15"/>
       <c r="H471" s="16"/>
@@ -21250,14 +21289,14 @@
     <row r="472">
       <c r="A472" s="9"/>
       <c r="B472" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C472" s="41" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="D472" s="28"/>
       <c r="E472" s="20" t="s">
-        <v>688</v>
+        <v>856</v>
       </c>
       <c r="F472" s="25"/>
       <c r="G472" s="15"/>
@@ -21285,13 +21324,15 @@
     <row r="473">
       <c r="A473" s="9"/>
       <c r="B473" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C473" s="41" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="D473" s="28"/>
-      <c r="E473" s="13"/>
+      <c r="E473" s="20" t="s">
+        <v>858</v>
+      </c>
       <c r="F473" s="25"/>
       <c r="G473" s="15"/>
       <c r="H473" s="16"/>
@@ -21318,13 +21359,15 @@
     <row r="474">
       <c r="A474" s="9"/>
       <c r="B474" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C474" s="41" t="s">
-        <v>838</v>
+        <v>456</v>
+      </c>
+      <c r="C474" s="44" t="s">
+        <v>859</v>
       </c>
       <c r="D474" s="28"/>
-      <c r="E474" s="13"/>
+      <c r="E474" s="20" t="s">
+        <v>860</v>
+      </c>
       <c r="F474" s="25"/>
       <c r="G474" s="15"/>
       <c r="H474" s="16"/>
@@ -21351,15 +21394,13 @@
     <row r="475">
       <c r="A475" s="9"/>
       <c r="B475" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C475" s="41" t="s">
-        <v>839</v>
+        <v>456</v>
+      </c>
+      <c r="C475" s="44" t="s">
+        <v>861</v>
       </c>
       <c r="D475" s="28"/>
-      <c r="E475" s="20" t="s">
-        <v>840</v>
-      </c>
+      <c r="E475" s="13"/>
       <c r="F475" s="25"/>
       <c r="G475" s="15"/>
       <c r="H475" s="16"/>
@@ -21386,14 +21427,14 @@
     <row r="476">
       <c r="A476" s="9"/>
       <c r="B476" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C476" s="41" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="D476" s="28"/>
       <c r="E476" s="20" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="F476" s="25"/>
       <c r="G476" s="15"/>
@@ -21421,13 +21462,15 @@
     <row r="477">
       <c r="A477" s="9"/>
       <c r="B477" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C477" s="41" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="D477" s="28"/>
-      <c r="E477" s="13"/>
+      <c r="E477" s="20" t="s">
+        <v>865</v>
+      </c>
       <c r="F477" s="25"/>
       <c r="G477" s="15"/>
       <c r="H477" s="16"/>
@@ -21454,13 +21497,15 @@
     <row r="478">
       <c r="A478" s="9"/>
       <c r="B478" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C478" s="41" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="D478" s="28"/>
-      <c r="E478" s="13"/>
+      <c r="E478" s="20" t="s">
+        <v>867</v>
+      </c>
       <c r="F478" s="25"/>
       <c r="G478" s="15"/>
       <c r="H478" s="16"/>
@@ -21487,13 +21532,15 @@
     <row r="479">
       <c r="A479" s="9"/>
       <c r="B479" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C479" s="41" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="D479" s="28"/>
-      <c r="E479" s="13"/>
+      <c r="E479" s="20" t="s">
+        <v>869</v>
+      </c>
       <c r="F479" s="25"/>
       <c r="G479" s="15"/>
       <c r="H479" s="16"/>
@@ -21520,15 +21567,13 @@
     <row r="480">
       <c r="A480" s="9"/>
       <c r="B480" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C480" s="41" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="D480" s="28"/>
-      <c r="E480" s="20" t="s">
-        <v>847</v>
-      </c>
+      <c r="E480" s="13"/>
       <c r="F480" s="25"/>
       <c r="G480" s="15"/>
       <c r="H480" s="16"/>
@@ -21555,10 +21600,10 @@
     <row r="481">
       <c r="A481" s="9"/>
       <c r="B481" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C481" s="41" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="D481" s="28"/>
       <c r="E481" s="13"/>
@@ -21588,13 +21633,15 @@
     <row r="482">
       <c r="A482" s="9"/>
       <c r="B482" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C482" s="41" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="D482" s="28"/>
-      <c r="E482" s="13"/>
+      <c r="E482" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="F482" s="25"/>
       <c r="G482" s="15"/>
       <c r="H482" s="16"/>
@@ -21621,14 +21668,14 @@
     <row r="483">
       <c r="A483" s="9"/>
       <c r="B483" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C483" s="41" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D483" s="28"/>
       <c r="E483" s="20" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="F483" s="25"/>
       <c r="G483" s="15"/>
@@ -21656,17 +21703,13 @@
     <row r="484">
       <c r="A484" s="9"/>
       <c r="B484" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C484" s="41" t="s">
-        <v>852</v>
-      </c>
-      <c r="D484" s="21" t="s">
-        <v>853</v>
-      </c>
-      <c r="E484" s="20" t="s">
-        <v>854</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="D484" s="28"/>
+      <c r="E484" s="13"/>
       <c r="F484" s="25"/>
       <c r="G484" s="15"/>
       <c r="H484" s="16"/>
@@ -21693,15 +21736,13 @@
     <row r="485">
       <c r="A485" s="9"/>
       <c r="B485" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C485" s="41" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="D485" s="28"/>
-      <c r="E485" s="20" t="s">
-        <v>856</v>
-      </c>
+      <c r="E485" s="13"/>
       <c r="F485" s="25"/>
       <c r="G485" s="15"/>
       <c r="H485" s="16"/>
@@ -21728,14 +21769,14 @@
     <row r="486">
       <c r="A486" s="9"/>
       <c r="B486" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C486" s="41" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
       <c r="D486" s="28"/>
       <c r="E486" s="20" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="F486" s="25"/>
       <c r="G486" s="15"/>
@@ -21763,14 +21804,14 @@
     <row r="487">
       <c r="A487" s="9"/>
       <c r="B487" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C487" s="41" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="D487" s="28"/>
       <c r="E487" s="20" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="F487" s="25"/>
       <c r="G487" s="15"/>
@@ -21798,14 +21839,14 @@
     <row r="488">
       <c r="A488" s="9"/>
       <c r="B488" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C488" s="41" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="D488" s="28"/>
       <c r="E488" s="20" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
       <c r="F488" s="25"/>
       <c r="G488" s="15"/>
@@ -21833,15 +21874,13 @@
     <row r="489">
       <c r="A489" s="9"/>
       <c r="B489" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C489" s="41" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="D489" s="28"/>
-      <c r="E489" s="20" t="s">
-        <v>864</v>
-      </c>
+      <c r="E489" s="13"/>
       <c r="F489" s="25"/>
       <c r="G489" s="15"/>
       <c r="H489" s="16"/>
@@ -21868,10 +21907,10 @@
     <row r="490">
       <c r="A490" s="9"/>
       <c r="B490" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C490" s="41" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="D490" s="28"/>
       <c r="E490" s="13"/>
@@ -21901,10 +21940,10 @@
     <row r="491">
       <c r="A491" s="9"/>
       <c r="B491" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C491" s="41" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="D491" s="28"/>
       <c r="E491" s="13"/>
@@ -21934,10 +21973,10 @@
     <row r="492">
       <c r="A492" s="9"/>
       <c r="B492" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C492" s="41" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="D492" s="28"/>
       <c r="E492" s="13"/>
@@ -21967,10 +22006,10 @@
     <row r="493">
       <c r="A493" s="9"/>
       <c r="B493" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C493" s="41" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="D493" s="28"/>
       <c r="E493" s="13"/>
@@ -22000,10 +22039,10 @@
     <row r="494">
       <c r="A494" s="9"/>
       <c r="B494" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C494" s="41" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="D494" s="28"/>
       <c r="E494" s="13"/>
@@ -22033,14 +22072,14 @@
     <row r="495">
       <c r="A495" s="9"/>
       <c r="B495" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C495" s="41" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="D495" s="28"/>
       <c r="E495" s="20" t="s">
-        <v>871</v>
+        <v>742</v>
       </c>
       <c r="F495" s="25"/>
       <c r="G495" s="15"/>
@@ -22068,10 +22107,10 @@
     <row r="496">
       <c r="A496" s="9"/>
       <c r="B496" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C496" s="41" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="D496" s="28"/>
       <c r="E496" s="13"/>
@@ -22101,15 +22140,13 @@
     <row r="497">
       <c r="A497" s="9"/>
       <c r="B497" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C497" s="41" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="D497" s="28"/>
-      <c r="E497" s="20" t="s">
-        <v>874</v>
-      </c>
+      <c r="E497" s="13"/>
       <c r="F497" s="25"/>
       <c r="G497" s="15"/>
       <c r="H497" s="16"/>
@@ -22136,13 +22173,15 @@
     <row r="498">
       <c r="A498" s="9"/>
       <c r="B498" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C498" s="41" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="D498" s="28"/>
-      <c r="E498" s="13"/>
+      <c r="E498" s="20" t="s">
+        <v>894</v>
+      </c>
       <c r="F498" s="25"/>
       <c r="G498" s="15"/>
       <c r="H498" s="16"/>
@@ -22169,14 +22208,14 @@
     <row r="499">
       <c r="A499" s="9"/>
       <c r="B499" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C499" s="41" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="D499" s="28"/>
       <c r="E499" s="20" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="F499" s="25"/>
       <c r="G499" s="15"/>
@@ -22204,15 +22243,13 @@
     <row r="500">
       <c r="A500" s="9"/>
       <c r="B500" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C500" s="41" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="D500" s="28"/>
-      <c r="E500" s="20" t="s">
-        <v>879</v>
-      </c>
+      <c r="E500" s="13"/>
       <c r="F500" s="25"/>
       <c r="G500" s="15"/>
       <c r="H500" s="16"/>
@@ -22239,15 +22276,13 @@
     <row r="501">
       <c r="A501" s="9"/>
       <c r="B501" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C501" s="41" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D501" s="28"/>
-      <c r="E501" s="20" t="s">
-        <v>881</v>
-      </c>
+      <c r="E501" s="13"/>
       <c r="F501" s="25"/>
       <c r="G501" s="15"/>
       <c r="H501" s="16"/>
@@ -22274,15 +22309,13 @@
     <row r="502">
       <c r="A502" s="9"/>
       <c r="B502" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C502" s="41" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="D502" s="28"/>
-      <c r="E502" s="20" t="s">
-        <v>883</v>
-      </c>
+      <c r="E502" s="13"/>
       <c r="F502" s="25"/>
       <c r="G502" s="15"/>
       <c r="H502" s="16"/>
@@ -22309,14 +22342,14 @@
     <row r="503">
       <c r="A503" s="9"/>
       <c r="B503" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C503" s="41" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="D503" s="28"/>
       <c r="E503" s="20" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="F503" s="25"/>
       <c r="G503" s="15"/>
@@ -22344,15 +22377,13 @@
     <row r="504">
       <c r="A504" s="9"/>
       <c r="B504" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C504" s="41" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="D504" s="28"/>
-      <c r="E504" s="20" t="s">
-        <v>887</v>
-      </c>
+      <c r="E504" s="13"/>
       <c r="F504" s="25"/>
       <c r="G504" s="15"/>
       <c r="H504" s="16"/>
@@ -22379,10 +22410,10 @@
     <row r="505">
       <c r="A505" s="9"/>
       <c r="B505" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C505" s="41" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="D505" s="28"/>
       <c r="E505" s="13"/>
@@ -22412,14 +22443,14 @@
     <row r="506">
       <c r="A506" s="9"/>
       <c r="B506" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C506" s="41" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="D506" s="28"/>
       <c r="E506" s="20" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="F506" s="25"/>
       <c r="G506" s="15"/>
@@ -22447,13 +22478,17 @@
     <row r="507">
       <c r="A507" s="9"/>
       <c r="B507" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C507" s="41" t="s">
-        <v>891</v>
-      </c>
-      <c r="D507" s="28"/>
-      <c r="E507" s="13"/>
+        <v>906</v>
+      </c>
+      <c r="D507" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="E507" s="20" t="s">
+        <v>908</v>
+      </c>
       <c r="F507" s="25"/>
       <c r="G507" s="15"/>
       <c r="H507" s="16"/>
@@ -22480,14 +22515,14 @@
     <row r="508">
       <c r="A508" s="9"/>
       <c r="B508" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C508" s="41" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="20" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="F508" s="25"/>
       <c r="G508" s="15"/>
@@ -22515,14 +22550,14 @@
     <row r="509">
       <c r="A509" s="9"/>
       <c r="B509" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C509" s="41" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="D509" s="28"/>
       <c r="E509" s="20" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="F509" s="25"/>
       <c r="G509" s="15"/>
@@ -22550,14 +22585,14 @@
     <row r="510">
       <c r="A510" s="9"/>
       <c r="B510" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C510" s="41" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="D510" s="28"/>
       <c r="E510" s="20" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="F510" s="25"/>
       <c r="G510" s="15"/>
@@ -22585,13 +22620,15 @@
     <row r="511">
       <c r="A511" s="9"/>
       <c r="B511" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C511" s="41" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="D511" s="28"/>
-      <c r="E511" s="13"/>
+      <c r="E511" s="20" t="s">
+        <v>916</v>
+      </c>
       <c r="F511" s="25"/>
       <c r="G511" s="15"/>
       <c r="H511" s="16"/>
@@ -22618,14 +22655,14 @@
     <row r="512">
       <c r="A512" s="9"/>
       <c r="B512" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C512" s="41" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="D512" s="28"/>
       <c r="E512" s="20" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="F512" s="25"/>
       <c r="G512" s="15"/>
@@ -22653,10 +22690,10 @@
     <row r="513">
       <c r="A513" s="9"/>
       <c r="B513" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C513" s="41" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="D513" s="28"/>
       <c r="E513" s="13"/>
@@ -22686,10 +22723,10 @@
     <row r="514">
       <c r="A514" s="9"/>
       <c r="B514" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C514" s="41" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="D514" s="28"/>
       <c r="E514" s="13"/>
@@ -22719,15 +22756,13 @@
     <row r="515">
       <c r="A515" s="9"/>
       <c r="B515" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C515" s="41" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="D515" s="28"/>
-      <c r="E515" s="20" t="s">
-        <v>904</v>
-      </c>
+      <c r="E515" s="13"/>
       <c r="F515" s="25"/>
       <c r="G515" s="15"/>
       <c r="H515" s="16"/>
@@ -22754,10 +22789,10 @@
     <row r="516">
       <c r="A516" s="9"/>
       <c r="B516" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C516" s="41" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="13"/>
@@ -22787,10 +22822,10 @@
     <row r="517">
       <c r="A517" s="9"/>
       <c r="B517" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C517" s="41" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="13"/>
@@ -22820,14 +22855,14 @@
     <row r="518">
       <c r="A518" s="9"/>
       <c r="B518" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C518" s="41" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="20" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="F518" s="25"/>
       <c r="G518" s="15"/>
@@ -22855,15 +22890,13 @@
     <row r="519">
       <c r="A519" s="9"/>
       <c r="B519" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C519" s="41" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="D519" s="28"/>
-      <c r="E519" s="20" t="s">
-        <v>910</v>
-      </c>
+      <c r="E519" s="13"/>
       <c r="F519" s="25"/>
       <c r="G519" s="15"/>
       <c r="H519" s="16"/>
@@ -22890,13 +22923,15 @@
     <row r="520">
       <c r="A520" s="9"/>
       <c r="B520" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C520" s="41" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="D520" s="28"/>
-      <c r="E520" s="13"/>
+      <c r="E520" s="20" t="s">
+        <v>928</v>
+      </c>
       <c r="F520" s="25"/>
       <c r="G520" s="15"/>
       <c r="H520" s="16"/>
@@ -22923,15 +22958,13 @@
     <row r="521">
       <c r="A521" s="9"/>
       <c r="B521" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C521" s="41" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="D521" s="28"/>
-      <c r="E521" s="20" t="s">
-        <v>913</v>
-      </c>
+      <c r="E521" s="13"/>
       <c r="F521" s="25"/>
       <c r="G521" s="15"/>
       <c r="H521" s="16"/>
@@ -22958,14 +22991,14 @@
     <row r="522">
       <c r="A522" s="9"/>
       <c r="B522" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C522" s="41" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="D522" s="28"/>
       <c r="E522" s="20" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="F522" s="25"/>
       <c r="G522" s="15"/>
@@ -22993,13 +23026,15 @@
     <row r="523">
       <c r="A523" s="9"/>
       <c r="B523" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C523" s="41" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="D523" s="28"/>
-      <c r="E523" s="13"/>
+      <c r="E523" s="20" t="s">
+        <v>933</v>
+      </c>
       <c r="F523" s="25"/>
       <c r="G523" s="15"/>
       <c r="H523" s="16"/>
@@ -23026,14 +23061,14 @@
     <row r="524">
       <c r="A524" s="9"/>
       <c r="B524" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C524" s="41" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D524" s="28"/>
       <c r="E524" s="20" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="F524" s="25"/>
       <c r="G524" s="15"/>
@@ -23061,13 +23096,15 @@
     <row r="525">
       <c r="A525" s="9"/>
       <c r="B525" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C525" s="41" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="D525" s="28"/>
-      <c r="E525" s="13"/>
+      <c r="E525" s="20" t="s">
+        <v>937</v>
+      </c>
       <c r="F525" s="25"/>
       <c r="G525" s="15"/>
       <c r="H525" s="16"/>
@@ -23094,13 +23131,15 @@
     <row r="526">
       <c r="A526" s="9"/>
       <c r="B526" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C526" s="44" t="s">
-        <v>920</v>
+        <v>456</v>
+      </c>
+      <c r="C526" s="45" t="s">
+        <v>938</v>
       </c>
       <c r="D526" s="24"/>
-      <c r="E526" s="13"/>
+      <c r="E526" s="20" t="s">
+        <v>939</v>
+      </c>
       <c r="F526" s="25"/>
       <c r="G526" s="15"/>
       <c r="H526" s="16"/>
@@ -23127,14 +23166,14 @@
     <row r="527">
       <c r="A527" s="9"/>
       <c r="B527" s="17" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C527" s="41" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="D527" s="28"/>
       <c r="E527" s="20" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="F527" s="25"/>
       <c r="G527" s="15"/>
@@ -23162,12 +23201,12 @@
     <row r="528">
       <c r="A528" s="9"/>
       <c r="B528" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C528" s="45" t="s">
-        <v>923</v>
-      </c>
-      <c r="D528" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C528" s="46" t="s">
+        <v>942</v>
+      </c>
+      <c r="D528" s="47"/>
       <c r="E528" s="13"/>
       <c r="F528" s="25"/>
       <c r="G528" s="15"/>
@@ -23195,13 +23234,15 @@
     <row r="529">
       <c r="A529" s="9"/>
       <c r="B529" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C529" s="45" t="s">
-        <v>924</v>
-      </c>
-      <c r="D529" s="46"/>
-      <c r="E529" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C529" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="D529" s="47"/>
+      <c r="E529" s="20" t="s">
+        <v>944</v>
+      </c>
       <c r="F529" s="25"/>
       <c r="G529" s="15"/>
       <c r="H529" s="16"/>
@@ -23228,15 +23269,13 @@
     <row r="530">
       <c r="A530" s="9"/>
       <c r="B530" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C530" s="45" t="s">
-        <v>925</v>
-      </c>
-      <c r="D530" s="46"/>
-      <c r="E530" s="20" t="s">
-        <v>926</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C530" s="46" t="s">
+        <v>945</v>
+      </c>
+      <c r="D530" s="47"/>
+      <c r="E530" s="13"/>
       <c r="F530" s="25"/>
       <c r="G530" s="15"/>
       <c r="H530" s="16"/>
@@ -23263,14 +23302,14 @@
     <row r="531">
       <c r="A531" s="9"/>
       <c r="B531" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C531" s="45" t="s">
-        <v>927</v>
-      </c>
-      <c r="D531" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C531" s="46" t="s">
+        <v>946</v>
+      </c>
+      <c r="D531" s="47"/>
       <c r="E531" s="20" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="F531" s="25"/>
       <c r="G531" s="15"/>
@@ -23298,14 +23337,14 @@
     <row r="532">
       <c r="A532" s="9"/>
       <c r="B532" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C532" s="45" t="s">
-        <v>929</v>
-      </c>
-      <c r="D532" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C532" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="D532" s="47"/>
       <c r="E532" s="20" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="F532" s="25"/>
       <c r="G532" s="15"/>
@@ -23333,14 +23372,14 @@
     <row r="533">
       <c r="A533" s="9"/>
       <c r="B533" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C533" s="45" t="s">
-        <v>931</v>
-      </c>
-      <c r="D533" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C533" s="46" t="s">
+        <v>950</v>
+      </c>
+      <c r="D533" s="47"/>
       <c r="E533" s="20" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="F533" s="25"/>
       <c r="G533" s="15"/>
@@ -23368,15 +23407,13 @@
     <row r="534">
       <c r="A534" s="9"/>
       <c r="B534" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C534" s="45" t="s">
-        <v>933</v>
-      </c>
-      <c r="D534" s="46"/>
-      <c r="E534" s="20" t="s">
-        <v>934</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C534" s="46" t="s">
+        <v>952</v>
+      </c>
+      <c r="D534" s="47"/>
+      <c r="E534" s="13"/>
       <c r="F534" s="25"/>
       <c r="G534" s="15"/>
       <c r="H534" s="16"/>
@@ -23403,14 +23440,14 @@
     <row r="535">
       <c r="A535" s="9"/>
       <c r="B535" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C535" s="45" t="s">
-        <v>935</v>
-      </c>
-      <c r="D535" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C535" s="46" t="s">
+        <v>953</v>
+      </c>
+      <c r="D535" s="47"/>
       <c r="E535" s="20" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="F535" s="25"/>
       <c r="G535" s="15"/>
@@ -23438,12 +23475,12 @@
     <row r="536">
       <c r="A536" s="9"/>
       <c r="B536" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C536" s="45" t="s">
-        <v>937</v>
-      </c>
-      <c r="D536" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C536" s="46" t="s">
+        <v>955</v>
+      </c>
+      <c r="D536" s="47"/>
       <c r="E536" s="13"/>
       <c r="F536" s="25"/>
       <c r="G536" s="15"/>
@@ -23471,12 +23508,12 @@
     <row r="537">
       <c r="A537" s="9"/>
       <c r="B537" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C537" s="45" t="s">
-        <v>938</v>
-      </c>
-      <c r="D537" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C537" s="46" t="s">
+        <v>956</v>
+      </c>
+      <c r="D537" s="47"/>
       <c r="E537" s="13"/>
       <c r="F537" s="25"/>
       <c r="G537" s="15"/>
@@ -23504,14 +23541,14 @@
     <row r="538">
       <c r="A538" s="9"/>
       <c r="B538" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C538" s="45" t="s">
-        <v>939</v>
-      </c>
-      <c r="D538" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C538" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="D538" s="47"/>
       <c r="E538" s="20" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="F538" s="25"/>
       <c r="G538" s="15"/>
@@ -23539,15 +23576,13 @@
     <row r="539">
       <c r="A539" s="9"/>
       <c r="B539" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C539" s="45" t="s">
-        <v>941</v>
-      </c>
-      <c r="D539" s="46"/>
-      <c r="E539" s="20" t="s">
-        <v>942</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C539" s="46" t="s">
+        <v>959</v>
+      </c>
+      <c r="D539" s="47"/>
+      <c r="E539" s="13"/>
       <c r="F539" s="25"/>
       <c r="G539" s="15"/>
       <c r="H539" s="16"/>
@@ -23574,15 +23609,13 @@
     <row r="540">
       <c r="A540" s="9"/>
       <c r="B540" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C540" s="45" t="s">
-        <v>943</v>
-      </c>
-      <c r="D540" s="46"/>
-      <c r="E540" s="20" t="s">
-        <v>944</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C540" s="46" t="s">
+        <v>960</v>
+      </c>
+      <c r="D540" s="47"/>
+      <c r="E540" s="13"/>
       <c r="F540" s="25"/>
       <c r="G540" s="15"/>
       <c r="H540" s="16"/>
@@ -23609,13 +23642,15 @@
     <row r="541">
       <c r="A541" s="9"/>
       <c r="B541" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C541" s="45" t="s">
-        <v>945</v>
-      </c>
-      <c r="D541" s="46"/>
-      <c r="E541" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C541" s="46" t="s">
+        <v>961</v>
+      </c>
+      <c r="D541" s="47"/>
+      <c r="E541" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="F541" s="25"/>
       <c r="G541" s="15"/>
       <c r="H541" s="16"/>
@@ -23642,13 +23677,15 @@
     <row r="542">
       <c r="A542" s="9"/>
       <c r="B542" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C542" s="45" t="s">
-        <v>946</v>
-      </c>
-      <c r="D542" s="46"/>
-      <c r="E542" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C542" s="46" t="s">
+        <v>963</v>
+      </c>
+      <c r="D542" s="47"/>
+      <c r="E542" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="F542" s="25"/>
       <c r="G542" s="15"/>
       <c r="H542" s="16"/>
@@ -23675,12 +23712,12 @@
     <row r="543">
       <c r="A543" s="9"/>
       <c r="B543" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C543" s="45" t="s">
-        <v>947</v>
-      </c>
-      <c r="D543" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C543" s="46" t="s">
+        <v>965</v>
+      </c>
+      <c r="D543" s="47"/>
       <c r="E543" s="13"/>
       <c r="F543" s="25"/>
       <c r="G543" s="15"/>
@@ -23708,14 +23745,14 @@
     <row r="544">
       <c r="A544" s="9"/>
       <c r="B544" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C544" s="45" t="s">
-        <v>948</v>
-      </c>
-      <c r="D544" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C544" s="46" t="s">
+        <v>966</v>
+      </c>
+      <c r="D544" s="47"/>
       <c r="E544" s="20" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="F544" s="25"/>
       <c r="G544" s="15"/>
@@ -23743,13 +23780,15 @@
     <row r="545">
       <c r="A545" s="9"/>
       <c r="B545" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C545" s="45" t="s">
-        <v>950</v>
-      </c>
-      <c r="D545" s="46"/>
-      <c r="E545" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C545" s="46" t="s">
+        <v>968</v>
+      </c>
+      <c r="D545" s="47"/>
+      <c r="E545" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="F545" s="25"/>
       <c r="G545" s="15"/>
       <c r="H545" s="16"/>
@@ -23776,12 +23815,12 @@
     <row r="546">
       <c r="A546" s="9"/>
       <c r="B546" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C546" s="45" t="s">
-        <v>951</v>
-      </c>
-      <c r="D546" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C546" s="46" t="s">
+        <v>970</v>
+      </c>
+      <c r="D546" s="47"/>
       <c r="E546" s="13"/>
       <c r="F546" s="25"/>
       <c r="G546" s="15"/>
@@ -23809,14 +23848,14 @@
     <row r="547">
       <c r="A547" s="9"/>
       <c r="B547" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C547" s="45" t="s">
-        <v>952</v>
-      </c>
-      <c r="D547" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C547" s="46" t="s">
+        <v>971</v>
+      </c>
+      <c r="D547" s="47"/>
       <c r="E547" s="20" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="F547" s="25"/>
       <c r="G547" s="15"/>
@@ -23844,15 +23883,13 @@
     <row r="548">
       <c r="A548" s="9"/>
       <c r="B548" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C548" s="45" t="s">
-        <v>954</v>
-      </c>
-      <c r="D548" s="46"/>
-      <c r="E548" s="20" t="s">
-        <v>955</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C548" s="46" t="s">
+        <v>973</v>
+      </c>
+      <c r="D548" s="47"/>
+      <c r="E548" s="13"/>
       <c r="F548" s="25"/>
       <c r="G548" s="15"/>
       <c r="H548" s="16"/>
@@ -23879,15 +23916,13 @@
     <row r="549">
       <c r="A549" s="9"/>
       <c r="B549" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C549" s="45" t="s">
-        <v>956</v>
-      </c>
-      <c r="D549" s="46"/>
-      <c r="E549" s="20" t="s">
-        <v>957</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C549" s="46" t="s">
+        <v>974</v>
+      </c>
+      <c r="D549" s="47"/>
+      <c r="E549" s="13"/>
       <c r="F549" s="25"/>
       <c r="G549" s="15"/>
       <c r="H549" s="16"/>
@@ -23914,13 +23949,15 @@
     <row r="550">
       <c r="A550" s="9"/>
       <c r="B550" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C550" s="45" t="s">
-        <v>958</v>
-      </c>
-      <c r="D550" s="46"/>
-      <c r="E550" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C550" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="D550" s="47"/>
+      <c r="E550" s="20" t="s">
+        <v>976</v>
+      </c>
       <c r="F550" s="25"/>
       <c r="G550" s="15"/>
       <c r="H550" s="16"/>
@@ -23947,15 +23984,13 @@
     <row r="551">
       <c r="A551" s="9"/>
       <c r="B551" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C551" s="47" t="s">
-        <v>959</v>
-      </c>
-      <c r="D551" s="46"/>
-      <c r="E551" s="20" t="s">
-        <v>960</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C551" s="46" t="s">
+        <v>977</v>
+      </c>
+      <c r="D551" s="47"/>
+      <c r="E551" s="13"/>
       <c r="F551" s="25"/>
       <c r="G551" s="15"/>
       <c r="H551" s="16"/>
@@ -23982,12 +24017,12 @@
     <row r="552">
       <c r="A552" s="9"/>
       <c r="B552" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C552" s="45" t="s">
-        <v>961</v>
-      </c>
-      <c r="D552" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C552" s="46" t="s">
+        <v>978</v>
+      </c>
+      <c r="D552" s="47"/>
       <c r="E552" s="13"/>
       <c r="F552" s="25"/>
       <c r="G552" s="15"/>
@@ -24015,13 +24050,15 @@
     <row r="553">
       <c r="A553" s="9"/>
       <c r="B553" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C553" s="45" t="s">
-        <v>962</v>
-      </c>
-      <c r="D553" s="46"/>
-      <c r="E553" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C553" s="46" t="s">
+        <v>979</v>
+      </c>
+      <c r="D553" s="47"/>
+      <c r="E553" s="20" t="s">
+        <v>980</v>
+      </c>
       <c r="F553" s="25"/>
       <c r="G553" s="15"/>
       <c r="H553" s="16"/>
@@ -24048,13 +24085,15 @@
     <row r="554">
       <c r="A554" s="9"/>
       <c r="B554" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C554" s="45" t="s">
-        <v>963</v>
-      </c>
-      <c r="D554" s="46"/>
-      <c r="E554" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C554" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="D554" s="47"/>
+      <c r="E554" s="20" t="s">
+        <v>982</v>
+      </c>
       <c r="F554" s="25"/>
       <c r="G554" s="15"/>
       <c r="H554" s="16"/>
@@ -24081,14 +24120,14 @@
     <row r="555">
       <c r="A555" s="9"/>
       <c r="B555" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C555" s="45" t="s">
-        <v>964</v>
-      </c>
-      <c r="D555" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C555" s="46" t="s">
+        <v>983</v>
+      </c>
+      <c r="D555" s="47"/>
       <c r="E555" s="20" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="F555" s="25"/>
       <c r="G555" s="15"/>
@@ -24116,13 +24155,15 @@
     <row r="556">
       <c r="A556" s="9"/>
       <c r="B556" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C556" s="45" t="s">
-        <v>966</v>
-      </c>
-      <c r="D556" s="46"/>
-      <c r="E556" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C556" s="46" t="s">
+        <v>985</v>
+      </c>
+      <c r="D556" s="47"/>
+      <c r="E556" s="20" t="s">
+        <v>986</v>
+      </c>
       <c r="F556" s="25"/>
       <c r="G556" s="15"/>
       <c r="H556" s="16"/>
@@ -24149,14 +24190,14 @@
     <row r="557">
       <c r="A557" s="9"/>
       <c r="B557" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C557" s="45" t="s">
-        <v>967</v>
-      </c>
-      <c r="D557" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C557" s="46" t="s">
+        <v>987</v>
+      </c>
+      <c r="D557" s="47"/>
       <c r="E557" s="20" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="F557" s="25"/>
       <c r="G557" s="15"/>
@@ -24184,14 +24225,14 @@
     <row r="558">
       <c r="A558" s="9"/>
       <c r="B558" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C558" s="45" t="s">
-        <v>969</v>
-      </c>
-      <c r="D558" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C558" s="46" t="s">
+        <v>989</v>
+      </c>
+      <c r="D558" s="47"/>
       <c r="E558" s="20" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="F558" s="25"/>
       <c r="G558" s="15"/>
@@ -24219,12 +24260,12 @@
     <row r="559">
       <c r="A559" s="9"/>
       <c r="B559" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C559" s="45" t="s">
-        <v>971</v>
-      </c>
-      <c r="D559" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C559" s="46" t="s">
+        <v>991</v>
+      </c>
+      <c r="D559" s="47"/>
       <c r="E559" s="13"/>
       <c r="F559" s="25"/>
       <c r="G559" s="15"/>
@@ -24252,12 +24293,12 @@
     <row r="560">
       <c r="A560" s="9"/>
       <c r="B560" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C560" s="45" t="s">
-        <v>972</v>
-      </c>
-      <c r="D560" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C560" s="46" t="s">
+        <v>992</v>
+      </c>
+      <c r="D560" s="47"/>
       <c r="E560" s="13"/>
       <c r="F560" s="25"/>
       <c r="G560" s="15"/>
@@ -24285,14 +24326,14 @@
     <row r="561">
       <c r="A561" s="9"/>
       <c r="B561" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C561" s="45" t="s">
-        <v>973</v>
-      </c>
-      <c r="D561" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C561" s="46" t="s">
+        <v>993</v>
+      </c>
+      <c r="D561" s="47"/>
       <c r="E561" s="20" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
       <c r="F561" s="25"/>
       <c r="G561" s="15"/>
@@ -24320,14 +24361,14 @@
     <row r="562">
       <c r="A562" s="9"/>
       <c r="B562" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C562" s="45" t="s">
-        <v>975</v>
-      </c>
-      <c r="D562" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C562" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="D562" s="47"/>
       <c r="E562" s="20" t="s">
-        <v>847</v>
+        <v>996</v>
       </c>
       <c r="F562" s="25"/>
       <c r="G562" s="15"/>
@@ -24355,13 +24396,15 @@
     <row r="563">
       <c r="A563" s="9"/>
       <c r="B563" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C563" s="45" t="s">
-        <v>976</v>
-      </c>
-      <c r="D563" s="46"/>
-      <c r="E563" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="C563" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="D563" s="47"/>
+      <c r="E563" s="20" t="s">
+        <v>998</v>
+      </c>
       <c r="F563" s="25"/>
       <c r="G563" s="15"/>
       <c r="H563" s="16"/>
@@ -24388,12 +24431,12 @@
     <row r="564">
       <c r="A564" s="9"/>
       <c r="B564" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C564" s="45" t="s">
-        <v>977</v>
-      </c>
-      <c r="D564" s="46"/>
+        <v>456</v>
+      </c>
+      <c r="C564" s="46" t="s">
+        <v>999</v>
+      </c>
+      <c r="D564" s="47"/>
       <c r="E564" s="13"/>
       <c r="F564" s="25"/>
       <c r="G564" s="15"/>
@@ -24421,15 +24464,13 @@
     <row r="565">
       <c r="A565" s="9"/>
       <c r="B565" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C565" s="45" t="s">
-        <v>978</v>
-      </c>
-      <c r="D565" s="46"/>
-      <c r="E565" s="20" t="s">
-        <v>979</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C565" s="46" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D565" s="47"/>
+      <c r="E565" s="13"/>
       <c r="F565" s="25"/>
       <c r="G565" s="15"/>
       <c r="H565" s="16"/>
@@ -24455,21 +24496,15 @@
     </row>
     <row r="566">
       <c r="A566" s="9"/>
-      <c r="B566" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="C566" s="48" t="s">
-        <v>980</v>
-      </c>
-      <c r="D566" s="49" t="s">
-        <v>981</v>
-      </c>
-      <c r="E566" s="37" t="s">
-        <v>982</v>
-      </c>
-      <c r="F566" s="38" t="s">
-        <v>983</v>
-      </c>
+      <c r="B566" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C566" s="46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D566" s="47"/>
+      <c r="E566" s="13"/>
+      <c r="F566" s="25"/>
       <c r="G566" s="15"/>
       <c r="H566" s="16"/>
       <c r="I566" s="16"/>
@@ -24495,19 +24530,17 @@
     <row r="567">
       <c r="A567" s="9"/>
       <c r="B567" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="C567" s="45" t="s">
-        <v>985</v>
-      </c>
-      <c r="D567" s="50" t="s">
-        <v>986</v>
-      </c>
-      <c r="E567" s="36"/>
+        <v>456</v>
+      </c>
+      <c r="C567" s="46" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D567" s="47"/>
+      <c r="E567" s="20" t="s">
+        <v>1003</v>
+      </c>
       <c r="F567" s="25"/>
-      <c r="G567" s="51" t="s">
-        <v>987</v>
-      </c>
+      <c r="G567" s="15"/>
       <c r="H567" s="16"/>
       <c r="I567" s="16"/>
       <c r="J567" s="16"/>
@@ -24532,18 +24565,14 @@
     <row r="568">
       <c r="A568" s="9"/>
       <c r="B568" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="C568" s="45" t="s">
-        <v>988</v>
-      </c>
-      <c r="D568" s="50" t="s">
-        <v>989</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C568" s="46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D568" s="47"/>
       <c r="E568" s="13"/>
-      <c r="F568" s="25" t="s">
-        <v>990</v>
-      </c>
+      <c r="F568" s="25"/>
       <c r="G568" s="15"/>
       <c r="H568" s="16"/>
       <c r="I568" s="16"/>
@@ -24569,16 +24598,14 @@
     <row r="569">
       <c r="A569" s="9"/>
       <c r="B569" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="C569" s="48" t="s">
-        <v>991</v>
-      </c>
-      <c r="D569" s="49" t="s">
-        <v>992</v>
-      </c>
-      <c r="E569" s="36"/>
-      <c r="F569" s="14"/>
+        <v>456</v>
+      </c>
+      <c r="C569" s="46" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D569" s="47"/>
+      <c r="E569" s="13"/>
+      <c r="F569" s="25"/>
       <c r="G569" s="15"/>
       <c r="H569" s="16"/>
       <c r="I569" s="16"/>
@@ -24603,17 +24630,17 @@
     </row>
     <row r="570">
       <c r="A570" s="9"/>
-      <c r="B570" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="C570" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="D570" s="49" t="s">
-        <v>993</v>
-      </c>
-      <c r="E570" s="36"/>
-      <c r="F570" s="14"/>
+      <c r="B570" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C570" s="46" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D570" s="47"/>
+      <c r="E570" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F570" s="25"/>
       <c r="G570" s="15"/>
       <c r="H570" s="16"/>
       <c r="I570" s="16"/>
@@ -24638,17 +24665,17 @@
     </row>
     <row r="571">
       <c r="A571" s="9"/>
-      <c r="B571" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="C571" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="D571" s="49" t="s">
-        <v>994</v>
-      </c>
-      <c r="E571" s="36"/>
-      <c r="F571" s="14"/>
+      <c r="B571" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C571" s="46" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D571" s="47"/>
+      <c r="E571" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F571" s="25"/>
       <c r="G571" s="15"/>
       <c r="H571" s="16"/>
       <c r="I571" s="16"/>
@@ -24673,17 +24700,17 @@
     </row>
     <row r="572">
       <c r="A572" s="9"/>
-      <c r="B572" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C572" s="52" t="s">
-        <v>995</v>
-      </c>
-      <c r="D572" s="49" t="s">
-        <v>996</v>
-      </c>
-      <c r="E572" s="36"/>
-      <c r="F572" s="14"/>
+      <c r="B572" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C572" s="46" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D572" s="47"/>
+      <c r="E572" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F572" s="25"/>
       <c r="G572" s="15"/>
       <c r="H572" s="16"/>
       <c r="I572" s="16"/>
@@ -24708,19 +24735,15 @@
     </row>
     <row r="573">
       <c r="A573" s="9"/>
-      <c r="B573" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C573" s="52" t="s">
-        <v>997</v>
-      </c>
-      <c r="D573" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="E573" s="37" t="s">
-        <v>999</v>
-      </c>
-      <c r="F573" s="14"/>
+      <c r="B573" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C573" s="46" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D573" s="47"/>
+      <c r="E573" s="13"/>
+      <c r="F573" s="25"/>
       <c r="G573" s="15"/>
       <c r="H573" s="16"/>
       <c r="I573" s="16"/>
@@ -24745,19 +24768,17 @@
     </row>
     <row r="574">
       <c r="A574" s="9"/>
-      <c r="B574" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C574" s="52" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D574" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E574" s="37" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F574" s="14"/>
+      <c r="B574" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C574" s="48" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D574" s="47"/>
+      <c r="E574" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F574" s="25"/>
       <c r="G574" s="15"/>
       <c r="H574" s="16"/>
       <c r="I574" s="16"/>
@@ -24782,19 +24803,15 @@
     </row>
     <row r="575">
       <c r="A575" s="9"/>
-      <c r="B575" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C575" s="53" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D575" s="49" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E575" s="37" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F575" s="14"/>
+      <c r="B575" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C575" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D575" s="47"/>
+      <c r="E575" s="13"/>
+      <c r="F575" s="25"/>
       <c r="G575" s="15"/>
       <c r="H575" s="16"/>
       <c r="I575" s="16"/>
@@ -24819,17 +24836,15 @@
     </row>
     <row r="576">
       <c r="A576" s="9"/>
-      <c r="B576" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C576" s="52" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D576" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E576" s="36"/>
-      <c r="F576" s="14"/>
+      <c r="B576" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C576" s="46" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D576" s="47"/>
+      <c r="E576" s="13"/>
+      <c r="F576" s="25"/>
       <c r="G576" s="15"/>
       <c r="H576" s="16"/>
       <c r="I576" s="16"/>
@@ -24854,17 +24869,15 @@
     </row>
     <row r="577">
       <c r="A577" s="9"/>
-      <c r="B577" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C577" s="52" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D577" s="49" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E577" s="36"/>
-      <c r="F577" s="14"/>
+      <c r="B577" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C577" s="46" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D577" s="47"/>
+      <c r="E577" s="13"/>
+      <c r="F577" s="25"/>
       <c r="G577" s="15"/>
       <c r="H577" s="16"/>
       <c r="I577" s="16"/>
@@ -24889,17 +24902,17 @@
     </row>
     <row r="578">
       <c r="A578" s="9"/>
-      <c r="B578" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C578" s="52" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D578" s="49" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E578" s="36"/>
-      <c r="F578" s="14"/>
+      <c r="B578" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C578" s="46" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D578" s="47"/>
+      <c r="E578" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F578" s="25"/>
       <c r="G578" s="15"/>
       <c r="H578" s="16"/>
       <c r="I578" s="16"/>
@@ -24924,19 +24937,15 @@
     </row>
     <row r="579">
       <c r="A579" s="9"/>
-      <c r="B579" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C579" s="53" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D579" s="49" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E579" s="37" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F579" s="14"/>
+      <c r="B579" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C579" s="46" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D579" s="47"/>
+      <c r="E579" s="13"/>
+      <c r="F579" s="25"/>
       <c r="G579" s="15"/>
       <c r="H579" s="16"/>
       <c r="I579" s="16"/>
@@ -24961,19 +24970,17 @@
     </row>
     <row r="580">
       <c r="A580" s="9"/>
-      <c r="B580" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C580" s="53" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D580" s="49" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E580" s="37" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F580" s="14"/>
+      <c r="B580" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C580" s="46" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D580" s="47"/>
+      <c r="E580" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F580" s="25"/>
       <c r="G580" s="15"/>
       <c r="H580" s="16"/>
       <c r="I580" s="16"/>
@@ -24998,19 +25005,17 @@
     </row>
     <row r="581">
       <c r="A581" s="9"/>
-      <c r="B581" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C581" s="53" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D581" s="49" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E581" s="37" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F581" s="14"/>
+      <c r="B581" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C581" s="46" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D581" s="47"/>
+      <c r="E581" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F581" s="25"/>
       <c r="G581" s="15"/>
       <c r="H581" s="16"/>
       <c r="I581" s="16"/>
@@ -25035,17 +25040,15 @@
     </row>
     <row r="582">
       <c r="A582" s="9"/>
-      <c r="B582" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C582" s="53" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D582" s="49" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E582" s="36"/>
-      <c r="F582" s="14"/>
+      <c r="B582" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C582" s="46" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D582" s="47"/>
+      <c r="E582" s="13"/>
+      <c r="F582" s="25"/>
       <c r="G582" s="15"/>
       <c r="H582" s="16"/>
       <c r="I582" s="16"/>
@@ -25070,19 +25073,15 @@
     </row>
     <row r="583">
       <c r="A583" s="9"/>
-      <c r="B583" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C583" s="53" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D583" s="49" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E583" s="37" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F583" s="14"/>
+      <c r="B583" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C583" s="46" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D583" s="47"/>
+      <c r="E583" s="13"/>
+      <c r="F583" s="25"/>
       <c r="G583" s="15"/>
       <c r="H583" s="16"/>
       <c r="I583" s="16"/>
@@ -25107,19 +25106,17 @@
     </row>
     <row r="584">
       <c r="A584" s="9"/>
-      <c r="B584" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C584" s="53" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D584" s="49" t="s">
+      <c r="B584" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C584" s="46" t="s">
         <v>1027</v>
       </c>
-      <c r="E584" s="37" t="s">
+      <c r="D584" s="47"/>
+      <c r="E584" s="20" t="s">
         <v>1028</v>
       </c>
-      <c r="F584" s="14"/>
+      <c r="F584" s="25"/>
       <c r="G584" s="15"/>
       <c r="H584" s="16"/>
       <c r="I584" s="16"/>
@@ -25144,19 +25141,17 @@
     </row>
     <row r="585">
       <c r="A585" s="9"/>
-      <c r="B585" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C585" s="53" t="s">
+      <c r="B585" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C585" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="D585" s="49" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E585" s="37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F585" s="14"/>
+      <c r="D585" s="47"/>
+      <c r="E585" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="F585" s="25"/>
       <c r="G585" s="15"/>
       <c r="H585" s="16"/>
       <c r="I585" s="16"/>
@@ -25181,17 +25176,15 @@
     </row>
     <row r="586">
       <c r="A586" s="9"/>
-      <c r="B586" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C586" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D586" s="49" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E586" s="36"/>
-      <c r="F586" s="14"/>
+      <c r="B586" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C586" s="46" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D586" s="47"/>
+      <c r="E586" s="13"/>
+      <c r="F586" s="25"/>
       <c r="G586" s="15"/>
       <c r="H586" s="16"/>
       <c r="I586" s="16"/>
@@ -25216,17 +25209,15 @@
     </row>
     <row r="587">
       <c r="A587" s="9"/>
-      <c r="B587" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="C587" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D587" s="49" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E587" s="36"/>
-      <c r="F587" s="14"/>
+      <c r="B587" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C587" s="46" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D587" s="47"/>
+      <c r="E587" s="13"/>
+      <c r="F587" s="25"/>
       <c r="G587" s="15"/>
       <c r="H587" s="16"/>
       <c r="I587" s="16"/>
@@ -25251,17 +25242,17 @@
     </row>
     <row r="588">
       <c r="A588" s="9"/>
-      <c r="B588" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C588" s="52" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D588" s="49" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E588" s="36"/>
-      <c r="F588" s="14"/>
+      <c r="B588" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C588" s="46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D588" s="47"/>
+      <c r="E588" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F588" s="25"/>
       <c r="G588" s="15"/>
       <c r="H588" s="16"/>
       <c r="I588" s="16"/>
@@ -25287,16 +25278,20 @@
     <row r="589">
       <c r="A589" s="9"/>
       <c r="B589" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C589" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C589" s="49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D589" s="50" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E589" s="37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F589" s="38" t="s">
         <v>1037</v>
       </c>
-      <c r="D589" s="49" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E589" s="36"/>
-      <c r="F589" s="14"/>
       <c r="G589" s="15"/>
       <c r="H589" s="16"/>
       <c r="I589" s="16"/>
@@ -25321,18 +25316,20 @@
     </row>
     <row r="590">
       <c r="A590" s="9"/>
-      <c r="B590" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C590" s="52" t="s">
+      <c r="B590" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C590" s="46" t="s">
         <v>1039</v>
       </c>
-      <c r="D590" s="49" t="s">
+      <c r="D590" s="51" t="s">
         <v>1040</v>
       </c>
       <c r="E590" s="36"/>
-      <c r="F590" s="14"/>
-      <c r="G590" s="15"/>
+      <c r="F590" s="25"/>
+      <c r="G590" s="52" t="s">
+        <v>1041</v>
+      </c>
       <c r="H590" s="16"/>
       <c r="I590" s="16"/>
       <c r="J590" s="16"/>
@@ -25356,17 +25353,19 @@
     </row>
     <row r="591">
       <c r="A591" s="9"/>
-      <c r="B591" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="C591" s="53" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D591" s="49" t="s">
+      <c r="B591" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C591" s="46" t="s">
         <v>1042</v>
       </c>
-      <c r="E591" s="36"/>
-      <c r="F591" s="14"/>
+      <c r="D591" s="51" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E591" s="13"/>
+      <c r="F591" s="25" t="s">
+        <v>1044</v>
+      </c>
       <c r="G591" s="15"/>
       <c r="H591" s="16"/>
       <c r="I591" s="16"/>
@@ -25391,19 +25390,17 @@
     </row>
     <row r="592">
       <c r="A592" s="9"/>
-      <c r="B592" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="C592" s="53" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D592" s="49" t="s">
-        <v>1044</v>
+      <c r="B592" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C592" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D592" s="50" t="s">
+        <v>1046</v>
       </c>
       <c r="E592" s="36"/>
-      <c r="F592" s="38" t="s">
-        <v>1045</v>
-      </c>
+      <c r="F592" s="14"/>
       <c r="G592" s="15"/>
       <c r="H592" s="16"/>
       <c r="I592" s="16"/>
@@ -25429,12 +25426,12 @@
     <row r="593">
       <c r="A593" s="9"/>
       <c r="B593" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C593" s="52" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D593" s="49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C593" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D593" s="50" t="s">
         <v>1047</v>
       </c>
       <c r="E593" s="36"/>
@@ -25464,13 +25461,13 @@
     <row r="594">
       <c r="A594" s="9"/>
       <c r="B594" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C594" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C594" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="D594" s="50" t="s">
         <v>1048</v>
-      </c>
-      <c r="D594" s="49" t="s">
-        <v>1049</v>
       </c>
       <c r="E594" s="36"/>
       <c r="F594" s="14"/>
@@ -25499,13 +25496,13 @@
     <row r="595">
       <c r="A595" s="9"/>
       <c r="B595" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C595" s="52" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D595" s="49" t="s">
-        <v>1050</v>
+        <v>1038</v>
+      </c>
+      <c r="C595" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="D595" s="50" t="s">
+        <v>1049</v>
       </c>
       <c r="E595" s="36"/>
       <c r="F595" s="14"/>
@@ -25534,13 +25531,13 @@
     <row r="596">
       <c r="A596" s="9"/>
       <c r="B596" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C596" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C596" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D596" s="50" t="s">
         <v>1051</v>
-      </c>
-      <c r="D596" s="49" t="s">
-        <v>1052</v>
       </c>
       <c r="E596" s="36"/>
       <c r="F596" s="14"/>
@@ -25569,16 +25566,18 @@
     <row r="597">
       <c r="A597" s="9"/>
       <c r="B597" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C597" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C597" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D597" s="50" t="s">
         <v>1053</v>
       </c>
-      <c r="D597" s="49" t="s">
+      <c r="E597" s="36"/>
+      <c r="F597" s="38" t="s">
         <v>1054</v>
       </c>
-      <c r="E597" s="36"/>
-      <c r="F597" s="14"/>
       <c r="G597" s="15"/>
       <c r="H597" s="16"/>
       <c r="I597" s="16"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1069">
   <si>
     <t>Number</t>
   </si>
@@ -394,6 +394,89 @@
   </si>
   <si>
     <t>also (adv.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">as well; too:
+e.g. He plays several instruments and also writes music."
+You use </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>also</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve"> in writing, but you usually use </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>too</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>as well</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve"> in spoken English.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>also</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve"> usually goes before a main verb of after 'is', 'are', 'were', etc.
+He also enjoys reading.
+He has also been to Australia.</t>
+    </r>
   </si>
   <si>
     <t>همچنین</t>
@@ -4345,6 +4428,281 @@
   </si>
   <si>
     <t>این یک تجارت وحشتناک بود.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>along (prep.)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> (FROM ONE END TO ANOTHER) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">from one part of a road, river, etc. to another:
+a romantic walk along the beach/river
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B1:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+in a line next to something long:
+a row of houses along the river
+Cars were parked all along the road.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">B2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>at a particular place on a road, river, etc.:
+Somewhere along this road there's a garage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>along (prep.)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> (NEXT TO) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">in a line next to something long:
+a row of houses along the river
+Cars were parked all along the road.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+from one part of a road, river, etc. to another:
+a romantic walk along the beach/river
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+at a particular place on a road, river, etc.:
+Somewhere along this road there's a garage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>along (prep.)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> (AT A PARTICULAR PLACE) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">at a particular place on a road, river, etc.:
+Somewhere along this road there's a garage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+from one part of a road, river, etc. to another:
+a romantic walk along the beach/river
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>B1:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+in a line next to something long:
+a row of houses along the river
+Cars were parked all along the road.</t>
+    </r>
+  </si>
+  <si>
+    <t>along (adv.)</t>
+  </si>
+  <si>
+    <t>moving forward:
+We were just walking along, chatting.</t>
+  </si>
+  <si>
+    <t>alphabet (n.)</t>
+  </si>
+  <si>
+    <t>all the letters of a language:
+e.g. The English alphabet starts eith A and ends with Z.</t>
+  </si>
+  <si>
+    <t>although (conj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>despite the fact that:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+She walked home by herself, although she knew that it was dangerous.
+He decided to go, although I begged him not to.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>but:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+He's rather shy, although he's not as bad as he used to be.
+She'll be coming tonight, although I don't know exactly when.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6288,9 +6646,11 @@
       <c r="C38" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="E38" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="15"/>
@@ -6321,11 +6681,11 @@
         <v>37</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="15"/>
@@ -6356,11 +6716,11 @@
         <v>37</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="15"/>
@@ -6391,11 +6751,11 @@
         <v>37</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="15"/>
@@ -6426,11 +6786,11 @@
         <v>37</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="15"/>
@@ -6461,11 +6821,11 @@
         <v>37</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="15"/>
@@ -6496,11 +6856,11 @@
         <v>37</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="15"/>
@@ -6531,11 +6891,11 @@
         <v>37</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="15"/>
@@ -6566,11 +6926,11 @@
         <v>37</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="15"/>
@@ -6601,11 +6961,11 @@
         <v>37</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="15"/>
@@ -6636,11 +6996,11 @@
         <v>37</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="15"/>
@@ -6671,11 +7031,11 @@
         <v>37</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="15"/>
@@ -6706,11 +7066,11 @@
         <v>37</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="15"/>
@@ -6741,11 +7101,11 @@
         <v>37</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="15"/>
@@ -6776,11 +7136,11 @@
         <v>37</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="15"/>
@@ -6811,11 +7171,11 @@
         <v>37</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="15"/>
@@ -6846,11 +7206,11 @@
         <v>37</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="15"/>
@@ -6881,11 +7241,11 @@
         <v>37</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="15"/>
@@ -6916,11 +7276,11 @@
         <v>37</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="15"/>
@@ -6951,11 +7311,11 @@
         <v>37</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="15"/>
@@ -6986,11 +7346,11 @@
         <v>37</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="15"/>
@@ -7021,11 +7381,11 @@
         <v>37</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="15"/>
@@ -7056,11 +7416,11 @@
         <v>37</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="15"/>
@@ -7091,11 +7451,11 @@
         <v>37</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="15"/>
@@ -7126,10 +7486,10 @@
         <v>37</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="25"/>
@@ -7161,11 +7521,11 @@
         <v>37</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="15"/>
@@ -7196,11 +7556,11 @@
         <v>37</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="15"/>
@@ -7231,11 +7591,11 @@
         <v>37</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="15"/>
@@ -7266,11 +7626,11 @@
         <v>37</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="15"/>
@@ -7301,11 +7661,11 @@
         <v>37</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="15"/>
@@ -7336,13 +7696,13 @@
         <v>37</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="15"/>
@@ -7373,10 +7733,10 @@
         <v>37</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="25"/>
@@ -7408,13 +7768,13 @@
         <v>37</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="15"/>
@@ -7445,10 +7805,10 @@
         <v>37</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="25"/>
@@ -7480,13 +7840,13 @@
         <v>37</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="15"/>
@@ -7517,13 +7877,13 @@
         <v>37</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="15"/>
@@ -7554,13 +7914,13 @@
         <v>37</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="15"/>
@@ -7591,11 +7951,11 @@
         <v>37</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="15"/>
@@ -7626,11 +7986,11 @@
         <v>37</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="15"/>
@@ -7661,11 +8021,11 @@
         <v>37</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="15"/>
@@ -7696,11 +8056,11 @@
         <v>37</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="15"/>
@@ -7731,13 +8091,13 @@
         <v>37</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F79" s="25"/>
       <c r="G79" s="15"/>
@@ -7768,11 +8128,11 @@
         <v>37</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="15"/>
@@ -7803,11 +8163,11 @@
         <v>37</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F81" s="25"/>
       <c r="G81" s="15"/>
@@ -7838,11 +8198,11 @@
         <v>37</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F82" s="25"/>
       <c r="G82" s="15"/>
@@ -7873,11 +8233,11 @@
         <v>37</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="25"/>
       <c r="G83" s="15"/>
@@ -7908,11 +8268,11 @@
         <v>37</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="15"/>
@@ -7943,11 +8303,11 @@
         <v>37</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="15"/>
@@ -7978,11 +8338,11 @@
         <v>37</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="15"/>
@@ -8013,11 +8373,11 @@
         <v>37</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F87" s="25"/>
       <c r="G87" s="15"/>
@@ -8048,11 +8408,11 @@
         <v>37</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D88" s="28"/>
       <c r="E88" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F88" s="25"/>
       <c r="G88" s="15"/>
@@ -8083,11 +8443,11 @@
         <v>37</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="15"/>
@@ -8118,11 +8478,11 @@
         <v>37</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="15"/>
@@ -8153,11 +8513,11 @@
         <v>37</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="15"/>
@@ -8188,11 +8548,11 @@
         <v>37</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="15"/>
@@ -8223,11 +8583,11 @@
         <v>37</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="15"/>
@@ -8258,11 +8618,11 @@
         <v>37</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="15"/>
@@ -8293,11 +8653,11 @@
         <v>37</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="15"/>
@@ -8328,11 +8688,11 @@
         <v>37</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="15"/>
@@ -8363,11 +8723,11 @@
         <v>37</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F97" s="25"/>
       <c r="G97" s="15"/>
@@ -8398,11 +8758,11 @@
         <v>37</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F98" s="25"/>
       <c r="G98" s="15"/>
@@ -8433,11 +8793,11 @@
         <v>37</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F99" s="25"/>
       <c r="G99" s="15"/>
@@ -8468,11 +8828,11 @@
         <v>37</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100" s="28"/>
       <c r="E100" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F100" s="25"/>
       <c r="G100" s="15"/>
@@ -8503,11 +8863,11 @@
         <v>37</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D101" s="28"/>
       <c r="E101" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="15"/>
@@ -8538,11 +8898,11 @@
         <v>37</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="15"/>
@@ -8573,11 +8933,11 @@
         <v>37</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" s="28"/>
       <c r="E103" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="15"/>
@@ -8608,11 +8968,11 @@
         <v>37</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D104" s="28"/>
       <c r="E104" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="15"/>
@@ -8643,11 +9003,11 @@
         <v>37</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D105" s="28"/>
       <c r="E105" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="15"/>
@@ -8678,11 +9038,11 @@
         <v>37</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F106" s="25"/>
       <c r="G106" s="15"/>
@@ -8713,11 +9073,11 @@
         <v>37</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F107" s="25"/>
       <c r="G107" s="15"/>
@@ -8748,11 +9108,11 @@
         <v>37</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F108" s="25"/>
       <c r="G108" s="15"/>
@@ -8783,11 +9143,11 @@
         <v>37</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="15"/>
@@ -8818,11 +9178,11 @@
         <v>37</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F110" s="25"/>
       <c r="G110" s="15"/>
@@ -8853,11 +9213,11 @@
         <v>37</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F111" s="25"/>
       <c r="G111" s="15"/>
@@ -8888,11 +9248,11 @@
         <v>37</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F112" s="25"/>
       <c r="G112" s="15"/>
@@ -8923,11 +9283,11 @@
         <v>37</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F113" s="25"/>
       <c r="G113" s="15"/>
@@ -8958,11 +9318,11 @@
         <v>37</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F114" s="25"/>
       <c r="G114" s="15"/>
@@ -8993,11 +9353,11 @@
         <v>37</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F115" s="25"/>
       <c r="G115" s="15"/>
@@ -9028,11 +9388,11 @@
         <v>37</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F116" s="25"/>
       <c r="G116" s="15"/>
@@ -9063,11 +9423,11 @@
         <v>37</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F117" s="25"/>
       <c r="G117" s="15"/>
@@ -9098,11 +9458,11 @@
         <v>37</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F118" s="25"/>
       <c r="G118" s="15"/>
@@ -9133,11 +9493,11 @@
         <v>37</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F119" s="25"/>
       <c r="G119" s="15"/>
@@ -9168,11 +9528,11 @@
         <v>37</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F120" s="25"/>
       <c r="G120" s="15"/>
@@ -9203,11 +9563,11 @@
         <v>37</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F121" s="25"/>
       <c r="G121" s="15"/>
@@ -9238,11 +9598,11 @@
         <v>37</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F122" s="25"/>
       <c r="G122" s="15"/>
@@ -9273,11 +9633,11 @@
         <v>37</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F123" s="25"/>
       <c r="G123" s="15"/>
@@ -9308,11 +9668,11 @@
         <v>37</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F124" s="25"/>
       <c r="G124" s="15"/>
@@ -9343,11 +9703,11 @@
         <v>37</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F125" s="25"/>
       <c r="G125" s="15"/>
@@ -9378,11 +9738,11 @@
         <v>37</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F126" s="25"/>
       <c r="G126" s="15"/>
@@ -9413,11 +9773,11 @@
         <v>37</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="15"/>
@@ -9448,11 +9808,11 @@
         <v>37</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F128" s="25"/>
       <c r="G128" s="15"/>
@@ -9483,11 +9843,11 @@
         <v>37</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F129" s="25"/>
       <c r="G129" s="15"/>
@@ -9518,11 +9878,11 @@
         <v>37</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F130" s="25"/>
       <c r="G130" s="15"/>
@@ -9553,11 +9913,11 @@
         <v>37</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F131" s="25"/>
       <c r="G131" s="15"/>
@@ -9588,11 +9948,11 @@
         <v>37</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F132" s="25"/>
       <c r="G132" s="15"/>
@@ -9623,11 +9983,11 @@
         <v>37</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F133" s="25"/>
       <c r="G133" s="15"/>
@@ -9658,11 +10018,11 @@
         <v>37</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F134" s="25"/>
       <c r="G134" s="15"/>
@@ -9693,10 +10053,10 @@
         <v>37</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="25"/>
@@ -9728,10 +10088,10 @@
         <v>37</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E136" s="36"/>
       <c r="F136" s="14"/>
@@ -9766,7 +10126,7 @@
         <v>62</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E137" s="36"/>
       <c r="F137" s="14"/>
@@ -9798,10 +10158,10 @@
         <v>37</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E138" s="36"/>
       <c r="F138" s="14"/>
@@ -9833,10 +10193,10 @@
         <v>37</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E139" s="36"/>
       <c r="F139" s="14"/>
@@ -9868,10 +10228,10 @@
         <v>37</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E140" s="36"/>
       <c r="F140" s="14"/>
@@ -9900,16 +10260,16 @@
     <row r="141">
       <c r="A141" s="9"/>
       <c r="B141" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F141" s="25"/>
       <c r="G141" s="15"/>
@@ -9937,16 +10297,16 @@
     <row r="142">
       <c r="A142" s="9"/>
       <c r="B142" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F142" s="25"/>
       <c r="G142" s="15"/>
@@ -9974,16 +10334,16 @@
     <row r="143">
       <c r="A143" s="9"/>
       <c r="B143" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F143" s="25"/>
       <c r="G143" s="15"/>
@@ -10011,19 +10371,19 @@
     <row r="144">
       <c r="A144" s="9"/>
       <c r="B144" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G144" s="15"/>
       <c r="H144" s="16"/>
@@ -10050,16 +10410,16 @@
     <row r="145">
       <c r="A145" s="9"/>
       <c r="B145" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F145" s="25"/>
       <c r="G145" s="15"/>
@@ -10087,13 +10447,13 @@
     <row r="146">
       <c r="A146" s="9"/>
       <c r="B146" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="14"/>
@@ -10122,16 +10482,16 @@
     <row r="147">
       <c r="A147" s="9"/>
       <c r="B147" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="15"/>
@@ -10159,19 +10519,19 @@
     <row r="148">
       <c r="A148" s="9"/>
       <c r="B148" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E148" s="37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G148" s="15"/>
       <c r="H148" s="16"/>
@@ -10198,13 +10558,13 @@
     <row r="149">
       <c r="A149" s="9"/>
       <c r="B149" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="14"/>
@@ -10233,13 +10593,13 @@
     <row r="150">
       <c r="A150" s="9"/>
       <c r="B150" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C150" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="14"/>
@@ -10268,16 +10628,16 @@
     <row r="151">
       <c r="A151" s="9"/>
       <c r="B151" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E151" s="37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
@@ -10305,13 +10665,13 @@
     <row r="152">
       <c r="A152" s="9"/>
       <c r="B152" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="14"/>
@@ -10340,13 +10700,13 @@
     <row r="153">
       <c r="A153" s="9"/>
       <c r="B153" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="14"/>
@@ -10375,13 +10735,13 @@
     <row r="154">
       <c r="A154" s="9"/>
       <c r="B154" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="14"/>
@@ -10410,13 +10770,13 @@
     <row r="155">
       <c r="A155" s="9"/>
       <c r="B155" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C155" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="14"/>
@@ -10445,16 +10805,16 @@
     <row r="156">
       <c r="A156" s="9"/>
       <c r="B156" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="15"/>
@@ -10482,13 +10842,13 @@
     <row r="157">
       <c r="A157" s="9"/>
       <c r="B157" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="14"/>
@@ -10517,13 +10877,13 @@
     <row r="158">
       <c r="A158" s="9"/>
       <c r="B158" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="14"/>
@@ -10552,13 +10912,13 @@
     <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="14"/>
@@ -10587,13 +10947,13 @@
     <row r="160">
       <c r="A160" s="9"/>
       <c r="B160" s="33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="14"/>
@@ -10622,16 +10982,16 @@
     <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
@@ -10659,16 +11019,16 @@
     <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="15"/>
@@ -10696,16 +11056,16 @@
     <row r="163">
       <c r="A163" s="9"/>
       <c r="B163" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
@@ -10733,13 +11093,13 @@
     <row r="164">
       <c r="A164" s="9"/>
       <c r="B164" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E164" s="36"/>
       <c r="F164" s="14"/>
@@ -10768,13 +11128,13 @@
     <row r="165">
       <c r="A165" s="9"/>
       <c r="B165" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="14"/>
@@ -10803,13 +11163,13 @@
     <row r="166">
       <c r="A166" s="9"/>
       <c r="B166" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E166" s="36"/>
       <c r="F166" s="14"/>
@@ -10838,13 +11198,13 @@
     <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="14"/>
@@ -10873,13 +11233,13 @@
     <row r="168">
       <c r="A168" s="9"/>
       <c r="B168" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C168" s="39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="14"/>
@@ -10908,13 +11268,13 @@
     <row r="169">
       <c r="A169" s="9"/>
       <c r="B169" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E169" s="36"/>
       <c r="F169" s="14"/>
@@ -10943,13 +11303,13 @@
     <row r="170">
       <c r="A170" s="9"/>
       <c r="B170" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C170" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E170" s="36"/>
       <c r="F170" s="14"/>
@@ -10978,13 +11338,13 @@
     <row r="171">
       <c r="A171" s="9"/>
       <c r="B171" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E171" s="36"/>
       <c r="F171" s="14"/>
@@ -11013,16 +11373,16 @@
     <row r="172">
       <c r="A172" s="9"/>
       <c r="B172" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C172" s="39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="15"/>
@@ -11050,13 +11410,13 @@
     <row r="173">
       <c r="A173" s="9"/>
       <c r="B173" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E173" s="36"/>
       <c r="F173" s="14"/>
@@ -11085,13 +11445,13 @@
     <row r="174">
       <c r="A174" s="9"/>
       <c r="B174" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E174" s="36"/>
       <c r="F174" s="14"/>
@@ -11120,13 +11480,13 @@
     <row r="175">
       <c r="A175" s="9"/>
       <c r="B175" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E175" s="36"/>
       <c r="F175" s="14"/>
@@ -11155,13 +11515,13 @@
     <row r="176">
       <c r="A176" s="9"/>
       <c r="B176" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E176" s="36"/>
       <c r="F176" s="14"/>
@@ -11190,13 +11550,13 @@
     <row r="177">
       <c r="A177" s="9"/>
       <c r="B177" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="14"/>
@@ -11225,13 +11585,13 @@
     <row r="178">
       <c r="A178" s="9"/>
       <c r="B178" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E178" s="36"/>
       <c r="F178" s="14"/>
@@ -11260,13 +11620,13 @@
     <row r="179">
       <c r="A179" s="9"/>
       <c r="B179" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E179" s="36"/>
       <c r="F179" s="14"/>
@@ -11295,13 +11655,13 @@
     <row r="180">
       <c r="A180" s="9"/>
       <c r="B180" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E180" s="36"/>
       <c r="F180" s="14"/>
@@ -11330,13 +11690,13 @@
     <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E181" s="36"/>
       <c r="F181" s="14"/>
@@ -11365,13 +11725,13 @@
     <row r="182">
       <c r="A182" s="9"/>
       <c r="B182" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="14"/>
@@ -11400,17 +11760,17 @@
     <row r="183">
       <c r="A183" s="9"/>
       <c r="B183" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C183" s="39" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E183" s="36"/>
       <c r="F183" s="38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G183" s="15"/>
       <c r="H183" s="16"/>
@@ -11437,17 +11797,17 @@
     <row r="184">
       <c r="A184" s="9"/>
       <c r="B184" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C184" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E184" s="36"/>
       <c r="F184" s="38" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G184" s="15"/>
       <c r="H184" s="16"/>
@@ -11474,13 +11834,13 @@
     <row r="185">
       <c r="A185" s="9"/>
       <c r="B185" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C185" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E185" s="36"/>
       <c r="F185" s="14"/>
@@ -11509,19 +11869,19 @@
     <row r="186">
       <c r="A186" s="9"/>
       <c r="B186" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E186" s="37" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F186" s="38" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G186" s="15"/>
       <c r="H186" s="16"/>
@@ -11548,16 +11908,16 @@
     <row r="187">
       <c r="A187" s="9"/>
       <c r="B187" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E187" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
@@ -11585,13 +11945,13 @@
     <row r="188">
       <c r="A188" s="9"/>
       <c r="B188" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E188" s="36"/>
       <c r="F188" s="14"/>
@@ -11620,13 +11980,13 @@
     <row r="189">
       <c r="A189" s="9"/>
       <c r="B189" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C189" s="39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E189" s="36"/>
       <c r="F189" s="14"/>
@@ -11655,16 +12015,16 @@
     <row r="190">
       <c r="A190" s="9"/>
       <c r="B190" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E190" s="37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="15"/>
@@ -11692,13 +12052,13 @@
     <row r="191">
       <c r="A191" s="9"/>
       <c r="B191" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D191" s="40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E191" s="36"/>
       <c r="F191" s="14"/>
@@ -11727,13 +12087,13 @@
     <row r="192">
       <c r="A192" s="9"/>
       <c r="B192" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E192" s="36"/>
       <c r="F192" s="14"/>
@@ -11762,16 +12122,16 @@
     <row r="193">
       <c r="A193" s="9"/>
       <c r="B193" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D193" s="35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F193" s="14"/>
       <c r="G193" s="15"/>
@@ -11799,16 +12159,16 @@
     <row r="194">
       <c r="A194" s="9"/>
       <c r="B194" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D194" s="35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F194" s="14"/>
       <c r="G194" s="15"/>
@@ -11836,16 +12196,16 @@
     <row r="195">
       <c r="A195" s="9"/>
       <c r="B195" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D195" s="35" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F195" s="14"/>
       <c r="G195" s="15"/>
@@ -11873,16 +12233,16 @@
     <row r="196">
       <c r="A196" s="9"/>
       <c r="B196" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D196" s="35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F196" s="14"/>
       <c r="G196" s="15"/>
@@ -11910,13 +12270,13 @@
     <row r="197">
       <c r="A197" s="9"/>
       <c r="B197" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C197" s="34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E197" s="36"/>
       <c r="F197" s="14"/>
@@ -11945,16 +12305,16 @@
     <row r="198">
       <c r="A198" s="9"/>
       <c r="B198" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D198" s="35" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F198" s="14"/>
       <c r="G198" s="15"/>
@@ -11982,16 +12342,16 @@
     <row r="199">
       <c r="A199" s="9"/>
       <c r="B199" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F199" s="14"/>
       <c r="G199" s="15"/>
@@ -12019,16 +12379,16 @@
     <row r="200">
       <c r="A200" s="9"/>
       <c r="B200" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D200" s="35" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E200" s="37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F200" s="14"/>
       <c r="G200" s="15"/>
@@ -12056,13 +12416,13 @@
     <row r="201">
       <c r="A201" s="9"/>
       <c r="B201" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D201" s="35" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E201" s="36"/>
       <c r="F201" s="14"/>
@@ -12091,16 +12451,16 @@
     <row r="202">
       <c r="A202" s="9"/>
       <c r="B202" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D202" s="35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F202" s="14"/>
       <c r="G202" s="15"/>
@@ -12128,16 +12488,16 @@
     <row r="203">
       <c r="A203" s="9"/>
       <c r="B203" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D203" s="35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F203" s="14"/>
       <c r="G203" s="15"/>
@@ -12165,16 +12525,16 @@
     <row r="204">
       <c r="A204" s="9"/>
       <c r="B204" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D204" s="35" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F204" s="14"/>
       <c r="G204" s="15"/>
@@ -12202,13 +12562,13 @@
     <row r="205">
       <c r="A205" s="9"/>
       <c r="B205" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D205" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E205" s="36"/>
       <c r="F205" s="14"/>
@@ -12237,19 +12597,19 @@
     <row r="206">
       <c r="A206" s="9"/>
       <c r="B206" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C206" s="41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G206" s="15"/>
       <c r="H206" s="16"/>
@@ -12276,19 +12636,19 @@
     <row r="207">
       <c r="A207" s="9"/>
       <c r="B207" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C207" s="41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E207" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F207" s="25" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G207" s="15"/>
       <c r="H207" s="16"/>
@@ -12315,16 +12675,16 @@
     <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C208" s="41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F208" s="25"/>
       <c r="G208" s="15"/>
@@ -12352,19 +12712,19 @@
     <row r="209">
       <c r="A209" s="9"/>
       <c r="B209" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C209" s="41" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F209" s="25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G209" s="15"/>
       <c r="H209" s="16"/>
@@ -12391,19 +12751,19 @@
     <row r="210">
       <c r="A210" s="9"/>
       <c r="B210" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C210" s="41" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F210" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G210" s="15"/>
       <c r="H210" s="16"/>
@@ -12430,19 +12790,19 @@
     <row r="211">
       <c r="A211" s="9"/>
       <c r="B211" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C211" s="41" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E211" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F211" s="25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G211" s="15"/>
       <c r="H211" s="16"/>
@@ -12469,16 +12829,16 @@
     <row r="212">
       <c r="A212" s="9"/>
       <c r="B212" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E212" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F212" s="25"/>
       <c r="G212" s="15"/>
@@ -12506,16 +12866,16 @@
     <row r="213">
       <c r="A213" s="9"/>
       <c r="B213" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C213" s="41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D213" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E213" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F213" s="42" t="s">
         <v>54</v>
@@ -12545,19 +12905,19 @@
     <row r="214">
       <c r="A214" s="9"/>
       <c r="B214" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C214" s="41" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E214" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F214" s="42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G214" s="15"/>
       <c r="H214" s="16"/>
@@ -12584,14 +12944,14 @@
     <row r="215">
       <c r="A215" s="9"/>
       <c r="B215" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C215" s="41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F215" s="25"/>
       <c r="G215" s="15"/>
@@ -12619,14 +12979,14 @@
     <row r="216">
       <c r="A216" s="9"/>
       <c r="B216" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C216" s="41" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F216" s="25"/>
       <c r="G216" s="15"/>
@@ -12654,14 +13014,14 @@
     <row r="217">
       <c r="A217" s="9"/>
       <c r="B217" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D217" s="28"/>
       <c r="E217" s="20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F217" s="25"/>
       <c r="G217" s="15"/>
@@ -12689,14 +13049,14 @@
     <row r="218">
       <c r="A218" s="9"/>
       <c r="B218" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F218" s="25"/>
       <c r="G218" s="15"/>
@@ -12724,14 +13084,14 @@
     <row r="219">
       <c r="A219" s="9"/>
       <c r="B219" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C219" s="41" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F219" s="25"/>
       <c r="G219" s="15"/>
@@ -12759,14 +13119,14 @@
     <row r="220">
       <c r="A220" s="9"/>
       <c r="B220" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C220" s="41" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F220" s="25"/>
       <c r="G220" s="15"/>
@@ -12794,14 +13154,14 @@
     <row r="221">
       <c r="A221" s="9"/>
       <c r="B221" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C221" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D221" s="28"/>
       <c r="E221" s="20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F221" s="25"/>
       <c r="G221" s="15"/>
@@ -12829,14 +13189,14 @@
     <row r="222">
       <c r="A222" s="9"/>
       <c r="B222" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F222" s="25"/>
       <c r="G222" s="15"/>
@@ -12864,14 +13224,14 @@
     <row r="223">
       <c r="A223" s="9"/>
       <c r="B223" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C223" s="41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F223" s="25"/>
       <c r="G223" s="15"/>
@@ -12899,14 +13259,14 @@
     <row r="224">
       <c r="A224" s="9"/>
       <c r="B224" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F224" s="25"/>
       <c r="G224" s="15"/>
@@ -12934,14 +13294,14 @@
     <row r="225">
       <c r="A225" s="9"/>
       <c r="B225" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C225" s="41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F225" s="25"/>
       <c r="G225" s="15"/>
@@ -12969,14 +13329,14 @@
     <row r="226">
       <c r="A226" s="9"/>
       <c r="B226" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F226" s="25"/>
       <c r="G226" s="15"/>
@@ -13004,14 +13364,14 @@
     <row r="227">
       <c r="A227" s="9"/>
       <c r="B227" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C227" s="41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F227" s="25"/>
       <c r="G227" s="15"/>
@@ -13039,14 +13399,14 @@
     <row r="228">
       <c r="A228" s="9"/>
       <c r="B228" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C228" s="41" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D228" s="28"/>
       <c r="E228" s="20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F228" s="25"/>
       <c r="G228" s="15"/>
@@ -13074,19 +13434,19 @@
     <row r="229">
       <c r="A229" s="9"/>
       <c r="B229" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C229" s="41" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E229" s="20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F229" s="42" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G229" s="15"/>
       <c r="H229" s="16"/>
@@ -13113,14 +13473,14 @@
     <row r="230">
       <c r="A230" s="9"/>
       <c r="B230" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C230" s="41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F230" s="25"/>
       <c r="G230" s="15"/>
@@ -13148,19 +13508,19 @@
     <row r="231">
       <c r="A231" s="9"/>
       <c r="B231" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C231" s="41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E231" s="20" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F231" s="42" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G231" s="15"/>
       <c r="H231" s="16"/>
@@ -13187,10 +13547,10 @@
     <row r="232">
       <c r="A232" s="9"/>
       <c r="B232" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C232" s="41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="13"/>
@@ -13220,14 +13580,14 @@
     <row r="233">
       <c r="A233" s="9"/>
       <c r="B233" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C233" s="41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F233" s="25"/>
       <c r="G233" s="15"/>
@@ -13255,14 +13615,14 @@
     <row r="234">
       <c r="A234" s="9"/>
       <c r="B234" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C234" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F234" s="25"/>
       <c r="G234" s="15"/>
@@ -13290,14 +13650,14 @@
     <row r="235">
       <c r="A235" s="9"/>
       <c r="B235" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C235" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D235" s="28"/>
       <c r="E235" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F235" s="25"/>
       <c r="G235" s="15"/>
@@ -13325,10 +13685,10 @@
     <row r="236">
       <c r="A236" s="9"/>
       <c r="B236" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C236" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="13"/>
@@ -13358,14 +13718,14 @@
     <row r="237">
       <c r="A237" s="9"/>
       <c r="B237" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C237" s="41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F237" s="25"/>
       <c r="G237" s="15"/>
@@ -13393,10 +13753,10 @@
     <row r="238">
       <c r="A238" s="9"/>
       <c r="B238" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C238" s="41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="20" t="s">
@@ -13428,14 +13788,14 @@
     <row r="239">
       <c r="A239" s="9"/>
       <c r="B239" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C239" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F239" s="25"/>
       <c r="G239" s="15"/>
@@ -13463,10 +13823,10 @@
     <row r="240">
       <c r="A240" s="9"/>
       <c r="B240" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="13"/>
@@ -13496,10 +13856,10 @@
     <row r="241">
       <c r="A241" s="9"/>
       <c r="B241" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="13"/>
@@ -13529,10 +13889,10 @@
     <row r="242">
       <c r="A242" s="9"/>
       <c r="B242" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="13"/>
@@ -13562,10 +13922,10 @@
     <row r="243">
       <c r="A243" s="9"/>
       <c r="B243" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="13"/>
@@ -13595,10 +13955,10 @@
     <row r="244">
       <c r="A244" s="9"/>
       <c r="B244" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C244" s="41" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="13"/>
@@ -13628,10 +13988,10 @@
     <row r="245">
       <c r="A245" s="9"/>
       <c r="B245" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C245" s="41" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="13"/>
@@ -13661,14 +14021,14 @@
     <row r="246">
       <c r="A246" s="9"/>
       <c r="B246" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C246" s="41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F246" s="25"/>
       <c r="G246" s="15"/>
@@ -13696,10 +14056,10 @@
     <row r="247">
       <c r="A247" s="9"/>
       <c r="B247" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C247" s="41" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="13"/>
@@ -13729,14 +14089,14 @@
     <row r="248">
       <c r="A248" s="9"/>
       <c r="B248" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C248" s="41" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F248" s="25"/>
       <c r="G248" s="15"/>
@@ -13764,14 +14124,14 @@
     <row r="249">
       <c r="A249" s="9"/>
       <c r="B249" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C249" s="41" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F249" s="25"/>
       <c r="G249" s="15"/>
@@ -13799,14 +14159,14 @@
     <row r="250">
       <c r="A250" s="9"/>
       <c r="B250" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C250" s="41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F250" s="25"/>
       <c r="G250" s="15"/>
@@ -13834,10 +14194,10 @@
     <row r="251">
       <c r="A251" s="9"/>
       <c r="B251" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="13"/>
@@ -13867,10 +14227,10 @@
     <row r="252">
       <c r="A252" s="9"/>
       <c r="B252" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C252" s="41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="13"/>
@@ -13900,10 +14260,10 @@
     <row r="253">
       <c r="A253" s="9"/>
       <c r="B253" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C253" s="41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="13"/>
@@ -13933,14 +14293,14 @@
     <row r="254">
       <c r="A254" s="9"/>
       <c r="B254" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F254" s="25"/>
       <c r="G254" s="15"/>
@@ -13968,10 +14328,10 @@
     <row r="255">
       <c r="A255" s="9"/>
       <c r="B255" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C255" s="41" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="13"/>
@@ -14001,14 +14361,14 @@
     <row r="256">
       <c r="A256" s="9"/>
       <c r="B256" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C256" s="41" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F256" s="25"/>
       <c r="G256" s="15"/>
@@ -14036,10 +14396,10 @@
     <row r="257">
       <c r="A257" s="9"/>
       <c r="B257" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C257" s="41" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="13"/>
@@ -14069,10 +14429,10 @@
     <row r="258">
       <c r="A258" s="9"/>
       <c r="B258" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C258" s="41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="13"/>
@@ -14102,10 +14462,10 @@
     <row r="259">
       <c r="A259" s="9"/>
       <c r="B259" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C259" s="41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="13"/>
@@ -14135,10 +14495,10 @@
     <row r="260">
       <c r="A260" s="9"/>
       <c r="B260" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C260" s="41" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="13"/>
@@ -14168,10 +14528,10 @@
     <row r="261">
       <c r="A261" s="9"/>
       <c r="B261" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C261" s="41" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D261" s="28"/>
       <c r="E261" s="13"/>
@@ -14201,10 +14561,10 @@
     <row r="262">
       <c r="A262" s="9"/>
       <c r="B262" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C262" s="41" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="13"/>
@@ -14234,14 +14594,14 @@
     <row r="263">
       <c r="A263" s="9"/>
       <c r="B263" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C263" s="41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="20" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F263" s="25"/>
       <c r="G263" s="15"/>
@@ -14269,10 +14629,10 @@
     <row r="264">
       <c r="A264" s="9"/>
       <c r="B264" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C264" s="41" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="13"/>
@@ -14302,10 +14662,10 @@
     <row r="265">
       <c r="A265" s="9"/>
       <c r="B265" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C265" s="41" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D265" s="28"/>
       <c r="E265" s="13"/>
@@ -14335,10 +14695,10 @@
     <row r="266">
       <c r="A266" s="9"/>
       <c r="B266" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C266" s="41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D266" s="28"/>
       <c r="E266" s="13"/>
@@ -14368,10 +14728,10 @@
     <row r="267">
       <c r="A267" s="9"/>
       <c r="B267" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C267" s="41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="13"/>
@@ -14401,10 +14761,10 @@
     <row r="268">
       <c r="A268" s="9"/>
       <c r="B268" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="13"/>
@@ -14434,10 +14794,10 @@
     <row r="269">
       <c r="A269" s="9"/>
       <c r="B269" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C269" s="41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="13"/>
@@ -14467,14 +14827,14 @@
     <row r="270">
       <c r="A270" s="9"/>
       <c r="B270" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F270" s="25"/>
       <c r="G270" s="15"/>
@@ -14502,10 +14862,10 @@
     <row r="271">
       <c r="A271" s="9"/>
       <c r="B271" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C271" s="41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D271" s="28"/>
       <c r="E271" s="13"/>
@@ -14535,14 +14895,14 @@
     <row r="272">
       <c r="A272" s="9"/>
       <c r="B272" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="20" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F272" s="25"/>
       <c r="G272" s="15"/>
@@ -14570,19 +14930,19 @@
     <row r="273">
       <c r="A273" s="9"/>
       <c r="B273" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C273" s="41" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F273" s="25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G273" s="15"/>
       <c r="H273" s="16"/>
@@ -14609,14 +14969,14 @@
     <row r="274">
       <c r="A274" s="9"/>
       <c r="B274" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F274" s="25"/>
       <c r="G274" s="15"/>
@@ -14644,14 +15004,14 @@
     <row r="275">
       <c r="A275" s="9"/>
       <c r="B275" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C275" s="41" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F275" s="25"/>
       <c r="G275" s="15"/>
@@ -14679,10 +15039,10 @@
     <row r="276">
       <c r="A276" s="9"/>
       <c r="B276" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C276" s="41" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="13"/>
@@ -14712,10 +15072,10 @@
     <row r="277">
       <c r="A277" s="9"/>
       <c r="B277" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C277" s="41" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="13"/>
@@ -14745,14 +15105,14 @@
     <row r="278">
       <c r="A278" s="9"/>
       <c r="B278" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F278" s="25"/>
       <c r="G278" s="15"/>
@@ -14780,14 +15140,14 @@
     <row r="279">
       <c r="A279" s="9"/>
       <c r="B279" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F279" s="25"/>
       <c r="G279" s="15"/>
@@ -14815,10 +15175,10 @@
     <row r="280">
       <c r="A280" s="9"/>
       <c r="B280" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="13"/>
@@ -14848,10 +15208,10 @@
     <row r="281">
       <c r="A281" s="9"/>
       <c r="B281" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="13"/>
@@ -14881,10 +15241,10 @@
     <row r="282">
       <c r="A282" s="9"/>
       <c r="B282" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="13"/>
@@ -14914,10 +15274,10 @@
     <row r="283">
       <c r="A283" s="9"/>
       <c r="B283" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="13"/>
@@ -14947,14 +15307,14 @@
     <row r="284">
       <c r="A284" s="9"/>
       <c r="B284" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F284" s="25"/>
       <c r="G284" s="15"/>
@@ -14982,10 +15342,10 @@
     <row r="285">
       <c r="A285" s="9"/>
       <c r="B285" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="13"/>
@@ -15015,10 +15375,10 @@
     <row r="286">
       <c r="A286" s="9"/>
       <c r="B286" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="13"/>
@@ -15048,10 +15408,10 @@
     <row r="287">
       <c r="A287" s="9"/>
       <c r="B287" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C287" s="41" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="13"/>
@@ -15081,10 +15441,10 @@
     <row r="288">
       <c r="A288" s="9"/>
       <c r="B288" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="13"/>
@@ -15114,10 +15474,10 @@
     <row r="289">
       <c r="A289" s="9"/>
       <c r="B289" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="13"/>
@@ -15147,10 +15507,10 @@
     <row r="290">
       <c r="A290" s="9"/>
       <c r="B290" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="13"/>
@@ -15180,10 +15540,10 @@
     <row r="291">
       <c r="A291" s="9"/>
       <c r="B291" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="13"/>
@@ -15213,10 +15573,10 @@
     <row r="292">
       <c r="A292" s="9"/>
       <c r="B292" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="13"/>
@@ -15246,14 +15606,14 @@
     <row r="293">
       <c r="A293" s="9"/>
       <c r="B293" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C293" s="41" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F293" s="25"/>
       <c r="G293" s="15"/>
@@ -15281,14 +15641,14 @@
     <row r="294">
       <c r="A294" s="9"/>
       <c r="B294" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F294" s="25"/>
       <c r="G294" s="15"/>
@@ -15316,14 +15676,14 @@
     <row r="295">
       <c r="A295" s="9"/>
       <c r="B295" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F295" s="25"/>
       <c r="G295" s="15"/>
@@ -15351,10 +15711,10 @@
     <row r="296">
       <c r="A296" s="9"/>
       <c r="B296" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="13"/>
@@ -15384,14 +15744,14 @@
     <row r="297">
       <c r="A297" s="9"/>
       <c r="B297" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C297" s="41" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="20" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F297" s="25"/>
       <c r="G297" s="15"/>
@@ -15419,10 +15779,10 @@
     <row r="298">
       <c r="A298" s="9"/>
       <c r="B298" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C298" s="41" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="13"/>
@@ -15452,10 +15812,10 @@
     <row r="299">
       <c r="A299" s="9"/>
       <c r="B299" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="13"/>
@@ -15485,10 +15845,10 @@
     <row r="300">
       <c r="A300" s="9"/>
       <c r="B300" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C300" s="41" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="13"/>
@@ -15518,10 +15878,10 @@
     <row r="301">
       <c r="A301" s="9"/>
       <c r="B301" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="13"/>
@@ -15551,10 +15911,10 @@
     <row r="302">
       <c r="A302" s="9"/>
       <c r="B302" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C302" s="41" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="13"/>
@@ -15584,10 +15944,10 @@
     <row r="303">
       <c r="A303" s="9"/>
       <c r="B303" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C303" s="41" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="13"/>
@@ -15617,10 +15977,10 @@
     <row r="304">
       <c r="A304" s="9"/>
       <c r="B304" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="13"/>
@@ -15650,10 +16010,10 @@
     <row r="305">
       <c r="A305" s="9"/>
       <c r="B305" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C305" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="13"/>
@@ -15683,14 +16043,14 @@
     <row r="306">
       <c r="A306" s="9"/>
       <c r="B306" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C306" s="41" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F306" s="25"/>
       <c r="G306" s="15"/>
@@ -15718,10 +16078,10 @@
     <row r="307">
       <c r="A307" s="9"/>
       <c r="B307" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C307" s="41" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="13"/>
@@ -15751,14 +16111,14 @@
     <row r="308">
       <c r="A308" s="9"/>
       <c r="B308" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C308" s="41" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="20" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F308" s="25"/>
       <c r="G308" s="15"/>
@@ -15786,14 +16146,14 @@
     <row r="309">
       <c r="A309" s="9"/>
       <c r="B309" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D309" s="28"/>
       <c r="E309" s="20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F309" s="25"/>
       <c r="G309" s="15"/>
@@ -15821,14 +16181,14 @@
     <row r="310">
       <c r="A310" s="9"/>
       <c r="B310" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D310" s="28"/>
       <c r="E310" s="20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F310" s="25"/>
       <c r="G310" s="15"/>
@@ -15856,10 +16216,10 @@
     <row r="311">
       <c r="A311" s="9"/>
       <c r="B311" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C311" s="41" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="13"/>
@@ -15889,10 +16249,10 @@
     <row r="312">
       <c r="A312" s="9"/>
       <c r="B312" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C312" s="41" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="13"/>
@@ -15922,10 +16282,10 @@
     <row r="313">
       <c r="A313" s="9"/>
       <c r="B313" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C313" s="41" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="13"/>
@@ -15955,10 +16315,10 @@
     <row r="314">
       <c r="A314" s="9"/>
       <c r="B314" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C314" s="41" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="13"/>
@@ -15988,10 +16348,10 @@
     <row r="315">
       <c r="A315" s="9"/>
       <c r="B315" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C315" s="41" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="13"/>
@@ -16021,10 +16381,10 @@
     <row r="316">
       <c r="A316" s="9"/>
       <c r="B316" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C316" s="41" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D316" s="28"/>
       <c r="E316" s="13"/>
@@ -16054,14 +16414,14 @@
     <row r="317">
       <c r="A317" s="9"/>
       <c r="B317" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C317" s="41" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F317" s="25"/>
       <c r="G317" s="15"/>
@@ -16089,14 +16449,14 @@
     <row r="318">
       <c r="A318" s="9"/>
       <c r="B318" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C318" s="41" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D318" s="28"/>
       <c r="E318" s="20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F318" s="25"/>
       <c r="G318" s="15"/>
@@ -16124,10 +16484,10 @@
     <row r="319">
       <c r="A319" s="9"/>
       <c r="B319" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C319" s="41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D319" s="28"/>
       <c r="E319" s="13"/>
@@ -16157,14 +16517,14 @@
     <row r="320">
       <c r="A320" s="9"/>
       <c r="B320" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C320" s="41" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F320" s="25"/>
       <c r="G320" s="15"/>
@@ -16192,10 +16552,10 @@
     <row r="321">
       <c r="A321" s="9"/>
       <c r="B321" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C321" s="41" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="13"/>
@@ -16225,14 +16585,14 @@
     <row r="322">
       <c r="A322" s="9"/>
       <c r="B322" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F322" s="25"/>
       <c r="G322" s="15"/>
@@ -16260,14 +16620,14 @@
     <row r="323">
       <c r="A323" s="9"/>
       <c r="B323" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C323" s="41" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F323" s="25"/>
       <c r="G323" s="15"/>
@@ -16295,14 +16655,14 @@
     <row r="324">
       <c r="A324" s="9"/>
       <c r="B324" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C324" s="41" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="20" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F324" s="25"/>
       <c r="G324" s="15"/>
@@ -16330,10 +16690,10 @@
     <row r="325">
       <c r="A325" s="9"/>
       <c r="B325" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C325" s="41" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="13"/>
@@ -16363,10 +16723,10 @@
     <row r="326">
       <c r="A326" s="9"/>
       <c r="B326" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C326" s="41" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="13"/>
@@ -16396,10 +16756,10 @@
     <row r="327">
       <c r="A327" s="9"/>
       <c r="B327" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="13"/>
@@ -16429,10 +16789,10 @@
     <row r="328">
       <c r="A328" s="9"/>
       <c r="B328" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C328" s="41" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="13"/>
@@ -16462,10 +16822,10 @@
     <row r="329">
       <c r="A329" s="9"/>
       <c r="B329" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C329" s="41" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D329" s="28"/>
       <c r="E329" s="13"/>
@@ -16495,10 +16855,10 @@
     <row r="330">
       <c r="A330" s="9"/>
       <c r="B330" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="13"/>
@@ -16528,10 +16888,10 @@
     <row r="331">
       <c r="A331" s="9"/>
       <c r="B331" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C331" s="41" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="13"/>
@@ -16561,10 +16921,10 @@
     <row r="332">
       <c r="A332" s="9"/>
       <c r="B332" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C332" s="41" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D332" s="28"/>
       <c r="E332" s="13"/>
@@ -16594,10 +16954,10 @@
     <row r="333">
       <c r="A333" s="9"/>
       <c r="B333" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D333" s="28"/>
       <c r="E333" s="13"/>
@@ -16627,14 +16987,14 @@
     <row r="334">
       <c r="A334" s="9"/>
       <c r="B334" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F334" s="25"/>
       <c r="G334" s="15"/>
@@ -16662,10 +17022,10 @@
     <row r="335">
       <c r="A335" s="9"/>
       <c r="B335" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="13"/>
@@ -16695,10 +17055,10 @@
     <row r="336">
       <c r="A336" s="9"/>
       <c r="B336" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C336" s="41" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="13"/>
@@ -16728,10 +17088,10 @@
     <row r="337">
       <c r="A337" s="9"/>
       <c r="B337" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C337" s="41" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="13"/>
@@ -16761,10 +17121,10 @@
     <row r="338">
       <c r="A338" s="9"/>
       <c r="B338" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C338" s="41" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="13"/>
@@ -16794,14 +17154,14 @@
     <row r="339">
       <c r="A339" s="9"/>
       <c r="B339" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C339" s="41" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F339" s="25"/>
       <c r="G339" s="15"/>
@@ -16829,10 +17189,10 @@
     <row r="340">
       <c r="A340" s="9"/>
       <c r="B340" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C340" s="41" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="13"/>
@@ -16862,10 +17222,10 @@
     <row r="341">
       <c r="A341" s="9"/>
       <c r="B341" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C341" s="41" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="13"/>
@@ -16895,14 +17255,14 @@
     <row r="342">
       <c r="A342" s="9"/>
       <c r="B342" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C342" s="41" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F342" s="25"/>
       <c r="G342" s="15"/>
@@ -16930,10 +17290,10 @@
     <row r="343">
       <c r="A343" s="9"/>
       <c r="B343" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C343" s="41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="13"/>
@@ -16963,10 +17323,10 @@
     <row r="344">
       <c r="A344" s="9"/>
       <c r="B344" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C344" s="41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="13"/>
@@ -16996,10 +17356,10 @@
     <row r="345">
       <c r="A345" s="9"/>
       <c r="B345" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C345" s="41" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="13"/>
@@ -17029,10 +17389,10 @@
     <row r="346">
       <c r="A346" s="9"/>
       <c r="B346" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C346" s="41" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="13"/>
@@ -17062,10 +17422,10 @@
     <row r="347">
       <c r="A347" s="9"/>
       <c r="B347" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C347" s="41" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="13"/>
@@ -17095,10 +17455,10 @@
     <row r="348">
       <c r="A348" s="9"/>
       <c r="B348" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C348" s="41" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="13"/>
@@ -17128,14 +17488,14 @@
     <row r="349">
       <c r="A349" s="9"/>
       <c r="B349" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C349" s="41" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F349" s="25"/>
       <c r="G349" s="15"/>
@@ -17163,10 +17523,10 @@
     <row r="350">
       <c r="A350" s="9"/>
       <c r="B350" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C350" s="41" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="13"/>
@@ -17196,10 +17556,10 @@
     <row r="351">
       <c r="A351" s="9"/>
       <c r="B351" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C351" s="41" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="13"/>
@@ -17229,10 +17589,10 @@
     <row r="352">
       <c r="A352" s="9"/>
       <c r="B352" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C352" s="41" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="13"/>
@@ -17262,10 +17622,10 @@
     <row r="353">
       <c r="A353" s="9"/>
       <c r="B353" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C353" s="41" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="13"/>
@@ -17295,10 +17655,10 @@
     <row r="354">
       <c r="A354" s="9"/>
       <c r="B354" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C354" s="41" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="13"/>
@@ -17328,10 +17688,10 @@
     <row r="355">
       <c r="A355" s="9"/>
       <c r="B355" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C355" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="13"/>
@@ -17361,14 +17721,14 @@
     <row r="356">
       <c r="A356" s="9"/>
       <c r="B356" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C356" s="41" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="20" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F356" s="25"/>
       <c r="G356" s="15"/>
@@ -17396,10 +17756,10 @@
     <row r="357">
       <c r="A357" s="9"/>
       <c r="B357" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C357" s="41" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="13"/>
@@ -17429,10 +17789,10 @@
     <row r="358">
       <c r="A358" s="9"/>
       <c r="B358" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C358" s="41" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D358" s="28"/>
       <c r="E358" s="13"/>
@@ -17462,10 +17822,10 @@
     <row r="359">
       <c r="A359" s="9"/>
       <c r="B359" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C359" s="41" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D359" s="28"/>
       <c r="E359" s="13"/>
@@ -17495,10 +17855,10 @@
     <row r="360">
       <c r="A360" s="9"/>
       <c r="B360" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C360" s="41" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="13"/>
@@ -17528,14 +17888,14 @@
     <row r="361">
       <c r="A361" s="9"/>
       <c r="B361" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C361" s="41" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="20" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F361" s="25"/>
       <c r="G361" s="15"/>
@@ -17563,10 +17923,10 @@
     <row r="362">
       <c r="A362" s="9"/>
       <c r="B362" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C362" s="41" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D362" s="28"/>
       <c r="E362" s="13"/>
@@ -17596,14 +17956,14 @@
     <row r="363">
       <c r="A363" s="9"/>
       <c r="B363" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C363" s="41" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F363" s="25"/>
       <c r="G363" s="15"/>
@@ -17631,10 +17991,10 @@
     <row r="364">
       <c r="A364" s="9"/>
       <c r="B364" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C364" s="41" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="13"/>
@@ -17664,14 +18024,14 @@
     <row r="365">
       <c r="A365" s="9"/>
       <c r="B365" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C365" s="41" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="20" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F365" s="25"/>
       <c r="G365" s="15"/>
@@ -17699,10 +18059,10 @@
     <row r="366">
       <c r="A366" s="9"/>
       <c r="B366" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C366" s="41" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="13"/>
@@ -17732,10 +18092,10 @@
     <row r="367">
       <c r="A367" s="9"/>
       <c r="B367" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C367" s="41" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="13"/>
@@ -17765,14 +18125,14 @@
     <row r="368">
       <c r="A368" s="9"/>
       <c r="B368" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C368" s="41" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D368" s="28"/>
       <c r="E368" s="20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F368" s="25"/>
       <c r="G368" s="15"/>
@@ -17800,14 +18160,14 @@
     <row r="369">
       <c r="A369" s="9"/>
       <c r="B369" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C369" s="41" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D369" s="28"/>
       <c r="E369" s="20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F369" s="25"/>
       <c r="G369" s="15"/>
@@ -17835,10 +18195,10 @@
     <row r="370">
       <c r="A370" s="9"/>
       <c r="B370" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="13"/>
@@ -17868,10 +18228,10 @@
     <row r="371">
       <c r="A371" s="9"/>
       <c r="B371" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D371" s="28"/>
       <c r="E371" s="13"/>
@@ -17901,10 +18261,10 @@
     <row r="372">
       <c r="A372" s="9"/>
       <c r="B372" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D372" s="28"/>
       <c r="E372" s="13"/>
@@ -17934,10 +18294,10 @@
     <row r="373">
       <c r="A373" s="9"/>
       <c r="B373" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C373" s="41" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="13"/>
@@ -17967,10 +18327,10 @@
     <row r="374">
       <c r="A374" s="9"/>
       <c r="B374" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C374" s="41" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="13"/>
@@ -18000,10 +18360,10 @@
     <row r="375">
       <c r="A375" s="9"/>
       <c r="B375" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="13"/>
@@ -18033,10 +18393,10 @@
     <row r="376">
       <c r="A376" s="9"/>
       <c r="B376" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C376" s="41" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="13"/>
@@ -18066,10 +18426,10 @@
     <row r="377">
       <c r="A377" s="9"/>
       <c r="B377" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C377" s="41" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="13"/>
@@ -18099,14 +18459,14 @@
     <row r="378">
       <c r="A378" s="9"/>
       <c r="B378" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C378" s="41" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F378" s="25"/>
       <c r="G378" s="15"/>
@@ -18134,10 +18494,10 @@
     <row r="379">
       <c r="A379" s="9"/>
       <c r="B379" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C379" s="41" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="13"/>
@@ -18167,14 +18527,14 @@
     <row r="380">
       <c r="A380" s="9"/>
       <c r="B380" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C380" s="41" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F380" s="25"/>
       <c r="G380" s="15"/>
@@ -18202,14 +18562,14 @@
     <row r="381">
       <c r="A381" s="9"/>
       <c r="B381" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C381" s="41" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F381" s="25"/>
       <c r="G381" s="15"/>
@@ -18237,14 +18597,14 @@
     <row r="382">
       <c r="A382" s="9"/>
       <c r="B382" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C382" s="41" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="20" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F382" s="25"/>
       <c r="G382" s="15"/>
@@ -18272,14 +18632,14 @@
     <row r="383">
       <c r="A383" s="9"/>
       <c r="B383" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C383" s="41" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="20" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F383" s="25"/>
       <c r="G383" s="15"/>
@@ -18307,14 +18667,14 @@
     <row r="384">
       <c r="A384" s="9"/>
       <c r="B384" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C384" s="41" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="20" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F384" s="25"/>
       <c r="G384" s="15"/>
@@ -18342,14 +18702,14 @@
     <row r="385">
       <c r="A385" s="9"/>
       <c r="B385" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C385" s="41" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="20" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F385" s="25"/>
       <c r="G385" s="15"/>
@@ -18377,10 +18737,10 @@
     <row r="386">
       <c r="A386" s="9"/>
       <c r="B386" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C386" s="41" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="13"/>
@@ -18410,10 +18770,10 @@
     <row r="387">
       <c r="A387" s="9"/>
       <c r="B387" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C387" s="41" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="13"/>
@@ -18443,10 +18803,10 @@
     <row r="388">
       <c r="A388" s="9"/>
       <c r="B388" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C388" s="41" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="13"/>
@@ -18476,14 +18836,14 @@
     <row r="389">
       <c r="A389" s="9"/>
       <c r="B389" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C389" s="41" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="20" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F389" s="25"/>
       <c r="G389" s="15"/>
@@ -18511,10 +18871,10 @@
     <row r="390">
       <c r="A390" s="9"/>
       <c r="B390" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="13"/>
@@ -18544,10 +18904,10 @@
     <row r="391">
       <c r="A391" s="9"/>
       <c r="B391" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="13"/>
@@ -18577,10 +18937,10 @@
     <row r="392">
       <c r="A392" s="9"/>
       <c r="B392" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="13"/>
@@ -18610,10 +18970,10 @@
     <row r="393">
       <c r="A393" s="9"/>
       <c r="B393" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="13"/>
@@ -18643,14 +19003,14 @@
     <row r="394">
       <c r="A394" s="9"/>
       <c r="B394" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="20" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F394" s="25"/>
       <c r="G394" s="15"/>
@@ -18678,14 +19038,14 @@
     <row r="395">
       <c r="A395" s="9"/>
       <c r="B395" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C395" s="41" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="20" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F395" s="25"/>
       <c r="G395" s="15"/>
@@ -18713,10 +19073,10 @@
     <row r="396">
       <c r="A396" s="9"/>
       <c r="B396" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C396" s="41" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D396" s="28"/>
       <c r="E396" s="13"/>
@@ -18746,10 +19106,10 @@
     <row r="397">
       <c r="A397" s="9"/>
       <c r="B397" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C397" s="41" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="13"/>
@@ -18779,14 +19139,14 @@
     <row r="398">
       <c r="A398" s="9"/>
       <c r="B398" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C398" s="41" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="20" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F398" s="25"/>
       <c r="G398" s="15"/>
@@ -18814,10 +19174,10 @@
     <row r="399">
       <c r="A399" s="9"/>
       <c r="B399" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C399" s="41" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="13"/>
@@ -18847,10 +19207,10 @@
     <row r="400">
       <c r="A400" s="9"/>
       <c r="B400" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C400" s="41" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="13"/>
@@ -18880,14 +19240,14 @@
     <row r="401">
       <c r="A401" s="9"/>
       <c r="B401" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C401" s="41" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="20" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F401" s="25"/>
       <c r="G401" s="15"/>
@@ -18915,14 +19275,14 @@
     <row r="402">
       <c r="A402" s="9"/>
       <c r="B402" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C402" s="41" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="20" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F402" s="25"/>
       <c r="G402" s="15"/>
@@ -18950,14 +19310,14 @@
     <row r="403">
       <c r="A403" s="9"/>
       <c r="B403" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C403" s="41" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="20" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F403" s="25"/>
       <c r="G403" s="15"/>
@@ -18985,10 +19345,10 @@
     <row r="404">
       <c r="A404" s="9"/>
       <c r="B404" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C404" s="41" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D404" s="28"/>
       <c r="E404" s="13"/>
@@ -19018,10 +19378,10 @@
     <row r="405">
       <c r="A405" s="9"/>
       <c r="B405" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C405" s="41" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D405" s="28"/>
       <c r="E405" s="13"/>
@@ -19051,10 +19411,10 @@
     <row r="406">
       <c r="A406" s="9"/>
       <c r="B406" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C406" s="41" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D406" s="28"/>
       <c r="E406" s="13"/>
@@ -19084,10 +19444,10 @@
     <row r="407">
       <c r="A407" s="9"/>
       <c r="B407" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C407" s="41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D407" s="28"/>
       <c r="E407" s="13"/>
@@ -19117,10 +19477,10 @@
     <row r="408">
       <c r="A408" s="9"/>
       <c r="B408" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C408" s="41" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D408" s="28"/>
       <c r="E408" s="13"/>
@@ -19150,14 +19510,14 @@
     <row r="409">
       <c r="A409" s="9"/>
       <c r="B409" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C409" s="41" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D409" s="28"/>
       <c r="E409" s="20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F409" s="25"/>
       <c r="G409" s="15"/>
@@ -19185,10 +19545,10 @@
     <row r="410">
       <c r="A410" s="9"/>
       <c r="B410" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C410" s="41" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D410" s="28"/>
       <c r="E410" s="13"/>
@@ -19218,14 +19578,14 @@
     <row r="411">
       <c r="A411" s="9"/>
       <c r="B411" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="20" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="15"/>
@@ -19253,14 +19613,14 @@
     <row r="412">
       <c r="A412" s="9"/>
       <c r="B412" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C412" s="41" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D412" s="28"/>
       <c r="E412" s="20" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F412" s="25"/>
       <c r="G412" s="15"/>
@@ -19288,10 +19648,10 @@
     <row r="413">
       <c r="A413" s="9"/>
       <c r="B413" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C413" s="41" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D413" s="28"/>
       <c r="E413" s="13"/>
@@ -19321,10 +19681,10 @@
     <row r="414">
       <c r="A414" s="9"/>
       <c r="B414" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C414" s="41" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D414" s="28"/>
       <c r="E414" s="13"/>
@@ -19354,10 +19714,10 @@
     <row r="415">
       <c r="A415" s="9"/>
       <c r="B415" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C415" s="41" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D415" s="28"/>
       <c r="E415" s="13"/>
@@ -19387,14 +19747,14 @@
     <row r="416">
       <c r="A416" s="9"/>
       <c r="B416" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C416" s="41" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D416" s="28"/>
       <c r="E416" s="20" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F416" s="25"/>
       <c r="G416" s="15"/>
@@ -19422,10 +19782,10 @@
     <row r="417">
       <c r="A417" s="9"/>
       <c r="B417" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C417" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D417" s="28"/>
       <c r="E417" s="13"/>
@@ -19455,14 +19815,14 @@
     <row r="418">
       <c r="A418" s="9"/>
       <c r="B418" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C418" s="41" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D418" s="28"/>
       <c r="E418" s="20" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F418" s="25"/>
       <c r="G418" s="15"/>
@@ -19490,10 +19850,10 @@
     <row r="419">
       <c r="A419" s="9"/>
       <c r="B419" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C419" s="41" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D419" s="28"/>
       <c r="E419" s="13"/>
@@ -19523,14 +19883,14 @@
     <row r="420">
       <c r="A420" s="9"/>
       <c r="B420" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C420" s="41" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="20" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F420" s="25"/>
       <c r="G420" s="15"/>
@@ -19558,10 +19918,10 @@
     <row r="421">
       <c r="A421" s="9"/>
       <c r="B421" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C421" s="41" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="13"/>
@@ -19591,10 +19951,10 @@
     <row r="422">
       <c r="A422" s="9"/>
       <c r="B422" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C422" s="41" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D422" s="28"/>
       <c r="E422" s="13"/>
@@ -19624,14 +19984,14 @@
     <row r="423">
       <c r="A423" s="9"/>
       <c r="B423" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C423" s="41" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D423" s="28"/>
       <c r="E423" s="20" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F423" s="25"/>
       <c r="G423" s="15"/>
@@ -19659,14 +20019,14 @@
     <row r="424">
       <c r="A424" s="9"/>
       <c r="B424" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C424" s="41" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D424" s="28"/>
       <c r="E424" s="20" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F424" s="25"/>
       <c r="G424" s="15"/>
@@ -19694,10 +20054,10 @@
     <row r="425">
       <c r="A425" s="9"/>
       <c r="B425" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C425" s="41" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D425" s="28"/>
       <c r="E425" s="13"/>
@@ -19727,10 +20087,10 @@
     <row r="426">
       <c r="A426" s="9"/>
       <c r="B426" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C426" s="41" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D426" s="28"/>
       <c r="E426" s="13"/>
@@ -19760,10 +20120,10 @@
     <row r="427">
       <c r="A427" s="9"/>
       <c r="B427" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C427" s="41" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D427" s="28"/>
       <c r="E427" s="13"/>
@@ -19793,10 +20153,10 @@
     <row r="428">
       <c r="A428" s="9"/>
       <c r="B428" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C428" s="41" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D428" s="28"/>
       <c r="E428" s="13"/>
@@ -19826,14 +20186,14 @@
     <row r="429">
       <c r="A429" s="9"/>
       <c r="B429" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C429" s="41" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D429" s="28"/>
       <c r="E429" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F429" s="25"/>
       <c r="G429" s="15"/>
@@ -19861,10 +20221,10 @@
     <row r="430">
       <c r="A430" s="9"/>
       <c r="B430" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C430" s="41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D430" s="28"/>
       <c r="E430" s="13"/>
@@ -19894,10 +20254,10 @@
     <row r="431">
       <c r="A431" s="9"/>
       <c r="B431" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C431" s="41" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D431" s="28"/>
       <c r="E431" s="13"/>
@@ -19927,14 +20287,14 @@
     <row r="432">
       <c r="A432" s="9"/>
       <c r="B432" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C432" s="41" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D432" s="28"/>
       <c r="E432" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F432" s="25"/>
       <c r="G432" s="15"/>
@@ -19962,10 +20322,10 @@
     <row r="433">
       <c r="A433" s="9"/>
       <c r="B433" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C433" s="41" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D433" s="28"/>
       <c r="E433" s="13"/>
@@ -19995,14 +20355,14 @@
     <row r="434">
       <c r="A434" s="9"/>
       <c r="B434" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C434" s="41" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D434" s="28"/>
       <c r="E434" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F434" s="25"/>
       <c r="G434" s="15"/>
@@ -20030,10 +20390,10 @@
     <row r="435">
       <c r="A435" s="9"/>
       <c r="B435" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C435" s="41" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D435" s="28"/>
       <c r="E435" s="13"/>
@@ -20063,14 +20423,14 @@
     <row r="436">
       <c r="A436" s="9"/>
       <c r="B436" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C436" s="41" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D436" s="28"/>
       <c r="E436" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F436" s="25"/>
       <c r="G436" s="15"/>
@@ -20098,14 +20458,14 @@
     <row r="437">
       <c r="A437" s="9"/>
       <c r="B437" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C437" s="41" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D437" s="28"/>
       <c r="E437" s="20" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F437" s="25"/>
       <c r="G437" s="15"/>
@@ -20133,10 +20493,10 @@
     <row r="438">
       <c r="A438" s="9"/>
       <c r="B438" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C438" s="41" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="13"/>
@@ -20166,10 +20526,10 @@
     <row r="439">
       <c r="A439" s="9"/>
       <c r="B439" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C439" s="41" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D439" s="28"/>
       <c r="E439" s="13"/>
@@ -20199,14 +20559,14 @@
     <row r="440">
       <c r="A440" s="9"/>
       <c r="B440" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D440" s="28"/>
       <c r="E440" s="20" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F440" s="25"/>
       <c r="G440" s="15"/>
@@ -20234,10 +20594,10 @@
     <row r="441">
       <c r="A441" s="9"/>
       <c r="B441" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C441" s="41" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D441" s="28"/>
       <c r="E441" s="13"/>
@@ -20267,14 +20627,14 @@
     <row r="442">
       <c r="A442" s="9"/>
       <c r="B442" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C442" s="41" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F442" s="25"/>
       <c r="G442" s="15"/>
@@ -20302,10 +20662,10 @@
     <row r="443">
       <c r="A443" s="9"/>
       <c r="B443" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C443" s="41" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D443" s="28"/>
       <c r="E443" s="13"/>
@@ -20335,10 +20695,10 @@
     <row r="444">
       <c r="A444" s="9"/>
       <c r="B444" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C444" s="41" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D444" s="28"/>
       <c r="E444" s="13"/>
@@ -20368,10 +20728,10 @@
     <row r="445">
       <c r="A445" s="9"/>
       <c r="B445" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C445" s="41" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D445" s="28"/>
       <c r="E445" s="13"/>
@@ -20401,14 +20761,14 @@
     <row r="446">
       <c r="A446" s="9"/>
       <c r="B446" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C446" s="41" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D446" s="28"/>
       <c r="E446" s="20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F446" s="25"/>
       <c r="G446" s="15"/>
@@ -20436,10 +20796,10 @@
     <row r="447">
       <c r="A447" s="9"/>
       <c r="B447" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C447" s="41" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D447" s="28"/>
       <c r="E447" s="13"/>
@@ -20469,10 +20829,10 @@
     <row r="448">
       <c r="A448" s="9"/>
       <c r="B448" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C448" s="41" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D448" s="28"/>
       <c r="E448" s="13"/>
@@ -20502,14 +20862,14 @@
     <row r="449">
       <c r="A449" s="9"/>
       <c r="B449" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C449" s="41" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D449" s="28"/>
       <c r="E449" s="20" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F449" s="25"/>
       <c r="G449" s="15"/>
@@ -20537,10 +20897,10 @@
     <row r="450">
       <c r="A450" s="9"/>
       <c r="B450" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C450" s="41" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D450" s="28"/>
       <c r="E450" s="13"/>
@@ -20570,14 +20930,14 @@
     <row r="451">
       <c r="A451" s="9"/>
       <c r="B451" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C451" s="41" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D451" s="28"/>
       <c r="E451" s="20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F451" s="25"/>
       <c r="G451" s="15"/>
@@ -20605,10 +20965,10 @@
     <row r="452">
       <c r="A452" s="9"/>
       <c r="B452" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C452" s="41" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D452" s="28"/>
       <c r="E452" s="13"/>
@@ -20638,14 +20998,14 @@
     <row r="453">
       <c r="A453" s="9"/>
       <c r="B453" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C453" s="41" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D453" s="28"/>
       <c r="E453" s="20" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F453" s="25"/>
       <c r="G453" s="15"/>
@@ -20673,10 +21033,10 @@
     <row r="454">
       <c r="A454" s="9"/>
       <c r="B454" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C454" s="41" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D454" s="28"/>
       <c r="E454" s="13"/>
@@ -20706,14 +21066,14 @@
     <row r="455">
       <c r="A455" s="9"/>
       <c r="B455" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C455" s="41" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D455" s="28"/>
       <c r="E455" s="20" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F455" s="25"/>
       <c r="G455" s="15"/>
@@ -20741,14 +21101,14 @@
     <row r="456">
       <c r="A456" s="9"/>
       <c r="B456" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C456" s="41" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D456" s="28"/>
       <c r="E456" s="20" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F456" s="25"/>
       <c r="G456" s="15"/>
@@ -20776,10 +21136,10 @@
     <row r="457">
       <c r="A457" s="9"/>
       <c r="B457" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C457" s="41" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D457" s="28"/>
       <c r="E457" s="13"/>
@@ -20809,14 +21169,14 @@
     <row r="458">
       <c r="A458" s="9"/>
       <c r="B458" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C458" s="41" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D458" s="28"/>
       <c r="E458" s="20" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F458" s="25"/>
       <c r="G458" s="15"/>
@@ -20844,14 +21204,14 @@
     <row r="459">
       <c r="A459" s="9"/>
       <c r="B459" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C459" s="41" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D459" s="28"/>
       <c r="E459" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F459" s="25"/>
       <c r="G459" s="15"/>
@@ -20879,14 +21239,14 @@
     <row r="460">
       <c r="A460" s="9"/>
       <c r="B460" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C460" s="41" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D460" s="28"/>
       <c r="E460" s="20" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F460" s="25"/>
       <c r="G460" s="15"/>
@@ -20914,14 +21274,14 @@
     <row r="461">
       <c r="A461" s="9"/>
       <c r="B461" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D461" s="28"/>
       <c r="E461" s="20" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F461" s="25"/>
       <c r="G461" s="15"/>
@@ -20949,14 +21309,14 @@
     <row r="462">
       <c r="A462" s="9"/>
       <c r="B462" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C462" s="41" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D462" s="28"/>
       <c r="E462" s="20" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F462" s="25"/>
       <c r="G462" s="15"/>
@@ -20984,14 +21344,14 @@
     <row r="463">
       <c r="A463" s="9"/>
       <c r="B463" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C463" s="41" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D463" s="28"/>
       <c r="E463" s="20" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F463" s="25"/>
       <c r="G463" s="15"/>
@@ -21019,10 +21379,10 @@
     <row r="464">
       <c r="A464" s="9"/>
       <c r="B464" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C464" s="41" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D464" s="28"/>
       <c r="E464" s="13"/>
@@ -21052,10 +21412,10 @@
     <row r="465">
       <c r="A465" s="9"/>
       <c r="B465" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C465" s="41" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D465" s="28"/>
       <c r="E465" s="13"/>
@@ -21085,14 +21445,14 @@
     <row r="466">
       <c r="A466" s="9"/>
       <c r="B466" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C466" s="41" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D466" s="28"/>
       <c r="E466" s="20" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F466" s="25"/>
       <c r="G466" s="15"/>
@@ -21120,14 +21480,14 @@
     <row r="467">
       <c r="A467" s="9"/>
       <c r="B467" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C467" s="41" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D467" s="28"/>
       <c r="E467" s="20" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F467" s="25"/>
       <c r="G467" s="15"/>
@@ -21155,10 +21515,10 @@
     <row r="468">
       <c r="A468" s="9"/>
       <c r="B468" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C468" s="41" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D468" s="28"/>
       <c r="E468" s="13"/>
@@ -21188,10 +21548,10 @@
     <row r="469">
       <c r="A469" s="9"/>
       <c r="B469" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C469" s="41" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D469" s="28"/>
       <c r="E469" s="13"/>
@@ -21221,10 +21581,10 @@
     <row r="470">
       <c r="A470" s="9"/>
       <c r="B470" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C470" s="41" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D470" s="28"/>
       <c r="E470" s="13"/>
@@ -21254,14 +21614,14 @@
     <row r="471">
       <c r="A471" s="9"/>
       <c r="B471" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C471" s="41" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D471" s="28"/>
       <c r="E471" s="20" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F471" s="25"/>
       <c r="G471" s="15"/>
@@ -21289,14 +21649,14 @@
     <row r="472">
       <c r="A472" s="9"/>
       <c r="B472" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="41" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D472" s="28"/>
       <c r="E472" s="20" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F472" s="25"/>
       <c r="G472" s="15"/>
@@ -21324,14 +21684,14 @@
     <row r="473">
       <c r="A473" s="9"/>
       <c r="B473" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C473" s="41" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D473" s="28"/>
       <c r="E473" s="20" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F473" s="25"/>
       <c r="G473" s="15"/>
@@ -21359,14 +21719,14 @@
     <row r="474">
       <c r="A474" s="9"/>
       <c r="B474" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C474" s="44" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D474" s="28"/>
       <c r="E474" s="20" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F474" s="25"/>
       <c r="G474" s="15"/>
@@ -21394,10 +21754,10 @@
     <row r="475">
       <c r="A475" s="9"/>
       <c r="B475" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C475" s="44" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D475" s="28"/>
       <c r="E475" s="13"/>
@@ -21427,14 +21787,14 @@
     <row r="476">
       <c r="A476" s="9"/>
       <c r="B476" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C476" s="41" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D476" s="28"/>
       <c r="E476" s="20" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F476" s="25"/>
       <c r="G476" s="15"/>
@@ -21462,14 +21822,14 @@
     <row r="477">
       <c r="A477" s="9"/>
       <c r="B477" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C477" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D477" s="28"/>
       <c r="E477" s="20" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F477" s="25"/>
       <c r="G477" s="15"/>
@@ -21497,14 +21857,14 @@
     <row r="478">
       <c r="A478" s="9"/>
       <c r="B478" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C478" s="41" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D478" s="28"/>
       <c r="E478" s="20" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F478" s="25"/>
       <c r="G478" s="15"/>
@@ -21532,14 +21892,14 @@
     <row r="479">
       <c r="A479" s="9"/>
       <c r="B479" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C479" s="41" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D479" s="28"/>
       <c r="E479" s="20" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F479" s="25"/>
       <c r="G479" s="15"/>
@@ -21567,10 +21927,10 @@
     <row r="480">
       <c r="A480" s="9"/>
       <c r="B480" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C480" s="41" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D480" s="28"/>
       <c r="E480" s="13"/>
@@ -21600,10 +21960,10 @@
     <row r="481">
       <c r="A481" s="9"/>
       <c r="B481" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C481" s="41" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D481" s="28"/>
       <c r="E481" s="13"/>
@@ -21633,14 +21993,14 @@
     <row r="482">
       <c r="A482" s="9"/>
       <c r="B482" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C482" s="41" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D482" s="28"/>
       <c r="E482" s="20" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F482" s="25"/>
       <c r="G482" s="15"/>
@@ -21668,14 +22028,14 @@
     <row r="483">
       <c r="A483" s="9"/>
       <c r="B483" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C483" s="41" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D483" s="28"/>
       <c r="E483" s="20" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F483" s="25"/>
       <c r="G483" s="15"/>
@@ -21703,10 +22063,10 @@
     <row r="484">
       <c r="A484" s="9"/>
       <c r="B484" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C484" s="41" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D484" s="28"/>
       <c r="E484" s="13"/>
@@ -21736,10 +22096,10 @@
     <row r="485">
       <c r="A485" s="9"/>
       <c r="B485" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C485" s="41" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D485" s="28"/>
       <c r="E485" s="13"/>
@@ -21769,14 +22129,14 @@
     <row r="486">
       <c r="A486" s="9"/>
       <c r="B486" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C486" s="41" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D486" s="28"/>
       <c r="E486" s="20" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F486" s="25"/>
       <c r="G486" s="15"/>
@@ -21804,14 +22164,14 @@
     <row r="487">
       <c r="A487" s="9"/>
       <c r="B487" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C487" s="41" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D487" s="28"/>
       <c r="E487" s="20" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F487" s="25"/>
       <c r="G487" s="15"/>
@@ -21839,14 +22199,14 @@
     <row r="488">
       <c r="A488" s="9"/>
       <c r="B488" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C488" s="41" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D488" s="28"/>
       <c r="E488" s="20" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F488" s="25"/>
       <c r="G488" s="15"/>
@@ -21874,10 +22234,10 @@
     <row r="489">
       <c r="A489" s="9"/>
       <c r="B489" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C489" s="41" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D489" s="28"/>
       <c r="E489" s="13"/>
@@ -21907,10 +22267,10 @@
     <row r="490">
       <c r="A490" s="9"/>
       <c r="B490" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C490" s="41" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D490" s="28"/>
       <c r="E490" s="13"/>
@@ -21940,10 +22300,10 @@
     <row r="491">
       <c r="A491" s="9"/>
       <c r="B491" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C491" s="41" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D491" s="28"/>
       <c r="E491" s="13"/>
@@ -21973,10 +22333,10 @@
     <row r="492">
       <c r="A492" s="9"/>
       <c r="B492" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C492" s="41" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D492" s="28"/>
       <c r="E492" s="13"/>
@@ -22006,10 +22366,10 @@
     <row r="493">
       <c r="A493" s="9"/>
       <c r="B493" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C493" s="41" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D493" s="28"/>
       <c r="E493" s="13"/>
@@ -22039,10 +22399,10 @@
     <row r="494">
       <c r="A494" s="9"/>
       <c r="B494" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C494" s="41" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D494" s="28"/>
       <c r="E494" s="13"/>
@@ -22072,14 +22432,14 @@
     <row r="495">
       <c r="A495" s="9"/>
       <c r="B495" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C495" s="41" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D495" s="28"/>
       <c r="E495" s="20" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F495" s="25"/>
       <c r="G495" s="15"/>
@@ -22107,10 +22467,10 @@
     <row r="496">
       <c r="A496" s="9"/>
       <c r="B496" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C496" s="41" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D496" s="28"/>
       <c r="E496" s="13"/>
@@ -22140,10 +22500,10 @@
     <row r="497">
       <c r="A497" s="9"/>
       <c r="B497" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C497" s="41" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D497" s="28"/>
       <c r="E497" s="13"/>
@@ -22173,14 +22533,14 @@
     <row r="498">
       <c r="A498" s="9"/>
       <c r="B498" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C498" s="41" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D498" s="28"/>
       <c r="E498" s="20" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F498" s="25"/>
       <c r="G498" s="15"/>
@@ -22208,14 +22568,14 @@
     <row r="499">
       <c r="A499" s="9"/>
       <c r="B499" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C499" s="41" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D499" s="28"/>
       <c r="E499" s="20" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F499" s="25"/>
       <c r="G499" s="15"/>
@@ -22243,10 +22603,10 @@
     <row r="500">
       <c r="A500" s="9"/>
       <c r="B500" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C500" s="41" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D500" s="28"/>
       <c r="E500" s="13"/>
@@ -22276,10 +22636,10 @@
     <row r="501">
       <c r="A501" s="9"/>
       <c r="B501" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C501" s="41" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D501" s="28"/>
       <c r="E501" s="13"/>
@@ -22309,10 +22669,10 @@
     <row r="502">
       <c r="A502" s="9"/>
       <c r="B502" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C502" s="41" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D502" s="28"/>
       <c r="E502" s="13"/>
@@ -22342,14 +22702,14 @@
     <row r="503">
       <c r="A503" s="9"/>
       <c r="B503" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C503" s="41" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D503" s="28"/>
       <c r="E503" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F503" s="25"/>
       <c r="G503" s="15"/>
@@ -22377,10 +22737,10 @@
     <row r="504">
       <c r="A504" s="9"/>
       <c r="B504" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C504" s="41" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D504" s="28"/>
       <c r="E504" s="13"/>
@@ -22410,10 +22770,10 @@
     <row r="505">
       <c r="A505" s="9"/>
       <c r="B505" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C505" s="41" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D505" s="28"/>
       <c r="E505" s="13"/>
@@ -22443,14 +22803,14 @@
     <row r="506">
       <c r="A506" s="9"/>
       <c r="B506" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C506" s="41" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D506" s="28"/>
       <c r="E506" s="20" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F506" s="25"/>
       <c r="G506" s="15"/>
@@ -22478,16 +22838,16 @@
     <row r="507">
       <c r="A507" s="9"/>
       <c r="B507" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C507" s="41" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D507" s="21" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E507" s="20" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F507" s="25"/>
       <c r="G507" s="15"/>
@@ -22515,14 +22875,14 @@
     <row r="508">
       <c r="A508" s="9"/>
       <c r="B508" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C508" s="41" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="20" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F508" s="25"/>
       <c r="G508" s="15"/>
@@ -22550,14 +22910,14 @@
     <row r="509">
       <c r="A509" s="9"/>
       <c r="B509" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C509" s="41" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D509" s="28"/>
       <c r="E509" s="20" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F509" s="25"/>
       <c r="G509" s="15"/>
@@ -22585,14 +22945,14 @@
     <row r="510">
       <c r="A510" s="9"/>
       <c r="B510" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C510" s="41" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D510" s="28"/>
       <c r="E510" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F510" s="25"/>
       <c r="G510" s="15"/>
@@ -22620,14 +22980,14 @@
     <row r="511">
       <c r="A511" s="9"/>
       <c r="B511" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C511" s="41" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D511" s="28"/>
       <c r="E511" s="20" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F511" s="25"/>
       <c r="G511" s="15"/>
@@ -22655,14 +23015,14 @@
     <row r="512">
       <c r="A512" s="9"/>
       <c r="B512" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C512" s="41" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D512" s="28"/>
       <c r="E512" s="20" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F512" s="25"/>
       <c r="G512" s="15"/>
@@ -22690,10 +23050,10 @@
     <row r="513">
       <c r="A513" s="9"/>
       <c r="B513" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C513" s="41" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D513" s="28"/>
       <c r="E513" s="13"/>
@@ -22723,10 +23083,10 @@
     <row r="514">
       <c r="A514" s="9"/>
       <c r="B514" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C514" s="41" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D514" s="28"/>
       <c r="E514" s="13"/>
@@ -22756,10 +23116,10 @@
     <row r="515">
       <c r="A515" s="9"/>
       <c r="B515" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C515" s="41" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D515" s="28"/>
       <c r="E515" s="13"/>
@@ -22789,10 +23149,10 @@
     <row r="516">
       <c r="A516" s="9"/>
       <c r="B516" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C516" s="41" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="13"/>
@@ -22822,10 +23182,10 @@
     <row r="517">
       <c r="A517" s="9"/>
       <c r="B517" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C517" s="41" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="13"/>
@@ -22855,14 +23215,14 @@
     <row r="518">
       <c r="A518" s="9"/>
       <c r="B518" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C518" s="41" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F518" s="25"/>
       <c r="G518" s="15"/>
@@ -22890,10 +23250,10 @@
     <row r="519">
       <c r="A519" s="9"/>
       <c r="B519" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C519" s="41" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D519" s="28"/>
       <c r="E519" s="13"/>
@@ -22923,14 +23283,14 @@
     <row r="520">
       <c r="A520" s="9"/>
       <c r="B520" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C520" s="41" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D520" s="28"/>
       <c r="E520" s="20" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F520" s="25"/>
       <c r="G520" s="15"/>
@@ -22958,10 +23318,10 @@
     <row r="521">
       <c r="A521" s="9"/>
       <c r="B521" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C521" s="41" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D521" s="28"/>
       <c r="E521" s="13"/>
@@ -22991,14 +23351,14 @@
     <row r="522">
       <c r="A522" s="9"/>
       <c r="B522" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C522" s="41" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D522" s="28"/>
       <c r="E522" s="20" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F522" s="25"/>
       <c r="G522" s="15"/>
@@ -23026,14 +23386,14 @@
     <row r="523">
       <c r="A523" s="9"/>
       <c r="B523" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C523" s="41" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D523" s="28"/>
       <c r="E523" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F523" s="25"/>
       <c r="G523" s="15"/>
@@ -23061,14 +23421,14 @@
     <row r="524">
       <c r="A524" s="9"/>
       <c r="B524" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C524" s="41" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D524" s="28"/>
       <c r="E524" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F524" s="25"/>
       <c r="G524" s="15"/>
@@ -23096,14 +23456,14 @@
     <row r="525">
       <c r="A525" s="9"/>
       <c r="B525" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C525" s="41" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D525" s="28"/>
       <c r="E525" s="20" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F525" s="25"/>
       <c r="G525" s="15"/>
@@ -23131,14 +23491,14 @@
     <row r="526">
       <c r="A526" s="9"/>
       <c r="B526" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C526" s="45" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D526" s="24"/>
       <c r="E526" s="20" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F526" s="25"/>
       <c r="G526" s="15"/>
@@ -23166,14 +23526,14 @@
     <row r="527">
       <c r="A527" s="9"/>
       <c r="B527" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C527" s="41" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D527" s="28"/>
       <c r="E527" s="20" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F527" s="25"/>
       <c r="G527" s="15"/>
@@ -23201,10 +23561,10 @@
     <row r="528">
       <c r="A528" s="9"/>
       <c r="B528" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C528" s="46" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D528" s="47"/>
       <c r="E528" s="13"/>
@@ -23234,14 +23594,14 @@
     <row r="529">
       <c r="A529" s="9"/>
       <c r="B529" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C529" s="46" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D529" s="47"/>
       <c r="E529" s="20" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F529" s="25"/>
       <c r="G529" s="15"/>
@@ -23269,10 +23629,10 @@
     <row r="530">
       <c r="A530" s="9"/>
       <c r="B530" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C530" s="46" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D530" s="47"/>
       <c r="E530" s="13"/>
@@ -23302,14 +23662,14 @@
     <row r="531">
       <c r="A531" s="9"/>
       <c r="B531" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C531" s="46" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D531" s="47"/>
       <c r="E531" s="20" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F531" s="25"/>
       <c r="G531" s="15"/>
@@ -23337,14 +23697,14 @@
     <row r="532">
       <c r="A532" s="9"/>
       <c r="B532" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C532" s="46" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D532" s="47"/>
       <c r="E532" s="20" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F532" s="25"/>
       <c r="G532" s="15"/>
@@ -23372,14 +23732,14 @@
     <row r="533">
       <c r="A533" s="9"/>
       <c r="B533" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C533" s="46" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D533" s="47"/>
       <c r="E533" s="20" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F533" s="25"/>
       <c r="G533" s="15"/>
@@ -23407,10 +23767,10 @@
     <row r="534">
       <c r="A534" s="9"/>
       <c r="B534" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C534" s="46" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D534" s="47"/>
       <c r="E534" s="13"/>
@@ -23440,14 +23800,14 @@
     <row r="535">
       <c r="A535" s="9"/>
       <c r="B535" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C535" s="46" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D535" s="47"/>
       <c r="E535" s="20" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F535" s="25"/>
       <c r="G535" s="15"/>
@@ -23475,10 +23835,10 @@
     <row r="536">
       <c r="A536" s="9"/>
       <c r="B536" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C536" s="46" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D536" s="47"/>
       <c r="E536" s="13"/>
@@ -23508,10 +23868,10 @@
     <row r="537">
       <c r="A537" s="9"/>
       <c r="B537" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C537" s="46" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D537" s="47"/>
       <c r="E537" s="13"/>
@@ -23541,14 +23901,14 @@
     <row r="538">
       <c r="A538" s="9"/>
       <c r="B538" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C538" s="46" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D538" s="47"/>
       <c r="E538" s="20" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F538" s="25"/>
       <c r="G538" s="15"/>
@@ -23576,10 +23936,10 @@
     <row r="539">
       <c r="A539" s="9"/>
       <c r="B539" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C539" s="46" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D539" s="47"/>
       <c r="E539" s="13"/>
@@ -23609,10 +23969,10 @@
     <row r="540">
       <c r="A540" s="9"/>
       <c r="B540" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C540" s="46" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D540" s="47"/>
       <c r="E540" s="13"/>
@@ -23642,14 +24002,14 @@
     <row r="541">
       <c r="A541" s="9"/>
       <c r="B541" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C541" s="46" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D541" s="47"/>
       <c r="E541" s="20" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F541" s="25"/>
       <c r="G541" s="15"/>
@@ -23677,14 +24037,14 @@
     <row r="542">
       <c r="A542" s="9"/>
       <c r="B542" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C542" s="46" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D542" s="47"/>
       <c r="E542" s="20" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F542" s="25"/>
       <c r="G542" s="15"/>
@@ -23712,10 +24072,10 @@
     <row r="543">
       <c r="A543" s="9"/>
       <c r="B543" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C543" s="46" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D543" s="47"/>
       <c r="E543" s="13"/>
@@ -23745,14 +24105,14 @@
     <row r="544">
       <c r="A544" s="9"/>
       <c r="B544" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C544" s="46" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D544" s="47"/>
       <c r="E544" s="20" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F544" s="25"/>
       <c r="G544" s="15"/>
@@ -23780,14 +24140,14 @@
     <row r="545">
       <c r="A545" s="9"/>
       <c r="B545" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C545" s="46" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D545" s="47"/>
       <c r="E545" s="20" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F545" s="25"/>
       <c r="G545" s="15"/>
@@ -23815,10 +24175,10 @@
     <row r="546">
       <c r="A546" s="9"/>
       <c r="B546" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C546" s="46" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D546" s="47"/>
       <c r="E546" s="13"/>
@@ -23848,14 +24208,14 @@
     <row r="547">
       <c r="A547" s="9"/>
       <c r="B547" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C547" s="46" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D547" s="47"/>
       <c r="E547" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F547" s="25"/>
       <c r="G547" s="15"/>
@@ -23883,10 +24243,10 @@
     <row r="548">
       <c r="A548" s="9"/>
       <c r="B548" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C548" s="46" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D548" s="47"/>
       <c r="E548" s="13"/>
@@ -23916,10 +24276,10 @@
     <row r="549">
       <c r="A549" s="9"/>
       <c r="B549" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C549" s="46" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D549" s="47"/>
       <c r="E549" s="13"/>
@@ -23949,14 +24309,14 @@
     <row r="550">
       <c r="A550" s="9"/>
       <c r="B550" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C550" s="46" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D550" s="47"/>
       <c r="E550" s="20" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F550" s="25"/>
       <c r="G550" s="15"/>
@@ -23984,10 +24344,10 @@
     <row r="551">
       <c r="A551" s="9"/>
       <c r="B551" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C551" s="46" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D551" s="47"/>
       <c r="E551" s="13"/>
@@ -24017,10 +24377,10 @@
     <row r="552">
       <c r="A552" s="9"/>
       <c r="B552" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C552" s="46" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D552" s="47"/>
       <c r="E552" s="13"/>
@@ -24050,14 +24410,14 @@
     <row r="553">
       <c r="A553" s="9"/>
       <c r="B553" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C553" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D553" s="47"/>
       <c r="E553" s="20" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F553" s="25"/>
       <c r="G553" s="15"/>
@@ -24085,14 +24445,14 @@
     <row r="554">
       <c r="A554" s="9"/>
       <c r="B554" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C554" s="46" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D554" s="47"/>
       <c r="E554" s="20" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F554" s="25"/>
       <c r="G554" s="15"/>
@@ -24120,14 +24480,14 @@
     <row r="555">
       <c r="A555" s="9"/>
       <c r="B555" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C555" s="46" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D555" s="47"/>
       <c r="E555" s="20" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F555" s="25"/>
       <c r="G555" s="15"/>
@@ -24155,14 +24515,14 @@
     <row r="556">
       <c r="A556" s="9"/>
       <c r="B556" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C556" s="46" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D556" s="47"/>
       <c r="E556" s="20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F556" s="25"/>
       <c r="G556" s="15"/>
@@ -24190,14 +24550,14 @@
     <row r="557">
       <c r="A557" s="9"/>
       <c r="B557" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C557" s="46" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D557" s="47"/>
       <c r="E557" s="20" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F557" s="25"/>
       <c r="G557" s="15"/>
@@ -24225,14 +24585,14 @@
     <row r="558">
       <c r="A558" s="9"/>
       <c r="B558" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C558" s="46" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D558" s="47"/>
       <c r="E558" s="20" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F558" s="25"/>
       <c r="G558" s="15"/>
@@ -24260,10 +24620,10 @@
     <row r="559">
       <c r="A559" s="9"/>
       <c r="B559" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C559" s="46" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D559" s="47"/>
       <c r="E559" s="13"/>
@@ -24293,10 +24653,10 @@
     <row r="560">
       <c r="A560" s="9"/>
       <c r="B560" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C560" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D560" s="47"/>
       <c r="E560" s="13"/>
@@ -24326,14 +24686,14 @@
     <row r="561">
       <c r="A561" s="9"/>
       <c r="B561" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C561" s="46" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D561" s="47"/>
       <c r="E561" s="20" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F561" s="25"/>
       <c r="G561" s="15"/>
@@ -24361,14 +24721,14 @@
     <row r="562">
       <c r="A562" s="9"/>
       <c r="B562" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C562" s="46" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D562" s="47"/>
       <c r="E562" s="20" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F562" s="25"/>
       <c r="G562" s="15"/>
@@ -24396,14 +24756,14 @@
     <row r="563">
       <c r="A563" s="9"/>
       <c r="B563" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C563" s="46" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D563" s="47"/>
       <c r="E563" s="20" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F563" s="25"/>
       <c r="G563" s="15"/>
@@ -24431,10 +24791,10 @@
     <row r="564">
       <c r="A564" s="9"/>
       <c r="B564" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C564" s="46" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D564" s="47"/>
       <c r="E564" s="13"/>
@@ -24464,10 +24824,10 @@
     <row r="565">
       <c r="A565" s="9"/>
       <c r="B565" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C565" s="46" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D565" s="47"/>
       <c r="E565" s="13"/>
@@ -24497,10 +24857,10 @@
     <row r="566">
       <c r="A566" s="9"/>
       <c r="B566" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C566" s="46" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D566" s="47"/>
       <c r="E566" s="13"/>
@@ -24530,14 +24890,14 @@
     <row r="567">
       <c r="A567" s="9"/>
       <c r="B567" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C567" s="46" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D567" s="47"/>
       <c r="E567" s="20" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F567" s="25"/>
       <c r="G567" s="15"/>
@@ -24565,10 +24925,10 @@
     <row r="568">
       <c r="A568" s="9"/>
       <c r="B568" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C568" s="46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D568" s="47"/>
       <c r="E568" s="13"/>
@@ -24598,10 +24958,10 @@
     <row r="569">
       <c r="A569" s="9"/>
       <c r="B569" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C569" s="46" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D569" s="47"/>
       <c r="E569" s="13"/>
@@ -24631,14 +24991,14 @@
     <row r="570">
       <c r="A570" s="9"/>
       <c r="B570" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C570" s="46" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D570" s="47"/>
       <c r="E570" s="20" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F570" s="25"/>
       <c r="G570" s="15"/>
@@ -24666,14 +25026,14 @@
     <row r="571">
       <c r="A571" s="9"/>
       <c r="B571" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C571" s="46" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D571" s="47"/>
       <c r="E571" s="20" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F571" s="25"/>
       <c r="G571" s="15"/>
@@ -24701,14 +25061,14 @@
     <row r="572">
       <c r="A572" s="9"/>
       <c r="B572" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C572" s="46" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D572" s="47"/>
       <c r="E572" s="20" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F572" s="25"/>
       <c r="G572" s="15"/>
@@ -24736,10 +25096,10 @@
     <row r="573">
       <c r="A573" s="9"/>
       <c r="B573" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C573" s="46" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D573" s="47"/>
       <c r="E573" s="13"/>
@@ -24769,14 +25129,14 @@
     <row r="574">
       <c r="A574" s="9"/>
       <c r="B574" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C574" s="48" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D574" s="47"/>
       <c r="E574" s="20" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F574" s="25"/>
       <c r="G574" s="15"/>
@@ -24804,10 +25164,10 @@
     <row r="575">
       <c r="A575" s="9"/>
       <c r="B575" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C575" s="46" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D575" s="47"/>
       <c r="E575" s="13"/>
@@ -24837,10 +25197,10 @@
     <row r="576">
       <c r="A576" s="9"/>
       <c r="B576" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C576" s="46" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D576" s="47"/>
       <c r="E576" s="13"/>
@@ -24870,10 +25230,10 @@
     <row r="577">
       <c r="A577" s="9"/>
       <c r="B577" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C577" s="46" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D577" s="47"/>
       <c r="E577" s="13"/>
@@ -24903,14 +25263,14 @@
     <row r="578">
       <c r="A578" s="9"/>
       <c r="B578" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C578" s="46" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D578" s="47"/>
       <c r="E578" s="20" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F578" s="25"/>
       <c r="G578" s="15"/>
@@ -24938,10 +25298,10 @@
     <row r="579">
       <c r="A579" s="9"/>
       <c r="B579" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C579" s="46" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D579" s="47"/>
       <c r="E579" s="13"/>
@@ -24971,14 +25331,14 @@
     <row r="580">
       <c r="A580" s="9"/>
       <c r="B580" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C580" s="46" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D580" s="47"/>
       <c r="E580" s="20" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F580" s="25"/>
       <c r="G580" s="15"/>
@@ -25006,14 +25366,14 @@
     <row r="581">
       <c r="A581" s="9"/>
       <c r="B581" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C581" s="46" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D581" s="47"/>
       <c r="E581" s="20" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F581" s="25"/>
       <c r="G581" s="15"/>
@@ -25041,10 +25401,10 @@
     <row r="582">
       <c r="A582" s="9"/>
       <c r="B582" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C582" s="46" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D582" s="47"/>
       <c r="E582" s="13"/>
@@ -25074,10 +25434,10 @@
     <row r="583">
       <c r="A583" s="9"/>
       <c r="B583" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C583" s="46" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D583" s="47"/>
       <c r="E583" s="13"/>
@@ -25107,14 +25467,14 @@
     <row r="584">
       <c r="A584" s="9"/>
       <c r="B584" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C584" s="46" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D584" s="47"/>
       <c r="E584" s="20" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F584" s="25"/>
       <c r="G584" s="15"/>
@@ -25142,14 +25502,14 @@
     <row r="585">
       <c r="A585" s="9"/>
       <c r="B585" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C585" s="46" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D585" s="47"/>
       <c r="E585" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F585" s="25"/>
       <c r="G585" s="15"/>
@@ -25177,10 +25537,10 @@
     <row r="586">
       <c r="A586" s="9"/>
       <c r="B586" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C586" s="46" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D586" s="47"/>
       <c r="E586" s="13"/>
@@ -25210,10 +25570,10 @@
     <row r="587">
       <c r="A587" s="9"/>
       <c r="B587" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C587" s="46" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D587" s="47"/>
       <c r="E587" s="13"/>
@@ -25243,14 +25603,14 @@
     <row r="588">
       <c r="A588" s="9"/>
       <c r="B588" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C588" s="46" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D588" s="47"/>
       <c r="E588" s="20" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F588" s="25"/>
       <c r="G588" s="15"/>
@@ -25278,19 +25638,19 @@
     <row r="589">
       <c r="A589" s="9"/>
       <c r="B589" s="33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C589" s="49" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D589" s="50" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E589" s="37" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F589" s="38" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G589" s="15"/>
       <c r="H589" s="16"/>
@@ -25317,18 +25677,18 @@
     <row r="590">
       <c r="A590" s="9"/>
       <c r="B590" s="17" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C590" s="46" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D590" s="51" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E590" s="36"/>
       <c r="F590" s="25"/>
       <c r="G590" s="52" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H590" s="16"/>
       <c r="I590" s="16"/>
@@ -25354,17 +25714,17 @@
     <row r="591">
       <c r="A591" s="9"/>
       <c r="B591" s="17" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C591" s="46" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D591" s="51" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E591" s="13"/>
       <c r="F591" s="25" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G591" s="15"/>
       <c r="H591" s="16"/>
@@ -25391,13 +25751,13 @@
     <row r="592">
       <c r="A592" s="9"/>
       <c r="B592" s="17" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C592" s="49" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D592" s="50" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E592" s="36"/>
       <c r="F592" s="14"/>
@@ -25426,13 +25786,13 @@
     <row r="593">
       <c r="A593" s="9"/>
       <c r="B593" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C593" s="53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D593" s="50" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E593" s="36"/>
       <c r="F593" s="14"/>
@@ -25461,13 +25821,13 @@
     <row r="594">
       <c r="A594" s="9"/>
       <c r="B594" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C594" s="49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D594" s="50" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E594" s="36"/>
       <c r="F594" s="14"/>
@@ -25496,13 +25856,13 @@
     <row r="595">
       <c r="A595" s="9"/>
       <c r="B595" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C595" s="53" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D595" s="50" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E595" s="36"/>
       <c r="F595" s="14"/>
@@ -25531,13 +25891,13 @@
     <row r="596">
       <c r="A596" s="9"/>
       <c r="B596" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C596" s="49" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D596" s="50" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E596" s="36"/>
       <c r="F596" s="14"/>
@@ -25566,17 +25926,17 @@
     <row r="597">
       <c r="A597" s="9"/>
       <c r="B597" s="33" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C597" s="49" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D597" s="50" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E597" s="36"/>
       <c r="F597" s="38" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G597" s="15"/>
       <c r="H597" s="16"/>
@@ -25602,9 +25962,15 @@
     </row>
     <row r="598">
       <c r="A598" s="9"/>
-      <c r="B598" s="9"/>
-      <c r="C598" s="54"/>
-      <c r="D598" s="55"/>
+      <c r="B598" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C598" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D598" s="50" t="s">
+        <v>1057</v>
+      </c>
       <c r="E598" s="36"/>
       <c r="F598" s="14"/>
       <c r="G598" s="15"/>
@@ -25631,9 +25997,15 @@
     </row>
     <row r="599">
       <c r="A599" s="9"/>
-      <c r="B599" s="9"/>
-      <c r="C599" s="54"/>
-      <c r="D599" s="55"/>
+      <c r="B599" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C599" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D599" s="50" t="s">
+        <v>1059</v>
+      </c>
       <c r="E599" s="36"/>
       <c r="F599" s="14"/>
       <c r="G599" s="15"/>
@@ -25660,9 +26032,15 @@
     </row>
     <row r="600">
       <c r="A600" s="9"/>
-      <c r="B600" s="9"/>
-      <c r="C600" s="54"/>
-      <c r="D600" s="55"/>
+      <c r="B600" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C600" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D600" s="50" t="s">
+        <v>1061</v>
+      </c>
       <c r="E600" s="36"/>
       <c r="F600" s="14"/>
       <c r="G600" s="15"/>
@@ -25689,9 +26067,15 @@
     </row>
     <row r="601">
       <c r="A601" s="9"/>
-      <c r="B601" s="9"/>
-      <c r="C601" s="54"/>
-      <c r="D601" s="55"/>
+      <c r="B601" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C601" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D601" s="50" t="s">
+        <v>1063</v>
+      </c>
       <c r="E601" s="36"/>
       <c r="F601" s="14"/>
       <c r="G601" s="15"/>
@@ -25718,9 +26102,15 @@
     </row>
     <row r="602">
       <c r="A602" s="9"/>
-      <c r="B602" s="9"/>
-      <c r="C602" s="54"/>
-      <c r="D602" s="55"/>
+      <c r="B602" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C602" s="53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D602" s="50" t="s">
+        <v>1065</v>
+      </c>
       <c r="E602" s="36"/>
       <c r="F602" s="14"/>
       <c r="G602" s="15"/>
@@ -25747,9 +26137,15 @@
     </row>
     <row r="603">
       <c r="A603" s="9"/>
-      <c r="B603" s="9"/>
-      <c r="C603" s="54"/>
-      <c r="D603" s="55"/>
+      <c r="B603" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C603" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D603" s="50" t="s">
+        <v>1067</v>
+      </c>
       <c r="E603" s="36"/>
       <c r="F603" s="14"/>
       <c r="G603" s="15"/>
@@ -25776,9 +26172,15 @@
     </row>
     <row r="604">
       <c r="A604" s="9"/>
-      <c r="B604" s="9"/>
-      <c r="C604" s="54"/>
-      <c r="D604" s="55"/>
+      <c r="B604" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C604" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D604" s="50" t="s">
+        <v>1068</v>
+      </c>
       <c r="E604" s="36"/>
       <c r="F604" s="14"/>
       <c r="G604" s="15"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1130">
   <si>
     <t>Number</t>
   </si>
@@ -4990,6 +4990,352 @@
   <si>
     <t>to not become successful or important:
 He’s lazy, and he’ll never amount to anything.</t>
+  </si>
+  <si>
+    <t>exceed (v.)</t>
+  </si>
+  <si>
+    <t>to be greater than a number or amount, or to go past an allowed limit:
+The final cost should not exceed $5,000.
+The success of our campaign has exceeded our wildest expectations.
+She was found guilty on three charges of exceeding the speed limit.</t>
+  </si>
+  <si>
+    <t>verb: تجاوز کردن, متجاوز شدن از, تجاوز کردن از, متجاوز بودن, بالغ شدن بر, قدم فراتر نهادن, تخطی کردن از</t>
+  </si>
+  <si>
+    <t>overall (adj. adv.)</t>
+  </si>
+  <si>
+    <t>in general rather than in particular, or including all the people or things in a particular group or situation:
+The overall situation is good, despite a few minor problems.
+Overall, it has been a good year.
+The overall winner, after ten games, will receive $250,000.</t>
+  </si>
+  <si>
+    <t>به طور کلی
+adverb: سرتاسر, روی هم رفته, همه جا
+noun: لباس کار, بالا پوش
+adjective: شامل همه چیز, سراسر</t>
+  </si>
+  <si>
+    <t>despite (prep.)</t>
+  </si>
+  <si>
+    <t>without taking any notice of or being influenced by; not prevented by:
+I still enjoyed the week despite the weather.
+Despite repeated assurances that the product is safe, many people have stopped buying it.</t>
+  </si>
+  <si>
+    <t>preposition: با وجود, علیرغم, با اینکه, مخالف</t>
+  </si>
+  <si>
+    <t>amuse (v.) 
+amuses, amusing, amused</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>1- to make somebody smile or laugh:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g. Rick's joke did not amuse his mother.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">2- to keep somebody happy or busy:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>e.g. We playes games to amuse ourselves on the journey.</t>
+    </r>
+  </si>
+  <si>
+    <t>سرگرم کردن
+verb: مات و متحیر کردن, سرگرم کردن, مشغول کردن, تفریح دادن, جذب کردن</t>
+  </si>
+  <si>
+    <t>extraordinary (adj.)</t>
+  </si>
+  <si>
+    <t>very unusual, special, unexpected, or strange:
+He told the extraordinary story of his escape.
+Her voice had an extraordinary hypnotic quality.
+an extraordinary coincidence</t>
+  </si>
+  <si>
+    <t>adjective: فوق العاده, خارق العاده, غیر عادی, شگفت اور, خیلی خوب</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>originally, I'm actually from Iran</t>
+  </si>
+  <si>
+    <t>من در اصل اهل ایران هستم</t>
+  </si>
+  <si>
+    <t>as opposed to</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">C2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>rather than:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+I'd prefer to go in May, as opposed to September.
+What about the stores that they own, as opposed to the ones they lease?
+Too little is made of music that is good (as opposed to merely popular).
+People should be able to get out into nature and experience it, as opposed to glimpsing it from afar.
+The goal is to inspire lasting changes as opposed to offering quick fixes.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">coherent </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>(of an argument, theory, or policy) logical and consistent.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+"they failed to develop a coherent economic strategy"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>Synonyms:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+logical-reasoned-reasonable-well-reasoned-rational-sound-cogent-consistent 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>If an argument, set of ideas, or a plan is coherent, it is clear and carefully considered, and each part of it connects or follows in a natural or reasonable way.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+If someone is coherent, you can understand what that person says:
+When she calmed down, she was more coherent (= able to speak clearly and be understood).</t>
+    </r>
+  </si>
+  <si>
+    <t>discourse marker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">a word or phrase that is used for organizing discourse (= spoken or written communication ), for example well, so, or in fact:
+Many speakers use "you know" as a discourse marker.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>Fewer examples:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+His style is full of chatty discourse markers (for a start, touch wood, in any event, possibly).
+Utterances such as venga ("come"), mira ("look") and oye ("listen") are typically used as discourse markers in Spanish.
+Discourse markers such as "well", "you know", and "like" are not usually explicitly taught to language learners.
+In her corpus-based research on the phrase "I think" in American English, she finds that it often serves strictly as a discourse marker, with no real semantic content. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>What is a discourse marker?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Discourse markers are used to organise and manage what we are saying using words and phrases to connect ideas and to express how we feel about what we are saying. They are also used to help you think about what to say next using fillers correctly to sound natural in your delivery.</t>
+    </r>
+  </si>
+  <si>
+    <t>discours (n.)</t>
+  </si>
+  <si>
+    <t>the use of language to communicate in speech or writing, or an example of this:
+spoken discourse Ellipsis is a characteristic feature of spoken discourse.
+They may have difficulty in retrieving words and organizing a complex discourse.</t>
+  </si>
+  <si>
+    <t>assess (v.)</t>
+  </si>
+  <si>
+    <t>to judge or decide the amount, value, quality, or importance of something:
+The insurers will need to assess the flood damage.
+They assessed the cost of the flood damage at £2,500.
+Exams are not the only means of assessing a student's ability.</t>
+  </si>
+  <si>
+    <t>sorrow (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>(a cause of) a feeling of great sadness:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+sorrow at The sorrow she felt at the death of her husband was almost too much to bear.
+sorrow over He expressed sorrow over the suffering inflicted during the war.
+The sorrows of her earlier years gave way to joy in later life.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>Synonyms</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+sadness (FEELING)
+unhappiness</t>
+    </r>
+  </si>
+  <si>
+    <t>proximity (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>the state of being near in space or time:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+The best thing about the location of the house is its proximity to the town centre.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5234,7 +5580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5425,11 +5771,41 @@
     <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26900,10 +27276,18 @@
     </row>
     <row r="614">
       <c r="A614" s="12"/>
-      <c r="B614" s="12"/>
-      <c r="C614" s="64"/>
-      <c r="D614" s="65"/>
-      <c r="E614" s="43"/>
+      <c r="B614" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C614" s="61" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D614" s="57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E614" s="44" t="s">
+        <v>1100</v>
+      </c>
       <c r="F614" s="17"/>
       <c r="G614" s="18"/>
       <c r="H614" s="19"/>
@@ -26929,10 +27313,18 @@
     </row>
     <row r="615">
       <c r="A615" s="12"/>
-      <c r="B615" s="12"/>
-      <c r="C615" s="64"/>
-      <c r="D615" s="65"/>
-      <c r="E615" s="43"/>
+      <c r="B615" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="C615" s="61" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D615" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E615" s="44" t="s">
+        <v>1103</v>
+      </c>
       <c r="F615" s="17"/>
       <c r="G615" s="18"/>
       <c r="H615" s="19"/>
@@ -26958,10 +27350,18 @@
     </row>
     <row r="616">
       <c r="A616" s="12"/>
-      <c r="B616" s="12"/>
-      <c r="C616" s="64"/>
-      <c r="D616" s="65"/>
-      <c r="E616" s="43"/>
+      <c r="B616" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C616" s="61" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D616" s="57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E616" s="44" t="s">
+        <v>1106</v>
+      </c>
       <c r="F616" s="17"/>
       <c r="G616" s="18"/>
       <c r="H616" s="19"/>
@@ -26987,10 +27387,18 @@
     </row>
     <row r="617">
       <c r="A617" s="12"/>
-      <c r="B617" s="12"/>
-      <c r="C617" s="64"/>
-      <c r="D617" s="65"/>
-      <c r="E617" s="43"/>
+      <c r="B617" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="C617" s="61" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D617" s="57" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E617" s="44" t="s">
+        <v>1109</v>
+      </c>
       <c r="F617" s="17"/>
       <c r="G617" s="18"/>
       <c r="H617" s="19"/>
@@ -27016,10 +27424,18 @@
     </row>
     <row r="618">
       <c r="A618" s="12"/>
-      <c r="B618" s="12"/>
-      <c r="C618" s="64"/>
-      <c r="D618" s="65"/>
-      <c r="E618" s="43"/>
+      <c r="B618" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C618" s="61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D618" s="57" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E618" s="44" t="s">
+        <v>1112</v>
+      </c>
       <c r="F618" s="17"/>
       <c r="G618" s="18"/>
       <c r="H618" s="19"/>
@@ -27045,10 +27461,16 @@
     </row>
     <row r="619">
       <c r="A619" s="12"/>
-      <c r="B619" s="12"/>
-      <c r="C619" s="64"/>
-      <c r="D619" s="65"/>
-      <c r="E619" s="43"/>
+      <c r="B619" s="40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C619" s="61" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D619" s="64"/>
+      <c r="E619" s="44" t="s">
+        <v>1115</v>
+      </c>
       <c r="F619" s="17"/>
       <c r="G619" s="18"/>
       <c r="H619" s="19"/>
@@ -27074,9 +27496,15 @@
     </row>
     <row r="620">
       <c r="A620" s="12"/>
-      <c r="B620" s="12"/>
-      <c r="C620" s="64"/>
-      <c r="D620" s="65"/>
+      <c r="B620" s="40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C620" s="61" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D620" s="65" t="s">
+        <v>1117</v>
+      </c>
       <c r="E620" s="43"/>
       <c r="F620" s="17"/>
       <c r="G620" s="18"/>
@@ -27103,9 +27531,15 @@
     </row>
     <row r="621">
       <c r="A621" s="12"/>
-      <c r="B621" s="12"/>
-      <c r="C621" s="64"/>
-      <c r="D621" s="65"/>
+      <c r="B621" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C621" s="61" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D621" s="57" t="s">
+        <v>1119</v>
+      </c>
       <c r="E621" s="43"/>
       <c r="F621" s="17"/>
       <c r="G621" s="18"/>
@@ -27132,9 +27566,15 @@
     </row>
     <row r="622">
       <c r="A622" s="12"/>
-      <c r="B622" s="12"/>
-      <c r="C622" s="64"/>
-      <c r="D622" s="65"/>
+      <c r="B622" s="40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C622" s="61" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D622" s="57" t="s">
+        <v>1121</v>
+      </c>
       <c r="E622" s="43"/>
       <c r="F622" s="17"/>
       <c r="G622" s="18"/>
@@ -27161,9 +27601,15 @@
     </row>
     <row r="623">
       <c r="A623" s="12"/>
-      <c r="B623" s="12"/>
-      <c r="C623" s="64"/>
-      <c r="D623" s="65"/>
+      <c r="B623" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C623" s="61" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D623" s="57" t="s">
+        <v>1123</v>
+      </c>
       <c r="E623" s="43"/>
       <c r="F623" s="17"/>
       <c r="G623" s="18"/>
@@ -27190,9 +27636,15 @@
     </row>
     <row r="624">
       <c r="A624" s="12"/>
-      <c r="B624" s="12"/>
-      <c r="C624" s="64"/>
-      <c r="D624" s="65"/>
+      <c r="B624" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="C624" s="61" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D624" s="57" t="s">
+        <v>1125</v>
+      </c>
       <c r="E624" s="43"/>
       <c r="F624" s="17"/>
       <c r="G624" s="18"/>
@@ -27219,9 +27671,15 @@
     </row>
     <row r="625">
       <c r="A625" s="12"/>
-      <c r="B625" s="12"/>
-      <c r="C625" s="64"/>
-      <c r="D625" s="65"/>
+      <c r="B625" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C625" s="61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D625" s="57" t="s">
+        <v>1127</v>
+      </c>
       <c r="E625" s="43"/>
       <c r="F625" s="17"/>
       <c r="G625" s="18"/>
@@ -27248,9 +27706,15 @@
     </row>
     <row r="626">
       <c r="A626" s="12"/>
-      <c r="B626" s="12"/>
-      <c r="C626" s="64"/>
-      <c r="D626" s="65"/>
+      <c r="B626" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C626" s="61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D626" s="57" t="s">
+        <v>1129</v>
+      </c>
       <c r="E626" s="43"/>
       <c r="F626" s="17"/>
       <c r="G626" s="18"/>
@@ -27277,9 +27741,9 @@
     </row>
     <row r="627">
       <c r="A627" s="12"/>
-      <c r="B627" s="12"/>
-      <c r="C627" s="64"/>
-      <c r="D627" s="65"/>
+      <c r="B627" s="40"/>
+      <c r="C627" s="66"/>
+      <c r="D627" s="64"/>
       <c r="E627" s="43"/>
       <c r="F627" s="17"/>
       <c r="G627" s="18"/>
@@ -27306,9 +27770,9 @@
     </row>
     <row r="628">
       <c r="A628" s="12"/>
-      <c r="B628" s="12"/>
-      <c r="C628" s="64"/>
-      <c r="D628" s="65"/>
+      <c r="B628" s="40"/>
+      <c r="C628" s="66"/>
+      <c r="D628" s="64"/>
       <c r="E628" s="43"/>
       <c r="F628" s="17"/>
       <c r="G628" s="18"/>
@@ -27335,9 +27799,9 @@
     </row>
     <row r="629">
       <c r="A629" s="12"/>
-      <c r="B629" s="12"/>
-      <c r="C629" s="64"/>
-      <c r="D629" s="65"/>
+      <c r="B629" s="40"/>
+      <c r="C629" s="66"/>
+      <c r="D629" s="64"/>
       <c r="E629" s="43"/>
       <c r="F629" s="17"/>
       <c r="G629" s="18"/>
@@ -27364,9 +27828,9 @@
     </row>
     <row r="630">
       <c r="A630" s="12"/>
-      <c r="B630" s="12"/>
-      <c r="C630" s="64"/>
-      <c r="D630" s="65"/>
+      <c r="B630" s="40"/>
+      <c r="C630" s="66"/>
+      <c r="D630" s="64"/>
       <c r="E630" s="43"/>
       <c r="F630" s="17"/>
       <c r="G630" s="18"/>
@@ -27393,9 +27857,9 @@
     </row>
     <row r="631">
       <c r="A631" s="12"/>
-      <c r="B631" s="12"/>
-      <c r="C631" s="64"/>
-      <c r="D631" s="65"/>
+      <c r="B631" s="40"/>
+      <c r="C631" s="66"/>
+      <c r="D631" s="64"/>
       <c r="E631" s="43"/>
       <c r="F631" s="17"/>
       <c r="G631" s="18"/>
@@ -27422,9 +27886,9 @@
     </row>
     <row r="632">
       <c r="A632" s="12"/>
-      <c r="B632" s="12"/>
-      <c r="C632" s="64"/>
-      <c r="D632" s="65"/>
+      <c r="B632" s="40"/>
+      <c r="C632" s="66"/>
+      <c r="D632" s="64"/>
       <c r="E632" s="43"/>
       <c r="F632" s="17"/>
       <c r="G632" s="18"/>
@@ -27451,9 +27915,9 @@
     </row>
     <row r="633">
       <c r="A633" s="12"/>
-      <c r="B633" s="12"/>
-      <c r="C633" s="64"/>
-      <c r="D633" s="65"/>
+      <c r="B633" s="40"/>
+      <c r="C633" s="66"/>
+      <c r="D633" s="64"/>
       <c r="E633" s="43"/>
       <c r="F633" s="17"/>
       <c r="G633" s="18"/>
@@ -27480,9 +27944,9 @@
     </row>
     <row r="634">
       <c r="A634" s="12"/>
-      <c r="B634" s="12"/>
-      <c r="C634" s="64"/>
-      <c r="D634" s="65"/>
+      <c r="B634" s="40"/>
+      <c r="C634" s="66"/>
+      <c r="D634" s="64"/>
       <c r="E634" s="43"/>
       <c r="F634" s="17"/>
       <c r="G634" s="18"/>
@@ -27509,9 +27973,9 @@
     </row>
     <row r="635">
       <c r="A635" s="12"/>
-      <c r="B635" s="12"/>
-      <c r="C635" s="64"/>
-      <c r="D635" s="65"/>
+      <c r="B635" s="40"/>
+      <c r="C635" s="66"/>
+      <c r="D635" s="64"/>
       <c r="E635" s="43"/>
       <c r="F635" s="17"/>
       <c r="G635" s="18"/>
@@ -27538,9 +28002,9 @@
     </row>
     <row r="636">
       <c r="A636" s="12"/>
-      <c r="B636" s="12"/>
-      <c r="C636" s="64"/>
-      <c r="D636" s="65"/>
+      <c r="B636" s="40"/>
+      <c r="C636" s="66"/>
+      <c r="D636" s="64"/>
       <c r="E636" s="43"/>
       <c r="F636" s="17"/>
       <c r="G636" s="18"/>
@@ -27567,9 +28031,9 @@
     </row>
     <row r="637">
       <c r="A637" s="12"/>
-      <c r="B637" s="12"/>
-      <c r="C637" s="64"/>
-      <c r="D637" s="65"/>
+      <c r="B637" s="40"/>
+      <c r="C637" s="66"/>
+      <c r="D637" s="64"/>
       <c r="E637" s="43"/>
       <c r="F637" s="17"/>
       <c r="G637" s="18"/>
@@ -27596,9 +28060,9 @@
     </row>
     <row r="638">
       <c r="A638" s="12"/>
-      <c r="B638" s="12"/>
-      <c r="C638" s="64"/>
-      <c r="D638" s="65"/>
+      <c r="B638" s="40"/>
+      <c r="C638" s="66"/>
+      <c r="D638" s="64"/>
       <c r="E638" s="43"/>
       <c r="F638" s="17"/>
       <c r="G638" s="18"/>
@@ -27625,9 +28089,9 @@
     </row>
     <row r="639">
       <c r="A639" s="12"/>
-      <c r="B639" s="12"/>
-      <c r="C639" s="64"/>
-      <c r="D639" s="65"/>
+      <c r="B639" s="40"/>
+      <c r="C639" s="66"/>
+      <c r="D639" s="64"/>
       <c r="E639" s="43"/>
       <c r="F639" s="17"/>
       <c r="G639" s="18"/>
@@ -27654,9 +28118,9 @@
     </row>
     <row r="640">
       <c r="A640" s="12"/>
-      <c r="B640" s="12"/>
-      <c r="C640" s="64"/>
-      <c r="D640" s="65"/>
+      <c r="B640" s="40"/>
+      <c r="C640" s="66"/>
+      <c r="D640" s="64"/>
       <c r="E640" s="43"/>
       <c r="F640" s="17"/>
       <c r="G640" s="18"/>
@@ -27683,9 +28147,9 @@
     </row>
     <row r="641">
       <c r="A641" s="12"/>
-      <c r="B641" s="12"/>
-      <c r="C641" s="64"/>
-      <c r="D641" s="65"/>
+      <c r="B641" s="40"/>
+      <c r="C641" s="66"/>
+      <c r="D641" s="64"/>
       <c r="E641" s="43"/>
       <c r="F641" s="17"/>
       <c r="G641" s="18"/>
@@ -27712,9 +28176,9 @@
     </row>
     <row r="642">
       <c r="A642" s="12"/>
-      <c r="B642" s="12"/>
-      <c r="C642" s="64"/>
-      <c r="D642" s="65"/>
+      <c r="B642" s="40"/>
+      <c r="C642" s="66"/>
+      <c r="D642" s="64"/>
       <c r="E642" s="43"/>
       <c r="F642" s="17"/>
       <c r="G642" s="18"/>
@@ -27741,9 +28205,9 @@
     </row>
     <row r="643">
       <c r="A643" s="12"/>
-      <c r="B643" s="12"/>
-      <c r="C643" s="64"/>
-      <c r="D643" s="65"/>
+      <c r="B643" s="40"/>
+      <c r="C643" s="66"/>
+      <c r="D643" s="64"/>
       <c r="E643" s="43"/>
       <c r="F643" s="17"/>
       <c r="G643" s="18"/>
@@ -27770,9 +28234,9 @@
     </row>
     <row r="644">
       <c r="A644" s="12"/>
-      <c r="B644" s="12"/>
-      <c r="C644" s="64"/>
-      <c r="D644" s="65"/>
+      <c r="B644" s="40"/>
+      <c r="C644" s="66"/>
+      <c r="D644" s="64"/>
       <c r="E644" s="43"/>
       <c r="F644" s="17"/>
       <c r="G644" s="18"/>
@@ -27799,9 +28263,9 @@
     </row>
     <row r="645">
       <c r="A645" s="12"/>
-      <c r="B645" s="12"/>
-      <c r="C645" s="64"/>
-      <c r="D645" s="65"/>
+      <c r="B645" s="40"/>
+      <c r="C645" s="66"/>
+      <c r="D645" s="64"/>
       <c r="E645" s="43"/>
       <c r="F645" s="17"/>
       <c r="G645" s="18"/>
@@ -27828,9 +28292,9 @@
     </row>
     <row r="646">
       <c r="A646" s="12"/>
-      <c r="B646" s="12"/>
-      <c r="C646" s="64"/>
-      <c r="D646" s="65"/>
+      <c r="B646" s="40"/>
+      <c r="C646" s="66"/>
+      <c r="D646" s="64"/>
       <c r="E646" s="43"/>
       <c r="F646" s="17"/>
       <c r="G646" s="18"/>
@@ -27857,9 +28321,9 @@
     </row>
     <row r="647">
       <c r="A647" s="12"/>
-      <c r="B647" s="12"/>
-      <c r="C647" s="64"/>
-      <c r="D647" s="65"/>
+      <c r="B647" s="40"/>
+      <c r="C647" s="66"/>
+      <c r="D647" s="64"/>
       <c r="E647" s="43"/>
       <c r="F647" s="17"/>
       <c r="G647" s="18"/>
@@ -27886,9 +28350,9 @@
     </row>
     <row r="648">
       <c r="A648" s="12"/>
-      <c r="B648" s="12"/>
-      <c r="C648" s="64"/>
-      <c r="D648" s="65"/>
+      <c r="B648" s="40"/>
+      <c r="C648" s="66"/>
+      <c r="D648" s="64"/>
       <c r="E648" s="43"/>
       <c r="F648" s="17"/>
       <c r="G648" s="18"/>
@@ -27915,9 +28379,9 @@
     </row>
     <row r="649">
       <c r="A649" s="12"/>
-      <c r="B649" s="12"/>
-      <c r="C649" s="64"/>
-      <c r="D649" s="65"/>
+      <c r="B649" s="40"/>
+      <c r="C649" s="66"/>
+      <c r="D649" s="64"/>
       <c r="E649" s="43"/>
       <c r="F649" s="17"/>
       <c r="G649" s="18"/>
@@ -27944,9 +28408,9 @@
     </row>
     <row r="650">
       <c r="A650" s="12"/>
-      <c r="B650" s="12"/>
-      <c r="C650" s="64"/>
-      <c r="D650" s="65"/>
+      <c r="B650" s="40"/>
+      <c r="C650" s="66"/>
+      <c r="D650" s="64"/>
       <c r="E650" s="43"/>
       <c r="F650" s="17"/>
       <c r="G650" s="18"/>
@@ -27973,9 +28437,9 @@
     </row>
     <row r="651">
       <c r="A651" s="12"/>
-      <c r="B651" s="12"/>
-      <c r="C651" s="64"/>
-      <c r="D651" s="65"/>
+      <c r="B651" s="40"/>
+      <c r="C651" s="66"/>
+      <c r="D651" s="64"/>
       <c r="E651" s="43"/>
       <c r="F651" s="17"/>
       <c r="G651" s="18"/>
@@ -28002,9 +28466,9 @@
     </row>
     <row r="652">
       <c r="A652" s="12"/>
-      <c r="B652" s="12"/>
-      <c r="C652" s="64"/>
-      <c r="D652" s="65"/>
+      <c r="B652" s="40"/>
+      <c r="C652" s="66"/>
+      <c r="D652" s="64"/>
       <c r="E652" s="43"/>
       <c r="F652" s="17"/>
       <c r="G652" s="18"/>
@@ -28031,9 +28495,9 @@
     </row>
     <row r="653">
       <c r="A653" s="12"/>
-      <c r="B653" s="12"/>
-      <c r="C653" s="64"/>
-      <c r="D653" s="65"/>
+      <c r="B653" s="40"/>
+      <c r="C653" s="66"/>
+      <c r="D653" s="64"/>
       <c r="E653" s="43"/>
       <c r="F653" s="17"/>
       <c r="G653" s="18"/>
@@ -28060,9 +28524,9 @@
     </row>
     <row r="654">
       <c r="A654" s="12"/>
-      <c r="B654" s="12"/>
-      <c r="C654" s="64"/>
-      <c r="D654" s="65"/>
+      <c r="B654" s="40"/>
+      <c r="C654" s="66"/>
+      <c r="D654" s="64"/>
       <c r="E654" s="43"/>
       <c r="F654" s="17"/>
       <c r="G654" s="18"/>
@@ -28089,9 +28553,9 @@
     </row>
     <row r="655">
       <c r="A655" s="12"/>
-      <c r="B655" s="12"/>
-      <c r="C655" s="64"/>
-      <c r="D655" s="65"/>
+      <c r="B655" s="40"/>
+      <c r="C655" s="66"/>
+      <c r="D655" s="64"/>
       <c r="E655" s="43"/>
       <c r="F655" s="17"/>
       <c r="G655" s="18"/>
@@ -28118,9 +28582,9 @@
     </row>
     <row r="656">
       <c r="A656" s="12"/>
-      <c r="B656" s="12"/>
-      <c r="C656" s="64"/>
-      <c r="D656" s="65"/>
+      <c r="B656" s="40"/>
+      <c r="C656" s="66"/>
+      <c r="D656" s="64"/>
       <c r="E656" s="43"/>
       <c r="F656" s="17"/>
       <c r="G656" s="18"/>
@@ -28147,9 +28611,9 @@
     </row>
     <row r="657">
       <c r="A657" s="12"/>
-      <c r="B657" s="12"/>
-      <c r="C657" s="64"/>
-      <c r="D657" s="65"/>
+      <c r="B657" s="40"/>
+      <c r="C657" s="66"/>
+      <c r="D657" s="64"/>
       <c r="E657" s="43"/>
       <c r="F657" s="17"/>
       <c r="G657" s="18"/>
@@ -28176,9 +28640,9 @@
     </row>
     <row r="658">
       <c r="A658" s="12"/>
-      <c r="B658" s="12"/>
-      <c r="C658" s="64"/>
-      <c r="D658" s="65"/>
+      <c r="B658" s="40"/>
+      <c r="C658" s="66"/>
+      <c r="D658" s="64"/>
       <c r="E658" s="43"/>
       <c r="F658" s="17"/>
       <c r="G658" s="18"/>
@@ -28205,9 +28669,9 @@
     </row>
     <row r="659">
       <c r="A659" s="12"/>
-      <c r="B659" s="12"/>
-      <c r="C659" s="64"/>
-      <c r="D659" s="65"/>
+      <c r="B659" s="40"/>
+      <c r="C659" s="66"/>
+      <c r="D659" s="64"/>
       <c r="E659" s="43"/>
       <c r="F659" s="17"/>
       <c r="G659" s="18"/>
@@ -28234,9 +28698,9 @@
     </row>
     <row r="660">
       <c r="A660" s="12"/>
-      <c r="B660" s="12"/>
-      <c r="C660" s="64"/>
-      <c r="D660" s="65"/>
+      <c r="B660" s="40"/>
+      <c r="C660" s="66"/>
+      <c r="D660" s="64"/>
       <c r="E660" s="43"/>
       <c r="F660" s="17"/>
       <c r="G660" s="18"/>
@@ -28263,9 +28727,9 @@
     </row>
     <row r="661">
       <c r="A661" s="12"/>
-      <c r="B661" s="12"/>
-      <c r="C661" s="64"/>
-      <c r="D661" s="65"/>
+      <c r="B661" s="40"/>
+      <c r="C661" s="66"/>
+      <c r="D661" s="64"/>
       <c r="E661" s="43"/>
       <c r="F661" s="17"/>
       <c r="G661" s="18"/>
@@ -28292,9 +28756,9 @@
     </row>
     <row r="662">
       <c r="A662" s="12"/>
-      <c r="B662" s="12"/>
-      <c r="C662" s="64"/>
-      <c r="D662" s="65"/>
+      <c r="B662" s="40"/>
+      <c r="C662" s="66"/>
+      <c r="D662" s="64"/>
       <c r="E662" s="43"/>
       <c r="F662" s="17"/>
       <c r="G662" s="18"/>
@@ -28321,9 +28785,9 @@
     </row>
     <row r="663">
       <c r="A663" s="12"/>
-      <c r="B663" s="12"/>
-      <c r="C663" s="64"/>
-      <c r="D663" s="65"/>
+      <c r="B663" s="40"/>
+      <c r="C663" s="66"/>
+      <c r="D663" s="64"/>
       <c r="E663" s="43"/>
       <c r="F663" s="17"/>
       <c r="G663" s="18"/>
@@ -28350,9 +28814,9 @@
     </row>
     <row r="664">
       <c r="A664" s="12"/>
-      <c r="B664" s="12"/>
-      <c r="C664" s="64"/>
-      <c r="D664" s="65"/>
+      <c r="B664" s="40"/>
+      <c r="C664" s="66"/>
+      <c r="D664" s="64"/>
       <c r="E664" s="43"/>
       <c r="F664" s="17"/>
       <c r="G664" s="18"/>
@@ -28379,9 +28843,9 @@
     </row>
     <row r="665">
       <c r="A665" s="12"/>
-      <c r="B665" s="12"/>
-      <c r="C665" s="64"/>
-      <c r="D665" s="65"/>
+      <c r="B665" s="40"/>
+      <c r="C665" s="66"/>
+      <c r="D665" s="64"/>
       <c r="E665" s="43"/>
       <c r="F665" s="17"/>
       <c r="G665" s="18"/>
@@ -28408,9 +28872,9 @@
     </row>
     <row r="666">
       <c r="A666" s="12"/>
-      <c r="B666" s="12"/>
-      <c r="C666" s="64"/>
-      <c r="D666" s="65"/>
+      <c r="B666" s="40"/>
+      <c r="C666" s="66"/>
+      <c r="D666" s="64"/>
       <c r="E666" s="43"/>
       <c r="F666" s="17"/>
       <c r="G666" s="18"/>
@@ -28437,9 +28901,9 @@
     </row>
     <row r="667">
       <c r="A667" s="12"/>
-      <c r="B667" s="12"/>
-      <c r="C667" s="64"/>
-      <c r="D667" s="65"/>
+      <c r="B667" s="40"/>
+      <c r="C667" s="66"/>
+      <c r="D667" s="64"/>
       <c r="E667" s="43"/>
       <c r="F667" s="17"/>
       <c r="G667" s="18"/>
@@ -28466,9 +28930,9 @@
     </row>
     <row r="668">
       <c r="A668" s="12"/>
-      <c r="B668" s="12"/>
-      <c r="C668" s="64"/>
-      <c r="D668" s="65"/>
+      <c r="B668" s="40"/>
+      <c r="C668" s="66"/>
+      <c r="D668" s="64"/>
       <c r="E668" s="43"/>
       <c r="F668" s="17"/>
       <c r="G668" s="18"/>
@@ -28495,9 +28959,9 @@
     </row>
     <row r="669">
       <c r="A669" s="12"/>
-      <c r="B669" s="12"/>
-      <c r="C669" s="64"/>
-      <c r="D669" s="65"/>
+      <c r="B669" s="40"/>
+      <c r="C669" s="66"/>
+      <c r="D669" s="64"/>
       <c r="E669" s="43"/>
       <c r="F669" s="17"/>
       <c r="G669" s="18"/>
@@ -28524,9 +28988,9 @@
     </row>
     <row r="670">
       <c r="A670" s="12"/>
-      <c r="B670" s="12"/>
-      <c r="C670" s="64"/>
-      <c r="D670" s="65"/>
+      <c r="B670" s="40"/>
+      <c r="C670" s="66"/>
+      <c r="D670" s="64"/>
       <c r="E670" s="43"/>
       <c r="F670" s="17"/>
       <c r="G670" s="18"/>
@@ -28553,9 +29017,9 @@
     </row>
     <row r="671">
       <c r="A671" s="12"/>
-      <c r="B671" s="12"/>
-      <c r="C671" s="64"/>
-      <c r="D671" s="65"/>
+      <c r="B671" s="40"/>
+      <c r="C671" s="66"/>
+      <c r="D671" s="64"/>
       <c r="E671" s="43"/>
       <c r="F671" s="17"/>
       <c r="G671" s="18"/>
@@ -28582,9 +29046,9 @@
     </row>
     <row r="672">
       <c r="A672" s="12"/>
-      <c r="B672" s="12"/>
-      <c r="C672" s="64"/>
-      <c r="D672" s="65"/>
+      <c r="B672" s="40"/>
+      <c r="C672" s="66"/>
+      <c r="D672" s="64"/>
       <c r="E672" s="43"/>
       <c r="F672" s="17"/>
       <c r="G672" s="18"/>
@@ -28611,9 +29075,9 @@
     </row>
     <row r="673">
       <c r="A673" s="12"/>
-      <c r="B673" s="12"/>
-      <c r="C673" s="64"/>
-      <c r="D673" s="65"/>
+      <c r="B673" s="40"/>
+      <c r="C673" s="66"/>
+      <c r="D673" s="64"/>
       <c r="E673" s="43"/>
       <c r="F673" s="17"/>
       <c r="G673" s="18"/>
@@ -28640,9 +29104,9 @@
     </row>
     <row r="674">
       <c r="A674" s="12"/>
-      <c r="B674" s="12"/>
-      <c r="C674" s="64"/>
-      <c r="D674" s="65"/>
+      <c r="B674" s="40"/>
+      <c r="C674" s="66"/>
+      <c r="D674" s="64"/>
       <c r="E674" s="43"/>
       <c r="F674" s="17"/>
       <c r="G674" s="18"/>
@@ -28669,9 +29133,9 @@
     </row>
     <row r="675">
       <c r="A675" s="12"/>
-      <c r="B675" s="12"/>
-      <c r="C675" s="64"/>
-      <c r="D675" s="65"/>
+      <c r="B675" s="40"/>
+      <c r="C675" s="66"/>
+      <c r="D675" s="64"/>
       <c r="E675" s="43"/>
       <c r="F675" s="17"/>
       <c r="G675" s="18"/>
@@ -28698,9 +29162,9 @@
     </row>
     <row r="676">
       <c r="A676" s="12"/>
-      <c r="B676" s="12"/>
-      <c r="C676" s="64"/>
-      <c r="D676" s="65"/>
+      <c r="B676" s="40"/>
+      <c r="C676" s="66"/>
+      <c r="D676" s="64"/>
       <c r="E676" s="43"/>
       <c r="F676" s="17"/>
       <c r="G676" s="18"/>
@@ -28727,9 +29191,9 @@
     </row>
     <row r="677">
       <c r="A677" s="12"/>
-      <c r="B677" s="12"/>
-      <c r="C677" s="64"/>
-      <c r="D677" s="65"/>
+      <c r="B677" s="40"/>
+      <c r="C677" s="66"/>
+      <c r="D677" s="64"/>
       <c r="E677" s="43"/>
       <c r="F677" s="17"/>
       <c r="G677" s="18"/>
@@ -28756,9 +29220,9 @@
     </row>
     <row r="678">
       <c r="A678" s="12"/>
-      <c r="B678" s="12"/>
-      <c r="C678" s="64"/>
-      <c r="D678" s="65"/>
+      <c r="B678" s="40"/>
+      <c r="C678" s="66"/>
+      <c r="D678" s="64"/>
       <c r="E678" s="43"/>
       <c r="F678" s="17"/>
       <c r="G678" s="18"/>
@@ -28785,9 +29249,9 @@
     </row>
     <row r="679">
       <c r="A679" s="12"/>
-      <c r="B679" s="12"/>
-      <c r="C679" s="64"/>
-      <c r="D679" s="65"/>
+      <c r="B679" s="40"/>
+      <c r="C679" s="66"/>
+      <c r="D679" s="64"/>
       <c r="E679" s="43"/>
       <c r="F679" s="17"/>
       <c r="G679" s="18"/>
@@ -28814,9 +29278,9 @@
     </row>
     <row r="680">
       <c r="A680" s="12"/>
-      <c r="B680" s="12"/>
-      <c r="C680" s="64"/>
-      <c r="D680" s="65"/>
+      <c r="B680" s="40"/>
+      <c r="C680" s="66"/>
+      <c r="D680" s="64"/>
       <c r="E680" s="43"/>
       <c r="F680" s="17"/>
       <c r="G680" s="18"/>
@@ -28843,9 +29307,9 @@
     </row>
     <row r="681">
       <c r="A681" s="12"/>
-      <c r="B681" s="12"/>
-      <c r="C681" s="64"/>
-      <c r="D681" s="65"/>
+      <c r="B681" s="40"/>
+      <c r="C681" s="66"/>
+      <c r="D681" s="64"/>
       <c r="E681" s="43"/>
       <c r="F681" s="17"/>
       <c r="G681" s="18"/>
@@ -28872,9 +29336,9 @@
     </row>
     <row r="682">
       <c r="A682" s="12"/>
-      <c r="B682" s="12"/>
-      <c r="C682" s="64"/>
-      <c r="D682" s="65"/>
+      <c r="B682" s="40"/>
+      <c r="C682" s="66"/>
+      <c r="D682" s="64"/>
       <c r="E682" s="43"/>
       <c r="F682" s="17"/>
       <c r="G682" s="18"/>
@@ -28901,9 +29365,9 @@
     </row>
     <row r="683">
       <c r="A683" s="12"/>
-      <c r="B683" s="12"/>
-      <c r="C683" s="64"/>
-      <c r="D683" s="65"/>
+      <c r="B683" s="40"/>
+      <c r="C683" s="66"/>
+      <c r="D683" s="64"/>
       <c r="E683" s="43"/>
       <c r="F683" s="17"/>
       <c r="G683" s="18"/>
@@ -28930,9 +29394,9 @@
     </row>
     <row r="684">
       <c r="A684" s="12"/>
-      <c r="B684" s="12"/>
-      <c r="C684" s="64"/>
-      <c r="D684" s="65"/>
+      <c r="B684" s="40"/>
+      <c r="C684" s="66"/>
+      <c r="D684" s="64"/>
       <c r="E684" s="43"/>
       <c r="F684" s="17"/>
       <c r="G684" s="18"/>
@@ -28959,9 +29423,9 @@
     </row>
     <row r="685">
       <c r="A685" s="12"/>
-      <c r="B685" s="12"/>
-      <c r="C685" s="64"/>
-      <c r="D685" s="65"/>
+      <c r="B685" s="40"/>
+      <c r="C685" s="66"/>
+      <c r="D685" s="64"/>
       <c r="E685" s="43"/>
       <c r="F685" s="17"/>
       <c r="G685" s="18"/>
@@ -28988,9 +29452,9 @@
     </row>
     <row r="686">
       <c r="A686" s="12"/>
-      <c r="B686" s="12"/>
-      <c r="C686" s="64"/>
-      <c r="D686" s="65"/>
+      <c r="B686" s="40"/>
+      <c r="C686" s="66"/>
+      <c r="D686" s="64"/>
       <c r="E686" s="43"/>
       <c r="F686" s="17"/>
       <c r="G686" s="18"/>
@@ -29017,9 +29481,9 @@
     </row>
     <row r="687">
       <c r="A687" s="12"/>
-      <c r="B687" s="12"/>
-      <c r="C687" s="64"/>
-      <c r="D687" s="65"/>
+      <c r="B687" s="40"/>
+      <c r="C687" s="66"/>
+      <c r="D687" s="64"/>
       <c r="E687" s="43"/>
       <c r="F687" s="17"/>
       <c r="G687" s="18"/>
@@ -29046,9 +29510,9 @@
     </row>
     <row r="688">
       <c r="A688" s="12"/>
-      <c r="B688" s="12"/>
-      <c r="C688" s="64"/>
-      <c r="D688" s="65"/>
+      <c r="B688" s="40"/>
+      <c r="C688" s="66"/>
+      <c r="D688" s="64"/>
       <c r="E688" s="43"/>
       <c r="F688" s="17"/>
       <c r="G688" s="18"/>
@@ -29075,9 +29539,9 @@
     </row>
     <row r="689">
       <c r="A689" s="12"/>
-      <c r="B689" s="12"/>
-      <c r="C689" s="64"/>
-      <c r="D689" s="65"/>
+      <c r="B689" s="40"/>
+      <c r="C689" s="66"/>
+      <c r="D689" s="64"/>
       <c r="E689" s="43"/>
       <c r="F689" s="17"/>
       <c r="G689" s="18"/>
@@ -29104,9 +29568,9 @@
     </row>
     <row r="690">
       <c r="A690" s="12"/>
-      <c r="B690" s="12"/>
-      <c r="C690" s="64"/>
-      <c r="D690" s="65"/>
+      <c r="B690" s="40"/>
+      <c r="C690" s="66"/>
+      <c r="D690" s="64"/>
       <c r="E690" s="43"/>
       <c r="F690" s="17"/>
       <c r="G690" s="18"/>
@@ -29133,9 +29597,9 @@
     </row>
     <row r="691">
       <c r="A691" s="12"/>
-      <c r="B691" s="12"/>
-      <c r="C691" s="64"/>
-      <c r="D691" s="65"/>
+      <c r="B691" s="40"/>
+      <c r="C691" s="66"/>
+      <c r="D691" s="64"/>
       <c r="E691" s="43"/>
       <c r="F691" s="17"/>
       <c r="G691" s="18"/>
@@ -29162,9 +29626,9 @@
     </row>
     <row r="692">
       <c r="A692" s="12"/>
-      <c r="B692" s="12"/>
-      <c r="C692" s="64"/>
-      <c r="D692" s="65"/>
+      <c r="B692" s="40"/>
+      <c r="C692" s="66"/>
+      <c r="D692" s="64"/>
       <c r="E692" s="43"/>
       <c r="F692" s="17"/>
       <c r="G692" s="18"/>
@@ -29191,9 +29655,9 @@
     </row>
     <row r="693">
       <c r="A693" s="12"/>
-      <c r="B693" s="12"/>
-      <c r="C693" s="64"/>
-      <c r="D693" s="65"/>
+      <c r="B693" s="40"/>
+      <c r="C693" s="66"/>
+      <c r="D693" s="64"/>
       <c r="E693" s="43"/>
       <c r="F693" s="17"/>
       <c r="G693" s="18"/>
@@ -29220,9 +29684,9 @@
     </row>
     <row r="694">
       <c r="A694" s="12"/>
-      <c r="B694" s="12"/>
-      <c r="C694" s="64"/>
-      <c r="D694" s="65"/>
+      <c r="B694" s="40"/>
+      <c r="C694" s="66"/>
+      <c r="D694" s="64"/>
       <c r="E694" s="43"/>
       <c r="F694" s="17"/>
       <c r="G694" s="18"/>
@@ -29249,9 +29713,9 @@
     </row>
     <row r="695">
       <c r="A695" s="12"/>
-      <c r="B695" s="12"/>
-      <c r="C695" s="64"/>
-      <c r="D695" s="65"/>
+      <c r="B695" s="40"/>
+      <c r="C695" s="66"/>
+      <c r="D695" s="64"/>
       <c r="E695" s="43"/>
       <c r="F695" s="17"/>
       <c r="G695" s="18"/>
@@ -29278,9 +29742,9 @@
     </row>
     <row r="696">
       <c r="A696" s="12"/>
-      <c r="B696" s="12"/>
-      <c r="C696" s="64"/>
-      <c r="D696" s="65"/>
+      <c r="B696" s="40"/>
+      <c r="C696" s="66"/>
+      <c r="D696" s="64"/>
       <c r="E696" s="43"/>
       <c r="F696" s="17"/>
       <c r="G696" s="18"/>
@@ -29307,9 +29771,9 @@
     </row>
     <row r="697">
       <c r="A697" s="12"/>
-      <c r="B697" s="12"/>
-      <c r="C697" s="64"/>
-      <c r="D697" s="65"/>
+      <c r="B697" s="40"/>
+      <c r="C697" s="66"/>
+      <c r="D697" s="64"/>
       <c r="E697" s="43"/>
       <c r="F697" s="17"/>
       <c r="G697" s="18"/>
@@ -29336,9 +29800,9 @@
     </row>
     <row r="698">
       <c r="A698" s="12"/>
-      <c r="B698" s="12"/>
-      <c r="C698" s="64"/>
-      <c r="D698" s="65"/>
+      <c r="B698" s="40"/>
+      <c r="C698" s="66"/>
+      <c r="D698" s="64"/>
       <c r="E698" s="43"/>
       <c r="F698" s="17"/>
       <c r="G698" s="18"/>
@@ -29365,9 +29829,9 @@
     </row>
     <row r="699">
       <c r="A699" s="12"/>
-      <c r="B699" s="12"/>
-      <c r="C699" s="64"/>
-      <c r="D699" s="65"/>
+      <c r="B699" s="40"/>
+      <c r="C699" s="66"/>
+      <c r="D699" s="64"/>
       <c r="E699" s="43"/>
       <c r="F699" s="17"/>
       <c r="G699" s="18"/>
@@ -29394,9 +29858,9 @@
     </row>
     <row r="700">
       <c r="A700" s="12"/>
-      <c r="B700" s="12"/>
-      <c r="C700" s="64"/>
-      <c r="D700" s="65"/>
+      <c r="B700" s="40"/>
+      <c r="C700" s="66"/>
+      <c r="D700" s="64"/>
       <c r="E700" s="43"/>
       <c r="F700" s="17"/>
       <c r="G700" s="18"/>
@@ -29423,9 +29887,9 @@
     </row>
     <row r="701">
       <c r="A701" s="12"/>
-      <c r="B701" s="12"/>
-      <c r="C701" s="64"/>
-      <c r="D701" s="65"/>
+      <c r="B701" s="40"/>
+      <c r="C701" s="66"/>
+      <c r="D701" s="64"/>
       <c r="E701" s="43"/>
       <c r="F701" s="17"/>
       <c r="G701" s="18"/>
@@ -29452,9 +29916,9 @@
     </row>
     <row r="702">
       <c r="A702" s="12"/>
-      <c r="B702" s="12"/>
-      <c r="C702" s="64"/>
-      <c r="D702" s="65"/>
+      <c r="B702" s="40"/>
+      <c r="C702" s="66"/>
+      <c r="D702" s="64"/>
       <c r="E702" s="43"/>
       <c r="F702" s="17"/>
       <c r="G702" s="18"/>
@@ -29481,9 +29945,9 @@
     </row>
     <row r="703">
       <c r="A703" s="12"/>
-      <c r="B703" s="12"/>
-      <c r="C703" s="64"/>
-      <c r="D703" s="65"/>
+      <c r="B703" s="40"/>
+      <c r="C703" s="66"/>
+      <c r="D703" s="64"/>
       <c r="E703" s="43"/>
       <c r="F703" s="17"/>
       <c r="G703" s="18"/>
@@ -29510,9 +29974,9 @@
     </row>
     <row r="704">
       <c r="A704" s="12"/>
-      <c r="B704" s="12"/>
-      <c r="C704" s="64"/>
-      <c r="D704" s="65"/>
+      <c r="B704" s="40"/>
+      <c r="C704" s="66"/>
+      <c r="D704" s="64"/>
       <c r="E704" s="43"/>
       <c r="F704" s="17"/>
       <c r="G704" s="18"/>
@@ -29539,9 +30003,9 @@
     </row>
     <row r="705">
       <c r="A705" s="12"/>
-      <c r="B705" s="12"/>
-      <c r="C705" s="64"/>
-      <c r="D705" s="65"/>
+      <c r="B705" s="40"/>
+      <c r="C705" s="66"/>
+      <c r="D705" s="64"/>
       <c r="E705" s="43"/>
       <c r="F705" s="17"/>
       <c r="G705" s="18"/>
@@ -29568,9 +30032,9 @@
     </row>
     <row r="706">
       <c r="A706" s="12"/>
-      <c r="B706" s="12"/>
-      <c r="C706" s="64"/>
-      <c r="D706" s="65"/>
+      <c r="B706" s="40"/>
+      <c r="C706" s="66"/>
+      <c r="D706" s="64"/>
       <c r="E706" s="43"/>
       <c r="F706" s="17"/>
       <c r="G706" s="18"/>
@@ -29597,9 +30061,9 @@
     </row>
     <row r="707">
       <c r="A707" s="12"/>
-      <c r="B707" s="12"/>
-      <c r="C707" s="64"/>
-      <c r="D707" s="65"/>
+      <c r="B707" s="40"/>
+      <c r="C707" s="66"/>
+      <c r="D707" s="64"/>
       <c r="E707" s="43"/>
       <c r="F707" s="17"/>
       <c r="G707" s="18"/>
@@ -29626,9 +30090,9 @@
     </row>
     <row r="708">
       <c r="A708" s="12"/>
-      <c r="B708" s="12"/>
-      <c r="C708" s="64"/>
-      <c r="D708" s="65"/>
+      <c r="B708" s="40"/>
+      <c r="C708" s="66"/>
+      <c r="D708" s="64"/>
       <c r="E708" s="43"/>
       <c r="F708" s="17"/>
       <c r="G708" s="18"/>
@@ -29655,9 +30119,9 @@
     </row>
     <row r="709">
       <c r="A709" s="12"/>
-      <c r="B709" s="12"/>
-      <c r="C709" s="64"/>
-      <c r="D709" s="65"/>
+      <c r="B709" s="40"/>
+      <c r="C709" s="66"/>
+      <c r="D709" s="64"/>
       <c r="E709" s="43"/>
       <c r="F709" s="17"/>
       <c r="G709" s="18"/>
@@ -29684,9 +30148,9 @@
     </row>
     <row r="710">
       <c r="A710" s="12"/>
-      <c r="B710" s="12"/>
-      <c r="C710" s="64"/>
-      <c r="D710" s="65"/>
+      <c r="B710" s="40"/>
+      <c r="C710" s="66"/>
+      <c r="D710" s="64"/>
       <c r="E710" s="43"/>
       <c r="F710" s="17"/>
       <c r="G710" s="18"/>
@@ -29713,9 +30177,9 @@
     </row>
     <row r="711">
       <c r="A711" s="12"/>
-      <c r="B711" s="12"/>
-      <c r="C711" s="64"/>
-      <c r="D711" s="65"/>
+      <c r="B711" s="40"/>
+      <c r="C711" s="66"/>
+      <c r="D711" s="64"/>
       <c r="E711" s="43"/>
       <c r="F711" s="17"/>
       <c r="G711" s="18"/>
@@ -29742,9 +30206,9 @@
     </row>
     <row r="712">
       <c r="A712" s="12"/>
-      <c r="B712" s="12"/>
-      <c r="C712" s="64"/>
-      <c r="D712" s="65"/>
+      <c r="B712" s="40"/>
+      <c r="C712" s="66"/>
+      <c r="D712" s="64"/>
       <c r="E712" s="43"/>
       <c r="F712" s="17"/>
       <c r="G712" s="18"/>
@@ -29771,9 +30235,9 @@
     </row>
     <row r="713">
       <c r="A713" s="12"/>
-      <c r="B713" s="12"/>
-      <c r="C713" s="64"/>
-      <c r="D713" s="65"/>
+      <c r="B713" s="40"/>
+      <c r="C713" s="66"/>
+      <c r="D713" s="64"/>
       <c r="E713" s="43"/>
       <c r="F713" s="17"/>
       <c r="G713" s="18"/>
@@ -29800,9 +30264,9 @@
     </row>
     <row r="714">
       <c r="A714" s="12"/>
-      <c r="B714" s="12"/>
-      <c r="C714" s="64"/>
-      <c r="D714" s="65"/>
+      <c r="B714" s="40"/>
+      <c r="C714" s="66"/>
+      <c r="D714" s="64"/>
       <c r="E714" s="43"/>
       <c r="F714" s="17"/>
       <c r="G714" s="18"/>
@@ -29829,9 +30293,9 @@
     </row>
     <row r="715">
       <c r="A715" s="12"/>
-      <c r="B715" s="12"/>
-      <c r="C715" s="64"/>
-      <c r="D715" s="65"/>
+      <c r="B715" s="40"/>
+      <c r="C715" s="66"/>
+      <c r="D715" s="64"/>
       <c r="E715" s="43"/>
       <c r="F715" s="17"/>
       <c r="G715" s="18"/>
@@ -29858,9 +30322,9 @@
     </row>
     <row r="716">
       <c r="A716" s="12"/>
-      <c r="B716" s="12"/>
-      <c r="C716" s="64"/>
-      <c r="D716" s="65"/>
+      <c r="B716" s="40"/>
+      <c r="C716" s="66"/>
+      <c r="D716" s="64"/>
       <c r="E716" s="43"/>
       <c r="F716" s="17"/>
       <c r="G716" s="18"/>
@@ -29887,9 +30351,9 @@
     </row>
     <row r="717">
       <c r="A717" s="12"/>
-      <c r="B717" s="12"/>
-      <c r="C717" s="64"/>
-      <c r="D717" s="65"/>
+      <c r="B717" s="40"/>
+      <c r="C717" s="66"/>
+      <c r="D717" s="64"/>
       <c r="E717" s="43"/>
       <c r="F717" s="17"/>
       <c r="G717" s="18"/>
@@ -29916,9 +30380,9 @@
     </row>
     <row r="718">
       <c r="A718" s="12"/>
-      <c r="B718" s="12"/>
-      <c r="C718" s="64"/>
-      <c r="D718" s="65"/>
+      <c r="B718" s="40"/>
+      <c r="C718" s="66"/>
+      <c r="D718" s="64"/>
       <c r="E718" s="43"/>
       <c r="F718" s="17"/>
       <c r="G718" s="18"/>
@@ -29945,9 +30409,9 @@
     </row>
     <row r="719">
       <c r="A719" s="12"/>
-      <c r="B719" s="12"/>
-      <c r="C719" s="64"/>
-      <c r="D719" s="65"/>
+      <c r="B719" s="40"/>
+      <c r="C719" s="66"/>
+      <c r="D719" s="64"/>
       <c r="E719" s="43"/>
       <c r="F719" s="17"/>
       <c r="G719" s="18"/>
@@ -29974,9 +30438,9 @@
     </row>
     <row r="720">
       <c r="A720" s="12"/>
-      <c r="B720" s="12"/>
-      <c r="C720" s="64"/>
-      <c r="D720" s="65"/>
+      <c r="B720" s="40"/>
+      <c r="C720" s="66"/>
+      <c r="D720" s="64"/>
       <c r="E720" s="43"/>
       <c r="F720" s="17"/>
       <c r="G720" s="18"/>
@@ -30003,9 +30467,9 @@
     </row>
     <row r="721">
       <c r="A721" s="12"/>
-      <c r="B721" s="12"/>
-      <c r="C721" s="64"/>
-      <c r="D721" s="65"/>
+      <c r="B721" s="40"/>
+      <c r="C721" s="66"/>
+      <c r="D721" s="64"/>
       <c r="E721" s="43"/>
       <c r="F721" s="17"/>
       <c r="G721" s="18"/>
@@ -30032,9 +30496,9 @@
     </row>
     <row r="722">
       <c r="A722" s="12"/>
-      <c r="B722" s="12"/>
-      <c r="C722" s="64"/>
-      <c r="D722" s="65"/>
+      <c r="B722" s="40"/>
+      <c r="C722" s="66"/>
+      <c r="D722" s="64"/>
       <c r="E722" s="43"/>
       <c r="F722" s="17"/>
       <c r="G722" s="18"/>
@@ -30061,9 +30525,9 @@
     </row>
     <row r="723">
       <c r="A723" s="12"/>
-      <c r="B723" s="12"/>
-      <c r="C723" s="64"/>
-      <c r="D723" s="65"/>
+      <c r="B723" s="40"/>
+      <c r="C723" s="66"/>
+      <c r="D723" s="64"/>
       <c r="E723" s="43"/>
       <c r="F723" s="17"/>
       <c r="G723" s="18"/>
@@ -30090,9 +30554,9 @@
     </row>
     <row r="724">
       <c r="A724" s="12"/>
-      <c r="B724" s="12"/>
-      <c r="C724" s="64"/>
-      <c r="D724" s="65"/>
+      <c r="B724" s="40"/>
+      <c r="C724" s="66"/>
+      <c r="D724" s="64"/>
       <c r="E724" s="43"/>
       <c r="F724" s="17"/>
       <c r="G724" s="18"/>
@@ -30119,9 +30583,9 @@
     </row>
     <row r="725">
       <c r="A725" s="12"/>
-      <c r="B725" s="12"/>
-      <c r="C725" s="64"/>
-      <c r="D725" s="65"/>
+      <c r="B725" s="40"/>
+      <c r="C725" s="66"/>
+      <c r="D725" s="64"/>
       <c r="E725" s="43"/>
       <c r="F725" s="17"/>
       <c r="G725" s="18"/>
@@ -30148,9 +30612,9 @@
     </row>
     <row r="726">
       <c r="A726" s="12"/>
-      <c r="B726" s="12"/>
-      <c r="C726" s="64"/>
-      <c r="D726" s="65"/>
+      <c r="B726" s="40"/>
+      <c r="C726" s="66"/>
+      <c r="D726" s="64"/>
       <c r="E726" s="43"/>
       <c r="F726" s="17"/>
       <c r="G726" s="18"/>
@@ -30177,9 +30641,9 @@
     </row>
     <row r="727">
       <c r="A727" s="12"/>
-      <c r="B727" s="12"/>
-      <c r="C727" s="64"/>
-      <c r="D727" s="65"/>
+      <c r="B727" s="40"/>
+      <c r="C727" s="66"/>
+      <c r="D727" s="64"/>
       <c r="E727" s="43"/>
       <c r="F727" s="17"/>
       <c r="G727" s="18"/>
@@ -30206,9 +30670,9 @@
     </row>
     <row r="728">
       <c r="A728" s="12"/>
-      <c r="B728" s="12"/>
-      <c r="C728" s="64"/>
-      <c r="D728" s="65"/>
+      <c r="B728" s="40"/>
+      <c r="C728" s="66"/>
+      <c r="D728" s="64"/>
       <c r="E728" s="43"/>
       <c r="F728" s="17"/>
       <c r="G728" s="18"/>
@@ -30235,9 +30699,9 @@
     </row>
     <row r="729">
       <c r="A729" s="12"/>
-      <c r="B729" s="12"/>
-      <c r="C729" s="64"/>
-      <c r="D729" s="65"/>
+      <c r="B729" s="40"/>
+      <c r="C729" s="66"/>
+      <c r="D729" s="64"/>
       <c r="E729" s="43"/>
       <c r="F729" s="17"/>
       <c r="G729" s="18"/>
@@ -30264,9 +30728,9 @@
     </row>
     <row r="730">
       <c r="A730" s="12"/>
-      <c r="B730" s="12"/>
-      <c r="C730" s="64"/>
-      <c r="D730" s="65"/>
+      <c r="B730" s="40"/>
+      <c r="C730" s="66"/>
+      <c r="D730" s="64"/>
       <c r="E730" s="43"/>
       <c r="F730" s="17"/>
       <c r="G730" s="18"/>
@@ -30293,9 +30757,9 @@
     </row>
     <row r="731">
       <c r="A731" s="12"/>
-      <c r="B731" s="12"/>
-      <c r="C731" s="64"/>
-      <c r="D731" s="65"/>
+      <c r="B731" s="40"/>
+      <c r="C731" s="66"/>
+      <c r="D731" s="64"/>
       <c r="E731" s="43"/>
       <c r="F731" s="17"/>
       <c r="G731" s="18"/>
@@ -30322,9 +30786,9 @@
     </row>
     <row r="732">
       <c r="A732" s="12"/>
-      <c r="B732" s="12"/>
-      <c r="C732" s="64"/>
-      <c r="D732" s="65"/>
+      <c r="B732" s="40"/>
+      <c r="C732" s="66"/>
+      <c r="D732" s="64"/>
       <c r="E732" s="43"/>
       <c r="F732" s="17"/>
       <c r="G732" s="18"/>
@@ -30351,9 +30815,9 @@
     </row>
     <row r="733">
       <c r="A733" s="12"/>
-      <c r="B733" s="12"/>
-      <c r="C733" s="64"/>
-      <c r="D733" s="65"/>
+      <c r="B733" s="40"/>
+      <c r="C733" s="66"/>
+      <c r="D733" s="64"/>
       <c r="E733" s="43"/>
       <c r="F733" s="17"/>
       <c r="G733" s="18"/>
@@ -30380,9 +30844,9 @@
     </row>
     <row r="734">
       <c r="A734" s="12"/>
-      <c r="B734" s="12"/>
-      <c r="C734" s="64"/>
-      <c r="D734" s="65"/>
+      <c r="B734" s="40"/>
+      <c r="C734" s="66"/>
+      <c r="D734" s="64"/>
       <c r="E734" s="43"/>
       <c r="F734" s="17"/>
       <c r="G734" s="18"/>
@@ -30409,9 +30873,9 @@
     </row>
     <row r="735">
       <c r="A735" s="12"/>
-      <c r="B735" s="12"/>
-      <c r="C735" s="64"/>
-      <c r="D735" s="65"/>
+      <c r="B735" s="40"/>
+      <c r="C735" s="66"/>
+      <c r="D735" s="64"/>
       <c r="E735" s="43"/>
       <c r="F735" s="17"/>
       <c r="G735" s="18"/>
@@ -30438,9 +30902,9 @@
     </row>
     <row r="736">
       <c r="A736" s="12"/>
-      <c r="B736" s="12"/>
-      <c r="C736" s="64"/>
-      <c r="D736" s="65"/>
+      <c r="B736" s="40"/>
+      <c r="C736" s="66"/>
+      <c r="D736" s="64"/>
       <c r="E736" s="43"/>
       <c r="F736" s="17"/>
       <c r="G736" s="18"/>
@@ -30467,9 +30931,9 @@
     </row>
     <row r="737">
       <c r="A737" s="12"/>
-      <c r="B737" s="12"/>
-      <c r="C737" s="64"/>
-      <c r="D737" s="65"/>
+      <c r="B737" s="40"/>
+      <c r="C737" s="66"/>
+      <c r="D737" s="64"/>
       <c r="E737" s="43"/>
       <c r="F737" s="17"/>
       <c r="G737" s="18"/>
@@ -30496,9 +30960,9 @@
     </row>
     <row r="738">
       <c r="A738" s="12"/>
-      <c r="B738" s="12"/>
-      <c r="C738" s="64"/>
-      <c r="D738" s="65"/>
+      <c r="B738" s="40"/>
+      <c r="C738" s="66"/>
+      <c r="D738" s="64"/>
       <c r="E738" s="43"/>
       <c r="F738" s="17"/>
       <c r="G738" s="18"/>
@@ -30525,9 +30989,9 @@
     </row>
     <row r="739">
       <c r="A739" s="12"/>
-      <c r="B739" s="12"/>
-      <c r="C739" s="64"/>
-      <c r="D739" s="65"/>
+      <c r="B739" s="40"/>
+      <c r="C739" s="66"/>
+      <c r="D739" s="64"/>
       <c r="E739" s="43"/>
       <c r="F739" s="17"/>
       <c r="G739" s="18"/>
@@ -30554,9 +31018,9 @@
     </row>
     <row r="740">
       <c r="A740" s="12"/>
-      <c r="B740" s="12"/>
-      <c r="C740" s="64"/>
-      <c r="D740" s="65"/>
+      <c r="B740" s="40"/>
+      <c r="C740" s="66"/>
+      <c r="D740" s="64"/>
       <c r="E740" s="43"/>
       <c r="F740" s="17"/>
       <c r="G740" s="18"/>
@@ -30583,9 +31047,9 @@
     </row>
     <row r="741">
       <c r="A741" s="12"/>
-      <c r="B741" s="12"/>
-      <c r="C741" s="64"/>
-      <c r="D741" s="65"/>
+      <c r="B741" s="40"/>
+      <c r="C741" s="66"/>
+      <c r="D741" s="64"/>
       <c r="E741" s="43"/>
       <c r="F741" s="17"/>
       <c r="G741" s="18"/>
@@ -30612,9 +31076,9 @@
     </row>
     <row r="742">
       <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
-      <c r="C742" s="64"/>
-      <c r="D742" s="65"/>
+      <c r="B742" s="40"/>
+      <c r="C742" s="66"/>
+      <c r="D742" s="64"/>
       <c r="E742" s="43"/>
       <c r="F742" s="17"/>
       <c r="G742" s="18"/>
@@ -30641,9 +31105,9 @@
     </row>
     <row r="743">
       <c r="A743" s="12"/>
-      <c r="B743" s="12"/>
-      <c r="C743" s="64"/>
-      <c r="D743" s="65"/>
+      <c r="B743" s="40"/>
+      <c r="C743" s="66"/>
+      <c r="D743" s="64"/>
       <c r="E743" s="43"/>
       <c r="F743" s="17"/>
       <c r="G743" s="18"/>
@@ -30670,9 +31134,9 @@
     </row>
     <row r="744">
       <c r="A744" s="12"/>
-      <c r="B744" s="12"/>
-      <c r="C744" s="64"/>
-      <c r="D744" s="65"/>
+      <c r="B744" s="40"/>
+      <c r="C744" s="66"/>
+      <c r="D744" s="64"/>
       <c r="E744" s="43"/>
       <c r="F744" s="17"/>
       <c r="G744" s="18"/>
@@ -30699,9 +31163,9 @@
     </row>
     <row r="745">
       <c r="A745" s="12"/>
-      <c r="B745" s="12"/>
-      <c r="C745" s="64"/>
-      <c r="D745" s="65"/>
+      <c r="B745" s="40"/>
+      <c r="C745" s="66"/>
+      <c r="D745" s="64"/>
       <c r="E745" s="43"/>
       <c r="F745" s="17"/>
       <c r="G745" s="18"/>
@@ -30728,9 +31192,9 @@
     </row>
     <row r="746">
       <c r="A746" s="12"/>
-      <c r="B746" s="12"/>
-      <c r="C746" s="64"/>
-      <c r="D746" s="65"/>
+      <c r="B746" s="40"/>
+      <c r="C746" s="66"/>
+      <c r="D746" s="64"/>
       <c r="E746" s="43"/>
       <c r="F746" s="17"/>
       <c r="G746" s="18"/>
@@ -30757,9 +31221,9 @@
     </row>
     <row r="747">
       <c r="A747" s="12"/>
-      <c r="B747" s="12"/>
-      <c r="C747" s="64"/>
-      <c r="D747" s="65"/>
+      <c r="B747" s="40"/>
+      <c r="C747" s="66"/>
+      <c r="D747" s="64"/>
       <c r="E747" s="43"/>
       <c r="F747" s="17"/>
       <c r="G747" s="18"/>
@@ -30786,9 +31250,9 @@
     </row>
     <row r="748">
       <c r="A748" s="12"/>
-      <c r="B748" s="12"/>
-      <c r="C748" s="64"/>
-      <c r="D748" s="65"/>
+      <c r="B748" s="40"/>
+      <c r="C748" s="66"/>
+      <c r="D748" s="64"/>
       <c r="E748" s="43"/>
       <c r="F748" s="17"/>
       <c r="G748" s="18"/>
@@ -30815,9 +31279,9 @@
     </row>
     <row r="749">
       <c r="A749" s="12"/>
-      <c r="B749" s="12"/>
-      <c r="C749" s="64"/>
-      <c r="D749" s="65"/>
+      <c r="B749" s="40"/>
+      <c r="C749" s="66"/>
+      <c r="D749" s="64"/>
       <c r="E749" s="43"/>
       <c r="F749" s="17"/>
       <c r="G749" s="18"/>
@@ -30844,9 +31308,9 @@
     </row>
     <row r="750">
       <c r="A750" s="12"/>
-      <c r="B750" s="12"/>
-      <c r="C750" s="64"/>
-      <c r="D750" s="65"/>
+      <c r="B750" s="40"/>
+      <c r="C750" s="66"/>
+      <c r="D750" s="64"/>
       <c r="E750" s="43"/>
       <c r="F750" s="17"/>
       <c r="G750" s="18"/>
@@ -30873,9 +31337,9 @@
     </row>
     <row r="751">
       <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
-      <c r="C751" s="64"/>
-      <c r="D751" s="65"/>
+      <c r="B751" s="40"/>
+      <c r="C751" s="66"/>
+      <c r="D751" s="64"/>
       <c r="E751" s="43"/>
       <c r="F751" s="17"/>
       <c r="G751" s="18"/>
@@ -30902,9 +31366,9 @@
     </row>
     <row r="752">
       <c r="A752" s="12"/>
-      <c r="B752" s="12"/>
-      <c r="C752" s="64"/>
-      <c r="D752" s="65"/>
+      <c r="B752" s="40"/>
+      <c r="C752" s="66"/>
+      <c r="D752" s="64"/>
       <c r="E752" s="43"/>
       <c r="F752" s="17"/>
       <c r="G752" s="18"/>
@@ -30931,9 +31395,9 @@
     </row>
     <row r="753">
       <c r="A753" s="12"/>
-      <c r="B753" s="12"/>
-      <c r="C753" s="64"/>
-      <c r="D753" s="65"/>
+      <c r="B753" s="40"/>
+      <c r="C753" s="66"/>
+      <c r="D753" s="64"/>
       <c r="E753" s="43"/>
       <c r="F753" s="17"/>
       <c r="G753" s="18"/>
@@ -30960,9 +31424,9 @@
     </row>
     <row r="754">
       <c r="A754" s="12"/>
-      <c r="B754" s="12"/>
-      <c r="C754" s="64"/>
-      <c r="D754" s="65"/>
+      <c r="B754" s="40"/>
+      <c r="C754" s="66"/>
+      <c r="D754" s="64"/>
       <c r="E754" s="43"/>
       <c r="F754" s="17"/>
       <c r="G754" s="18"/>
@@ -30989,9 +31453,9 @@
     </row>
     <row r="755">
       <c r="A755" s="12"/>
-      <c r="B755" s="12"/>
-      <c r="C755" s="64"/>
-      <c r="D755" s="65"/>
+      <c r="B755" s="40"/>
+      <c r="C755" s="66"/>
+      <c r="D755" s="64"/>
       <c r="E755" s="43"/>
       <c r="F755" s="17"/>
       <c r="G755" s="18"/>
@@ -31018,9 +31482,9 @@
     </row>
     <row r="756">
       <c r="A756" s="12"/>
-      <c r="B756" s="12"/>
-      <c r="C756" s="64"/>
-      <c r="D756" s="65"/>
+      <c r="B756" s="40"/>
+      <c r="C756" s="66"/>
+      <c r="D756" s="64"/>
       <c r="E756" s="43"/>
       <c r="F756" s="17"/>
       <c r="G756" s="18"/>
@@ -31047,9 +31511,9 @@
     </row>
     <row r="757">
       <c r="A757" s="12"/>
-      <c r="B757" s="12"/>
-      <c r="C757" s="64"/>
-      <c r="D757" s="65"/>
+      <c r="B757" s="40"/>
+      <c r="C757" s="66"/>
+      <c r="D757" s="64"/>
       <c r="E757" s="43"/>
       <c r="F757" s="17"/>
       <c r="G757" s="18"/>
@@ -31076,9 +31540,9 @@
     </row>
     <row r="758">
       <c r="A758" s="12"/>
-      <c r="B758" s="12"/>
-      <c r="C758" s="64"/>
-      <c r="D758" s="65"/>
+      <c r="B758" s="40"/>
+      <c r="C758" s="66"/>
+      <c r="D758" s="64"/>
       <c r="E758" s="43"/>
       <c r="F758" s="17"/>
       <c r="G758" s="18"/>
@@ -31105,9 +31569,9 @@
     </row>
     <row r="759">
       <c r="A759" s="12"/>
-      <c r="B759" s="12"/>
-      <c r="C759" s="64"/>
-      <c r="D759" s="65"/>
+      <c r="B759" s="40"/>
+      <c r="C759" s="66"/>
+      <c r="D759" s="64"/>
       <c r="E759" s="43"/>
       <c r="F759" s="17"/>
       <c r="G759" s="18"/>
@@ -31134,9 +31598,9 @@
     </row>
     <row r="760">
       <c r="A760" s="12"/>
-      <c r="B760" s="12"/>
-      <c r="C760" s="64"/>
-      <c r="D760" s="65"/>
+      <c r="B760" s="40"/>
+      <c r="C760" s="66"/>
+      <c r="D760" s="64"/>
       <c r="E760" s="43"/>
       <c r="F760" s="17"/>
       <c r="G760" s="18"/>
@@ -31163,9 +31627,9 @@
     </row>
     <row r="761">
       <c r="A761" s="12"/>
-      <c r="B761" s="12"/>
-      <c r="C761" s="64"/>
-      <c r="D761" s="65"/>
+      <c r="B761" s="40"/>
+      <c r="C761" s="66"/>
+      <c r="D761" s="64"/>
       <c r="E761" s="43"/>
       <c r="F761" s="17"/>
       <c r="G761" s="18"/>
@@ -31192,9 +31656,9 @@
     </row>
     <row r="762">
       <c r="A762" s="12"/>
-      <c r="B762" s="12"/>
-      <c r="C762" s="64"/>
-      <c r="D762" s="65"/>
+      <c r="B762" s="40"/>
+      <c r="C762" s="66"/>
+      <c r="D762" s="64"/>
       <c r="E762" s="43"/>
       <c r="F762" s="17"/>
       <c r="G762" s="18"/>
@@ -31221,9 +31685,9 @@
     </row>
     <row r="763">
       <c r="A763" s="12"/>
-      <c r="B763" s="12"/>
-      <c r="C763" s="64"/>
-      <c r="D763" s="65"/>
+      <c r="B763" s="40"/>
+      <c r="C763" s="66"/>
+      <c r="D763" s="64"/>
       <c r="E763" s="43"/>
       <c r="F763" s="17"/>
       <c r="G763" s="18"/>
@@ -31250,9 +31714,9 @@
     </row>
     <row r="764">
       <c r="A764" s="12"/>
-      <c r="B764" s="12"/>
-      <c r="C764" s="64"/>
-      <c r="D764" s="65"/>
+      <c r="B764" s="40"/>
+      <c r="C764" s="66"/>
+      <c r="D764" s="64"/>
       <c r="E764" s="43"/>
       <c r="F764" s="17"/>
       <c r="G764" s="18"/>
@@ -31279,9 +31743,9 @@
     </row>
     <row r="765">
       <c r="A765" s="12"/>
-      <c r="B765" s="12"/>
-      <c r="C765" s="64"/>
-      <c r="D765" s="65"/>
+      <c r="B765" s="40"/>
+      <c r="C765" s="66"/>
+      <c r="D765" s="64"/>
       <c r="E765" s="43"/>
       <c r="F765" s="17"/>
       <c r="G765" s="18"/>
@@ -31308,9 +31772,9 @@
     </row>
     <row r="766">
       <c r="A766" s="12"/>
-      <c r="B766" s="12"/>
-      <c r="C766" s="64"/>
-      <c r="D766" s="65"/>
+      <c r="B766" s="40"/>
+      <c r="C766" s="66"/>
+      <c r="D766" s="64"/>
       <c r="E766" s="43"/>
       <c r="F766" s="17"/>
       <c r="G766" s="18"/>
@@ -31337,9 +31801,9 @@
     </row>
     <row r="767">
       <c r="A767" s="12"/>
-      <c r="B767" s="12"/>
-      <c r="C767" s="64"/>
-      <c r="D767" s="65"/>
+      <c r="B767" s="40"/>
+      <c r="C767" s="66"/>
+      <c r="D767" s="64"/>
       <c r="E767" s="43"/>
       <c r="F767" s="17"/>
       <c r="G767" s="18"/>
@@ -31366,9 +31830,9 @@
     </row>
     <row r="768">
       <c r="A768" s="12"/>
-      <c r="B768" s="12"/>
-      <c r="C768" s="64"/>
-      <c r="D768" s="65"/>
+      <c r="B768" s="40"/>
+      <c r="C768" s="66"/>
+      <c r="D768" s="64"/>
       <c r="E768" s="43"/>
       <c r="F768" s="17"/>
       <c r="G768" s="18"/>
@@ -31395,9 +31859,9 @@
     </row>
     <row r="769">
       <c r="A769" s="12"/>
-      <c r="B769" s="12"/>
-      <c r="C769" s="64"/>
-      <c r="D769" s="65"/>
+      <c r="B769" s="40"/>
+      <c r="C769" s="66"/>
+      <c r="D769" s="64"/>
       <c r="E769" s="43"/>
       <c r="F769" s="17"/>
       <c r="G769" s="18"/>
@@ -31424,9 +31888,9 @@
     </row>
     <row r="770">
       <c r="A770" s="12"/>
-      <c r="B770" s="12"/>
-      <c r="C770" s="64"/>
-      <c r="D770" s="65"/>
+      <c r="B770" s="40"/>
+      <c r="C770" s="66"/>
+      <c r="D770" s="64"/>
       <c r="E770" s="43"/>
       <c r="F770" s="17"/>
       <c r="G770" s="18"/>
@@ -31453,9 +31917,9 @@
     </row>
     <row r="771">
       <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
-      <c r="C771" s="64"/>
-      <c r="D771" s="65"/>
+      <c r="B771" s="40"/>
+      <c r="C771" s="66"/>
+      <c r="D771" s="64"/>
       <c r="E771" s="43"/>
       <c r="F771" s="17"/>
       <c r="G771" s="18"/>
@@ -31482,9 +31946,9 @@
     </row>
     <row r="772">
       <c r="A772" s="12"/>
-      <c r="B772" s="12"/>
-      <c r="C772" s="64"/>
-      <c r="D772" s="65"/>
+      <c r="B772" s="40"/>
+      <c r="C772" s="66"/>
+      <c r="D772" s="64"/>
       <c r="E772" s="43"/>
       <c r="F772" s="17"/>
       <c r="G772" s="18"/>
@@ -31511,9 +31975,9 @@
     </row>
     <row r="773">
       <c r="A773" s="12"/>
-      <c r="B773" s="12"/>
-      <c r="C773" s="64"/>
-      <c r="D773" s="65"/>
+      <c r="B773" s="40"/>
+      <c r="C773" s="66"/>
+      <c r="D773" s="64"/>
       <c r="E773" s="43"/>
       <c r="F773" s="17"/>
       <c r="G773" s="18"/>
@@ -31540,9 +32004,9 @@
     </row>
     <row r="774">
       <c r="A774" s="12"/>
-      <c r="B774" s="12"/>
-      <c r="C774" s="64"/>
-      <c r="D774" s="65"/>
+      <c r="B774" s="40"/>
+      <c r="C774" s="66"/>
+      <c r="D774" s="64"/>
       <c r="E774" s="43"/>
       <c r="F774" s="17"/>
       <c r="G774" s="18"/>
@@ -31569,9 +32033,9 @@
     </row>
     <row r="775">
       <c r="A775" s="12"/>
-      <c r="B775" s="12"/>
-      <c r="C775" s="64"/>
-      <c r="D775" s="65"/>
+      <c r="B775" s="40"/>
+      <c r="C775" s="66"/>
+      <c r="D775" s="64"/>
       <c r="E775" s="43"/>
       <c r="F775" s="17"/>
       <c r="G775" s="18"/>
@@ -31598,9 +32062,9 @@
     </row>
     <row r="776">
       <c r="A776" s="12"/>
-      <c r="B776" s="12"/>
-      <c r="C776" s="64"/>
-      <c r="D776" s="65"/>
+      <c r="B776" s="40"/>
+      <c r="C776" s="66"/>
+      <c r="D776" s="64"/>
       <c r="E776" s="43"/>
       <c r="F776" s="17"/>
       <c r="G776" s="18"/>
@@ -31627,9 +32091,9 @@
     </row>
     <row r="777">
       <c r="A777" s="12"/>
-      <c r="B777" s="12"/>
-      <c r="C777" s="64"/>
-      <c r="D777" s="65"/>
+      <c r="B777" s="40"/>
+      <c r="C777" s="66"/>
+      <c r="D777" s="64"/>
       <c r="E777" s="43"/>
       <c r="F777" s="17"/>
       <c r="G777" s="18"/>
@@ -31656,9 +32120,9 @@
     </row>
     <row r="778">
       <c r="A778" s="12"/>
-      <c r="B778" s="12"/>
-      <c r="C778" s="64"/>
-      <c r="D778" s="65"/>
+      <c r="B778" s="40"/>
+      <c r="C778" s="66"/>
+      <c r="D778" s="64"/>
       <c r="E778" s="43"/>
       <c r="F778" s="17"/>
       <c r="G778" s="18"/>
@@ -31685,9 +32149,9 @@
     </row>
     <row r="779">
       <c r="A779" s="12"/>
-      <c r="B779" s="12"/>
-      <c r="C779" s="64"/>
-      <c r="D779" s="65"/>
+      <c r="B779" s="40"/>
+      <c r="C779" s="66"/>
+      <c r="D779" s="64"/>
       <c r="E779" s="43"/>
       <c r="F779" s="17"/>
       <c r="G779" s="18"/>
@@ -31714,9 +32178,9 @@
     </row>
     <row r="780">
       <c r="A780" s="12"/>
-      <c r="B780" s="12"/>
-      <c r="C780" s="64"/>
-      <c r="D780" s="65"/>
+      <c r="B780" s="40"/>
+      <c r="C780" s="66"/>
+      <c r="D780" s="64"/>
       <c r="E780" s="43"/>
       <c r="F780" s="17"/>
       <c r="G780" s="18"/>
@@ -31743,9 +32207,9 @@
     </row>
     <row r="781">
       <c r="A781" s="12"/>
-      <c r="B781" s="12"/>
-      <c r="C781" s="64"/>
-      <c r="D781" s="65"/>
+      <c r="B781" s="40"/>
+      <c r="C781" s="66"/>
+      <c r="D781" s="64"/>
       <c r="E781" s="43"/>
       <c r="F781" s="17"/>
       <c r="G781" s="18"/>
@@ -31772,9 +32236,9 @@
     </row>
     <row r="782">
       <c r="A782" s="12"/>
-      <c r="B782" s="12"/>
-      <c r="C782" s="64"/>
-      <c r="D782" s="65"/>
+      <c r="B782" s="40"/>
+      <c r="C782" s="66"/>
+      <c r="D782" s="64"/>
       <c r="E782" s="43"/>
       <c r="F782" s="17"/>
       <c r="G782" s="18"/>
@@ -31801,9 +32265,9 @@
     </row>
     <row r="783">
       <c r="A783" s="12"/>
-      <c r="B783" s="12"/>
-      <c r="C783" s="64"/>
-      <c r="D783" s="65"/>
+      <c r="B783" s="40"/>
+      <c r="C783" s="66"/>
+      <c r="D783" s="64"/>
       <c r="E783" s="43"/>
       <c r="F783" s="17"/>
       <c r="G783" s="18"/>
@@ -31830,9 +32294,9 @@
     </row>
     <row r="784">
       <c r="A784" s="12"/>
-      <c r="B784" s="12"/>
-      <c r="C784" s="64"/>
-      <c r="D784" s="65"/>
+      <c r="B784" s="40"/>
+      <c r="C784" s="66"/>
+      <c r="D784" s="64"/>
       <c r="E784" s="43"/>
       <c r="F784" s="17"/>
       <c r="G784" s="18"/>
@@ -31859,9 +32323,9 @@
     </row>
     <row r="785">
       <c r="A785" s="12"/>
-      <c r="B785" s="12"/>
-      <c r="C785" s="64"/>
-      <c r="D785" s="65"/>
+      <c r="B785" s="40"/>
+      <c r="C785" s="66"/>
+      <c r="D785" s="64"/>
       <c r="E785" s="43"/>
       <c r="F785" s="17"/>
       <c r="G785" s="18"/>
@@ -31888,9 +32352,9 @@
     </row>
     <row r="786">
       <c r="A786" s="12"/>
-      <c r="B786" s="12"/>
-      <c r="C786" s="64"/>
-      <c r="D786" s="65"/>
+      <c r="B786" s="40"/>
+      <c r="C786" s="66"/>
+      <c r="D786" s="64"/>
       <c r="E786" s="43"/>
       <c r="F786" s="17"/>
       <c r="G786" s="18"/>
@@ -31917,9 +32381,9 @@
     </row>
     <row r="787">
       <c r="A787" s="12"/>
-      <c r="B787" s="12"/>
-      <c r="C787" s="64"/>
-      <c r="D787" s="65"/>
+      <c r="B787" s="40"/>
+      <c r="C787" s="66"/>
+      <c r="D787" s="64"/>
       <c r="E787" s="43"/>
       <c r="F787" s="17"/>
       <c r="G787" s="18"/>
@@ -31946,9 +32410,9 @@
     </row>
     <row r="788">
       <c r="A788" s="12"/>
-      <c r="B788" s="12"/>
-      <c r="C788" s="64"/>
-      <c r="D788" s="65"/>
+      <c r="B788" s="40"/>
+      <c r="C788" s="66"/>
+      <c r="D788" s="64"/>
       <c r="E788" s="43"/>
       <c r="F788" s="17"/>
       <c r="G788" s="18"/>
@@ -31975,9 +32439,9 @@
     </row>
     <row r="789">
       <c r="A789" s="12"/>
-      <c r="B789" s="12"/>
-      <c r="C789" s="64"/>
-      <c r="D789" s="65"/>
+      <c r="B789" s="40"/>
+      <c r="C789" s="66"/>
+      <c r="D789" s="64"/>
       <c r="E789" s="43"/>
       <c r="F789" s="17"/>
       <c r="G789" s="18"/>
@@ -32004,9 +32468,9 @@
     </row>
     <row r="790">
       <c r="A790" s="12"/>
-      <c r="B790" s="12"/>
-      <c r="C790" s="64"/>
-      <c r="D790" s="65"/>
+      <c r="B790" s="40"/>
+      <c r="C790" s="66"/>
+      <c r="D790" s="64"/>
       <c r="E790" s="43"/>
       <c r="F790" s="17"/>
       <c r="G790" s="18"/>
@@ -32033,9 +32497,9 @@
     </row>
     <row r="791">
       <c r="A791" s="12"/>
-      <c r="B791" s="12"/>
-      <c r="C791" s="64"/>
-      <c r="D791" s="65"/>
+      <c r="B791" s="40"/>
+      <c r="C791" s="66"/>
+      <c r="D791" s="64"/>
       <c r="E791" s="43"/>
       <c r="F791" s="17"/>
       <c r="G791" s="18"/>
@@ -32062,9 +32526,9 @@
     </row>
     <row r="792">
       <c r="A792" s="12"/>
-      <c r="B792" s="12"/>
-      <c r="C792" s="64"/>
-      <c r="D792" s="65"/>
+      <c r="B792" s="40"/>
+      <c r="C792" s="66"/>
+      <c r="D792" s="64"/>
       <c r="E792" s="43"/>
       <c r="F792" s="17"/>
       <c r="G792" s="18"/>
@@ -32091,9 +32555,9 @@
     </row>
     <row r="793">
       <c r="A793" s="12"/>
-      <c r="B793" s="12"/>
-      <c r="C793" s="64"/>
-      <c r="D793" s="65"/>
+      <c r="B793" s="40"/>
+      <c r="C793" s="66"/>
+      <c r="D793" s="64"/>
       <c r="E793" s="43"/>
       <c r="F793" s="17"/>
       <c r="G793" s="18"/>
@@ -32120,9 +32584,9 @@
     </row>
     <row r="794">
       <c r="A794" s="12"/>
-      <c r="B794" s="12"/>
-      <c r="C794" s="64"/>
-      <c r="D794" s="65"/>
+      <c r="B794" s="40"/>
+      <c r="C794" s="66"/>
+      <c r="D794" s="64"/>
       <c r="E794" s="43"/>
       <c r="F794" s="17"/>
       <c r="G794" s="18"/>
@@ -32149,9 +32613,9 @@
     </row>
     <row r="795">
       <c r="A795" s="12"/>
-      <c r="B795" s="12"/>
-      <c r="C795" s="64"/>
-      <c r="D795" s="65"/>
+      <c r="B795" s="40"/>
+      <c r="C795" s="66"/>
+      <c r="D795" s="64"/>
       <c r="E795" s="43"/>
       <c r="F795" s="17"/>
       <c r="G795" s="18"/>
@@ -32178,9 +32642,9 @@
     </row>
     <row r="796">
       <c r="A796" s="12"/>
-      <c r="B796" s="12"/>
-      <c r="C796" s="64"/>
-      <c r="D796" s="65"/>
+      <c r="B796" s="40"/>
+      <c r="C796" s="66"/>
+      <c r="D796" s="64"/>
       <c r="E796" s="43"/>
       <c r="F796" s="17"/>
       <c r="G796" s="18"/>
@@ -32207,9 +32671,9 @@
     </row>
     <row r="797">
       <c r="A797" s="12"/>
-      <c r="B797" s="12"/>
-      <c r="C797" s="64"/>
-      <c r="D797" s="65"/>
+      <c r="B797" s="40"/>
+      <c r="C797" s="66"/>
+      <c r="D797" s="64"/>
       <c r="E797" s="43"/>
       <c r="F797" s="17"/>
       <c r="G797" s="18"/>
@@ -32236,9 +32700,9 @@
     </row>
     <row r="798">
       <c r="A798" s="12"/>
-      <c r="B798" s="12"/>
-      <c r="C798" s="64"/>
-      <c r="D798" s="65"/>
+      <c r="B798" s="40"/>
+      <c r="C798" s="66"/>
+      <c r="D798" s="64"/>
       <c r="E798" s="43"/>
       <c r="F798" s="17"/>
       <c r="G798" s="18"/>
@@ -32265,9 +32729,9 @@
     </row>
     <row r="799">
       <c r="A799" s="12"/>
-      <c r="B799" s="12"/>
-      <c r="C799" s="64"/>
-      <c r="D799" s="65"/>
+      <c r="B799" s="40"/>
+      <c r="C799" s="66"/>
+      <c r="D799" s="64"/>
       <c r="E799" s="43"/>
       <c r="F799" s="17"/>
       <c r="G799" s="18"/>
@@ -32294,9 +32758,9 @@
     </row>
     <row r="800">
       <c r="A800" s="12"/>
-      <c r="B800" s="12"/>
-      <c r="C800" s="64"/>
-      <c r="D800" s="65"/>
+      <c r="B800" s="40"/>
+      <c r="C800" s="66"/>
+      <c r="D800" s="64"/>
       <c r="E800" s="43"/>
       <c r="F800" s="17"/>
       <c r="G800" s="18"/>
@@ -32323,9 +32787,9 @@
     </row>
     <row r="801">
       <c r="A801" s="12"/>
-      <c r="B801" s="12"/>
-      <c r="C801" s="64"/>
-      <c r="D801" s="65"/>
+      <c r="B801" s="40"/>
+      <c r="C801" s="66"/>
+      <c r="D801" s="64"/>
       <c r="E801" s="43"/>
       <c r="F801" s="17"/>
       <c r="G801" s="18"/>
@@ -32352,9 +32816,9 @@
     </row>
     <row r="802">
       <c r="A802" s="12"/>
-      <c r="B802" s="12"/>
-      <c r="C802" s="64"/>
-      <c r="D802" s="65"/>
+      <c r="B802" s="40"/>
+      <c r="C802" s="66"/>
+      <c r="D802" s="64"/>
       <c r="E802" s="43"/>
       <c r="F802" s="17"/>
       <c r="G802" s="18"/>
@@ -32381,9 +32845,9 @@
     </row>
     <row r="803">
       <c r="A803" s="12"/>
-      <c r="B803" s="12"/>
-      <c r="C803" s="64"/>
-      <c r="D803" s="65"/>
+      <c r="B803" s="40"/>
+      <c r="C803" s="66"/>
+      <c r="D803" s="64"/>
       <c r="E803" s="43"/>
       <c r="F803" s="17"/>
       <c r="G803" s="18"/>
@@ -32410,9 +32874,9 @@
     </row>
     <row r="804">
       <c r="A804" s="12"/>
-      <c r="B804" s="12"/>
-      <c r="C804" s="64"/>
-      <c r="D804" s="65"/>
+      <c r="B804" s="40"/>
+      <c r="C804" s="66"/>
+      <c r="D804" s="64"/>
       <c r="E804" s="43"/>
       <c r="F804" s="17"/>
       <c r="G804" s="18"/>
@@ -32439,9 +32903,9 @@
     </row>
     <row r="805">
       <c r="A805" s="12"/>
-      <c r="B805" s="12"/>
-      <c r="C805" s="64"/>
-      <c r="D805" s="65"/>
+      <c r="B805" s="40"/>
+      <c r="C805" s="66"/>
+      <c r="D805" s="64"/>
       <c r="E805" s="43"/>
       <c r="F805" s="17"/>
       <c r="G805" s="18"/>
@@ -32468,9 +32932,9 @@
     </row>
     <row r="806">
       <c r="A806" s="12"/>
-      <c r="B806" s="12"/>
-      <c r="C806" s="64"/>
-      <c r="D806" s="65"/>
+      <c r="B806" s="40"/>
+      <c r="C806" s="66"/>
+      <c r="D806" s="64"/>
       <c r="E806" s="43"/>
       <c r="F806" s="17"/>
       <c r="G806" s="18"/>
@@ -32497,9 +32961,9 @@
     </row>
     <row r="807">
       <c r="A807" s="12"/>
-      <c r="B807" s="12"/>
-      <c r="C807" s="64"/>
-      <c r="D807" s="65"/>
+      <c r="B807" s="40"/>
+      <c r="C807" s="66"/>
+      <c r="D807" s="64"/>
       <c r="E807" s="43"/>
       <c r="F807" s="17"/>
       <c r="G807" s="18"/>
@@ -32526,9 +32990,9 @@
     </row>
     <row r="808">
       <c r="A808" s="12"/>
-      <c r="B808" s="12"/>
-      <c r="C808" s="64"/>
-      <c r="D808" s="65"/>
+      <c r="B808" s="40"/>
+      <c r="C808" s="66"/>
+      <c r="D808" s="64"/>
       <c r="E808" s="43"/>
       <c r="F808" s="17"/>
       <c r="G808" s="18"/>
@@ -32555,9 +33019,9 @@
     </row>
     <row r="809">
       <c r="A809" s="12"/>
-      <c r="B809" s="12"/>
-      <c r="C809" s="64"/>
-      <c r="D809" s="65"/>
+      <c r="B809" s="40"/>
+      <c r="C809" s="66"/>
+      <c r="D809" s="64"/>
       <c r="E809" s="43"/>
       <c r="F809" s="17"/>
       <c r="G809" s="18"/>
@@ -32584,9 +33048,9 @@
     </row>
     <row r="810">
       <c r="A810" s="12"/>
-      <c r="B810" s="12"/>
-      <c r="C810" s="64"/>
-      <c r="D810" s="65"/>
+      <c r="B810" s="40"/>
+      <c r="C810" s="66"/>
+      <c r="D810" s="64"/>
       <c r="E810" s="43"/>
       <c r="F810" s="17"/>
       <c r="G810" s="18"/>
@@ -32613,9 +33077,9 @@
     </row>
     <row r="811">
       <c r="A811" s="12"/>
-      <c r="B811" s="12"/>
-      <c r="C811" s="64"/>
-      <c r="D811" s="65"/>
+      <c r="B811" s="40"/>
+      <c r="C811" s="66"/>
+      <c r="D811" s="64"/>
       <c r="E811" s="43"/>
       <c r="F811" s="17"/>
       <c r="G811" s="18"/>
@@ -32642,9 +33106,9 @@
     </row>
     <row r="812">
       <c r="A812" s="12"/>
-      <c r="B812" s="12"/>
-      <c r="C812" s="64"/>
-      <c r="D812" s="65"/>
+      <c r="B812" s="40"/>
+      <c r="C812" s="66"/>
+      <c r="D812" s="64"/>
       <c r="E812" s="43"/>
       <c r="F812" s="17"/>
       <c r="G812" s="18"/>
@@ -32671,9 +33135,9 @@
     </row>
     <row r="813">
       <c r="A813" s="12"/>
-      <c r="B813" s="12"/>
-      <c r="C813" s="64"/>
-      <c r="D813" s="65"/>
+      <c r="B813" s="40"/>
+      <c r="C813" s="66"/>
+      <c r="D813" s="64"/>
       <c r="E813" s="43"/>
       <c r="F813" s="17"/>
       <c r="G813" s="18"/>
@@ -32700,9 +33164,9 @@
     </row>
     <row r="814">
       <c r="A814" s="12"/>
-      <c r="B814" s="12"/>
-      <c r="C814" s="64"/>
-      <c r="D814" s="65"/>
+      <c r="B814" s="40"/>
+      <c r="C814" s="66"/>
+      <c r="D814" s="64"/>
       <c r="E814" s="43"/>
       <c r="F814" s="17"/>
       <c r="G814" s="18"/>
@@ -32729,9 +33193,9 @@
     </row>
     <row r="815">
       <c r="A815" s="12"/>
-      <c r="B815" s="12"/>
-      <c r="C815" s="64"/>
-      <c r="D815" s="65"/>
+      <c r="B815" s="40"/>
+      <c r="C815" s="66"/>
+      <c r="D815" s="64"/>
       <c r="E815" s="43"/>
       <c r="F815" s="17"/>
       <c r="G815" s="18"/>
@@ -32758,9 +33222,9 @@
     </row>
     <row r="816">
       <c r="A816" s="12"/>
-      <c r="B816" s="12"/>
-      <c r="C816" s="64"/>
-      <c r="D816" s="65"/>
+      <c r="B816" s="40"/>
+      <c r="C816" s="66"/>
+      <c r="D816" s="64"/>
       <c r="E816" s="43"/>
       <c r="F816" s="17"/>
       <c r="G816" s="18"/>
@@ -32787,9 +33251,9 @@
     </row>
     <row r="817">
       <c r="A817" s="12"/>
-      <c r="B817" s="12"/>
-      <c r="C817" s="64"/>
-      <c r="D817" s="65"/>
+      <c r="B817" s="40"/>
+      <c r="C817" s="66"/>
+      <c r="D817" s="64"/>
       <c r="E817" s="43"/>
       <c r="F817" s="17"/>
       <c r="G817" s="18"/>
@@ -32816,9 +33280,9 @@
     </row>
     <row r="818">
       <c r="A818" s="12"/>
-      <c r="B818" s="12"/>
-      <c r="C818" s="64"/>
-      <c r="D818" s="65"/>
+      <c r="B818" s="40"/>
+      <c r="C818" s="66"/>
+      <c r="D818" s="64"/>
       <c r="E818" s="43"/>
       <c r="F818" s="17"/>
       <c r="G818" s="18"/>
@@ -32845,9 +33309,9 @@
     </row>
     <row r="819">
       <c r="A819" s="12"/>
-      <c r="B819" s="12"/>
-      <c r="C819" s="64"/>
-      <c r="D819" s="65"/>
+      <c r="B819" s="40"/>
+      <c r="C819" s="66"/>
+      <c r="D819" s="64"/>
       <c r="E819" s="43"/>
       <c r="F819" s="17"/>
       <c r="G819" s="18"/>
@@ -32874,9 +33338,9 @@
     </row>
     <row r="820">
       <c r="A820" s="12"/>
-      <c r="B820" s="12"/>
-      <c r="C820" s="64"/>
-      <c r="D820" s="65"/>
+      <c r="B820" s="40"/>
+      <c r="C820" s="66"/>
+      <c r="D820" s="64"/>
       <c r="E820" s="43"/>
       <c r="F820" s="17"/>
       <c r="G820" s="18"/>
@@ -32903,9 +33367,9 @@
     </row>
     <row r="821">
       <c r="A821" s="12"/>
-      <c r="B821" s="12"/>
-      <c r="C821" s="64"/>
-      <c r="D821" s="65"/>
+      <c r="B821" s="40"/>
+      <c r="C821" s="66"/>
+      <c r="D821" s="64"/>
       <c r="E821" s="43"/>
       <c r="F821" s="17"/>
       <c r="G821" s="18"/>
@@ -32932,9 +33396,9 @@
     </row>
     <row r="822">
       <c r="A822" s="12"/>
-      <c r="B822" s="12"/>
-      <c r="C822" s="64"/>
-      <c r="D822" s="65"/>
+      <c r="B822" s="40"/>
+      <c r="C822" s="66"/>
+      <c r="D822" s="64"/>
       <c r="E822" s="43"/>
       <c r="F822" s="17"/>
       <c r="G822" s="18"/>
@@ -32961,9 +33425,9 @@
     </row>
     <row r="823">
       <c r="A823" s="12"/>
-      <c r="B823" s="12"/>
-      <c r="C823" s="64"/>
-      <c r="D823" s="65"/>
+      <c r="B823" s="40"/>
+      <c r="C823" s="66"/>
+      <c r="D823" s="64"/>
       <c r="E823" s="43"/>
       <c r="F823" s="17"/>
       <c r="G823" s="18"/>
@@ -32990,9 +33454,9 @@
     </row>
     <row r="824">
       <c r="A824" s="12"/>
-      <c r="B824" s="12"/>
-      <c r="C824" s="64"/>
-      <c r="D824" s="65"/>
+      <c r="B824" s="40"/>
+      <c r="C824" s="66"/>
+      <c r="D824" s="64"/>
       <c r="E824" s="43"/>
       <c r="F824" s="17"/>
       <c r="G824" s="18"/>
@@ -33019,9 +33483,9 @@
     </row>
     <row r="825">
       <c r="A825" s="12"/>
-      <c r="B825" s="12"/>
-      <c r="C825" s="64"/>
-      <c r="D825" s="65"/>
+      <c r="B825" s="40"/>
+      <c r="C825" s="66"/>
+      <c r="D825" s="64"/>
       <c r="E825" s="43"/>
       <c r="F825" s="17"/>
       <c r="G825" s="18"/>
@@ -33048,9 +33512,9 @@
     </row>
     <row r="826">
       <c r="A826" s="12"/>
-      <c r="B826" s="12"/>
-      <c r="C826" s="64"/>
-      <c r="D826" s="65"/>
+      <c r="B826" s="40"/>
+      <c r="C826" s="66"/>
+      <c r="D826" s="64"/>
       <c r="E826" s="43"/>
       <c r="F826" s="17"/>
       <c r="G826" s="18"/>
@@ -33077,9 +33541,9 @@
     </row>
     <row r="827">
       <c r="A827" s="12"/>
-      <c r="B827" s="12"/>
-      <c r="C827" s="64"/>
-      <c r="D827" s="65"/>
+      <c r="B827" s="40"/>
+      <c r="C827" s="66"/>
+      <c r="D827" s="64"/>
       <c r="E827" s="43"/>
       <c r="F827" s="17"/>
       <c r="G827" s="18"/>
@@ -33106,9 +33570,9 @@
     </row>
     <row r="828">
       <c r="A828" s="12"/>
-      <c r="B828" s="12"/>
-      <c r="C828" s="64"/>
-      <c r="D828" s="65"/>
+      <c r="B828" s="40"/>
+      <c r="C828" s="66"/>
+      <c r="D828" s="64"/>
       <c r="E828" s="43"/>
       <c r="F828" s="17"/>
       <c r="G828" s="18"/>
@@ -33135,9 +33599,9 @@
     </row>
     <row r="829">
       <c r="A829" s="12"/>
-      <c r="B829" s="12"/>
-      <c r="C829" s="64"/>
-      <c r="D829" s="65"/>
+      <c r="B829" s="40"/>
+      <c r="C829" s="66"/>
+      <c r="D829" s="64"/>
       <c r="E829" s="43"/>
       <c r="F829" s="17"/>
       <c r="G829" s="18"/>
@@ -33164,9 +33628,9 @@
     </row>
     <row r="830">
       <c r="A830" s="12"/>
-      <c r="B830" s="12"/>
-      <c r="C830" s="64"/>
-      <c r="D830" s="65"/>
+      <c r="B830" s="40"/>
+      <c r="C830" s="66"/>
+      <c r="D830" s="64"/>
       <c r="E830" s="43"/>
       <c r="F830" s="17"/>
       <c r="G830" s="18"/>
@@ -33193,9 +33657,9 @@
     </row>
     <row r="831">
       <c r="A831" s="12"/>
-      <c r="B831" s="12"/>
-      <c r="C831" s="64"/>
-      <c r="D831" s="65"/>
+      <c r="B831" s="40"/>
+      <c r="C831" s="66"/>
+      <c r="D831" s="64"/>
       <c r="E831" s="43"/>
       <c r="F831" s="17"/>
       <c r="G831" s="18"/>
@@ -33222,9 +33686,9 @@
     </row>
     <row r="832">
       <c r="A832" s="12"/>
-      <c r="B832" s="12"/>
-      <c r="C832" s="64"/>
-      <c r="D832" s="65"/>
+      <c r="B832" s="40"/>
+      <c r="C832" s="66"/>
+      <c r="D832" s="64"/>
       <c r="E832" s="43"/>
       <c r="F832" s="17"/>
       <c r="G832" s="18"/>
@@ -33251,9 +33715,9 @@
     </row>
     <row r="833">
       <c r="A833" s="12"/>
-      <c r="B833" s="12"/>
-      <c r="C833" s="64"/>
-      <c r="D833" s="65"/>
+      <c r="B833" s="40"/>
+      <c r="C833" s="66"/>
+      <c r="D833" s="64"/>
       <c r="E833" s="43"/>
       <c r="F833" s="17"/>
       <c r="G833" s="18"/>
@@ -33280,9 +33744,9 @@
     </row>
     <row r="834">
       <c r="A834" s="12"/>
-      <c r="B834" s="12"/>
-      <c r="C834" s="64"/>
-      <c r="D834" s="65"/>
+      <c r="B834" s="40"/>
+      <c r="C834" s="66"/>
+      <c r="D834" s="64"/>
       <c r="E834" s="43"/>
       <c r="F834" s="17"/>
       <c r="G834" s="18"/>
@@ -33309,9 +33773,9 @@
     </row>
     <row r="835">
       <c r="A835" s="12"/>
-      <c r="B835" s="12"/>
-      <c r="C835" s="64"/>
-      <c r="D835" s="65"/>
+      <c r="B835" s="40"/>
+      <c r="C835" s="66"/>
+      <c r="D835" s="64"/>
       <c r="E835" s="43"/>
       <c r="F835" s="17"/>
       <c r="G835" s="18"/>
@@ -33338,9 +33802,9 @@
     </row>
     <row r="836">
       <c r="A836" s="12"/>
-      <c r="B836" s="12"/>
-      <c r="C836" s="64"/>
-      <c r="D836" s="65"/>
+      <c r="B836" s="40"/>
+      <c r="C836" s="66"/>
+      <c r="D836" s="64"/>
       <c r="E836" s="43"/>
       <c r="F836" s="17"/>
       <c r="G836" s="18"/>
@@ -33367,9 +33831,9 @@
     </row>
     <row r="837">
       <c r="A837" s="12"/>
-      <c r="B837" s="12"/>
-      <c r="C837" s="64"/>
-      <c r="D837" s="65"/>
+      <c r="B837" s="40"/>
+      <c r="C837" s="66"/>
+      <c r="D837" s="64"/>
       <c r="E837" s="43"/>
       <c r="F837" s="17"/>
       <c r="G837" s="18"/>
@@ -33396,9 +33860,9 @@
     </row>
     <row r="838">
       <c r="A838" s="12"/>
-      <c r="B838" s="12"/>
-      <c r="C838" s="64"/>
-      <c r="D838" s="65"/>
+      <c r="B838" s="40"/>
+      <c r="C838" s="66"/>
+      <c r="D838" s="64"/>
       <c r="E838" s="43"/>
       <c r="F838" s="17"/>
       <c r="G838" s="18"/>
@@ -33425,9 +33889,9 @@
     </row>
     <row r="839">
       <c r="A839" s="12"/>
-      <c r="B839" s="12"/>
-      <c r="C839" s="64"/>
-      <c r="D839" s="65"/>
+      <c r="B839" s="40"/>
+      <c r="C839" s="66"/>
+      <c r="D839" s="64"/>
       <c r="E839" s="43"/>
       <c r="F839" s="17"/>
       <c r="G839" s="18"/>
@@ -33454,9 +33918,9 @@
     </row>
     <row r="840">
       <c r="A840" s="12"/>
-      <c r="B840" s="12"/>
-      <c r="C840" s="64"/>
-      <c r="D840" s="65"/>
+      <c r="B840" s="40"/>
+      <c r="C840" s="66"/>
+      <c r="D840" s="64"/>
       <c r="E840" s="43"/>
       <c r="F840" s="17"/>
       <c r="G840" s="18"/>
@@ -33483,9 +33947,9 @@
     </row>
     <row r="841">
       <c r="A841" s="12"/>
-      <c r="B841" s="12"/>
-      <c r="C841" s="64"/>
-      <c r="D841" s="65"/>
+      <c r="B841" s="40"/>
+      <c r="C841" s="66"/>
+      <c r="D841" s="64"/>
       <c r="E841" s="43"/>
       <c r="F841" s="17"/>
       <c r="G841" s="18"/>
@@ -33512,9 +33976,9 @@
     </row>
     <row r="842">
       <c r="A842" s="12"/>
-      <c r="B842" s="12"/>
-      <c r="C842" s="64"/>
-      <c r="D842" s="65"/>
+      <c r="B842" s="40"/>
+      <c r="C842" s="66"/>
+      <c r="D842" s="64"/>
       <c r="E842" s="43"/>
       <c r="F842" s="17"/>
       <c r="G842" s="18"/>
@@ -33541,9 +34005,9 @@
     </row>
     <row r="843">
       <c r="A843" s="12"/>
-      <c r="B843" s="12"/>
-      <c r="C843" s="64"/>
-      <c r="D843" s="65"/>
+      <c r="B843" s="40"/>
+      <c r="C843" s="66"/>
+      <c r="D843" s="64"/>
       <c r="E843" s="43"/>
       <c r="F843" s="17"/>
       <c r="G843" s="18"/>
@@ -33570,9 +34034,9 @@
     </row>
     <row r="844">
       <c r="A844" s="12"/>
-      <c r="B844" s="12"/>
-      <c r="C844" s="64"/>
-      <c r="D844" s="65"/>
+      <c r="B844" s="40"/>
+      <c r="C844" s="66"/>
+      <c r="D844" s="64"/>
       <c r="E844" s="43"/>
       <c r="F844" s="17"/>
       <c r="G844" s="18"/>
@@ -33599,9 +34063,9 @@
     </row>
     <row r="845">
       <c r="A845" s="12"/>
-      <c r="B845" s="12"/>
-      <c r="C845" s="64"/>
-      <c r="D845" s="65"/>
+      <c r="B845" s="40"/>
+      <c r="C845" s="66"/>
+      <c r="D845" s="64"/>
       <c r="E845" s="43"/>
       <c r="F845" s="17"/>
       <c r="G845" s="18"/>
@@ -33628,9 +34092,9 @@
     </row>
     <row r="846">
       <c r="A846" s="12"/>
-      <c r="B846" s="12"/>
-      <c r="C846" s="64"/>
-      <c r="D846" s="65"/>
+      <c r="B846" s="40"/>
+      <c r="C846" s="66"/>
+      <c r="D846" s="64"/>
       <c r="E846" s="43"/>
       <c r="F846" s="17"/>
       <c r="G846" s="18"/>
@@ -33657,9 +34121,9 @@
     </row>
     <row r="847">
       <c r="A847" s="12"/>
-      <c r="B847" s="12"/>
-      <c r="C847" s="64"/>
-      <c r="D847" s="65"/>
+      <c r="B847" s="40"/>
+      <c r="C847" s="66"/>
+      <c r="D847" s="64"/>
       <c r="E847" s="43"/>
       <c r="F847" s="17"/>
       <c r="G847" s="18"/>
@@ -33686,9 +34150,9 @@
     </row>
     <row r="848">
       <c r="A848" s="12"/>
-      <c r="B848" s="12"/>
-      <c r="C848" s="64"/>
-      <c r="D848" s="65"/>
+      <c r="B848" s="40"/>
+      <c r="C848" s="66"/>
+      <c r="D848" s="64"/>
       <c r="E848" s="43"/>
       <c r="F848" s="17"/>
       <c r="G848" s="18"/>
@@ -33715,9 +34179,9 @@
     </row>
     <row r="849">
       <c r="A849" s="12"/>
-      <c r="B849" s="12"/>
-      <c r="C849" s="64"/>
-      <c r="D849" s="65"/>
+      <c r="B849" s="40"/>
+      <c r="C849" s="66"/>
+      <c r="D849" s="64"/>
       <c r="E849" s="43"/>
       <c r="F849" s="17"/>
       <c r="G849" s="18"/>
@@ -33744,9 +34208,9 @@
     </row>
     <row r="850">
       <c r="A850" s="12"/>
-      <c r="B850" s="12"/>
-      <c r="C850" s="64"/>
-      <c r="D850" s="65"/>
+      <c r="B850" s="40"/>
+      <c r="C850" s="66"/>
+      <c r="D850" s="64"/>
       <c r="E850" s="43"/>
       <c r="F850" s="17"/>
       <c r="G850" s="18"/>
@@ -33773,9 +34237,9 @@
     </row>
     <row r="851">
       <c r="A851" s="12"/>
-      <c r="B851" s="12"/>
-      <c r="C851" s="64"/>
-      <c r="D851" s="65"/>
+      <c r="B851" s="40"/>
+      <c r="C851" s="66"/>
+      <c r="D851" s="64"/>
       <c r="E851" s="43"/>
       <c r="F851" s="17"/>
       <c r="G851" s="18"/>
@@ -33802,9 +34266,9 @@
     </row>
     <row r="852">
       <c r="A852" s="12"/>
-      <c r="B852" s="12"/>
-      <c r="C852" s="64"/>
-      <c r="D852" s="65"/>
+      <c r="B852" s="40"/>
+      <c r="C852" s="66"/>
+      <c r="D852" s="64"/>
       <c r="E852" s="43"/>
       <c r="F852" s="17"/>
       <c r="G852" s="18"/>
@@ -33831,9 +34295,9 @@
     </row>
     <row r="853">
       <c r="A853" s="12"/>
-      <c r="B853" s="12"/>
-      <c r="C853" s="64"/>
-      <c r="D853" s="65"/>
+      <c r="B853" s="40"/>
+      <c r="C853" s="66"/>
+      <c r="D853" s="64"/>
       <c r="E853" s="43"/>
       <c r="F853" s="17"/>
       <c r="G853" s="18"/>
@@ -33860,9 +34324,9 @@
     </row>
     <row r="854">
       <c r="A854" s="12"/>
-      <c r="B854" s="12"/>
-      <c r="C854" s="64"/>
-      <c r="D854" s="65"/>
+      <c r="B854" s="40"/>
+      <c r="C854" s="66"/>
+      <c r="D854" s="64"/>
       <c r="E854" s="43"/>
       <c r="F854" s="17"/>
       <c r="G854" s="18"/>
@@ -33889,9 +34353,9 @@
     </row>
     <row r="855">
       <c r="A855" s="12"/>
-      <c r="B855" s="12"/>
-      <c r="C855" s="64"/>
-      <c r="D855" s="65"/>
+      <c r="B855" s="40"/>
+      <c r="C855" s="66"/>
+      <c r="D855" s="64"/>
       <c r="E855" s="43"/>
       <c r="F855" s="17"/>
       <c r="G855" s="18"/>
@@ -33918,9 +34382,9 @@
     </row>
     <row r="856">
       <c r="A856" s="12"/>
-      <c r="B856" s="12"/>
-      <c r="C856" s="64"/>
-      <c r="D856" s="65"/>
+      <c r="B856" s="40"/>
+      <c r="C856" s="66"/>
+      <c r="D856" s="64"/>
       <c r="E856" s="43"/>
       <c r="F856" s="17"/>
       <c r="G856" s="18"/>
@@ -33947,9 +34411,9 @@
     </row>
     <row r="857">
       <c r="A857" s="12"/>
-      <c r="B857" s="12"/>
-      <c r="C857" s="64"/>
-      <c r="D857" s="65"/>
+      <c r="B857" s="40"/>
+      <c r="C857" s="66"/>
+      <c r="D857" s="64"/>
       <c r="E857" s="43"/>
       <c r="F857" s="17"/>
       <c r="G857" s="18"/>
@@ -33976,9 +34440,9 @@
     </row>
     <row r="858">
       <c r="A858" s="12"/>
-      <c r="B858" s="12"/>
-      <c r="C858" s="64"/>
-      <c r="D858" s="65"/>
+      <c r="B858" s="40"/>
+      <c r="C858" s="66"/>
+      <c r="D858" s="64"/>
       <c r="E858" s="43"/>
       <c r="F858" s="17"/>
       <c r="G858" s="18"/>
@@ -34005,9 +34469,9 @@
     </row>
     <row r="859">
       <c r="A859" s="12"/>
-      <c r="B859" s="12"/>
-      <c r="C859" s="64"/>
-      <c r="D859" s="65"/>
+      <c r="B859" s="40"/>
+      <c r="C859" s="66"/>
+      <c r="D859" s="64"/>
       <c r="E859" s="43"/>
       <c r="F859" s="17"/>
       <c r="G859" s="18"/>
@@ -34034,9 +34498,9 @@
     </row>
     <row r="860">
       <c r="A860" s="12"/>
-      <c r="B860" s="12"/>
-      <c r="C860" s="64"/>
-      <c r="D860" s="65"/>
+      <c r="B860" s="40"/>
+      <c r="C860" s="66"/>
+      <c r="D860" s="64"/>
       <c r="E860" s="43"/>
       <c r="F860" s="17"/>
       <c r="G860" s="18"/>
@@ -34063,9 +34527,9 @@
     </row>
     <row r="861">
       <c r="A861" s="12"/>
-      <c r="B861" s="12"/>
-      <c r="C861" s="64"/>
-      <c r="D861" s="65"/>
+      <c r="B861" s="40"/>
+      <c r="C861" s="66"/>
+      <c r="D861" s="64"/>
       <c r="E861" s="43"/>
       <c r="F861" s="17"/>
       <c r="G861" s="18"/>
@@ -34092,9 +34556,9 @@
     </row>
     <row r="862">
       <c r="A862" s="12"/>
-      <c r="B862" s="12"/>
-      <c r="C862" s="64"/>
-      <c r="D862" s="65"/>
+      <c r="B862" s="40"/>
+      <c r="C862" s="66"/>
+      <c r="D862" s="64"/>
       <c r="E862" s="43"/>
       <c r="F862" s="17"/>
       <c r="G862" s="18"/>
@@ -34121,9 +34585,9 @@
     </row>
     <row r="863">
       <c r="A863" s="12"/>
-      <c r="B863" s="12"/>
-      <c r="C863" s="64"/>
-      <c r="D863" s="65"/>
+      <c r="B863" s="40"/>
+      <c r="C863" s="66"/>
+      <c r="D863" s="64"/>
       <c r="E863" s="43"/>
       <c r="F863" s="17"/>
       <c r="G863" s="18"/>
@@ -34150,9 +34614,9 @@
     </row>
     <row r="864">
       <c r="A864" s="12"/>
-      <c r="B864" s="12"/>
-      <c r="C864" s="64"/>
-      <c r="D864" s="65"/>
+      <c r="B864" s="40"/>
+      <c r="C864" s="66"/>
+      <c r="D864" s="64"/>
       <c r="E864" s="43"/>
       <c r="F864" s="17"/>
       <c r="G864" s="18"/>
@@ -34179,9 +34643,9 @@
     </row>
     <row r="865">
       <c r="A865" s="12"/>
-      <c r="B865" s="12"/>
-      <c r="C865" s="64"/>
-      <c r="D865" s="65"/>
+      <c r="B865" s="40"/>
+      <c r="C865" s="66"/>
+      <c r="D865" s="64"/>
       <c r="E865" s="43"/>
       <c r="F865" s="17"/>
       <c r="G865" s="18"/>
@@ -34208,9 +34672,9 @@
     </row>
     <row r="866">
       <c r="A866" s="12"/>
-      <c r="B866" s="12"/>
-      <c r="C866" s="64"/>
-      <c r="D866" s="65"/>
+      <c r="B866" s="40"/>
+      <c r="C866" s="66"/>
+      <c r="D866" s="64"/>
       <c r="E866" s="43"/>
       <c r="F866" s="17"/>
       <c r="G866" s="18"/>
@@ -34237,9 +34701,9 @@
     </row>
     <row r="867">
       <c r="A867" s="12"/>
-      <c r="B867" s="12"/>
-      <c r="C867" s="64"/>
-      <c r="D867" s="65"/>
+      <c r="B867" s="40"/>
+      <c r="C867" s="66"/>
+      <c r="D867" s="64"/>
       <c r="E867" s="43"/>
       <c r="F867" s="17"/>
       <c r="G867" s="18"/>
@@ -34266,9 +34730,9 @@
     </row>
     <row r="868">
       <c r="A868" s="12"/>
-      <c r="B868" s="12"/>
-      <c r="C868" s="64"/>
-      <c r="D868" s="65"/>
+      <c r="B868" s="40"/>
+      <c r="C868" s="66"/>
+      <c r="D868" s="64"/>
       <c r="E868" s="43"/>
       <c r="F868" s="17"/>
       <c r="G868" s="18"/>
@@ -34295,9 +34759,9 @@
     </row>
     <row r="869">
       <c r="A869" s="12"/>
-      <c r="B869" s="12"/>
-      <c r="C869" s="64"/>
-      <c r="D869" s="65"/>
+      <c r="B869" s="40"/>
+      <c r="C869" s="66"/>
+      <c r="D869" s="64"/>
       <c r="E869" s="43"/>
       <c r="F869" s="17"/>
       <c r="G869" s="18"/>
@@ -34324,9 +34788,9 @@
     </row>
     <row r="870">
       <c r="A870" s="12"/>
-      <c r="B870" s="12"/>
-      <c r="C870" s="64"/>
-      <c r="D870" s="65"/>
+      <c r="B870" s="40"/>
+      <c r="C870" s="66"/>
+      <c r="D870" s="64"/>
       <c r="E870" s="43"/>
       <c r="F870" s="17"/>
       <c r="G870" s="18"/>
@@ -34353,9 +34817,9 @@
     </row>
     <row r="871">
       <c r="A871" s="12"/>
-      <c r="B871" s="12"/>
-      <c r="C871" s="64"/>
-      <c r="D871" s="65"/>
+      <c r="B871" s="40"/>
+      <c r="C871" s="66"/>
+      <c r="D871" s="64"/>
       <c r="E871" s="43"/>
       <c r="F871" s="17"/>
       <c r="G871" s="18"/>
@@ -34382,9 +34846,9 @@
     </row>
     <row r="872">
       <c r="A872" s="12"/>
-      <c r="B872" s="12"/>
-      <c r="C872" s="64"/>
-      <c r="D872" s="65"/>
+      <c r="B872" s="40"/>
+      <c r="C872" s="66"/>
+      <c r="D872" s="64"/>
       <c r="E872" s="43"/>
       <c r="F872" s="17"/>
       <c r="G872" s="18"/>
@@ -34411,9 +34875,9 @@
     </row>
     <row r="873">
       <c r="A873" s="12"/>
-      <c r="B873" s="12"/>
-      <c r="C873" s="64"/>
-      <c r="D873" s="65"/>
+      <c r="B873" s="40"/>
+      <c r="C873" s="66"/>
+      <c r="D873" s="64"/>
       <c r="E873" s="43"/>
       <c r="F873" s="17"/>
       <c r="G873" s="18"/>
@@ -34440,9 +34904,9 @@
     </row>
     <row r="874">
       <c r="A874" s="12"/>
-      <c r="B874" s="12"/>
-      <c r="C874" s="64"/>
-      <c r="D874" s="65"/>
+      <c r="B874" s="40"/>
+      <c r="C874" s="66"/>
+      <c r="D874" s="64"/>
       <c r="E874" s="43"/>
       <c r="F874" s="17"/>
       <c r="G874" s="18"/>
@@ -34469,9 +34933,9 @@
     </row>
     <row r="875">
       <c r="A875" s="12"/>
-      <c r="B875" s="12"/>
-      <c r="C875" s="64"/>
-      <c r="D875" s="65"/>
+      <c r="B875" s="40"/>
+      <c r="C875" s="66"/>
+      <c r="D875" s="64"/>
       <c r="E875" s="43"/>
       <c r="F875" s="17"/>
       <c r="G875" s="18"/>
@@ -34498,9 +34962,9 @@
     </row>
     <row r="876">
       <c r="A876" s="12"/>
-      <c r="B876" s="12"/>
-      <c r="C876" s="64"/>
-      <c r="D876" s="65"/>
+      <c r="B876" s="40"/>
+      <c r="C876" s="66"/>
+      <c r="D876" s="64"/>
       <c r="E876" s="43"/>
       <c r="F876" s="17"/>
       <c r="G876" s="18"/>
@@ -34527,9 +34991,9 @@
     </row>
     <row r="877">
       <c r="A877" s="12"/>
-      <c r="B877" s="12"/>
-      <c r="C877" s="64"/>
-      <c r="D877" s="65"/>
+      <c r="B877" s="40"/>
+      <c r="C877" s="66"/>
+      <c r="D877" s="64"/>
       <c r="E877" s="43"/>
       <c r="F877" s="17"/>
       <c r="G877" s="18"/>
@@ -34556,9 +35020,9 @@
     </row>
     <row r="878">
       <c r="A878" s="12"/>
-      <c r="B878" s="12"/>
-      <c r="C878" s="64"/>
-      <c r="D878" s="65"/>
+      <c r="B878" s="40"/>
+      <c r="C878" s="66"/>
+      <c r="D878" s="64"/>
       <c r="E878" s="43"/>
       <c r="F878" s="17"/>
       <c r="G878" s="18"/>
@@ -34585,9 +35049,9 @@
     </row>
     <row r="879">
       <c r="A879" s="12"/>
-      <c r="B879" s="12"/>
-      <c r="C879" s="64"/>
-      <c r="D879" s="65"/>
+      <c r="B879" s="40"/>
+      <c r="C879" s="66"/>
+      <c r="D879" s="64"/>
       <c r="E879" s="43"/>
       <c r="F879" s="17"/>
       <c r="G879" s="18"/>
@@ -34614,9 +35078,9 @@
     </row>
     <row r="880">
       <c r="A880" s="12"/>
-      <c r="B880" s="12"/>
-      <c r="C880" s="64"/>
-      <c r="D880" s="65"/>
+      <c r="B880" s="40"/>
+      <c r="C880" s="66"/>
+      <c r="D880" s="64"/>
       <c r="E880" s="43"/>
       <c r="F880" s="17"/>
       <c r="G880" s="18"/>
@@ -34643,9 +35107,9 @@
     </row>
     <row r="881">
       <c r="A881" s="12"/>
-      <c r="B881" s="12"/>
-      <c r="C881" s="64"/>
-      <c r="D881" s="65"/>
+      <c r="B881" s="40"/>
+      <c r="C881" s="66"/>
+      <c r="D881" s="64"/>
       <c r="E881" s="43"/>
       <c r="F881" s="17"/>
       <c r="G881" s="18"/>
@@ -34672,9 +35136,9 @@
     </row>
     <row r="882">
       <c r="A882" s="12"/>
-      <c r="B882" s="12"/>
-      <c r="C882" s="64"/>
-      <c r="D882" s="65"/>
+      <c r="B882" s="40"/>
+      <c r="C882" s="66"/>
+      <c r="D882" s="64"/>
       <c r="E882" s="43"/>
       <c r="F882" s="17"/>
       <c r="G882" s="18"/>
@@ -34701,9 +35165,9 @@
     </row>
     <row r="883">
       <c r="A883" s="12"/>
-      <c r="B883" s="12"/>
-      <c r="C883" s="64"/>
-      <c r="D883" s="65"/>
+      <c r="B883" s="40"/>
+      <c r="C883" s="66"/>
+      <c r="D883" s="64"/>
       <c r="E883" s="43"/>
       <c r="F883" s="17"/>
       <c r="G883" s="18"/>
@@ -34730,9 +35194,9 @@
     </row>
     <row r="884">
       <c r="A884" s="12"/>
-      <c r="B884" s="12"/>
-      <c r="C884" s="64"/>
-      <c r="D884" s="65"/>
+      <c r="B884" s="40"/>
+      <c r="C884" s="66"/>
+      <c r="D884" s="64"/>
       <c r="E884" s="43"/>
       <c r="F884" s="17"/>
       <c r="G884" s="18"/>
@@ -34759,9 +35223,9 @@
     </row>
     <row r="885">
       <c r="A885" s="12"/>
-      <c r="B885" s="12"/>
-      <c r="C885" s="64"/>
-      <c r="D885" s="65"/>
+      <c r="B885" s="40"/>
+      <c r="C885" s="66"/>
+      <c r="D885" s="64"/>
       <c r="E885" s="43"/>
       <c r="F885" s="17"/>
       <c r="G885" s="18"/>
@@ -34788,9 +35252,9 @@
     </row>
     <row r="886">
       <c r="A886" s="12"/>
-      <c r="B886" s="12"/>
-      <c r="C886" s="64"/>
-      <c r="D886" s="65"/>
+      <c r="B886" s="40"/>
+      <c r="C886" s="66"/>
+      <c r="D886" s="64"/>
       <c r="E886" s="43"/>
       <c r="F886" s="17"/>
       <c r="G886" s="18"/>
@@ -34817,9 +35281,9 @@
     </row>
     <row r="887">
       <c r="A887" s="12"/>
-      <c r="B887" s="12"/>
-      <c r="C887" s="64"/>
-      <c r="D887" s="65"/>
+      <c r="B887" s="40"/>
+      <c r="C887" s="66"/>
+      <c r="D887" s="64"/>
       <c r="E887" s="43"/>
       <c r="F887" s="17"/>
       <c r="G887" s="18"/>
@@ -34846,9 +35310,9 @@
     </row>
     <row r="888">
       <c r="A888" s="12"/>
-      <c r="B888" s="12"/>
-      <c r="C888" s="64"/>
-      <c r="D888" s="65"/>
+      <c r="B888" s="40"/>
+      <c r="C888" s="66"/>
+      <c r="D888" s="64"/>
       <c r="E888" s="43"/>
       <c r="F888" s="17"/>
       <c r="G888" s="18"/>
@@ -34875,9 +35339,9 @@
     </row>
     <row r="889">
       <c r="A889" s="12"/>
-      <c r="B889" s="12"/>
-      <c r="C889" s="64"/>
-      <c r="D889" s="65"/>
+      <c r="B889" s="40"/>
+      <c r="C889" s="66"/>
+      <c r="D889" s="64"/>
       <c r="E889" s="43"/>
       <c r="F889" s="17"/>
       <c r="G889" s="18"/>
@@ -34904,9 +35368,9 @@
     </row>
     <row r="890">
       <c r="A890" s="12"/>
-      <c r="B890" s="12"/>
-      <c r="C890" s="64"/>
-      <c r="D890" s="65"/>
+      <c r="B890" s="40"/>
+      <c r="C890" s="66"/>
+      <c r="D890" s="64"/>
       <c r="E890" s="43"/>
       <c r="F890" s="17"/>
       <c r="G890" s="18"/>
@@ -34933,9 +35397,9 @@
     </row>
     <row r="891">
       <c r="A891" s="12"/>
-      <c r="B891" s="12"/>
-      <c r="C891" s="64"/>
-      <c r="D891" s="65"/>
+      <c r="B891" s="40"/>
+      <c r="C891" s="66"/>
+      <c r="D891" s="64"/>
       <c r="E891" s="43"/>
       <c r="F891" s="17"/>
       <c r="G891" s="18"/>
@@ -34962,9 +35426,9 @@
     </row>
     <row r="892">
       <c r="A892" s="12"/>
-      <c r="B892" s="12"/>
-      <c r="C892" s="64"/>
-      <c r="D892" s="65"/>
+      <c r="B892" s="40"/>
+      <c r="C892" s="66"/>
+      <c r="D892" s="64"/>
       <c r="E892" s="43"/>
       <c r="F892" s="17"/>
       <c r="G892" s="18"/>
@@ -34991,9 +35455,9 @@
     </row>
     <row r="893">
       <c r="A893" s="12"/>
-      <c r="B893" s="12"/>
-      <c r="C893" s="64"/>
-      <c r="D893" s="65"/>
+      <c r="B893" s="40"/>
+      <c r="C893" s="66"/>
+      <c r="D893" s="64"/>
       <c r="E893" s="43"/>
       <c r="F893" s="17"/>
       <c r="G893" s="18"/>
@@ -35020,9 +35484,9 @@
     </row>
     <row r="894">
       <c r="A894" s="12"/>
-      <c r="B894" s="12"/>
-      <c r="C894" s="64"/>
-      <c r="D894" s="65"/>
+      <c r="B894" s="40"/>
+      <c r="C894" s="66"/>
+      <c r="D894" s="64"/>
       <c r="E894" s="43"/>
       <c r="F894" s="17"/>
       <c r="G894" s="18"/>
@@ -35049,9 +35513,9 @@
     </row>
     <row r="895">
       <c r="A895" s="12"/>
-      <c r="B895" s="12"/>
-      <c r="C895" s="64"/>
-      <c r="D895" s="65"/>
+      <c r="B895" s="40"/>
+      <c r="C895" s="66"/>
+      <c r="D895" s="64"/>
       <c r="E895" s="43"/>
       <c r="F895" s="17"/>
       <c r="G895" s="18"/>
@@ -35078,9 +35542,9 @@
     </row>
     <row r="896">
       <c r="A896" s="12"/>
-      <c r="B896" s="12"/>
-      <c r="C896" s="64"/>
-      <c r="D896" s="65"/>
+      <c r="B896" s="40"/>
+      <c r="C896" s="66"/>
+      <c r="D896" s="64"/>
       <c r="E896" s="43"/>
       <c r="F896" s="17"/>
       <c r="G896" s="18"/>
@@ -35107,9 +35571,9 @@
     </row>
     <row r="897">
       <c r="A897" s="12"/>
-      <c r="B897" s="12"/>
-      <c r="C897" s="64"/>
-      <c r="D897" s="65"/>
+      <c r="B897" s="40"/>
+      <c r="C897" s="66"/>
+      <c r="D897" s="64"/>
       <c r="E897" s="43"/>
       <c r="F897" s="17"/>
       <c r="G897" s="18"/>
@@ -35136,9 +35600,9 @@
     </row>
     <row r="898">
       <c r="A898" s="12"/>
-      <c r="B898" s="12"/>
-      <c r="C898" s="64"/>
-      <c r="D898" s="65"/>
+      <c r="B898" s="40"/>
+      <c r="C898" s="66"/>
+      <c r="D898" s="64"/>
       <c r="E898" s="43"/>
       <c r="F898" s="17"/>
       <c r="G898" s="18"/>
@@ -35165,9 +35629,9 @@
     </row>
     <row r="899">
       <c r="A899" s="12"/>
-      <c r="B899" s="12"/>
-      <c r="C899" s="64"/>
-      <c r="D899" s="65"/>
+      <c r="B899" s="40"/>
+      <c r="C899" s="66"/>
+      <c r="D899" s="64"/>
       <c r="E899" s="43"/>
       <c r="F899" s="17"/>
       <c r="G899" s="18"/>
@@ -35194,9 +35658,9 @@
     </row>
     <row r="900">
       <c r="A900" s="12"/>
-      <c r="B900" s="12"/>
-      <c r="C900" s="64"/>
-      <c r="D900" s="65"/>
+      <c r="B900" s="40"/>
+      <c r="C900" s="66"/>
+      <c r="D900" s="64"/>
       <c r="E900" s="43"/>
       <c r="F900" s="17"/>
       <c r="G900" s="18"/>
@@ -35223,9 +35687,9 @@
     </row>
     <row r="901">
       <c r="A901" s="12"/>
-      <c r="B901" s="12"/>
-      <c r="C901" s="64"/>
-      <c r="D901" s="65"/>
+      <c r="B901" s="40"/>
+      <c r="C901" s="66"/>
+      <c r="D901" s="64"/>
       <c r="E901" s="43"/>
       <c r="F901" s="17"/>
       <c r="G901" s="18"/>
@@ -35252,9 +35716,9 @@
     </row>
     <row r="902">
       <c r="A902" s="12"/>
-      <c r="B902" s="12"/>
-      <c r="C902" s="64"/>
-      <c r="D902" s="65"/>
+      <c r="B902" s="40"/>
+      <c r="C902" s="66"/>
+      <c r="D902" s="64"/>
       <c r="E902" s="43"/>
       <c r="F902" s="17"/>
       <c r="G902" s="18"/>
@@ -35281,9 +35745,9 @@
     </row>
     <row r="903">
       <c r="A903" s="12"/>
-      <c r="B903" s="12"/>
-      <c r="C903" s="64"/>
-      <c r="D903" s="65"/>
+      <c r="B903" s="40"/>
+      <c r="C903" s="66"/>
+      <c r="D903" s="64"/>
       <c r="E903" s="43"/>
       <c r="F903" s="17"/>
       <c r="G903" s="18"/>
@@ -35310,9 +35774,9 @@
     </row>
     <row r="904">
       <c r="A904" s="12"/>
-      <c r="B904" s="12"/>
-      <c r="C904" s="64"/>
-      <c r="D904" s="65"/>
+      <c r="B904" s="40"/>
+      <c r="C904" s="66"/>
+      <c r="D904" s="64"/>
       <c r="E904" s="43"/>
       <c r="F904" s="17"/>
       <c r="G904" s="18"/>
@@ -35339,9 +35803,9 @@
     </row>
     <row r="905">
       <c r="A905" s="12"/>
-      <c r="B905" s="12"/>
-      <c r="C905" s="64"/>
-      <c r="D905" s="65"/>
+      <c r="B905" s="40"/>
+      <c r="C905" s="66"/>
+      <c r="D905" s="64"/>
       <c r="E905" s="43"/>
       <c r="F905" s="17"/>
       <c r="G905" s="18"/>
@@ -35368,9 +35832,9 @@
     </row>
     <row r="906">
       <c r="A906" s="12"/>
-      <c r="B906" s="12"/>
-      <c r="C906" s="64"/>
-      <c r="D906" s="65"/>
+      <c r="B906" s="40"/>
+      <c r="C906" s="66"/>
+      <c r="D906" s="64"/>
       <c r="E906" s="43"/>
       <c r="F906" s="17"/>
       <c r="G906" s="18"/>
@@ -35397,9 +35861,9 @@
     </row>
     <row r="907">
       <c r="A907" s="12"/>
-      <c r="B907" s="12"/>
-      <c r="C907" s="64"/>
-      <c r="D907" s="65"/>
+      <c r="B907" s="40"/>
+      <c r="C907" s="66"/>
+      <c r="D907" s="64"/>
       <c r="E907" s="43"/>
       <c r="F907" s="17"/>
       <c r="G907" s="18"/>
@@ -35426,9 +35890,9 @@
     </row>
     <row r="908">
       <c r="A908" s="12"/>
-      <c r="B908" s="12"/>
-      <c r="C908" s="64"/>
-      <c r="D908" s="65"/>
+      <c r="B908" s="40"/>
+      <c r="C908" s="66"/>
+      <c r="D908" s="64"/>
       <c r="E908" s="43"/>
       <c r="F908" s="17"/>
       <c r="G908" s="18"/>
@@ -35455,9 +35919,9 @@
     </row>
     <row r="909">
       <c r="A909" s="12"/>
-      <c r="B909" s="12"/>
-      <c r="C909" s="64"/>
-      <c r="D909" s="65"/>
+      <c r="B909" s="40"/>
+      <c r="C909" s="66"/>
+      <c r="D909" s="64"/>
       <c r="E909" s="43"/>
       <c r="F909" s="17"/>
       <c r="G909" s="18"/>
@@ -35484,9 +35948,9 @@
     </row>
     <row r="910">
       <c r="A910" s="12"/>
-      <c r="B910" s="12"/>
-      <c r="C910" s="64"/>
-      <c r="D910" s="65"/>
+      <c r="B910" s="40"/>
+      <c r="C910" s="66"/>
+      <c r="D910" s="64"/>
       <c r="E910" s="43"/>
       <c r="F910" s="17"/>
       <c r="G910" s="18"/>
@@ -35513,9 +35977,9 @@
     </row>
     <row r="911">
       <c r="A911" s="12"/>
-      <c r="B911" s="12"/>
-      <c r="C911" s="64"/>
-      <c r="D911" s="65"/>
+      <c r="B911" s="40"/>
+      <c r="C911" s="66"/>
+      <c r="D911" s="64"/>
       <c r="E911" s="43"/>
       <c r="F911" s="17"/>
       <c r="G911" s="18"/>
@@ -35542,9 +36006,9 @@
     </row>
     <row r="912">
       <c r="A912" s="12"/>
-      <c r="B912" s="12"/>
-      <c r="C912" s="64"/>
-      <c r="D912" s="65"/>
+      <c r="B912" s="40"/>
+      <c r="C912" s="66"/>
+      <c r="D912" s="64"/>
       <c r="E912" s="43"/>
       <c r="F912" s="17"/>
       <c r="G912" s="18"/>
@@ -35571,9 +36035,9 @@
     </row>
     <row r="913">
       <c r="A913" s="12"/>
-      <c r="B913" s="12"/>
-      <c r="C913" s="64"/>
-      <c r="D913" s="65"/>
+      <c r="B913" s="40"/>
+      <c r="C913" s="66"/>
+      <c r="D913" s="64"/>
       <c r="E913" s="43"/>
       <c r="F913" s="17"/>
       <c r="G913" s="18"/>
@@ -35600,9 +36064,9 @@
     </row>
     <row r="914">
       <c r="A914" s="12"/>
-      <c r="B914" s="12"/>
-      <c r="C914" s="64"/>
-      <c r="D914" s="65"/>
+      <c r="B914" s="40"/>
+      <c r="C914" s="66"/>
+      <c r="D914" s="64"/>
       <c r="E914" s="43"/>
       <c r="F914" s="17"/>
       <c r="G914" s="18"/>
@@ -35629,9 +36093,9 @@
     </row>
     <row r="915">
       <c r="A915" s="12"/>
-      <c r="B915" s="12"/>
-      <c r="C915" s="64"/>
-      <c r="D915" s="65"/>
+      <c r="B915" s="40"/>
+      <c r="C915" s="66"/>
+      <c r="D915" s="64"/>
       <c r="E915" s="43"/>
       <c r="F915" s="17"/>
       <c r="G915" s="18"/>
@@ -35658,9 +36122,9 @@
     </row>
     <row r="916">
       <c r="A916" s="12"/>
-      <c r="B916" s="12"/>
-      <c r="C916" s="64"/>
-      <c r="D916" s="65"/>
+      <c r="B916" s="40"/>
+      <c r="C916" s="66"/>
+      <c r="D916" s="64"/>
       <c r="E916" s="43"/>
       <c r="F916" s="17"/>
       <c r="G916" s="18"/>
@@ -35687,9 +36151,9 @@
     </row>
     <row r="917">
       <c r="A917" s="12"/>
-      <c r="B917" s="12"/>
-      <c r="C917" s="64"/>
-      <c r="D917" s="65"/>
+      <c r="B917" s="40"/>
+      <c r="C917" s="66"/>
+      <c r="D917" s="64"/>
       <c r="E917" s="43"/>
       <c r="F917" s="17"/>
       <c r="G917" s="18"/>
@@ -35716,9 +36180,9 @@
     </row>
     <row r="918">
       <c r="A918" s="12"/>
-      <c r="B918" s="12"/>
-      <c r="C918" s="64"/>
-      <c r="D918" s="65"/>
+      <c r="B918" s="40"/>
+      <c r="C918" s="66"/>
+      <c r="D918" s="64"/>
       <c r="E918" s="43"/>
       <c r="F918" s="17"/>
       <c r="G918" s="18"/>
@@ -35745,9 +36209,9 @@
     </row>
     <row r="919">
       <c r="A919" s="12"/>
-      <c r="B919" s="12"/>
-      <c r="C919" s="64"/>
-      <c r="D919" s="65"/>
+      <c r="B919" s="40"/>
+      <c r="C919" s="66"/>
+      <c r="D919" s="64"/>
       <c r="E919" s="43"/>
       <c r="F919" s="17"/>
       <c r="G919" s="18"/>
@@ -35774,9 +36238,9 @@
     </row>
     <row r="920">
       <c r="A920" s="12"/>
-      <c r="B920" s="12"/>
-      <c r="C920" s="64"/>
-      <c r="D920" s="65"/>
+      <c r="B920" s="40"/>
+      <c r="C920" s="66"/>
+      <c r="D920" s="64"/>
       <c r="E920" s="43"/>
       <c r="F920" s="17"/>
       <c r="G920" s="18"/>
@@ -35803,9 +36267,9 @@
     </row>
     <row r="921">
       <c r="A921" s="12"/>
-      <c r="B921" s="12"/>
-      <c r="C921" s="64"/>
-      <c r="D921" s="65"/>
+      <c r="B921" s="40"/>
+      <c r="C921" s="66"/>
+      <c r="D921" s="64"/>
       <c r="E921" s="43"/>
       <c r="F921" s="17"/>
       <c r="G921" s="18"/>
@@ -35832,9 +36296,9 @@
     </row>
     <row r="922">
       <c r="A922" s="12"/>
-      <c r="B922" s="12"/>
-      <c r="C922" s="64"/>
-      <c r="D922" s="65"/>
+      <c r="B922" s="40"/>
+      <c r="C922" s="66"/>
+      <c r="D922" s="64"/>
       <c r="E922" s="43"/>
       <c r="F922" s="17"/>
       <c r="G922" s="18"/>
@@ -35861,9 +36325,9 @@
     </row>
     <row r="923">
       <c r="A923" s="12"/>
-      <c r="B923" s="12"/>
-      <c r="C923" s="64"/>
-      <c r="D923" s="65"/>
+      <c r="B923" s="40"/>
+      <c r="C923" s="66"/>
+      <c r="D923" s="64"/>
       <c r="E923" s="43"/>
       <c r="F923" s="17"/>
       <c r="G923" s="18"/>
@@ -35890,9 +36354,9 @@
     </row>
     <row r="924">
       <c r="A924" s="12"/>
-      <c r="B924" s="12"/>
-      <c r="C924" s="64"/>
-      <c r="D924" s="65"/>
+      <c r="B924" s="40"/>
+      <c r="C924" s="66"/>
+      <c r="D924" s="64"/>
       <c r="E924" s="43"/>
       <c r="F924" s="17"/>
       <c r="G924" s="18"/>
@@ -35919,9 +36383,9 @@
     </row>
     <row r="925">
       <c r="A925" s="12"/>
-      <c r="B925" s="12"/>
-      <c r="C925" s="64"/>
-      <c r="D925" s="65"/>
+      <c r="B925" s="40"/>
+      <c r="C925" s="66"/>
+      <c r="D925" s="64"/>
       <c r="E925" s="43"/>
       <c r="F925" s="17"/>
       <c r="G925" s="18"/>
@@ -35948,9 +36412,9 @@
     </row>
     <row r="926">
       <c r="A926" s="12"/>
-      <c r="B926" s="12"/>
-      <c r="C926" s="64"/>
-      <c r="D926" s="65"/>
+      <c r="B926" s="40"/>
+      <c r="C926" s="66"/>
+      <c r="D926" s="64"/>
       <c r="E926" s="43"/>
       <c r="F926" s="17"/>
       <c r="G926" s="18"/>
@@ -35977,9 +36441,9 @@
     </row>
     <row r="927">
       <c r="A927" s="12"/>
-      <c r="B927" s="12"/>
-      <c r="C927" s="64"/>
-      <c r="D927" s="65"/>
+      <c r="B927" s="40"/>
+      <c r="C927" s="66"/>
+      <c r="D927" s="64"/>
       <c r="E927" s="43"/>
       <c r="F927" s="17"/>
       <c r="G927" s="18"/>
@@ -36006,9 +36470,9 @@
     </row>
     <row r="928">
       <c r="A928" s="12"/>
-      <c r="B928" s="12"/>
-      <c r="C928" s="64"/>
-      <c r="D928" s="65"/>
+      <c r="B928" s="40"/>
+      <c r="C928" s="66"/>
+      <c r="D928" s="64"/>
       <c r="E928" s="43"/>
       <c r="F928" s="17"/>
       <c r="G928" s="18"/>
@@ -36035,9 +36499,9 @@
     </row>
     <row r="929">
       <c r="A929" s="12"/>
-      <c r="B929" s="12"/>
-      <c r="C929" s="64"/>
-      <c r="D929" s="65"/>
+      <c r="B929" s="40"/>
+      <c r="C929" s="66"/>
+      <c r="D929" s="64"/>
       <c r="E929" s="43"/>
       <c r="F929" s="17"/>
       <c r="G929" s="18"/>
@@ -36064,9 +36528,9 @@
     </row>
     <row r="930">
       <c r="A930" s="12"/>
-      <c r="B930" s="12"/>
-      <c r="C930" s="64"/>
-      <c r="D930" s="65"/>
+      <c r="B930" s="40"/>
+      <c r="C930" s="66"/>
+      <c r="D930" s="64"/>
       <c r="E930" s="43"/>
       <c r="F930" s="17"/>
       <c r="G930" s="18"/>
@@ -36093,9 +36557,9 @@
     </row>
     <row r="931">
       <c r="A931" s="12"/>
-      <c r="B931" s="12"/>
-      <c r="C931" s="64"/>
-      <c r="D931" s="65"/>
+      <c r="B931" s="40"/>
+      <c r="C931" s="66"/>
+      <c r="D931" s="64"/>
       <c r="E931" s="43"/>
       <c r="F931" s="17"/>
       <c r="G931" s="18"/>
@@ -36122,9 +36586,9 @@
     </row>
     <row r="932">
       <c r="A932" s="12"/>
-      <c r="B932" s="12"/>
-      <c r="C932" s="64"/>
-      <c r="D932" s="65"/>
+      <c r="B932" s="40"/>
+      <c r="C932" s="66"/>
+      <c r="D932" s="64"/>
       <c r="E932" s="43"/>
       <c r="F932" s="17"/>
       <c r="G932" s="18"/>
@@ -36151,9 +36615,9 @@
     </row>
     <row r="933">
       <c r="A933" s="12"/>
-      <c r="B933" s="12"/>
-      <c r="C933" s="64"/>
-      <c r="D933" s="65"/>
+      <c r="B933" s="40"/>
+      <c r="C933" s="66"/>
+      <c r="D933" s="64"/>
       <c r="E933" s="43"/>
       <c r="F933" s="17"/>
       <c r="G933" s="18"/>
@@ -36180,9 +36644,9 @@
     </row>
     <row r="934">
       <c r="A934" s="12"/>
-      <c r="B934" s="12"/>
-      <c r="C934" s="64"/>
-      <c r="D934" s="65"/>
+      <c r="B934" s="40"/>
+      <c r="C934" s="66"/>
+      <c r="D934" s="64"/>
       <c r="E934" s="43"/>
       <c r="F934" s="17"/>
       <c r="G934" s="18"/>
@@ -36209,9 +36673,9 @@
     </row>
     <row r="935">
       <c r="A935" s="12"/>
-      <c r="B935" s="12"/>
-      <c r="C935" s="64"/>
-      <c r="D935" s="65"/>
+      <c r="B935" s="40"/>
+      <c r="C935" s="66"/>
+      <c r="D935" s="64"/>
       <c r="E935" s="43"/>
       <c r="F935" s="17"/>
       <c r="G935" s="18"/>
@@ -36238,9 +36702,9 @@
     </row>
     <row r="936">
       <c r="A936" s="12"/>
-      <c r="B936" s="12"/>
-      <c r="C936" s="64"/>
-      <c r="D936" s="65"/>
+      <c r="B936" s="40"/>
+      <c r="C936" s="66"/>
+      <c r="D936" s="64"/>
       <c r="E936" s="43"/>
       <c r="F936" s="17"/>
       <c r="G936" s="18"/>
@@ -36267,9 +36731,9 @@
     </row>
     <row r="937">
       <c r="A937" s="12"/>
-      <c r="B937" s="12"/>
-      <c r="C937" s="64"/>
-      <c r="D937" s="65"/>
+      <c r="B937" s="40"/>
+      <c r="C937" s="66"/>
+      <c r="D937" s="64"/>
       <c r="E937" s="43"/>
       <c r="F937" s="17"/>
       <c r="G937" s="18"/>
@@ -36296,9 +36760,9 @@
     </row>
     <row r="938">
       <c r="A938" s="12"/>
-      <c r="B938" s="12"/>
-      <c r="C938" s="64"/>
-      <c r="D938" s="65"/>
+      <c r="B938" s="40"/>
+      <c r="C938" s="66"/>
+      <c r="D938" s="64"/>
       <c r="E938" s="43"/>
       <c r="F938" s="17"/>
       <c r="G938" s="18"/>
@@ -36325,9 +36789,9 @@
     </row>
     <row r="939">
       <c r="A939" s="12"/>
-      <c r="B939" s="12"/>
-      <c r="C939" s="64"/>
-      <c r="D939" s="65"/>
+      <c r="B939" s="40"/>
+      <c r="C939" s="66"/>
+      <c r="D939" s="64"/>
       <c r="E939" s="43"/>
       <c r="F939" s="17"/>
       <c r="G939" s="18"/>
@@ -36354,9 +36818,9 @@
     </row>
     <row r="940">
       <c r="A940" s="12"/>
-      <c r="B940" s="12"/>
-      <c r="C940" s="64"/>
-      <c r="D940" s="65"/>
+      <c r="B940" s="40"/>
+      <c r="C940" s="66"/>
+      <c r="D940" s="64"/>
       <c r="E940" s="43"/>
       <c r="F940" s="17"/>
       <c r="G940" s="18"/>
@@ -36383,9 +36847,9 @@
     </row>
     <row r="941">
       <c r="A941" s="12"/>
-      <c r="B941" s="12"/>
-      <c r="C941" s="64"/>
-      <c r="D941" s="65"/>
+      <c r="B941" s="40"/>
+      <c r="C941" s="66"/>
+      <c r="D941" s="64"/>
       <c r="E941" s="43"/>
       <c r="F941" s="17"/>
       <c r="G941" s="18"/>
@@ -36412,9 +36876,9 @@
     </row>
     <row r="942">
       <c r="A942" s="12"/>
-      <c r="B942" s="12"/>
-      <c r="C942" s="64"/>
-      <c r="D942" s="65"/>
+      <c r="B942" s="40"/>
+      <c r="C942" s="66"/>
+      <c r="D942" s="64"/>
       <c r="E942" s="43"/>
       <c r="F942" s="17"/>
       <c r="G942" s="18"/>
@@ -36441,9 +36905,9 @@
     </row>
     <row r="943">
       <c r="A943" s="12"/>
-      <c r="B943" s="12"/>
-      <c r="C943" s="64"/>
-      <c r="D943" s="65"/>
+      <c r="B943" s="40"/>
+      <c r="C943" s="66"/>
+      <c r="D943" s="64"/>
       <c r="E943" s="43"/>
       <c r="F943" s="17"/>
       <c r="G943" s="18"/>
@@ -36470,9 +36934,9 @@
     </row>
     <row r="944">
       <c r="A944" s="12"/>
-      <c r="B944" s="12"/>
-      <c r="C944" s="64"/>
-      <c r="D944" s="65"/>
+      <c r="B944" s="40"/>
+      <c r="C944" s="66"/>
+      <c r="D944" s="64"/>
       <c r="E944" s="43"/>
       <c r="F944" s="17"/>
       <c r="G944" s="18"/>
@@ -36499,9 +36963,9 @@
     </row>
     <row r="945">
       <c r="A945" s="12"/>
-      <c r="B945" s="12"/>
-      <c r="C945" s="64"/>
-      <c r="D945" s="65"/>
+      <c r="B945" s="40"/>
+      <c r="C945" s="66"/>
+      <c r="D945" s="64"/>
       <c r="E945" s="43"/>
       <c r="F945" s="17"/>
       <c r="G945" s="18"/>
@@ -36528,9 +36992,9 @@
     </row>
     <row r="946">
       <c r="A946" s="12"/>
-      <c r="B946" s="12"/>
-      <c r="C946" s="64"/>
-      <c r="D946" s="65"/>
+      <c r="B946" s="40"/>
+      <c r="C946" s="66"/>
+      <c r="D946" s="64"/>
       <c r="E946" s="43"/>
       <c r="F946" s="17"/>
       <c r="G946" s="18"/>
@@ -36557,9 +37021,9 @@
     </row>
     <row r="947">
       <c r="A947" s="12"/>
-      <c r="B947" s="12"/>
-      <c r="C947" s="64"/>
-      <c r="D947" s="65"/>
+      <c r="B947" s="40"/>
+      <c r="C947" s="66"/>
+      <c r="D947" s="64"/>
       <c r="E947" s="43"/>
       <c r="F947" s="17"/>
       <c r="G947" s="18"/>
@@ -36586,9 +37050,9 @@
     </row>
     <row r="948">
       <c r="A948" s="12"/>
-      <c r="B948" s="12"/>
-      <c r="C948" s="64"/>
-      <c r="D948" s="65"/>
+      <c r="B948" s="40"/>
+      <c r="C948" s="66"/>
+      <c r="D948" s="64"/>
       <c r="E948" s="43"/>
       <c r="F948" s="17"/>
       <c r="G948" s="18"/>
@@ -36615,9 +37079,9 @@
     </row>
     <row r="949">
       <c r="A949" s="12"/>
-      <c r="B949" s="12"/>
-      <c r="C949" s="64"/>
-      <c r="D949" s="65"/>
+      <c r="B949" s="40"/>
+      <c r="C949" s="66"/>
+      <c r="D949" s="64"/>
       <c r="E949" s="43"/>
       <c r="F949" s="17"/>
       <c r="G949" s="18"/>
@@ -36644,9 +37108,9 @@
     </row>
     <row r="950">
       <c r="A950" s="12"/>
-      <c r="B950" s="12"/>
-      <c r="C950" s="64"/>
-      <c r="D950" s="65"/>
+      <c r="B950" s="40"/>
+      <c r="C950" s="66"/>
+      <c r="D950" s="64"/>
       <c r="E950" s="43"/>
       <c r="F950" s="17"/>
       <c r="G950" s="18"/>
@@ -36673,9 +37137,9 @@
     </row>
     <row r="951">
       <c r="A951" s="12"/>
-      <c r="B951" s="12"/>
-      <c r="C951" s="64"/>
-      <c r="D951" s="65"/>
+      <c r="B951" s="40"/>
+      <c r="C951" s="66"/>
+      <c r="D951" s="64"/>
       <c r="E951" s="43"/>
       <c r="F951" s="17"/>
       <c r="G951" s="18"/>
@@ -36702,9 +37166,9 @@
     </row>
     <row r="952">
       <c r="A952" s="12"/>
-      <c r="B952" s="12"/>
-      <c r="C952" s="64"/>
-      <c r="D952" s="65"/>
+      <c r="B952" s="40"/>
+      <c r="C952" s="66"/>
+      <c r="D952" s="64"/>
       <c r="E952" s="43"/>
       <c r="F952" s="17"/>
       <c r="G952" s="18"/>
@@ -36731,9 +37195,9 @@
     </row>
     <row r="953">
       <c r="A953" s="12"/>
-      <c r="B953" s="12"/>
-      <c r="C953" s="64"/>
-      <c r="D953" s="65"/>
+      <c r="B953" s="40"/>
+      <c r="C953" s="66"/>
+      <c r="D953" s="64"/>
       <c r="E953" s="43"/>
       <c r="F953" s="17"/>
       <c r="G953" s="18"/>
@@ -36760,9 +37224,9 @@
     </row>
     <row r="954">
       <c r="A954" s="12"/>
-      <c r="B954" s="12"/>
-      <c r="C954" s="64"/>
-      <c r="D954" s="65"/>
+      <c r="B954" s="40"/>
+      <c r="C954" s="66"/>
+      <c r="D954" s="64"/>
       <c r="E954" s="43"/>
       <c r="F954" s="17"/>
       <c r="G954" s="18"/>
@@ -36789,9 +37253,9 @@
     </row>
     <row r="955">
       <c r="A955" s="12"/>
-      <c r="B955" s="12"/>
-      <c r="C955" s="64"/>
-      <c r="D955" s="65"/>
+      <c r="B955" s="40"/>
+      <c r="C955" s="66"/>
+      <c r="D955" s="64"/>
       <c r="E955" s="43"/>
       <c r="F955" s="17"/>
       <c r="G955" s="18"/>
@@ -36818,9 +37282,9 @@
     </row>
     <row r="956">
       <c r="A956" s="12"/>
-      <c r="B956" s="12"/>
-      <c r="C956" s="64"/>
-      <c r="D956" s="65"/>
+      <c r="B956" s="40"/>
+      <c r="C956" s="66"/>
+      <c r="D956" s="64"/>
       <c r="E956" s="43"/>
       <c r="F956" s="17"/>
       <c r="G956" s="18"/>
@@ -36847,9 +37311,9 @@
     </row>
     <row r="957">
       <c r="A957" s="12"/>
-      <c r="B957" s="12"/>
-      <c r="C957" s="64"/>
-      <c r="D957" s="65"/>
+      <c r="B957" s="40"/>
+      <c r="C957" s="66"/>
+      <c r="D957" s="64"/>
       <c r="E957" s="43"/>
       <c r="F957" s="17"/>
       <c r="G957" s="18"/>
@@ -36876,9 +37340,9 @@
     </row>
     <row r="958">
       <c r="A958" s="12"/>
-      <c r="B958" s="12"/>
-      <c r="C958" s="64"/>
-      <c r="D958" s="65"/>
+      <c r="B958" s="40"/>
+      <c r="C958" s="66"/>
+      <c r="D958" s="64"/>
       <c r="E958" s="43"/>
       <c r="F958" s="17"/>
       <c r="G958" s="18"/>
@@ -36905,9 +37369,9 @@
     </row>
     <row r="959">
       <c r="A959" s="12"/>
-      <c r="B959" s="12"/>
-      <c r="C959" s="64"/>
-      <c r="D959" s="65"/>
+      <c r="B959" s="40"/>
+      <c r="C959" s="66"/>
+      <c r="D959" s="64"/>
       <c r="E959" s="43"/>
       <c r="F959" s="17"/>
       <c r="G959" s="18"/>
@@ -36934,9 +37398,9 @@
     </row>
     <row r="960">
       <c r="A960" s="12"/>
-      <c r="B960" s="12"/>
-      <c r="C960" s="64"/>
-      <c r="D960" s="65"/>
+      <c r="B960" s="40"/>
+      <c r="C960" s="66"/>
+      <c r="D960" s="64"/>
       <c r="E960" s="43"/>
       <c r="F960" s="17"/>
       <c r="G960" s="18"/>
@@ -36963,9 +37427,9 @@
     </row>
     <row r="961">
       <c r="A961" s="12"/>
-      <c r="B961" s="12"/>
-      <c r="C961" s="64"/>
-      <c r="D961" s="65"/>
+      <c r="B961" s="40"/>
+      <c r="C961" s="66"/>
+      <c r="D961" s="64"/>
       <c r="E961" s="43"/>
       <c r="F961" s="17"/>
       <c r="G961" s="18"/>
@@ -36992,9 +37456,9 @@
     </row>
     <row r="962">
       <c r="A962" s="12"/>
-      <c r="B962" s="12"/>
-      <c r="C962" s="64"/>
-      <c r="D962" s="65"/>
+      <c r="B962" s="40"/>
+      <c r="C962" s="66"/>
+      <c r="D962" s="64"/>
       <c r="E962" s="43"/>
       <c r="F962" s="17"/>
       <c r="G962" s="18"/>
@@ -37021,9 +37485,9 @@
     </row>
     <row r="963">
       <c r="A963" s="12"/>
-      <c r="B963" s="12"/>
-      <c r="C963" s="64"/>
-      <c r="D963" s="65"/>
+      <c r="B963" s="40"/>
+      <c r="C963" s="66"/>
+      <c r="D963" s="64"/>
       <c r="E963" s="43"/>
       <c r="F963" s="17"/>
       <c r="G963" s="18"/>
@@ -37050,9 +37514,9 @@
     </row>
     <row r="964">
       <c r="A964" s="12"/>
-      <c r="B964" s="12"/>
-      <c r="C964" s="64"/>
-      <c r="D964" s="65"/>
+      <c r="B964" s="40"/>
+      <c r="C964" s="66"/>
+      <c r="D964" s="64"/>
       <c r="E964" s="43"/>
       <c r="F964" s="17"/>
       <c r="G964" s="18"/>
@@ -37079,9 +37543,9 @@
     </row>
     <row r="965">
       <c r="A965" s="12"/>
-      <c r="B965" s="12"/>
-      <c r="C965" s="64"/>
-      <c r="D965" s="65"/>
+      <c r="B965" s="40"/>
+      <c r="C965" s="66"/>
+      <c r="D965" s="64"/>
       <c r="E965" s="43"/>
       <c r="F965" s="17"/>
       <c r="G965" s="18"/>
@@ -37108,9 +37572,9 @@
     </row>
     <row r="966">
       <c r="A966" s="12"/>
-      <c r="B966" s="12"/>
-      <c r="C966" s="64"/>
-      <c r="D966" s="65"/>
+      <c r="B966" s="40"/>
+      <c r="C966" s="66"/>
+      <c r="D966" s="64"/>
       <c r="E966" s="43"/>
       <c r="F966" s="17"/>
       <c r="G966" s="18"/>
@@ -37137,9 +37601,9 @@
     </row>
     <row r="967">
       <c r="A967" s="12"/>
-      <c r="B967" s="12"/>
-      <c r="C967" s="64"/>
-      <c r="D967" s="65"/>
+      <c r="B967" s="40"/>
+      <c r="C967" s="66"/>
+      <c r="D967" s="64"/>
       <c r="E967" s="43"/>
       <c r="F967" s="17"/>
       <c r="G967" s="18"/>
@@ -37166,9 +37630,9 @@
     </row>
     <row r="968">
       <c r="A968" s="12"/>
-      <c r="B968" s="12"/>
-      <c r="C968" s="64"/>
-      <c r="D968" s="65"/>
+      <c r="B968" s="40"/>
+      <c r="C968" s="66"/>
+      <c r="D968" s="64"/>
       <c r="E968" s="43"/>
       <c r="F968" s="17"/>
       <c r="G968" s="18"/>
@@ -37195,9 +37659,9 @@
     </row>
     <row r="969">
       <c r="A969" s="12"/>
-      <c r="B969" s="12"/>
-      <c r="C969" s="64"/>
-      <c r="D969" s="65"/>
+      <c r="B969" s="40"/>
+      <c r="C969" s="66"/>
+      <c r="D969" s="64"/>
       <c r="E969" s="43"/>
       <c r="F969" s="17"/>
       <c r="G969" s="18"/>
@@ -37224,9 +37688,9 @@
     </row>
     <row r="970">
       <c r="A970" s="12"/>
-      <c r="B970" s="12"/>
-      <c r="C970" s="64"/>
-      <c r="D970" s="65"/>
+      <c r="B970" s="40"/>
+      <c r="C970" s="66"/>
+      <c r="D970" s="64"/>
       <c r="E970" s="43"/>
       <c r="F970" s="17"/>
       <c r="G970" s="18"/>
@@ -37253,9 +37717,9 @@
     </row>
     <row r="971">
       <c r="A971" s="12"/>
-      <c r="B971" s="12"/>
-      <c r="C971" s="64"/>
-      <c r="D971" s="65"/>
+      <c r="B971" s="40"/>
+      <c r="C971" s="66"/>
+      <c r="D971" s="64"/>
       <c r="E971" s="43"/>
       <c r="F971" s="17"/>
       <c r="G971" s="18"/>
@@ -37282,9 +37746,9 @@
     </row>
     <row r="972">
       <c r="A972" s="12"/>
-      <c r="B972" s="12"/>
-      <c r="C972" s="64"/>
-      <c r="D972" s="65"/>
+      <c r="B972" s="40"/>
+      <c r="C972" s="66"/>
+      <c r="D972" s="64"/>
       <c r="E972" s="43"/>
       <c r="F972" s="17"/>
       <c r="G972" s="18"/>
@@ -37311,9 +37775,9 @@
     </row>
     <row r="973">
       <c r="A973" s="12"/>
-      <c r="B973" s="12"/>
-      <c r="C973" s="64"/>
-      <c r="D973" s="65"/>
+      <c r="B973" s="40"/>
+      <c r="C973" s="66"/>
+      <c r="D973" s="64"/>
       <c r="E973" s="43"/>
       <c r="F973" s="17"/>
       <c r="G973" s="18"/>
@@ -37340,9 +37804,9 @@
     </row>
     <row r="974">
       <c r="A974" s="12"/>
-      <c r="B974" s="12"/>
-      <c r="C974" s="64"/>
-      <c r="D974" s="65"/>
+      <c r="B974" s="40"/>
+      <c r="C974" s="66"/>
+      <c r="D974" s="64"/>
       <c r="E974" s="43"/>
       <c r="F974" s="17"/>
       <c r="G974" s="18"/>
@@ -37369,9 +37833,9 @@
     </row>
     <row r="975">
       <c r="A975" s="12"/>
-      <c r="B975" s="12"/>
-      <c r="C975" s="64"/>
-      <c r="D975" s="65"/>
+      <c r="B975" s="40"/>
+      <c r="C975" s="66"/>
+      <c r="D975" s="64"/>
       <c r="E975" s="43"/>
       <c r="F975" s="17"/>
       <c r="G975" s="18"/>
@@ -37398,9 +37862,9 @@
     </row>
     <row r="976">
       <c r="A976" s="12"/>
-      <c r="B976" s="12"/>
-      <c r="C976" s="64"/>
-      <c r="D976" s="65"/>
+      <c r="B976" s="40"/>
+      <c r="C976" s="66"/>
+      <c r="D976" s="64"/>
       <c r="E976" s="43"/>
       <c r="F976" s="17"/>
       <c r="G976" s="18"/>
@@ -37427,9 +37891,9 @@
     </row>
     <row r="977">
       <c r="A977" s="12"/>
-      <c r="B977" s="12"/>
-      <c r="C977" s="64"/>
-      <c r="D977" s="65"/>
+      <c r="B977" s="40"/>
+      <c r="C977" s="66"/>
+      <c r="D977" s="64"/>
       <c r="E977" s="43"/>
       <c r="F977" s="17"/>
       <c r="G977" s="18"/>
@@ -37456,9 +37920,9 @@
     </row>
     <row r="978">
       <c r="A978" s="12"/>
-      <c r="B978" s="12"/>
-      <c r="C978" s="64"/>
-      <c r="D978" s="65"/>
+      <c r="B978" s="40"/>
+      <c r="C978" s="66"/>
+      <c r="D978" s="64"/>
       <c r="E978" s="43"/>
       <c r="F978" s="17"/>
       <c r="G978" s="18"/>
@@ -37485,9 +37949,9 @@
     </row>
     <row r="979">
       <c r="A979" s="12"/>
-      <c r="B979" s="12"/>
-      <c r="C979" s="64"/>
-      <c r="D979" s="65"/>
+      <c r="B979" s="40"/>
+      <c r="C979" s="66"/>
+      <c r="D979" s="64"/>
       <c r="E979" s="43"/>
       <c r="F979" s="17"/>
       <c r="G979" s="18"/>
@@ -37514,9 +37978,9 @@
     </row>
     <row r="980">
       <c r="A980" s="12"/>
-      <c r="B980" s="12"/>
-      <c r="C980" s="64"/>
-      <c r="D980" s="65"/>
+      <c r="B980" s="40"/>
+      <c r="C980" s="66"/>
+      <c r="D980" s="64"/>
       <c r="E980" s="43"/>
       <c r="F980" s="17"/>
       <c r="G980" s="18"/>
@@ -37543,9 +38007,9 @@
     </row>
     <row r="981">
       <c r="A981" s="12"/>
-      <c r="B981" s="12"/>
-      <c r="C981" s="64"/>
-      <c r="D981" s="65"/>
+      <c r="B981" s="40"/>
+      <c r="C981" s="66"/>
+      <c r="D981" s="64"/>
       <c r="E981" s="43"/>
       <c r="F981" s="17"/>
       <c r="G981" s="18"/>
@@ -37572,9 +38036,9 @@
     </row>
     <row r="982">
       <c r="A982" s="12"/>
-      <c r="B982" s="12"/>
-      <c r="C982" s="64"/>
-      <c r="D982" s="65"/>
+      <c r="B982" s="40"/>
+      <c r="C982" s="66"/>
+      <c r="D982" s="64"/>
       <c r="E982" s="43"/>
       <c r="F982" s="17"/>
       <c r="G982" s="18"/>
@@ -37601,9 +38065,9 @@
     </row>
     <row r="983">
       <c r="A983" s="12"/>
-      <c r="B983" s="12"/>
-      <c r="C983" s="64"/>
-      <c r="D983" s="65"/>
+      <c r="B983" s="40"/>
+      <c r="C983" s="66"/>
+      <c r="D983" s="64"/>
       <c r="E983" s="43"/>
       <c r="F983" s="17"/>
       <c r="G983" s="18"/>
@@ -37630,9 +38094,9 @@
     </row>
     <row r="984">
       <c r="A984" s="12"/>
-      <c r="B984" s="12"/>
-      <c r="C984" s="64"/>
-      <c r="D984" s="65"/>
+      <c r="B984" s="40"/>
+      <c r="C984" s="66"/>
+      <c r="D984" s="64"/>
       <c r="E984" s="43"/>
       <c r="F984" s="17"/>
       <c r="G984" s="18"/>
@@ -37659,9 +38123,9 @@
     </row>
     <row r="985">
       <c r="A985" s="12"/>
-      <c r="B985" s="12"/>
-      <c r="C985" s="64"/>
-      <c r="D985" s="65"/>
+      <c r="B985" s="40"/>
+      <c r="C985" s="66"/>
+      <c r="D985" s="64"/>
       <c r="E985" s="43"/>
       <c r="F985" s="17"/>
       <c r="G985" s="18"/>
@@ -37688,9 +38152,9 @@
     </row>
     <row r="986">
       <c r="A986" s="12"/>
-      <c r="B986" s="12"/>
-      <c r="C986" s="64"/>
-      <c r="D986" s="65"/>
+      <c r="B986" s="40"/>
+      <c r="C986" s="66"/>
+      <c r="D986" s="64"/>
       <c r="E986" s="43"/>
       <c r="F986" s="17"/>
       <c r="G986" s="18"/>
@@ -37717,9 +38181,9 @@
     </row>
     <row r="987">
       <c r="A987" s="12"/>
-      <c r="B987" s="12"/>
-      <c r="C987" s="64"/>
-      <c r="D987" s="65"/>
+      <c r="B987" s="40"/>
+      <c r="C987" s="66"/>
+      <c r="D987" s="64"/>
       <c r="E987" s="43"/>
       <c r="F987" s="17"/>
       <c r="G987" s="18"/>
@@ -37746,9 +38210,9 @@
     </row>
     <row r="988">
       <c r="A988" s="12"/>
-      <c r="B988" s="12"/>
-      <c r="C988" s="64"/>
-      <c r="D988" s="65"/>
+      <c r="B988" s="40"/>
+      <c r="C988" s="66"/>
+      <c r="D988" s="64"/>
       <c r="E988" s="43"/>
       <c r="F988" s="17"/>
       <c r="G988" s="18"/>
@@ -37775,9 +38239,9 @@
     </row>
     <row r="989">
       <c r="A989" s="12"/>
-      <c r="B989" s="12"/>
-      <c r="C989" s="64"/>
-      <c r="D989" s="65"/>
+      <c r="B989" s="40"/>
+      <c r="C989" s="66"/>
+      <c r="D989" s="64"/>
       <c r="E989" s="43"/>
       <c r="F989" s="17"/>
       <c r="G989" s="18"/>
@@ -37804,9 +38268,9 @@
     </row>
     <row r="990">
       <c r="A990" s="12"/>
-      <c r="B990" s="12"/>
-      <c r="C990" s="64"/>
-      <c r="D990" s="65"/>
+      <c r="B990" s="40"/>
+      <c r="C990" s="66"/>
+      <c r="D990" s="64"/>
       <c r="E990" s="43"/>
       <c r="F990" s="17"/>
       <c r="G990" s="18"/>
@@ -37833,9 +38297,9 @@
     </row>
     <row r="991">
       <c r="A991" s="12"/>
-      <c r="B991" s="12"/>
-      <c r="C991" s="64"/>
-      <c r="D991" s="65"/>
+      <c r="B991" s="40"/>
+      <c r="C991" s="66"/>
+      <c r="D991" s="64"/>
       <c r="E991" s="43"/>
       <c r="F991" s="17"/>
       <c r="G991" s="18"/>
@@ -37862,9 +38326,9 @@
     </row>
     <row r="992">
       <c r="A992" s="12"/>
-      <c r="B992" s="12"/>
-      <c r="C992" s="64"/>
-      <c r="D992" s="65"/>
+      <c r="B992" s="40"/>
+      <c r="C992" s="66"/>
+      <c r="D992" s="64"/>
       <c r="E992" s="43"/>
       <c r="F992" s="17"/>
       <c r="G992" s="18"/>
@@ -37891,9 +38355,9 @@
     </row>
     <row r="993">
       <c r="A993" s="12"/>
-      <c r="B993" s="12"/>
-      <c r="C993" s="64"/>
-      <c r="D993" s="65"/>
+      <c r="B993" s="40"/>
+      <c r="C993" s="66"/>
+      <c r="D993" s="64"/>
       <c r="E993" s="43"/>
       <c r="F993" s="17"/>
       <c r="G993" s="18"/>
@@ -37920,9 +38384,9 @@
     </row>
     <row r="994">
       <c r="A994" s="12"/>
-      <c r="B994" s="12"/>
-      <c r="C994" s="64"/>
-      <c r="D994" s="65"/>
+      <c r="B994" s="40"/>
+      <c r="C994" s="66"/>
+      <c r="D994" s="64"/>
       <c r="E994" s="43"/>
       <c r="F994" s="17"/>
       <c r="G994" s="18"/>
@@ -37949,9 +38413,9 @@
     </row>
     <row r="995">
       <c r="A995" s="12"/>
-      <c r="B995" s="12"/>
-      <c r="C995" s="64"/>
-      <c r="D995" s="65"/>
+      <c r="B995" s="40"/>
+      <c r="C995" s="66"/>
+      <c r="D995" s="64"/>
       <c r="E995" s="43"/>
       <c r="F995" s="17"/>
       <c r="G995" s="18"/>
@@ -37978,9 +38442,9 @@
     </row>
     <row r="996">
       <c r="A996" s="12"/>
-      <c r="B996" s="12"/>
-      <c r="C996" s="64"/>
-      <c r="D996" s="65"/>
+      <c r="B996" s="40"/>
+      <c r="C996" s="66"/>
+      <c r="D996" s="64"/>
       <c r="E996" s="43"/>
       <c r="F996" s="17"/>
       <c r="G996" s="18"/>
@@ -38007,9 +38471,9 @@
     </row>
     <row r="997">
       <c r="A997" s="12"/>
-      <c r="B997" s="12"/>
-      <c r="C997" s="64"/>
-      <c r="D997" s="65"/>
+      <c r="B997" s="40"/>
+      <c r="C997" s="66"/>
+      <c r="D997" s="64"/>
       <c r="E997" s="43"/>
       <c r="F997" s="17"/>
       <c r="G997" s="18"/>
@@ -38036,9 +38500,9 @@
     </row>
     <row r="998">
       <c r="A998" s="12"/>
-      <c r="B998" s="12"/>
-      <c r="C998" s="64"/>
-      <c r="D998" s="65"/>
+      <c r="B998" s="40"/>
+      <c r="C998" s="66"/>
+      <c r="D998" s="64"/>
       <c r="E998" s="43"/>
       <c r="F998" s="17"/>
       <c r="G998" s="18"/>
@@ -38065,9 +38529,9 @@
     </row>
     <row r="999">
       <c r="A999" s="12"/>
-      <c r="B999" s="12"/>
-      <c r="C999" s="64"/>
-      <c r="D999" s="65"/>
+      <c r="B999" s="40"/>
+      <c r="C999" s="66"/>
+      <c r="D999" s="64"/>
       <c r="E999" s="43"/>
       <c r="F999" s="17"/>
       <c r="G999" s="18"/>
@@ -38094,9 +38558,9 @@
     </row>
     <row r="1000">
       <c r="A1000" s="12"/>
-      <c r="B1000" s="12"/>
-      <c r="C1000" s="64"/>
-      <c r="D1000" s="65"/>
+      <c r="B1000" s="40"/>
+      <c r="C1000" s="66"/>
+      <c r="D1000" s="64"/>
       <c r="E1000" s="43"/>
       <c r="F1000" s="17"/>
       <c r="G1000" s="18"/>
@@ -38123,9 +38587,9 @@
     </row>
     <row r="1001">
       <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="64"/>
-      <c r="D1001" s="65"/>
+      <c r="B1001" s="40"/>
+      <c r="C1001" s="66"/>
+      <c r="D1001" s="64"/>
       <c r="E1001" s="43"/>
       <c r="F1001" s="17"/>
       <c r="G1001" s="18"/>
@@ -38152,9 +38616,9 @@
     </row>
     <row r="1002">
       <c r="A1002" s="12"/>
-      <c r="B1002" s="12"/>
-      <c r="C1002" s="64"/>
-      <c r="D1002" s="65"/>
+      <c r="B1002" s="40"/>
+      <c r="C1002" s="66"/>
+      <c r="D1002" s="64"/>
       <c r="E1002" s="43"/>
       <c r="F1002" s="17"/>
       <c r="G1002" s="18"/>
@@ -38181,9 +38645,9 @@
     </row>
     <row r="1003">
       <c r="A1003" s="12"/>
-      <c r="B1003" s="12"/>
-      <c r="C1003" s="64"/>
-      <c r="D1003" s="65"/>
+      <c r="B1003" s="40"/>
+      <c r="C1003" s="66"/>
+      <c r="D1003" s="64"/>
       <c r="E1003" s="43"/>
       <c r="F1003" s="17"/>
       <c r="G1003" s="18"/>
@@ -38210,9 +38674,9 @@
     </row>
     <row r="1004">
       <c r="A1004" s="12"/>
-      <c r="B1004" s="12"/>
-      <c r="C1004" s="64"/>
-      <c r="D1004" s="65"/>
+      <c r="B1004" s="40"/>
+      <c r="C1004" s="66"/>
+      <c r="D1004" s="64"/>
       <c r="E1004" s="43"/>
       <c r="F1004" s="17"/>
       <c r="G1004" s="18"/>
@@ -38237,6 +38701,2964 @@
       <c r="Z1004" s="23"/>
       <c r="AA1004" s="23"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="67"/>
+      <c r="B1005" s="40"/>
+      <c r="C1005" s="68"/>
+      <c r="D1005" s="69"/>
+      <c r="E1005" s="70"/>
+      <c r="F1005" s="71"/>
+      <c r="G1005" s="72"/>
+      <c r="H1005" s="73"/>
+      <c r="I1005" s="74"/>
+      <c r="J1005" s="75"/>
+      <c r="K1005" s="22"/>
+      <c r="L1005" s="23"/>
+      <c r="M1005" s="23"/>
+      <c r="N1005" s="23"/>
+      <c r="O1005" s="23"/>
+      <c r="P1005" s="23"/>
+      <c r="Q1005" s="23"/>
+      <c r="R1005" s="23"/>
+      <c r="S1005" s="23"/>
+      <c r="T1005" s="23"/>
+      <c r="U1005" s="23"/>
+      <c r="V1005" s="23"/>
+      <c r="W1005" s="23"/>
+      <c r="X1005" s="23"/>
+      <c r="Y1005" s="23"/>
+      <c r="Z1005" s="23"/>
+      <c r="AA1005" s="23"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="67"/>
+      <c r="B1006" s="40"/>
+      <c r="C1006" s="68"/>
+      <c r="D1006" s="69"/>
+      <c r="E1006" s="70"/>
+      <c r="F1006" s="71"/>
+      <c r="G1006" s="72"/>
+      <c r="H1006" s="73"/>
+      <c r="I1006" s="74"/>
+      <c r="J1006" s="75"/>
+      <c r="K1006" s="22"/>
+      <c r="L1006" s="23"/>
+      <c r="M1006" s="23"/>
+      <c r="N1006" s="23"/>
+      <c r="O1006" s="23"/>
+      <c r="P1006" s="23"/>
+      <c r="Q1006" s="23"/>
+      <c r="R1006" s="23"/>
+      <c r="S1006" s="23"/>
+      <c r="T1006" s="23"/>
+      <c r="U1006" s="23"/>
+      <c r="V1006" s="23"/>
+      <c r="W1006" s="23"/>
+      <c r="X1006" s="23"/>
+      <c r="Y1006" s="23"/>
+      <c r="Z1006" s="23"/>
+      <c r="AA1006" s="23"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="67"/>
+      <c r="B1007" s="40"/>
+      <c r="C1007" s="68"/>
+      <c r="D1007" s="69"/>
+      <c r="E1007" s="70"/>
+      <c r="F1007" s="71"/>
+      <c r="G1007" s="72"/>
+      <c r="H1007" s="73"/>
+      <c r="I1007" s="74"/>
+      <c r="J1007" s="75"/>
+      <c r="K1007" s="22"/>
+      <c r="L1007" s="23"/>
+      <c r="M1007" s="23"/>
+      <c r="N1007" s="23"/>
+      <c r="O1007" s="23"/>
+      <c r="P1007" s="23"/>
+      <c r="Q1007" s="23"/>
+      <c r="R1007" s="23"/>
+      <c r="S1007" s="23"/>
+      <c r="T1007" s="23"/>
+      <c r="U1007" s="23"/>
+      <c r="V1007" s="23"/>
+      <c r="W1007" s="23"/>
+      <c r="X1007" s="23"/>
+      <c r="Y1007" s="23"/>
+      <c r="Z1007" s="23"/>
+      <c r="AA1007" s="23"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="67"/>
+      <c r="B1008" s="40"/>
+      <c r="C1008" s="68"/>
+      <c r="D1008" s="69"/>
+      <c r="E1008" s="70"/>
+      <c r="F1008" s="71"/>
+      <c r="G1008" s="72"/>
+      <c r="H1008" s="73"/>
+      <c r="I1008" s="74"/>
+      <c r="J1008" s="75"/>
+      <c r="K1008" s="22"/>
+      <c r="L1008" s="23"/>
+      <c r="M1008" s="23"/>
+      <c r="N1008" s="23"/>
+      <c r="O1008" s="23"/>
+      <c r="P1008" s="23"/>
+      <c r="Q1008" s="23"/>
+      <c r="R1008" s="23"/>
+      <c r="S1008" s="23"/>
+      <c r="T1008" s="23"/>
+      <c r="U1008" s="23"/>
+      <c r="V1008" s="23"/>
+      <c r="W1008" s="23"/>
+      <c r="X1008" s="23"/>
+      <c r="Y1008" s="23"/>
+      <c r="Z1008" s="23"/>
+      <c r="AA1008" s="23"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="67"/>
+      <c r="B1009" s="40"/>
+      <c r="C1009" s="68"/>
+      <c r="D1009" s="69"/>
+      <c r="E1009" s="70"/>
+      <c r="F1009" s="71"/>
+      <c r="G1009" s="72"/>
+      <c r="H1009" s="73"/>
+      <c r="I1009" s="74"/>
+      <c r="J1009" s="75"/>
+      <c r="K1009" s="22"/>
+      <c r="L1009" s="23"/>
+      <c r="M1009" s="23"/>
+      <c r="N1009" s="23"/>
+      <c r="O1009" s="23"/>
+      <c r="P1009" s="23"/>
+      <c r="Q1009" s="23"/>
+      <c r="R1009" s="23"/>
+      <c r="S1009" s="23"/>
+      <c r="T1009" s="23"/>
+      <c r="U1009" s="23"/>
+      <c r="V1009" s="23"/>
+      <c r="W1009" s="23"/>
+      <c r="X1009" s="23"/>
+      <c r="Y1009" s="23"/>
+      <c r="Z1009" s="23"/>
+      <c r="AA1009" s="23"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="67"/>
+      <c r="B1010" s="40"/>
+      <c r="C1010" s="68"/>
+      <c r="D1010" s="69"/>
+      <c r="E1010" s="70"/>
+      <c r="F1010" s="71"/>
+      <c r="G1010" s="72"/>
+      <c r="H1010" s="73"/>
+      <c r="I1010" s="74"/>
+      <c r="J1010" s="75"/>
+      <c r="K1010" s="22"/>
+      <c r="L1010" s="23"/>
+      <c r="M1010" s="23"/>
+      <c r="N1010" s="23"/>
+      <c r="O1010" s="23"/>
+      <c r="P1010" s="23"/>
+      <c r="Q1010" s="23"/>
+      <c r="R1010" s="23"/>
+      <c r="S1010" s="23"/>
+      <c r="T1010" s="23"/>
+      <c r="U1010" s="23"/>
+      <c r="V1010" s="23"/>
+      <c r="W1010" s="23"/>
+      <c r="X1010" s="23"/>
+      <c r="Y1010" s="23"/>
+      <c r="Z1010" s="23"/>
+      <c r="AA1010" s="23"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="67"/>
+      <c r="B1011" s="40"/>
+      <c r="C1011" s="68"/>
+      <c r="D1011" s="69"/>
+      <c r="E1011" s="70"/>
+      <c r="F1011" s="71"/>
+      <c r="G1011" s="72"/>
+      <c r="H1011" s="73"/>
+      <c r="I1011" s="74"/>
+      <c r="J1011" s="75"/>
+      <c r="K1011" s="22"/>
+      <c r="L1011" s="23"/>
+      <c r="M1011" s="23"/>
+      <c r="N1011" s="23"/>
+      <c r="O1011" s="23"/>
+      <c r="P1011" s="23"/>
+      <c r="Q1011" s="23"/>
+      <c r="R1011" s="23"/>
+      <c r="S1011" s="23"/>
+      <c r="T1011" s="23"/>
+      <c r="U1011" s="23"/>
+      <c r="V1011" s="23"/>
+      <c r="W1011" s="23"/>
+      <c r="X1011" s="23"/>
+      <c r="Y1011" s="23"/>
+      <c r="Z1011" s="23"/>
+      <c r="AA1011" s="23"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="67"/>
+      <c r="B1012" s="40"/>
+      <c r="C1012" s="68"/>
+      <c r="D1012" s="69"/>
+      <c r="E1012" s="70"/>
+      <c r="F1012" s="71"/>
+      <c r="G1012" s="72"/>
+      <c r="H1012" s="73"/>
+      <c r="I1012" s="74"/>
+      <c r="J1012" s="75"/>
+      <c r="K1012" s="22"/>
+      <c r="L1012" s="23"/>
+      <c r="M1012" s="23"/>
+      <c r="N1012" s="23"/>
+      <c r="O1012" s="23"/>
+      <c r="P1012" s="23"/>
+      <c r="Q1012" s="23"/>
+      <c r="R1012" s="23"/>
+      <c r="S1012" s="23"/>
+      <c r="T1012" s="23"/>
+      <c r="U1012" s="23"/>
+      <c r="V1012" s="23"/>
+      <c r="W1012" s="23"/>
+      <c r="X1012" s="23"/>
+      <c r="Y1012" s="23"/>
+      <c r="Z1012" s="23"/>
+      <c r="AA1012" s="23"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="67"/>
+      <c r="B1013" s="40"/>
+      <c r="C1013" s="68"/>
+      <c r="D1013" s="69"/>
+      <c r="E1013" s="70"/>
+      <c r="F1013" s="71"/>
+      <c r="G1013" s="72"/>
+      <c r="H1013" s="73"/>
+      <c r="I1013" s="74"/>
+      <c r="J1013" s="75"/>
+      <c r="K1013" s="22"/>
+      <c r="L1013" s="23"/>
+      <c r="M1013" s="23"/>
+      <c r="N1013" s="23"/>
+      <c r="O1013" s="23"/>
+      <c r="P1013" s="23"/>
+      <c r="Q1013" s="23"/>
+      <c r="R1013" s="23"/>
+      <c r="S1013" s="23"/>
+      <c r="T1013" s="23"/>
+      <c r="U1013" s="23"/>
+      <c r="V1013" s="23"/>
+      <c r="W1013" s="23"/>
+      <c r="X1013" s="23"/>
+      <c r="Y1013" s="23"/>
+      <c r="Z1013" s="23"/>
+      <c r="AA1013" s="23"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="67"/>
+      <c r="B1014" s="40"/>
+      <c r="C1014" s="68"/>
+      <c r="D1014" s="69"/>
+      <c r="E1014" s="70"/>
+      <c r="F1014" s="71"/>
+      <c r="G1014" s="72"/>
+      <c r="H1014" s="73"/>
+      <c r="I1014" s="74"/>
+      <c r="J1014" s="75"/>
+      <c r="K1014" s="22"/>
+      <c r="L1014" s="23"/>
+      <c r="M1014" s="23"/>
+      <c r="N1014" s="23"/>
+      <c r="O1014" s="23"/>
+      <c r="P1014" s="23"/>
+      <c r="Q1014" s="23"/>
+      <c r="R1014" s="23"/>
+      <c r="S1014" s="23"/>
+      <c r="T1014" s="23"/>
+      <c r="U1014" s="23"/>
+      <c r="V1014" s="23"/>
+      <c r="W1014" s="23"/>
+      <c r="X1014" s="23"/>
+      <c r="Y1014" s="23"/>
+      <c r="Z1014" s="23"/>
+      <c r="AA1014" s="23"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="67"/>
+      <c r="B1015" s="40"/>
+      <c r="C1015" s="68"/>
+      <c r="D1015" s="69"/>
+      <c r="E1015" s="70"/>
+      <c r="F1015" s="71"/>
+      <c r="G1015" s="72"/>
+      <c r="H1015" s="73"/>
+      <c r="I1015" s="74"/>
+      <c r="J1015" s="75"/>
+      <c r="K1015" s="22"/>
+      <c r="L1015" s="23"/>
+      <c r="M1015" s="23"/>
+      <c r="N1015" s="23"/>
+      <c r="O1015" s="23"/>
+      <c r="P1015" s="23"/>
+      <c r="Q1015" s="23"/>
+      <c r="R1015" s="23"/>
+      <c r="S1015" s="23"/>
+      <c r="T1015" s="23"/>
+      <c r="U1015" s="23"/>
+      <c r="V1015" s="23"/>
+      <c r="W1015" s="23"/>
+      <c r="X1015" s="23"/>
+      <c r="Y1015" s="23"/>
+      <c r="Z1015" s="23"/>
+      <c r="AA1015" s="23"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="67"/>
+      <c r="B1016" s="40"/>
+      <c r="C1016" s="68"/>
+      <c r="D1016" s="69"/>
+      <c r="E1016" s="70"/>
+      <c r="F1016" s="71"/>
+      <c r="G1016" s="72"/>
+      <c r="H1016" s="73"/>
+      <c r="I1016" s="74"/>
+      <c r="J1016" s="75"/>
+      <c r="K1016" s="22"/>
+      <c r="L1016" s="23"/>
+      <c r="M1016" s="23"/>
+      <c r="N1016" s="23"/>
+      <c r="O1016" s="23"/>
+      <c r="P1016" s="23"/>
+      <c r="Q1016" s="23"/>
+      <c r="R1016" s="23"/>
+      <c r="S1016" s="23"/>
+      <c r="T1016" s="23"/>
+      <c r="U1016" s="23"/>
+      <c r="V1016" s="23"/>
+      <c r="W1016" s="23"/>
+      <c r="X1016" s="23"/>
+      <c r="Y1016" s="23"/>
+      <c r="Z1016" s="23"/>
+      <c r="AA1016" s="23"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="67"/>
+      <c r="B1017" s="40"/>
+      <c r="C1017" s="68"/>
+      <c r="D1017" s="69"/>
+      <c r="E1017" s="70"/>
+      <c r="F1017" s="71"/>
+      <c r="G1017" s="72"/>
+      <c r="H1017" s="73"/>
+      <c r="I1017" s="74"/>
+      <c r="J1017" s="75"/>
+      <c r="K1017" s="22"/>
+      <c r="L1017" s="23"/>
+      <c r="M1017" s="23"/>
+      <c r="N1017" s="23"/>
+      <c r="O1017" s="23"/>
+      <c r="P1017" s="23"/>
+      <c r="Q1017" s="23"/>
+      <c r="R1017" s="23"/>
+      <c r="S1017" s="23"/>
+      <c r="T1017" s="23"/>
+      <c r="U1017" s="23"/>
+      <c r="V1017" s="23"/>
+      <c r="W1017" s="23"/>
+      <c r="X1017" s="23"/>
+      <c r="Y1017" s="23"/>
+      <c r="Z1017" s="23"/>
+      <c r="AA1017" s="23"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="67"/>
+      <c r="B1018" s="40"/>
+      <c r="C1018" s="68"/>
+      <c r="D1018" s="69"/>
+      <c r="E1018" s="70"/>
+      <c r="F1018" s="71"/>
+      <c r="G1018" s="72"/>
+      <c r="H1018" s="73"/>
+      <c r="I1018" s="74"/>
+      <c r="J1018" s="75"/>
+      <c r="K1018" s="22"/>
+      <c r="L1018" s="23"/>
+      <c r="M1018" s="23"/>
+      <c r="N1018" s="23"/>
+      <c r="O1018" s="23"/>
+      <c r="P1018" s="23"/>
+      <c r="Q1018" s="23"/>
+      <c r="R1018" s="23"/>
+      <c r="S1018" s="23"/>
+      <c r="T1018" s="23"/>
+      <c r="U1018" s="23"/>
+      <c r="V1018" s="23"/>
+      <c r="W1018" s="23"/>
+      <c r="X1018" s="23"/>
+      <c r="Y1018" s="23"/>
+      <c r="Z1018" s="23"/>
+      <c r="AA1018" s="23"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="67"/>
+      <c r="B1019" s="40"/>
+      <c r="C1019" s="68"/>
+      <c r="D1019" s="69"/>
+      <c r="E1019" s="70"/>
+      <c r="F1019" s="71"/>
+      <c r="G1019" s="72"/>
+      <c r="H1019" s="73"/>
+      <c r="I1019" s="74"/>
+      <c r="J1019" s="75"/>
+      <c r="K1019" s="22"/>
+      <c r="L1019" s="23"/>
+      <c r="M1019" s="23"/>
+      <c r="N1019" s="23"/>
+      <c r="O1019" s="23"/>
+      <c r="P1019" s="23"/>
+      <c r="Q1019" s="23"/>
+      <c r="R1019" s="23"/>
+      <c r="S1019" s="23"/>
+      <c r="T1019" s="23"/>
+      <c r="U1019" s="23"/>
+      <c r="V1019" s="23"/>
+      <c r="W1019" s="23"/>
+      <c r="X1019" s="23"/>
+      <c r="Y1019" s="23"/>
+      <c r="Z1019" s="23"/>
+      <c r="AA1019" s="23"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="67"/>
+      <c r="B1020" s="40"/>
+      <c r="C1020" s="68"/>
+      <c r="D1020" s="69"/>
+      <c r="E1020" s="70"/>
+      <c r="F1020" s="71"/>
+      <c r="G1020" s="72"/>
+      <c r="H1020" s="73"/>
+      <c r="I1020" s="74"/>
+      <c r="J1020" s="75"/>
+      <c r="K1020" s="22"/>
+      <c r="L1020" s="23"/>
+      <c r="M1020" s="23"/>
+      <c r="N1020" s="23"/>
+      <c r="O1020" s="23"/>
+      <c r="P1020" s="23"/>
+      <c r="Q1020" s="23"/>
+      <c r="R1020" s="23"/>
+      <c r="S1020" s="23"/>
+      <c r="T1020" s="23"/>
+      <c r="U1020" s="23"/>
+      <c r="V1020" s="23"/>
+      <c r="W1020" s="23"/>
+      <c r="X1020" s="23"/>
+      <c r="Y1020" s="23"/>
+      <c r="Z1020" s="23"/>
+      <c r="AA1020" s="23"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="67"/>
+      <c r="B1021" s="40"/>
+      <c r="C1021" s="68"/>
+      <c r="D1021" s="69"/>
+      <c r="E1021" s="70"/>
+      <c r="F1021" s="71"/>
+      <c r="G1021" s="72"/>
+      <c r="H1021" s="73"/>
+      <c r="I1021" s="74"/>
+      <c r="J1021" s="75"/>
+      <c r="K1021" s="22"/>
+      <c r="L1021" s="23"/>
+      <c r="M1021" s="23"/>
+      <c r="N1021" s="23"/>
+      <c r="O1021" s="23"/>
+      <c r="P1021" s="23"/>
+      <c r="Q1021" s="23"/>
+      <c r="R1021" s="23"/>
+      <c r="S1021" s="23"/>
+      <c r="T1021" s="23"/>
+      <c r="U1021" s="23"/>
+      <c r="V1021" s="23"/>
+      <c r="W1021" s="23"/>
+      <c r="X1021" s="23"/>
+      <c r="Y1021" s="23"/>
+      <c r="Z1021" s="23"/>
+      <c r="AA1021" s="23"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="67"/>
+      <c r="B1022" s="40"/>
+      <c r="C1022" s="68"/>
+      <c r="D1022" s="69"/>
+      <c r="E1022" s="70"/>
+      <c r="F1022" s="71"/>
+      <c r="G1022" s="72"/>
+      <c r="H1022" s="73"/>
+      <c r="I1022" s="74"/>
+      <c r="J1022" s="75"/>
+      <c r="K1022" s="22"/>
+      <c r="L1022" s="23"/>
+      <c r="M1022" s="23"/>
+      <c r="N1022" s="23"/>
+      <c r="O1022" s="23"/>
+      <c r="P1022" s="23"/>
+      <c r="Q1022" s="23"/>
+      <c r="R1022" s="23"/>
+      <c r="S1022" s="23"/>
+      <c r="T1022" s="23"/>
+      <c r="U1022" s="23"/>
+      <c r="V1022" s="23"/>
+      <c r="W1022" s="23"/>
+      <c r="X1022" s="23"/>
+      <c r="Y1022" s="23"/>
+      <c r="Z1022" s="23"/>
+      <c r="AA1022" s="23"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="67"/>
+      <c r="B1023" s="40"/>
+      <c r="C1023" s="68"/>
+      <c r="D1023" s="69"/>
+      <c r="E1023" s="70"/>
+      <c r="F1023" s="71"/>
+      <c r="G1023" s="72"/>
+      <c r="H1023" s="73"/>
+      <c r="I1023" s="74"/>
+      <c r="J1023" s="75"/>
+      <c r="K1023" s="22"/>
+      <c r="L1023" s="23"/>
+      <c r="M1023" s="23"/>
+      <c r="N1023" s="23"/>
+      <c r="O1023" s="23"/>
+      <c r="P1023" s="23"/>
+      <c r="Q1023" s="23"/>
+      <c r="R1023" s="23"/>
+      <c r="S1023" s="23"/>
+      <c r="T1023" s="23"/>
+      <c r="U1023" s="23"/>
+      <c r="V1023" s="23"/>
+      <c r="W1023" s="23"/>
+      <c r="X1023" s="23"/>
+      <c r="Y1023" s="23"/>
+      <c r="Z1023" s="23"/>
+      <c r="AA1023" s="23"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="67"/>
+      <c r="B1024" s="40"/>
+      <c r="C1024" s="68"/>
+      <c r="D1024" s="69"/>
+      <c r="E1024" s="70"/>
+      <c r="F1024" s="71"/>
+      <c r="G1024" s="72"/>
+      <c r="H1024" s="73"/>
+      <c r="I1024" s="74"/>
+      <c r="J1024" s="75"/>
+      <c r="K1024" s="22"/>
+      <c r="L1024" s="23"/>
+      <c r="M1024" s="23"/>
+      <c r="N1024" s="23"/>
+      <c r="O1024" s="23"/>
+      <c r="P1024" s="23"/>
+      <c r="Q1024" s="23"/>
+      <c r="R1024" s="23"/>
+      <c r="S1024" s="23"/>
+      <c r="T1024" s="23"/>
+      <c r="U1024" s="23"/>
+      <c r="V1024" s="23"/>
+      <c r="W1024" s="23"/>
+      <c r="X1024" s="23"/>
+      <c r="Y1024" s="23"/>
+      <c r="Z1024" s="23"/>
+      <c r="AA1024" s="23"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="67"/>
+      <c r="B1025" s="40"/>
+      <c r="C1025" s="68"/>
+      <c r="D1025" s="69"/>
+      <c r="E1025" s="70"/>
+      <c r="F1025" s="71"/>
+      <c r="G1025" s="72"/>
+      <c r="H1025" s="73"/>
+      <c r="I1025" s="74"/>
+      <c r="J1025" s="75"/>
+      <c r="K1025" s="22"/>
+      <c r="L1025" s="23"/>
+      <c r="M1025" s="23"/>
+      <c r="N1025" s="23"/>
+      <c r="O1025" s="23"/>
+      <c r="P1025" s="23"/>
+      <c r="Q1025" s="23"/>
+      <c r="R1025" s="23"/>
+      <c r="S1025" s="23"/>
+      <c r="T1025" s="23"/>
+      <c r="U1025" s="23"/>
+      <c r="V1025" s="23"/>
+      <c r="W1025" s="23"/>
+      <c r="X1025" s="23"/>
+      <c r="Y1025" s="23"/>
+      <c r="Z1025" s="23"/>
+      <c r="AA1025" s="23"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="67"/>
+      <c r="B1026" s="40"/>
+      <c r="C1026" s="68"/>
+      <c r="D1026" s="69"/>
+      <c r="E1026" s="70"/>
+      <c r="F1026" s="71"/>
+      <c r="G1026" s="72"/>
+      <c r="H1026" s="73"/>
+      <c r="I1026" s="74"/>
+      <c r="J1026" s="75"/>
+      <c r="K1026" s="22"/>
+      <c r="L1026" s="23"/>
+      <c r="M1026" s="23"/>
+      <c r="N1026" s="23"/>
+      <c r="O1026" s="23"/>
+      <c r="P1026" s="23"/>
+      <c r="Q1026" s="23"/>
+      <c r="R1026" s="23"/>
+      <c r="S1026" s="23"/>
+      <c r="T1026" s="23"/>
+      <c r="U1026" s="23"/>
+      <c r="V1026" s="23"/>
+      <c r="W1026" s="23"/>
+      <c r="X1026" s="23"/>
+      <c r="Y1026" s="23"/>
+      <c r="Z1026" s="23"/>
+      <c r="AA1026" s="23"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="67"/>
+      <c r="B1027" s="40"/>
+      <c r="C1027" s="68"/>
+      <c r="D1027" s="69"/>
+      <c r="E1027" s="70"/>
+      <c r="F1027" s="71"/>
+      <c r="G1027" s="72"/>
+      <c r="H1027" s="73"/>
+      <c r="I1027" s="74"/>
+      <c r="J1027" s="75"/>
+      <c r="K1027" s="22"/>
+      <c r="L1027" s="23"/>
+      <c r="M1027" s="23"/>
+      <c r="N1027" s="23"/>
+      <c r="O1027" s="23"/>
+      <c r="P1027" s="23"/>
+      <c r="Q1027" s="23"/>
+      <c r="R1027" s="23"/>
+      <c r="S1027" s="23"/>
+      <c r="T1027" s="23"/>
+      <c r="U1027" s="23"/>
+      <c r="V1027" s="23"/>
+      <c r="W1027" s="23"/>
+      <c r="X1027" s="23"/>
+      <c r="Y1027" s="23"/>
+      <c r="Z1027" s="23"/>
+      <c r="AA1027" s="23"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="67"/>
+      <c r="B1028" s="40"/>
+      <c r="C1028" s="68"/>
+      <c r="D1028" s="69"/>
+      <c r="E1028" s="70"/>
+      <c r="F1028" s="71"/>
+      <c r="G1028" s="72"/>
+      <c r="H1028" s="73"/>
+      <c r="I1028" s="74"/>
+      <c r="J1028" s="75"/>
+      <c r="K1028" s="22"/>
+      <c r="L1028" s="23"/>
+      <c r="M1028" s="23"/>
+      <c r="N1028" s="23"/>
+      <c r="O1028" s="23"/>
+      <c r="P1028" s="23"/>
+      <c r="Q1028" s="23"/>
+      <c r="R1028" s="23"/>
+      <c r="S1028" s="23"/>
+      <c r="T1028" s="23"/>
+      <c r="U1028" s="23"/>
+      <c r="V1028" s="23"/>
+      <c r="W1028" s="23"/>
+      <c r="X1028" s="23"/>
+      <c r="Y1028" s="23"/>
+      <c r="Z1028" s="23"/>
+      <c r="AA1028" s="23"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="67"/>
+      <c r="B1029" s="40"/>
+      <c r="C1029" s="68"/>
+      <c r="D1029" s="69"/>
+      <c r="E1029" s="70"/>
+      <c r="F1029" s="71"/>
+      <c r="G1029" s="72"/>
+      <c r="H1029" s="73"/>
+      <c r="I1029" s="74"/>
+      <c r="J1029" s="75"/>
+      <c r="K1029" s="22"/>
+      <c r="L1029" s="23"/>
+      <c r="M1029" s="23"/>
+      <c r="N1029" s="23"/>
+      <c r="O1029" s="23"/>
+      <c r="P1029" s="23"/>
+      <c r="Q1029" s="23"/>
+      <c r="R1029" s="23"/>
+      <c r="S1029" s="23"/>
+      <c r="T1029" s="23"/>
+      <c r="U1029" s="23"/>
+      <c r="V1029" s="23"/>
+      <c r="W1029" s="23"/>
+      <c r="X1029" s="23"/>
+      <c r="Y1029" s="23"/>
+      <c r="Z1029" s="23"/>
+      <c r="AA1029" s="23"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="67"/>
+      <c r="B1030" s="40"/>
+      <c r="C1030" s="68"/>
+      <c r="D1030" s="69"/>
+      <c r="E1030" s="70"/>
+      <c r="F1030" s="71"/>
+      <c r="G1030" s="72"/>
+      <c r="H1030" s="73"/>
+      <c r="I1030" s="74"/>
+      <c r="J1030" s="75"/>
+      <c r="K1030" s="22"/>
+      <c r="L1030" s="23"/>
+      <c r="M1030" s="23"/>
+      <c r="N1030" s="23"/>
+      <c r="O1030" s="23"/>
+      <c r="P1030" s="23"/>
+      <c r="Q1030" s="23"/>
+      <c r="R1030" s="23"/>
+      <c r="S1030" s="23"/>
+      <c r="T1030" s="23"/>
+      <c r="U1030" s="23"/>
+      <c r="V1030" s="23"/>
+      <c r="W1030" s="23"/>
+      <c r="X1030" s="23"/>
+      <c r="Y1030" s="23"/>
+      <c r="Z1030" s="23"/>
+      <c r="AA1030" s="23"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="67"/>
+      <c r="B1031" s="40"/>
+      <c r="C1031" s="68"/>
+      <c r="D1031" s="69"/>
+      <c r="E1031" s="70"/>
+      <c r="F1031" s="71"/>
+      <c r="G1031" s="72"/>
+      <c r="H1031" s="73"/>
+      <c r="I1031" s="74"/>
+      <c r="J1031" s="75"/>
+      <c r="K1031" s="22"/>
+      <c r="L1031" s="23"/>
+      <c r="M1031" s="23"/>
+      <c r="N1031" s="23"/>
+      <c r="O1031" s="23"/>
+      <c r="P1031" s="23"/>
+      <c r="Q1031" s="23"/>
+      <c r="R1031" s="23"/>
+      <c r="S1031" s="23"/>
+      <c r="T1031" s="23"/>
+      <c r="U1031" s="23"/>
+      <c r="V1031" s="23"/>
+      <c r="W1031" s="23"/>
+      <c r="X1031" s="23"/>
+      <c r="Y1031" s="23"/>
+      <c r="Z1031" s="23"/>
+      <c r="AA1031" s="23"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="67"/>
+      <c r="B1032" s="40"/>
+      <c r="C1032" s="68"/>
+      <c r="D1032" s="69"/>
+      <c r="E1032" s="70"/>
+      <c r="F1032" s="71"/>
+      <c r="G1032" s="72"/>
+      <c r="H1032" s="73"/>
+      <c r="I1032" s="74"/>
+      <c r="J1032" s="75"/>
+      <c r="K1032" s="22"/>
+      <c r="L1032" s="23"/>
+      <c r="M1032" s="23"/>
+      <c r="N1032" s="23"/>
+      <c r="O1032" s="23"/>
+      <c r="P1032" s="23"/>
+      <c r="Q1032" s="23"/>
+      <c r="R1032" s="23"/>
+      <c r="S1032" s="23"/>
+      <c r="T1032" s="23"/>
+      <c r="U1032" s="23"/>
+      <c r="V1032" s="23"/>
+      <c r="W1032" s="23"/>
+      <c r="X1032" s="23"/>
+      <c r="Y1032" s="23"/>
+      <c r="Z1032" s="23"/>
+      <c r="AA1032" s="23"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="67"/>
+      <c r="B1033" s="40"/>
+      <c r="C1033" s="68"/>
+      <c r="D1033" s="69"/>
+      <c r="E1033" s="70"/>
+      <c r="F1033" s="71"/>
+      <c r="G1033" s="72"/>
+      <c r="H1033" s="73"/>
+      <c r="I1033" s="74"/>
+      <c r="J1033" s="75"/>
+      <c r="K1033" s="22"/>
+      <c r="L1033" s="23"/>
+      <c r="M1033" s="23"/>
+      <c r="N1033" s="23"/>
+      <c r="O1033" s="23"/>
+      <c r="P1033" s="23"/>
+      <c r="Q1033" s="23"/>
+      <c r="R1033" s="23"/>
+      <c r="S1033" s="23"/>
+      <c r="T1033" s="23"/>
+      <c r="U1033" s="23"/>
+      <c r="V1033" s="23"/>
+      <c r="W1033" s="23"/>
+      <c r="X1033" s="23"/>
+      <c r="Y1033" s="23"/>
+      <c r="Z1033" s="23"/>
+      <c r="AA1033" s="23"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="67"/>
+      <c r="B1034" s="40"/>
+      <c r="C1034" s="68"/>
+      <c r="D1034" s="69"/>
+      <c r="E1034" s="70"/>
+      <c r="F1034" s="71"/>
+      <c r="G1034" s="72"/>
+      <c r="H1034" s="73"/>
+      <c r="I1034" s="74"/>
+      <c r="J1034" s="75"/>
+      <c r="K1034" s="22"/>
+      <c r="L1034" s="23"/>
+      <c r="M1034" s="23"/>
+      <c r="N1034" s="23"/>
+      <c r="O1034" s="23"/>
+      <c r="P1034" s="23"/>
+      <c r="Q1034" s="23"/>
+      <c r="R1034" s="23"/>
+      <c r="S1034" s="23"/>
+      <c r="T1034" s="23"/>
+      <c r="U1034" s="23"/>
+      <c r="V1034" s="23"/>
+      <c r="W1034" s="23"/>
+      <c r="X1034" s="23"/>
+      <c r="Y1034" s="23"/>
+      <c r="Z1034" s="23"/>
+      <c r="AA1034" s="23"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="67"/>
+      <c r="B1035" s="40"/>
+      <c r="C1035" s="68"/>
+      <c r="D1035" s="69"/>
+      <c r="E1035" s="70"/>
+      <c r="F1035" s="71"/>
+      <c r="G1035" s="72"/>
+      <c r="H1035" s="73"/>
+      <c r="I1035" s="74"/>
+      <c r="J1035" s="75"/>
+      <c r="K1035" s="22"/>
+      <c r="L1035" s="23"/>
+      <c r="M1035" s="23"/>
+      <c r="N1035" s="23"/>
+      <c r="O1035" s="23"/>
+      <c r="P1035" s="23"/>
+      <c r="Q1035" s="23"/>
+      <c r="R1035" s="23"/>
+      <c r="S1035" s="23"/>
+      <c r="T1035" s="23"/>
+      <c r="U1035" s="23"/>
+      <c r="V1035" s="23"/>
+      <c r="W1035" s="23"/>
+      <c r="X1035" s="23"/>
+      <c r="Y1035" s="23"/>
+      <c r="Z1035" s="23"/>
+      <c r="AA1035" s="23"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="67"/>
+      <c r="B1036" s="40"/>
+      <c r="C1036" s="68"/>
+      <c r="D1036" s="69"/>
+      <c r="E1036" s="70"/>
+      <c r="F1036" s="71"/>
+      <c r="G1036" s="72"/>
+      <c r="H1036" s="73"/>
+      <c r="I1036" s="74"/>
+      <c r="J1036" s="75"/>
+      <c r="K1036" s="22"/>
+      <c r="L1036" s="23"/>
+      <c r="M1036" s="23"/>
+      <c r="N1036" s="23"/>
+      <c r="O1036" s="23"/>
+      <c r="P1036" s="23"/>
+      <c r="Q1036" s="23"/>
+      <c r="R1036" s="23"/>
+      <c r="S1036" s="23"/>
+      <c r="T1036" s="23"/>
+      <c r="U1036" s="23"/>
+      <c r="V1036" s="23"/>
+      <c r="W1036" s="23"/>
+      <c r="X1036" s="23"/>
+      <c r="Y1036" s="23"/>
+      <c r="Z1036" s="23"/>
+      <c r="AA1036" s="23"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="67"/>
+      <c r="B1037" s="40"/>
+      <c r="C1037" s="68"/>
+      <c r="D1037" s="69"/>
+      <c r="E1037" s="70"/>
+      <c r="F1037" s="71"/>
+      <c r="G1037" s="72"/>
+      <c r="H1037" s="73"/>
+      <c r="I1037" s="74"/>
+      <c r="J1037" s="75"/>
+      <c r="K1037" s="22"/>
+      <c r="L1037" s="23"/>
+      <c r="M1037" s="23"/>
+      <c r="N1037" s="23"/>
+      <c r="O1037" s="23"/>
+      <c r="P1037" s="23"/>
+      <c r="Q1037" s="23"/>
+      <c r="R1037" s="23"/>
+      <c r="S1037" s="23"/>
+      <c r="T1037" s="23"/>
+      <c r="U1037" s="23"/>
+      <c r="V1037" s="23"/>
+      <c r="W1037" s="23"/>
+      <c r="X1037" s="23"/>
+      <c r="Y1037" s="23"/>
+      <c r="Z1037" s="23"/>
+      <c r="AA1037" s="23"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="67"/>
+      <c r="B1038" s="40"/>
+      <c r="C1038" s="68"/>
+      <c r="D1038" s="69"/>
+      <c r="E1038" s="70"/>
+      <c r="F1038" s="71"/>
+      <c r="G1038" s="72"/>
+      <c r="H1038" s="73"/>
+      <c r="I1038" s="74"/>
+      <c r="J1038" s="75"/>
+      <c r="K1038" s="22"/>
+      <c r="L1038" s="23"/>
+      <c r="M1038" s="23"/>
+      <c r="N1038" s="23"/>
+      <c r="O1038" s="23"/>
+      <c r="P1038" s="23"/>
+      <c r="Q1038" s="23"/>
+      <c r="R1038" s="23"/>
+      <c r="S1038" s="23"/>
+      <c r="T1038" s="23"/>
+      <c r="U1038" s="23"/>
+      <c r="V1038" s="23"/>
+      <c r="W1038" s="23"/>
+      <c r="X1038" s="23"/>
+      <c r="Y1038" s="23"/>
+      <c r="Z1038" s="23"/>
+      <c r="AA1038" s="23"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="67"/>
+      <c r="B1039" s="40"/>
+      <c r="C1039" s="68"/>
+      <c r="D1039" s="69"/>
+      <c r="E1039" s="70"/>
+      <c r="F1039" s="71"/>
+      <c r="G1039" s="72"/>
+      <c r="H1039" s="73"/>
+      <c r="I1039" s="74"/>
+      <c r="J1039" s="75"/>
+      <c r="K1039" s="22"/>
+      <c r="L1039" s="23"/>
+      <c r="M1039" s="23"/>
+      <c r="N1039" s="23"/>
+      <c r="O1039" s="23"/>
+      <c r="P1039" s="23"/>
+      <c r="Q1039" s="23"/>
+      <c r="R1039" s="23"/>
+      <c r="S1039" s="23"/>
+      <c r="T1039" s="23"/>
+      <c r="U1039" s="23"/>
+      <c r="V1039" s="23"/>
+      <c r="W1039" s="23"/>
+      <c r="X1039" s="23"/>
+      <c r="Y1039" s="23"/>
+      <c r="Z1039" s="23"/>
+      <c r="AA1039" s="23"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="67"/>
+      <c r="B1040" s="40"/>
+      <c r="C1040" s="68"/>
+      <c r="D1040" s="69"/>
+      <c r="E1040" s="70"/>
+      <c r="F1040" s="71"/>
+      <c r="G1040" s="72"/>
+      <c r="H1040" s="73"/>
+      <c r="I1040" s="74"/>
+      <c r="J1040" s="75"/>
+      <c r="K1040" s="22"/>
+      <c r="L1040" s="23"/>
+      <c r="M1040" s="23"/>
+      <c r="N1040" s="23"/>
+      <c r="O1040" s="23"/>
+      <c r="P1040" s="23"/>
+      <c r="Q1040" s="23"/>
+      <c r="R1040" s="23"/>
+      <c r="S1040" s="23"/>
+      <c r="T1040" s="23"/>
+      <c r="U1040" s="23"/>
+      <c r="V1040" s="23"/>
+      <c r="W1040" s="23"/>
+      <c r="X1040" s="23"/>
+      <c r="Y1040" s="23"/>
+      <c r="Z1040" s="23"/>
+      <c r="AA1040" s="23"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="67"/>
+      <c r="B1041" s="40"/>
+      <c r="C1041" s="68"/>
+      <c r="D1041" s="69"/>
+      <c r="E1041" s="70"/>
+      <c r="F1041" s="71"/>
+      <c r="G1041" s="72"/>
+      <c r="H1041" s="73"/>
+      <c r="I1041" s="74"/>
+      <c r="J1041" s="75"/>
+      <c r="K1041" s="22"/>
+      <c r="L1041" s="23"/>
+      <c r="M1041" s="23"/>
+      <c r="N1041" s="23"/>
+      <c r="O1041" s="23"/>
+      <c r="P1041" s="23"/>
+      <c r="Q1041" s="23"/>
+      <c r="R1041" s="23"/>
+      <c r="S1041" s="23"/>
+      <c r="T1041" s="23"/>
+      <c r="U1041" s="23"/>
+      <c r="V1041" s="23"/>
+      <c r="W1041" s="23"/>
+      <c r="X1041" s="23"/>
+      <c r="Y1041" s="23"/>
+      <c r="Z1041" s="23"/>
+      <c r="AA1041" s="23"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="67"/>
+      <c r="B1042" s="40"/>
+      <c r="C1042" s="68"/>
+      <c r="D1042" s="69"/>
+      <c r="E1042" s="70"/>
+      <c r="F1042" s="71"/>
+      <c r="G1042" s="72"/>
+      <c r="H1042" s="73"/>
+      <c r="I1042" s="74"/>
+      <c r="J1042" s="75"/>
+      <c r="K1042" s="22"/>
+      <c r="L1042" s="23"/>
+      <c r="M1042" s="23"/>
+      <c r="N1042" s="23"/>
+      <c r="O1042" s="23"/>
+      <c r="P1042" s="23"/>
+      <c r="Q1042" s="23"/>
+      <c r="R1042" s="23"/>
+      <c r="S1042" s="23"/>
+      <c r="T1042" s="23"/>
+      <c r="U1042" s="23"/>
+      <c r="V1042" s="23"/>
+      <c r="W1042" s="23"/>
+      <c r="X1042" s="23"/>
+      <c r="Y1042" s="23"/>
+      <c r="Z1042" s="23"/>
+      <c r="AA1042" s="23"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="67"/>
+      <c r="B1043" s="40"/>
+      <c r="C1043" s="68"/>
+      <c r="D1043" s="69"/>
+      <c r="E1043" s="70"/>
+      <c r="F1043" s="71"/>
+      <c r="G1043" s="72"/>
+      <c r="H1043" s="73"/>
+      <c r="I1043" s="74"/>
+      <c r="J1043" s="75"/>
+      <c r="K1043" s="22"/>
+      <c r="L1043" s="23"/>
+      <c r="M1043" s="23"/>
+      <c r="N1043" s="23"/>
+      <c r="O1043" s="23"/>
+      <c r="P1043" s="23"/>
+      <c r="Q1043" s="23"/>
+      <c r="R1043" s="23"/>
+      <c r="S1043" s="23"/>
+      <c r="T1043" s="23"/>
+      <c r="U1043" s="23"/>
+      <c r="V1043" s="23"/>
+      <c r="W1043" s="23"/>
+      <c r="X1043" s="23"/>
+      <c r="Y1043" s="23"/>
+      <c r="Z1043" s="23"/>
+      <c r="AA1043" s="23"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="67"/>
+      <c r="B1044" s="40"/>
+      <c r="C1044" s="68"/>
+      <c r="D1044" s="69"/>
+      <c r="E1044" s="70"/>
+      <c r="F1044" s="71"/>
+      <c r="G1044" s="72"/>
+      <c r="H1044" s="73"/>
+      <c r="I1044" s="74"/>
+      <c r="J1044" s="75"/>
+      <c r="K1044" s="22"/>
+      <c r="L1044" s="23"/>
+      <c r="M1044" s="23"/>
+      <c r="N1044" s="23"/>
+      <c r="O1044" s="23"/>
+      <c r="P1044" s="23"/>
+      <c r="Q1044" s="23"/>
+      <c r="R1044" s="23"/>
+      <c r="S1044" s="23"/>
+      <c r="T1044" s="23"/>
+      <c r="U1044" s="23"/>
+      <c r="V1044" s="23"/>
+      <c r="W1044" s="23"/>
+      <c r="X1044" s="23"/>
+      <c r="Y1044" s="23"/>
+      <c r="Z1044" s="23"/>
+      <c r="AA1044" s="23"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="67"/>
+      <c r="B1045" s="40"/>
+      <c r="C1045" s="68"/>
+      <c r="D1045" s="69"/>
+      <c r="E1045" s="70"/>
+      <c r="F1045" s="71"/>
+      <c r="G1045" s="72"/>
+      <c r="H1045" s="73"/>
+      <c r="I1045" s="74"/>
+      <c r="J1045" s="75"/>
+      <c r="K1045" s="22"/>
+      <c r="L1045" s="23"/>
+      <c r="M1045" s="23"/>
+      <c r="N1045" s="23"/>
+      <c r="O1045" s="23"/>
+      <c r="P1045" s="23"/>
+      <c r="Q1045" s="23"/>
+      <c r="R1045" s="23"/>
+      <c r="S1045" s="23"/>
+      <c r="T1045" s="23"/>
+      <c r="U1045" s="23"/>
+      <c r="V1045" s="23"/>
+      <c r="W1045" s="23"/>
+      <c r="X1045" s="23"/>
+      <c r="Y1045" s="23"/>
+      <c r="Z1045" s="23"/>
+      <c r="AA1045" s="23"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="67"/>
+      <c r="B1046" s="40"/>
+      <c r="C1046" s="68"/>
+      <c r="D1046" s="69"/>
+      <c r="E1046" s="70"/>
+      <c r="F1046" s="71"/>
+      <c r="G1046" s="72"/>
+      <c r="H1046" s="73"/>
+      <c r="I1046" s="74"/>
+      <c r="J1046" s="75"/>
+      <c r="K1046" s="22"/>
+      <c r="L1046" s="23"/>
+      <c r="M1046" s="23"/>
+      <c r="N1046" s="23"/>
+      <c r="O1046" s="23"/>
+      <c r="P1046" s="23"/>
+      <c r="Q1046" s="23"/>
+      <c r="R1046" s="23"/>
+      <c r="S1046" s="23"/>
+      <c r="T1046" s="23"/>
+      <c r="U1046" s="23"/>
+      <c r="V1046" s="23"/>
+      <c r="W1046" s="23"/>
+      <c r="X1046" s="23"/>
+      <c r="Y1046" s="23"/>
+      <c r="Z1046" s="23"/>
+      <c r="AA1046" s="23"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="67"/>
+      <c r="B1047" s="40"/>
+      <c r="C1047" s="68"/>
+      <c r="D1047" s="69"/>
+      <c r="E1047" s="70"/>
+      <c r="F1047" s="71"/>
+      <c r="G1047" s="72"/>
+      <c r="H1047" s="73"/>
+      <c r="I1047" s="74"/>
+      <c r="J1047" s="75"/>
+      <c r="K1047" s="22"/>
+      <c r="L1047" s="23"/>
+      <c r="M1047" s="23"/>
+      <c r="N1047" s="23"/>
+      <c r="O1047" s="23"/>
+      <c r="P1047" s="23"/>
+      <c r="Q1047" s="23"/>
+      <c r="R1047" s="23"/>
+      <c r="S1047" s="23"/>
+      <c r="T1047" s="23"/>
+      <c r="U1047" s="23"/>
+      <c r="V1047" s="23"/>
+      <c r="W1047" s="23"/>
+      <c r="X1047" s="23"/>
+      <c r="Y1047" s="23"/>
+      <c r="Z1047" s="23"/>
+      <c r="AA1047" s="23"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="67"/>
+      <c r="B1048" s="40"/>
+      <c r="C1048" s="68"/>
+      <c r="D1048" s="69"/>
+      <c r="E1048" s="70"/>
+      <c r="F1048" s="71"/>
+      <c r="G1048" s="72"/>
+      <c r="H1048" s="73"/>
+      <c r="I1048" s="74"/>
+      <c r="J1048" s="75"/>
+      <c r="K1048" s="22"/>
+      <c r="L1048" s="23"/>
+      <c r="M1048" s="23"/>
+      <c r="N1048" s="23"/>
+      <c r="O1048" s="23"/>
+      <c r="P1048" s="23"/>
+      <c r="Q1048" s="23"/>
+      <c r="R1048" s="23"/>
+      <c r="S1048" s="23"/>
+      <c r="T1048" s="23"/>
+      <c r="U1048" s="23"/>
+      <c r="V1048" s="23"/>
+      <c r="W1048" s="23"/>
+      <c r="X1048" s="23"/>
+      <c r="Y1048" s="23"/>
+      <c r="Z1048" s="23"/>
+      <c r="AA1048" s="23"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="67"/>
+      <c r="B1049" s="40"/>
+      <c r="C1049" s="68"/>
+      <c r="D1049" s="69"/>
+      <c r="E1049" s="70"/>
+      <c r="F1049" s="71"/>
+      <c r="G1049" s="72"/>
+      <c r="H1049" s="73"/>
+      <c r="I1049" s="74"/>
+      <c r="J1049" s="75"/>
+      <c r="K1049" s="22"/>
+      <c r="L1049" s="23"/>
+      <c r="M1049" s="23"/>
+      <c r="N1049" s="23"/>
+      <c r="O1049" s="23"/>
+      <c r="P1049" s="23"/>
+      <c r="Q1049" s="23"/>
+      <c r="R1049" s="23"/>
+      <c r="S1049" s="23"/>
+      <c r="T1049" s="23"/>
+      <c r="U1049" s="23"/>
+      <c r="V1049" s="23"/>
+      <c r="W1049" s="23"/>
+      <c r="X1049" s="23"/>
+      <c r="Y1049" s="23"/>
+      <c r="Z1049" s="23"/>
+      <c r="AA1049" s="23"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="67"/>
+      <c r="B1050" s="40"/>
+      <c r="C1050" s="68"/>
+      <c r="D1050" s="69"/>
+      <c r="E1050" s="70"/>
+      <c r="F1050" s="71"/>
+      <c r="G1050" s="72"/>
+      <c r="H1050" s="73"/>
+      <c r="I1050" s="74"/>
+      <c r="J1050" s="75"/>
+      <c r="K1050" s="22"/>
+      <c r="L1050" s="23"/>
+      <c r="M1050" s="23"/>
+      <c r="N1050" s="23"/>
+      <c r="O1050" s="23"/>
+      <c r="P1050" s="23"/>
+      <c r="Q1050" s="23"/>
+      <c r="R1050" s="23"/>
+      <c r="S1050" s="23"/>
+      <c r="T1050" s="23"/>
+      <c r="U1050" s="23"/>
+      <c r="V1050" s="23"/>
+      <c r="W1050" s="23"/>
+      <c r="X1050" s="23"/>
+      <c r="Y1050" s="23"/>
+      <c r="Z1050" s="23"/>
+      <c r="AA1050" s="23"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="67"/>
+      <c r="B1051" s="40"/>
+      <c r="C1051" s="68"/>
+      <c r="D1051" s="69"/>
+      <c r="E1051" s="70"/>
+      <c r="F1051" s="71"/>
+      <c r="G1051" s="72"/>
+      <c r="H1051" s="73"/>
+      <c r="I1051" s="74"/>
+      <c r="J1051" s="75"/>
+      <c r="K1051" s="22"/>
+      <c r="L1051" s="23"/>
+      <c r="M1051" s="23"/>
+      <c r="N1051" s="23"/>
+      <c r="O1051" s="23"/>
+      <c r="P1051" s="23"/>
+      <c r="Q1051" s="23"/>
+      <c r="R1051" s="23"/>
+      <c r="S1051" s="23"/>
+      <c r="T1051" s="23"/>
+      <c r="U1051" s="23"/>
+      <c r="V1051" s="23"/>
+      <c r="W1051" s="23"/>
+      <c r="X1051" s="23"/>
+      <c r="Y1051" s="23"/>
+      <c r="Z1051" s="23"/>
+      <c r="AA1051" s="23"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="67"/>
+      <c r="B1052" s="40"/>
+      <c r="C1052" s="68"/>
+      <c r="D1052" s="69"/>
+      <c r="E1052" s="70"/>
+      <c r="F1052" s="71"/>
+      <c r="G1052" s="72"/>
+      <c r="H1052" s="73"/>
+      <c r="I1052" s="74"/>
+      <c r="J1052" s="75"/>
+      <c r="K1052" s="22"/>
+      <c r="L1052" s="23"/>
+      <c r="M1052" s="23"/>
+      <c r="N1052" s="23"/>
+      <c r="O1052" s="23"/>
+      <c r="P1052" s="23"/>
+      <c r="Q1052" s="23"/>
+      <c r="R1052" s="23"/>
+      <c r="S1052" s="23"/>
+      <c r="T1052" s="23"/>
+      <c r="U1052" s="23"/>
+      <c r="V1052" s="23"/>
+      <c r="W1052" s="23"/>
+      <c r="X1052" s="23"/>
+      <c r="Y1052" s="23"/>
+      <c r="Z1052" s="23"/>
+      <c r="AA1052" s="23"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="67"/>
+      <c r="B1053" s="40"/>
+      <c r="C1053" s="68"/>
+      <c r="D1053" s="69"/>
+      <c r="E1053" s="70"/>
+      <c r="F1053" s="71"/>
+      <c r="G1053" s="72"/>
+      <c r="H1053" s="73"/>
+      <c r="I1053" s="74"/>
+      <c r="J1053" s="75"/>
+      <c r="K1053" s="22"/>
+      <c r="L1053" s="23"/>
+      <c r="M1053" s="23"/>
+      <c r="N1053" s="23"/>
+      <c r="O1053" s="23"/>
+      <c r="P1053" s="23"/>
+      <c r="Q1053" s="23"/>
+      <c r="R1053" s="23"/>
+      <c r="S1053" s="23"/>
+      <c r="T1053" s="23"/>
+      <c r="U1053" s="23"/>
+      <c r="V1053" s="23"/>
+      <c r="W1053" s="23"/>
+      <c r="X1053" s="23"/>
+      <c r="Y1053" s="23"/>
+      <c r="Z1053" s="23"/>
+      <c r="AA1053" s="23"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="67"/>
+      <c r="B1054" s="40"/>
+      <c r="C1054" s="68"/>
+      <c r="D1054" s="69"/>
+      <c r="E1054" s="70"/>
+      <c r="F1054" s="71"/>
+      <c r="G1054" s="72"/>
+      <c r="H1054" s="73"/>
+      <c r="I1054" s="74"/>
+      <c r="J1054" s="75"/>
+      <c r="K1054" s="22"/>
+      <c r="L1054" s="23"/>
+      <c r="M1054" s="23"/>
+      <c r="N1054" s="23"/>
+      <c r="O1054" s="23"/>
+      <c r="P1054" s="23"/>
+      <c r="Q1054" s="23"/>
+      <c r="R1054" s="23"/>
+      <c r="S1054" s="23"/>
+      <c r="T1054" s="23"/>
+      <c r="U1054" s="23"/>
+      <c r="V1054" s="23"/>
+      <c r="W1054" s="23"/>
+      <c r="X1054" s="23"/>
+      <c r="Y1054" s="23"/>
+      <c r="Z1054" s="23"/>
+      <c r="AA1054" s="23"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="67"/>
+      <c r="B1055" s="40"/>
+      <c r="C1055" s="68"/>
+      <c r="D1055" s="69"/>
+      <c r="E1055" s="70"/>
+      <c r="F1055" s="71"/>
+      <c r="G1055" s="72"/>
+      <c r="H1055" s="73"/>
+      <c r="I1055" s="74"/>
+      <c r="J1055" s="75"/>
+      <c r="K1055" s="22"/>
+      <c r="L1055" s="23"/>
+      <c r="M1055" s="23"/>
+      <c r="N1055" s="23"/>
+      <c r="O1055" s="23"/>
+      <c r="P1055" s="23"/>
+      <c r="Q1055" s="23"/>
+      <c r="R1055" s="23"/>
+      <c r="S1055" s="23"/>
+      <c r="T1055" s="23"/>
+      <c r="U1055" s="23"/>
+      <c r="V1055" s="23"/>
+      <c r="W1055" s="23"/>
+      <c r="X1055" s="23"/>
+      <c r="Y1055" s="23"/>
+      <c r="Z1055" s="23"/>
+      <c r="AA1055" s="23"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="67"/>
+      <c r="B1056" s="40"/>
+      <c r="C1056" s="68"/>
+      <c r="D1056" s="69"/>
+      <c r="E1056" s="70"/>
+      <c r="F1056" s="71"/>
+      <c r="G1056" s="72"/>
+      <c r="H1056" s="73"/>
+      <c r="I1056" s="74"/>
+      <c r="J1056" s="75"/>
+      <c r="K1056" s="22"/>
+      <c r="L1056" s="23"/>
+      <c r="M1056" s="23"/>
+      <c r="N1056" s="23"/>
+      <c r="O1056" s="23"/>
+      <c r="P1056" s="23"/>
+      <c r="Q1056" s="23"/>
+      <c r="R1056" s="23"/>
+      <c r="S1056" s="23"/>
+      <c r="T1056" s="23"/>
+      <c r="U1056" s="23"/>
+      <c r="V1056" s="23"/>
+      <c r="W1056" s="23"/>
+      <c r="X1056" s="23"/>
+      <c r="Y1056" s="23"/>
+      <c r="Z1056" s="23"/>
+      <c r="AA1056" s="23"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="67"/>
+      <c r="B1057" s="40"/>
+      <c r="C1057" s="68"/>
+      <c r="D1057" s="69"/>
+      <c r="E1057" s="70"/>
+      <c r="F1057" s="71"/>
+      <c r="G1057" s="72"/>
+      <c r="H1057" s="73"/>
+      <c r="I1057" s="74"/>
+      <c r="J1057" s="75"/>
+      <c r="K1057" s="22"/>
+      <c r="L1057" s="23"/>
+      <c r="M1057" s="23"/>
+      <c r="N1057" s="23"/>
+      <c r="O1057" s="23"/>
+      <c r="P1057" s="23"/>
+      <c r="Q1057" s="23"/>
+      <c r="R1057" s="23"/>
+      <c r="S1057" s="23"/>
+      <c r="T1057" s="23"/>
+      <c r="U1057" s="23"/>
+      <c r="V1057" s="23"/>
+      <c r="W1057" s="23"/>
+      <c r="X1057" s="23"/>
+      <c r="Y1057" s="23"/>
+      <c r="Z1057" s="23"/>
+      <c r="AA1057" s="23"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="67"/>
+      <c r="B1058" s="40"/>
+      <c r="C1058" s="68"/>
+      <c r="D1058" s="69"/>
+      <c r="E1058" s="70"/>
+      <c r="F1058" s="71"/>
+      <c r="G1058" s="72"/>
+      <c r="H1058" s="73"/>
+      <c r="I1058" s="74"/>
+      <c r="J1058" s="75"/>
+      <c r="K1058" s="22"/>
+      <c r="L1058" s="23"/>
+      <c r="M1058" s="23"/>
+      <c r="N1058" s="23"/>
+      <c r="O1058" s="23"/>
+      <c r="P1058" s="23"/>
+      <c r="Q1058" s="23"/>
+      <c r="R1058" s="23"/>
+      <c r="S1058" s="23"/>
+      <c r="T1058" s="23"/>
+      <c r="U1058" s="23"/>
+      <c r="V1058" s="23"/>
+      <c r="W1058" s="23"/>
+      <c r="X1058" s="23"/>
+      <c r="Y1058" s="23"/>
+      <c r="Z1058" s="23"/>
+      <c r="AA1058" s="23"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="67"/>
+      <c r="B1059" s="40"/>
+      <c r="C1059" s="68"/>
+      <c r="D1059" s="69"/>
+      <c r="E1059" s="70"/>
+      <c r="F1059" s="71"/>
+      <c r="G1059" s="72"/>
+      <c r="H1059" s="73"/>
+      <c r="I1059" s="74"/>
+      <c r="J1059" s="75"/>
+      <c r="K1059" s="22"/>
+      <c r="L1059" s="23"/>
+      <c r="M1059" s="23"/>
+      <c r="N1059" s="23"/>
+      <c r="O1059" s="23"/>
+      <c r="P1059" s="23"/>
+      <c r="Q1059" s="23"/>
+      <c r="R1059" s="23"/>
+      <c r="S1059" s="23"/>
+      <c r="T1059" s="23"/>
+      <c r="U1059" s="23"/>
+      <c r="V1059" s="23"/>
+      <c r="W1059" s="23"/>
+      <c r="X1059" s="23"/>
+      <c r="Y1059" s="23"/>
+      <c r="Z1059" s="23"/>
+      <c r="AA1059" s="23"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="67"/>
+      <c r="B1060" s="40"/>
+      <c r="C1060" s="68"/>
+      <c r="D1060" s="69"/>
+      <c r="E1060" s="70"/>
+      <c r="F1060" s="71"/>
+      <c r="G1060" s="72"/>
+      <c r="H1060" s="73"/>
+      <c r="I1060" s="74"/>
+      <c r="J1060" s="75"/>
+      <c r="K1060" s="22"/>
+      <c r="L1060" s="23"/>
+      <c r="M1060" s="23"/>
+      <c r="N1060" s="23"/>
+      <c r="O1060" s="23"/>
+      <c r="P1060" s="23"/>
+      <c r="Q1060" s="23"/>
+      <c r="R1060" s="23"/>
+      <c r="S1060" s="23"/>
+      <c r="T1060" s="23"/>
+      <c r="U1060" s="23"/>
+      <c r="V1060" s="23"/>
+      <c r="W1060" s="23"/>
+      <c r="X1060" s="23"/>
+      <c r="Y1060" s="23"/>
+      <c r="Z1060" s="23"/>
+      <c r="AA1060" s="23"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="67"/>
+      <c r="B1061" s="40"/>
+      <c r="C1061" s="68"/>
+      <c r="D1061" s="69"/>
+      <c r="E1061" s="70"/>
+      <c r="F1061" s="71"/>
+      <c r="G1061" s="72"/>
+      <c r="H1061" s="73"/>
+      <c r="I1061" s="74"/>
+      <c r="J1061" s="75"/>
+      <c r="K1061" s="22"/>
+      <c r="L1061" s="23"/>
+      <c r="M1061" s="23"/>
+      <c r="N1061" s="23"/>
+      <c r="O1061" s="23"/>
+      <c r="P1061" s="23"/>
+      <c r="Q1061" s="23"/>
+      <c r="R1061" s="23"/>
+      <c r="S1061" s="23"/>
+      <c r="T1061" s="23"/>
+      <c r="U1061" s="23"/>
+      <c r="V1061" s="23"/>
+      <c r="W1061" s="23"/>
+      <c r="X1061" s="23"/>
+      <c r="Y1061" s="23"/>
+      <c r="Z1061" s="23"/>
+      <c r="AA1061" s="23"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="67"/>
+      <c r="B1062" s="40"/>
+      <c r="C1062" s="68"/>
+      <c r="D1062" s="69"/>
+      <c r="E1062" s="70"/>
+      <c r="F1062" s="71"/>
+      <c r="G1062" s="72"/>
+      <c r="H1062" s="73"/>
+      <c r="I1062" s="74"/>
+      <c r="J1062" s="75"/>
+      <c r="K1062" s="22"/>
+      <c r="L1062" s="23"/>
+      <c r="M1062" s="23"/>
+      <c r="N1062" s="23"/>
+      <c r="O1062" s="23"/>
+      <c r="P1062" s="23"/>
+      <c r="Q1062" s="23"/>
+      <c r="R1062" s="23"/>
+      <c r="S1062" s="23"/>
+      <c r="T1062" s="23"/>
+      <c r="U1062" s="23"/>
+      <c r="V1062" s="23"/>
+      <c r="W1062" s="23"/>
+      <c r="X1062" s="23"/>
+      <c r="Y1062" s="23"/>
+      <c r="Z1062" s="23"/>
+      <c r="AA1062" s="23"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="67"/>
+      <c r="B1063" s="40"/>
+      <c r="C1063" s="68"/>
+      <c r="D1063" s="69"/>
+      <c r="E1063" s="70"/>
+      <c r="F1063" s="71"/>
+      <c r="G1063" s="72"/>
+      <c r="H1063" s="73"/>
+      <c r="I1063" s="74"/>
+      <c r="J1063" s="75"/>
+      <c r="K1063" s="22"/>
+      <c r="L1063" s="23"/>
+      <c r="M1063" s="23"/>
+      <c r="N1063" s="23"/>
+      <c r="O1063" s="23"/>
+      <c r="P1063" s="23"/>
+      <c r="Q1063" s="23"/>
+      <c r="R1063" s="23"/>
+      <c r="S1063" s="23"/>
+      <c r="T1063" s="23"/>
+      <c r="U1063" s="23"/>
+      <c r="V1063" s="23"/>
+      <c r="W1063" s="23"/>
+      <c r="X1063" s="23"/>
+      <c r="Y1063" s="23"/>
+      <c r="Z1063" s="23"/>
+      <c r="AA1063" s="23"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="67"/>
+      <c r="B1064" s="40"/>
+      <c r="C1064" s="68"/>
+      <c r="D1064" s="69"/>
+      <c r="E1064" s="70"/>
+      <c r="F1064" s="71"/>
+      <c r="G1064" s="72"/>
+      <c r="H1064" s="73"/>
+      <c r="I1064" s="74"/>
+      <c r="J1064" s="75"/>
+      <c r="K1064" s="22"/>
+      <c r="L1064" s="23"/>
+      <c r="M1064" s="23"/>
+      <c r="N1064" s="23"/>
+      <c r="O1064" s="23"/>
+      <c r="P1064" s="23"/>
+      <c r="Q1064" s="23"/>
+      <c r="R1064" s="23"/>
+      <c r="S1064" s="23"/>
+      <c r="T1064" s="23"/>
+      <c r="U1064" s="23"/>
+      <c r="V1064" s="23"/>
+      <c r="W1064" s="23"/>
+      <c r="X1064" s="23"/>
+      <c r="Y1064" s="23"/>
+      <c r="Z1064" s="23"/>
+      <c r="AA1064" s="23"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="67"/>
+      <c r="B1065" s="40"/>
+      <c r="C1065" s="68"/>
+      <c r="D1065" s="69"/>
+      <c r="E1065" s="70"/>
+      <c r="F1065" s="71"/>
+      <c r="G1065" s="72"/>
+      <c r="H1065" s="73"/>
+      <c r="I1065" s="74"/>
+      <c r="J1065" s="75"/>
+      <c r="K1065" s="22"/>
+      <c r="L1065" s="23"/>
+      <c r="M1065" s="23"/>
+      <c r="N1065" s="23"/>
+      <c r="O1065" s="23"/>
+      <c r="P1065" s="23"/>
+      <c r="Q1065" s="23"/>
+      <c r="R1065" s="23"/>
+      <c r="S1065" s="23"/>
+      <c r="T1065" s="23"/>
+      <c r="U1065" s="23"/>
+      <c r="V1065" s="23"/>
+      <c r="W1065" s="23"/>
+      <c r="X1065" s="23"/>
+      <c r="Y1065" s="23"/>
+      <c r="Z1065" s="23"/>
+      <c r="AA1065" s="23"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="67"/>
+      <c r="B1066" s="40"/>
+      <c r="C1066" s="68"/>
+      <c r="D1066" s="69"/>
+      <c r="E1066" s="70"/>
+      <c r="F1066" s="71"/>
+      <c r="G1066" s="72"/>
+      <c r="H1066" s="73"/>
+      <c r="I1066" s="74"/>
+      <c r="J1066" s="75"/>
+      <c r="K1066" s="22"/>
+      <c r="L1066" s="23"/>
+      <c r="M1066" s="23"/>
+      <c r="N1066" s="23"/>
+      <c r="O1066" s="23"/>
+      <c r="P1066" s="23"/>
+      <c r="Q1066" s="23"/>
+      <c r="R1066" s="23"/>
+      <c r="S1066" s="23"/>
+      <c r="T1066" s="23"/>
+      <c r="U1066" s="23"/>
+      <c r="V1066" s="23"/>
+      <c r="W1066" s="23"/>
+      <c r="X1066" s="23"/>
+      <c r="Y1066" s="23"/>
+      <c r="Z1066" s="23"/>
+      <c r="AA1066" s="23"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="67"/>
+      <c r="B1067" s="40"/>
+      <c r="C1067" s="68"/>
+      <c r="D1067" s="69"/>
+      <c r="E1067" s="70"/>
+      <c r="F1067" s="71"/>
+      <c r="G1067" s="72"/>
+      <c r="H1067" s="73"/>
+      <c r="I1067" s="74"/>
+      <c r="J1067" s="75"/>
+      <c r="K1067" s="22"/>
+      <c r="L1067" s="23"/>
+      <c r="M1067" s="23"/>
+      <c r="N1067" s="23"/>
+      <c r="O1067" s="23"/>
+      <c r="P1067" s="23"/>
+      <c r="Q1067" s="23"/>
+      <c r="R1067" s="23"/>
+      <c r="S1067" s="23"/>
+      <c r="T1067" s="23"/>
+      <c r="U1067" s="23"/>
+      <c r="V1067" s="23"/>
+      <c r="W1067" s="23"/>
+      <c r="X1067" s="23"/>
+      <c r="Y1067" s="23"/>
+      <c r="Z1067" s="23"/>
+      <c r="AA1067" s="23"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="67"/>
+      <c r="B1068" s="40"/>
+      <c r="C1068" s="68"/>
+      <c r="D1068" s="69"/>
+      <c r="E1068" s="70"/>
+      <c r="F1068" s="71"/>
+      <c r="G1068" s="72"/>
+      <c r="H1068" s="73"/>
+      <c r="I1068" s="74"/>
+      <c r="J1068" s="75"/>
+      <c r="K1068" s="22"/>
+      <c r="L1068" s="23"/>
+      <c r="M1068" s="23"/>
+      <c r="N1068" s="23"/>
+      <c r="O1068" s="23"/>
+      <c r="P1068" s="23"/>
+      <c r="Q1068" s="23"/>
+      <c r="R1068" s="23"/>
+      <c r="S1068" s="23"/>
+      <c r="T1068" s="23"/>
+      <c r="U1068" s="23"/>
+      <c r="V1068" s="23"/>
+      <c r="W1068" s="23"/>
+      <c r="X1068" s="23"/>
+      <c r="Y1068" s="23"/>
+      <c r="Z1068" s="23"/>
+      <c r="AA1068" s="23"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="67"/>
+      <c r="B1069" s="40"/>
+      <c r="C1069" s="68"/>
+      <c r="D1069" s="69"/>
+      <c r="E1069" s="70"/>
+      <c r="F1069" s="71"/>
+      <c r="G1069" s="72"/>
+      <c r="H1069" s="73"/>
+      <c r="I1069" s="74"/>
+      <c r="J1069" s="75"/>
+      <c r="K1069" s="22"/>
+      <c r="L1069" s="23"/>
+      <c r="M1069" s="23"/>
+      <c r="N1069" s="23"/>
+      <c r="O1069" s="23"/>
+      <c r="P1069" s="23"/>
+      <c r="Q1069" s="23"/>
+      <c r="R1069" s="23"/>
+      <c r="S1069" s="23"/>
+      <c r="T1069" s="23"/>
+      <c r="U1069" s="23"/>
+      <c r="V1069" s="23"/>
+      <c r="W1069" s="23"/>
+      <c r="X1069" s="23"/>
+      <c r="Y1069" s="23"/>
+      <c r="Z1069" s="23"/>
+      <c r="AA1069" s="23"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="67"/>
+      <c r="B1070" s="40"/>
+      <c r="C1070" s="68"/>
+      <c r="D1070" s="69"/>
+      <c r="E1070" s="70"/>
+      <c r="F1070" s="71"/>
+      <c r="G1070" s="72"/>
+      <c r="H1070" s="73"/>
+      <c r="I1070" s="74"/>
+      <c r="J1070" s="75"/>
+      <c r="K1070" s="22"/>
+      <c r="L1070" s="23"/>
+      <c r="M1070" s="23"/>
+      <c r="N1070" s="23"/>
+      <c r="O1070" s="23"/>
+      <c r="P1070" s="23"/>
+      <c r="Q1070" s="23"/>
+      <c r="R1070" s="23"/>
+      <c r="S1070" s="23"/>
+      <c r="T1070" s="23"/>
+      <c r="U1070" s="23"/>
+      <c r="V1070" s="23"/>
+      <c r="W1070" s="23"/>
+      <c r="X1070" s="23"/>
+      <c r="Y1070" s="23"/>
+      <c r="Z1070" s="23"/>
+      <c r="AA1070" s="23"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="67"/>
+      <c r="B1071" s="40"/>
+      <c r="C1071" s="68"/>
+      <c r="D1071" s="69"/>
+      <c r="E1071" s="70"/>
+      <c r="F1071" s="71"/>
+      <c r="G1071" s="72"/>
+      <c r="H1071" s="73"/>
+      <c r="I1071" s="74"/>
+      <c r="J1071" s="75"/>
+      <c r="K1071" s="22"/>
+      <c r="L1071" s="23"/>
+      <c r="M1071" s="23"/>
+      <c r="N1071" s="23"/>
+      <c r="O1071" s="23"/>
+      <c r="P1071" s="23"/>
+      <c r="Q1071" s="23"/>
+      <c r="R1071" s="23"/>
+      <c r="S1071" s="23"/>
+      <c r="T1071" s="23"/>
+      <c r="U1071" s="23"/>
+      <c r="V1071" s="23"/>
+      <c r="W1071" s="23"/>
+      <c r="X1071" s="23"/>
+      <c r="Y1071" s="23"/>
+      <c r="Z1071" s="23"/>
+      <c r="AA1071" s="23"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="67"/>
+      <c r="B1072" s="40"/>
+      <c r="C1072" s="68"/>
+      <c r="D1072" s="69"/>
+      <c r="E1072" s="70"/>
+      <c r="F1072" s="71"/>
+      <c r="G1072" s="72"/>
+      <c r="H1072" s="73"/>
+      <c r="I1072" s="74"/>
+      <c r="J1072" s="75"/>
+      <c r="K1072" s="22"/>
+      <c r="L1072" s="23"/>
+      <c r="M1072" s="23"/>
+      <c r="N1072" s="23"/>
+      <c r="O1072" s="23"/>
+      <c r="P1072" s="23"/>
+      <c r="Q1072" s="23"/>
+      <c r="R1072" s="23"/>
+      <c r="S1072" s="23"/>
+      <c r="T1072" s="23"/>
+      <c r="U1072" s="23"/>
+      <c r="V1072" s="23"/>
+      <c r="W1072" s="23"/>
+      <c r="X1072" s="23"/>
+      <c r="Y1072" s="23"/>
+      <c r="Z1072" s="23"/>
+      <c r="AA1072" s="23"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="67"/>
+      <c r="B1073" s="40"/>
+      <c r="C1073" s="68"/>
+      <c r="D1073" s="69"/>
+      <c r="E1073" s="70"/>
+      <c r="F1073" s="71"/>
+      <c r="G1073" s="72"/>
+      <c r="H1073" s="73"/>
+      <c r="I1073" s="74"/>
+      <c r="J1073" s="75"/>
+      <c r="K1073" s="22"/>
+      <c r="L1073" s="23"/>
+      <c r="M1073" s="23"/>
+      <c r="N1073" s="23"/>
+      <c r="O1073" s="23"/>
+      <c r="P1073" s="23"/>
+      <c r="Q1073" s="23"/>
+      <c r="R1073" s="23"/>
+      <c r="S1073" s="23"/>
+      <c r="T1073" s="23"/>
+      <c r="U1073" s="23"/>
+      <c r="V1073" s="23"/>
+      <c r="W1073" s="23"/>
+      <c r="X1073" s="23"/>
+      <c r="Y1073" s="23"/>
+      <c r="Z1073" s="23"/>
+      <c r="AA1073" s="23"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="67"/>
+      <c r="B1074" s="40"/>
+      <c r="C1074" s="68"/>
+      <c r="D1074" s="69"/>
+      <c r="E1074" s="70"/>
+      <c r="F1074" s="71"/>
+      <c r="G1074" s="72"/>
+      <c r="H1074" s="73"/>
+      <c r="I1074" s="74"/>
+      <c r="J1074" s="75"/>
+      <c r="K1074" s="22"/>
+      <c r="L1074" s="23"/>
+      <c r="M1074" s="23"/>
+      <c r="N1074" s="23"/>
+      <c r="O1074" s="23"/>
+      <c r="P1074" s="23"/>
+      <c r="Q1074" s="23"/>
+      <c r="R1074" s="23"/>
+      <c r="S1074" s="23"/>
+      <c r="T1074" s="23"/>
+      <c r="U1074" s="23"/>
+      <c r="V1074" s="23"/>
+      <c r="W1074" s="23"/>
+      <c r="X1074" s="23"/>
+      <c r="Y1074" s="23"/>
+      <c r="Z1074" s="23"/>
+      <c r="AA1074" s="23"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="67"/>
+      <c r="B1075" s="40"/>
+      <c r="C1075" s="68"/>
+      <c r="D1075" s="69"/>
+      <c r="E1075" s="70"/>
+      <c r="F1075" s="71"/>
+      <c r="G1075" s="72"/>
+      <c r="H1075" s="73"/>
+      <c r="I1075" s="74"/>
+      <c r="J1075" s="75"/>
+      <c r="K1075" s="22"/>
+      <c r="L1075" s="23"/>
+      <c r="M1075" s="23"/>
+      <c r="N1075" s="23"/>
+      <c r="O1075" s="23"/>
+      <c r="P1075" s="23"/>
+      <c r="Q1075" s="23"/>
+      <c r="R1075" s="23"/>
+      <c r="S1075" s="23"/>
+      <c r="T1075" s="23"/>
+      <c r="U1075" s="23"/>
+      <c r="V1075" s="23"/>
+      <c r="W1075" s="23"/>
+      <c r="X1075" s="23"/>
+      <c r="Y1075" s="23"/>
+      <c r="Z1075" s="23"/>
+      <c r="AA1075" s="23"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="67"/>
+      <c r="B1076" s="40"/>
+      <c r="C1076" s="68"/>
+      <c r="D1076" s="69"/>
+      <c r="E1076" s="70"/>
+      <c r="F1076" s="71"/>
+      <c r="G1076" s="72"/>
+      <c r="H1076" s="73"/>
+      <c r="I1076" s="74"/>
+      <c r="J1076" s="75"/>
+      <c r="K1076" s="22"/>
+      <c r="L1076" s="23"/>
+      <c r="M1076" s="23"/>
+      <c r="N1076" s="23"/>
+      <c r="O1076" s="23"/>
+      <c r="P1076" s="23"/>
+      <c r="Q1076" s="23"/>
+      <c r="R1076" s="23"/>
+      <c r="S1076" s="23"/>
+      <c r="T1076" s="23"/>
+      <c r="U1076" s="23"/>
+      <c r="V1076" s="23"/>
+      <c r="W1076" s="23"/>
+      <c r="X1076" s="23"/>
+      <c r="Y1076" s="23"/>
+      <c r="Z1076" s="23"/>
+      <c r="AA1076" s="23"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="67"/>
+      <c r="B1077" s="40"/>
+      <c r="C1077" s="68"/>
+      <c r="D1077" s="69"/>
+      <c r="E1077" s="70"/>
+      <c r="F1077" s="71"/>
+      <c r="G1077" s="72"/>
+      <c r="H1077" s="73"/>
+      <c r="I1077" s="74"/>
+      <c r="J1077" s="75"/>
+      <c r="K1077" s="22"/>
+      <c r="L1077" s="23"/>
+      <c r="M1077" s="23"/>
+      <c r="N1077" s="23"/>
+      <c r="O1077" s="23"/>
+      <c r="P1077" s="23"/>
+      <c r="Q1077" s="23"/>
+      <c r="R1077" s="23"/>
+      <c r="S1077" s="23"/>
+      <c r="T1077" s="23"/>
+      <c r="U1077" s="23"/>
+      <c r="V1077" s="23"/>
+      <c r="W1077" s="23"/>
+      <c r="X1077" s="23"/>
+      <c r="Y1077" s="23"/>
+      <c r="Z1077" s="23"/>
+      <c r="AA1077" s="23"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="67"/>
+      <c r="B1078" s="40"/>
+      <c r="C1078" s="68"/>
+      <c r="D1078" s="69"/>
+      <c r="E1078" s="70"/>
+      <c r="F1078" s="71"/>
+      <c r="G1078" s="72"/>
+      <c r="H1078" s="73"/>
+      <c r="I1078" s="74"/>
+      <c r="J1078" s="75"/>
+      <c r="K1078" s="22"/>
+      <c r="L1078" s="23"/>
+      <c r="M1078" s="23"/>
+      <c r="N1078" s="23"/>
+      <c r="O1078" s="23"/>
+      <c r="P1078" s="23"/>
+      <c r="Q1078" s="23"/>
+      <c r="R1078" s="23"/>
+      <c r="S1078" s="23"/>
+      <c r="T1078" s="23"/>
+      <c r="U1078" s="23"/>
+      <c r="V1078" s="23"/>
+      <c r="W1078" s="23"/>
+      <c r="X1078" s="23"/>
+      <c r="Y1078" s="23"/>
+      <c r="Z1078" s="23"/>
+      <c r="AA1078" s="23"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="67"/>
+      <c r="B1079" s="40"/>
+      <c r="C1079" s="68"/>
+      <c r="D1079" s="69"/>
+      <c r="E1079" s="70"/>
+      <c r="F1079" s="71"/>
+      <c r="G1079" s="72"/>
+      <c r="H1079" s="73"/>
+      <c r="I1079" s="74"/>
+      <c r="J1079" s="75"/>
+      <c r="K1079" s="22"/>
+      <c r="L1079" s="23"/>
+      <c r="M1079" s="23"/>
+      <c r="N1079" s="23"/>
+      <c r="O1079" s="23"/>
+      <c r="P1079" s="23"/>
+      <c r="Q1079" s="23"/>
+      <c r="R1079" s="23"/>
+      <c r="S1079" s="23"/>
+      <c r="T1079" s="23"/>
+      <c r="U1079" s="23"/>
+      <c r="V1079" s="23"/>
+      <c r="W1079" s="23"/>
+      <c r="X1079" s="23"/>
+      <c r="Y1079" s="23"/>
+      <c r="Z1079" s="23"/>
+      <c r="AA1079" s="23"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="67"/>
+      <c r="B1080" s="40"/>
+      <c r="C1080" s="68"/>
+      <c r="D1080" s="69"/>
+      <c r="E1080" s="70"/>
+      <c r="F1080" s="71"/>
+      <c r="G1080" s="72"/>
+      <c r="H1080" s="73"/>
+      <c r="I1080" s="74"/>
+      <c r="J1080" s="75"/>
+      <c r="K1080" s="22"/>
+      <c r="L1080" s="23"/>
+      <c r="M1080" s="23"/>
+      <c r="N1080" s="23"/>
+      <c r="O1080" s="23"/>
+      <c r="P1080" s="23"/>
+      <c r="Q1080" s="23"/>
+      <c r="R1080" s="23"/>
+      <c r="S1080" s="23"/>
+      <c r="T1080" s="23"/>
+      <c r="U1080" s="23"/>
+      <c r="V1080" s="23"/>
+      <c r="W1080" s="23"/>
+      <c r="X1080" s="23"/>
+      <c r="Y1080" s="23"/>
+      <c r="Z1080" s="23"/>
+      <c r="AA1080" s="23"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="67"/>
+      <c r="B1081" s="40"/>
+      <c r="C1081" s="68"/>
+      <c r="D1081" s="69"/>
+      <c r="E1081" s="70"/>
+      <c r="F1081" s="71"/>
+      <c r="G1081" s="72"/>
+      <c r="H1081" s="73"/>
+      <c r="I1081" s="74"/>
+      <c r="J1081" s="75"/>
+      <c r="K1081" s="22"/>
+      <c r="L1081" s="23"/>
+      <c r="M1081" s="23"/>
+      <c r="N1081" s="23"/>
+      <c r="O1081" s="23"/>
+      <c r="P1081" s="23"/>
+      <c r="Q1081" s="23"/>
+      <c r="R1081" s="23"/>
+      <c r="S1081" s="23"/>
+      <c r="T1081" s="23"/>
+      <c r="U1081" s="23"/>
+      <c r="V1081" s="23"/>
+      <c r="W1081" s="23"/>
+      <c r="X1081" s="23"/>
+      <c r="Y1081" s="23"/>
+      <c r="Z1081" s="23"/>
+      <c r="AA1081" s="23"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="67"/>
+      <c r="B1082" s="40"/>
+      <c r="C1082" s="68"/>
+      <c r="D1082" s="69"/>
+      <c r="E1082" s="70"/>
+      <c r="F1082" s="71"/>
+      <c r="G1082" s="72"/>
+      <c r="H1082" s="73"/>
+      <c r="I1082" s="74"/>
+      <c r="J1082" s="75"/>
+      <c r="K1082" s="22"/>
+      <c r="L1082" s="23"/>
+      <c r="M1082" s="23"/>
+      <c r="N1082" s="23"/>
+      <c r="O1082" s="23"/>
+      <c r="P1082" s="23"/>
+      <c r="Q1082" s="23"/>
+      <c r="R1082" s="23"/>
+      <c r="S1082" s="23"/>
+      <c r="T1082" s="23"/>
+      <c r="U1082" s="23"/>
+      <c r="V1082" s="23"/>
+      <c r="W1082" s="23"/>
+      <c r="X1082" s="23"/>
+      <c r="Y1082" s="23"/>
+      <c r="Z1082" s="23"/>
+      <c r="AA1082" s="23"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="67"/>
+      <c r="B1083" s="40"/>
+      <c r="C1083" s="68"/>
+      <c r="D1083" s="69"/>
+      <c r="E1083" s="70"/>
+      <c r="F1083" s="71"/>
+      <c r="G1083" s="72"/>
+      <c r="H1083" s="73"/>
+      <c r="I1083" s="74"/>
+      <c r="J1083" s="75"/>
+      <c r="K1083" s="22"/>
+      <c r="L1083" s="23"/>
+      <c r="M1083" s="23"/>
+      <c r="N1083" s="23"/>
+      <c r="O1083" s="23"/>
+      <c r="P1083" s="23"/>
+      <c r="Q1083" s="23"/>
+      <c r="R1083" s="23"/>
+      <c r="S1083" s="23"/>
+      <c r="T1083" s="23"/>
+      <c r="U1083" s="23"/>
+      <c r="V1083" s="23"/>
+      <c r="W1083" s="23"/>
+      <c r="X1083" s="23"/>
+      <c r="Y1083" s="23"/>
+      <c r="Z1083" s="23"/>
+      <c r="AA1083" s="23"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="67"/>
+      <c r="B1084" s="40"/>
+      <c r="C1084" s="68"/>
+      <c r="D1084" s="69"/>
+      <c r="E1084" s="70"/>
+      <c r="F1084" s="71"/>
+      <c r="G1084" s="72"/>
+      <c r="H1084" s="73"/>
+      <c r="I1084" s="74"/>
+      <c r="J1084" s="75"/>
+      <c r="K1084" s="22"/>
+      <c r="L1084" s="23"/>
+      <c r="M1084" s="23"/>
+      <c r="N1084" s="23"/>
+      <c r="O1084" s="23"/>
+      <c r="P1084" s="23"/>
+      <c r="Q1084" s="23"/>
+      <c r="R1084" s="23"/>
+      <c r="S1084" s="23"/>
+      <c r="T1084" s="23"/>
+      <c r="U1084" s="23"/>
+      <c r="V1084" s="23"/>
+      <c r="W1084" s="23"/>
+      <c r="X1084" s="23"/>
+      <c r="Y1084" s="23"/>
+      <c r="Z1084" s="23"/>
+      <c r="AA1084" s="23"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="67"/>
+      <c r="B1085" s="40"/>
+      <c r="C1085" s="68"/>
+      <c r="D1085" s="69"/>
+      <c r="E1085" s="70"/>
+      <c r="F1085" s="71"/>
+      <c r="G1085" s="72"/>
+      <c r="H1085" s="73"/>
+      <c r="I1085" s="74"/>
+      <c r="J1085" s="75"/>
+      <c r="K1085" s="22"/>
+      <c r="L1085" s="23"/>
+      <c r="M1085" s="23"/>
+      <c r="N1085" s="23"/>
+      <c r="O1085" s="23"/>
+      <c r="P1085" s="23"/>
+      <c r="Q1085" s="23"/>
+      <c r="R1085" s="23"/>
+      <c r="S1085" s="23"/>
+      <c r="T1085" s="23"/>
+      <c r="U1085" s="23"/>
+      <c r="V1085" s="23"/>
+      <c r="W1085" s="23"/>
+      <c r="X1085" s="23"/>
+      <c r="Y1085" s="23"/>
+      <c r="Z1085" s="23"/>
+      <c r="AA1085" s="23"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="67"/>
+      <c r="B1086" s="40"/>
+      <c r="C1086" s="68"/>
+      <c r="D1086" s="69"/>
+      <c r="E1086" s="70"/>
+      <c r="F1086" s="71"/>
+      <c r="G1086" s="72"/>
+      <c r="H1086" s="73"/>
+      <c r="I1086" s="74"/>
+      <c r="J1086" s="75"/>
+      <c r="K1086" s="22"/>
+      <c r="L1086" s="23"/>
+      <c r="M1086" s="23"/>
+      <c r="N1086" s="23"/>
+      <c r="O1086" s="23"/>
+      <c r="P1086" s="23"/>
+      <c r="Q1086" s="23"/>
+      <c r="R1086" s="23"/>
+      <c r="S1086" s="23"/>
+      <c r="T1086" s="23"/>
+      <c r="U1086" s="23"/>
+      <c r="V1086" s="23"/>
+      <c r="W1086" s="23"/>
+      <c r="X1086" s="23"/>
+      <c r="Y1086" s="23"/>
+      <c r="Z1086" s="23"/>
+      <c r="AA1086" s="23"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="67"/>
+      <c r="B1087" s="40"/>
+      <c r="C1087" s="68"/>
+      <c r="D1087" s="69"/>
+      <c r="E1087" s="70"/>
+      <c r="F1087" s="71"/>
+      <c r="G1087" s="72"/>
+      <c r="H1087" s="73"/>
+      <c r="I1087" s="74"/>
+      <c r="J1087" s="75"/>
+      <c r="K1087" s="22"/>
+      <c r="L1087" s="23"/>
+      <c r="M1087" s="23"/>
+      <c r="N1087" s="23"/>
+      <c r="O1087" s="23"/>
+      <c r="P1087" s="23"/>
+      <c r="Q1087" s="23"/>
+      <c r="R1087" s="23"/>
+      <c r="S1087" s="23"/>
+      <c r="T1087" s="23"/>
+      <c r="U1087" s="23"/>
+      <c r="V1087" s="23"/>
+      <c r="W1087" s="23"/>
+      <c r="X1087" s="23"/>
+      <c r="Y1087" s="23"/>
+      <c r="Z1087" s="23"/>
+      <c r="AA1087" s="23"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="67"/>
+      <c r="B1088" s="40"/>
+      <c r="C1088" s="68"/>
+      <c r="D1088" s="69"/>
+      <c r="E1088" s="70"/>
+      <c r="F1088" s="71"/>
+      <c r="G1088" s="72"/>
+      <c r="H1088" s="73"/>
+      <c r="I1088" s="74"/>
+      <c r="J1088" s="75"/>
+      <c r="K1088" s="22"/>
+      <c r="L1088" s="23"/>
+      <c r="M1088" s="23"/>
+      <c r="N1088" s="23"/>
+      <c r="O1088" s="23"/>
+      <c r="P1088" s="23"/>
+      <c r="Q1088" s="23"/>
+      <c r="R1088" s="23"/>
+      <c r="S1088" s="23"/>
+      <c r="T1088" s="23"/>
+      <c r="U1088" s="23"/>
+      <c r="V1088" s="23"/>
+      <c r="W1088" s="23"/>
+      <c r="X1088" s="23"/>
+      <c r="Y1088" s="23"/>
+      <c r="Z1088" s="23"/>
+      <c r="AA1088" s="23"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="67"/>
+      <c r="B1089" s="40"/>
+      <c r="C1089" s="68"/>
+      <c r="D1089" s="69"/>
+      <c r="E1089" s="70"/>
+      <c r="F1089" s="71"/>
+      <c r="G1089" s="72"/>
+      <c r="H1089" s="73"/>
+      <c r="I1089" s="74"/>
+      <c r="J1089" s="75"/>
+      <c r="K1089" s="22"/>
+      <c r="L1089" s="23"/>
+      <c r="M1089" s="23"/>
+      <c r="N1089" s="23"/>
+      <c r="O1089" s="23"/>
+      <c r="P1089" s="23"/>
+      <c r="Q1089" s="23"/>
+      <c r="R1089" s="23"/>
+      <c r="S1089" s="23"/>
+      <c r="T1089" s="23"/>
+      <c r="U1089" s="23"/>
+      <c r="V1089" s="23"/>
+      <c r="W1089" s="23"/>
+      <c r="X1089" s="23"/>
+      <c r="Y1089" s="23"/>
+      <c r="Z1089" s="23"/>
+      <c r="AA1089" s="23"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="67"/>
+      <c r="B1090" s="40"/>
+      <c r="C1090" s="68"/>
+      <c r="D1090" s="69"/>
+      <c r="E1090" s="70"/>
+      <c r="F1090" s="71"/>
+      <c r="G1090" s="72"/>
+      <c r="H1090" s="73"/>
+      <c r="I1090" s="74"/>
+      <c r="J1090" s="75"/>
+      <c r="K1090" s="22"/>
+      <c r="L1090" s="23"/>
+      <c r="M1090" s="23"/>
+      <c r="N1090" s="23"/>
+      <c r="O1090" s="23"/>
+      <c r="P1090" s="23"/>
+      <c r="Q1090" s="23"/>
+      <c r="R1090" s="23"/>
+      <c r="S1090" s="23"/>
+      <c r="T1090" s="23"/>
+      <c r="U1090" s="23"/>
+      <c r="V1090" s="23"/>
+      <c r="W1090" s="23"/>
+      <c r="X1090" s="23"/>
+      <c r="Y1090" s="23"/>
+      <c r="Z1090" s="23"/>
+      <c r="AA1090" s="23"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="67"/>
+      <c r="B1091" s="40"/>
+      <c r="C1091" s="68"/>
+      <c r="D1091" s="69"/>
+      <c r="E1091" s="70"/>
+      <c r="F1091" s="71"/>
+      <c r="G1091" s="72"/>
+      <c r="H1091" s="73"/>
+      <c r="I1091" s="74"/>
+      <c r="J1091" s="75"/>
+      <c r="K1091" s="22"/>
+      <c r="L1091" s="23"/>
+      <c r="M1091" s="23"/>
+      <c r="N1091" s="23"/>
+      <c r="O1091" s="23"/>
+      <c r="P1091" s="23"/>
+      <c r="Q1091" s="23"/>
+      <c r="R1091" s="23"/>
+      <c r="S1091" s="23"/>
+      <c r="T1091" s="23"/>
+      <c r="U1091" s="23"/>
+      <c r="V1091" s="23"/>
+      <c r="W1091" s="23"/>
+      <c r="X1091" s="23"/>
+      <c r="Y1091" s="23"/>
+      <c r="Z1091" s="23"/>
+      <c r="AA1091" s="23"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="67"/>
+      <c r="B1092" s="40"/>
+      <c r="C1092" s="68"/>
+      <c r="D1092" s="69"/>
+      <c r="E1092" s="70"/>
+      <c r="F1092" s="71"/>
+      <c r="G1092" s="72"/>
+      <c r="H1092" s="73"/>
+      <c r="I1092" s="74"/>
+      <c r="J1092" s="75"/>
+      <c r="K1092" s="22"/>
+      <c r="L1092" s="23"/>
+      <c r="M1092" s="23"/>
+      <c r="N1092" s="23"/>
+      <c r="O1092" s="23"/>
+      <c r="P1092" s="23"/>
+      <c r="Q1092" s="23"/>
+      <c r="R1092" s="23"/>
+      <c r="S1092" s="23"/>
+      <c r="T1092" s="23"/>
+      <c r="U1092" s="23"/>
+      <c r="V1092" s="23"/>
+      <c r="W1092" s="23"/>
+      <c r="X1092" s="23"/>
+      <c r="Y1092" s="23"/>
+      <c r="Z1092" s="23"/>
+      <c r="AA1092" s="23"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="67"/>
+      <c r="B1093" s="40"/>
+      <c r="C1093" s="68"/>
+      <c r="D1093" s="69"/>
+      <c r="E1093" s="70"/>
+      <c r="F1093" s="71"/>
+      <c r="G1093" s="72"/>
+      <c r="H1093" s="73"/>
+      <c r="I1093" s="74"/>
+      <c r="J1093" s="75"/>
+      <c r="K1093" s="22"/>
+      <c r="L1093" s="23"/>
+      <c r="M1093" s="23"/>
+      <c r="N1093" s="23"/>
+      <c r="O1093" s="23"/>
+      <c r="P1093" s="23"/>
+      <c r="Q1093" s="23"/>
+      <c r="R1093" s="23"/>
+      <c r="S1093" s="23"/>
+      <c r="T1093" s="23"/>
+      <c r="U1093" s="23"/>
+      <c r="V1093" s="23"/>
+      <c r="W1093" s="23"/>
+      <c r="X1093" s="23"/>
+      <c r="Y1093" s="23"/>
+      <c r="Z1093" s="23"/>
+      <c r="AA1093" s="23"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="67"/>
+      <c r="B1094" s="40"/>
+      <c r="C1094" s="68"/>
+      <c r="D1094" s="69"/>
+      <c r="E1094" s="70"/>
+      <c r="F1094" s="71"/>
+      <c r="G1094" s="72"/>
+      <c r="H1094" s="73"/>
+      <c r="I1094" s="74"/>
+      <c r="J1094" s="75"/>
+      <c r="K1094" s="22"/>
+      <c r="L1094" s="23"/>
+      <c r="M1094" s="23"/>
+      <c r="N1094" s="23"/>
+      <c r="O1094" s="23"/>
+      <c r="P1094" s="23"/>
+      <c r="Q1094" s="23"/>
+      <c r="R1094" s="23"/>
+      <c r="S1094" s="23"/>
+      <c r="T1094" s="23"/>
+      <c r="U1094" s="23"/>
+      <c r="V1094" s="23"/>
+      <c r="W1094" s="23"/>
+      <c r="X1094" s="23"/>
+      <c r="Y1094" s="23"/>
+      <c r="Z1094" s="23"/>
+      <c r="AA1094" s="23"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="67"/>
+      <c r="B1095" s="40"/>
+      <c r="C1095" s="68"/>
+      <c r="D1095" s="69"/>
+      <c r="E1095" s="70"/>
+      <c r="F1095" s="71"/>
+      <c r="G1095" s="72"/>
+      <c r="H1095" s="73"/>
+      <c r="I1095" s="74"/>
+      <c r="J1095" s="75"/>
+      <c r="K1095" s="22"/>
+      <c r="L1095" s="23"/>
+      <c r="M1095" s="23"/>
+      <c r="N1095" s="23"/>
+      <c r="O1095" s="23"/>
+      <c r="P1095" s="23"/>
+      <c r="Q1095" s="23"/>
+      <c r="R1095" s="23"/>
+      <c r="S1095" s="23"/>
+      <c r="T1095" s="23"/>
+      <c r="U1095" s="23"/>
+      <c r="V1095" s="23"/>
+      <c r="W1095" s="23"/>
+      <c r="X1095" s="23"/>
+      <c r="Y1095" s="23"/>
+      <c r="Z1095" s="23"/>
+      <c r="AA1095" s="23"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="67"/>
+      <c r="B1096" s="40"/>
+      <c r="C1096" s="68"/>
+      <c r="D1096" s="69"/>
+      <c r="E1096" s="70"/>
+      <c r="F1096" s="71"/>
+      <c r="G1096" s="72"/>
+      <c r="H1096" s="73"/>
+      <c r="I1096" s="74"/>
+      <c r="J1096" s="75"/>
+      <c r="K1096" s="22"/>
+      <c r="L1096" s="23"/>
+      <c r="M1096" s="23"/>
+      <c r="N1096" s="23"/>
+      <c r="O1096" s="23"/>
+      <c r="P1096" s="23"/>
+      <c r="Q1096" s="23"/>
+      <c r="R1096" s="23"/>
+      <c r="S1096" s="23"/>
+      <c r="T1096" s="23"/>
+      <c r="U1096" s="23"/>
+      <c r="V1096" s="23"/>
+      <c r="W1096" s="23"/>
+      <c r="X1096" s="23"/>
+      <c r="Y1096" s="23"/>
+      <c r="Z1096" s="23"/>
+      <c r="AA1096" s="23"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="67"/>
+      <c r="B1097" s="40"/>
+      <c r="C1097" s="68"/>
+      <c r="D1097" s="69"/>
+      <c r="E1097" s="70"/>
+      <c r="F1097" s="71"/>
+      <c r="G1097" s="72"/>
+      <c r="H1097" s="73"/>
+      <c r="I1097" s="74"/>
+      <c r="J1097" s="75"/>
+      <c r="K1097" s="22"/>
+      <c r="L1097" s="23"/>
+      <c r="M1097" s="23"/>
+      <c r="N1097" s="23"/>
+      <c r="O1097" s="23"/>
+      <c r="P1097" s="23"/>
+      <c r="Q1097" s="23"/>
+      <c r="R1097" s="23"/>
+      <c r="S1097" s="23"/>
+      <c r="T1097" s="23"/>
+      <c r="U1097" s="23"/>
+      <c r="V1097" s="23"/>
+      <c r="W1097" s="23"/>
+      <c r="X1097" s="23"/>
+      <c r="Y1097" s="23"/>
+      <c r="Z1097" s="23"/>
+      <c r="AA1097" s="23"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="67"/>
+      <c r="B1098" s="40"/>
+      <c r="C1098" s="68"/>
+      <c r="D1098" s="69"/>
+      <c r="E1098" s="70"/>
+      <c r="F1098" s="71"/>
+      <c r="G1098" s="72"/>
+      <c r="H1098" s="73"/>
+      <c r="I1098" s="74"/>
+      <c r="J1098" s="75"/>
+      <c r="K1098" s="22"/>
+      <c r="L1098" s="23"/>
+      <c r="M1098" s="23"/>
+      <c r="N1098" s="23"/>
+      <c r="O1098" s="23"/>
+      <c r="P1098" s="23"/>
+      <c r="Q1098" s="23"/>
+      <c r="R1098" s="23"/>
+      <c r="S1098" s="23"/>
+      <c r="T1098" s="23"/>
+      <c r="U1098" s="23"/>
+      <c r="V1098" s="23"/>
+      <c r="W1098" s="23"/>
+      <c r="X1098" s="23"/>
+      <c r="Y1098" s="23"/>
+      <c r="Z1098" s="23"/>
+      <c r="AA1098" s="23"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="67"/>
+      <c r="B1099" s="40"/>
+      <c r="C1099" s="68"/>
+      <c r="D1099" s="69"/>
+      <c r="E1099" s="70"/>
+      <c r="F1099" s="71"/>
+      <c r="G1099" s="72"/>
+      <c r="H1099" s="73"/>
+      <c r="I1099" s="74"/>
+      <c r="J1099" s="75"/>
+      <c r="K1099" s="22"/>
+      <c r="L1099" s="23"/>
+      <c r="M1099" s="23"/>
+      <c r="N1099" s="23"/>
+      <c r="O1099" s="23"/>
+      <c r="P1099" s="23"/>
+      <c r="Q1099" s="23"/>
+      <c r="R1099" s="23"/>
+      <c r="S1099" s="23"/>
+      <c r="T1099" s="23"/>
+      <c r="U1099" s="23"/>
+      <c r="V1099" s="23"/>
+      <c r="W1099" s="23"/>
+      <c r="X1099" s="23"/>
+      <c r="Y1099" s="23"/>
+      <c r="Z1099" s="23"/>
+      <c r="AA1099" s="23"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="67"/>
+      <c r="B1100" s="40"/>
+      <c r="C1100" s="68"/>
+      <c r="D1100" s="69"/>
+      <c r="E1100" s="70"/>
+      <c r="F1100" s="71"/>
+      <c r="G1100" s="72"/>
+      <c r="H1100" s="73"/>
+      <c r="I1100" s="74"/>
+      <c r="J1100" s="75"/>
+      <c r="K1100" s="22"/>
+      <c r="L1100" s="23"/>
+      <c r="M1100" s="23"/>
+      <c r="N1100" s="23"/>
+      <c r="O1100" s="23"/>
+      <c r="P1100" s="23"/>
+      <c r="Q1100" s="23"/>
+      <c r="R1100" s="23"/>
+      <c r="S1100" s="23"/>
+      <c r="T1100" s="23"/>
+      <c r="U1100" s="23"/>
+      <c r="V1100" s="23"/>
+      <c r="W1100" s="23"/>
+      <c r="X1100" s="23"/>
+      <c r="Y1100" s="23"/>
+      <c r="Z1100" s="23"/>
+      <c r="AA1100" s="23"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="67"/>
+      <c r="B1101" s="40"/>
+      <c r="C1101" s="68"/>
+      <c r="D1101" s="69"/>
+      <c r="E1101" s="70"/>
+      <c r="F1101" s="71"/>
+      <c r="G1101" s="72"/>
+      <c r="H1101" s="73"/>
+      <c r="I1101" s="74"/>
+      <c r="J1101" s="75"/>
+      <c r="K1101" s="22"/>
+      <c r="L1101" s="23"/>
+      <c r="M1101" s="23"/>
+      <c r="N1101" s="23"/>
+      <c r="O1101" s="23"/>
+      <c r="P1101" s="23"/>
+      <c r="Q1101" s="23"/>
+      <c r="R1101" s="23"/>
+      <c r="S1101" s="23"/>
+      <c r="T1101" s="23"/>
+      <c r="U1101" s="23"/>
+      <c r="V1101" s="23"/>
+      <c r="W1101" s="23"/>
+      <c r="X1101" s="23"/>
+      <c r="Y1101" s="23"/>
+      <c r="Z1101" s="23"/>
+      <c r="AA1101" s="23"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="67"/>
+      <c r="B1102" s="40"/>
+      <c r="C1102" s="68"/>
+      <c r="D1102" s="69"/>
+      <c r="E1102" s="70"/>
+      <c r="F1102" s="71"/>
+      <c r="G1102" s="72"/>
+      <c r="H1102" s="73"/>
+      <c r="I1102" s="74"/>
+      <c r="J1102" s="75"/>
+      <c r="K1102" s="22"/>
+      <c r="L1102" s="23"/>
+      <c r="M1102" s="23"/>
+      <c r="N1102" s="23"/>
+      <c r="O1102" s="23"/>
+      <c r="P1102" s="23"/>
+      <c r="Q1102" s="23"/>
+      <c r="R1102" s="23"/>
+      <c r="S1102" s="23"/>
+      <c r="T1102" s="23"/>
+      <c r="U1102" s="23"/>
+      <c r="V1102" s="23"/>
+      <c r="W1102" s="23"/>
+      <c r="X1102" s="23"/>
+      <c r="Y1102" s="23"/>
+      <c r="Z1102" s="23"/>
+      <c r="AA1102" s="23"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="67"/>
+      <c r="B1103" s="40"/>
+      <c r="C1103" s="68"/>
+      <c r="D1103" s="69"/>
+      <c r="E1103" s="70"/>
+      <c r="F1103" s="71"/>
+      <c r="G1103" s="72"/>
+      <c r="H1103" s="73"/>
+      <c r="I1103" s="74"/>
+      <c r="J1103" s="75"/>
+      <c r="K1103" s="22"/>
+      <c r="L1103" s="23"/>
+      <c r="M1103" s="23"/>
+      <c r="N1103" s="23"/>
+      <c r="O1103" s="23"/>
+      <c r="P1103" s="23"/>
+      <c r="Q1103" s="23"/>
+      <c r="R1103" s="23"/>
+      <c r="S1103" s="23"/>
+      <c r="T1103" s="23"/>
+      <c r="U1103" s="23"/>
+      <c r="V1103" s="23"/>
+      <c r="W1103" s="23"/>
+      <c r="X1103" s="23"/>
+      <c r="Y1103" s="23"/>
+      <c r="Z1103" s="23"/>
+      <c r="AA1103" s="23"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="67"/>
+      <c r="B1104" s="40"/>
+      <c r="C1104" s="68"/>
+      <c r="D1104" s="69"/>
+      <c r="E1104" s="70"/>
+      <c r="F1104" s="71"/>
+      <c r="G1104" s="72"/>
+      <c r="H1104" s="73"/>
+      <c r="I1104" s="74"/>
+      <c r="J1104" s="75"/>
+      <c r="K1104" s="22"/>
+      <c r="L1104" s="23"/>
+      <c r="M1104" s="23"/>
+      <c r="N1104" s="23"/>
+      <c r="O1104" s="23"/>
+      <c r="P1104" s="23"/>
+      <c r="Q1104" s="23"/>
+      <c r="R1104" s="23"/>
+      <c r="S1104" s="23"/>
+      <c r="T1104" s="23"/>
+      <c r="U1104" s="23"/>
+      <c r="V1104" s="23"/>
+      <c r="W1104" s="23"/>
+      <c r="X1104" s="23"/>
+      <c r="Y1104" s="23"/>
+      <c r="Z1104" s="23"/>
+      <c r="AA1104" s="23"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="67"/>
+      <c r="B1105" s="40"/>
+      <c r="C1105" s="68"/>
+      <c r="D1105" s="69"/>
+      <c r="E1105" s="70"/>
+      <c r="F1105" s="71"/>
+      <c r="G1105" s="72"/>
+      <c r="H1105" s="73"/>
+      <c r="I1105" s="74"/>
+      <c r="J1105" s="75"/>
+      <c r="K1105" s="22"/>
+      <c r="L1105" s="23"/>
+      <c r="M1105" s="23"/>
+      <c r="N1105" s="23"/>
+      <c r="O1105" s="23"/>
+      <c r="P1105" s="23"/>
+      <c r="Q1105" s="23"/>
+      <c r="R1105" s="23"/>
+      <c r="S1105" s="23"/>
+      <c r="T1105" s="23"/>
+      <c r="U1105" s="23"/>
+      <c r="V1105" s="23"/>
+      <c r="W1105" s="23"/>
+      <c r="X1105" s="23"/>
+      <c r="Y1105" s="23"/>
+      <c r="Z1105" s="23"/>
+      <c r="AA1105" s="23"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="67"/>
+      <c r="B1106" s="40"/>
+      <c r="C1106" s="68"/>
+      <c r="D1106" s="69"/>
+      <c r="E1106" s="70"/>
+      <c r="F1106" s="71"/>
+      <c r="G1106" s="72"/>
+      <c r="H1106" s="73"/>
+      <c r="I1106" s="74"/>
+      <c r="J1106" s="75"/>
+      <c r="K1106" s="22"/>
+      <c r="L1106" s="23"/>
+      <c r="M1106" s="23"/>
+      <c r="N1106" s="23"/>
+      <c r="O1106" s="23"/>
+      <c r="P1106" s="23"/>
+      <c r="Q1106" s="23"/>
+      <c r="R1106" s="23"/>
+      <c r="S1106" s="23"/>
+      <c r="T1106" s="23"/>
+      <c r="U1106" s="23"/>
+      <c r="V1106" s="23"/>
+      <c r="W1106" s="23"/>
+      <c r="X1106" s="23"/>
+      <c r="Y1106" s="23"/>
+      <c r="Z1106" s="23"/>
+      <c r="AA1106" s="23"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1352">
   <si>
     <t>Number</t>
   </si>
@@ -7386,6 +7386,325 @@
   </si>
   <si>
     <t>توضیح - شرح</t>
+  </si>
+  <si>
+    <t>design (n. v.)</t>
+  </si>
+  <si>
+    <t>desk (n.)</t>
+  </si>
+  <si>
+    <t>detail (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">dialogue (n.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">dialog (n.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>AM</t>
+    </r>
+  </si>
+  <si>
+    <t>dictionary (n.)</t>
+  </si>
+  <si>
+    <t>die (v.)</t>
+  </si>
+  <si>
+    <t>diet (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>the food and drink usually eaten or drunk by a person or group:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Diet varies between different countries in the world.
+healthy diet The benefits of a healthy diet are obvious.
+varied diet Choose a varied diet rich in whole grains, vegetables, and fruits, and low in saturated fats.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>an eating plan in which someone eats less food, or only particular types of food, because they want to become thinner or for medical reasons:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+go on a diet I'm going on a diet next week and hope to lose ten pounds before Christmas.</t>
+    </r>
+  </si>
+  <si>
+    <t>difference (n.)</t>
+  </si>
+  <si>
+    <t>تفاوت</t>
+  </si>
+  <si>
+    <t>difficult (adj.)</t>
+  </si>
+  <si>
+    <t>dinner (n.)</t>
+  </si>
+  <si>
+    <t>dirty (n.)</t>
+  </si>
+  <si>
+    <t>discuss (v.)</t>
+  </si>
+  <si>
+    <t>dish (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">do </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(auxiliary verb)
+(FOR QUESTIONS/NEGATIVES) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>used with another verb to form questions and negative sentences, including negative orders, and sometimes in affirmative sentences for reasons of style:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Where do you work?
+Why did you do that?
+Why don't we have lunch together on Friday?
+Doesn't Matthew look old these days?
+"Didn't you realize she was deaf?" "No I didn't."/"Of course I did."
+Not only did I speak to her, I even got her autograph!
+formal Never did I hear such a terrible noise.
+Don't (you) speak to me like that!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">A2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>used instead of the main verb in questions that are added to the end of a sentence to check information:
+You met him at our party, didn't you?
+You don't understand the question, do you?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">do </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(auxiliary verb)
+(FOR QUESTIONS/NEGATIVES) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>used instead of the main verb in questions that are added to the end of a sentence to check information:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+You met him at our party, didn't you?
+You don't understand the question, do you?</t>
+    </r>
+  </si>
+  <si>
+    <t>intense (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>extreme and forceful or (of a feeling) very strong:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+intense cold/heat/hatred
+an intense flavour/colour
+He suddenly felt an intense pain in his back.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">do </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>(auxiliary verb)
+(TO AVOID REPEATING)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>used to avoid repeating a verb or verb phrase:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+She runs much faster than he does.
+Maria looks much healthier than she did.
+"I don't like intense heat." "Neither/Nor do I."
+"I hate intense heat." "So do I."
+"You left your umbrella." "So I did. I'm so forgetful these days."
+UK "Would you mind tidying up the kitchen?" "I already have done."
+"May I join you?" "Please do!"</t>
+    </r>
+  </si>
+  <si>
+    <t>doctor (n.)</t>
+  </si>
+  <si>
+    <t>dog (n.)</t>
+  </si>
+  <si>
+    <t>dollar (n.)</t>
+  </si>
+  <si>
+    <t>door (n.)</t>
+  </si>
+  <si>
+    <t>down (adv. prep.)</t>
+  </si>
+  <si>
+    <t>پایین - زیر - به طرف پایین</t>
   </si>
 </sst>
 </file>
@@ -34015,7 +34334,9 @@
       <c r="B749" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C749" s="73"/>
+      <c r="C749" s="66" t="s">
+        <v>1323</v>
+      </c>
       <c r="D749" s="71"/>
       <c r="E749" s="43"/>
       <c r="F749" s="17"/>
@@ -34043,8 +34364,12 @@
     </row>
     <row r="750">
       <c r="A750" s="12"/>
-      <c r="B750" s="40"/>
-      <c r="C750" s="73"/>
+      <c r="B750" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C750" s="66" t="s">
+        <v>1324</v>
+      </c>
       <c r="D750" s="71"/>
       <c r="E750" s="43"/>
       <c r="F750" s="17"/>
@@ -34072,8 +34397,12 @@
     </row>
     <row r="751">
       <c r="A751" s="12"/>
-      <c r="B751" s="40"/>
-      <c r="C751" s="73"/>
+      <c r="B751" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C751" s="66" t="s">
+        <v>1325</v>
+      </c>
       <c r="D751" s="71"/>
       <c r="E751" s="43"/>
       <c r="F751" s="17"/>
@@ -34101,8 +34430,12 @@
     </row>
     <row r="752">
       <c r="A752" s="12"/>
-      <c r="B752" s="40"/>
-      <c r="C752" s="73"/>
+      <c r="B752" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C752" s="66" t="s">
+        <v>1326</v>
+      </c>
       <c r="D752" s="71"/>
       <c r="E752" s="43"/>
       <c r="F752" s="17"/>
@@ -34130,8 +34463,12 @@
     </row>
     <row r="753">
       <c r="A753" s="12"/>
-      <c r="B753" s="40"/>
-      <c r="C753" s="73"/>
+      <c r="B753" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C753" s="66" t="s">
+        <v>1327</v>
+      </c>
       <c r="D753" s="71"/>
       <c r="E753" s="43"/>
       <c r="F753" s="17"/>
@@ -34159,8 +34496,12 @@
     </row>
     <row r="754">
       <c r="A754" s="12"/>
-      <c r="B754" s="40"/>
-      <c r="C754" s="73"/>
+      <c r="B754" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C754" s="66" t="s">
+        <v>1328</v>
+      </c>
       <c r="D754" s="71"/>
       <c r="E754" s="43"/>
       <c r="F754" s="17"/>
@@ -34188,9 +34529,15 @@
     </row>
     <row r="755">
       <c r="A755" s="12"/>
-      <c r="B755" s="40"/>
-      <c r="C755" s="73"/>
-      <c r="D755" s="71"/>
+      <c r="B755" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C755" s="66" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D755" s="65" t="s">
+        <v>1330</v>
+      </c>
       <c r="E755" s="43"/>
       <c r="F755" s="17"/>
       <c r="G755" s="18"/>
@@ -34217,10 +34564,16 @@
     </row>
     <row r="756">
       <c r="A756" s="12"/>
-      <c r="B756" s="40"/>
-      <c r="C756" s="73"/>
+      <c r="B756" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C756" s="66" t="s">
+        <v>1331</v>
+      </c>
       <c r="D756" s="71"/>
-      <c r="E756" s="43"/>
+      <c r="E756" s="48" t="s">
+        <v>1332</v>
+      </c>
       <c r="F756" s="17"/>
       <c r="G756" s="18"/>
       <c r="H756" s="19"/>
@@ -34246,8 +34599,12 @@
     </row>
     <row r="757">
       <c r="A757" s="12"/>
-      <c r="B757" s="40"/>
-      <c r="C757" s="73"/>
+      <c r="B757" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C757" s="66" t="s">
+        <v>1333</v>
+      </c>
       <c r="D757" s="71"/>
       <c r="E757" s="43"/>
       <c r="F757" s="17"/>
@@ -34275,8 +34632,12 @@
     </row>
     <row r="758">
       <c r="A758" s="12"/>
-      <c r="B758" s="40"/>
-      <c r="C758" s="73"/>
+      <c r="B758" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C758" s="66" t="s">
+        <v>1334</v>
+      </c>
       <c r="D758" s="71"/>
       <c r="E758" s="43"/>
       <c r="F758" s="17"/>
@@ -34304,8 +34665,12 @@
     </row>
     <row r="759">
       <c r="A759" s="12"/>
-      <c r="B759" s="40"/>
-      <c r="C759" s="73"/>
+      <c r="B759" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C759" s="66" t="s">
+        <v>1335</v>
+      </c>
       <c r="D759" s="71"/>
       <c r="E759" s="43"/>
       <c r="F759" s="17"/>
@@ -34333,8 +34698,12 @@
     </row>
     <row r="760">
       <c r="A760" s="12"/>
-      <c r="B760" s="40"/>
-      <c r="C760" s="73"/>
+      <c r="B760" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C760" s="66" t="s">
+        <v>1336</v>
+      </c>
       <c r="D760" s="71"/>
       <c r="E760" s="43"/>
       <c r="F760" s="17"/>
@@ -34362,8 +34731,12 @@
     </row>
     <row r="761">
       <c r="A761" s="12"/>
-      <c r="B761" s="40"/>
-      <c r="C761" s="73"/>
+      <c r="B761" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C761" s="66" t="s">
+        <v>1337</v>
+      </c>
       <c r="D761" s="71"/>
       <c r="E761" s="43"/>
       <c r="F761" s="17"/>
@@ -34391,9 +34764,15 @@
     </row>
     <row r="762">
       <c r="A762" s="12"/>
-      <c r="B762" s="40"/>
-      <c r="C762" s="73"/>
-      <c r="D762" s="71"/>
+      <c r="B762" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C762" s="66" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D762" s="65" t="s">
+        <v>1339</v>
+      </c>
       <c r="E762" s="43"/>
       <c r="F762" s="17"/>
       <c r="G762" s="18"/>
@@ -34420,9 +34799,15 @@
     </row>
     <row r="763">
       <c r="A763" s="12"/>
-      <c r="B763" s="40"/>
-      <c r="C763" s="73"/>
-      <c r="D763" s="71"/>
+      <c r="B763" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C763" s="66" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D763" s="65" t="s">
+        <v>1341</v>
+      </c>
       <c r="E763" s="43"/>
       <c r="F763" s="17"/>
       <c r="G763" s="18"/>
@@ -34449,9 +34834,15 @@
     </row>
     <row r="764">
       <c r="A764" s="12"/>
-      <c r="B764" s="40"/>
-      <c r="C764" s="73"/>
-      <c r="D764" s="71"/>
+      <c r="B764" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="C764" s="66" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D764" s="65" t="s">
+        <v>1343</v>
+      </c>
       <c r="E764" s="43"/>
       <c r="F764" s="17"/>
       <c r="G764" s="18"/>
@@ -34478,9 +34869,15 @@
     </row>
     <row r="765">
       <c r="A765" s="12"/>
-      <c r="B765" s="40"/>
-      <c r="C765" s="73"/>
-      <c r="D765" s="71"/>
+      <c r="B765" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C765" s="66" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D765" s="65" t="s">
+        <v>1345</v>
+      </c>
       <c r="E765" s="43"/>
       <c r="F765" s="17"/>
       <c r="G765" s="18"/>
@@ -34507,8 +34904,12 @@
     </row>
     <row r="766">
       <c r="A766" s="12"/>
-      <c r="B766" s="40"/>
-      <c r="C766" s="73"/>
+      <c r="B766" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C766" s="66" t="s">
+        <v>1346</v>
+      </c>
       <c r="D766" s="71"/>
       <c r="E766" s="43"/>
       <c r="F766" s="17"/>
@@ -34536,8 +34937,12 @@
     </row>
     <row r="767">
       <c r="A767" s="12"/>
-      <c r="B767" s="40"/>
-      <c r="C767" s="73"/>
+      <c r="B767" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C767" s="66" t="s">
+        <v>1347</v>
+      </c>
       <c r="D767" s="71"/>
       <c r="E767" s="43"/>
       <c r="F767" s="17"/>
@@ -34565,8 +34970,12 @@
     </row>
     <row r="768">
       <c r="A768" s="12"/>
-      <c r="B768" s="40"/>
-      <c r="C768" s="73"/>
+      <c r="B768" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C768" s="66" t="s">
+        <v>1348</v>
+      </c>
       <c r="D768" s="71"/>
       <c r="E768" s="43"/>
       <c r="F768" s="17"/>
@@ -34594,8 +35003,12 @@
     </row>
     <row r="769">
       <c r="A769" s="12"/>
-      <c r="B769" s="40"/>
-      <c r="C769" s="73"/>
+      <c r="B769" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C769" s="66" t="s">
+        <v>1349</v>
+      </c>
       <c r="D769" s="71"/>
       <c r="E769" s="43"/>
       <c r="F769" s="17"/>
@@ -34623,10 +35036,16 @@
     </row>
     <row r="770">
       <c r="A770" s="12"/>
-      <c r="B770" s="40"/>
-      <c r="C770" s="73"/>
+      <c r="B770" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C770" s="66" t="s">
+        <v>1350</v>
+      </c>
       <c r="D770" s="71"/>
-      <c r="E770" s="43"/>
+      <c r="E770" s="48" t="s">
+        <v>1351</v>
+      </c>
       <c r="F770" s="17"/>
       <c r="G770" s="18"/>
       <c r="H770" s="19"/>
@@ -34652,7 +35071,9 @@
     </row>
     <row r="771">
       <c r="A771" s="12"/>
-      <c r="B771" s="40"/>
+      <c r="B771" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="C771" s="73"/>
       <c r="D771" s="71"/>
       <c r="E771" s="43"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="1626">
   <si>
     <t>Number</t>
   </si>
@@ -8133,6 +8133,1444 @@
 The kiwi can detect other birds and animals on its territory and will readily attack them with its claws.
 In the wild, only one in 20 kiwi chicks survives its first year.</t>
     </r>
+  </si>
+  <si>
+    <t>preside (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>to be in charge of a formal meeting, ceremony, or trial:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Who would be the best person to preside at/over the public enquiry?
+Judge Langdale is to preside over the official enquiry into the case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">inquiry (n.) / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>UK enquiry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>(the process of asking) a question:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+make an inquiry about/into I've been making inquiries about/into the cost of a round-the-world ticket.
+inquiry into formal Inquiry into the matter is pointless - no one will tell you anything.</t>
+    </r>
+  </si>
+  <si>
+    <t>ceremonial (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">related to, used in, or involving a ceremony (= a fixed set of formal acts performed on important social or religious occasions): 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A Marine honour guard flanks the president during ceremonial events at the White House.
+The men were dressed in ceremonial black robes.</t>
+    </r>
+  </si>
+  <si>
+    <t>final (adj.)</t>
+  </si>
+  <si>
+    <t>find (v.)</t>
+  </si>
+  <si>
+    <t>fine (adj.)</t>
+  </si>
+  <si>
+    <t>خوب</t>
+  </si>
+  <si>
+    <t>finish (v.)</t>
+  </si>
+  <si>
+    <t>fire (n.)</t>
+  </si>
+  <si>
+    <t>first (det. adv. number)</t>
+  </si>
+  <si>
+    <t>اولی - اولین - یکم</t>
+  </si>
+  <si>
+    <t>fish (n.)</t>
+  </si>
+  <si>
+    <t>five (number)</t>
+  </si>
+  <si>
+    <t>flight (n.)</t>
+  </si>
+  <si>
+    <t>floor (n.)</t>
+  </si>
+  <si>
+    <t>طبقه</t>
+  </si>
+  <si>
+    <t>flower (n.)</t>
+  </si>
+  <si>
+    <t>fly (v.)</t>
+  </si>
+  <si>
+    <t>follow (v.)</t>
+  </si>
+  <si>
+    <t>food (n.)</t>
+  </si>
+  <si>
+    <t>foot (n.)</t>
+  </si>
+  <si>
+    <t>پا</t>
+  </si>
+  <si>
+    <t>football (n.)</t>
+  </si>
+  <si>
+    <t>for (prep.)</t>
+  </si>
+  <si>
+    <t>forget (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">form (n.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> (DOCUMENT) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>a paper or set of papers printed with spaces in which answers to questions can be written or information can be recorded in an organized way:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+entry form Children are being asked to send in their entry forms (= documents used to enter a competition) by next week.
+application form You can get an application form for the dog licence on the website.
+fill in a form Please fill in the form with black ink.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">B2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>a type of something:
+form of Swimming is the best form of exercise.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">form (n.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> (TYPE)</t>
+    </r>
+  </si>
+  <si>
+    <t>a type of something:
+form of Swimming is the best form of exercise.</t>
+  </si>
+  <si>
+    <t>form (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>to begin to exist or to make something begin to exist:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A crowd formed around the accident.
+A solution began to form in her mind.</t>
+    </r>
+  </si>
+  <si>
+    <t>forty (number)</t>
+  </si>
+  <si>
+    <t>four (number)</t>
+  </si>
+  <si>
+    <t>fourteen (number)</t>
+  </si>
+  <si>
+    <t>fourth (number)</t>
+  </si>
+  <si>
+    <t>free (adj.)</t>
+  </si>
+  <si>
+    <t>friday (n.)</t>
+  </si>
+  <si>
+    <t>friend (n.)</t>
+  </si>
+  <si>
+    <t>friendly (adj.)</t>
+  </si>
+  <si>
+    <t>from (prep.)</t>
+  </si>
+  <si>
+    <t>fruit (n.)</t>
+  </si>
+  <si>
+    <t>میوه</t>
+  </si>
+  <si>
+    <t>full (adj.)</t>
+  </si>
+  <si>
+    <t>fun (n.)</t>
+  </si>
+  <si>
+    <t>تفریح - سرگرمی</t>
+  </si>
+  <si>
+    <t>funny (adj.)</t>
+  </si>
+  <si>
+    <t>بامزه - سرگرم‌کننده</t>
+  </si>
+  <si>
+    <t>future (n.)</t>
+  </si>
+  <si>
+    <t>game (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>garden (n.) UK /</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>yard (n.) AM</t>
+    </r>
+  </si>
+  <si>
+    <t>حیاط به انگلیسی و امریکای تفاوت دارد</t>
+  </si>
+  <si>
+    <t>garden (n.) AM</t>
+  </si>
+  <si>
+    <t>باغ به امریکایی</t>
+  </si>
+  <si>
+    <t>geography (n.)</t>
+  </si>
+  <si>
+    <t>جغرافیا</t>
+  </si>
+  <si>
+    <t>get (v.)</t>
+  </si>
+  <si>
+    <t>گرفتن</t>
+  </si>
+  <si>
+    <t>girl (n.)</t>
+  </si>
+  <si>
+    <t>girlfriend (n.)</t>
+  </si>
+  <si>
+    <t>give (v.)</t>
+  </si>
+  <si>
+    <t>glass (n.)</t>
+  </si>
+  <si>
+    <t>لیوان - شیشه</t>
+  </si>
+  <si>
+    <t>go (v.)</t>
+  </si>
+  <si>
+    <t>good (adj.)</t>
+  </si>
+  <si>
+    <t>goodbye (n. exclam.)</t>
+  </si>
+  <si>
+    <t>grandfather (n.)</t>
+  </si>
+  <si>
+    <t>grandmother (n.)</t>
+  </si>
+  <si>
+    <t>grandparent (n.)</t>
+  </si>
+  <si>
+    <t>great (adj.)</t>
+  </si>
+  <si>
+    <t>green (n. adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">grey (adj.) UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>gray AM</t>
+    </r>
+  </si>
+  <si>
+    <t>خاکستری</t>
+  </si>
+  <si>
+    <t>group (n.)</t>
+  </si>
+  <si>
+    <t>grow (v.)</t>
+  </si>
+  <si>
+    <t>رشد کردن</t>
+  </si>
+  <si>
+    <t>guess (n. v.)</t>
+  </si>
+  <si>
+    <t>حدس - حدس زدن</t>
+  </si>
+  <si>
+    <t>guitar (n.)</t>
+  </si>
+  <si>
+    <t>gym (n.)</t>
+  </si>
+  <si>
+    <t>hair (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">half
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>noun, pronoun, predeterminer, adjective, adverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>either of the two equal or nearly equal parts that together make up a whole:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+half of "What's half of 96?" "48."
+half (of) Roughly half (of) the class are Spanish and the others are a mixture of nationalities.
+in half/into halves Cut the apple in half/into halves (= into two equal parts).
+half as My little brother is half as tall as me/half my height.
+half a dozen Can you get me half a dozen (= six) eggs, please?
+Half of me would just like to give it all up and travel around the world (= partly I would like to, but partly I would not).
+She was born in the latter half of the 18th century.
+The recipe tells you to use a pound and a half of butter.</t>
+    </r>
+  </si>
+  <si>
+    <t>hand (n.)</t>
+  </si>
+  <si>
+    <t>happen (v.)</t>
+  </si>
+  <si>
+    <t>happy (adj.)</t>
+  </si>
+  <si>
+    <t>hard (adj. adv.)</t>
+  </si>
+  <si>
+    <t>hat (n.)</t>
+  </si>
+  <si>
+    <t>hate (v.)</t>
+  </si>
+  <si>
+    <t>have (v.)</t>
+  </si>
+  <si>
+    <t>have to (modal v.)</t>
+  </si>
+  <si>
+    <t>مجبور بودن</t>
+  </si>
+  <si>
+    <t>he (pron.)</t>
+  </si>
+  <si>
+    <t>head (n.)</t>
+  </si>
+  <si>
+    <t>health (n.)</t>
+  </si>
+  <si>
+    <t>healthy (adj.)</t>
+  </si>
+  <si>
+    <t>hello (exclam.)</t>
+  </si>
+  <si>
+    <t>help (n. v.)</t>
+  </si>
+  <si>
+    <t>her (prep. det.)</t>
+  </si>
+  <si>
+    <t>مال او - ب او مونث</t>
+  </si>
+  <si>
+    <t>here (prep. det.)</t>
+  </si>
+  <si>
+    <t>hey (exclam.)</t>
+  </si>
+  <si>
+    <t>hi (exclam.) imformal</t>
+  </si>
+  <si>
+    <t>high (adj.)</t>
+  </si>
+  <si>
+    <t>him (pron.)</t>
+  </si>
+  <si>
+    <t>او را - به او مذکر</t>
+  </si>
+  <si>
+    <t>his (det.)</t>
+  </si>
+  <si>
+    <t>مال او مذکر</t>
+  </si>
+  <si>
+    <t>history (n.)</t>
+  </si>
+  <si>
+    <t>hobby (n.)</t>
+  </si>
+  <si>
+    <t>home (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">holiday (n.) UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>vocation AM</t>
+    </r>
+  </si>
+  <si>
+    <t>homework (n.)</t>
+  </si>
+  <si>
+    <t>hope (n. v.)</t>
+  </si>
+  <si>
+    <t>horse (n.)</t>
+  </si>
+  <si>
+    <t>hospital (n.)</t>
+  </si>
+  <si>
+    <t>hot (adj.)</t>
+  </si>
+  <si>
+    <t>hotel (n.)</t>
+  </si>
+  <si>
+    <t>hour (n.)</t>
+  </si>
+  <si>
+    <t>house (n.)</t>
+  </si>
+  <si>
+    <t>how (adv.)</t>
+  </si>
+  <si>
+    <t>however (adv.)</t>
+  </si>
+  <si>
+    <t>adverb: بهر حال, هنوز, ضمنا, با اینکه</t>
+  </si>
+  <si>
+    <t>hundred (number)</t>
+  </si>
+  <si>
+    <t>dam (n.)</t>
+  </si>
+  <si>
+    <t>سد - سازه ای برای نگهداری آب - سد لتیان</t>
+  </si>
+  <si>
+    <t>dialect (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">a form of a language that people speak in a particular part of a country, containing some different words and grammar, etc.: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>regional dialect The various regional dialects are still spoken locally.
+in dialect The poem is written in northern dialect.</t>
+    </r>
+  </si>
+  <si>
+    <t>لهجه - مثل لهجه ی مشهدی - لهجه‌ی‌تهرانی</t>
+  </si>
+  <si>
+    <t>hungry (adj.)</t>
+  </si>
+  <si>
+    <t>husband (n.)</t>
+  </si>
+  <si>
+    <t>I (pron.)</t>
+  </si>
+  <si>
+    <t>Ice (n.)</t>
+  </si>
+  <si>
+    <t>if (conj.)</t>
+  </si>
+  <si>
+    <t>imagine (v.)</t>
+  </si>
+  <si>
+    <t>important (adj.)</t>
+  </si>
+  <si>
+    <t>improve (v.)</t>
+  </si>
+  <si>
+    <t>In (prep. adv.)</t>
+  </si>
+  <si>
+    <t>include (v.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>to contain something as a part of something else, or to make something part of something else:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+The bill includes tax and service.
+be included in sth Tax and service are included in the bill.
+[ + -ing verb ] Your responsibilities will include making appointments on my behalf.</t>
+    </r>
+  </si>
+  <si>
+    <t>information (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">interest (n.)  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(INVOLVEMENT) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>the feeling of wanting to give your attention to something or of wanting to be involved with and to discover more about something:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+I've always had an interest in astronomy.
+He never seems to show any interest in his children.
+Unfortunately, I lost interest half way through the film.
+She takes more of an interest in politics these days.
+informal Just out of interest, how old is your wife?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">interest (n.)  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(ADVANTAGE)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>something that brings advantages to or affects someone or something:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+A union looks after the interests of its members.
+It's in his interests to keep careful records.
+In the interests of safety, please do not smoke.
+Despite what you think, I'm only acting in your best interests (= doing what is best for you).</t>
+    </r>
+  </si>
+  <si>
+    <t>interested (adj.)</t>
+  </si>
+  <si>
+    <t>interesting (adj.)</t>
+  </si>
+  <si>
+    <t>internet (n.)</t>
+  </si>
+  <si>
+    <t>interview (n. v.)</t>
+  </si>
+  <si>
+    <t>into (prep.)</t>
+  </si>
+  <si>
+    <t>introduce (v.)</t>
+  </si>
+  <si>
+    <t>island (n.)</t>
+  </si>
+  <si>
+    <t>a piece of land completely surrounded by water:
+a desert island
+a Pacific island
+They live on the large Japanese island of Hokkaido.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">it (pron.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>(THING)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>used as the subject of a verb, or the object of a verb or preposition, to refer to a thing, animal, situation, or idea that has already been mentioned:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+"Where's my pen? It was on my desk a minute ago." "You left it by the phone."
+The company was losing money and it had to let people go.
+The argument was upsetting for us all - I don't want to talk about it.
+Children who stay away from school do it for different reasons.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">its (det.) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>belonging to or relating to something that has already been mentioned:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+The dog hurt its paw.
+Their house has its own swimming pool.
+The company increased its profits.
+I prefer the second option - its advantages are simplicity and cheapness.</t>
+    </r>
+  </si>
+  <si>
+    <t>jacket (n.)</t>
+  </si>
+  <si>
+    <t>january (n.)</t>
+  </si>
+  <si>
+    <t>jeans (n.)</t>
+  </si>
+  <si>
+    <t>job (n.)</t>
+  </si>
+  <si>
+    <t>join (v.)</t>
+  </si>
+  <si>
+    <t>juice (n.)</t>
+  </si>
+  <si>
+    <t>july (n.)</t>
+  </si>
+  <si>
+    <t>june (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">just (adv.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>(NOW)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>now, very soon, or very recently:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+"Where are you, Jim?" "I'm just coming."
+I'll just finish this, then we can go.
+He'd just got into the bath when the phone rang.
+The children arrived at school just as (= at the same moment as) the bell was ringing.
+The doctor will be with you in just a minute/moment/second (= very soon).
+It's just after/past (UK also gone) ten o'clock.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">just (adv.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>(EXACTLY)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>exactly or equally:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+This carpet would be just right for the dining room.
+The twins look just like each other.
+Things turned out just as I expected.
+You've got just as many toys as your brother.
+Thank you, it's just what I've always wanted.
+I can't help you just now/yet.
+Just then, the lights went out.
+I can just imagine Sophie as a police officer.</t>
+    </r>
+  </si>
+  <si>
+    <t>keep (v.)</t>
+  </si>
+  <si>
+    <t>key (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">kilometre (n.) UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>kilometer AM</t>
+    </r>
+  </si>
+  <si>
+    <t>kind (type) (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>a group with similar characteristics, or a particular type:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Today's vehicles use two kinds of fuel - petrol and diesel.
+What kind of (a) job are you looking for?
+I just don't have that kind of money (= I don't have so much money).
+The cupboard contained all kinds of strange things.
+Her travel company was the first of its kind (= of others that are similar).</t>
+    </r>
+  </si>
+  <si>
+    <t>kind (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>generous, helpful, and thinking about other people's feelings:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+She's a very kind and thoughtful person.
+It's very kind of you to help us.
+Please be kind to your sister!
+formal Would you be kind enough to/so kind as to close the door? (= please would you do this)</t>
+    </r>
+  </si>
+  <si>
+    <t>kitchen (n.)</t>
+  </si>
+  <si>
+    <t>know (n.)</t>
+  </si>
+  <si>
+    <t>land (n.)</t>
+  </si>
+  <si>
+    <t>language (n.)</t>
+  </si>
+  <si>
+    <t>large (adj.)</t>
+  </si>
+  <si>
+    <t>last (final) (adj.)</t>
+  </si>
+  <si>
+    <t>late (adj. adv.)</t>
+  </si>
+  <si>
+    <t>later (adv.)</t>
+  </si>
+  <si>
+    <t>laugh (n. v.)</t>
+  </si>
+  <si>
+    <t>learn (v.)</t>
+  </si>
+  <si>
+    <t>left (adj. adv. n.)</t>
+  </si>
+  <si>
+    <t>leg (n.)</t>
+  </si>
+  <si>
+    <t>leg is the lower limb of a human being or animal that extends from the groin to the ankle.</t>
+  </si>
+  <si>
+    <t>lesson (n.)</t>
+  </si>
+  <si>
+    <t>let (v.)</t>
+  </si>
+  <si>
+    <t>letter (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>2- a written, typed, or printed communication, especially one sent in an envelope by mail or messenger.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g. "he sent a letter to Mrs. Falconer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">A2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>1- a character representing one or more of the sounds used in speech; any of the symbols of an alphabet.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g. "a capital letter"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>2- a written, typed, or printed communication, especially one sent in an envelope by mail or messenger.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g. "he sent a letter to Mrs. Falconer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFD10051"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">A2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>1- a character representing one or more of the sounds used in speech; any of the symbols of an alphabet.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g. "a capital letter"</t>
+    </r>
+  </si>
+  <si>
+    <t>library (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">lie (v.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(POSITION) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF9900FF"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">[ I + adv/prep, L ] present participle lying | past tense lay | past participle lain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>to be in or move into a horizontal position on a surface:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+to lie in bed
+to lie on a beach
+to lie on your side
+A cat lay in front of the fire.
+He lies awake at night, worrying.
+A pen lay on the desk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">lie (v.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">(SPEAK FALSELY) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF9900FF"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>[ I ] present participle lying | past tense lied | past participle lied</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+to say or write something that is not true in order to deceive someone:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t xml:space="preserve">
+Are you lying to me?
+Don't trust her - she's lying.
+I suspect he lies about his age.</t>
+    </r>
+  </si>
+  <si>
+    <t>life (n.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">light (n. adj.) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>(BRIGHTNESS)</t>
+    </r>
+  </si>
+  <si>
+    <t>سبکnoun: نور, چراغ, پرتو, تابش, فانوس, اتش, کبریت, مشعل, وضوح, سو, اتش زنه, برق چشم, سرگرمکنندهغیرجدی, لحاظ
+adjective: روشن, سبک, سبک وزن, کم, خفیف, اندک, ضعیف, تابان, سهل, اسان, چابک, اهسته, بیغم و غصه, وارسته, خل, بی عفت, زود گذر, سهل الهضم, کم قیمت, هوس امیز, هوس باز, باز
+verb: روشن کردن, برق زدن, اشکار کردن, اتش زدن, اتش گرفتن, بچه زاییدن, اذرخش زدن, مشتعل شدن</t>
   </si>
 </sst>
 </file>
@@ -37220,9 +38658,15 @@
     </row>
     <row r="822">
       <c r="A822" s="12"/>
-      <c r="B822" s="40"/>
-      <c r="C822" s="73"/>
-      <c r="D822" s="71"/>
+      <c r="B822" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C822" s="66" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D822" s="65" t="s">
+        <v>1423</v>
+      </c>
       <c r="E822" s="43"/>
       <c r="F822" s="17"/>
       <c r="G822" s="18"/>
@@ -37249,9 +38693,15 @@
     </row>
     <row r="823">
       <c r="A823" s="12"/>
-      <c r="B823" s="40"/>
-      <c r="C823" s="73"/>
-      <c r="D823" s="71"/>
+      <c r="B823" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C823" s="66" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D823" s="65" t="s">
+        <v>1425</v>
+      </c>
       <c r="E823" s="43"/>
       <c r="F823" s="17"/>
       <c r="G823" s="18"/>
@@ -37278,9 +38728,15 @@
     </row>
     <row r="824">
       <c r="A824" s="12"/>
-      <c r="B824" s="40"/>
-      <c r="C824" s="73"/>
-      <c r="D824" s="71"/>
+      <c r="B824" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C824" s="66" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D824" s="65" t="s">
+        <v>1427</v>
+      </c>
       <c r="E824" s="43"/>
       <c r="F824" s="17"/>
       <c r="G824" s="18"/>
@@ -37307,8 +38763,12 @@
     </row>
     <row r="825">
       <c r="A825" s="12"/>
-      <c r="B825" s="40"/>
-      <c r="C825" s="73"/>
+      <c r="B825" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C825" s="66" t="s">
+        <v>1428</v>
+      </c>
       <c r="D825" s="71"/>
       <c r="E825" s="43"/>
       <c r="F825" s="17"/>
@@ -37336,8 +38796,12 @@
     </row>
     <row r="826">
       <c r="A826" s="12"/>
-      <c r="B826" s="40"/>
-      <c r="C826" s="73"/>
+      <c r="B826" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C826" s="66" t="s">
+        <v>1429</v>
+      </c>
       <c r="D826" s="71"/>
       <c r="E826" s="43"/>
       <c r="F826" s="17"/>
@@ -37365,10 +38829,16 @@
     </row>
     <row r="827">
       <c r="A827" s="12"/>
-      <c r="B827" s="40"/>
-      <c r="C827" s="73"/>
+      <c r="B827" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C827" s="64" t="s">
+        <v>1430</v>
+      </c>
       <c r="D827" s="71"/>
-      <c r="E827" s="43"/>
+      <c r="E827" s="49" t="s">
+        <v>1431</v>
+      </c>
       <c r="F827" s="17"/>
       <c r="G827" s="18"/>
       <c r="H827" s="19"/>
@@ -37394,8 +38864,12 @@
     </row>
     <row r="828">
       <c r="A828" s="12"/>
-      <c r="B828" s="40"/>
-      <c r="C828" s="73"/>
+      <c r="B828" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C828" s="66" t="s">
+        <v>1432</v>
+      </c>
       <c r="D828" s="71"/>
       <c r="E828" s="43"/>
       <c r="F828" s="17"/>
@@ -37423,8 +38897,12 @@
     </row>
     <row r="829">
       <c r="A829" s="12"/>
-      <c r="B829" s="40"/>
-      <c r="C829" s="73"/>
+      <c r="B829" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C829" s="66" t="s">
+        <v>1433</v>
+      </c>
       <c r="D829" s="71"/>
       <c r="E829" s="43"/>
       <c r="F829" s="17"/>
@@ -37452,10 +38930,16 @@
     </row>
     <row r="830">
       <c r="A830" s="12"/>
-      <c r="B830" s="40"/>
-      <c r="C830" s="73"/>
+      <c r="B830" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C830" s="66" t="s">
+        <v>1434</v>
+      </c>
       <c r="D830" s="71"/>
-      <c r="E830" s="43"/>
+      <c r="E830" s="49" t="s">
+        <v>1435</v>
+      </c>
       <c r="F830" s="17"/>
       <c r="G830" s="18"/>
       <c r="H830" s="19"/>
@@ -37481,8 +38965,12 @@
     </row>
     <row r="831">
       <c r="A831" s="12"/>
-      <c r="B831" s="40"/>
-      <c r="C831" s="73"/>
+      <c r="B831" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C831" s="66" t="s">
+        <v>1436</v>
+      </c>
       <c r="D831" s="71"/>
       <c r="E831" s="43"/>
       <c r="F831" s="17"/>
@@ -37510,8 +38998,12 @@
     </row>
     <row r="832">
       <c r="A832" s="12"/>
-      <c r="B832" s="40"/>
-      <c r="C832" s="73"/>
+      <c r="B832" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C832" s="66" t="s">
+        <v>1437</v>
+      </c>
       <c r="D832" s="71"/>
       <c r="E832" s="43"/>
       <c r="F832" s="17"/>
@@ -37539,8 +39031,12 @@
     </row>
     <row r="833">
       <c r="A833" s="12"/>
-      <c r="B833" s="40"/>
-      <c r="C833" s="73"/>
+      <c r="B833" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C833" s="66" t="s">
+        <v>1438</v>
+      </c>
       <c r="D833" s="71"/>
       <c r="E833" s="43"/>
       <c r="F833" s="17"/>
@@ -37568,10 +39064,16 @@
     </row>
     <row r="834">
       <c r="A834" s="12"/>
-      <c r="B834" s="40"/>
-      <c r="C834" s="73"/>
+      <c r="B834" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C834" s="64" t="s">
+        <v>1439</v>
+      </c>
       <c r="D834" s="71"/>
-      <c r="E834" s="43"/>
+      <c r="E834" s="49" t="s">
+        <v>1440</v>
+      </c>
       <c r="F834" s="17"/>
       <c r="G834" s="18"/>
       <c r="H834" s="19"/>
@@ -37597,8 +39099,12 @@
     </row>
     <row r="835">
       <c r="A835" s="12"/>
-      <c r="B835" s="40"/>
-      <c r="C835" s="73"/>
+      <c r="B835" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C835" s="66" t="s">
+        <v>1441</v>
+      </c>
       <c r="D835" s="71"/>
       <c r="E835" s="43"/>
       <c r="F835" s="17"/>
@@ -37626,8 +39132,12 @@
     </row>
     <row r="836">
       <c r="A836" s="12"/>
-      <c r="B836" s="40"/>
-      <c r="C836" s="73"/>
+      <c r="B836" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C836" s="66" t="s">
+        <v>1442</v>
+      </c>
       <c r="D836" s="71"/>
       <c r="E836" s="43"/>
       <c r="F836" s="17"/>
@@ -37655,8 +39165,12 @@
     </row>
     <row r="837">
       <c r="A837" s="12"/>
-      <c r="B837" s="40"/>
-      <c r="C837" s="73"/>
+      <c r="B837" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C837" s="66" t="s">
+        <v>1443</v>
+      </c>
       <c r="D837" s="71"/>
       <c r="E837" s="43"/>
       <c r="F837" s="17"/>
@@ -37684,8 +39198,12 @@
     </row>
     <row r="838">
       <c r="A838" s="12"/>
-      <c r="B838" s="40"/>
-      <c r="C838" s="73"/>
+      <c r="B838" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C838" s="66" t="s">
+        <v>1444</v>
+      </c>
       <c r="D838" s="71"/>
       <c r="E838" s="43"/>
       <c r="F838" s="17"/>
@@ -37713,10 +39231,16 @@
     </row>
     <row r="839">
       <c r="A839" s="12"/>
-      <c r="B839" s="40"/>
-      <c r="C839" s="73"/>
+      <c r="B839" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C839" s="66" t="s">
+        <v>1445</v>
+      </c>
       <c r="D839" s="71"/>
-      <c r="E839" s="43"/>
+      <c r="E839" s="49" t="s">
+        <v>1446</v>
+      </c>
       <c r="F839" s="17"/>
       <c r="G839" s="18"/>
       <c r="H839" s="19"/>
@@ -37742,8 +39266,12 @@
     </row>
     <row r="840">
       <c r="A840" s="12"/>
-      <c r="B840" s="40"/>
-      <c r="C840" s="73"/>
+      <c r="B840" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C840" s="66" t="s">
+        <v>1447</v>
+      </c>
       <c r="D840" s="71"/>
       <c r="E840" s="43"/>
       <c r="F840" s="17"/>
@@ -37771,8 +39299,12 @@
     </row>
     <row r="841">
       <c r="A841" s="12"/>
-      <c r="B841" s="40"/>
-      <c r="C841" s="73"/>
+      <c r="B841" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C841" s="66" t="s">
+        <v>1448</v>
+      </c>
       <c r="D841" s="71"/>
       <c r="E841" s="43"/>
       <c r="F841" s="17"/>
@@ -37800,8 +39332,12 @@
     </row>
     <row r="842">
       <c r="A842" s="12"/>
-      <c r="B842" s="40"/>
-      <c r="C842" s="73"/>
+      <c r="B842" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C842" s="66" t="s">
+        <v>1449</v>
+      </c>
       <c r="D842" s="71"/>
       <c r="E842" s="43"/>
       <c r="F842" s="17"/>
@@ -37829,9 +39365,15 @@
     </row>
     <row r="843">
       <c r="A843" s="12"/>
-      <c r="B843" s="40"/>
-      <c r="C843" s="73"/>
-      <c r="D843" s="71"/>
+      <c r="B843" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C843" s="66" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D843" s="65" t="s">
+        <v>1451</v>
+      </c>
       <c r="E843" s="43"/>
       <c r="F843" s="17"/>
       <c r="G843" s="18"/>
@@ -37858,9 +39400,15 @@
     </row>
     <row r="844">
       <c r="A844" s="12"/>
-      <c r="B844" s="40"/>
-      <c r="C844" s="73"/>
-      <c r="D844" s="71"/>
+      <c r="B844" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="C844" s="66" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D844" s="65" t="s">
+        <v>1453</v>
+      </c>
       <c r="E844" s="43"/>
       <c r="F844" s="17"/>
       <c r="G844" s="18"/>
@@ -37887,9 +39435,15 @@
     </row>
     <row r="845">
       <c r="A845" s="12"/>
-      <c r="B845" s="40"/>
-      <c r="C845" s="73"/>
-      <c r="D845" s="71"/>
+      <c r="B845" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="C845" s="66" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D845" s="65" t="s">
+        <v>1455</v>
+      </c>
       <c r="E845" s="43"/>
       <c r="F845" s="17"/>
       <c r="G845" s="18"/>
@@ -37916,8 +39470,12 @@
     </row>
     <row r="846">
       <c r="A846" s="12"/>
-      <c r="B846" s="40"/>
-      <c r="C846" s="73"/>
+      <c r="B846" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C846" s="66" t="s">
+        <v>1456</v>
+      </c>
       <c r="D846" s="71"/>
       <c r="E846" s="43"/>
       <c r="F846" s="17"/>
@@ -37945,8 +39503,12 @@
     </row>
     <row r="847">
       <c r="A847" s="12"/>
-      <c r="B847" s="40"/>
-      <c r="C847" s="73"/>
+      <c r="B847" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C847" s="66" t="s">
+        <v>1457</v>
+      </c>
       <c r="D847" s="71"/>
       <c r="E847" s="43"/>
       <c r="F847" s="17"/>
@@ -37974,8 +39536,12 @@
     </row>
     <row r="848">
       <c r="A848" s="12"/>
-      <c r="B848" s="40"/>
-      <c r="C848" s="73"/>
+      <c r="B848" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C848" s="66" t="s">
+        <v>1458</v>
+      </c>
       <c r="D848" s="71"/>
       <c r="E848" s="43"/>
       <c r="F848" s="17"/>
@@ -38003,8 +39569,12 @@
     </row>
     <row r="849">
       <c r="A849" s="12"/>
-      <c r="B849" s="40"/>
-      <c r="C849" s="73"/>
+      <c r="B849" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C849" s="64" t="s">
+        <v>1459</v>
+      </c>
       <c r="D849" s="71"/>
       <c r="E849" s="43"/>
       <c r="F849" s="17"/>
@@ -38032,8 +39602,12 @@
     </row>
     <row r="850">
       <c r="A850" s="12"/>
-      <c r="B850" s="40"/>
-      <c r="C850" s="73"/>
+      <c r="B850" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C850" s="66" t="s">
+        <v>1460</v>
+      </c>
       <c r="D850" s="71"/>
       <c r="E850" s="43"/>
       <c r="F850" s="17"/>
@@ -38061,8 +39635,12 @@
     </row>
     <row r="851">
       <c r="A851" s="12"/>
-      <c r="B851" s="40"/>
-      <c r="C851" s="73"/>
+      <c r="B851" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C851" s="66" t="s">
+        <v>1461</v>
+      </c>
       <c r="D851" s="71"/>
       <c r="E851" s="43"/>
       <c r="F851" s="17"/>
@@ -38090,8 +39668,12 @@
     </row>
     <row r="852">
       <c r="A852" s="12"/>
-      <c r="B852" s="40"/>
-      <c r="C852" s="73"/>
+      <c r="B852" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C852" s="66" t="s">
+        <v>1462</v>
+      </c>
       <c r="D852" s="71"/>
       <c r="E852" s="43"/>
       <c r="F852" s="17"/>
@@ -38119,8 +39701,12 @@
     </row>
     <row r="853">
       <c r="A853" s="12"/>
-      <c r="B853" s="40"/>
-      <c r="C853" s="73"/>
+      <c r="B853" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C853" s="66" t="s">
+        <v>1463</v>
+      </c>
       <c r="D853" s="71"/>
       <c r="E853" s="43"/>
       <c r="F853" s="17"/>
@@ -38148,8 +39734,12 @@
     </row>
     <row r="854">
       <c r="A854" s="12"/>
-      <c r="B854" s="40"/>
-      <c r="C854" s="73"/>
+      <c r="B854" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C854" s="66" t="s">
+        <v>1464</v>
+      </c>
       <c r="D854" s="71"/>
       <c r="E854" s="43"/>
       <c r="F854" s="17"/>
@@ -38177,10 +39767,16 @@
     </row>
     <row r="855">
       <c r="A855" s="12"/>
-      <c r="B855" s="40"/>
-      <c r="C855" s="73"/>
+      <c r="B855" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C855" s="64" t="s">
+        <v>1465</v>
+      </c>
       <c r="D855" s="71"/>
-      <c r="E855" s="43"/>
+      <c r="E855" s="49" t="s">
+        <v>1466</v>
+      </c>
       <c r="F855" s="17"/>
       <c r="G855" s="18"/>
       <c r="H855" s="19"/>
@@ -38206,8 +39802,12 @@
     </row>
     <row r="856">
       <c r="A856" s="12"/>
-      <c r="B856" s="40"/>
-      <c r="C856" s="73"/>
+      <c r="B856" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C856" s="66" t="s">
+        <v>1467</v>
+      </c>
       <c r="D856" s="71"/>
       <c r="E856" s="43"/>
       <c r="F856" s="17"/>
@@ -38235,10 +39835,16 @@
     </row>
     <row r="857">
       <c r="A857" s="12"/>
-      <c r="B857" s="40"/>
-      <c r="C857" s="73"/>
+      <c r="B857" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C857" s="64" t="s">
+        <v>1468</v>
+      </c>
       <c r="D857" s="71"/>
-      <c r="E857" s="43"/>
+      <c r="E857" s="49" t="s">
+        <v>1469</v>
+      </c>
       <c r="F857" s="17"/>
       <c r="G857" s="18"/>
       <c r="H857" s="19"/>
@@ -38264,10 +39870,16 @@
     </row>
     <row r="858">
       <c r="A858" s="12"/>
-      <c r="B858" s="40"/>
-      <c r="C858" s="73"/>
+      <c r="B858" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C858" s="64" t="s">
+        <v>1470</v>
+      </c>
       <c r="D858" s="71"/>
-      <c r="E858" s="43"/>
+      <c r="E858" s="49" t="s">
+        <v>1471</v>
+      </c>
       <c r="F858" s="17"/>
       <c r="G858" s="18"/>
       <c r="H858" s="19"/>
@@ -38293,8 +39905,12 @@
     </row>
     <row r="859">
       <c r="A859" s="12"/>
-      <c r="B859" s="40"/>
-      <c r="C859" s="73"/>
+      <c r="B859" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C859" s="66" t="s">
+        <v>1472</v>
+      </c>
       <c r="D859" s="71"/>
       <c r="E859" s="43"/>
       <c r="F859" s="17"/>
@@ -38322,8 +39938,12 @@
     </row>
     <row r="860">
       <c r="A860" s="12"/>
-      <c r="B860" s="40"/>
-      <c r="C860" s="73"/>
+      <c r="B860" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C860" s="66" t="s">
+        <v>1473</v>
+      </c>
       <c r="D860" s="71"/>
       <c r="E860" s="43"/>
       <c r="F860" s="17"/>
@@ -38351,10 +39971,16 @@
     </row>
     <row r="861">
       <c r="A861" s="12"/>
-      <c r="B861" s="40"/>
-      <c r="C861" s="73"/>
+      <c r="B861" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C861" s="66" t="s">
+        <v>1474</v>
+      </c>
       <c r="D861" s="71"/>
-      <c r="E861" s="43"/>
+      <c r="E861" s="49" t="s">
+        <v>1475</v>
+      </c>
       <c r="F861" s="17"/>
       <c r="G861" s="18"/>
       <c r="H861" s="19"/>
@@ -38380,10 +40006,16 @@
     </row>
     <row r="862">
       <c r="A862" s="12"/>
-      <c r="B862" s="40"/>
-      <c r="C862" s="73"/>
+      <c r="B862" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C862" s="64" t="s">
+        <v>1476</v>
+      </c>
       <c r="D862" s="71"/>
-      <c r="E862" s="43"/>
+      <c r="E862" s="49" t="s">
+        <v>1477</v>
+      </c>
       <c r="F862" s="17"/>
       <c r="G862" s="18"/>
       <c r="H862" s="19"/>
@@ -38409,10 +40041,16 @@
     </row>
     <row r="863">
       <c r="A863" s="12"/>
-      <c r="B863" s="40"/>
-      <c r="C863" s="73"/>
+      <c r="B863" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C863" s="64" t="s">
+        <v>1478</v>
+      </c>
       <c r="D863" s="71"/>
-      <c r="E863" s="43"/>
+      <c r="E863" s="49" t="s">
+        <v>1479</v>
+      </c>
       <c r="F863" s="17"/>
       <c r="G863" s="18"/>
       <c r="H863" s="19"/>
@@ -38438,10 +40076,16 @@
     </row>
     <row r="864">
       <c r="A864" s="12"/>
-      <c r="B864" s="40"/>
-      <c r="C864" s="73"/>
+      <c r="B864" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C864" s="66" t="s">
+        <v>1480</v>
+      </c>
       <c r="D864" s="71"/>
-      <c r="E864" s="43"/>
+      <c r="E864" s="49" t="s">
+        <v>1481</v>
+      </c>
       <c r="F864" s="17"/>
       <c r="G864" s="18"/>
       <c r="H864" s="19"/>
@@ -38467,8 +40111,12 @@
     </row>
     <row r="865">
       <c r="A865" s="12"/>
-      <c r="B865" s="40"/>
-      <c r="C865" s="73"/>
+      <c r="B865" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C865" s="66" t="s">
+        <v>1482</v>
+      </c>
       <c r="D865" s="71"/>
       <c r="E865" s="43"/>
       <c r="F865" s="17"/>
@@ -38496,8 +40144,12 @@
     </row>
     <row r="866">
       <c r="A866" s="12"/>
-      <c r="B866" s="40"/>
-      <c r="C866" s="73"/>
+      <c r="B866" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C866" s="66" t="s">
+        <v>1483</v>
+      </c>
       <c r="D866" s="71"/>
       <c r="E866" s="43"/>
       <c r="F866" s="17"/>
@@ -38525,8 +40177,12 @@
     </row>
     <row r="867">
       <c r="A867" s="12"/>
-      <c r="B867" s="40"/>
-      <c r="C867" s="73"/>
+      <c r="B867" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C867" s="66" t="s">
+        <v>1484</v>
+      </c>
       <c r="D867" s="71"/>
       <c r="E867" s="43"/>
       <c r="F867" s="17"/>
@@ -38554,10 +40210,16 @@
     </row>
     <row r="868">
       <c r="A868" s="12"/>
-      <c r="B868" s="40"/>
-      <c r="C868" s="73"/>
+      <c r="B868" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C868" s="66" t="s">
+        <v>1485</v>
+      </c>
       <c r="D868" s="71"/>
-      <c r="E868" s="43"/>
+      <c r="E868" s="49" t="s">
+        <v>1486</v>
+      </c>
       <c r="F868" s="17"/>
       <c r="G868" s="18"/>
       <c r="H868" s="19"/>
@@ -38583,8 +40245,12 @@
     </row>
     <row r="869">
       <c r="A869" s="12"/>
-      <c r="B869" s="40"/>
-      <c r="C869" s="73"/>
+      <c r="B869" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C869" s="66" t="s">
+        <v>1487</v>
+      </c>
       <c r="D869" s="71"/>
       <c r="E869" s="43"/>
       <c r="F869" s="17"/>
@@ -38612,8 +40278,12 @@
     </row>
     <row r="870">
       <c r="A870" s="12"/>
-      <c r="B870" s="40"/>
-      <c r="C870" s="73"/>
+      <c r="B870" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C870" s="66" t="s">
+        <v>1488</v>
+      </c>
       <c r="D870" s="71"/>
       <c r="E870" s="43"/>
       <c r="F870" s="17"/>
@@ -38641,8 +40311,12 @@
     </row>
     <row r="871">
       <c r="A871" s="12"/>
-      <c r="B871" s="40"/>
-      <c r="C871" s="73"/>
+      <c r="B871" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C871" s="66" t="s">
+        <v>1489</v>
+      </c>
       <c r="D871" s="71"/>
       <c r="E871" s="43"/>
       <c r="F871" s="17"/>
@@ -38670,8 +40344,12 @@
     </row>
     <row r="872">
       <c r="A872" s="12"/>
-      <c r="B872" s="40"/>
-      <c r="C872" s="73"/>
+      <c r="B872" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C872" s="66" t="s">
+        <v>1490</v>
+      </c>
       <c r="D872" s="71"/>
       <c r="E872" s="43"/>
       <c r="F872" s="17"/>
@@ -38699,8 +40377,12 @@
     </row>
     <row r="873">
       <c r="A873" s="12"/>
-      <c r="B873" s="40"/>
-      <c r="C873" s="73"/>
+      <c r="B873" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C873" s="66" t="s">
+        <v>1491</v>
+      </c>
       <c r="D873" s="71"/>
       <c r="E873" s="43"/>
       <c r="F873" s="17"/>
@@ -38728,8 +40410,12 @@
     </row>
     <row r="874">
       <c r="A874" s="12"/>
-      <c r="B874" s="40"/>
-      <c r="C874" s="73"/>
+      <c r="B874" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C874" s="66" t="s">
+        <v>1492</v>
+      </c>
       <c r="D874" s="71"/>
       <c r="E874" s="43"/>
       <c r="F874" s="17"/>
@@ -38757,8 +40443,12 @@
     </row>
     <row r="875">
       <c r="A875" s="12"/>
-      <c r="B875" s="40"/>
-      <c r="C875" s="73"/>
+      <c r="B875" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C875" s="66" t="s">
+        <v>1493</v>
+      </c>
       <c r="D875" s="71"/>
       <c r="E875" s="43"/>
       <c r="F875" s="17"/>
@@ -38786,8 +40476,12 @@
     </row>
     <row r="876">
       <c r="A876" s="12"/>
-      <c r="B876" s="40"/>
-      <c r="C876" s="73"/>
+      <c r="B876" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C876" s="66" t="s">
+        <v>1494</v>
+      </c>
       <c r="D876" s="71"/>
       <c r="E876" s="43"/>
       <c r="F876" s="17"/>
@@ -38815,10 +40509,16 @@
     </row>
     <row r="877">
       <c r="A877" s="12"/>
-      <c r="B877" s="40"/>
-      <c r="C877" s="73"/>
+      <c r="B877" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C877" s="66" t="s">
+        <v>1495</v>
+      </c>
       <c r="D877" s="71"/>
-      <c r="E877" s="43"/>
+      <c r="E877" s="49" t="s">
+        <v>1496</v>
+      </c>
       <c r="F877" s="17"/>
       <c r="G877" s="18"/>
       <c r="H877" s="19"/>
@@ -38844,8 +40544,12 @@
     </row>
     <row r="878">
       <c r="A878" s="12"/>
-      <c r="B878" s="40"/>
-      <c r="C878" s="73"/>
+      <c r="B878" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C878" s="66" t="s">
+        <v>1497</v>
+      </c>
       <c r="D878" s="71"/>
       <c r="E878" s="43"/>
       <c r="F878" s="17"/>
@@ -38873,10 +40577,16 @@
     </row>
     <row r="879">
       <c r="A879" s="12"/>
-      <c r="B879" s="40"/>
-      <c r="C879" s="73"/>
+      <c r="B879" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C879" s="66" t="s">
+        <v>1498</v>
+      </c>
       <c r="D879" s="71"/>
-      <c r="E879" s="43"/>
+      <c r="E879" s="49" t="s">
+        <v>1499</v>
+      </c>
       <c r="F879" s="17"/>
       <c r="G879" s="18"/>
       <c r="H879" s="19"/>
@@ -38902,10 +40612,16 @@
     </row>
     <row r="880">
       <c r="A880" s="12"/>
-      <c r="B880" s="40"/>
-      <c r="C880" s="73"/>
+      <c r="B880" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C880" s="66" t="s">
+        <v>1500</v>
+      </c>
       <c r="D880" s="71"/>
-      <c r="E880" s="43"/>
+      <c r="E880" s="49" t="s">
+        <v>1501</v>
+      </c>
       <c r="F880" s="17"/>
       <c r="G880" s="18"/>
       <c r="H880" s="19"/>
@@ -38931,8 +40647,12 @@
     </row>
     <row r="881">
       <c r="A881" s="12"/>
-      <c r="B881" s="40"/>
-      <c r="C881" s="73"/>
+      <c r="B881" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C881" s="66" t="s">
+        <v>1502</v>
+      </c>
       <c r="D881" s="71"/>
       <c r="E881" s="43"/>
       <c r="F881" s="17"/>
@@ -38960,8 +40680,12 @@
     </row>
     <row r="882">
       <c r="A882" s="12"/>
-      <c r="B882" s="40"/>
-      <c r="C882" s="73"/>
+      <c r="B882" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C882" s="66" t="s">
+        <v>1503</v>
+      </c>
       <c r="D882" s="71"/>
       <c r="E882" s="43"/>
       <c r="F882" s="17"/>
@@ -38989,8 +40713,12 @@
     </row>
     <row r="883">
       <c r="A883" s="12"/>
-      <c r="B883" s="40"/>
-      <c r="C883" s="73"/>
+      <c r="B883" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C883" s="66" t="s">
+        <v>1504</v>
+      </c>
       <c r="D883" s="71"/>
       <c r="E883" s="43"/>
       <c r="F883" s="17"/>
@@ -39018,9 +40746,15 @@
     </row>
     <row r="884">
       <c r="A884" s="12"/>
-      <c r="B884" s="40"/>
-      <c r="C884" s="73"/>
-      <c r="D884" s="71"/>
+      <c r="B884" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C884" s="66" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D884" s="65" t="s">
+        <v>1506</v>
+      </c>
       <c r="E884" s="43"/>
       <c r="F884" s="17"/>
       <c r="G884" s="18"/>
@@ -39047,8 +40781,12 @@
     </row>
     <row r="885">
       <c r="A885" s="12"/>
-      <c r="B885" s="40"/>
-      <c r="C885" s="73"/>
+      <c r="B885" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C885" s="66" t="s">
+        <v>1507</v>
+      </c>
       <c r="D885" s="71"/>
       <c r="E885" s="43"/>
       <c r="F885" s="17"/>
@@ -39076,8 +40814,12 @@
     </row>
     <row r="886">
       <c r="A886" s="12"/>
-      <c r="B886" s="40"/>
-      <c r="C886" s="73"/>
+      <c r="B886" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C886" s="66" t="s">
+        <v>1508</v>
+      </c>
       <c r="D886" s="71"/>
       <c r="E886" s="43"/>
       <c r="F886" s="17"/>
@@ -39105,8 +40847,12 @@
     </row>
     <row r="887">
       <c r="A887" s="12"/>
-      <c r="B887" s="40"/>
-      <c r="C887" s="73"/>
+      <c r="B887" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C887" s="66" t="s">
+        <v>1509</v>
+      </c>
       <c r="D887" s="71"/>
       <c r="E887" s="43"/>
       <c r="F887" s="17"/>
@@ -39134,8 +40880,12 @@
     </row>
     <row r="888">
       <c r="A888" s="12"/>
-      <c r="B888" s="40"/>
-      <c r="C888" s="73"/>
+      <c r="B888" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C888" s="66" t="s">
+        <v>1510</v>
+      </c>
       <c r="D888" s="71"/>
       <c r="E888" s="43"/>
       <c r="F888" s="17"/>
@@ -39163,8 +40913,12 @@
     </row>
     <row r="889">
       <c r="A889" s="12"/>
-      <c r="B889" s="40"/>
-      <c r="C889" s="73"/>
+      <c r="B889" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C889" s="64" t="s">
+        <v>1511</v>
+      </c>
       <c r="D889" s="71"/>
       <c r="E889" s="43"/>
       <c r="F889" s="17"/>
@@ -39192,8 +40946,12 @@
     </row>
     <row r="890">
       <c r="A890" s="12"/>
-      <c r="B890" s="40"/>
-      <c r="C890" s="73"/>
+      <c r="B890" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C890" s="66" t="s">
+        <v>1512</v>
+      </c>
       <c r="D890" s="71"/>
       <c r="E890" s="43"/>
       <c r="F890" s="17"/>
@@ -39221,8 +40979,12 @@
     </row>
     <row r="891">
       <c r="A891" s="12"/>
-      <c r="B891" s="40"/>
-      <c r="C891" s="73"/>
+      <c r="B891" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C891" s="66" t="s">
+        <v>1513</v>
+      </c>
       <c r="D891" s="71"/>
       <c r="E891" s="43"/>
       <c r="F891" s="17"/>
@@ -39250,10 +41012,16 @@
     </row>
     <row r="892">
       <c r="A892" s="12"/>
-      <c r="B892" s="40"/>
-      <c r="C892" s="73"/>
+      <c r="B892" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C892" s="66" t="s">
+        <v>1514</v>
+      </c>
       <c r="D892" s="71"/>
-      <c r="E892" s="43"/>
+      <c r="E892" s="49" t="s">
+        <v>1515</v>
+      </c>
       <c r="F892" s="17"/>
       <c r="G892" s="18"/>
       <c r="H892" s="19"/>
@@ -39279,8 +41047,12 @@
     </row>
     <row r="893">
       <c r="A893" s="12"/>
-      <c r="B893" s="40"/>
-      <c r="C893" s="73"/>
+      <c r="B893" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C893" s="66" t="s">
+        <v>1516</v>
+      </c>
       <c r="D893" s="71"/>
       <c r="E893" s="43"/>
       <c r="F893" s="17"/>
@@ -39308,8 +41080,12 @@
     </row>
     <row r="894">
       <c r="A894" s="12"/>
-      <c r="B894" s="40"/>
-      <c r="C894" s="73"/>
+      <c r="B894" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C894" s="66" t="s">
+        <v>1517</v>
+      </c>
       <c r="D894" s="71"/>
       <c r="E894" s="43"/>
       <c r="F894" s="17"/>
@@ -39337,8 +41113,12 @@
     </row>
     <row r="895">
       <c r="A895" s="12"/>
-      <c r="B895" s="40"/>
-      <c r="C895" s="73"/>
+      <c r="B895" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C895" s="66" t="s">
+        <v>1518</v>
+      </c>
       <c r="D895" s="71"/>
       <c r="E895" s="43"/>
       <c r="F895" s="17"/>
@@ -39366,8 +41146,12 @@
     </row>
     <row r="896">
       <c r="A896" s="12"/>
-      <c r="B896" s="40"/>
-      <c r="C896" s="73"/>
+      <c r="B896" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C896" s="66" t="s">
+        <v>1519</v>
+      </c>
       <c r="D896" s="71"/>
       <c r="E896" s="43"/>
       <c r="F896" s="17"/>
@@ -39395,8 +41179,12 @@
     </row>
     <row r="897">
       <c r="A897" s="12"/>
-      <c r="B897" s="40"/>
-      <c r="C897" s="73"/>
+      <c r="B897" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C897" s="66" t="s">
+        <v>1520</v>
+      </c>
       <c r="D897" s="71"/>
       <c r="E897" s="43"/>
       <c r="F897" s="17"/>
@@ -39424,8 +41212,12 @@
     </row>
     <row r="898">
       <c r="A898" s="12"/>
-      <c r="B898" s="40"/>
-      <c r="C898" s="73"/>
+      <c r="B898" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C898" s="66" t="s">
+        <v>1521</v>
+      </c>
       <c r="D898" s="71"/>
       <c r="E898" s="43"/>
       <c r="F898" s="17"/>
@@ -39453,10 +41245,16 @@
     </row>
     <row r="899">
       <c r="A899" s="12"/>
-      <c r="B899" s="40"/>
-      <c r="C899" s="73"/>
+      <c r="B899" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C899" s="66" t="s">
+        <v>1522</v>
+      </c>
       <c r="D899" s="71"/>
-      <c r="E899" s="43"/>
+      <c r="E899" s="49" t="s">
+        <v>1523</v>
+      </c>
       <c r="F899" s="17"/>
       <c r="G899" s="18"/>
       <c r="H899" s="19"/>
@@ -39482,8 +41280,12 @@
     </row>
     <row r="900">
       <c r="A900" s="12"/>
-      <c r="B900" s="40"/>
-      <c r="C900" s="73"/>
+      <c r="B900" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C900" s="66" t="s">
+        <v>1524</v>
+      </c>
       <c r="D900" s="71"/>
       <c r="E900" s="43"/>
       <c r="F900" s="17"/>
@@ -39511,8 +41313,12 @@
     </row>
     <row r="901">
       <c r="A901" s="12"/>
-      <c r="B901" s="40"/>
-      <c r="C901" s="73"/>
+      <c r="B901" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C901" s="66" t="s">
+        <v>1525</v>
+      </c>
       <c r="D901" s="71"/>
       <c r="E901" s="43"/>
       <c r="F901" s="17"/>
@@ -39540,8 +41346,12 @@
     </row>
     <row r="902">
       <c r="A902" s="12"/>
-      <c r="B902" s="40"/>
-      <c r="C902" s="73"/>
+      <c r="B902" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C902" s="66" t="s">
+        <v>1526</v>
+      </c>
       <c r="D902" s="71"/>
       <c r="E902" s="43"/>
       <c r="F902" s="17"/>
@@ -39569,8 +41379,12 @@
     </row>
     <row r="903">
       <c r="A903" s="12"/>
-      <c r="B903" s="40"/>
-      <c r="C903" s="73"/>
+      <c r="B903" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C903" s="66" t="s">
+        <v>1527</v>
+      </c>
       <c r="D903" s="71"/>
       <c r="E903" s="43"/>
       <c r="F903" s="17"/>
@@ -39598,10 +41412,16 @@
     </row>
     <row r="904">
       <c r="A904" s="12"/>
-      <c r="B904" s="40"/>
-      <c r="C904" s="73"/>
+      <c r="B904" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C904" s="66" t="s">
+        <v>1528</v>
+      </c>
       <c r="D904" s="71"/>
-      <c r="E904" s="43"/>
+      <c r="E904" s="49" t="s">
+        <v>1529</v>
+      </c>
       <c r="F904" s="17"/>
       <c r="G904" s="18"/>
       <c r="H904" s="19"/>
@@ -39627,10 +41447,16 @@
     </row>
     <row r="905">
       <c r="A905" s="12"/>
-      <c r="B905" s="40"/>
-      <c r="C905" s="73"/>
+      <c r="B905" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C905" s="66" t="s">
+        <v>1530</v>
+      </c>
       <c r="D905" s="71"/>
-      <c r="E905" s="43"/>
+      <c r="E905" s="49" t="s">
+        <v>1531</v>
+      </c>
       <c r="F905" s="17"/>
       <c r="G905" s="18"/>
       <c r="H905" s="19"/>
@@ -39656,8 +41482,12 @@
     </row>
     <row r="906">
       <c r="A906" s="12"/>
-      <c r="B906" s="40"/>
-      <c r="C906" s="73"/>
+      <c r="B906" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C906" s="66" t="s">
+        <v>1532</v>
+      </c>
       <c r="D906" s="71"/>
       <c r="E906" s="43"/>
       <c r="F906" s="17"/>
@@ -39685,8 +41515,12 @@
     </row>
     <row r="907">
       <c r="A907" s="12"/>
-      <c r="B907" s="40"/>
-      <c r="C907" s="73"/>
+      <c r="B907" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C907" s="66" t="s">
+        <v>1533</v>
+      </c>
       <c r="D907" s="71"/>
       <c r="E907" s="43"/>
       <c r="F907" s="17"/>
@@ -39714,8 +41548,12 @@
     </row>
     <row r="908">
       <c r="A908" s="12"/>
-      <c r="B908" s="40"/>
-      <c r="C908" s="73"/>
+      <c r="B908" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C908" s="66" t="s">
+        <v>1534</v>
+      </c>
       <c r="D908" s="71"/>
       <c r="E908" s="43"/>
       <c r="F908" s="17"/>
@@ -39743,8 +41581,12 @@
     </row>
     <row r="909">
       <c r="A909" s="12"/>
-      <c r="B909" s="40"/>
-      <c r="C909" s="73"/>
+      <c r="B909" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C909" s="66" t="s">
+        <v>1535</v>
+      </c>
       <c r="D909" s="71"/>
       <c r="E909" s="43"/>
       <c r="F909" s="17"/>
@@ -39772,8 +41614,12 @@
     </row>
     <row r="910">
       <c r="A910" s="12"/>
-      <c r="B910" s="40"/>
-      <c r="C910" s="73"/>
+      <c r="B910" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C910" s="66" t="s">
+        <v>1536</v>
+      </c>
       <c r="D910" s="71"/>
       <c r="E910" s="43"/>
       <c r="F910" s="17"/>
@@ -39801,8 +41647,12 @@
     </row>
     <row r="911">
       <c r="A911" s="12"/>
-      <c r="B911" s="40"/>
-      <c r="C911" s="73"/>
+      <c r="B911" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C911" s="66" t="s">
+        <v>1537</v>
+      </c>
       <c r="D911" s="71"/>
       <c r="E911" s="43"/>
       <c r="F911" s="17"/>
@@ -39830,8 +41680,12 @@
     </row>
     <row r="912">
       <c r="A912" s="12"/>
-      <c r="B912" s="40"/>
-      <c r="C912" s="73"/>
+      <c r="B912" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C912" s="66" t="s">
+        <v>1538</v>
+      </c>
       <c r="D912" s="71"/>
       <c r="E912" s="43"/>
       <c r="F912" s="17"/>
@@ -39859,8 +41713,12 @@
     </row>
     <row r="913">
       <c r="A913" s="12"/>
-      <c r="B913" s="40"/>
-      <c r="C913" s="73"/>
+      <c r="B913" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C913" s="66" t="s">
+        <v>1539</v>
+      </c>
       <c r="D913" s="71"/>
       <c r="E913" s="43"/>
       <c r="F913" s="17"/>
@@ -39888,8 +41746,12 @@
     </row>
     <row r="914">
       <c r="A914" s="12"/>
-      <c r="B914" s="40"/>
-      <c r="C914" s="73"/>
+      <c r="B914" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C914" s="66" t="s">
+        <v>1540</v>
+      </c>
       <c r="D914" s="71"/>
       <c r="E914" s="43"/>
       <c r="F914" s="17"/>
@@ -39917,8 +41779,12 @@
     </row>
     <row r="915">
       <c r="A915" s="12"/>
-      <c r="B915" s="40"/>
-      <c r="C915" s="73"/>
+      <c r="B915" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C915" s="66" t="s">
+        <v>1541</v>
+      </c>
       <c r="D915" s="71"/>
       <c r="E915" s="43"/>
       <c r="F915" s="17"/>
@@ -39946,8 +41812,12 @@
     </row>
     <row r="916">
       <c r="A916" s="12"/>
-      <c r="B916" s="40"/>
-      <c r="C916" s="73"/>
+      <c r="B916" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C916" s="66" t="s">
+        <v>1542</v>
+      </c>
       <c r="D916" s="71"/>
       <c r="E916" s="43"/>
       <c r="F916" s="17"/>
@@ -39975,8 +41845,12 @@
     </row>
     <row r="917">
       <c r="A917" s="12"/>
-      <c r="B917" s="40"/>
-      <c r="C917" s="73"/>
+      <c r="B917" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C917" s="66" t="s">
+        <v>1543</v>
+      </c>
       <c r="D917" s="71"/>
       <c r="E917" s="43"/>
       <c r="F917" s="17"/>
@@ -40004,8 +41878,12 @@
     </row>
     <row r="918">
       <c r="A918" s="12"/>
-      <c r="B918" s="40"/>
-      <c r="C918" s="73"/>
+      <c r="B918" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C918" s="66" t="s">
+        <v>1544</v>
+      </c>
       <c r="D918" s="71"/>
       <c r="E918" s="43"/>
       <c r="F918" s="17"/>
@@ -40033,10 +41911,16 @@
     </row>
     <row r="919">
       <c r="A919" s="12"/>
-      <c r="B919" s="40"/>
-      <c r="C919" s="73"/>
+      <c r="B919" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C919" s="66" t="s">
+        <v>1545</v>
+      </c>
       <c r="D919" s="71"/>
-      <c r="E919" s="43"/>
+      <c r="E919" s="49" t="s">
+        <v>1546</v>
+      </c>
       <c r="F919" s="17"/>
       <c r="G919" s="18"/>
       <c r="H919" s="19"/>
@@ -40062,8 +41946,12 @@
     </row>
     <row r="920">
       <c r="A920" s="12"/>
-      <c r="B920" s="40"/>
-      <c r="C920" s="73"/>
+      <c r="B920" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C920" s="66" t="s">
+        <v>1547</v>
+      </c>
       <c r="D920" s="71"/>
       <c r="E920" s="43"/>
       <c r="F920" s="17"/>
@@ -40091,10 +41979,16 @@
     </row>
     <row r="921">
       <c r="A921" s="12"/>
-      <c r="B921" s="40"/>
-      <c r="C921" s="73"/>
+      <c r="B921" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C921" s="66" t="s">
+        <v>1548</v>
+      </c>
       <c r="D921" s="71"/>
-      <c r="E921" s="43"/>
+      <c r="E921" s="49" t="s">
+        <v>1549</v>
+      </c>
       <c r="F921" s="17"/>
       <c r="G921" s="18"/>
       <c r="H921" s="19"/>
@@ -40120,10 +42014,18 @@
     </row>
     <row r="922">
       <c r="A922" s="12"/>
-      <c r="B922" s="40"/>
-      <c r="C922" s="73"/>
-      <c r="D922" s="71"/>
-      <c r="E922" s="43"/>
+      <c r="B922" s="40" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C922" s="66" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D922" s="65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E922" s="49" t="s">
+        <v>1552</v>
+      </c>
       <c r="F922" s="17"/>
       <c r="G922" s="18"/>
       <c r="H922" s="19"/>
@@ -40149,8 +42051,12 @@
     </row>
     <row r="923">
       <c r="A923" s="12"/>
-      <c r="B923" s="40"/>
-      <c r="C923" s="73"/>
+      <c r="B923" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C923" s="66" t="s">
+        <v>1553</v>
+      </c>
       <c r="D923" s="71"/>
       <c r="E923" s="43"/>
       <c r="F923" s="17"/>
@@ -40178,8 +42084,12 @@
     </row>
     <row r="924">
       <c r="A924" s="12"/>
-      <c r="B924" s="40"/>
-      <c r="C924" s="73"/>
+      <c r="B924" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C924" s="66" t="s">
+        <v>1554</v>
+      </c>
       <c r="D924" s="71"/>
       <c r="E924" s="43"/>
       <c r="F924" s="17"/>
@@ -40207,8 +42117,12 @@
     </row>
     <row r="925">
       <c r="A925" s="12"/>
-      <c r="B925" s="40"/>
-      <c r="C925" s="73"/>
+      <c r="B925" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C925" s="66" t="s">
+        <v>1555</v>
+      </c>
       <c r="D925" s="71"/>
       <c r="E925" s="43"/>
       <c r="F925" s="17"/>
@@ -40236,8 +42150,12 @@
     </row>
     <row r="926">
       <c r="A926" s="12"/>
-      <c r="B926" s="40"/>
-      <c r="C926" s="73"/>
+      <c r="B926" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C926" s="66" t="s">
+        <v>1556</v>
+      </c>
       <c r="D926" s="71"/>
       <c r="E926" s="43"/>
       <c r="F926" s="17"/>
@@ -40265,8 +42183,12 @@
     </row>
     <row r="927">
       <c r="A927" s="12"/>
-      <c r="B927" s="40"/>
-      <c r="C927" s="73"/>
+      <c r="B927" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C927" s="66" t="s">
+        <v>1557</v>
+      </c>
       <c r="D927" s="71"/>
       <c r="E927" s="43"/>
       <c r="F927" s="17"/>
@@ -40294,8 +42216,12 @@
     </row>
     <row r="928">
       <c r="A928" s="12"/>
-      <c r="B928" s="40"/>
-      <c r="C928" s="73"/>
+      <c r="B928" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C928" s="66" t="s">
+        <v>1558</v>
+      </c>
       <c r="D928" s="71"/>
       <c r="E928" s="43"/>
       <c r="F928" s="17"/>
@@ -40323,8 +42249,12 @@
     </row>
     <row r="929">
       <c r="A929" s="12"/>
-      <c r="B929" s="40"/>
-      <c r="C929" s="73"/>
+      <c r="B929" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C929" s="66" t="s">
+        <v>1559</v>
+      </c>
       <c r="D929" s="71"/>
       <c r="E929" s="43"/>
       <c r="F929" s="17"/>
@@ -40352,8 +42282,12 @@
     </row>
     <row r="930">
       <c r="A930" s="12"/>
-      <c r="B930" s="40"/>
-      <c r="C930" s="73"/>
+      <c r="B930" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C930" s="66" t="s">
+        <v>1560</v>
+      </c>
       <c r="D930" s="71"/>
       <c r="E930" s="43"/>
       <c r="F930" s="17"/>
@@ -40381,8 +42315,12 @@
     </row>
     <row r="931">
       <c r="A931" s="12"/>
-      <c r="B931" s="40"/>
-      <c r="C931" s="73"/>
+      <c r="B931" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C931" s="66" t="s">
+        <v>1561</v>
+      </c>
       <c r="D931" s="71"/>
       <c r="E931" s="43"/>
       <c r="F931" s="17"/>
@@ -40410,9 +42348,15 @@
     </row>
     <row r="932">
       <c r="A932" s="12"/>
-      <c r="B932" s="40"/>
-      <c r="C932" s="73"/>
-      <c r="D932" s="71"/>
+      <c r="B932" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C932" s="66" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D932" s="65" t="s">
+        <v>1563</v>
+      </c>
       <c r="E932" s="43"/>
       <c r="F932" s="17"/>
       <c r="G932" s="18"/>
@@ -40439,8 +42383,12 @@
     </row>
     <row r="933">
       <c r="A933" s="12"/>
-      <c r="B933" s="40"/>
-      <c r="C933" s="73"/>
+      <c r="B933" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C933" s="66" t="s">
+        <v>1564</v>
+      </c>
       <c r="D933" s="71"/>
       <c r="E933" s="43"/>
       <c r="F933" s="17"/>
@@ -40468,9 +42416,15 @@
     </row>
     <row r="934">
       <c r="A934" s="12"/>
-      <c r="B934" s="40"/>
-      <c r="C934" s="73"/>
-      <c r="D934" s="71"/>
+      <c r="B934" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C934" s="66" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D934" s="65" t="s">
+        <v>1566</v>
+      </c>
       <c r="E934" s="43"/>
       <c r="F934" s="17"/>
       <c r="G934" s="18"/>
@@ -40497,9 +42451,15 @@
     </row>
     <row r="935">
       <c r="A935" s="12"/>
-      <c r="B935" s="40"/>
-      <c r="C935" s="73"/>
-      <c r="D935" s="71"/>
+      <c r="B935" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="C935" s="66" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D935" s="65" t="s">
+        <v>1568</v>
+      </c>
       <c r="E935" s="43"/>
       <c r="F935" s="17"/>
       <c r="G935" s="18"/>
@@ -40526,8 +42486,12 @@
     </row>
     <row r="936">
       <c r="A936" s="12"/>
-      <c r="B936" s="40"/>
-      <c r="C936" s="73"/>
+      <c r="B936" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C936" s="66" t="s">
+        <v>1569</v>
+      </c>
       <c r="D936" s="71"/>
       <c r="E936" s="43"/>
       <c r="F936" s="17"/>
@@ -40555,8 +42519,12 @@
     </row>
     <row r="937">
       <c r="A937" s="12"/>
-      <c r="B937" s="40"/>
-      <c r="C937" s="73"/>
+      <c r="B937" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C937" s="66" t="s">
+        <v>1570</v>
+      </c>
       <c r="D937" s="71"/>
       <c r="E937" s="43"/>
       <c r="F937" s="17"/>
@@ -40584,8 +42552,12 @@
     </row>
     <row r="938">
       <c r="A938" s="12"/>
-      <c r="B938" s="40"/>
-      <c r="C938" s="73"/>
+      <c r="B938" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C938" s="66" t="s">
+        <v>1571</v>
+      </c>
       <c r="D938" s="71"/>
       <c r="E938" s="43"/>
       <c r="F938" s="17"/>
@@ -40613,8 +42585,12 @@
     </row>
     <row r="939">
       <c r="A939" s="12"/>
-      <c r="B939" s="40"/>
-      <c r="C939" s="73"/>
+      <c r="B939" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C939" s="66" t="s">
+        <v>1572</v>
+      </c>
       <c r="D939" s="71"/>
       <c r="E939" s="43"/>
       <c r="F939" s="17"/>
@@ -40642,8 +42618,12 @@
     </row>
     <row r="940">
       <c r="A940" s="12"/>
-      <c r="B940" s="40"/>
-      <c r="C940" s="73"/>
+      <c r="B940" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C940" s="66" t="s">
+        <v>1573</v>
+      </c>
       <c r="D940" s="71"/>
       <c r="E940" s="43"/>
       <c r="F940" s="17"/>
@@ -40671,8 +42651,12 @@
     </row>
     <row r="941">
       <c r="A941" s="12"/>
-      <c r="B941" s="40"/>
-      <c r="C941" s="73"/>
+      <c r="B941" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C941" s="66" t="s">
+        <v>1574</v>
+      </c>
       <c r="D941" s="71"/>
       <c r="E941" s="43"/>
       <c r="F941" s="17"/>
@@ -40700,9 +42684,15 @@
     </row>
     <row r="942">
       <c r="A942" s="12"/>
-      <c r="B942" s="40"/>
-      <c r="C942" s="73"/>
-      <c r="D942" s="71"/>
+      <c r="B942" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C942" s="66" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D942" s="65" t="s">
+        <v>1576</v>
+      </c>
       <c r="E942" s="43"/>
       <c r="F942" s="17"/>
       <c r="G942" s="18"/>
@@ -40729,9 +42719,15 @@
     </row>
     <row r="943">
       <c r="A943" s="12"/>
-      <c r="B943" s="40"/>
-      <c r="C943" s="73"/>
-      <c r="D943" s="71"/>
+      <c r="B943" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C943" s="66" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D943" s="65" t="s">
+        <v>1578</v>
+      </c>
       <c r="E943" s="43"/>
       <c r="F943" s="17"/>
       <c r="G943" s="18"/>
@@ -40758,9 +42754,15 @@
     </row>
     <row r="944">
       <c r="A944" s="12"/>
-      <c r="B944" s="40"/>
-      <c r="C944" s="73"/>
-      <c r="D944" s="71"/>
+      <c r="B944" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C944" s="66" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D944" s="65" t="s">
+        <v>1580</v>
+      </c>
       <c r="E944" s="43"/>
       <c r="F944" s="17"/>
       <c r="G944" s="18"/>
@@ -40787,8 +42789,12 @@
     </row>
     <row r="945">
       <c r="A945" s="12"/>
-      <c r="B945" s="40"/>
-      <c r="C945" s="73"/>
+      <c r="B945" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C945" s="66" t="s">
+        <v>1581</v>
+      </c>
       <c r="D945" s="71"/>
       <c r="E945" s="43"/>
       <c r="F945" s="17"/>
@@ -40816,8 +42822,12 @@
     </row>
     <row r="946">
       <c r="A946" s="12"/>
-      <c r="B946" s="40"/>
-      <c r="C946" s="73"/>
+      <c r="B946" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C946" s="66" t="s">
+        <v>1582</v>
+      </c>
       <c r="D946" s="71"/>
       <c r="E946" s="43"/>
       <c r="F946" s="17"/>
@@ -40845,8 +42855,12 @@
     </row>
     <row r="947">
       <c r="A947" s="12"/>
-      <c r="B947" s="40"/>
-      <c r="C947" s="73"/>
+      <c r="B947" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C947" s="66" t="s">
+        <v>1583</v>
+      </c>
       <c r="D947" s="71"/>
       <c r="E947" s="43"/>
       <c r="F947" s="17"/>
@@ -40874,8 +42888,12 @@
     </row>
     <row r="948">
       <c r="A948" s="12"/>
-      <c r="B948" s="40"/>
-      <c r="C948" s="73"/>
+      <c r="B948" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C948" s="66" t="s">
+        <v>1584</v>
+      </c>
       <c r="D948" s="71"/>
       <c r="E948" s="43"/>
       <c r="F948" s="17"/>
@@ -40903,8 +42921,12 @@
     </row>
     <row r="949">
       <c r="A949" s="12"/>
-      <c r="B949" s="40"/>
-      <c r="C949" s="73"/>
+      <c r="B949" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C949" s="66" t="s">
+        <v>1585</v>
+      </c>
       <c r="D949" s="71"/>
       <c r="E949" s="43"/>
       <c r="F949" s="17"/>
@@ -40932,8 +42954,12 @@
     </row>
     <row r="950">
       <c r="A950" s="12"/>
-      <c r="B950" s="40"/>
-      <c r="C950" s="73"/>
+      <c r="B950" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C950" s="66" t="s">
+        <v>1586</v>
+      </c>
       <c r="D950" s="71"/>
       <c r="E950" s="43"/>
       <c r="F950" s="17"/>
@@ -40961,8 +42987,12 @@
     </row>
     <row r="951">
       <c r="A951" s="12"/>
-      <c r="B951" s="40"/>
-      <c r="C951" s="73"/>
+      <c r="B951" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C951" s="66" t="s">
+        <v>1587</v>
+      </c>
       <c r="D951" s="71"/>
       <c r="E951" s="43"/>
       <c r="F951" s="17"/>
@@ -40990,8 +43020,12 @@
     </row>
     <row r="952">
       <c r="A952" s="12"/>
-      <c r="B952" s="40"/>
-      <c r="C952" s="73"/>
+      <c r="B952" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C952" s="66" t="s">
+        <v>1588</v>
+      </c>
       <c r="D952" s="71"/>
       <c r="E952" s="43"/>
       <c r="F952" s="17"/>
@@ -41019,9 +43053,15 @@
     </row>
     <row r="953">
       <c r="A953" s="12"/>
-      <c r="B953" s="40"/>
-      <c r="C953" s="73"/>
-      <c r="D953" s="71"/>
+      <c r="B953" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C953" s="66" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D953" s="65" t="s">
+        <v>1590</v>
+      </c>
       <c r="E953" s="43"/>
       <c r="F953" s="17"/>
       <c r="G953" s="18"/>
@@ -41048,9 +43088,15 @@
     </row>
     <row r="954">
       <c r="A954" s="12"/>
-      <c r="B954" s="40"/>
-      <c r="C954" s="73"/>
-      <c r="D954" s="71"/>
+      <c r="B954" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C954" s="66" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D954" s="65" t="s">
+        <v>1592</v>
+      </c>
       <c r="E954" s="43"/>
       <c r="F954" s="17"/>
       <c r="G954" s="18"/>
@@ -41077,8 +43123,12 @@
     </row>
     <row r="955">
       <c r="A955" s="12"/>
-      <c r="B955" s="40"/>
-      <c r="C955" s="73"/>
+      <c r="B955" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C955" s="66" t="s">
+        <v>1593</v>
+      </c>
       <c r="D955" s="71"/>
       <c r="E955" s="43"/>
       <c r="F955" s="17"/>
@@ -41106,8 +43156,12 @@
     </row>
     <row r="956">
       <c r="A956" s="12"/>
-      <c r="B956" s="40"/>
-      <c r="C956" s="73"/>
+      <c r="B956" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C956" s="66" t="s">
+        <v>1594</v>
+      </c>
       <c r="D956" s="71"/>
       <c r="E956" s="43"/>
       <c r="F956" s="17"/>
@@ -41135,8 +43189,12 @@
     </row>
     <row r="957">
       <c r="A957" s="12"/>
-      <c r="B957" s="40"/>
-      <c r="C957" s="73"/>
+      <c r="B957" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C957" s="66" t="s">
+        <v>1595</v>
+      </c>
       <c r="D957" s="71"/>
       <c r="E957" s="43"/>
       <c r="F957" s="17"/>
@@ -41164,9 +43222,15 @@
     </row>
     <row r="958">
       <c r="A958" s="12"/>
-      <c r="B958" s="40"/>
-      <c r="C958" s="73"/>
-      <c r="D958" s="71"/>
+      <c r="B958" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C958" s="66" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D958" s="65" t="s">
+        <v>1597</v>
+      </c>
       <c r="E958" s="43"/>
       <c r="F958" s="17"/>
       <c r="G958" s="18"/>
@@ -41193,9 +43257,15 @@
     </row>
     <row r="959">
       <c r="A959" s="12"/>
-      <c r="B959" s="40"/>
-      <c r="C959" s="73"/>
-      <c r="D959" s="71"/>
+      <c r="B959" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C959" s="66" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D959" s="65" t="s">
+        <v>1599</v>
+      </c>
       <c r="E959" s="43"/>
       <c r="F959" s="17"/>
       <c r="G959" s="18"/>
@@ -41222,8 +43292,12 @@
     </row>
     <row r="960">
       <c r="A960" s="12"/>
-      <c r="B960" s="40"/>
-      <c r="C960" s="73"/>
+      <c r="B960" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C960" s="66" t="s">
+        <v>1600</v>
+      </c>
       <c r="D960" s="71"/>
       <c r="E960" s="43"/>
       <c r="F960" s="17"/>
@@ -41251,8 +43325,12 @@
     </row>
     <row r="961">
       <c r="A961" s="12"/>
-      <c r="B961" s="40"/>
-      <c r="C961" s="73"/>
+      <c r="B961" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C961" s="66" t="s">
+        <v>1601</v>
+      </c>
       <c r="D961" s="71"/>
       <c r="E961" s="43"/>
       <c r="F961" s="17"/>
@@ -41280,8 +43358,12 @@
     </row>
     <row r="962">
       <c r="A962" s="12"/>
-      <c r="B962" s="40"/>
-      <c r="C962" s="73"/>
+      <c r="B962" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C962" s="66" t="s">
+        <v>1602</v>
+      </c>
       <c r="D962" s="71"/>
       <c r="E962" s="43"/>
       <c r="F962" s="17"/>
@@ -41309,8 +43391,12 @@
     </row>
     <row r="963">
       <c r="A963" s="12"/>
-      <c r="B963" s="40"/>
-      <c r="C963" s="73"/>
+      <c r="B963" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C963" s="66" t="s">
+        <v>1603</v>
+      </c>
       <c r="D963" s="71"/>
       <c r="E963" s="43"/>
       <c r="F963" s="17"/>
@@ -41338,8 +43424,12 @@
     </row>
     <row r="964">
       <c r="A964" s="12"/>
-      <c r="B964" s="40"/>
-      <c r="C964" s="73"/>
+      <c r="B964" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C964" s="66" t="s">
+        <v>1604</v>
+      </c>
       <c r="D964" s="71"/>
       <c r="E964" s="43"/>
       <c r="F964" s="17"/>
@@ -41367,8 +43457,12 @@
     </row>
     <row r="965">
       <c r="A965" s="12"/>
-      <c r="B965" s="40"/>
-      <c r="C965" s="73"/>
+      <c r="B965" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C965" s="66" t="s">
+        <v>1605</v>
+      </c>
       <c r="D965" s="71"/>
       <c r="E965" s="43"/>
       <c r="F965" s="17"/>
@@ -41396,8 +43490,12 @@
     </row>
     <row r="966">
       <c r="A966" s="12"/>
-      <c r="B966" s="40"/>
-      <c r="C966" s="73"/>
+      <c r="B966" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C966" s="66" t="s">
+        <v>1606</v>
+      </c>
       <c r="D966" s="71"/>
       <c r="E966" s="43"/>
       <c r="F966" s="17"/>
@@ -41425,8 +43523,12 @@
     </row>
     <row r="967">
       <c r="A967" s="12"/>
-      <c r="B967" s="40"/>
-      <c r="C967" s="73"/>
+      <c r="B967" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C967" s="66" t="s">
+        <v>1607</v>
+      </c>
       <c r="D967" s="71"/>
       <c r="E967" s="43"/>
       <c r="F967" s="17"/>
@@ -41454,8 +43556,12 @@
     </row>
     <row r="968">
       <c r="A968" s="12"/>
-      <c r="B968" s="40"/>
-      <c r="C968" s="73"/>
+      <c r="B968" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C968" s="66" t="s">
+        <v>1608</v>
+      </c>
       <c r="D968" s="71"/>
       <c r="E968" s="43"/>
       <c r="F968" s="17"/>
@@ -41483,8 +43589,12 @@
     </row>
     <row r="969">
       <c r="A969" s="12"/>
-      <c r="B969" s="40"/>
-      <c r="C969" s="73"/>
+      <c r="B969" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C969" s="66" t="s">
+        <v>1609</v>
+      </c>
       <c r="D969" s="71"/>
       <c r="E969" s="43"/>
       <c r="F969" s="17"/>
@@ -41512,8 +43622,12 @@
     </row>
     <row r="970">
       <c r="A970" s="12"/>
-      <c r="B970" s="40"/>
-      <c r="C970" s="73"/>
+      <c r="B970" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C970" s="66" t="s">
+        <v>1610</v>
+      </c>
       <c r="D970" s="71"/>
       <c r="E970" s="43"/>
       <c r="F970" s="17"/>
@@ -41541,9 +43655,15 @@
     </row>
     <row r="971">
       <c r="A971" s="12"/>
-      <c r="B971" s="40"/>
-      <c r="C971" s="73"/>
-      <c r="D971" s="71"/>
+      <c r="B971" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C971" s="66" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D971" s="65" t="s">
+        <v>1612</v>
+      </c>
       <c r="E971" s="43"/>
       <c r="F971" s="17"/>
       <c r="G971" s="18"/>
@@ -41570,8 +43690,12 @@
     </row>
     <row r="972">
       <c r="A972" s="12"/>
-      <c r="B972" s="40"/>
-      <c r="C972" s="73"/>
+      <c r="B972" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C972" s="66" t="s">
+        <v>1613</v>
+      </c>
       <c r="D972" s="71"/>
       <c r="E972" s="43"/>
       <c r="F972" s="17"/>
@@ -41599,8 +43723,12 @@
     </row>
     <row r="973">
       <c r="A973" s="12"/>
-      <c r="B973" s="40"/>
-      <c r="C973" s="73"/>
+      <c r="B973" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C973" s="66" t="s">
+        <v>1614</v>
+      </c>
       <c r="D973" s="71"/>
       <c r="E973" s="43"/>
       <c r="F973" s="17"/>
@@ -41628,9 +43756,15 @@
     </row>
     <row r="974">
       <c r="A974" s="12"/>
-      <c r="B974" s="40"/>
-      <c r="C974" s="73"/>
-      <c r="D974" s="71"/>
+      <c r="B974" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C974" s="66" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D974" s="65" t="s">
+        <v>1616</v>
+      </c>
       <c r="E974" s="43"/>
       <c r="F974" s="17"/>
       <c r="G974" s="18"/>
@@ -41657,9 +43791,15 @@
     </row>
     <row r="975">
       <c r="A975" s="12"/>
-      <c r="B975" s="40"/>
-      <c r="C975" s="73"/>
-      <c r="D975" s="71"/>
+      <c r="B975" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C975" s="66" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D975" s="65" t="s">
+        <v>1617</v>
+      </c>
       <c r="E975" s="43"/>
       <c r="F975" s="17"/>
       <c r="G975" s="18"/>
@@ -41686,8 +43826,12 @@
     </row>
     <row r="976">
       <c r="A976" s="12"/>
-      <c r="B976" s="40"/>
-      <c r="C976" s="73"/>
+      <c r="B976" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C976" s="66" t="s">
+        <v>1618</v>
+      </c>
       <c r="D976" s="71"/>
       <c r="E976" s="43"/>
       <c r="F976" s="17"/>
@@ -41715,9 +43859,15 @@
     </row>
     <row r="977">
       <c r="A977" s="12"/>
-      <c r="B977" s="40"/>
-      <c r="C977" s="73"/>
-      <c r="D977" s="71"/>
+      <c r="B977" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C977" s="66" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D977" s="65" t="s">
+        <v>1620</v>
+      </c>
       <c r="E977" s="43"/>
       <c r="F977" s="17"/>
       <c r="G977" s="18"/>
@@ -41744,9 +43894,15 @@
     </row>
     <row r="978">
       <c r="A978" s="12"/>
-      <c r="B978" s="40"/>
-      <c r="C978" s="73"/>
-      <c r="D978" s="71"/>
+      <c r="B978" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C978" s="66" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D978" s="65" t="s">
+        <v>1622</v>
+      </c>
       <c r="E978" s="43"/>
       <c r="F978" s="17"/>
       <c r="G978" s="18"/>
@@ -41773,8 +43929,12 @@
     </row>
     <row r="979">
       <c r="A979" s="12"/>
-      <c r="B979" s="40"/>
-      <c r="C979" s="73"/>
+      <c r="B979" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C979" s="66" t="s">
+        <v>1623</v>
+      </c>
       <c r="D979" s="71"/>
       <c r="E979" s="43"/>
       <c r="F979" s="17"/>
@@ -41802,10 +43962,16 @@
     </row>
     <row r="980">
       <c r="A980" s="12"/>
-      <c r="B980" s="40"/>
-      <c r="C980" s="73"/>
+      <c r="B980" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="C980" s="66" t="s">
+        <v>1624</v>
+      </c>
       <c r="D980" s="71"/>
-      <c r="E980" s="43"/>
+      <c r="E980" s="49" t="s">
+        <v>1625</v>
+      </c>
       <c r="F980" s="17"/>
       <c r="G980" s="18"/>
       <c r="H980" s="19"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -9872,7 +9872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -9935,6 +9935,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.0"/>
+      <color rgb="FF000000"/>
+      <name val="Nunito"/>
     </font>
     <font>
       <b/>
@@ -10055,14 +10061,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4C1130"/>
-        <bgColor rgb="FF4C1130"/>
+        <fgColor rgb="FF741B47"/>
+        <bgColor rgb="FF741B47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor rgb="FF741B47"/>
+        <fgColor rgb="FF4C1130"/>
+        <bgColor rgb="FF4C1130"/>
       </patternFill>
     </fill>
   </fills>
@@ -10115,59 +10121,59 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -10176,121 +10182,121 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1733">
   <si>
     <t>Number</t>
   </si>
@@ -9964,6 +9964,190 @@
   </si>
   <si>
     <t>واحدی برای مسافت حدود ۱.۶ کیلومتر</t>
+  </si>
+  <si>
+    <t>milk (n.)</t>
+  </si>
+  <si>
+    <t>million (n.)</t>
+  </si>
+  <si>
+    <t>minute (n.)</t>
+  </si>
+  <si>
+    <t>miss (v.)</t>
+  </si>
+  <si>
+    <t>گم‌کردن - از دست دادن - دلتنگ‌بودن</t>
+  </si>
+  <si>
+    <t>mistake (n.)</t>
+  </si>
+  <si>
+    <t>model (n.)</t>
+  </si>
+  <si>
+    <t>modern (adj.)</t>
+  </si>
+  <si>
+    <t>moment (n.)</t>
+  </si>
+  <si>
+    <t>monday (n.)</t>
+  </si>
+  <si>
+    <t>money (n.)</t>
+  </si>
+  <si>
+    <t>month (n.)</t>
+  </si>
+  <si>
+    <t>more (pron. adv. det.)</t>
+  </si>
+  <si>
+    <t>morning (n.)</t>
+  </si>
+  <si>
+    <t>most (pron. adv. det.)</t>
+  </si>
+  <si>
+    <t>بیشتر</t>
+  </si>
+  <si>
+    <t>mother (n.)</t>
+  </si>
+  <si>
+    <t>mountain (n.)</t>
+  </si>
+  <si>
+    <t>mouse (n.)</t>
+  </si>
+  <si>
+    <t>mouth (n.)</t>
+  </si>
+  <si>
+    <t>دهان</t>
+  </si>
+  <si>
+    <t>move (v.)</t>
+  </si>
+  <si>
+    <t>حرکت کردن</t>
+  </si>
+  <si>
+    <t>much (pron. adv. det.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">mum (n.) UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">mom AM </t>
+    </r>
+  </si>
+  <si>
+    <t>museum (n.)</t>
+  </si>
+  <si>
+    <t>music (n.)</t>
+  </si>
+  <si>
+    <t>must (modal v.)</t>
+  </si>
+  <si>
+    <t>فعل کمکی باید</t>
+  </si>
+  <si>
+    <t>my (det.)</t>
+  </si>
+  <si>
+    <t>name (n. v.)</t>
+  </si>
+  <si>
+    <t>نامیدن - نام</t>
+  </si>
+  <si>
+    <t>natural (n.)</t>
+  </si>
+  <si>
+    <t>near (prep. adj. adv.)</t>
+  </si>
+  <si>
+    <t>need (v.)</t>
+  </si>
+  <si>
+    <t>negative (adj.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">neighbour (n.) UK / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>neighbor AM</t>
+    </r>
+  </si>
+  <si>
+    <t>never (adv.)</t>
+  </si>
+  <si>
+    <t>new (adj.)</t>
+  </si>
+  <si>
+    <t>news (n.)</t>
+  </si>
+  <si>
+    <t>newspaper (n.)</t>
+  </si>
+  <si>
+    <t>next to (prep.)</t>
+  </si>
+  <si>
+    <t>کنارِ</t>
+  </si>
+  <si>
+    <t>next (n.)</t>
+  </si>
+  <si>
+    <t>nice (adj.)</t>
+  </si>
+  <si>
+    <t>خوب - خوشایند</t>
+  </si>
+  <si>
+    <t>night (n.)</t>
+  </si>
+  <si>
+    <t>nine (number)</t>
+  </si>
+  <si>
+    <t>nineteen (number)</t>
+  </si>
+  <si>
+    <t>ninety (number)</t>
   </si>
 </sst>
 </file>
@@ -45792,8 +45976,12 @@
     </row>
     <row r="1025">
       <c r="A1025" s="55"/>
-      <c r="B1025" s="35"/>
-      <c r="C1025" s="61"/>
+      <c r="B1025" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1025" s="36" t="s">
+        <v>1683</v>
+      </c>
       <c r="D1025" s="40"/>
       <c r="E1025" s="38"/>
       <c r="F1025" s="56"/>
@@ -45821,8 +46009,12 @@
     </row>
     <row r="1026">
       <c r="A1026" s="55"/>
-      <c r="B1026" s="35"/>
-      <c r="C1026" s="61"/>
+      <c r="B1026" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1026" s="36" t="s">
+        <v>1684</v>
+      </c>
       <c r="D1026" s="40"/>
       <c r="E1026" s="38"/>
       <c r="F1026" s="56"/>
@@ -45850,8 +46042,12 @@
     </row>
     <row r="1027">
       <c r="A1027" s="55"/>
-      <c r="B1027" s="35"/>
-      <c r="C1027" s="61"/>
+      <c r="B1027" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1027" s="36" t="s">
+        <v>1685</v>
+      </c>
       <c r="D1027" s="40"/>
       <c r="E1027" s="38"/>
       <c r="F1027" s="56"/>
@@ -45879,10 +46075,16 @@
     </row>
     <row r="1028">
       <c r="A1028" s="55"/>
-      <c r="B1028" s="35"/>
-      <c r="C1028" s="61"/>
+      <c r="B1028" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1028" s="36" t="s">
+        <v>1686</v>
+      </c>
       <c r="D1028" s="40"/>
-      <c r="E1028" s="38"/>
+      <c r="E1028" s="41" t="s">
+        <v>1687</v>
+      </c>
       <c r="F1028" s="56"/>
       <c r="G1028" s="57"/>
       <c r="H1028" s="58"/>
@@ -45908,8 +46110,12 @@
     </row>
     <row r="1029">
       <c r="A1029" s="55"/>
-      <c r="B1029" s="35"/>
-      <c r="C1029" s="61"/>
+      <c r="B1029" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1029" s="36" t="s">
+        <v>1688</v>
+      </c>
       <c r="D1029" s="40"/>
       <c r="E1029" s="38"/>
       <c r="F1029" s="56"/>
@@ -45937,8 +46143,12 @@
     </row>
     <row r="1030">
       <c r="A1030" s="55"/>
-      <c r="B1030" s="35"/>
-      <c r="C1030" s="61"/>
+      <c r="B1030" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1030" s="36" t="s">
+        <v>1689</v>
+      </c>
       <c r="D1030" s="40"/>
       <c r="E1030" s="38"/>
       <c r="F1030" s="56"/>
@@ -45966,8 +46176,12 @@
     </row>
     <row r="1031">
       <c r="A1031" s="55"/>
-      <c r="B1031" s="35"/>
-      <c r="C1031" s="61"/>
+      <c r="B1031" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1031" s="36" t="s">
+        <v>1690</v>
+      </c>
       <c r="D1031" s="40"/>
       <c r="E1031" s="38"/>
       <c r="F1031" s="56"/>
@@ -45995,8 +46209,12 @@
     </row>
     <row r="1032">
       <c r="A1032" s="55"/>
-      <c r="B1032" s="35"/>
-      <c r="C1032" s="61"/>
+      <c r="B1032" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1032" s="36" t="s">
+        <v>1691</v>
+      </c>
       <c r="D1032" s="40"/>
       <c r="E1032" s="38"/>
       <c r="F1032" s="56"/>
@@ -46024,8 +46242,12 @@
     </row>
     <row r="1033">
       <c r="A1033" s="55"/>
-      <c r="B1033" s="35"/>
-      <c r="C1033" s="61"/>
+      <c r="B1033" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1033" s="36" t="s">
+        <v>1692</v>
+      </c>
       <c r="D1033" s="40"/>
       <c r="E1033" s="38"/>
       <c r="F1033" s="56"/>
@@ -46053,8 +46275,12 @@
     </row>
     <row r="1034">
       <c r="A1034" s="55"/>
-      <c r="B1034" s="35"/>
-      <c r="C1034" s="61"/>
+      <c r="B1034" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1034" s="36" t="s">
+        <v>1693</v>
+      </c>
       <c r="D1034" s="40"/>
       <c r="E1034" s="38"/>
       <c r="F1034" s="56"/>
@@ -46082,8 +46308,12 @@
     </row>
     <row r="1035">
       <c r="A1035" s="55"/>
-      <c r="B1035" s="35"/>
-      <c r="C1035" s="61"/>
+      <c r="B1035" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1035" s="36" t="s">
+        <v>1694</v>
+      </c>
       <c r="D1035" s="40"/>
       <c r="E1035" s="38"/>
       <c r="F1035" s="56"/>
@@ -46111,8 +46341,12 @@
     </row>
     <row r="1036">
       <c r="A1036" s="55"/>
-      <c r="B1036" s="35"/>
-      <c r="C1036" s="61"/>
+      <c r="B1036" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1036" s="36" t="s">
+        <v>1695</v>
+      </c>
       <c r="D1036" s="40"/>
       <c r="E1036" s="38"/>
       <c r="F1036" s="56"/>
@@ -46140,8 +46374,12 @@
     </row>
     <row r="1037">
       <c r="A1037" s="55"/>
-      <c r="B1037" s="35"/>
-      <c r="C1037" s="61"/>
+      <c r="B1037" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1037" s="36" t="s">
+        <v>1696</v>
+      </c>
       <c r="D1037" s="40"/>
       <c r="E1037" s="38"/>
       <c r="F1037" s="56"/>
@@ -46169,10 +46407,16 @@
     </row>
     <row r="1038">
       <c r="A1038" s="55"/>
-      <c r="B1038" s="35"/>
-      <c r="C1038" s="61"/>
+      <c r="B1038" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1038" s="36" t="s">
+        <v>1697</v>
+      </c>
       <c r="D1038" s="40"/>
-      <c r="E1038" s="38"/>
+      <c r="E1038" s="41" t="s">
+        <v>1698</v>
+      </c>
       <c r="F1038" s="56"/>
       <c r="G1038" s="57"/>
       <c r="H1038" s="58"/>
@@ -46198,8 +46442,12 @@
     </row>
     <row r="1039">
       <c r="A1039" s="55"/>
-      <c r="B1039" s="35"/>
-      <c r="C1039" s="61"/>
+      <c r="B1039" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1039" s="36" t="s">
+        <v>1699</v>
+      </c>
       <c r="D1039" s="40"/>
       <c r="E1039" s="38"/>
       <c r="F1039" s="56"/>
@@ -46227,8 +46475,12 @@
     </row>
     <row r="1040">
       <c r="A1040" s="55"/>
-      <c r="B1040" s="35"/>
-      <c r="C1040" s="61"/>
+      <c r="B1040" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1040" s="36" t="s">
+        <v>1700</v>
+      </c>
       <c r="D1040" s="40"/>
       <c r="E1040" s="38"/>
       <c r="F1040" s="56"/>
@@ -46256,8 +46508,12 @@
     </row>
     <row r="1041">
       <c r="A1041" s="55"/>
-      <c r="B1041" s="35"/>
-      <c r="C1041" s="61"/>
+      <c r="B1041" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1041" s="36" t="s">
+        <v>1701</v>
+      </c>
       <c r="D1041" s="40"/>
       <c r="E1041" s="38"/>
       <c r="F1041" s="56"/>
@@ -46285,10 +46541,16 @@
     </row>
     <row r="1042">
       <c r="A1042" s="55"/>
-      <c r="B1042" s="35"/>
-      <c r="C1042" s="61"/>
+      <c r="B1042" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1042" s="36" t="s">
+        <v>1702</v>
+      </c>
       <c r="D1042" s="40"/>
-      <c r="E1042" s="38"/>
+      <c r="E1042" s="41" t="s">
+        <v>1703</v>
+      </c>
       <c r="F1042" s="56"/>
       <c r="G1042" s="57"/>
       <c r="H1042" s="58"/>
@@ -46314,10 +46576,16 @@
     </row>
     <row r="1043">
       <c r="A1043" s="55"/>
-      <c r="B1043" s="35"/>
-      <c r="C1043" s="61"/>
+      <c r="B1043" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1043" s="36" t="s">
+        <v>1704</v>
+      </c>
       <c r="D1043" s="40"/>
-      <c r="E1043" s="38"/>
+      <c r="E1043" s="41" t="s">
+        <v>1705</v>
+      </c>
       <c r="F1043" s="56"/>
       <c r="G1043" s="57"/>
       <c r="H1043" s="58"/>
@@ -46343,8 +46611,12 @@
     </row>
     <row r="1044">
       <c r="A1044" s="55"/>
-      <c r="B1044" s="35"/>
-      <c r="C1044" s="61"/>
+      <c r="B1044" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1044" s="36" t="s">
+        <v>1706</v>
+      </c>
       <c r="D1044" s="40"/>
       <c r="E1044" s="38"/>
       <c r="F1044" s="56"/>
@@ -46372,8 +46644,12 @@
     </row>
     <row r="1045">
       <c r="A1045" s="55"/>
-      <c r="B1045" s="35"/>
-      <c r="C1045" s="61"/>
+      <c r="B1045" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1045" s="36" t="s">
+        <v>1707</v>
+      </c>
       <c r="D1045" s="40"/>
       <c r="E1045" s="38"/>
       <c r="F1045" s="56"/>
@@ -46401,8 +46677,12 @@
     </row>
     <row r="1046">
       <c r="A1046" s="55"/>
-      <c r="B1046" s="35"/>
-      <c r="C1046" s="61"/>
+      <c r="B1046" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1046" s="36" t="s">
+        <v>1708</v>
+      </c>
       <c r="D1046" s="40"/>
       <c r="E1046" s="38"/>
       <c r="F1046" s="56"/>
@@ -46430,8 +46710,12 @@
     </row>
     <row r="1047">
       <c r="A1047" s="55"/>
-      <c r="B1047" s="35"/>
-      <c r="C1047" s="61"/>
+      <c r="B1047" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1047" s="36" t="s">
+        <v>1709</v>
+      </c>
       <c r="D1047" s="40"/>
       <c r="E1047" s="38"/>
       <c r="F1047" s="56"/>
@@ -46459,10 +46743,16 @@
     </row>
     <row r="1048">
       <c r="A1048" s="55"/>
-      <c r="B1048" s="35"/>
-      <c r="C1048" s="61"/>
+      <c r="B1048" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1048" s="36" t="s">
+        <v>1710</v>
+      </c>
       <c r="D1048" s="40"/>
-      <c r="E1048" s="38"/>
+      <c r="E1048" s="41" t="s">
+        <v>1711</v>
+      </c>
       <c r="F1048" s="56"/>
       <c r="G1048" s="57"/>
       <c r="H1048" s="58"/>
@@ -46488,8 +46778,12 @@
     </row>
     <row r="1049">
       <c r="A1049" s="55"/>
-      <c r="B1049" s="35"/>
-      <c r="C1049" s="61"/>
+      <c r="B1049" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1049" s="36" t="s">
+        <v>1712</v>
+      </c>
       <c r="D1049" s="40"/>
       <c r="E1049" s="38"/>
       <c r="F1049" s="56"/>
@@ -46517,10 +46811,16 @@
     </row>
     <row r="1050">
       <c r="A1050" s="55"/>
-      <c r="B1050" s="35"/>
-      <c r="C1050" s="61"/>
+      <c r="B1050" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1050" s="36" t="s">
+        <v>1713</v>
+      </c>
       <c r="D1050" s="40"/>
-      <c r="E1050" s="38"/>
+      <c r="E1050" s="41" t="s">
+        <v>1714</v>
+      </c>
       <c r="F1050" s="56"/>
       <c r="G1050" s="57"/>
       <c r="H1050" s="58"/>
@@ -46546,8 +46846,12 @@
     </row>
     <row r="1051">
       <c r="A1051" s="55"/>
-      <c r="B1051" s="35"/>
-      <c r="C1051" s="61"/>
+      <c r="B1051" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1051" s="36" t="s">
+        <v>1715</v>
+      </c>
       <c r="D1051" s="40"/>
       <c r="E1051" s="38"/>
       <c r="F1051" s="56"/>
@@ -46575,8 +46879,12 @@
     </row>
     <row r="1052">
       <c r="A1052" s="55"/>
-      <c r="B1052" s="35"/>
-      <c r="C1052" s="61"/>
+      <c r="B1052" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1052" s="42" t="s">
+        <v>1716</v>
+      </c>
       <c r="D1052" s="40"/>
       <c r="E1052" s="38"/>
       <c r="F1052" s="56"/>
@@ -46604,8 +46912,12 @@
     </row>
     <row r="1053">
       <c r="A1053" s="55"/>
-      <c r="B1053" s="35"/>
-      <c r="C1053" s="61"/>
+      <c r="B1053" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1053" s="36" t="s">
+        <v>1717</v>
+      </c>
       <c r="D1053" s="40"/>
       <c r="E1053" s="38"/>
       <c r="F1053" s="56"/>
@@ -46633,8 +46945,12 @@
     </row>
     <row r="1054">
       <c r="A1054" s="55"/>
-      <c r="B1054" s="35"/>
-      <c r="C1054" s="61"/>
+      <c r="B1054" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1054" s="36" t="s">
+        <v>1718</v>
+      </c>
       <c r="D1054" s="40"/>
       <c r="E1054" s="38"/>
       <c r="F1054" s="56"/>
@@ -46662,8 +46978,12 @@
     </row>
     <row r="1055">
       <c r="A1055" s="55"/>
-      <c r="B1055" s="35"/>
-      <c r="C1055" s="61"/>
+      <c r="B1055" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1055" s="36" t="s">
+        <v>1719</v>
+      </c>
       <c r="D1055" s="40"/>
       <c r="E1055" s="38"/>
       <c r="F1055" s="56"/>
@@ -46691,8 +47011,12 @@
     </row>
     <row r="1056">
       <c r="A1056" s="55"/>
-      <c r="B1056" s="35"/>
-      <c r="C1056" s="61"/>
+      <c r="B1056" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1056" s="36" t="s">
+        <v>1720</v>
+      </c>
       <c r="D1056" s="40"/>
       <c r="E1056" s="38"/>
       <c r="F1056" s="56"/>
@@ -46720,8 +47044,12 @@
     </row>
     <row r="1057">
       <c r="A1057" s="55"/>
-      <c r="B1057" s="35"/>
-      <c r="C1057" s="61"/>
+      <c r="B1057" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1057" s="36" t="s">
+        <v>1721</v>
+      </c>
       <c r="D1057" s="40"/>
       <c r="E1057" s="38"/>
       <c r="F1057" s="56"/>
@@ -46749,8 +47077,12 @@
     </row>
     <row r="1058">
       <c r="A1058" s="55"/>
-      <c r="B1058" s="35"/>
-      <c r="C1058" s="61"/>
+      <c r="B1058" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1058" s="36" t="s">
+        <v>1722</v>
+      </c>
       <c r="D1058" s="40"/>
       <c r="E1058" s="38"/>
       <c r="F1058" s="56"/>
@@ -46778,8 +47110,12 @@
     </row>
     <row r="1059">
       <c r="A1059" s="55"/>
-      <c r="B1059" s="35"/>
-      <c r="C1059" s="61"/>
+      <c r="B1059" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1059" s="36" t="s">
+        <v>1723</v>
+      </c>
       <c r="D1059" s="40"/>
       <c r="E1059" s="38"/>
       <c r="F1059" s="56"/>
@@ -46807,10 +47143,16 @@
     </row>
     <row r="1060">
       <c r="A1060" s="55"/>
-      <c r="B1060" s="35"/>
-      <c r="C1060" s="61"/>
+      <c r="B1060" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1060" s="36" t="s">
+        <v>1724</v>
+      </c>
       <c r="D1060" s="40"/>
-      <c r="E1060" s="38"/>
+      <c r="E1060" s="41" t="s">
+        <v>1725</v>
+      </c>
       <c r="F1060" s="56"/>
       <c r="G1060" s="57"/>
       <c r="H1060" s="58"/>
@@ -46836,8 +47178,12 @@
     </row>
     <row r="1061">
       <c r="A1061" s="55"/>
-      <c r="B1061" s="35"/>
-      <c r="C1061" s="61"/>
+      <c r="B1061" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1061" s="36" t="s">
+        <v>1726</v>
+      </c>
       <c r="D1061" s="40"/>
       <c r="E1061" s="38"/>
       <c r="F1061" s="56"/>
@@ -46865,10 +47211,16 @@
     </row>
     <row r="1062">
       <c r="A1062" s="55"/>
-      <c r="B1062" s="35"/>
-      <c r="C1062" s="61"/>
+      <c r="B1062" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1062" s="36" t="s">
+        <v>1727</v>
+      </c>
       <c r="D1062" s="40"/>
-      <c r="E1062" s="38"/>
+      <c r="E1062" s="41" t="s">
+        <v>1728</v>
+      </c>
       <c r="F1062" s="56"/>
       <c r="G1062" s="57"/>
       <c r="H1062" s="58"/>
@@ -46894,8 +47246,12 @@
     </row>
     <row r="1063">
       <c r="A1063" s="55"/>
-      <c r="B1063" s="35"/>
-      <c r="C1063" s="61"/>
+      <c r="B1063" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1063" s="36" t="s">
+        <v>1729</v>
+      </c>
       <c r="D1063" s="40"/>
       <c r="E1063" s="38"/>
       <c r="F1063" s="56"/>
@@ -46923,8 +47279,12 @@
     </row>
     <row r="1064">
       <c r="A1064" s="55"/>
-      <c r="B1064" s="35"/>
-      <c r="C1064" s="61"/>
+      <c r="B1064" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1064" s="36" t="s">
+        <v>1730</v>
+      </c>
       <c r="D1064" s="40"/>
       <c r="E1064" s="38"/>
       <c r="F1064" s="56"/>
@@ -46952,8 +47312,12 @@
     </row>
     <row r="1065">
       <c r="A1065" s="55"/>
-      <c r="B1065" s="35"/>
-      <c r="C1065" s="61"/>
+      <c r="B1065" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1065" s="36" t="s">
+        <v>1731</v>
+      </c>
       <c r="D1065" s="40"/>
       <c r="E1065" s="38"/>
       <c r="F1065" s="56"/>
@@ -46981,8 +47345,12 @@
     </row>
     <row r="1066">
       <c r="A1066" s="55"/>
-      <c r="B1066" s="35"/>
-      <c r="C1066" s="61"/>
+      <c r="B1066" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1066" s="36" t="s">
+        <v>1732</v>
+      </c>
       <c r="D1066" s="40"/>
       <c r="E1066" s="38"/>
       <c r="F1066" s="56"/>
@@ -47010,7 +47378,9 @@
     </row>
     <row r="1067">
       <c r="A1067" s="55"/>
-      <c r="B1067" s="35"/>
+      <c r="B1067" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="C1067" s="61"/>
       <c r="D1067" s="40"/>
       <c r="E1067" s="38"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1802">
   <si>
     <t>Number</t>
   </si>
@@ -10148,6 +10148,231 @@
   </si>
   <si>
     <t>ninety (number)</t>
+  </si>
+  <si>
+    <t>No (exclam. det.)</t>
+  </si>
+  <si>
+    <t>no one (pron.)</t>
+  </si>
+  <si>
+    <t>nobody (pron.)</t>
+  </si>
+  <si>
+    <t>north (n. adj. adv)</t>
+  </si>
+  <si>
+    <t>شمال - شمالی - به سمت شمال</t>
+  </si>
+  <si>
+    <t>nose (n.)</t>
+  </si>
+  <si>
+    <t>not (n.)</t>
+  </si>
+  <si>
+    <t>note (n.)</t>
+  </si>
+  <si>
+    <t>nothing (pron.)</t>
+  </si>
+  <si>
+    <t>november (n.)</t>
+  </si>
+  <si>
+    <t>now (adv.)</t>
+  </si>
+  <si>
+    <t>number (n.)</t>
+  </si>
+  <si>
+    <t>nurse (n.)</t>
+  </si>
+  <si>
+    <t>object (n.)</t>
+  </si>
+  <si>
+    <t>شیء - مفعول</t>
+  </si>
+  <si>
+    <t>o'clock (adv.)</t>
+  </si>
+  <si>
+    <t>october (n.)</t>
+  </si>
+  <si>
+    <t>of (prep.)</t>
+  </si>
+  <si>
+    <t>از ...</t>
+  </si>
+  <si>
+    <t>off (adv. prep.)</t>
+  </si>
+  <si>
+    <t>office (n.)</t>
+  </si>
+  <si>
+    <t>often (ad.)</t>
+  </si>
+  <si>
+    <t>OK (exclam. adj. adv.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK's origins are disputed; however, most modern reference works hold that it originated around Boston as part of a fad for abbreviations using misspellings in the late 1830s, and originally stood for "oll korrect" ("all correct"). This origin was first described by linguist Allen Walker Read in the 1960s. </t>
+  </si>
+  <si>
+    <t>old (adj.)</t>
+  </si>
+  <si>
+    <t>on (prep. adv.)</t>
+  </si>
+  <si>
+    <t>روی - روشن - در مسیر</t>
+  </si>
+  <si>
+    <t>once (adv.)</t>
+  </si>
+  <si>
+    <t>one (number det. pron.)</t>
+  </si>
+  <si>
+    <t>onion (n.)</t>
+  </si>
+  <si>
+    <t>online (adj. adv.)</t>
+  </si>
+  <si>
+    <t>only (adj. adv.)</t>
+  </si>
+  <si>
+    <t>open (adj. v.)</t>
+  </si>
+  <si>
+    <t>opinion (n.)</t>
+  </si>
+  <si>
+    <t>opposite (n. adj. prep. adv.)</t>
+  </si>
+  <si>
+    <t>or (conj.)</t>
+  </si>
+  <si>
+    <t>orange (n. adj.)</t>
+  </si>
+  <si>
+    <t>order (n. v.)</t>
+  </si>
+  <si>
+    <t>other (adj. pron.)</t>
+  </si>
+  <si>
+    <t>our (det.)</t>
+  </si>
+  <si>
+    <t>out (adv. prep.)</t>
+  </si>
+  <si>
+    <t>outside (adv.)</t>
+  </si>
+  <si>
+    <t>over (prep. adv.)</t>
+  </si>
+  <si>
+    <t>روی - بیش‌از</t>
+  </si>
+  <si>
+    <t>own (adj. pron.)</t>
+  </si>
+  <si>
+    <t>page (n.)</t>
+  </si>
+  <si>
+    <t>paint (n. v.)</t>
+  </si>
+  <si>
+    <t>painting (n.)</t>
+  </si>
+  <si>
+    <t>pair (n.)</t>
+  </si>
+  <si>
+    <t>paper (n.)</t>
+  </si>
+  <si>
+    <t>paragraph (n.)</t>
+  </si>
+  <si>
+    <t>parent (n.)</t>
+  </si>
+  <si>
+    <t>park (n. v.)</t>
+  </si>
+  <si>
+    <t>part (n.)</t>
+  </si>
+  <si>
+    <t>partner (n.)</t>
+  </si>
+  <si>
+    <t>party (n.)</t>
+  </si>
+  <si>
+    <t>passport (n.)</t>
+  </si>
+  <si>
+    <t>past (n. adj. prep.)</t>
+  </si>
+  <si>
+    <t>pay (v.)</t>
+  </si>
+  <si>
+    <t>pen (n.)</t>
+  </si>
+  <si>
+    <t>pencil (n.)</t>
+  </si>
+  <si>
+    <t>people (n.)</t>
+  </si>
+  <si>
+    <t>pepper (n.)</t>
+  </si>
+  <si>
+    <t>perfect (adj.)</t>
+  </si>
+  <si>
+    <t>period (n.) (cycle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">period (n.) AM (dot)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>full stop (n.) UK (dot</t>
+    </r>
+  </si>
+  <si>
+    <t>person (n.)</t>
+  </si>
+  <si>
+    <t>personal (adj.)</t>
+  </si>
+  <si>
+    <t>شخصی</t>
   </si>
 </sst>
 </file>
@@ -47381,7 +47606,9 @@
       <c r="B1067" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C1067" s="61"/>
+      <c r="C1067" s="36" t="s">
+        <v>1733</v>
+      </c>
       <c r="D1067" s="40"/>
       <c r="E1067" s="38"/>
       <c r="F1067" s="56"/>
@@ -47409,8 +47636,12 @@
     </row>
     <row r="1068">
       <c r="A1068" s="55"/>
-      <c r="B1068" s="35"/>
-      <c r="C1068" s="61"/>
+      <c r="B1068" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1068" s="36" t="s">
+        <v>1734</v>
+      </c>
       <c r="D1068" s="40"/>
       <c r="E1068" s="38"/>
       <c r="F1068" s="56"/>
@@ -47438,8 +47669,12 @@
     </row>
     <row r="1069">
       <c r="A1069" s="55"/>
-      <c r="B1069" s="35"/>
-      <c r="C1069" s="61"/>
+      <c r="B1069" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1069" s="36" t="s">
+        <v>1735</v>
+      </c>
       <c r="D1069" s="40"/>
       <c r="E1069" s="38"/>
       <c r="F1069" s="56"/>
@@ -47467,10 +47702,16 @@
     </row>
     <row r="1070">
       <c r="A1070" s="55"/>
-      <c r="B1070" s="35"/>
-      <c r="C1070" s="61"/>
+      <c r="B1070" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1070" s="36" t="s">
+        <v>1736</v>
+      </c>
       <c r="D1070" s="40"/>
-      <c r="E1070" s="38"/>
+      <c r="E1070" s="41" t="s">
+        <v>1737</v>
+      </c>
       <c r="F1070" s="56"/>
       <c r="G1070" s="57"/>
       <c r="H1070" s="58"/>
@@ -47496,8 +47737,12 @@
     </row>
     <row r="1071">
       <c r="A1071" s="55"/>
-      <c r="B1071" s="35"/>
-      <c r="C1071" s="61"/>
+      <c r="B1071" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1071" s="36" t="s">
+        <v>1738</v>
+      </c>
       <c r="D1071" s="40"/>
       <c r="E1071" s="38"/>
       <c r="F1071" s="56"/>
@@ -47525,8 +47770,12 @@
     </row>
     <row r="1072">
       <c r="A1072" s="55"/>
-      <c r="B1072" s="35"/>
-      <c r="C1072" s="61"/>
+      <c r="B1072" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1072" s="36" t="s">
+        <v>1739</v>
+      </c>
       <c r="D1072" s="40"/>
       <c r="E1072" s="38"/>
       <c r="F1072" s="56"/>
@@ -47554,8 +47803,12 @@
     </row>
     <row r="1073">
       <c r="A1073" s="55"/>
-      <c r="B1073" s="35"/>
-      <c r="C1073" s="61"/>
+      <c r="B1073" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1073" s="36" t="s">
+        <v>1740</v>
+      </c>
       <c r="D1073" s="40"/>
       <c r="E1073" s="38"/>
       <c r="F1073" s="56"/>
@@ -47583,8 +47836,12 @@
     </row>
     <row r="1074">
       <c r="A1074" s="55"/>
-      <c r="B1074" s="35"/>
-      <c r="C1074" s="61"/>
+      <c r="B1074" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1074" s="36" t="s">
+        <v>1741</v>
+      </c>
       <c r="D1074" s="40"/>
       <c r="E1074" s="38"/>
       <c r="F1074" s="56"/>
@@ -47612,8 +47869,12 @@
     </row>
     <row r="1075">
       <c r="A1075" s="55"/>
-      <c r="B1075" s="35"/>
-      <c r="C1075" s="61"/>
+      <c r="B1075" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1075" s="36" t="s">
+        <v>1742</v>
+      </c>
       <c r="D1075" s="40"/>
       <c r="E1075" s="38"/>
       <c r="F1075" s="56"/>
@@ -47641,8 +47902,12 @@
     </row>
     <row r="1076">
       <c r="A1076" s="55"/>
-      <c r="B1076" s="35"/>
-      <c r="C1076" s="61"/>
+      <c r="B1076" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1076" s="36" t="s">
+        <v>1743</v>
+      </c>
       <c r="D1076" s="40"/>
       <c r="E1076" s="38"/>
       <c r="F1076" s="56"/>
@@ -47670,8 +47935,12 @@
     </row>
     <row r="1077">
       <c r="A1077" s="55"/>
-      <c r="B1077" s="35"/>
-      <c r="C1077" s="61"/>
+      <c r="B1077" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1077" s="36" t="s">
+        <v>1744</v>
+      </c>
       <c r="D1077" s="40"/>
       <c r="E1077" s="38"/>
       <c r="F1077" s="56"/>
@@ -47699,8 +47968,12 @@
     </row>
     <row r="1078">
       <c r="A1078" s="55"/>
-      <c r="B1078" s="35"/>
-      <c r="C1078" s="61"/>
+      <c r="B1078" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1078" s="36" t="s">
+        <v>1745</v>
+      </c>
       <c r="D1078" s="40"/>
       <c r="E1078" s="38"/>
       <c r="F1078" s="56"/>
@@ -47728,10 +48001,16 @@
     </row>
     <row r="1079">
       <c r="A1079" s="55"/>
-      <c r="B1079" s="35"/>
-      <c r="C1079" s="61"/>
+      <c r="B1079" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1079" s="36" t="s">
+        <v>1746</v>
+      </c>
       <c r="D1079" s="40"/>
-      <c r="E1079" s="38"/>
+      <c r="E1079" s="41" t="s">
+        <v>1747</v>
+      </c>
       <c r="F1079" s="56"/>
       <c r="G1079" s="57"/>
       <c r="H1079" s="58"/>
@@ -47757,8 +48036,12 @@
     </row>
     <row r="1080">
       <c r="A1080" s="55"/>
-      <c r="B1080" s="35"/>
-      <c r="C1080" s="61"/>
+      <c r="B1080" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1080" s="36" t="s">
+        <v>1748</v>
+      </c>
       <c r="D1080" s="40"/>
       <c r="E1080" s="38"/>
       <c r="F1080" s="56"/>
@@ -47786,8 +48069,12 @@
     </row>
     <row r="1081">
       <c r="A1081" s="55"/>
-      <c r="B1081" s="35"/>
-      <c r="C1081" s="61"/>
+      <c r="B1081" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1081" s="36" t="s">
+        <v>1749</v>
+      </c>
       <c r="D1081" s="40"/>
       <c r="E1081" s="38"/>
       <c r="F1081" s="56"/>
@@ -47815,10 +48102,16 @@
     </row>
     <row r="1082">
       <c r="A1082" s="55"/>
-      <c r="B1082" s="35"/>
-      <c r="C1082" s="61"/>
+      <c r="B1082" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1082" s="36" t="s">
+        <v>1750</v>
+      </c>
       <c r="D1082" s="40"/>
-      <c r="E1082" s="38"/>
+      <c r="E1082" s="41" t="s">
+        <v>1751</v>
+      </c>
       <c r="F1082" s="56"/>
       <c r="G1082" s="57"/>
       <c r="H1082" s="58"/>
@@ -47844,8 +48137,12 @@
     </row>
     <row r="1083">
       <c r="A1083" s="55"/>
-      <c r="B1083" s="35"/>
-      <c r="C1083" s="61"/>
+      <c r="B1083" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1083" s="36" t="s">
+        <v>1752</v>
+      </c>
       <c r="D1083" s="40"/>
       <c r="E1083" s="38"/>
       <c r="F1083" s="56"/>
@@ -47873,8 +48170,12 @@
     </row>
     <row r="1084">
       <c r="A1084" s="55"/>
-      <c r="B1084" s="35"/>
-      <c r="C1084" s="61"/>
+      <c r="B1084" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1084" s="36" t="s">
+        <v>1753</v>
+      </c>
       <c r="D1084" s="40"/>
       <c r="E1084" s="38"/>
       <c r="F1084" s="56"/>
@@ -47902,8 +48203,12 @@
     </row>
     <row r="1085">
       <c r="A1085" s="55"/>
-      <c r="B1085" s="35"/>
-      <c r="C1085" s="61"/>
+      <c r="B1085" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1085" s="36" t="s">
+        <v>1754</v>
+      </c>
       <c r="D1085" s="40"/>
       <c r="E1085" s="38"/>
       <c r="F1085" s="56"/>
@@ -47931,9 +48236,15 @@
     </row>
     <row r="1086">
       <c r="A1086" s="55"/>
-      <c r="B1086" s="35"/>
-      <c r="C1086" s="61"/>
-      <c r="D1086" s="40"/>
+      <c r="B1086" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1086" s="36" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1086" s="37" t="s">
+        <v>1756</v>
+      </c>
       <c r="E1086" s="38"/>
       <c r="F1086" s="56"/>
       <c r="G1086" s="57"/>
@@ -47960,8 +48271,12 @@
     </row>
     <row r="1087">
       <c r="A1087" s="55"/>
-      <c r="B1087" s="35"/>
-      <c r="C1087" s="61"/>
+      <c r="B1087" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1087" s="36" t="s">
+        <v>1757</v>
+      </c>
       <c r="D1087" s="40"/>
       <c r="E1087" s="38"/>
       <c r="F1087" s="56"/>
@@ -47989,10 +48304,16 @@
     </row>
     <row r="1088">
       <c r="A1088" s="55"/>
-      <c r="B1088" s="35"/>
-      <c r="C1088" s="61"/>
+      <c r="B1088" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1088" s="36" t="s">
+        <v>1758</v>
+      </c>
       <c r="D1088" s="40"/>
-      <c r="E1088" s="38"/>
+      <c r="E1088" s="41" t="s">
+        <v>1759</v>
+      </c>
       <c r="F1088" s="56"/>
       <c r="G1088" s="57"/>
       <c r="H1088" s="58"/>
@@ -48018,8 +48339,12 @@
     </row>
     <row r="1089">
       <c r="A1089" s="55"/>
-      <c r="B1089" s="35"/>
-      <c r="C1089" s="61"/>
+      <c r="B1089" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1089" s="36" t="s">
+        <v>1760</v>
+      </c>
       <c r="D1089" s="40"/>
       <c r="E1089" s="38"/>
       <c r="F1089" s="56"/>
@@ -48047,8 +48372,12 @@
     </row>
     <row r="1090">
       <c r="A1090" s="55"/>
-      <c r="B1090" s="35"/>
-      <c r="C1090" s="61"/>
+      <c r="B1090" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1090" s="36" t="s">
+        <v>1761</v>
+      </c>
       <c r="D1090" s="40"/>
       <c r="E1090" s="38"/>
       <c r="F1090" s="56"/>
@@ -48076,8 +48405,12 @@
     </row>
     <row r="1091">
       <c r="A1091" s="55"/>
-      <c r="B1091" s="35"/>
-      <c r="C1091" s="61"/>
+      <c r="B1091" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1091" s="36" t="s">
+        <v>1762</v>
+      </c>
       <c r="D1091" s="40"/>
       <c r="E1091" s="38"/>
       <c r="F1091" s="56"/>
@@ -48105,8 +48438,12 @@
     </row>
     <row r="1092">
       <c r="A1092" s="55"/>
-      <c r="B1092" s="35"/>
-      <c r="C1092" s="61"/>
+      <c r="B1092" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1092" s="36" t="s">
+        <v>1763</v>
+      </c>
       <c r="D1092" s="40"/>
       <c r="E1092" s="38"/>
       <c r="F1092" s="56"/>
@@ -48134,8 +48471,12 @@
     </row>
     <row r="1093">
       <c r="A1093" s="55"/>
-      <c r="B1093" s="35"/>
-      <c r="C1093" s="61"/>
+      <c r="B1093" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1093" s="36" t="s">
+        <v>1764</v>
+      </c>
       <c r="D1093" s="40"/>
       <c r="E1093" s="38"/>
       <c r="F1093" s="56"/>
@@ -48163,8 +48504,12 @@
     </row>
     <row r="1094">
       <c r="A1094" s="55"/>
-      <c r="B1094" s="35"/>
-      <c r="C1094" s="61"/>
+      <c r="B1094" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1094" s="36" t="s">
+        <v>1765</v>
+      </c>
       <c r="D1094" s="40"/>
       <c r="E1094" s="38"/>
       <c r="F1094" s="56"/>
@@ -48192,8 +48537,12 @@
     </row>
     <row r="1095">
       <c r="A1095" s="55"/>
-      <c r="B1095" s="35"/>
-      <c r="C1095" s="61"/>
+      <c r="B1095" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1095" s="36" t="s">
+        <v>1766</v>
+      </c>
       <c r="D1095" s="40"/>
       <c r="E1095" s="38"/>
       <c r="F1095" s="56"/>
@@ -48221,8 +48570,12 @@
     </row>
     <row r="1096">
       <c r="A1096" s="55"/>
-      <c r="B1096" s="35"/>
-      <c r="C1096" s="61"/>
+      <c r="B1096" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1096" s="36" t="s">
+        <v>1767</v>
+      </c>
       <c r="D1096" s="40"/>
       <c r="E1096" s="38"/>
       <c r="F1096" s="56"/>
@@ -48250,8 +48603,12 @@
     </row>
     <row r="1097">
       <c r="A1097" s="55"/>
-      <c r="B1097" s="35"/>
-      <c r="C1097" s="61"/>
+      <c r="B1097" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1097" s="36" t="s">
+        <v>1768</v>
+      </c>
       <c r="D1097" s="40"/>
       <c r="E1097" s="38"/>
       <c r="F1097" s="56"/>
@@ -48279,8 +48636,12 @@
     </row>
     <row r="1098">
       <c r="A1098" s="55"/>
-      <c r="B1098" s="35"/>
-      <c r="C1098" s="61"/>
+      <c r="B1098" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1098" s="36" t="s">
+        <v>1769</v>
+      </c>
       <c r="D1098" s="40"/>
       <c r="E1098" s="38"/>
       <c r="F1098" s="56"/>
@@ -48308,8 +48669,12 @@
     </row>
     <row r="1099">
       <c r="A1099" s="55"/>
-      <c r="B1099" s="35"/>
-      <c r="C1099" s="61"/>
+      <c r="B1099" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1099" s="36" t="s">
+        <v>1770</v>
+      </c>
       <c r="D1099" s="40"/>
       <c r="E1099" s="38"/>
       <c r="F1099" s="56"/>
@@ -48337,8 +48702,12 @@
     </row>
     <row r="1100">
       <c r="A1100" s="55"/>
-      <c r="B1100" s="35"/>
-      <c r="C1100" s="61"/>
+      <c r="B1100" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1100" s="36" t="s">
+        <v>1771</v>
+      </c>
       <c r="D1100" s="40"/>
       <c r="E1100" s="38"/>
       <c r="F1100" s="56"/>
@@ -48366,8 +48735,12 @@
     </row>
     <row r="1101">
       <c r="A1101" s="55"/>
-      <c r="B1101" s="35"/>
-      <c r="C1101" s="61"/>
+      <c r="B1101" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1101" s="36" t="s">
+        <v>1772</v>
+      </c>
       <c r="D1101" s="40"/>
       <c r="E1101" s="38"/>
       <c r="F1101" s="56"/>
@@ -48395,8 +48768,12 @@
     </row>
     <row r="1102">
       <c r="A1102" s="55"/>
-      <c r="B1102" s="35"/>
-      <c r="C1102" s="61"/>
+      <c r="B1102" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1102" s="36" t="s">
+        <v>1773</v>
+      </c>
       <c r="D1102" s="40"/>
       <c r="E1102" s="38"/>
       <c r="F1102" s="56"/>
@@ -48424,8 +48801,12 @@
     </row>
     <row r="1103">
       <c r="A1103" s="55"/>
-      <c r="B1103" s="35"/>
-      <c r="C1103" s="61"/>
+      <c r="B1103" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1103" s="36" t="s">
+        <v>1774</v>
+      </c>
       <c r="D1103" s="40"/>
       <c r="E1103" s="38"/>
       <c r="F1103" s="56"/>
@@ -48453,10 +48834,16 @@
     </row>
     <row r="1104">
       <c r="A1104" s="55"/>
-      <c r="B1104" s="35"/>
-      <c r="C1104" s="61"/>
+      <c r="B1104" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1104" s="36" t="s">
+        <v>1775</v>
+      </c>
       <c r="D1104" s="40"/>
-      <c r="E1104" s="38"/>
+      <c r="E1104" s="41" t="s">
+        <v>1776</v>
+      </c>
       <c r="F1104" s="56"/>
       <c r="G1104" s="57"/>
       <c r="H1104" s="58"/>
@@ -48482,8 +48869,12 @@
     </row>
     <row r="1105">
       <c r="A1105" s="55"/>
-      <c r="B1105" s="35"/>
-      <c r="C1105" s="61"/>
+      <c r="B1105" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1105" s="36" t="s">
+        <v>1777</v>
+      </c>
       <c r="D1105" s="40"/>
       <c r="E1105" s="38"/>
       <c r="F1105" s="56"/>
@@ -48511,8 +48902,12 @@
     </row>
     <row r="1106">
       <c r="A1106" s="55"/>
-      <c r="B1106" s="35"/>
-      <c r="C1106" s="61"/>
+      <c r="B1106" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1106" s="36" t="s">
+        <v>1778</v>
+      </c>
       <c r="D1106" s="40"/>
       <c r="E1106" s="38"/>
       <c r="F1106" s="56"/>
@@ -48540,8 +48935,12 @@
     </row>
     <row r="1107">
       <c r="A1107" s="55"/>
-      <c r="B1107" s="35"/>
-      <c r="C1107" s="61"/>
+      <c r="B1107" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1107" s="36" t="s">
+        <v>1779</v>
+      </c>
       <c r="D1107" s="40"/>
       <c r="E1107" s="38"/>
       <c r="F1107" s="56"/>
@@ -48569,8 +48968,12 @@
     </row>
     <row r="1108">
       <c r="A1108" s="55"/>
-      <c r="B1108" s="35"/>
-      <c r="C1108" s="61"/>
+      <c r="B1108" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1108" s="36" t="s">
+        <v>1780</v>
+      </c>
       <c r="D1108" s="40"/>
       <c r="E1108" s="38"/>
       <c r="F1108" s="56"/>
@@ -48598,8 +49001,12 @@
     </row>
     <row r="1109">
       <c r="A1109" s="55"/>
-      <c r="B1109" s="35"/>
-      <c r="C1109" s="61"/>
+      <c r="B1109" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1109" s="36" t="s">
+        <v>1781</v>
+      </c>
       <c r="D1109" s="40"/>
       <c r="E1109" s="38"/>
       <c r="F1109" s="56"/>
@@ -48627,8 +49034,12 @@
     </row>
     <row r="1110">
       <c r="A1110" s="55"/>
-      <c r="B1110" s="35"/>
-      <c r="C1110" s="61"/>
+      <c r="B1110" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1110" s="36" t="s">
+        <v>1782</v>
+      </c>
       <c r="D1110" s="40"/>
       <c r="E1110" s="38"/>
       <c r="F1110" s="56"/>
@@ -48656,8 +49067,12 @@
     </row>
     <row r="1111">
       <c r="A1111" s="55"/>
-      <c r="B1111" s="35"/>
-      <c r="C1111" s="61"/>
+      <c r="B1111" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1111" s="36" t="s">
+        <v>1783</v>
+      </c>
       <c r="D1111" s="40"/>
       <c r="E1111" s="38"/>
       <c r="F1111" s="56"/>
@@ -48685,8 +49100,12 @@
     </row>
     <row r="1112">
       <c r="A1112" s="55"/>
-      <c r="B1112" s="35"/>
-      <c r="C1112" s="61"/>
+      <c r="B1112" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1112" s="36" t="s">
+        <v>1784</v>
+      </c>
       <c r="D1112" s="40"/>
       <c r="E1112" s="38"/>
       <c r="F1112" s="56"/>
@@ -48714,8 +49133,12 @@
     </row>
     <row r="1113">
       <c r="A1113" s="55"/>
-      <c r="B1113" s="35"/>
-      <c r="C1113" s="61"/>
+      <c r="B1113" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1113" s="36" t="s">
+        <v>1785</v>
+      </c>
       <c r="D1113" s="40"/>
       <c r="E1113" s="38"/>
       <c r="F1113" s="56"/>
@@ -48743,8 +49166,12 @@
     </row>
     <row r="1114">
       <c r="A1114" s="55"/>
-      <c r="B1114" s="35"/>
-      <c r="C1114" s="61"/>
+      <c r="B1114" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1114" s="36" t="s">
+        <v>1786</v>
+      </c>
       <c r="D1114" s="40"/>
       <c r="E1114" s="38"/>
       <c r="F1114" s="56"/>
@@ -48772,8 +49199,12 @@
     </row>
     <row r="1115">
       <c r="A1115" s="55"/>
-      <c r="B1115" s="35"/>
-      <c r="C1115" s="61"/>
+      <c r="B1115" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1115" s="36" t="s">
+        <v>1787</v>
+      </c>
       <c r="D1115" s="40"/>
       <c r="E1115" s="38"/>
       <c r="F1115" s="56"/>
@@ -48801,8 +49232,12 @@
     </row>
     <row r="1116">
       <c r="A1116" s="55"/>
-      <c r="B1116" s="35"/>
-      <c r="C1116" s="61"/>
+      <c r="B1116" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1116" s="36" t="s">
+        <v>1788</v>
+      </c>
       <c r="D1116" s="40"/>
       <c r="E1116" s="38"/>
       <c r="F1116" s="56"/>
@@ -48830,8 +49265,12 @@
     </row>
     <row r="1117">
       <c r="A1117" s="55"/>
-      <c r="B1117" s="35"/>
-      <c r="C1117" s="61"/>
+      <c r="B1117" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1117" s="36" t="s">
+        <v>1789</v>
+      </c>
       <c r="D1117" s="40"/>
       <c r="E1117" s="38"/>
       <c r="F1117" s="56"/>
@@ -48859,8 +49298,12 @@
     </row>
     <row r="1118">
       <c r="A1118" s="55"/>
-      <c r="B1118" s="35"/>
-      <c r="C1118" s="61"/>
+      <c r="B1118" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1118" s="36" t="s">
+        <v>1790</v>
+      </c>
       <c r="D1118" s="40"/>
       <c r="E1118" s="38"/>
       <c r="F1118" s="56"/>
@@ -48888,8 +49331,12 @@
     </row>
     <row r="1119">
       <c r="A1119" s="55"/>
-      <c r="B1119" s="35"/>
-      <c r="C1119" s="61"/>
+      <c r="B1119" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1119" s="36" t="s">
+        <v>1791</v>
+      </c>
       <c r="D1119" s="40"/>
       <c r="E1119" s="38"/>
       <c r="F1119" s="56"/>
@@ -48917,8 +49364,12 @@
     </row>
     <row r="1120">
       <c r="A1120" s="55"/>
-      <c r="B1120" s="35"/>
-      <c r="C1120" s="61"/>
+      <c r="B1120" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1120" s="36" t="s">
+        <v>1792</v>
+      </c>
       <c r="D1120" s="40"/>
       <c r="E1120" s="38"/>
       <c r="F1120" s="56"/>
@@ -48946,8 +49397,12 @@
     </row>
     <row r="1121">
       <c r="A1121" s="55"/>
-      <c r="B1121" s="35"/>
-      <c r="C1121" s="61"/>
+      <c r="B1121" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1121" s="36" t="s">
+        <v>1793</v>
+      </c>
       <c r="D1121" s="40"/>
       <c r="E1121" s="38"/>
       <c r="F1121" s="56"/>
@@ -48975,8 +49430,12 @@
     </row>
     <row r="1122">
       <c r="A1122" s="55"/>
-      <c r="B1122" s="35"/>
-      <c r="C1122" s="61"/>
+      <c r="B1122" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1122" s="36" t="s">
+        <v>1794</v>
+      </c>
       <c r="D1122" s="40"/>
       <c r="E1122" s="38"/>
       <c r="F1122" s="56"/>
@@ -49004,8 +49463,12 @@
     </row>
     <row r="1123">
       <c r="A1123" s="55"/>
-      <c r="B1123" s="35"/>
-      <c r="C1123" s="61"/>
+      <c r="B1123" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1123" s="36" t="s">
+        <v>1795</v>
+      </c>
       <c r="D1123" s="40"/>
       <c r="E1123" s="38"/>
       <c r="F1123" s="56"/>
@@ -49033,8 +49496,12 @@
     </row>
     <row r="1124">
       <c r="A1124" s="55"/>
-      <c r="B1124" s="35"/>
-      <c r="C1124" s="61"/>
+      <c r="B1124" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1124" s="36" t="s">
+        <v>1796</v>
+      </c>
       <c r="D1124" s="40"/>
       <c r="E1124" s="38"/>
       <c r="F1124" s="56"/>
@@ -49062,8 +49529,12 @@
     </row>
     <row r="1125">
       <c r="A1125" s="55"/>
-      <c r="B1125" s="35"/>
-      <c r="C1125" s="61"/>
+      <c r="B1125" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1125" s="36" t="s">
+        <v>1797</v>
+      </c>
       <c r="D1125" s="40"/>
       <c r="E1125" s="38"/>
       <c r="F1125" s="56"/>
@@ -49091,8 +49562,12 @@
     </row>
     <row r="1126">
       <c r="A1126" s="55"/>
-      <c r="B1126" s="35"/>
-      <c r="C1126" s="61"/>
+      <c r="B1126" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1126" s="36" t="s">
+        <v>1798</v>
+      </c>
       <c r="D1126" s="40"/>
       <c r="E1126" s="38"/>
       <c r="F1126" s="56"/>
@@ -49120,8 +49595,12 @@
     </row>
     <row r="1127">
       <c r="A1127" s="55"/>
-      <c r="B1127" s="35"/>
-      <c r="C1127" s="61"/>
+      <c r="B1127" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1127" s="36" t="s">
+        <v>1799</v>
+      </c>
       <c r="D1127" s="40"/>
       <c r="E1127" s="38"/>
       <c r="F1127" s="56"/>
@@ -49149,10 +49628,16 @@
     </row>
     <row r="1128">
       <c r="A1128" s="55"/>
-      <c r="B1128" s="35"/>
-      <c r="C1128" s="61"/>
+      <c r="B1128" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1128" s="36" t="s">
+        <v>1800</v>
+      </c>
       <c r="D1128" s="40"/>
-      <c r="E1128" s="38"/>
+      <c r="E1128" s="41" t="s">
+        <v>1801</v>
+      </c>
       <c r="F1128" s="56"/>
       <c r="G1128" s="57"/>
       <c r="H1128" s="58"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1803">
   <si>
     <t>Number</t>
   </si>
@@ -10373,6 +10373,9 @@
   </si>
   <si>
     <t>شخصی</t>
+  </si>
+  <si>
+    <t>phone (n.)</t>
   </si>
 </sst>
 </file>
@@ -49663,8 +49666,12 @@
     </row>
     <row r="1129">
       <c r="A1129" s="55"/>
-      <c r="B1129" s="35"/>
-      <c r="C1129" s="61"/>
+      <c r="B1129" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1129" s="36" t="s">
+        <v>1802</v>
+      </c>
       <c r="D1129" s="40"/>
       <c r="E1129" s="38"/>
       <c r="F1129" s="56"/>

--- a/Excell/All Words A0 B2.xlsx
+++ b/Excell/All Words A0 B2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1845">
   <si>
     <t>Number</t>
   </si>
@@ -10376,6 +10376,149 @@
   </si>
   <si>
     <t>phone (n.)</t>
+  </si>
+  <si>
+    <t>photo (n.)</t>
+  </si>
+  <si>
+    <t>photograph (n.)</t>
+  </si>
+  <si>
+    <t>phrase (n.)</t>
+  </si>
+  <si>
+    <t>piano (n.)</t>
+  </si>
+  <si>
+    <t>picture (n.)</t>
+  </si>
+  <si>
+    <t>piece (n.)</t>
+  </si>
+  <si>
+    <t>تکه - قطعه</t>
+  </si>
+  <si>
+    <t>pig (n.)</t>
+  </si>
+  <si>
+    <t>pink (n. adj.)</t>
+  </si>
+  <si>
+    <t>place (n.)</t>
+  </si>
+  <si>
+    <t>plane (n.)</t>
+  </si>
+  <si>
+    <t>plant (n.)</t>
+  </si>
+  <si>
+    <t>گیاه</t>
+  </si>
+  <si>
+    <t>play (n. v.)</t>
+  </si>
+  <si>
+    <t>player (n.)</t>
+  </si>
+  <si>
+    <t>please (exclam)</t>
+  </si>
+  <si>
+    <t>point (n.)</t>
+  </si>
+  <si>
+    <t>police (n.)</t>
+  </si>
+  <si>
+    <t>policeman (n.)</t>
+  </si>
+  <si>
+    <t>افسر پلیس</t>
+  </si>
+  <si>
+    <t>pool (n.)</t>
+  </si>
+  <si>
+    <t>poor (adj.)</t>
+  </si>
+  <si>
+    <t>popular (adj.)</t>
+  </si>
+  <si>
+    <t>positive (adj.)</t>
+  </si>
+  <si>
+    <t>possible (adj.)</t>
+  </si>
+  <si>
+    <t>post (n. v.)</t>
+  </si>
+  <si>
+    <t>potato (n.)</t>
+  </si>
+  <si>
+    <t>سیب‌زمینی</t>
+  </si>
+  <si>
+    <t>pound (n.)</t>
+  </si>
+  <si>
+    <t>واحد پول -واحد وزن</t>
+  </si>
+  <si>
+    <t>practice (n.)</t>
+  </si>
+  <si>
+    <t>تمرین</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">practice (v.) AM / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>practise UK</t>
+    </r>
+  </si>
+  <si>
+    <t>تمرین کردن</t>
+  </si>
+  <si>
+    <t>prefer (v.)</t>
+  </si>
+  <si>
+    <t>prepare (v.)</t>
+  </si>
+  <si>
+    <t>present (n. adj.)</t>
+  </si>
+  <si>
+    <t>هدیه - حاضر - اکنون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretty (adj. adv.) </t>
+  </si>
+  <si>
+    <t>price (n.)</t>
+  </si>
+  <si>
+    <t>probably (adv.)</t>
+  </si>
+  <si>
+    <t>احتمالا</t>
   </si>
 </sst>
 </file>
@@ -49699,8 +49842,12 @@
     </row>
     <row r="1130">
       <c r="A1130" s="55"/>
-      <c r="B1130" s="35"/>
-      <c r="C1130" s="61"/>
+      <c r="B1130" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1130" s="36" t="s">
+        <v>1803</v>
+      </c>
       <c r="D1130" s="40"/>
       <c r="E1130" s="38"/>
       <c r="F1130" s="56"/>
@@ -49728,8 +49875,12 @@
     </row>
     <row r="1131">
       <c r="A1131" s="55"/>
-      <c r="B1131" s="35"/>
-      <c r="C1131" s="61"/>
+      <c r="B1131" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1131" s="36" t="s">
+        <v>1804</v>
+      </c>
       <c r="D1131" s="40"/>
       <c r="E1131" s="38"/>
       <c r="F1131" s="56"/>
@@ -49757,8 +49908,12 @@
     </row>
     <row r="1132">
       <c r="A1132" s="55"/>
-      <c r="B1132" s="35"/>
-      <c r="C1132" s="61"/>
+      <c r="B1132" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1132" s="36" t="s">
+        <v>1805</v>
+      </c>
       <c r="D1132" s="40"/>
       <c r="E1132" s="38"/>
       <c r="F1132" s="56"/>
@@ -49786,8 +49941,12 @@
     </row>
     <row r="1133">
       <c r="A1133" s="55"/>
-      <c r="B1133" s="35"/>
-      <c r="C1133" s="61"/>
+      <c r="B1133" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1133" s="36" t="s">
+        <v>1806</v>
+      </c>
       <c r="D1133" s="40"/>
       <c r="E1133" s="38"/>
       <c r="F1133" s="56"/>
@@ -49815,8 +49974,12 @@
     </row>
     <row r="1134">
       <c r="A1134" s="55"/>
-      <c r="B1134" s="35"/>
-      <c r="C1134" s="61"/>
+      <c r="B1134" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1134" s="36" t="s">
+        <v>1807</v>
+      </c>
       <c r="D1134" s="40"/>
       <c r="E1134" s="38"/>
       <c r="F1134" s="56"/>
@@ -49844,10 +50007,16 @@
     </row>
     <row r="1135">
       <c r="A1135" s="55"/>
-      <c r="B1135" s="35"/>
-      <c r="C1135" s="61"/>
+      <c r="B1135" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1135" s="36" t="s">
+        <v>1808</v>
+      </c>
       <c r="D1135" s="40"/>
-      <c r="E1135" s="38"/>
+      <c r="E1135" s="41" t="s">
+        <v>1809</v>
+      </c>
       <c r="F1135" s="56"/>
       <c r="G1135" s="57"/>
       <c r="H1135" s="58"/>
@@ -49873,8 +50042,12 @@
     </row>
     <row r="1136">
       <c r="A1136" s="55"/>
-      <c r="B1136" s="35"/>
-      <c r="C1136" s="61"/>
+      <c r="B1136" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1136" s="36" t="s">
+        <v>1810</v>
+      </c>
       <c r="D1136" s="40"/>
       <c r="E1136" s="38"/>
       <c r="F1136" s="56"/>
@@ -49902,8 +50075,12 @@
     </row>
     <row r="1137">
       <c r="A1137" s="55"/>
-      <c r="B1137" s="35"/>
-      <c r="C1137" s="61"/>
+      <c r="B1137" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1137" s="36" t="s">
+        <v>1811</v>
+      </c>
       <c r="D1137" s="40"/>
       <c r="E1137" s="38"/>
       <c r="F1137" s="56"/>
@@ -49931,8 +50108,12 @@
     </row>
     <row r="1138">
       <c r="A1138" s="55"/>
-      <c r="B1138" s="35"/>
-      <c r="C1138" s="61"/>
+      <c r="B1138" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1138" s="36" t="s">
+        <v>1812</v>
+      </c>
       <c r="D1138" s="40"/>
       <c r="E1138" s="38"/>
       <c r="F1138" s="56"/>
@@ -49960,10 +50141,16 @@
     </row>
     <row r="1139">
       <c r="A1139" s="55"/>
-      <c r="B1139" s="35"/>
-      <c r="C1139" s="61"/>
+      <c r="B1139" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1139" s="36" t="s">
+        <v>1813</v>
+      </c>
       <c r="D1139" s="40"/>
-      <c r="E1139" s="38"/>
+      <c r="E1139" s="41" t="s">
+        <v>939</v>
+      </c>
       <c r="F1139" s="56"/>
       <c r="G1139" s="57"/>
       <c r="H1139" s="58"/>
@@ -49989,10 +50176,16 @@
     </row>
     <row r="1140">
       <c r="A1140" s="55"/>
-      <c r="B1140" s="35"/>
-      <c r="C1140" s="61"/>
+      <c r="B1140" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1140" s="36" t="s">
+        <v>1814</v>
+      </c>
       <c r="D1140" s="40"/>
-      <c r="E1140" s="38"/>
+      <c r="E1140" s="41" t="s">
+        <v>1815</v>
+      </c>
       <c r="F1140" s="56"/>
       <c r="G1140" s="57"/>
       <c r="H1140" s="58"/>
@@ -50018,8 +50211,12 @@
     </row>
     <row r="1141">
       <c r="A1141" s="55"/>
-      <c r="B1141" s="35"/>
-      <c r="C1141" s="61"/>
+      <c r="B1141" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1141" s="36" t="s">
+        <v>1816</v>
+      </c>
       <c r="D1141" s="40"/>
       <c r="E1141" s="38"/>
       <c r="F1141" s="56"/>
@@ -50047,8 +50244,12 @@
     </row>
     <row r="1142">
       <c r="A1142" s="55"/>
-      <c r="B1142" s="35"/>
-      <c r="C1142" s="61"/>
+      <c r="B1142" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1142" s="36" t="s">
+        <v>1817</v>
+      </c>
       <c r="D1142" s="40"/>
       <c r="E1142" s="38"/>
       <c r="F1142" s="56"/>
@@ -50076,8 +50277,12 @@
     </row>
     <row r="1143">
       <c r="A1143" s="55"/>
-      <c r="B1143" s="35"/>
-      <c r="C1143" s="61"/>
+      <c r="B1143" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1143" s="36" t="s">
+        <v>1818</v>
+      </c>
       <c r="D1143" s="40"/>
       <c r="E1143" s="38"/>
       <c r="F1143" s="56"/>
@@ -50105,8 +50310,12 @@
     </row>
     <row r="1144">
       <c r="A1144" s="55"/>
-      <c r="B1144" s="35"/>
-      <c r="C1144" s="61"/>
+      <c r="B1144" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1144" s="36" t="s">
+        <v>1819</v>
+      </c>
       <c r="D1144" s="40"/>
       <c r="E1144" s="38"/>
       <c r="F1144" s="56"/>
@@ -50134,8 +50343,12 @@
     </row>
     <row r="1145">
       <c r="A1145" s="55"/>
-      <c r="B1145" s="35"/>
-      <c r="C1145" s="61"/>
+      <c r="B1145" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1145" s="36" t="s">
+        <v>1820</v>
+      </c>
       <c r="D1145" s="40"/>
       <c r="E1145" s="38"/>
       <c r="F1145" s="56"/>
@@ -50163,10 +50376,16 @@
     </row>
     <row r="1146">
       <c r="A1146" s="55"/>
-      <c r="B1146" s="35"/>
-      <c r="C1146" s="61"/>
+      <c r="B1146" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1146" s="36" t="s">
+        <v>1821</v>
+      </c>
       <c r="D1146" s="40"/>
-      <c r="E1146" s="38"/>
+      <c r="E1146" s="41" t="s">
+        <v>1822</v>
+      </c>
       <c r="F1146" s="56"/>
       <c r="G1146" s="57"/>
       <c r="H1146" s="58"/>
@@ -50192,8 +50411,12 @@
     </row>
     <row r="1147">
       <c r="A1147" s="55"/>
-      <c r="B1147" s="35"/>
-      <c r="C1147" s="61"/>
+      <c r="B1147" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1147" s="36" t="s">
+        <v>1823</v>
+      </c>
       <c r="D1147" s="40"/>
       <c r="E1147" s="38"/>
       <c r="F1147" s="56"/>
@@ -50221,8 +50444,12 @@
     </row>
     <row r="1148">
       <c r="A1148" s="55"/>
-      <c r="B1148" s="35"/>
-      <c r="C1148" s="61"/>
+      <c r="B1148" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1148" s="36" t="s">
+        <v>1824</v>
+      </c>
       <c r="D1148" s="40"/>
       <c r="E1148" s="38"/>
       <c r="F1148" s="56"/>
@@ -50250,8 +50477,12 @@
     </row>
     <row r="1149">
       <c r="A1149" s="55"/>
-      <c r="B1149" s="35"/>
-      <c r="C1149" s="61"/>
+      <c r="B1149" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1149" s="36" t="s">
+        <v>1825</v>
+      </c>
       <c r="D1149" s="40"/>
       <c r="E1149" s="38"/>
       <c r="F1149" s="56"/>
@@ -50279,8 +50510,12 @@
     </row>
     <row r="1150">
       <c r="A1150" s="55"/>
-      <c r="B1150" s="35"/>
-      <c r="C1150" s="61"/>
+      <c r="B1150" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1150" s="36" t="s">
+        <v>1826</v>
+      </c>
       <c r="D1150" s="40"/>
       <c r="E1150" s="38"/>
       <c r="F1150" s="56"/>
@@ -50308,8 +50543,12 @@
     </row>
     <row r="1151">
       <c r="A1151" s="55"/>
-      <c r="B1151" s="35"/>
-      <c r="C1151" s="61"/>
+      <c r="B1151" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1151" s="36" t="s">
+        <v>1827</v>
+      </c>
       <c r="D1151" s="40"/>
       <c r="E1151" s="38"/>
       <c r="F1151" s="56"/>
@@ -50337,8 +50576,12 @@
     </row>
     <row r="1152">
       <c r="A1152" s="55"/>
-      <c r="B1152" s="35"/>
-      <c r="C1152" s="61"/>
+      <c r="B1152" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1152" s="36" t="s">
+        <v>1828</v>
+      </c>
       <c r="D1152" s="40"/>
       <c r="E1152" s="38"/>
       <c r="F1152" s="56"/>
@@ -50366,10 +50609,16 @@
     </row>
     <row r="1153">
       <c r="A1153" s="55"/>
-      <c r="B1153" s="35"/>
-      <c r="C1153" s="61"/>
+      <c r="B1153" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1153" s="36" t="s">
+        <v>1829</v>
+      </c>
       <c r="D1153" s="40"/>
-      <c r="E1153" s="38"/>
+      <c r="E1153" s="41" t="s">
+        <v>1830</v>
+      </c>
       <c r="F1153" s="56"/>
       <c r="G1153" s="57"/>
       <c r="H1153" s="58"/>
@@ -50395,10 +50644,16 @@
     </row>
     <row r="1154">
       <c r="A1154" s="55"/>
-      <c r="B1154" s="35"/>
-      <c r="C1154" s="61"/>
+      <c r="B1154" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1154" s="36" t="s">
+        <v>1831</v>
+      </c>
       <c r="D1154" s="40"/>
-      <c r="E1154" s="38"/>
+      <c r="E1154" s="41" t="s">
+        <v>1832</v>
+      </c>
       <c r="F1154" s="56"/>
       <c r="G1154" s="57"/>
       <c r="H1154" s="58"/>
@@ -50424,10 +50679,16 @@
     </row>
     <row r="1155">
       <c r="A1155" s="55"/>
-      <c r="B1155" s="35"/>
-      <c r="C1155" s="61"/>
+      <c r="B1155" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1155" s="36" t="s">
+        <v>1833</v>
+      </c>
       <c r="D1155" s="40"/>
-      <c r="E1155" s="38"/>
+      <c r="E1155" s="41" t="s">
+        <v>1834</v>
+      </c>
       <c r="F1155" s="56"/>
       <c r="G1155" s="57"/>
       <c r="H1155" s="58"/>
@@ -50453,10 +50714,16 @@
     </row>
     <row r="1156">
       <c r="A1156" s="55"/>
-      <c r="B1156" s="35"/>
-      <c r="C1156" s="61"/>
+      <c r="B1156" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1156" s="36" t="s">
+        <v>1835</v>
+      </c>
       <c r="D1156" s="40"/>
-      <c r="E1156" s="38"/>
+      <c r="E1156" s="41" t="s">
+        <v>1836</v>
+      </c>
       <c r="F1156" s="56"/>
       <c r="G1156" s="57"/>
       <c r="H1156" s="58"/>
@@ -50482,8 +50749,12 @@
     </row>
     <row r="1157">
       <c r="A1157" s="55"/>
-      <c r="B1157" s="35"/>
-      <c r="C1157" s="61"/>
+      <c r="B1157" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1157" s="36" t="s">
+        <v>1837</v>
+      </c>
       <c r="D1157" s="40"/>
       <c r="E1157" s="38"/>
       <c r="F1157" s="56"/>
@@ -50511,8 +50782,12 @@
     </row>
     <row r="1158">
       <c r="A1158" s="55"/>
-      <c r="B1158" s="35"/>
-      <c r="C1158" s="61"/>
+      <c r="B1158" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1158" s="36" t="s">
+        <v>1838</v>
+      </c>
       <c r="D1158" s="40"/>
       <c r="E1158" s="38"/>
       <c r="F1158" s="56"/>
@@ -50540,10 +50815,16 @@
     </row>
     <row r="1159">
       <c r="A1159" s="55"/>
-      <c r="B1159" s="35"/>
-      <c r="C1159" s="61"/>
+      <c r="B1159" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1159" s="36" t="s">
+        <v>1839</v>
+      </c>
       <c r="D1159" s="40"/>
-      <c r="E1159" s="38"/>
+      <c r="E1159" s="41" t="s">
+        <v>1840</v>
+      </c>
       <c r="F1159" s="56"/>
       <c r="G1159" s="57"/>
       <c r="H1159" s="58"/>
@@ -50569,8 +50850,12 @@
     </row>
     <row r="1160">
       <c r="A1160" s="55"/>
-      <c r="B1160" s="35"/>
-      <c r="C1160" s="61"/>
+      <c r="B1160" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1160" s="36" t="s">
+        <v>1841</v>
+      </c>
       <c r="D1160" s="40"/>
       <c r="E1160" s="38"/>
       <c r="F1160" s="56"/>
@@ -50598,8 +50883,12 @@
     </row>
     <row r="1161">
       <c r="A1161" s="55"/>
-      <c r="B1161" s="35"/>
-      <c r="C1161" s="61"/>
+      <c r="B1161" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1161" s="36" t="s">
+        <v>1842</v>
+      </c>
       <c r="D1161" s="40"/>
       <c r="E1161" s="38"/>
       <c r="F1161" s="56"/>
@@ -50627,10 +50916,16 @@
     </row>
     <row r="1162">
       <c r="A1162" s="55"/>
-      <c r="B1162" s="35"/>
-      <c r="C1162" s="61"/>
+      <c r="B1162" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1162" s="36" t="s">
+        <v>1843</v>
+      </c>
       <c r="D1162" s="40"/>
-      <c r="E1162" s="38"/>
+      <c r="E1162" s="41" t="s">
+        <v>1844</v>
+      </c>
       <c r="F1162" s="56"/>
       <c r="G1162" s="57"/>
       <c r="H1162" s="58"/>
@@ -50656,7 +50951,9 @@
     </row>
     <row r="1163">
       <c r="A1163" s="55"/>
-      <c r="B1163" s="35"/>
+      <c r="B1163" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="C1163" s="61"/>
       <c r="D1163" s="40"/>
       <c r="E1163" s="38"/>
